--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -58,8 +58,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -553,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0199746</v>
+                  <v>0.020381</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0223711</v>
+                  <v>0.0231567</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0279843</v>
+                  <v>0.0281757</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0374557</v>
+                  <v>0.0352799</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0541003</v>
+                  <v>0.04539</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0739308</v>
+                  <v>0.06491429999999999</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0908332</v>
+                  <v>0.0891632</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.119418</v>
+                  <v>0.112722</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0160955</v>
+                  <v>0.017053</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0165233</v>
+                  <v>0.0176131</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0170052</v>
+                  <v>0.018294</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0176545</v>
+                  <v>0.019009</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.018734</v>
+                  <v>0.0202027</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.020118</v>
+                  <v>0.0216873</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0231423</v>
+                  <v>0.0238871</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0275752</v>
+                  <v>0.0283309</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0337269</v>
+                  <v>0.0347629</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0441174</v>
+                  <v>0.0427405</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0560327</v>
+                  <v>0.0557526</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0735251</v>
+                  <v>0.0731723</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.09810720000000001</v>
+                  <v>0.0958377</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.118682</v>
+                  <v>0.12115</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0168617</v>
+                  <v>0.0167999</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.017117</v>
+                  <v>0.017383</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0179684</v>
+                  <v>0.0183382</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.018842</v>
+                  <v>0.0193988</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.020762</v>
+                  <v>0.0205537</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0229493</v>
+                  <v>0.0226966</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0261253</v>
+                  <v>0.0250047</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0299548</v>
+                  <v>0.0309238</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0351932</v>
+                  <v>0.0361738</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0437828</v>
+                  <v>0.0455675</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0554948</v>
+                  <v>0.0564017</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.07231650000000001</v>
+                  <v>0.0722527</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.09074749999999999</v>
+                  <v>0.09413820000000001</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.117374</v>
+                  <v>0.118638</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0170956</v>
+                  <v>0.0174142</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0178543</v>
+                  <v>0.0181997</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0189841</v>
+                  <v>0.0191908</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0200948</v>
+                  <v>0.0204403</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0217684</v>
+                  <v>0.021836</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0244338</v>
+                  <v>0.0239224</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0277674</v>
+                  <v>0.0276839</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0324631</v>
+                  <v>0.0315092</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0387566</v>
+                  <v>0.0372217</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.044976</v>
+                  <v>0.0454352</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0559175</v>
+                  <v>0.0550601</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0710027</v>
+                  <v>0.0703042</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0908212</v>
+                  <v>0.0905224</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.117424</v>
+                  <v>0.115437</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.140864</v>
+                  <v>0.1408</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0189027</v>
+                  <v>0.0192387</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0201008</v>
+                  <v>0.0204627</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.021583</v>
+                  <v>0.0220737</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0235148</v>
+                  <v>0.0239349</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0261005</v>
+                  <v>0.0262923</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0293833</v>
+                  <v>0.0297657</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0337692</v>
+                  <v>0.0341001</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0392899</v>
+                  <v>0.0395028</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.046662</v>
+                  <v>0.0465838</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0562823</v>
+                  <v>0.0559668</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0701638</v>
+                  <v>0.0699388</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0890341</v>
+                  <v>0.0889996</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.114833</v>
+                  <v>0.114856</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.144939</v>
+                  <v>0.145398</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0197502</v>
+                  <v>0.0196969</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0210028</v>
+                  <v>0.02093</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0227789</v>
+                  <v>0.0224969</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0246593</v>
+                  <v>0.0245783</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0270269</v>
+                  <v>0.027095</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302493</v>
+                  <v>0.0303959</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0342455</v>
+                  <v>0.0348732</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0395435</v>
+                  <v>0.0401107</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0466214</v>
+                  <v>0.0469689</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0559597</v>
+                  <v>0.056182</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0685593</v>
+                  <v>0.0692083</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0867699</v>
+                  <v>0.0876976</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.111201</v>
+                  <v>0.112624</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.141494</v>
+                  <v>0.143056</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0200207</v>
+                  <v>0.0203051</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0212269</v>
+                  <v>0.0214311</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0226945</v>
+                  <v>0.0227951</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0246895</v>
+                  <v>0.0248606</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0274303</v>
+                  <v>0.0274961</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0301632</v>
+                  <v>0.0304265</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0343383</v>
+                  <v>0.034491</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0393209</v>
+                  <v>0.0392189</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0454285</v>
+                  <v>0.0454425</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0543419</v>
+                  <v>0.054124</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.06590409999999999</v>
+                  <v>0.0660497</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.08316999999999999</v>
+                  <v>0.0833161</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.106615</v>
+                  <v>0.107117</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.136838</v>
+                  <v>0.137068</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0207148</v>
+                  <v>0.0205917</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0218231</v>
+                  <v>0.0217319</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0235618</v>
+                  <v>0.0234086</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0254205</v>
+                  <v>0.0249196</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0277238</v>
+                  <v>0.0271441</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0309717</v>
+                  <v>0.0301186</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.034493</v>
+                  <v>0.034225</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0401348</v>
+                  <v>0.0395874</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0464552</v>
+                  <v>0.046425</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0546064</v>
+                  <v>0.0547381</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.065411</v>
+                  <v>0.0655719</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08111790000000001</v>
+                  <v>0.0810201</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.10261</v>
+                  <v>0.103131</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.131855</v>
+                  <v>0.132455</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.167859</v>
+                  <v>0.167936</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0308739</v>
+                  <v>0.0314641</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.032613</v>
+                  <v>0.0327748</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.034221</v>
+                  <v>0.0344387</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0360225</v>
+                  <v>0.0359115</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0383657</v>
+                  <v>0.0384212</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0408546</v>
+                  <v>0.0411013</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0441552</v>
+                  <v>0.0443196</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0485179</v>
+                  <v>0.0490798</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0552273</v>
+                  <v>0.0556472</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.06492580000000001</v>
+                  <v>0.0652692</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0791367</v>
+                  <v>0.080124</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0999347</v>
+                  <v>0.100594</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.128094</v>
+                  <v>0.128412</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.163548</v>
+                  <v>0.163387</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0346339</v>
+                  <v>0.0342733</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0355354</v>
+                  <v>0.0354023</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0372352</v>
+                  <v>0.0369613</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0385047</v>
+                  <v>0.0386997</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0411049</v>
+                  <v>0.0406429</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0439798</v>
+                  <v>0.0434292</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.04739</v>
+                  <v>0.0467513</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0521658</v>
+                  <v>0.0511822</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0586895</v>
+                  <v>0.0585649</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0680711</v>
+                  <v>0.0673728</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0820838</v>
+                  <v>0.08104450000000001</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.101855</v>
+                  <v>0.101034</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.12951</v>
+                  <v>0.128826</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.163867</v>
+                  <v>0.16274</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0468922</v>
+                  <v>0.0471946</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0482012</v>
+                  <v>0.0480173</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0491648</v>
+                  <v>0.0491618</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0527207</v>
+                  <v>0.0504992</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0528154</v>
+                  <v>0.0529453</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.055782</v>
+                  <v>0.0554429</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +986,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <v>boost::unordered_flat_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0185839</v>
+                  <v>0.0243821</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0180835</v>
+                  <v>0.0263419</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0186575</v>
+                  <v>0.03189</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0219409</v>
+                  <v>0.0372784</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0348619</v>
+                  <v>0.0515556</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.046746</v>
+                  <v>0.06764829999999999</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0887013</v>
+                  <v>0.08149480000000001</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.119804</v>
+                  <v>0.129222</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0180709</v>
+                  <v>0.0208127</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0184204</v>
+                  <v>0.0213278</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0189457</v>
+                  <v>0.0218828</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0193755</v>
+                  <v>0.02263</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0198448</v>
+                  <v>0.0232512</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.020306</v>
+                  <v>0.0241428</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0209034</v>
+                  <v>0.0268695</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0227075</v>
+                  <v>0.0288871</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0253999</v>
+                  <v>0.0328262</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0319034</v>
+                  <v>0.0390993</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0383341</v>
+                  <v>0.0470423</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0568493</v>
+                  <v>0.0633778</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0838647</v>
+                  <v>0.088602</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.131653</v>
+                  <v>0.13405</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0187591</v>
+                  <v>0.0214978</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0191409</v>
+                  <v>0.0219645</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0197405</v>
+                  <v>0.0227306</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.020439</v>
+                  <v>0.0236983</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0212415</v>
+                  <v>0.0246423</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0219892</v>
+                  <v>0.025917</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0234121</v>
+                  <v>0.0281203</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0264304</v>
+                  <v>0.0305191</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0302305</v>
+                  <v>0.0351044</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0366198</v>
+                  <v>0.0407874</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0459437</v>
+                  <v>0.0501899</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0594599</v>
+                  <v>0.06329070000000001</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0878531</v>
+                  <v>0.0883089</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.129282</v>
+                  <v>0.125523</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0198852</v>
+                  <v>0.0226441</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0203496</v>
+                  <v>0.0231278</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0210131</v>
+                  <v>0.0239266</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0216736</v>
+                  <v>0.024755</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0228112</v>
+                  <v>0.0260181</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0240973</v>
+                  <v>0.0274856</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0257658</v>
+                  <v>0.0292543</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0290975</v>
+                  <v>0.0326774</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0349767</v>
+                  <v>0.0370439</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0398391</v>
+                  <v>0.0430271</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0491529</v>
+                  <v>0.0514098</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.06340750000000001</v>
+                  <v>0.0649906</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0843724</v>
+                  <v>0.0841389</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.121267</v>
+                  <v>0.117343</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.167097</v>
+                  <v>0.163332</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0213247</v>
+                  <v>0.0241041</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0219345</v>
+                  <v>0.0248142</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.022889</v>
+                  <v>0.0258859</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0238477</v>
+                  <v>0.0269065</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0253224</v>
+                  <v>0.0285555</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0275992</v>
+                  <v>0.0308138</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0302451</v>
+                  <v>0.0334128</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0345438</v>
+                  <v>0.0373409</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0408319</v>
+                  <v>0.043244</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0492235</v>
+                  <v>0.0514921</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.061553</v>
+                  <v>0.0631197</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0805206</v>
+                  <v>0.08064549999999999</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.113447</v>
+                  <v>0.111224</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.161291</v>
+                  <v>0.156782</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0217627</v>
+                  <v>0.0246273</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.022553</v>
+                  <v>0.0254874</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0235574</v>
+                  <v>0.026515</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0246975</v>
+                  <v>0.0276786</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0260874</v>
+                  <v>0.0291119</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0279758</v>
+                  <v>0.0311576</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.030811</v>
+                  <v>0.0339469</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.034622</v>
+                  <v>0.0377205</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0402214</v>
+                  <v>0.0430427</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.047952</v>
+                  <v>0.0505867</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0592906</v>
+                  <v>0.0612508</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.07559440000000001</v>
+                  <v>0.0763192</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.103124</v>
+                  <v>0.101765</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.148399</v>
+                  <v>0.144347</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0223391</v>
+                  <v>0.0253488</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0231769</v>
+                  <v>0.026265</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0241129</v>
+                  <v>0.0271908</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0252673</v>
+                  <v>0.0284288</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0268372</v>
+                  <v>0.03001</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0286828</v>
+                  <v>0.0319039</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0310672</v>
+                  <v>0.0343672</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0345672</v>
+                  <v>0.0378547</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0394295</v>
+                  <v>0.0426376</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0468561</v>
+                  <v>0.0498571</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0569589</v>
+                  <v>0.059631</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.07245</v>
+                  <v>0.0742997</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.09784569999999999</v>
+                  <v>0.0979019</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.139669</v>
+                  <v>0.137136</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0237499</v>
+                  <v>0.0270102</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0249294</v>
+                  <v>0.0282021</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0266465</v>
+                  <v>0.0301873</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0293475</v>
+                  <v>0.0330636</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0325618</v>
+                  <v>0.0367725</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0359918</v>
+                  <v>0.0404956</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0391962</v>
+                  <v>0.0438179</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0423199</v>
+                  <v>0.0472354</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0459227</v>
+                  <v>0.0509235</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0516739</v>
+                  <v>0.0560138</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0586182</v>
+                  <v>0.06314790000000001</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.07141210000000001</v>
+                  <v>0.07436619999999999</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.09303640000000001</v>
+                  <v>0.0937021</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.131746</v>
+                  <v>0.129268</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.183631</v>
+                  <v>0.180556</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0382801</v>
+                  <v>0.0432623</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0392846</v>
+                  <v>0.0443061</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.040221</v>
+                  <v>0.0453678</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0413197</v>
+                  <v>0.0466564</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0426685</v>
+                  <v>0.0481</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0443478</v>
+                  <v>0.0498885</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0465075</v>
+                  <v>0.0522653</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0495102</v>
+                  <v>0.0552329</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0538235</v>
+                  <v>0.0592122</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0601526</v>
+                  <v>0.0652914</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0710412</v>
+                  <v>0.0749547</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0895113</v>
+                  <v>0.09116730000000001</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.122948</v>
+                  <v>0.12157</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.172866</v>
+                  <v>0.169666</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0424721</v>
+                  <v>0.0485409</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0434258</v>
+                  <v>0.0498932</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.044818</v>
+                  <v>0.0510164</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0458006</v>
+                  <v>0.0521044</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0473031</v>
+                  <v>0.0539084</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0493497</v>
+                  <v>0.0557247</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0516778</v>
+                  <v>0.0579581</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0546998</v>
+                  <v>0.0612119</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0591634</v>
+                  <v>0.0655746</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0653265</v>
+                  <v>0.07118579999999999</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0752591</v>
+                  <v>0.0805454</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0919177</v>
+                  <v>0.0955641</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.121142</v>
+                  <v>0.122167</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.1684</v>
+                  <v>0.166136</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0552701</v>
+                  <v>0.0632577</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0564094</v>
+                  <v>0.0643639</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0574369</v>
+                  <v>0.0654462</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0586381</v>
+                  <v>0.0668815</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0601686</v>
+                  <v>0.0683774</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0620335</v>
+                  <v>0.07045510000000001</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2341,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0201621</v>
+                  <v>0.0213141</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0205927</v>
+                  <v>0.0220012</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0213328</v>
+                  <v>0.0228637</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0224255</v>
+                  <v>0.0244676</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0228236</v>
+                  <v>0.0259604</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0246502</v>
+                  <v>0.028658</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0289321</v>
+                  <v>0.0371282</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0176491</v>
+                  <v>0.0186849</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0179043</v>
+                  <v>0.0189948</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0181965</v>
+                  <v>0.0192948</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0185586</v>
+                  <v>0.0198101</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0189253</v>
+                  <v>0.0200323</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0192987</v>
+                  <v>0.0205084</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0198485</v>
+                  <v>0.0207002</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0203825</v>
+                  <v>0.0214276</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0208815</v>
+                  <v>0.022011</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0220019</v>
+                  <v>0.0230028</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.022769</v>
+                  <v>0.0242253</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0243123</v>
+                  <v>0.0262024</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0273683</v>
+                  <v>0.030044</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0323586</v>
+                  <v>0.0370516</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.017563</v>
+                  <v>0.0188867</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0179077</v>
+                  <v>0.0192237</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0181191</v>
+                  <v>0.0194425</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0185128</v>
+                  <v>0.0197946</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0188997</v>
+                  <v>0.0201342</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0193475</v>
+                  <v>0.0205266</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0197701</v>
+                  <v>0.020959</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0202878</v>
+                  <v>0.0214844</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0211156</v>
+                  <v>0.0223231</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0221556</v>
+                  <v>0.0233566</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0232419</v>
+                  <v>0.0248748</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0249746</v>
+                  <v>0.0269432</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0282488</v>
+                  <v>0.0307678</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0352729</v>
+                  <v>0.0381048</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.017949</v>
+                  <v>0.019505</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0182123</v>
+                  <v>0.0197378</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0184241</v>
+                  <v>0.0199753</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0187582</v>
+                  <v>0.0202695</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0191191</v>
+                  <v>0.0205809</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0195615</v>
+                  <v>0.0210132</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0201191</v>
+                  <v>0.0215764</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0206961</v>
+                  <v>0.0222081</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0215587</v>
+                  <v>0.0231524</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0226734</v>
+                  <v>0.0243994</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0242101</v>
+                  <v>0.0261699</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0265092</v>
+                  <v>0.0288567</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0299203</v>
+                  <v>0.0324993</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0362318</v>
+                  <v>0.0388699</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.018616</v>
+                  <v>0.0203994</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0188728</v>
+                  <v>0.0206304</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0191354</v>
+                  <v>0.020899</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0194676</v>
+                  <v>0.0212713</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0198285</v>
+                  <v>0.0215734</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0202084</v>
+                  <v>0.0220027</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0207233</v>
+                  <v>0.0224713</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0213995</v>
+                  <v>0.0232356</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0222513</v>
+                  <v>0.0241598</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.023328</v>
+                  <v>0.0252935</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0249404</v>
+                  <v>0.0270674</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.027529</v>
+                  <v>0.0297328</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0313116</v>
+                  <v>0.0338401</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0376983</v>
+                  <v>0.0404851</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0489477</v>
+                  <v>0.0515575</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.019011</v>
+                  <v>0.020937</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0193203</v>
+                  <v>0.0212617</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0197232</v>
+                  <v>0.0215815</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0201442</v>
+                  <v>0.0219942</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0205764</v>
+                  <v>0.0224339</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0210852</v>
+                  <v>0.0229822</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0217122</v>
+                  <v>0.0236686</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.022629</v>
+                  <v>0.0245813</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0237333</v>
+                  <v>0.0258009</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0254197</v>
+                  <v>0.0276711</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0277608</v>
+                  <v>0.0301418</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0313383</v>
+                  <v>0.0339599</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.037026</v>
+                  <v>0.039757</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0465119</v>
+                  <v>0.0495474</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0192382</v>
+                  <v>0.021192</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0195643</v>
+                  <v>0.0215353</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0199296</v>
+                  <v>0.0219745</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0204282</v>
+                  <v>0.0224512</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0208927</v>
+                  <v>0.0229726</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.021538</v>
+                  <v>0.0236312</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0222851</v>
+                  <v>0.0244723</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0232149</v>
+                  <v>0.0253764</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0244507</v>
+                  <v>0.0267266</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0259784</v>
+                  <v>0.02845</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0282943</v>
+                  <v>0.0307713</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0314579</v>
+                  <v>0.0342051</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0365879</v>
+                  <v>0.039387</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0450952</v>
+                  <v>0.0481448</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0208871</v>
+                  <v>0.0230461</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0214555</v>
+                  <v>0.0235885</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0220137</v>
+                  <v>0.0240683</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0225922</v>
+                  <v>0.0245612</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0232915</v>
+                  <v>0.0254625</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0246113</v>
+                  <v>0.0269155</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0266287</v>
+                  <v>0.0289929</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0293725</v>
+                  <v>0.0319022</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0323838</v>
+                  <v>0.0353162</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0353862</v>
+                  <v>0.0382454</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0384466</v>
+                  <v>0.0414212</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0416202</v>
+                  <v>0.0448928</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0456443</v>
+                  <v>0.0491213</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0519131</v>
+                  <v>0.0556722</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0324166</v>
+                  <v>0.0349946</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0334394</v>
+                  <v>0.036062</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0342435</v>
+                  <v>0.0370126</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0350556</v>
+                  <v>0.0378882</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0358717</v>
+                  <v>0.0386232</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0366873</v>
+                  <v>0.039608</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0376708</v>
+                  <v>0.0405332</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0386302</v>
+                  <v>0.0416032</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0398146</v>
+                  <v>0.0429799</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0412212</v>
+                  <v>0.044442</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0429427</v>
+                  <v>0.0464735</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0455556</v>
+                  <v>0.0490779</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0491536</v>
+                  <v>0.0526027</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.054736</v>
+                  <v>0.0585157</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.0644487</v>
+                  <v>0.0682112</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0379716</v>
+                  <v>0.0416503</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0387374</v>
+                  <v>0.0422691</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.039425</v>
+                  <v>0.0430552</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0400483</v>
+                  <v>0.04371</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0410584</v>
+                  <v>0.0446326</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0419449</v>
+                  <v>0.045744</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0429313</v>
+                  <v>0.0464876</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0441977</v>
+                  <v>0.0480236</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0457638</v>
+                  <v>0.0497905</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0475294</v>
+                  <v>0.0515751</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0500786</v>
+                  <v>0.0541836</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0536186</v>
+                  <v>0.0578235</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0591599</v>
+                  <v>0.06359289999999999</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.0689019</v>
+                  <v>0.07301820000000001</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0534654</v>
+                  <v>0.0587163</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0539555</v>
+                  <v>0.0595507</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0548494</v>
+                  <v>0.0603892</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0553747</v>
+                  <v>0.0609068</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0561235</v>
+                  <v>0.0617944</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0611306</v>
+                  <v>0.0626568</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0579442</v>
+                  <v>0.0637523</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3222,8 +3221,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3248,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0608601</v>
+        <v>0.0600522</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0622176</v>
+        <v>0.0592726</v>
       </c>
       <c r="D2" t="n">
-        <v>0.056111</v>
+        <v>0.0892086</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0628586</v>
+        <v>0.0626181</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06671489999999999</v>
+        <v>0.0600118</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0565439</v>
+        <v>0.0898659</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0682325</v>
+        <v>0.06569029999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0692643</v>
+        <v>0.0599156</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0586235</v>
+        <v>0.0961291</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07167750000000001</v>
+        <v>0.0709263</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0786876</v>
+        <v>0.0610164</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0606541</v>
+        <v>0.09913950000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0813075</v>
+        <v>0.0802051</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08661489999999999</v>
+        <v>0.0642316</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0622192</v>
+        <v>0.0991495</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0960608</v>
+        <v>0.09082469999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.103474</v>
+        <v>0.0708743</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06700680000000001</v>
+        <v>0.11191</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.117812</v>
+        <v>0.124157</v>
       </c>
       <c r="C8" t="n">
-        <v>0.133371</v>
+        <v>0.0851797</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0803777</v>
+        <v>0.123913</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.150846</v>
+        <v>0.150893</v>
       </c>
       <c r="C9" t="n">
-        <v>0.168706</v>
+        <v>0.0553982</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0544123</v>
+        <v>0.0858739</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0589573</v>
+        <v>0.0583769</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0571836</v>
+        <v>0.0553785</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0547905</v>
+        <v>0.0879943</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0600338</v>
+        <v>0.0591439</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0568015</v>
+        <v>0.0555987</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0562346</v>
+        <v>0.08760320000000001</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0611976</v>
+        <v>0.0615094</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0585732</v>
+        <v>0.0572639</v>
       </c>
       <c r="D12" t="n">
-        <v>0.056593</v>
+        <v>0.087996</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0617299</v>
+        <v>0.0606991</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0576979</v>
+        <v>0.0585248</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0545172</v>
+        <v>0.0937099</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0604298</v>
+        <v>0.0620412</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0590303</v>
+        <v>0.0575078</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0560124</v>
+        <v>0.0924957</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0634309</v>
+        <v>0.0637843</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0622146</v>
+        <v>0.0576545</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0571227</v>
+        <v>0.09084440000000001</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0621966</v>
+        <v>0.0651829</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06509669999999999</v>
+        <v>0.0583226</v>
       </c>
       <c r="D16" t="n">
-        <v>0.056356</v>
+        <v>0.0904397</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0677475</v>
+        <v>0.0670264</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0681649</v>
+        <v>0.0591453</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0578308</v>
+        <v>0.09323720000000001</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0708452</v>
+        <v>0.071477</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07183150000000001</v>
+        <v>0.0614673</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0605251</v>
+        <v>0.0937759</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0739162</v>
+        <v>0.0793919</v>
       </c>
       <c r="C19" t="n">
-        <v>0.083042</v>
+        <v>0.0638106</v>
       </c>
       <c r="D19" t="n">
-        <v>0.06256920000000001</v>
+        <v>0.0957875</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0840206</v>
+        <v>0.0877212</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0892853</v>
+        <v>0.06767869999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.06483079999999999</v>
+        <v>0.100259</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0965461</v>
+        <v>0.10262</v>
       </c>
       <c r="C21" t="n">
-        <v>0.104184</v>
+        <v>0.0711089</v>
       </c>
       <c r="D21" t="n">
-        <v>0.07498009999999999</v>
+        <v>0.104832</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.115932</v>
+        <v>0.127752</v>
       </c>
       <c r="C22" t="n">
-        <v>0.133157</v>
+        <v>0.0815862</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0842769</v>
+        <v>0.117871</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.15594</v>
+        <v>0.155807</v>
       </c>
       <c r="C23" t="n">
-        <v>0.171382</v>
+        <v>0.0559319</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0565638</v>
+        <v>0.09260060000000001</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0647488</v>
+        <v>0.062974</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0576973</v>
+        <v>0.0565758</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0555777</v>
+        <v>0.0910345</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.063203</v>
+        <v>0.06402339999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0583863</v>
+        <v>0.0569467</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0593114</v>
+        <v>0.0924846</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0623154</v>
+        <v>0.063504</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0584344</v>
+        <v>0.0570195</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0549707</v>
+        <v>0.0912268</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.06325459999999999</v>
+        <v>0.0648504</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0617165</v>
+        <v>0.0583577</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0567549</v>
+        <v>0.0916928</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.06408179999999999</v>
+        <v>0.0671784</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0624684</v>
+        <v>0.0583328</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0580967</v>
+        <v>0.09224540000000001</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0660036</v>
+        <v>0.0706879</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0685453</v>
+        <v>0.0585549</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0569497</v>
+        <v>0.09119819999999999</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0701147</v>
+        <v>0.06991799999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0651581</v>
+        <v>0.0602823</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0600822</v>
+        <v>0.0902978</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.073715</v>
+        <v>0.07127989999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0674379</v>
+        <v>0.063361</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0589545</v>
+        <v>0.0961016</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0771983</v>
+        <v>0.0745458</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0714205</v>
+        <v>0.0629012</v>
       </c>
       <c r="D32" t="n">
-        <v>0.060157</v>
+        <v>0.0947129</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.080846</v>
+        <v>0.084328</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0768225</v>
+        <v>0.06488439999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.063731</v>
+        <v>0.0966204</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0871912</v>
+        <v>0.0880737</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0895836</v>
+        <v>0.0674516</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0666375</v>
+        <v>0.100774</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0988779</v>
+        <v>0.09772169999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.107325</v>
+        <v>0.07200040000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0765985</v>
+        <v>0.107374</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.116342</v>
+        <v>0.118708</v>
       </c>
       <c r="C36" t="n">
-        <v>0.129034</v>
+        <v>0.0813932</v>
       </c>
       <c r="D36" t="n">
-        <v>0.08618629999999999</v>
+        <v>0.117333</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.146851</v>
+        <v>0.144934</v>
       </c>
       <c r="C37" t="n">
-        <v>0.168405</v>
+        <v>0.0589405</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0581932</v>
+        <v>0.0909633</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0674932</v>
+        <v>0.06751799999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0620507</v>
+        <v>0.0581428</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0581551</v>
+        <v>0.0908653</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0683033</v>
+        <v>0.0693116</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0625396</v>
+        <v>0.0611335</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0584179</v>
+        <v>0.0929915</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0678492</v>
+        <v>0.0697421</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0632935</v>
+        <v>0.0616973</v>
       </c>
       <c r="D40" t="n">
-        <v>0.062029</v>
+        <v>0.0944125</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0704234</v>
+        <v>0.06895709999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.06483179999999999</v>
+        <v>0.0621663</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0623327</v>
+        <v>0.0969117</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0710866</v>
+        <v>0.07070559999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0660153</v>
+        <v>0.0621482</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0616564</v>
+        <v>0.0937234</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.074139</v>
+        <v>0.0718842</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0687208</v>
+        <v>0.0610354</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0611841</v>
+        <v>0.0953913</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.07785259999999999</v>
+        <v>0.07238989999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0693085</v>
+        <v>0.06281109999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0635937</v>
+        <v>0.0947129</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.076858</v>
+        <v>0.0764962</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07244159999999999</v>
+        <v>0.06273579999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0617902</v>
+        <v>0.0930332</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0812541</v>
+        <v>0.0771062</v>
       </c>
       <c r="C46" t="n">
-        <v>0.07535219999999999</v>
+        <v>0.06286600000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.064372</v>
+        <v>0.0954308</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.08739130000000001</v>
+        <v>0.08483880000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0865441</v>
+        <v>0.0678121</v>
       </c>
       <c r="D47" t="n">
-        <v>0.06863759999999999</v>
+        <v>0.100525</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0945693</v>
+        <v>0.0950087</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0955117</v>
+        <v>0.0706157</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0692313</v>
+        <v>0.103637</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.101899</v>
+        <v>0.099672</v>
       </c>
       <c r="C49" t="n">
-        <v>0.103844</v>
+        <v>0.0755927</v>
       </c>
       <c r="D49" t="n">
-        <v>0.07403750000000001</v>
+        <v>0.107108</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.118975</v>
+        <v>0.115731</v>
       </c>
       <c r="C50" t="n">
-        <v>0.121859</v>
+        <v>0.0813386</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0825665</v>
+        <v>0.118172</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.150692</v>
+        <v>0.143062</v>
       </c>
       <c r="C51" t="n">
-        <v>0.153451</v>
+        <v>0.0628782</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0637279</v>
+        <v>0.0977394</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.185526</v>
+        <v>0.192294</v>
       </c>
       <c r="C52" t="n">
-        <v>0.202496</v>
+        <v>0.0648362</v>
       </c>
       <c r="D52" t="n">
-        <v>0.06394569999999999</v>
+        <v>0.0976875</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0837111</v>
+        <v>0.08088140000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0734969</v>
+        <v>0.06497120000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0631621</v>
+        <v>0.0989047</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0812191</v>
+        <v>0.08135489999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.071673</v>
+        <v>0.0658217</v>
       </c>
       <c r="D54" t="n">
-        <v>0.06437850000000001</v>
+        <v>0.0979744</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0805989</v>
+        <v>0.0820195</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0734843</v>
+        <v>0.0666052</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0652466</v>
+        <v>0.0984582</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0822697</v>
+        <v>0.0814733</v>
       </c>
       <c r="C56" t="n">
-        <v>0.07654279999999999</v>
+        <v>0.0676157</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0679486</v>
+        <v>0.0992768</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0863188</v>
+        <v>0.0844495</v>
       </c>
       <c r="C57" t="n">
-        <v>0.07619869999999999</v>
+        <v>0.06677810000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0661229</v>
+        <v>0.10132</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0886699</v>
+        <v>0.08758199999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0801065</v>
+        <v>0.06990490000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0671559</v>
+        <v>0.100891</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0901637</v>
+        <v>0.0879699</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0842511</v>
+        <v>0.0701329</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0689082</v>
+        <v>0.105224</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.09492639999999999</v>
+        <v>0.0946641</v>
       </c>
       <c r="C60" t="n">
-        <v>0.08740000000000001</v>
+        <v>0.0695519</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0709827</v>
+        <v>0.104037</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0992354</v>
+        <v>0.09605329999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0940053</v>
+        <v>0.07380340000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.072198</v>
+        <v>0.110073</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.104549</v>
+        <v>0.106414</v>
       </c>
       <c r="C62" t="n">
-        <v>0.103833</v>
+        <v>0.0770015</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0771828</v>
+        <v>0.110618</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.113599</v>
+        <v>0.113559</v>
       </c>
       <c r="C63" t="n">
-        <v>0.118152</v>
+        <v>0.08204400000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0817041</v>
+        <v>0.116649</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.12831</v>
+        <v>0.132805</v>
       </c>
       <c r="C64" t="n">
-        <v>0.136946</v>
+        <v>0.0912983</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0895772</v>
+        <v>0.129425</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.156194</v>
+        <v>0.152783</v>
       </c>
       <c r="C65" t="n">
-        <v>0.166494</v>
+        <v>0.101081</v>
       </c>
       <c r="D65" t="n">
-        <v>0.104329</v>
+        <v>0.142593</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.192544</v>
+        <v>0.196813</v>
       </c>
       <c r="C66" t="n">
-        <v>0.213244</v>
+        <v>0.0690891</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0703148</v>
+        <v>0.102718</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0892102</v>
+        <v>0.09256590000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0826914</v>
+        <v>0.0702001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0702265</v>
+        <v>0.105617</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.09587809999999999</v>
+        <v>0.09023780000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.08336540000000001</v>
+        <v>0.0706307</v>
       </c>
       <c r="D68" t="n">
-        <v>0.07196420000000001</v>
+        <v>0.105413</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0952538</v>
+        <v>0.093334</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0861286</v>
+        <v>0.072046</v>
       </c>
       <c r="D69" t="n">
-        <v>0.06922159999999999</v>
+        <v>0.10694</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0967563</v>
+        <v>0.0950126</v>
       </c>
       <c r="C70" t="n">
-        <v>0.087172</v>
+        <v>0.0716668</v>
       </c>
       <c r="D70" t="n">
-        <v>0.07111140000000001</v>
+        <v>0.112623</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.10082</v>
+        <v>0.09799239999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0876922</v>
+        <v>0.0736449</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0744432</v>
+        <v>0.11211</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.102015</v>
+        <v>0.102613</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0935067</v>
+        <v>0.07621029999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0743846</v>
+        <v>0.110078</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.106671</v>
+        <v>0.104254</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0968325</v>
+        <v>0.0757718</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0784905</v>
+        <v>0.112155</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.10884</v>
+        <v>0.107026</v>
       </c>
       <c r="C74" t="n">
-        <v>0.104443</v>
+        <v>0.07988099999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0788126</v>
+        <v>0.113903</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.11956</v>
+        <v>0.115799</v>
       </c>
       <c r="C75" t="n">
-        <v>0.113373</v>
+        <v>0.0828706</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0814645</v>
+        <v>0.119991</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.124618</v>
+        <v>0.121141</v>
       </c>
       <c r="C76" t="n">
-        <v>0.11866</v>
+        <v>0.0877568</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0843469</v>
+        <v>0.124883</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.131732</v>
+        <v>0.136398</v>
       </c>
       <c r="C77" t="n">
-        <v>0.133194</v>
+        <v>0.09118130000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0914195</v>
+        <v>0.129982</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.153196</v>
+        <v>0.149104</v>
       </c>
       <c r="C78" t="n">
-        <v>0.157123</v>
+        <v>0.0998704</v>
       </c>
       <c r="D78" t="n">
-        <v>0.100933</v>
+        <v>0.138973</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179429</v>
+        <v>0.177687</v>
       </c>
       <c r="C79" t="n">
-        <v>0.183039</v>
+        <v>0.114005</v>
       </c>
       <c r="D79" t="n">
-        <v>0.114234</v>
+        <v>0.161075</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.219553</v>
+        <v>0.216682</v>
       </c>
       <c r="C80" t="n">
-        <v>0.228666</v>
+        <v>0.07865759999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0768277</v>
+        <v>0.114108</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.107455</v>
+        <v>0.106262</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09682880000000001</v>
+        <v>0.08012809999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.07949299999999999</v>
+        <v>0.115737</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.111025</v>
+        <v>0.10735</v>
       </c>
       <c r="C82" t="n">
-        <v>0.098464</v>
+        <v>0.0821783</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0790802</v>
+        <v>0.120657</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.113347</v>
+        <v>0.112473</v>
       </c>
       <c r="C83" t="n">
-        <v>0.100542</v>
+        <v>0.0824834</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0797924</v>
+        <v>0.120355</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.114365</v>
+        <v>0.113227</v>
       </c>
       <c r="C84" t="n">
-        <v>0.102529</v>
+        <v>0.0841698</v>
       </c>
       <c r="D84" t="n">
-        <v>0.08143400000000001</v>
+        <v>0.121076</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.118861</v>
+        <v>0.120387</v>
       </c>
       <c r="C85" t="n">
-        <v>0.107015</v>
+        <v>0.0832251</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0850043</v>
+        <v>0.121783</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.122166</v>
+        <v>0.121835</v>
       </c>
       <c r="C86" t="n">
-        <v>0.111249</v>
+        <v>0.08721859999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.08649569999999999</v>
+        <v>0.126043</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.130139</v>
+        <v>0.12623</v>
       </c>
       <c r="C87" t="n">
-        <v>0.117513</v>
+        <v>0.0892631</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0885122</v>
+        <v>0.128285</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.132745</v>
+        <v>0.133328</v>
       </c>
       <c r="C88" t="n">
-        <v>0.124672</v>
+        <v>0.0958227</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0933268</v>
+        <v>0.132213</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.139609</v>
+        <v>0.138148</v>
       </c>
       <c r="C89" t="n">
-        <v>0.130198</v>
+        <v>0.09782830000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>0.09555089999999999</v>
+        <v>0.136539</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.151895</v>
+        <v>0.149563</v>
       </c>
       <c r="C90" t="n">
-        <v>0.141614</v>
+        <v>0.102402</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0991558</v>
+        <v>0.143244</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.160624</v>
+        <v>0.164268</v>
       </c>
       <c r="C91" t="n">
-        <v>0.158234</v>
+        <v>0.1057</v>
       </c>
       <c r="D91" t="n">
-        <v>0.106882</v>
+        <v>0.147152</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.178705</v>
+        <v>0.180846</v>
       </c>
       <c r="C92" t="n">
-        <v>0.180479</v>
+        <v>0.120193</v>
       </c>
       <c r="D92" t="n">
-        <v>0.115717</v>
+        <v>0.157312</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.20031</v>
+        <v>0.204823</v>
       </c>
       <c r="C93" t="n">
-        <v>0.209928</v>
+        <v>0.130666</v>
       </c>
       <c r="D93" t="n">
-        <v>0.126756</v>
+        <v>0.171751</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.244777</v>
+        <v>0.241403</v>
       </c>
       <c r="C94" t="n">
-        <v>0.253287</v>
+        <v>0.0966007</v>
       </c>
       <c r="D94" t="n">
-        <v>0.100228</v>
+        <v>0.138917</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.140557</v>
+        <v>0.141414</v>
       </c>
       <c r="C95" t="n">
-        <v>0.12891</v>
+        <v>0.102056</v>
       </c>
       <c r="D95" t="n">
-        <v>0.09723809999999999</v>
+        <v>0.139659</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.141272</v>
+        <v>0.142343</v>
       </c>
       <c r="C96" t="n">
-        <v>0.126099</v>
+        <v>0.101573</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0999589</v>
+        <v>0.141679</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.144933</v>
+        <v>0.143619</v>
       </c>
       <c r="C97" t="n">
-        <v>0.127794</v>
+        <v>0.101136</v>
       </c>
       <c r="D97" t="n">
-        <v>0.103805</v>
+        <v>0.14091</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.150964</v>
+        <v>0.14726</v>
       </c>
       <c r="C98" t="n">
-        <v>0.133147</v>
+        <v>0.107682</v>
       </c>
       <c r="D98" t="n">
-        <v>0.108853</v>
+        <v>0.146141</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.14823</v>
+        <v>0.149667</v>
       </c>
       <c r="C99" t="n">
-        <v>0.13383</v>
+        <v>0.106814</v>
       </c>
       <c r="D99" t="n">
-        <v>0.105947</v>
+        <v>0.149058</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.154786</v>
+        <v>0.151755</v>
       </c>
       <c r="C100" t="n">
-        <v>0.145788</v>
+        <v>0.10972</v>
       </c>
       <c r="D100" t="n">
-        <v>0.109459</v>
+        <v>0.15703</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.159653</v>
+        <v>0.158294</v>
       </c>
       <c r="C101" t="n">
-        <v>0.14774</v>
+        <v>0.111081</v>
       </c>
       <c r="D101" t="n">
-        <v>0.114924</v>
+        <v>0.152703</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.165034</v>
+        <v>0.166155</v>
       </c>
       <c r="C102" t="n">
-        <v>0.150636</v>
+        <v>0.113586</v>
       </c>
       <c r="D102" t="n">
-        <v>0.114367</v>
+        <v>0.159267</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.168085</v>
+        <v>0.170171</v>
       </c>
       <c r="C103" t="n">
-        <v>0.158901</v>
+        <v>0.117868</v>
       </c>
       <c r="D103" t="n">
-        <v>0.117076</v>
+        <v>0.159312</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.179367</v>
+        <v>0.177753</v>
       </c>
       <c r="C104" t="n">
-        <v>0.174777</v>
+        <v>0.125592</v>
       </c>
       <c r="D104" t="n">
-        <v>0.119746</v>
+        <v>0.164637</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.190224</v>
+        <v>0.189378</v>
       </c>
       <c r="C105" t="n">
-        <v>0.18654</v>
+        <v>0.128489</v>
       </c>
       <c r="D105" t="n">
-        <v>0.133336</v>
+        <v>0.176493</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.202518</v>
+        <v>0.210025</v>
       </c>
       <c r="C106" t="n">
-        <v>0.205762</v>
+        <v>0.138826</v>
       </c>
       <c r="D106" t="n">
-        <v>0.13822</v>
+        <v>0.183455</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.231219</v>
+        <v>0.242417</v>
       </c>
       <c r="C107" t="n">
-        <v>0.253921</v>
+        <v>0.148657</v>
       </c>
       <c r="D107" t="n">
-        <v>0.151693</v>
+        <v>0.199974</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.272354</v>
+        <v>0.273485</v>
       </c>
       <c r="C108" t="n">
-        <v>0.290761</v>
+        <v>0.182924</v>
       </c>
       <c r="D108" t="n">
-        <v>0.179153</v>
+        <v>0.226674</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.337178</v>
+        <v>0.335153</v>
       </c>
       <c r="C109" t="n">
-        <v>0.366943</v>
+        <v>0.186457</v>
       </c>
       <c r="D109" t="n">
-        <v>0.180869</v>
+        <v>0.22335</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.228859</v>
+        <v>0.249348</v>
       </c>
       <c r="C110" t="n">
-        <v>0.214956</v>
+        <v>0.174994</v>
       </c>
       <c r="D110" t="n">
-        <v>0.178788</v>
+        <v>0.234379</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.228306</v>
+        <v>0.230292</v>
       </c>
       <c r="C111" t="n">
-        <v>0.207832</v>
+        <v>0.189447</v>
       </c>
       <c r="D111" t="n">
-        <v>0.190589</v>
+        <v>0.225675</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.250419</v>
+        <v>0.240562</v>
       </c>
       <c r="C112" t="n">
-        <v>0.222639</v>
+        <v>0.183043</v>
       </c>
       <c r="D112" t="n">
-        <v>0.185984</v>
+        <v>0.241734</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.252552</v>
+        <v>0.242587</v>
       </c>
       <c r="C113" t="n">
-        <v>0.22873</v>
+        <v>0.183007</v>
       </c>
       <c r="D113" t="n">
-        <v>0.183684</v>
+        <v>0.230207</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.252768</v>
+        <v>0.261104</v>
       </c>
       <c r="C114" t="n">
-        <v>0.230605</v>
+        <v>0.186957</v>
       </c>
       <c r="D114" t="n">
-        <v>0.185584</v>
+        <v>0.239378</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.246144</v>
+        <v>0.248027</v>
       </c>
       <c r="C115" t="n">
-        <v>0.223456</v>
+        <v>0.198772</v>
       </c>
       <c r="D115" t="n">
-        <v>0.187488</v>
+        <v>0.235897</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.271683</v>
+        <v>0.262135</v>
       </c>
       <c r="C116" t="n">
-        <v>0.233359</v>
+        <v>0.198203</v>
       </c>
       <c r="D116" t="n">
-        <v>0.196674</v>
+        <v>0.244515</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.260815</v>
+        <v>0.261834</v>
       </c>
       <c r="C117" t="n">
-        <v>0.248507</v>
+        <v>0.193278</v>
       </c>
       <c r="D117" t="n">
-        <v>0.198048</v>
+        <v>0.244197</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.284682</v>
+        <v>0.273479</v>
       </c>
       <c r="C118" t="n">
-        <v>0.260764</v>
+        <v>0.20357</v>
       </c>
       <c r="D118" t="n">
-        <v>0.203271</v>
+        <v>0.260727</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.287015</v>
+        <v>0.304132</v>
       </c>
       <c r="C119" t="n">
-        <v>0.274475</v>
+        <v>0.201997</v>
       </c>
       <c r="D119" t="n">
-        <v>0.214585</v>
+        <v>0.253079</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.318659</v>
+        <v>0.320302</v>
       </c>
       <c r="C120" t="n">
-        <v>0.285196</v>
+        <v>0.218595</v>
       </c>
       <c r="D120" t="n">
-        <v>0.217422</v>
+        <v>0.265869</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.3401</v>
+        <v>0.330169</v>
       </c>
       <c r="C121" t="n">
-        <v>0.314714</v>
+        <v>0.243592</v>
       </c>
       <c r="D121" t="n">
-        <v>0.222992</v>
+        <v>0.300374</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.36847</v>
+        <v>0.367714</v>
       </c>
       <c r="C122" t="n">
-        <v>0.386406</v>
+        <v>0.252961</v>
       </c>
       <c r="D122" t="n">
-        <v>0.253426</v>
+        <v>0.31661</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.44557</v>
+        <v>0.456918</v>
       </c>
       <c r="C123" t="n">
-        <v>0.455784</v>
+        <v>0.282547</v>
       </c>
       <c r="D123" t="n">
-        <v>0.288395</v>
+        <v>0.382583</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.378447</v>
+        <v>0.35759</v>
       </c>
       <c r="C124" t="n">
-        <v>0.323791</v>
+        <v>0.280728</v>
       </c>
       <c r="D124" t="n">
-        <v>0.279003</v>
+        <v>0.388156</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.37836</v>
+        <v>0.378825</v>
       </c>
       <c r="C125" t="n">
-        <v>0.322517</v>
+        <v>0.286043</v>
       </c>
       <c r="D125" t="n">
-        <v>0.296648</v>
+        <v>0.389316</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.379081</v>
+        <v>0.378892</v>
       </c>
       <c r="C126" t="n">
-        <v>0.324632</v>
+        <v>0.288494</v>
       </c>
       <c r="D126" t="n">
-        <v>0.297471</v>
+        <v>0.394121</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.385574</v>
+        <v>0.380939</v>
       </c>
       <c r="C127" t="n">
-        <v>0.374606</v>
+        <v>0.293792</v>
       </c>
       <c r="D127" t="n">
-        <v>0.345079</v>
+        <v>0.394593</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.463076</v>
+        <v>0.379423</v>
       </c>
       <c r="C128" t="n">
-        <v>0.393447</v>
+        <v>0.294362</v>
       </c>
       <c r="D128" t="n">
-        <v>0.3271</v>
+        <v>0.408639</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.388145</v>
+        <v>0.392834</v>
       </c>
       <c r="C129" t="n">
-        <v>0.349778</v>
+        <v>0.293041</v>
       </c>
       <c r="D129" t="n">
-        <v>0.305656</v>
+        <v>0.398611</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.401295</v>
+        <v>0.40072</v>
       </c>
       <c r="C130" t="n">
-        <v>0.351327</v>
+        <v>0.311879</v>
       </c>
       <c r="D130" t="n">
-        <v>0.308333</v>
+        <v>0.410893</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.412066</v>
+        <v>0.40424</v>
       </c>
       <c r="C131" t="n">
-        <v>0.361817</v>
+        <v>0.299438</v>
       </c>
       <c r="D131" t="n">
-        <v>0.303252</v>
+        <v>0.415355</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.421208</v>
+        <v>0.416318</v>
       </c>
       <c r="C132" t="n">
-        <v>0.375862</v>
+        <v>0.30477</v>
       </c>
       <c r="D132" t="n">
-        <v>0.319982</v>
+        <v>0.414206</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.431296</v>
+        <v>0.432409</v>
       </c>
       <c r="C133" t="n">
-        <v>0.381551</v>
+        <v>0.317762</v>
       </c>
       <c r="D133" t="n">
-        <v>0.328672</v>
+        <v>0.426236</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.452608</v>
+        <v>0.451773</v>
       </c>
       <c r="C134" t="n">
-        <v>0.40951</v>
+        <v>0.322139</v>
       </c>
       <c r="D134" t="n">
-        <v>0.324944</v>
+        <v>0.440484</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.497526</v>
+        <v>0.49661</v>
       </c>
       <c r="C135" t="n">
-        <v>0.442634</v>
+        <v>0.334733</v>
       </c>
       <c r="D135" t="n">
-        <v>0.344089</v>
+        <v>0.463302</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.54122</v>
+        <v>0.5392479999999999</v>
       </c>
       <c r="C136" t="n">
-        <v>0.507752</v>
+        <v>0.359193</v>
       </c>
       <c r="D136" t="n">
-        <v>0.359753</v>
+        <v>0.472444</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6266</v>
+        <v>0.625184</v>
       </c>
       <c r="C137" t="n">
-        <v>0.602359</v>
+        <v>0.330971</v>
       </c>
       <c r="D137" t="n">
-        <v>0.343422</v>
+        <v>0.466407</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.451134</v>
+        <v>0.450412</v>
       </c>
       <c r="C138" t="n">
-        <v>0.383791</v>
+        <v>0.344781</v>
       </c>
       <c r="D138" t="n">
-        <v>0.343613</v>
+        <v>0.491297</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.453649</v>
+        <v>0.456112</v>
       </c>
       <c r="C139" t="n">
-        <v>0.386301</v>
+        <v>0.34395</v>
       </c>
       <c r="D139" t="n">
-        <v>0.351413</v>
+        <v>0.49317</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.453425</v>
+        <v>0.460228</v>
       </c>
       <c r="C140" t="n">
-        <v>0.394276</v>
+        <v>0.348633</v>
       </c>
       <c r="D140" t="n">
-        <v>0.353609</v>
+        <v>0.492161</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.467318</v>
+        <v>0.467598</v>
       </c>
       <c r="C141" t="n">
-        <v>0.389358</v>
+        <v>0.350604</v>
       </c>
       <c r="D141" t="n">
-        <v>0.354813</v>
+        <v>0.500727</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.464973</v>
+        <v>0.472551</v>
       </c>
       <c r="C142" t="n">
-        <v>0.392571</v>
+        <v>0.355666</v>
       </c>
       <c r="D142" t="n">
-        <v>0.354955</v>
+        <v>0.500061</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.471315</v>
+        <v>0.480319</v>
       </c>
       <c r="C143" t="n">
-        <v>0.402025</v>
+        <v>0.354093</v>
       </c>
       <c r="D143" t="n">
-        <v>0.362649</v>
+        <v>0.5047160000000001</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0600522</v>
+        <v>0.0599439</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0592726</v>
+        <v>0.0578928</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0892086</v>
+        <v>0.09477770000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0626181</v>
+        <v>0.0623136</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0600118</v>
+        <v>0.0582249</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0898659</v>
+        <v>0.0897905</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06569029999999999</v>
+        <v>0.0666872</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0599156</v>
+        <v>0.0602329</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0961291</v>
+        <v>0.094359</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0709263</v>
+        <v>0.0750755</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0610164</v>
+        <v>0.06384040000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09913950000000001</v>
+        <v>0.0956974</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0802051</v>
+        <v>0.0829169</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0642316</v>
+        <v>0.0655758</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0991495</v>
+        <v>0.103003</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.09082469999999999</v>
+        <v>0.099011</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0708743</v>
+        <v>0.0724553</v>
       </c>
       <c r="D7" t="n">
-        <v>0.11191</v>
+        <v>0.108243</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.124157</v>
+        <v>0.122467</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0851797</v>
+        <v>0.0844765</v>
       </c>
       <c r="D8" t="n">
-        <v>0.123913</v>
+        <v>0.121702</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.150893</v>
+        <v>0.156916</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0553982</v>
+        <v>0.0566378</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0858739</v>
+        <v>0.0858705</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0583769</v>
+        <v>0.0599723</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0553785</v>
+        <v>0.0553827</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0879943</v>
+        <v>0.086756</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0591439</v>
+        <v>0.0595774</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0555987</v>
+        <v>0.0556507</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08760320000000001</v>
+        <v>0.0856208</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0615094</v>
+        <v>0.0602009</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0572639</v>
+        <v>0.0565053</v>
       </c>
       <c r="D12" t="n">
-        <v>0.087996</v>
+        <v>0.08541020000000001</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0606991</v>
+        <v>0.0617565</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0585248</v>
+        <v>0.05501</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0937099</v>
+        <v>0.0908214</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0620412</v>
+        <v>0.061199</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0575078</v>
+        <v>0.0573065</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0924957</v>
+        <v>0.08882279999999999</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0637843</v>
+        <v>0.06346010000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0576545</v>
+        <v>0.0574349</v>
       </c>
       <c r="D15" t="n">
-        <v>0.09084440000000001</v>
+        <v>0.08644780000000001</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0651829</v>
+        <v>0.06531670000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0583226</v>
+        <v>0.061083</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0904397</v>
+        <v>0.0893664</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0670264</v>
+        <v>0.0681142</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0591453</v>
+        <v>0.0589438</v>
       </c>
       <c r="D17" t="n">
-        <v>0.09323720000000001</v>
+        <v>0.0888478</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.071477</v>
+        <v>0.0740898</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0614673</v>
+        <v>0.0606488</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0937759</v>
+        <v>0.09103799999999999</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0793919</v>
+        <v>0.07763059999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0638106</v>
+        <v>0.0651462</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0957875</v>
+        <v>0.0929041</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0877212</v>
+        <v>0.08626689999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06767869999999999</v>
+        <v>0.0668845</v>
       </c>
       <c r="D20" t="n">
-        <v>0.100259</v>
+        <v>0.0990554</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.10262</v>
+        <v>0.100116</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0711089</v>
+        <v>0.0738123</v>
       </c>
       <c r="D21" t="n">
-        <v>0.104832</v>
+        <v>0.103478</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.127752</v>
+        <v>0.11429</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0815862</v>
+        <v>0.08186880000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.117871</v>
+        <v>0.114622</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.155807</v>
+        <v>0.153634</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0559319</v>
+        <v>0.0591298</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09260060000000001</v>
+        <v>0.0863512</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.062974</v>
+        <v>0.0624186</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0565758</v>
+        <v>0.0572327</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0910345</v>
+        <v>0.0865152</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.06402339999999999</v>
+        <v>0.0646192</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0569467</v>
+        <v>0.0574603</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0924846</v>
+        <v>0.08672530000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.063504</v>
+        <v>0.0634873</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0570195</v>
+        <v>0.0581247</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0912268</v>
+        <v>0.08927300000000001</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0648504</v>
+        <v>0.0645742</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0583577</v>
+        <v>0.0581735</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0916928</v>
+        <v>0.0868114</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0671784</v>
+        <v>0.0669608</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0583328</v>
+        <v>0.0589223</v>
       </c>
       <c r="D28" t="n">
-        <v>0.09224540000000001</v>
+        <v>0.0868072</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0706879</v>
+        <v>0.0671677</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0585549</v>
+        <v>0.0602832</v>
       </c>
       <c r="D29" t="n">
-        <v>0.09119819999999999</v>
+        <v>0.0897664</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.06991799999999999</v>
+        <v>0.0671378</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0602823</v>
+        <v>0.0611712</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0902978</v>
+        <v>0.0891972</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.07127989999999999</v>
+        <v>0.07158779999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.063361</v>
+        <v>0.0609449</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0961016</v>
+        <v>0.0917869</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0745458</v>
+        <v>0.0742597</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0629012</v>
+        <v>0.0626897</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0947129</v>
+        <v>0.0938615</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.084328</v>
+        <v>0.0799473</v>
       </c>
       <c r="C33" t="n">
-        <v>0.06488439999999999</v>
+        <v>0.06494560000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0966204</v>
+        <v>0.0969729</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0880737</v>
+        <v>0.08875089999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0674516</v>
+        <v>0.06674190000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.100774</v>
+        <v>0.0957061</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.09772169999999999</v>
+        <v>0.102688</v>
       </c>
       <c r="C35" t="n">
-        <v>0.07200040000000001</v>
+        <v>0.07502780000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.107374</v>
+        <v>0.10411</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.118708</v>
+        <v>0.118051</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0813932</v>
+        <v>0.08189150000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.117333</v>
+        <v>0.112796</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.144934</v>
+        <v>0.144447</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0589405</v>
+        <v>0.0625131</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0909633</v>
+        <v>0.0877846</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.06751799999999999</v>
+        <v>0.0697108</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0581428</v>
+        <v>0.059899</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0908653</v>
+        <v>0.09093519999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0693116</v>
+        <v>0.06895859999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0611335</v>
+        <v>0.060874</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0929915</v>
+        <v>0.0906844</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0697421</v>
+        <v>0.07101540000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0616973</v>
+        <v>0.059816</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0944125</v>
+        <v>0.0895726</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.06895709999999999</v>
+        <v>0.0705607</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0621663</v>
+        <v>0.0591757</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0969117</v>
+        <v>0.09063160000000001</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.07070559999999999</v>
+        <v>0.0737008</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0621482</v>
+        <v>0.0607329</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0937234</v>
+        <v>0.09122130000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0718842</v>
+        <v>0.07335700000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0610354</v>
+        <v>0.0604944</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0953913</v>
+        <v>0.0908465</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.07238989999999999</v>
+        <v>0.0734944</v>
       </c>
       <c r="C44" t="n">
-        <v>0.06281109999999999</v>
+        <v>0.0627713</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0947129</v>
+        <v>0.092074</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0764962</v>
+        <v>0.0785942</v>
       </c>
       <c r="C45" t="n">
-        <v>0.06273579999999999</v>
+        <v>0.06344080000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0930332</v>
+        <v>0.0924209</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0771062</v>
+        <v>0.0804706</v>
       </c>
       <c r="C46" t="n">
-        <v>0.06286600000000001</v>
+        <v>0.0647361</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0954308</v>
+        <v>0.0938819</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.08483880000000001</v>
+        <v>0.0832932</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0678121</v>
+        <v>0.0670963</v>
       </c>
       <c r="D47" t="n">
-        <v>0.100525</v>
+        <v>0.100017</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0950087</v>
+        <v>0.0913379</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0706157</v>
+        <v>0.07226539999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.103637</v>
+        <v>0.102309</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.099672</v>
+        <v>0.104231</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0755927</v>
+        <v>0.0767998</v>
       </c>
       <c r="D49" t="n">
-        <v>0.107108</v>
+        <v>0.107471</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.115731</v>
+        <v>0.118524</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0813386</v>
+        <v>0.08205460000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.118172</v>
+        <v>0.121123</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.143062</v>
+        <v>0.146682</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0628782</v>
+        <v>0.0640024</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0977394</v>
+        <v>0.09727089999999999</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.192294</v>
+        <v>0.192969</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0648362</v>
+        <v>0.066998</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0976875</v>
+        <v>0.0973039</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.08088140000000001</v>
+        <v>0.0823205</v>
       </c>
       <c r="C53" t="n">
-        <v>0.06497120000000001</v>
+        <v>0.06440220000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0989047</v>
+        <v>0.09413630000000001</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.08135489999999999</v>
+        <v>0.0823653</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0658217</v>
+        <v>0.0658522</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0979744</v>
+        <v>0.097348</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0820195</v>
+        <v>0.0849709</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0666052</v>
+        <v>0.06538140000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0984582</v>
+        <v>0.09653879999999999</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0814733</v>
+        <v>0.0812734</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0676157</v>
+        <v>0.06617140000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0992768</v>
+        <v>0.0964353</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0844495</v>
+        <v>0.08636729999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.06677810000000001</v>
+        <v>0.06634420000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.10132</v>
+        <v>0.0973591</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.08758199999999999</v>
+        <v>0.0886551</v>
       </c>
       <c r="C58" t="n">
-        <v>0.06990490000000001</v>
+        <v>0.06886829999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.100891</v>
+        <v>0.10052</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0879699</v>
+        <v>0.08927359999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0701329</v>
+        <v>0.0696387</v>
       </c>
       <c r="D59" t="n">
-        <v>0.105224</v>
+        <v>0.0992446</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0946641</v>
+        <v>0.0958912</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0695519</v>
+        <v>0.0738573</v>
       </c>
       <c r="D60" t="n">
-        <v>0.104037</v>
+        <v>0.102546</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.09605329999999999</v>
+        <v>0.09724969999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.07380340000000001</v>
+        <v>0.0753818</v>
       </c>
       <c r="D61" t="n">
-        <v>0.110073</v>
+        <v>0.10642</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.106414</v>
+        <v>0.106754</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0770015</v>
+        <v>0.07614609999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.110618</v>
+        <v>0.110462</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.113559</v>
+        <v>0.112638</v>
       </c>
       <c r="C63" t="n">
-        <v>0.08204400000000001</v>
+        <v>0.0812749</v>
       </c>
       <c r="D63" t="n">
-        <v>0.116649</v>
+        <v>0.112643</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.132805</v>
+        <v>0.129028</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0912983</v>
+        <v>0.0931854</v>
       </c>
       <c r="D64" t="n">
-        <v>0.129425</v>
+        <v>0.12399</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.152783</v>
+        <v>0.154508</v>
       </c>
       <c r="C65" t="n">
-        <v>0.101081</v>
+        <v>0.105639</v>
       </c>
       <c r="D65" t="n">
-        <v>0.142593</v>
+        <v>0.137325</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.196813</v>
+        <v>0.192962</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0690891</v>
+        <v>0.0703399</v>
       </c>
       <c r="D66" t="n">
-        <v>0.102718</v>
+        <v>0.101633</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.09256590000000001</v>
+        <v>0.0921464</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0702001</v>
+        <v>0.07363740000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.105617</v>
+        <v>0.108936</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.09023780000000001</v>
+        <v>0.093039</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0706307</v>
+        <v>0.0700258</v>
       </c>
       <c r="D68" t="n">
-        <v>0.105413</v>
+        <v>0.106048</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.093334</v>
+        <v>0.09362910000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.072046</v>
+        <v>0.07455050000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.10694</v>
+        <v>0.106768</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0950126</v>
+        <v>0.0952382</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0716668</v>
+        <v>0.074437</v>
       </c>
       <c r="D70" t="n">
-        <v>0.112623</v>
+        <v>0.104975</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.09799239999999999</v>
+        <v>0.0979323</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0736449</v>
+        <v>0.0757427</v>
       </c>
       <c r="D71" t="n">
-        <v>0.11211</v>
+        <v>0.115492</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.102613</v>
+        <v>0.102825</v>
       </c>
       <c r="C72" t="n">
-        <v>0.07621029999999999</v>
+        <v>0.0771961</v>
       </c>
       <c r="D72" t="n">
-        <v>0.110078</v>
+        <v>0.109062</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.104254</v>
+        <v>0.103638</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0757718</v>
+        <v>0.07679660000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.112155</v>
+        <v>0.109617</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.107026</v>
+        <v>0.107301</v>
       </c>
       <c r="C74" t="n">
-        <v>0.07988099999999999</v>
+        <v>0.078886</v>
       </c>
       <c r="D74" t="n">
-        <v>0.113903</v>
+        <v>0.118916</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.115799</v>
+        <v>0.117705</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0828706</v>
+        <v>0.08422689999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.119991</v>
+        <v>0.114609</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.121141</v>
+        <v>0.121475</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0877568</v>
+        <v>0.0847866</v>
       </c>
       <c r="D76" t="n">
-        <v>0.124883</v>
+        <v>0.122372</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.136398</v>
+        <v>0.132314</v>
       </c>
       <c r="C77" t="n">
-        <v>0.09118130000000001</v>
+        <v>0.0914195</v>
       </c>
       <c r="D77" t="n">
-        <v>0.129982</v>
+        <v>0.134589</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.149104</v>
+        <v>0.153566</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0998704</v>
+        <v>0.101209</v>
       </c>
       <c r="D78" t="n">
-        <v>0.138973</v>
+        <v>0.137509</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.177687</v>
+        <v>0.179617</v>
       </c>
       <c r="C79" t="n">
-        <v>0.114005</v>
+        <v>0.115194</v>
       </c>
       <c r="D79" t="n">
-        <v>0.161075</v>
+        <v>0.158345</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.216682</v>
+        <v>0.215113</v>
       </c>
       <c r="C80" t="n">
-        <v>0.07865759999999999</v>
+        <v>0.0772176</v>
       </c>
       <c r="D80" t="n">
-        <v>0.114108</v>
+        <v>0.112728</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.106262</v>
+        <v>0.106226</v>
       </c>
       <c r="C81" t="n">
-        <v>0.08012809999999999</v>
+        <v>0.0791582</v>
       </c>
       <c r="D81" t="n">
-        <v>0.115737</v>
+        <v>0.116526</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.10735</v>
+        <v>0.108626</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0821783</v>
+        <v>0.0800715</v>
       </c>
       <c r="D82" t="n">
-        <v>0.120657</v>
+        <v>0.114588</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.112473</v>
+        <v>0.11401</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0824834</v>
+        <v>0.0795096</v>
       </c>
       <c r="D83" t="n">
-        <v>0.120355</v>
+        <v>0.118106</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.113227</v>
+        <v>0.115136</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0841698</v>
+        <v>0.0833564</v>
       </c>
       <c r="D84" t="n">
-        <v>0.121076</v>
+        <v>0.120834</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.120387</v>
+        <v>0.119567</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0832251</v>
+        <v>0.0867078</v>
       </c>
       <c r="D85" t="n">
-        <v>0.121783</v>
+        <v>0.123247</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.121835</v>
+        <v>0.123586</v>
       </c>
       <c r="C86" t="n">
-        <v>0.08721859999999999</v>
+        <v>0.08854389999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.126043</v>
+        <v>0.123065</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.12623</v>
+        <v>0.128367</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0892631</v>
+        <v>0.0890513</v>
       </c>
       <c r="D87" t="n">
-        <v>0.128285</v>
+        <v>0.124766</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.133328</v>
+        <v>0.133927</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0958227</v>
+        <v>0.09529319999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.132213</v>
+        <v>0.137302</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.138148</v>
+        <v>0.144198</v>
       </c>
       <c r="C89" t="n">
-        <v>0.09782830000000001</v>
+        <v>0.0950251</v>
       </c>
       <c r="D89" t="n">
-        <v>0.136539</v>
+        <v>0.13521</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.149563</v>
+        <v>0.147615</v>
       </c>
       <c r="C90" t="n">
-        <v>0.102402</v>
+        <v>0.100175</v>
       </c>
       <c r="D90" t="n">
-        <v>0.143244</v>
+        <v>0.139199</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.164268</v>
+        <v>0.16525</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1057</v>
+        <v>0.107839</v>
       </c>
       <c r="D91" t="n">
-        <v>0.147152</v>
+        <v>0.146452</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.180846</v>
+        <v>0.178651</v>
       </c>
       <c r="C92" t="n">
-        <v>0.120193</v>
+        <v>0.114381</v>
       </c>
       <c r="D92" t="n">
-        <v>0.157312</v>
+        <v>0.156504</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.204823</v>
+        <v>0.202188</v>
       </c>
       <c r="C93" t="n">
-        <v>0.130666</v>
+        <v>0.132137</v>
       </c>
       <c r="D93" t="n">
-        <v>0.171751</v>
+        <v>0.170402</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.241403</v>
+        <v>0.243256</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0966007</v>
+        <v>0.0996336</v>
       </c>
       <c r="D94" t="n">
-        <v>0.138917</v>
+        <v>0.136133</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.141414</v>
+        <v>0.137977</v>
       </c>
       <c r="C95" t="n">
-        <v>0.102056</v>
+        <v>0.102439</v>
       </c>
       <c r="D95" t="n">
-        <v>0.139659</v>
+        <v>0.141004</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.142343</v>
+        <v>0.141298</v>
       </c>
       <c r="C96" t="n">
-        <v>0.101573</v>
+        <v>0.105351</v>
       </c>
       <c r="D96" t="n">
-        <v>0.141679</v>
+        <v>0.138681</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.143619</v>
+        <v>0.149843</v>
       </c>
       <c r="C97" t="n">
-        <v>0.101136</v>
+        <v>0.101227</v>
       </c>
       <c r="D97" t="n">
-        <v>0.14091</v>
+        <v>0.148242</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.14726</v>
+        <v>0.147828</v>
       </c>
       <c r="C98" t="n">
-        <v>0.107682</v>
+        <v>0.106698</v>
       </c>
       <c r="D98" t="n">
-        <v>0.146141</v>
+        <v>0.153306</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.149667</v>
+        <v>0.150905</v>
       </c>
       <c r="C99" t="n">
-        <v>0.106814</v>
+        <v>0.107373</v>
       </c>
       <c r="D99" t="n">
-        <v>0.149058</v>
+        <v>0.149605</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.151755</v>
+        <v>0.151768</v>
       </c>
       <c r="C100" t="n">
-        <v>0.10972</v>
+        <v>0.111372</v>
       </c>
       <c r="D100" t="n">
-        <v>0.15703</v>
+        <v>0.149536</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.158294</v>
+        <v>0.160303</v>
       </c>
       <c r="C101" t="n">
-        <v>0.111081</v>
+        <v>0.114623</v>
       </c>
       <c r="D101" t="n">
-        <v>0.152703</v>
+        <v>0.149959</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.166155</v>
+        <v>0.167387</v>
       </c>
       <c r="C102" t="n">
-        <v>0.113586</v>
+        <v>0.115086</v>
       </c>
       <c r="D102" t="n">
-        <v>0.159267</v>
+        <v>0.157263</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.170171</v>
+        <v>0.172323</v>
       </c>
       <c r="C103" t="n">
-        <v>0.117868</v>
+        <v>0.117321</v>
       </c>
       <c r="D103" t="n">
-        <v>0.159312</v>
+        <v>0.158911</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.177753</v>
+        <v>0.182589</v>
       </c>
       <c r="C104" t="n">
-        <v>0.125592</v>
+        <v>0.121516</v>
       </c>
       <c r="D104" t="n">
-        <v>0.164637</v>
+        <v>0.165826</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.189378</v>
+        <v>0.190968</v>
       </c>
       <c r="C105" t="n">
-        <v>0.128489</v>
+        <v>0.129679</v>
       </c>
       <c r="D105" t="n">
-        <v>0.176493</v>
+        <v>0.176789</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.210025</v>
+        <v>0.204145</v>
       </c>
       <c r="C106" t="n">
-        <v>0.138826</v>
+        <v>0.143084</v>
       </c>
       <c r="D106" t="n">
-        <v>0.183455</v>
+        <v>0.189653</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.242417</v>
+        <v>0.233206</v>
       </c>
       <c r="C107" t="n">
-        <v>0.148657</v>
+        <v>0.147514</v>
       </c>
       <c r="D107" t="n">
-        <v>0.199974</v>
+        <v>0.200295</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.273485</v>
+        <v>0.272222</v>
       </c>
       <c r="C108" t="n">
-        <v>0.182924</v>
+        <v>0.17435</v>
       </c>
       <c r="D108" t="n">
-        <v>0.226674</v>
+        <v>0.236852</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.335153</v>
+        <v>0.339304</v>
       </c>
       <c r="C109" t="n">
-        <v>0.186457</v>
+        <v>0.176977</v>
       </c>
       <c r="D109" t="n">
-        <v>0.22335</v>
+        <v>0.227601</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.249348</v>
+        <v>0.230223</v>
       </c>
       <c r="C110" t="n">
-        <v>0.174994</v>
+        <v>0.1766</v>
       </c>
       <c r="D110" t="n">
-        <v>0.234379</v>
+        <v>0.230545</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.230292</v>
+        <v>0.233093</v>
       </c>
       <c r="C111" t="n">
-        <v>0.189447</v>
+        <v>0.181934</v>
       </c>
       <c r="D111" t="n">
-        <v>0.225675</v>
+        <v>0.228005</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.240562</v>
+        <v>0.242114</v>
       </c>
       <c r="C112" t="n">
-        <v>0.183043</v>
+        <v>0.196148</v>
       </c>
       <c r="D112" t="n">
-        <v>0.241734</v>
+        <v>0.23948</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.242587</v>
+        <v>0.240824</v>
       </c>
       <c r="C113" t="n">
-        <v>0.183007</v>
+        <v>0.198231</v>
       </c>
       <c r="D113" t="n">
-        <v>0.230207</v>
+        <v>0.250654</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.261104</v>
+        <v>0.257727</v>
       </c>
       <c r="C114" t="n">
-        <v>0.186957</v>
+        <v>0.185764</v>
       </c>
       <c r="D114" t="n">
-        <v>0.239378</v>
+        <v>0.243551</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.248027</v>
+        <v>0.259598</v>
       </c>
       <c r="C115" t="n">
-        <v>0.198772</v>
+        <v>0.196588</v>
       </c>
       <c r="D115" t="n">
-        <v>0.235897</v>
+        <v>0.241844</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.262135</v>
+        <v>0.259397</v>
       </c>
       <c r="C116" t="n">
-        <v>0.198203</v>
+        <v>0.193437</v>
       </c>
       <c r="D116" t="n">
-        <v>0.244515</v>
+        <v>0.249462</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.261834</v>
+        <v>0.256024</v>
       </c>
       <c r="C117" t="n">
-        <v>0.193278</v>
+        <v>0.192131</v>
       </c>
       <c r="D117" t="n">
-        <v>0.244197</v>
+        <v>0.258773</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.273479</v>
+        <v>0.269841</v>
       </c>
       <c r="C118" t="n">
-        <v>0.20357</v>
+        <v>0.200401</v>
       </c>
       <c r="D118" t="n">
-        <v>0.260727</v>
+        <v>0.261682</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.304132</v>
+        <v>0.283005</v>
       </c>
       <c r="C119" t="n">
-        <v>0.201997</v>
+        <v>0.206143</v>
       </c>
       <c r="D119" t="n">
-        <v>0.253079</v>
+        <v>0.277892</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.320302</v>
+        <v>0.335874</v>
       </c>
       <c r="C120" t="n">
-        <v>0.218595</v>
+        <v>0.219428</v>
       </c>
       <c r="D120" t="n">
-        <v>0.265869</v>
+        <v>0.280874</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.330169</v>
+        <v>0.332309</v>
       </c>
       <c r="C121" t="n">
-        <v>0.243592</v>
+        <v>0.222311</v>
       </c>
       <c r="D121" t="n">
-        <v>0.300374</v>
+        <v>0.290283</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.367714</v>
+        <v>0.376422</v>
       </c>
       <c r="C122" t="n">
-        <v>0.252961</v>
+        <v>0.242873</v>
       </c>
       <c r="D122" t="n">
-        <v>0.31661</v>
+        <v>0.335877</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.456918</v>
+        <v>0.442173</v>
       </c>
       <c r="C123" t="n">
-        <v>0.282547</v>
+        <v>0.280726</v>
       </c>
       <c r="D123" t="n">
-        <v>0.382583</v>
+        <v>0.401216</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.35759</v>
+        <v>0.364504</v>
       </c>
       <c r="C124" t="n">
-        <v>0.280728</v>
+        <v>0.284041</v>
       </c>
       <c r="D124" t="n">
-        <v>0.388156</v>
+        <v>0.408723</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.378825</v>
+        <v>0.37106</v>
       </c>
       <c r="C125" t="n">
-        <v>0.286043</v>
+        <v>0.284684</v>
       </c>
       <c r="D125" t="n">
-        <v>0.389316</v>
+        <v>0.409102</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.378892</v>
+        <v>0.386084</v>
       </c>
       <c r="C126" t="n">
-        <v>0.288494</v>
+        <v>0.295718</v>
       </c>
       <c r="D126" t="n">
-        <v>0.394121</v>
+        <v>0.410477</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.380939</v>
+        <v>0.376247</v>
       </c>
       <c r="C127" t="n">
-        <v>0.293792</v>
+        <v>0.295901</v>
       </c>
       <c r="D127" t="n">
-        <v>0.394593</v>
+        <v>0.427992</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.379423</v>
+        <v>0.389377</v>
       </c>
       <c r="C128" t="n">
-        <v>0.294362</v>
+        <v>0.291065</v>
       </c>
       <c r="D128" t="n">
-        <v>0.408639</v>
+        <v>0.434865</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.392834</v>
+        <v>0.391222</v>
       </c>
       <c r="C129" t="n">
-        <v>0.293041</v>
+        <v>0.304331</v>
       </c>
       <c r="D129" t="n">
-        <v>0.398611</v>
+        <v>0.430256</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.40072</v>
+        <v>0.400026</v>
       </c>
       <c r="C130" t="n">
-        <v>0.311879</v>
+        <v>0.301455</v>
       </c>
       <c r="D130" t="n">
-        <v>0.410893</v>
+        <v>0.43733</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.40424</v>
+        <v>0.404363</v>
       </c>
       <c r="C131" t="n">
-        <v>0.299438</v>
+        <v>0.304519</v>
       </c>
       <c r="D131" t="n">
-        <v>0.415355</v>
+        <v>0.44534</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.416318</v>
+        <v>0.421001</v>
       </c>
       <c r="C132" t="n">
-        <v>0.30477</v>
+        <v>0.315398</v>
       </c>
       <c r="D132" t="n">
-        <v>0.414206</v>
+        <v>0.452409</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.432409</v>
+        <v>0.4324</v>
       </c>
       <c r="C133" t="n">
-        <v>0.317762</v>
+        <v>0.318138</v>
       </c>
       <c r="D133" t="n">
-        <v>0.426236</v>
+        <v>0.461644</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.451773</v>
+        <v>0.4659</v>
       </c>
       <c r="C134" t="n">
-        <v>0.322139</v>
+        <v>0.327328</v>
       </c>
       <c r="D134" t="n">
-        <v>0.440484</v>
+        <v>0.458902</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.49661</v>
+        <v>0.484089</v>
       </c>
       <c r="C135" t="n">
-        <v>0.334733</v>
+        <v>0.336712</v>
       </c>
       <c r="D135" t="n">
-        <v>0.463302</v>
+        <v>0.487312</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.5392479999999999</v>
+        <v>0.5335490000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>0.359193</v>
+        <v>0.364613</v>
       </c>
       <c r="D136" t="n">
-        <v>0.472444</v>
+        <v>0.5083029999999999</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.625184</v>
+        <v>0.620406</v>
       </c>
       <c r="C137" t="n">
-        <v>0.330971</v>
+        <v>0.340188</v>
       </c>
       <c r="D137" t="n">
-        <v>0.466407</v>
+        <v>0.526041</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.450412</v>
+        <v>0.449347</v>
       </c>
       <c r="C138" t="n">
-        <v>0.344781</v>
+        <v>0.343598</v>
       </c>
       <c r="D138" t="n">
-        <v>0.491297</v>
+        <v>0.535882</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.456112</v>
+        <v>0.455281</v>
       </c>
       <c r="C139" t="n">
-        <v>0.34395</v>
+        <v>0.346728</v>
       </c>
       <c r="D139" t="n">
-        <v>0.49317</v>
+        <v>0.530027</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.460228</v>
+        <v>0.466288</v>
       </c>
       <c r="C140" t="n">
-        <v>0.348633</v>
+        <v>0.348861</v>
       </c>
       <c r="D140" t="n">
-        <v>0.492161</v>
+        <v>0.538397</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.467598</v>
+        <v>0.469862</v>
       </c>
       <c r="C141" t="n">
-        <v>0.350604</v>
+        <v>0.346463</v>
       </c>
       <c r="D141" t="n">
-        <v>0.500727</v>
+        <v>0.535471</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.472551</v>
+        <v>0.475068</v>
       </c>
       <c r="C142" t="n">
-        <v>0.355666</v>
+        <v>0.357324</v>
       </c>
       <c r="D142" t="n">
-        <v>0.500061</v>
+        <v>0.539754</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.480319</v>
+        <v>0.485553</v>
       </c>
       <c r="C143" t="n">
-        <v>0.354093</v>
+        <v>0.362319</v>
       </c>
       <c r="D143" t="n">
-        <v>0.5047160000000001</v>
+        <v>0.534817</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0599439</v>
+        <v>0.0598915</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0578928</v>
+        <v>0.0592501</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09477770000000001</v>
+        <v>0.0880075</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0623136</v>
+        <v>0.060903</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0582249</v>
+        <v>0.0585253</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0897905</v>
+        <v>0.09010840000000001</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0666872</v>
+        <v>0.0670393</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0602329</v>
+        <v>0.0602079</v>
       </c>
       <c r="D4" t="n">
-        <v>0.094359</v>
+        <v>0.09556439999999999</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0750755</v>
+        <v>0.07218960000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06384040000000001</v>
+        <v>0.0650353</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0956974</v>
+        <v>0.0979444</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0829169</v>
+        <v>0.080404</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0655758</v>
+        <v>0.06488380000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.103003</v>
+        <v>0.0995983</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.099011</v>
+        <v>0.09857489999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0724553</v>
+        <v>0.0738217</v>
       </c>
       <c r="D7" t="n">
-        <v>0.108243</v>
+        <v>0.1076</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.122467</v>
+        <v>0.118493</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0844765</v>
+        <v>0.0835253</v>
       </c>
       <c r="D8" t="n">
-        <v>0.121702</v>
+        <v>0.119192</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.156916</v>
+        <v>0.155421</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0566378</v>
+        <v>0.0567181</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0858705</v>
+        <v>0.0850206</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0599723</v>
+        <v>0.0584472</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0553827</v>
+        <v>0.0590152</v>
       </c>
       <c r="D10" t="n">
-        <v>0.086756</v>
+        <v>0.08809500000000001</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0595774</v>
+        <v>0.0595549</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0556507</v>
+        <v>0.0561842</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0856208</v>
+        <v>0.0861209</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0602009</v>
+        <v>0.0593922</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0565053</v>
+        <v>0.0557905</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08541020000000001</v>
+        <v>0.08610429999999999</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0617565</v>
+        <v>0.0588961</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05501</v>
+        <v>0.0556591</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0908214</v>
+        <v>0.0852893</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.061199</v>
+        <v>0.0605482</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0573065</v>
+        <v>0.0586359</v>
       </c>
       <c r="D14" t="n">
-        <v>0.08882279999999999</v>
+        <v>0.0864224</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.06346010000000001</v>
+        <v>0.0634619</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0574349</v>
+        <v>0.0575969</v>
       </c>
       <c r="D15" t="n">
-        <v>0.08644780000000001</v>
+        <v>0.09108810000000001</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.06531670000000001</v>
+        <v>0.0650239</v>
       </c>
       <c r="C16" t="n">
-        <v>0.061083</v>
+        <v>0.059175</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0893664</v>
+        <v>0.0882831</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0681142</v>
+        <v>0.06738470000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0589438</v>
+        <v>0.059266</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0888478</v>
+        <v>0.0927501</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0740898</v>
+        <v>0.07049850000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0606488</v>
+        <v>0.0601032</v>
       </c>
       <c r="D18" t="n">
-        <v>0.09103799999999999</v>
+        <v>0.0925782</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07763059999999999</v>
+        <v>0.0776263</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0651462</v>
+        <v>0.0639353</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0929041</v>
+        <v>0.09496739999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08626689999999999</v>
+        <v>0.083953</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0668845</v>
+        <v>0.066258</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0990554</v>
+        <v>0.09579840000000001</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.100116</v>
+        <v>0.0940806</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0738123</v>
+        <v>0.0716121</v>
       </c>
       <c r="D21" t="n">
-        <v>0.103478</v>
+        <v>0.103286</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.11429</v>
+        <v>0.11121</v>
       </c>
       <c r="C22" t="n">
-        <v>0.08186880000000001</v>
+        <v>0.08194369999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.114622</v>
+        <v>0.114586</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.153634</v>
+        <v>0.145538</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0591298</v>
+        <v>0.0565611</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0863512</v>
+        <v>0.0887064</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0624186</v>
+        <v>0.0641451</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0572327</v>
+        <v>0.0570958</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0865152</v>
+        <v>0.0896021</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0646192</v>
+        <v>0.0634469</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0574603</v>
+        <v>0.057507</v>
       </c>
       <c r="D25" t="n">
-        <v>0.08672530000000001</v>
+        <v>0.08633739999999999</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0634873</v>
+        <v>0.06396159999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0581247</v>
+        <v>0.0572688</v>
       </c>
       <c r="D26" t="n">
-        <v>0.08927300000000001</v>
+        <v>0.0866883</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0645742</v>
+        <v>0.06639009999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0581735</v>
+        <v>0.0587413</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0868114</v>
+        <v>0.0884947</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0669608</v>
+        <v>0.06453979999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0589223</v>
+        <v>0.0587803</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0868072</v>
+        <v>0.08798159999999999</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0671677</v>
+        <v>0.0667271</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0602832</v>
+        <v>0.0600806</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0897664</v>
+        <v>0.0894279</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0671378</v>
+        <v>0.0683618</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0611712</v>
+        <v>0.0607442</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0891972</v>
+        <v>0.0910518</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.07158779999999999</v>
+        <v>0.0728309</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0609449</v>
+        <v>0.0604451</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0917869</v>
+        <v>0.092894</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0742597</v>
+        <v>0.0738198</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0626897</v>
+        <v>0.061401</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0938615</v>
+        <v>0.09470389999999999</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0799473</v>
+        <v>0.0796515</v>
       </c>
       <c r="C33" t="n">
-        <v>0.06494560000000001</v>
+        <v>0.0658508</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0969729</v>
+        <v>0.09333809999999999</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08875089999999999</v>
+        <v>0.08982859999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06674190000000001</v>
+        <v>0.06834510000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0957061</v>
+        <v>0.0981209</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.102688</v>
+        <v>0.0982097</v>
       </c>
       <c r="C35" t="n">
-        <v>0.07502780000000001</v>
+        <v>0.07186629999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.10411</v>
+        <v>0.107054</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.118051</v>
+        <v>0.118738</v>
       </c>
       <c r="C36" t="n">
-        <v>0.08189150000000001</v>
+        <v>0.0801761</v>
       </c>
       <c r="D36" t="n">
-        <v>0.112796</v>
+        <v>0.113366</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.144447</v>
+        <v>0.147563</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0625131</v>
+        <v>0.0587572</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0877846</v>
+        <v>0.09005779999999999</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0697108</v>
+        <v>0.0723217</v>
       </c>
       <c r="C38" t="n">
-        <v>0.059899</v>
+        <v>0.0605764</v>
       </c>
       <c r="D38" t="n">
-        <v>0.09093519999999999</v>
+        <v>0.09133090000000001</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.06895859999999999</v>
+        <v>0.06826210000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.060874</v>
+        <v>0.0586419</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0906844</v>
+        <v>0.08881</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.07101540000000001</v>
+        <v>0.0697207</v>
       </c>
       <c r="C40" t="n">
-        <v>0.059816</v>
+        <v>0.0609409</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0895726</v>
+        <v>0.0899413</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0705607</v>
+        <v>0.0717049</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0591757</v>
+        <v>0.0597318</v>
       </c>
       <c r="D41" t="n">
-        <v>0.09063160000000001</v>
+        <v>0.0889954</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0737008</v>
+        <v>0.0717233</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0607329</v>
+        <v>0.0621279</v>
       </c>
       <c r="D42" t="n">
-        <v>0.09122130000000001</v>
+        <v>0.0916558</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.07335700000000001</v>
+        <v>0.07073980000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0604944</v>
+        <v>0.0623103</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0908465</v>
+        <v>0.0909003</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0734944</v>
+        <v>0.0762481</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0627713</v>
+        <v>0.063845</v>
       </c>
       <c r="D44" t="n">
-        <v>0.092074</v>
+        <v>0.092617</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0785942</v>
+        <v>0.07478410000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.06344080000000001</v>
+        <v>0.0652851</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0924209</v>
+        <v>0.0926066</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0804706</v>
+        <v>0.07843509999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0647361</v>
+        <v>0.0665043</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0938819</v>
+        <v>0.0973898</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0832932</v>
+        <v>0.0831047</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0670963</v>
+        <v>0.068032</v>
       </c>
       <c r="D47" t="n">
-        <v>0.100017</v>
+        <v>0.100401</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0913379</v>
+        <v>0.09384199999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.07226539999999999</v>
+        <v>0.0678188</v>
       </c>
       <c r="D48" t="n">
-        <v>0.102309</v>
+        <v>0.102039</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.104231</v>
+        <v>0.10065</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0767998</v>
+        <v>0.0745344</v>
       </c>
       <c r="D49" t="n">
-        <v>0.107471</v>
+        <v>0.106214</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.118524</v>
+        <v>0.124883</v>
       </c>
       <c r="C50" t="n">
-        <v>0.08205460000000001</v>
+        <v>0.081791</v>
       </c>
       <c r="D50" t="n">
-        <v>0.121123</v>
+        <v>0.116642</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.146682</v>
+        <v>0.143474</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0640024</v>
+        <v>0.0666992</v>
       </c>
       <c r="D51" t="n">
-        <v>0.09727089999999999</v>
+        <v>0.0956172</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.192969</v>
+        <v>0.189137</v>
       </c>
       <c r="C52" t="n">
-        <v>0.066998</v>
+        <v>0.064592</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0973039</v>
+        <v>0.0948962</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0823205</v>
+        <v>0.08149190000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>0.06440220000000001</v>
+        <v>0.0649337</v>
       </c>
       <c r="D53" t="n">
-        <v>0.09413630000000001</v>
+        <v>0.099054</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0823653</v>
+        <v>0.0815338</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0658522</v>
+        <v>0.0660925</v>
       </c>
       <c r="D54" t="n">
-        <v>0.097348</v>
+        <v>0.0972527</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0849709</v>
+        <v>0.0809377</v>
       </c>
       <c r="C55" t="n">
-        <v>0.06538140000000001</v>
+        <v>0.0653257</v>
       </c>
       <c r="D55" t="n">
-        <v>0.09653879999999999</v>
+        <v>0.0952321</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0812734</v>
+        <v>0.0831242</v>
       </c>
       <c r="C56" t="n">
-        <v>0.06617140000000001</v>
+        <v>0.0661774</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0964353</v>
+        <v>0.102068</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.08636729999999999</v>
+        <v>0.0836287</v>
       </c>
       <c r="C57" t="n">
-        <v>0.06634420000000001</v>
+        <v>0.071127</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0973591</v>
+        <v>0.0996409</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0886551</v>
+        <v>0.0872643</v>
       </c>
       <c r="C58" t="n">
-        <v>0.06886829999999999</v>
+        <v>0.0699573</v>
       </c>
       <c r="D58" t="n">
-        <v>0.10052</v>
+        <v>0.0999018</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.08927359999999999</v>
+        <v>0.09386</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0696387</v>
+        <v>0.06990300000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0992446</v>
+        <v>0.101604</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0958912</v>
+        <v>0.0929693</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0738573</v>
+        <v>0.0742707</v>
       </c>
       <c r="D60" t="n">
-        <v>0.102546</v>
+        <v>0.101585</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.09724969999999999</v>
+        <v>0.0996075</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0753818</v>
+        <v>0.0758943</v>
       </c>
       <c r="D61" t="n">
-        <v>0.10642</v>
+        <v>0.104882</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.106754</v>
+        <v>0.104366</v>
       </c>
       <c r="C62" t="n">
-        <v>0.07614609999999999</v>
+        <v>0.07964640000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.110462</v>
+        <v>0.108886</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.112638</v>
+        <v>0.113919</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0812749</v>
+        <v>0.08457720000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.112643</v>
+        <v>0.119468</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.129028</v>
+        <v>0.128203</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0931854</v>
+        <v>0.09180729999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.12399</v>
+        <v>0.130495</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.154508</v>
+        <v>0.157826</v>
       </c>
       <c r="C65" t="n">
-        <v>0.105639</v>
+        <v>0.104768</v>
       </c>
       <c r="D65" t="n">
-        <v>0.137325</v>
+        <v>0.143232</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.192962</v>
+        <v>0.19472</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0703399</v>
+        <v>0.07151680000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.101633</v>
+        <v>0.103286</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0921464</v>
+        <v>0.0930327</v>
       </c>
       <c r="C67" t="n">
-        <v>0.07363740000000001</v>
+        <v>0.0714067</v>
       </c>
       <c r="D67" t="n">
-        <v>0.108936</v>
+        <v>0.104825</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.093039</v>
+        <v>0.0941786</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0700258</v>
+        <v>0.06971330000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.106048</v>
+        <v>0.105142</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.09362910000000001</v>
+        <v>0.0945411</v>
       </c>
       <c r="C69" t="n">
-        <v>0.07455050000000001</v>
+        <v>0.07215439999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.106768</v>
+        <v>0.104941</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0952382</v>
+        <v>0.0968803</v>
       </c>
       <c r="C70" t="n">
-        <v>0.074437</v>
+        <v>0.0733158</v>
       </c>
       <c r="D70" t="n">
-        <v>0.104975</v>
+        <v>0.105827</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0979323</v>
+        <v>0.0987175</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0757427</v>
+        <v>0.074461</v>
       </c>
       <c r="D71" t="n">
-        <v>0.115492</v>
+        <v>0.109731</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.102825</v>
+        <v>0.102515</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0771961</v>
+        <v>0.07552</v>
       </c>
       <c r="D72" t="n">
-        <v>0.109062</v>
+        <v>0.10779</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.103638</v>
+        <v>0.106506</v>
       </c>
       <c r="C73" t="n">
-        <v>0.07679660000000001</v>
+        <v>0.0777125</v>
       </c>
       <c r="D73" t="n">
-        <v>0.109617</v>
+        <v>0.1117</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.107301</v>
+        <v>0.108521</v>
       </c>
       <c r="C74" t="n">
-        <v>0.078886</v>
+        <v>0.0800078</v>
       </c>
       <c r="D74" t="n">
-        <v>0.118916</v>
+        <v>0.115206</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.117705</v>
+        <v>0.115508</v>
       </c>
       <c r="C75" t="n">
-        <v>0.08422689999999999</v>
+        <v>0.0835849</v>
       </c>
       <c r="D75" t="n">
-        <v>0.114609</v>
+        <v>0.118479</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.121475</v>
+        <v>0.125896</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0847866</v>
+        <v>0.0856994</v>
       </c>
       <c r="D76" t="n">
-        <v>0.122372</v>
+        <v>0.122706</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.132314</v>
+        <v>0.13705</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0914195</v>
+        <v>0.0942147</v>
       </c>
       <c r="D77" t="n">
-        <v>0.134589</v>
+        <v>0.129656</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.153566</v>
+        <v>0.154506</v>
       </c>
       <c r="C78" t="n">
-        <v>0.101209</v>
+        <v>0.101958</v>
       </c>
       <c r="D78" t="n">
-        <v>0.137509</v>
+        <v>0.145043</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179617</v>
+        <v>0.183162</v>
       </c>
       <c r="C79" t="n">
-        <v>0.115194</v>
+        <v>0.118175</v>
       </c>
       <c r="D79" t="n">
-        <v>0.158345</v>
+        <v>0.1567</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.215113</v>
+        <v>0.224728</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0772176</v>
+        <v>0.07926030000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.112728</v>
+        <v>0.112567</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.106226</v>
+        <v>0.112782</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0791582</v>
+        <v>0.0805905</v>
       </c>
       <c r="D81" t="n">
-        <v>0.116526</v>
+        <v>0.114448</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.108626</v>
+        <v>0.110056</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0800715</v>
+        <v>0.0830275</v>
       </c>
       <c r="D82" t="n">
-        <v>0.114588</v>
+        <v>0.119047</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.11401</v>
+        <v>0.110767</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0795096</v>
+        <v>0.082445</v>
       </c>
       <c r="D83" t="n">
-        <v>0.118106</v>
+        <v>0.118072</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.115136</v>
+        <v>0.113293</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0833564</v>
+        <v>0.0817249</v>
       </c>
       <c r="D84" t="n">
-        <v>0.120834</v>
+        <v>0.119934</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.119567</v>
+        <v>0.123796</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0867078</v>
+        <v>0.08589960000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.123247</v>
+        <v>0.123809</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.123586</v>
+        <v>0.119683</v>
       </c>
       <c r="C86" t="n">
-        <v>0.08854389999999999</v>
+        <v>0.0881403</v>
       </c>
       <c r="D86" t="n">
-        <v>0.123065</v>
+        <v>0.12474</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.128367</v>
+        <v>0.131272</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0890513</v>
+        <v>0.0907346</v>
       </c>
       <c r="D87" t="n">
-        <v>0.124766</v>
+        <v>0.124601</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.133927</v>
+        <v>0.134084</v>
       </c>
       <c r="C88" t="n">
-        <v>0.09529319999999999</v>
+        <v>0.0943403</v>
       </c>
       <c r="D88" t="n">
-        <v>0.137302</v>
+        <v>0.128187</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.144198</v>
+        <v>0.140081</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0950251</v>
+        <v>0.0978074</v>
       </c>
       <c r="D89" t="n">
-        <v>0.13521</v>
+        <v>0.13296</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.147615</v>
+        <v>0.150602</v>
       </c>
       <c r="C90" t="n">
-        <v>0.100175</v>
+        <v>0.103061</v>
       </c>
       <c r="D90" t="n">
-        <v>0.139199</v>
+        <v>0.137834</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.16525</v>
+        <v>0.161668</v>
       </c>
       <c r="C91" t="n">
-        <v>0.107839</v>
+        <v>0.108592</v>
       </c>
       <c r="D91" t="n">
-        <v>0.146452</v>
+        <v>0.145293</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.178651</v>
+        <v>0.18058</v>
       </c>
       <c r="C92" t="n">
-        <v>0.114381</v>
+        <v>0.117611</v>
       </c>
       <c r="D92" t="n">
-        <v>0.156504</v>
+        <v>0.155207</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.202188</v>
+        <v>0.201587</v>
       </c>
       <c r="C93" t="n">
-        <v>0.132137</v>
+        <v>0.12727</v>
       </c>
       <c r="D93" t="n">
-        <v>0.170402</v>
+        <v>0.172325</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.243256</v>
+        <v>0.244457</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0996336</v>
+        <v>0.101327</v>
       </c>
       <c r="D94" t="n">
-        <v>0.136133</v>
+        <v>0.134117</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.137977</v>
+        <v>0.13683</v>
       </c>
       <c r="C95" t="n">
-        <v>0.102439</v>
+        <v>0.101991</v>
       </c>
       <c r="D95" t="n">
-        <v>0.141004</v>
+        <v>0.142573</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.141298</v>
+        <v>0.140027</v>
       </c>
       <c r="C96" t="n">
-        <v>0.105351</v>
+        <v>0.103512</v>
       </c>
       <c r="D96" t="n">
-        <v>0.138681</v>
+        <v>0.145813</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.149843</v>
+        <v>0.143248</v>
       </c>
       <c r="C97" t="n">
-        <v>0.101227</v>
+        <v>0.103356</v>
       </c>
       <c r="D97" t="n">
-        <v>0.148242</v>
+        <v>0.139957</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.147828</v>
+        <v>0.146852</v>
       </c>
       <c r="C98" t="n">
-        <v>0.106698</v>
+        <v>0.103067</v>
       </c>
       <c r="D98" t="n">
-        <v>0.153306</v>
+        <v>0.142704</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.150905</v>
+        <v>0.151152</v>
       </c>
       <c r="C99" t="n">
-        <v>0.107373</v>
+        <v>0.109217</v>
       </c>
       <c r="D99" t="n">
-        <v>0.149605</v>
+        <v>0.145173</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.151768</v>
+        <v>0.150915</v>
       </c>
       <c r="C100" t="n">
-        <v>0.111372</v>
+        <v>0.108945</v>
       </c>
       <c r="D100" t="n">
-        <v>0.149536</v>
+        <v>0.150326</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.160303</v>
+        <v>0.155514</v>
       </c>
       <c r="C101" t="n">
-        <v>0.114623</v>
+        <v>0.112261</v>
       </c>
       <c r="D101" t="n">
-        <v>0.149959</v>
+        <v>0.151298</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.167387</v>
+        <v>0.164882</v>
       </c>
       <c r="C102" t="n">
-        <v>0.115086</v>
+        <v>0.113277</v>
       </c>
       <c r="D102" t="n">
-        <v>0.157263</v>
+        <v>0.15434</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.172323</v>
+        <v>0.174736</v>
       </c>
       <c r="C103" t="n">
-        <v>0.117321</v>
+        <v>0.120121</v>
       </c>
       <c r="D103" t="n">
-        <v>0.158911</v>
+        <v>0.159997</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.182589</v>
+        <v>0.183132</v>
       </c>
       <c r="C104" t="n">
-        <v>0.121516</v>
+        <v>0.124816</v>
       </c>
       <c r="D104" t="n">
-        <v>0.165826</v>
+        <v>0.170406</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.190968</v>
+        <v>0.189335</v>
       </c>
       <c r="C105" t="n">
-        <v>0.129679</v>
+        <v>0.131354</v>
       </c>
       <c r="D105" t="n">
-        <v>0.176789</v>
+        <v>0.174662</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.204145</v>
+        <v>0.212931</v>
       </c>
       <c r="C106" t="n">
-        <v>0.143084</v>
+        <v>0.139572</v>
       </c>
       <c r="D106" t="n">
-        <v>0.189653</v>
+        <v>0.183892</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.233206</v>
+        <v>0.233539</v>
       </c>
       <c r="C107" t="n">
-        <v>0.147514</v>
+        <v>0.151576</v>
       </c>
       <c r="D107" t="n">
-        <v>0.200295</v>
+        <v>0.208161</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.272222</v>
+        <v>0.284336</v>
       </c>
       <c r="C108" t="n">
-        <v>0.17435</v>
+        <v>0.178193</v>
       </c>
       <c r="D108" t="n">
-        <v>0.236852</v>
+        <v>0.24393</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.339304</v>
+        <v>0.362241</v>
       </c>
       <c r="C109" t="n">
-        <v>0.176977</v>
+        <v>0.174694</v>
       </c>
       <c r="D109" t="n">
-        <v>0.227601</v>
+        <v>0.241858</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.230223</v>
+        <v>0.231513</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1766</v>
+        <v>0.179035</v>
       </c>
       <c r="D110" t="n">
-        <v>0.230545</v>
+        <v>0.230298</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.233093</v>
+        <v>0.231846</v>
       </c>
       <c r="C111" t="n">
-        <v>0.181934</v>
+        <v>0.178257</v>
       </c>
       <c r="D111" t="n">
-        <v>0.228005</v>
+        <v>0.230959</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.242114</v>
+        <v>0.249877</v>
       </c>
       <c r="C112" t="n">
-        <v>0.196148</v>
+        <v>0.179715</v>
       </c>
       <c r="D112" t="n">
-        <v>0.23948</v>
+        <v>0.256654</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.240824</v>
+        <v>0.255327</v>
       </c>
       <c r="C113" t="n">
-        <v>0.198231</v>
+        <v>0.182494</v>
       </c>
       <c r="D113" t="n">
-        <v>0.250654</v>
+        <v>0.236864</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.257727</v>
+        <v>0.246694</v>
       </c>
       <c r="C114" t="n">
-        <v>0.185764</v>
+        <v>0.186652</v>
       </c>
       <c r="D114" t="n">
-        <v>0.243551</v>
+        <v>0.243475</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.259598</v>
+        <v>0.263025</v>
       </c>
       <c r="C115" t="n">
-        <v>0.196588</v>
+        <v>0.195576</v>
       </c>
       <c r="D115" t="n">
-        <v>0.241844</v>
+        <v>0.271966</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.259397</v>
+        <v>0.255249</v>
       </c>
       <c r="C116" t="n">
-        <v>0.193437</v>
+        <v>0.195032</v>
       </c>
       <c r="D116" t="n">
-        <v>0.249462</v>
+        <v>0.252268</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.256024</v>
+        <v>0.273786</v>
       </c>
       <c r="C117" t="n">
-        <v>0.192131</v>
+        <v>0.194541</v>
       </c>
       <c r="D117" t="n">
-        <v>0.258773</v>
+        <v>0.252546</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.269841</v>
+        <v>0.272778</v>
       </c>
       <c r="C118" t="n">
-        <v>0.200401</v>
+        <v>0.208222</v>
       </c>
       <c r="D118" t="n">
-        <v>0.261682</v>
+        <v>0.275452</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.283005</v>
+        <v>0.296413</v>
       </c>
       <c r="C119" t="n">
-        <v>0.206143</v>
+        <v>0.219702</v>
       </c>
       <c r="D119" t="n">
-        <v>0.277892</v>
+        <v>0.284194</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.335874</v>
+        <v>0.318281</v>
       </c>
       <c r="C120" t="n">
-        <v>0.219428</v>
+        <v>0.2208</v>
       </c>
       <c r="D120" t="n">
-        <v>0.280874</v>
+        <v>0.289911</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.332309</v>
+        <v>0.344654</v>
       </c>
       <c r="C121" t="n">
-        <v>0.222311</v>
+        <v>0.238514</v>
       </c>
       <c r="D121" t="n">
-        <v>0.290283</v>
+        <v>0.291817</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.376422</v>
+        <v>0.379929</v>
       </c>
       <c r="C122" t="n">
-        <v>0.242873</v>
+        <v>0.25724</v>
       </c>
       <c r="D122" t="n">
-        <v>0.335877</v>
+        <v>0.317119</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.442173</v>
+        <v>0.459571</v>
       </c>
       <c r="C123" t="n">
-        <v>0.280726</v>
+        <v>0.282402</v>
       </c>
       <c r="D123" t="n">
-        <v>0.401216</v>
+        <v>0.405824</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.364504</v>
+        <v>0.371328</v>
       </c>
       <c r="C124" t="n">
-        <v>0.284041</v>
+        <v>0.287581</v>
       </c>
       <c r="D124" t="n">
-        <v>0.408723</v>
+        <v>0.411404</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.37106</v>
+        <v>0.375255</v>
       </c>
       <c r="C125" t="n">
-        <v>0.284684</v>
+        <v>0.286953</v>
       </c>
       <c r="D125" t="n">
-        <v>0.409102</v>
+        <v>0.418536</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.386084</v>
+        <v>0.376009</v>
       </c>
       <c r="C126" t="n">
-        <v>0.295718</v>
+        <v>0.288433</v>
       </c>
       <c r="D126" t="n">
-        <v>0.410477</v>
+        <v>0.404506</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.376247</v>
+        <v>0.374822</v>
       </c>
       <c r="C127" t="n">
-        <v>0.295901</v>
+        <v>0.300057</v>
       </c>
       <c r="D127" t="n">
-        <v>0.427992</v>
+        <v>0.424567</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.389377</v>
+        <v>0.392561</v>
       </c>
       <c r="C128" t="n">
-        <v>0.291065</v>
+        <v>0.297179</v>
       </c>
       <c r="D128" t="n">
-        <v>0.434865</v>
+        <v>0.441123</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.391222</v>
+        <v>0.388014</v>
       </c>
       <c r="C129" t="n">
-        <v>0.304331</v>
+        <v>0.296866</v>
       </c>
       <c r="D129" t="n">
-        <v>0.430256</v>
+        <v>0.422274</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.400026</v>
+        <v>0.393241</v>
       </c>
       <c r="C130" t="n">
-        <v>0.301455</v>
+        <v>0.301883</v>
       </c>
       <c r="D130" t="n">
-        <v>0.43733</v>
+        <v>0.423546</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.404363</v>
+        <v>0.409717</v>
       </c>
       <c r="C131" t="n">
-        <v>0.304519</v>
+        <v>0.307833</v>
       </c>
       <c r="D131" t="n">
-        <v>0.44534</v>
+        <v>0.437202</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.421001</v>
+        <v>0.424167</v>
       </c>
       <c r="C132" t="n">
-        <v>0.315398</v>
+        <v>0.319122</v>
       </c>
       <c r="D132" t="n">
-        <v>0.452409</v>
+        <v>0.459076</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.4324</v>
+        <v>0.434417</v>
       </c>
       <c r="C133" t="n">
-        <v>0.318138</v>
+        <v>0.319723</v>
       </c>
       <c r="D133" t="n">
-        <v>0.461644</v>
+        <v>0.456385</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.4659</v>
+        <v>0.467082</v>
       </c>
       <c r="C134" t="n">
-        <v>0.327328</v>
+        <v>0.332665</v>
       </c>
       <c r="D134" t="n">
-        <v>0.458902</v>
+        <v>0.471054</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.484089</v>
+        <v>0.483781</v>
       </c>
       <c r="C135" t="n">
-        <v>0.336712</v>
+        <v>0.344478</v>
       </c>
       <c r="D135" t="n">
-        <v>0.487312</v>
+        <v>0.481091</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.5335490000000001</v>
+        <v>0.543544</v>
       </c>
       <c r="C136" t="n">
-        <v>0.364613</v>
+        <v>0.375776</v>
       </c>
       <c r="D136" t="n">
-        <v>0.5083029999999999</v>
+        <v>0.511222</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.620406</v>
+        <v>0.625212</v>
       </c>
       <c r="C137" t="n">
-        <v>0.340188</v>
+        <v>0.340447</v>
       </c>
       <c r="D137" t="n">
-        <v>0.526041</v>
+        <v>0.530442</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.449347</v>
+        <v>0.461759</v>
       </c>
       <c r="C138" t="n">
-        <v>0.343598</v>
+        <v>0.341754</v>
       </c>
       <c r="D138" t="n">
-        <v>0.535882</v>
+        <v>0.528728</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.455281</v>
+        <v>0.461112</v>
       </c>
       <c r="C139" t="n">
-        <v>0.346728</v>
+        <v>0.342935</v>
       </c>
       <c r="D139" t="n">
-        <v>0.530027</v>
+        <v>0.536703</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.466288</v>
+        <v>0.466635</v>
       </c>
       <c r="C140" t="n">
-        <v>0.348861</v>
+        <v>0.348138</v>
       </c>
       <c r="D140" t="n">
-        <v>0.538397</v>
+        <v>0.542852</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.469862</v>
+        <v>0.46114</v>
       </c>
       <c r="C141" t="n">
-        <v>0.346463</v>
+        <v>0.35436</v>
       </c>
       <c r="D141" t="n">
-        <v>0.535471</v>
+        <v>0.539206</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.475068</v>
+        <v>0.471102</v>
       </c>
       <c r="C142" t="n">
-        <v>0.357324</v>
+        <v>0.350795</v>
       </c>
       <c r="D142" t="n">
-        <v>0.539754</v>
+        <v>0.534724</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.485553</v>
+        <v>0.479814</v>
       </c>
       <c r="C143" t="n">
-        <v>0.362319</v>
+        <v>0.355519</v>
       </c>
       <c r="D143" t="n">
-        <v>0.534817</v>
+        <v>0.549818</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0598915</v>
+        <v>0.0605094</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0592501</v>
+        <v>0.0570029</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0880075</v>
+        <v>0.149668</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.060903</v>
+        <v>0.0655757</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0585253</v>
+        <v>0.0580547</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09010840000000001</v>
+        <v>0.157584</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0670393</v>
+        <v>0.06813760000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0602079</v>
+        <v>0.0600357</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09556439999999999</v>
+        <v>0.156699</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07218960000000001</v>
+        <v>0.076709</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0650353</v>
+        <v>0.0617348</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0979444</v>
+        <v>0.164123</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.080404</v>
+        <v>0.0831595</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06488380000000001</v>
+        <v>0.0656461</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0995983</v>
+        <v>0.16798</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.09857489999999999</v>
+        <v>0.0996697</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0738217</v>
+        <v>0.07068869999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1076</v>
+        <v>0.137108</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.118493</v>
+        <v>0.118536</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0835253</v>
+        <v>0.0815762</v>
       </c>
       <c r="D8" t="n">
-        <v>0.119192</v>
+        <v>0.14049</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.155421</v>
+        <v>0.154844</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0567181</v>
+        <v>0.0561247</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0850206</v>
+        <v>0.141463</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0584472</v>
+        <v>0.0594347</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0590152</v>
+        <v>0.0563958</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08809500000000001</v>
+        <v>0.149708</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0595549</v>
+        <v>0.06121</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0561842</v>
+        <v>0.0557809</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0861209</v>
+        <v>0.161001</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0593922</v>
+        <v>0.0603424</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0557905</v>
+        <v>0.057571</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08610429999999999</v>
+        <v>0.16063</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0588961</v>
+        <v>0.0612275</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0556591</v>
+        <v>0.0561312</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0852893</v>
+        <v>0.163032</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0605482</v>
+        <v>0.0629622</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0586359</v>
+        <v>0.0571421</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0864224</v>
+        <v>0.171303</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0634619</v>
+        <v>0.0655572</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0575969</v>
+        <v>0.05751</v>
       </c>
       <c r="D15" t="n">
-        <v>0.09108810000000001</v>
+        <v>0.176098</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0650239</v>
+        <v>0.0655057</v>
       </c>
       <c r="C16" t="n">
-        <v>0.059175</v>
+        <v>0.0576891</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0882831</v>
+        <v>0.183301</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06738470000000001</v>
+        <v>0.0660703</v>
       </c>
       <c r="C17" t="n">
-        <v>0.059266</v>
+        <v>0.0594835</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0927501</v>
+        <v>0.181939</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07049850000000001</v>
+        <v>0.07099569999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0601032</v>
+        <v>0.0611564</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0925782</v>
+        <v>0.187025</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0776263</v>
+        <v>0.07796930000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0639353</v>
+        <v>0.0637209</v>
       </c>
       <c r="D19" t="n">
-        <v>0.09496739999999999</v>
+        <v>0.198571</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.083953</v>
+        <v>0.0835217</v>
       </c>
       <c r="C20" t="n">
-        <v>0.066258</v>
+        <v>0.0670637</v>
       </c>
       <c r="D20" t="n">
-        <v>0.09579840000000001</v>
+        <v>0.209019</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0940806</v>
+        <v>0.0954096</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0716121</v>
+        <v>0.07181700000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.103286</v>
+        <v>0.149802</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.11121</v>
+        <v>0.115674</v>
       </c>
       <c r="C22" t="n">
-        <v>0.08194369999999999</v>
+        <v>0.0809318</v>
       </c>
       <c r="D22" t="n">
-        <v>0.114586</v>
+        <v>0.149932</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.145538</v>
+        <v>0.15468</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0565611</v>
+        <v>0.057881</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0887064</v>
+        <v>0.165827</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0641451</v>
+        <v>0.0646311</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0570958</v>
+        <v>0.0571751</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0896021</v>
+        <v>0.165097</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0634469</v>
+        <v>0.0661534</v>
       </c>
       <c r="C25" t="n">
-        <v>0.057507</v>
+        <v>0.0567758</v>
       </c>
       <c r="D25" t="n">
-        <v>0.08633739999999999</v>
+        <v>0.172766</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.06396159999999999</v>
+        <v>0.0649725</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0572688</v>
+        <v>0.0604134</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0866883</v>
+        <v>0.175296</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.06639009999999999</v>
+        <v>0.0673203</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0587413</v>
+        <v>0.0588055</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0884947</v>
+        <v>0.175909</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.06453979999999999</v>
+        <v>0.0660379</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0587803</v>
+        <v>0.0578804</v>
       </c>
       <c r="D28" t="n">
-        <v>0.08798159999999999</v>
+        <v>0.185452</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0667271</v>
+        <v>0.0689473</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0600806</v>
+        <v>0.0585318</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0894279</v>
+        <v>0.195473</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0683618</v>
+        <v>0.0687909</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0607442</v>
+        <v>0.0587532</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0910518</v>
+        <v>0.195885</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0728309</v>
+        <v>0.07193330000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0604451</v>
+        <v>0.0625242</v>
       </c>
       <c r="D31" t="n">
-        <v>0.092894</v>
+        <v>0.20637</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0738198</v>
+        <v>0.07452309999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.061401</v>
+        <v>0.0632151</v>
       </c>
       <c r="D32" t="n">
-        <v>0.09470389999999999</v>
+        <v>0.212305</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0796515</v>
+        <v>0.079273</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0658508</v>
+        <v>0.06588189999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.09333809999999999</v>
+        <v>0.211066</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08982859999999999</v>
+        <v>0.0884239</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06834510000000001</v>
+        <v>0.0680543</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0981209</v>
+        <v>0.217762</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0982097</v>
+        <v>0.102936</v>
       </c>
       <c r="C35" t="n">
-        <v>0.07186629999999999</v>
+        <v>0.0726357</v>
       </c>
       <c r="D35" t="n">
-        <v>0.107054</v>
+        <v>0.165899</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.118738</v>
+        <v>0.115391</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0801761</v>
+        <v>0.0823125</v>
       </c>
       <c r="D36" t="n">
-        <v>0.113366</v>
+        <v>0.174314</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.147563</v>
+        <v>0.145477</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0587572</v>
+        <v>0.059258</v>
       </c>
       <c r="D37" t="n">
-        <v>0.09005779999999999</v>
+        <v>0.180675</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0723217</v>
+        <v>0.0663615</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0605764</v>
+        <v>0.0599524</v>
       </c>
       <c r="D38" t="n">
-        <v>0.09133090000000001</v>
+        <v>0.18672</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.06826210000000001</v>
+        <v>0.070034</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0586419</v>
+        <v>0.0583811</v>
       </c>
       <c r="D39" t="n">
-        <v>0.08881</v>
+        <v>0.197329</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0697207</v>
+        <v>0.07021910000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0609409</v>
+        <v>0.0603314</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0899413</v>
+        <v>0.203524</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0717049</v>
+        <v>0.0723081</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0597318</v>
+        <v>0.0626717</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0889954</v>
+        <v>0.207941</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0717233</v>
+        <v>0.0707416</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0621279</v>
+        <v>0.0624393</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0916558</v>
+        <v>0.232752</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.07073980000000001</v>
+        <v>0.07136579999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0623103</v>
+        <v>0.060626</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0909003</v>
+        <v>0.226743</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0762481</v>
+        <v>0.0752268</v>
       </c>
       <c r="C44" t="n">
-        <v>0.063845</v>
+        <v>0.0620238</v>
       </c>
       <c r="D44" t="n">
-        <v>0.092617</v>
+        <v>0.242828</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.07478410000000001</v>
+        <v>0.0791226</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0652851</v>
+        <v>0.06445140000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0926066</v>
+        <v>0.259496</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.07843509999999999</v>
+        <v>0.0799971</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0665043</v>
+        <v>0.0657123</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0973898</v>
+        <v>0.262487</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0831047</v>
+        <v>0.0848975</v>
       </c>
       <c r="C47" t="n">
-        <v>0.068032</v>
+        <v>0.0683077</v>
       </c>
       <c r="D47" t="n">
-        <v>0.100401</v>
+        <v>0.285595</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.09384199999999999</v>
+        <v>0.09379</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0678188</v>
+        <v>0.07109890000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.102039</v>
+        <v>0.291901</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.10065</v>
+        <v>0.101342</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0745344</v>
+        <v>0.0766418</v>
       </c>
       <c r="D49" t="n">
-        <v>0.106214</v>
+        <v>0.302465</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.124883</v>
+        <v>0.118675</v>
       </c>
       <c r="C50" t="n">
-        <v>0.081791</v>
+        <v>0.0846018</v>
       </c>
       <c r="D50" t="n">
-        <v>0.116642</v>
+        <v>0.215327</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.143474</v>
+        <v>0.146786</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0666992</v>
+        <v>0.0622755</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0956172</v>
+        <v>0.219742</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.189137</v>
+        <v>0.186057</v>
       </c>
       <c r="C52" t="n">
-        <v>0.064592</v>
+        <v>0.06338770000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0948962</v>
+        <v>0.243504</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.08149190000000001</v>
+        <v>0.0831252</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0649337</v>
+        <v>0.0647471</v>
       </c>
       <c r="D53" t="n">
-        <v>0.099054</v>
+        <v>0.254336</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0815338</v>
+        <v>0.0813741</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0660925</v>
+        <v>0.0664072</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0972527</v>
+        <v>0.268725</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0809377</v>
+        <v>0.0839495</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0653257</v>
+        <v>0.0665748</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0952321</v>
+        <v>0.291587</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0831242</v>
+        <v>0.08370900000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0661774</v>
+        <v>0.06735819999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.102068</v>
+        <v>0.31377</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0836287</v>
+        <v>0.0873145</v>
       </c>
       <c r="C57" t="n">
-        <v>0.071127</v>
+        <v>0.0660472</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0996409</v>
+        <v>0.31945</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0872643</v>
+        <v>0.08669689999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0699573</v>
+        <v>0.0688496</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0999018</v>
+        <v>0.31977</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.09386</v>
+        <v>0.0868312</v>
       </c>
       <c r="C59" t="n">
-        <v>0.06990300000000001</v>
+        <v>0.06831379999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.101604</v>
+        <v>0.34175</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0929693</v>
+        <v>0.0915866</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0742707</v>
+        <v>0.06978330000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.101585</v>
+        <v>0.361607</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0996075</v>
+        <v>0.09423140000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0758943</v>
+        <v>0.07226879999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.104882</v>
+        <v>0.382945</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.104366</v>
+        <v>0.101122</v>
       </c>
       <c r="C62" t="n">
-        <v>0.07964640000000001</v>
+        <v>0.0780042</v>
       </c>
       <c r="D62" t="n">
-        <v>0.108886</v>
+        <v>0.416733</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.113919</v>
+        <v>0.117342</v>
       </c>
       <c r="C63" t="n">
-        <v>0.08457720000000001</v>
+        <v>0.0790759</v>
       </c>
       <c r="D63" t="n">
-        <v>0.119468</v>
+        <v>0.438938</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.128203</v>
+        <v>0.124475</v>
       </c>
       <c r="C64" t="n">
-        <v>0.09180729999999999</v>
+        <v>0.09038499999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.130495</v>
+        <v>0.329791</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.157826</v>
+        <v>0.150789</v>
       </c>
       <c r="C65" t="n">
-        <v>0.104768</v>
+        <v>0.0999772</v>
       </c>
       <c r="D65" t="n">
-        <v>0.143232</v>
+        <v>0.349225</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.19472</v>
+        <v>0.197934</v>
       </c>
       <c r="C66" t="n">
-        <v>0.07151680000000001</v>
+        <v>0.06917769999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.103286</v>
+        <v>0.347917</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0930327</v>
+        <v>0.0924748</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0714067</v>
+        <v>0.0685286</v>
       </c>
       <c r="D67" t="n">
-        <v>0.104825</v>
+        <v>0.372349</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0941786</v>
+        <v>0.08850280000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.06971330000000001</v>
+        <v>0.0688848</v>
       </c>
       <c r="D68" t="n">
-        <v>0.105142</v>
+        <v>0.420062</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0945411</v>
+        <v>0.0928597</v>
       </c>
       <c r="C69" t="n">
-        <v>0.07215439999999999</v>
+        <v>0.0694766</v>
       </c>
       <c r="D69" t="n">
-        <v>0.104941</v>
+        <v>0.414687</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0968803</v>
+        <v>0.0934739</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0733158</v>
+        <v>0.07359980000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.105827</v>
+        <v>0.435671</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0987175</v>
+        <v>0.0923035</v>
       </c>
       <c r="C71" t="n">
-        <v>0.074461</v>
+        <v>0.0716353</v>
       </c>
       <c r="D71" t="n">
-        <v>0.109731</v>
+        <v>0.449874</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.102515</v>
+        <v>0.094584</v>
       </c>
       <c r="C72" t="n">
-        <v>0.07552</v>
+        <v>0.07324319999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.10779</v>
+        <v>0.489796</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.106506</v>
+        <v>0.0978369</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0777125</v>
+        <v>0.0771935</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1117</v>
+        <v>0.516655</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.108521</v>
+        <v>0.101897</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0800078</v>
+        <v>0.077976</v>
       </c>
       <c r="D74" t="n">
-        <v>0.115206</v>
+        <v>0.5623359999999999</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.115508</v>
+        <v>0.112983</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0835849</v>
+        <v>0.08784989999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.118479</v>
+        <v>0.594518</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.125896</v>
+        <v>0.122833</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0856994</v>
+        <v>0.0893032</v>
       </c>
       <c r="D76" t="n">
-        <v>0.122706</v>
+        <v>0.623963</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.13705</v>
+        <v>0.13745</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0942147</v>
+        <v>0.0919286</v>
       </c>
       <c r="D77" t="n">
-        <v>0.129656</v>
+        <v>0.6538079999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.154506</v>
+        <v>0.15133</v>
       </c>
       <c r="C78" t="n">
-        <v>0.101958</v>
+        <v>0.101156</v>
       </c>
       <c r="D78" t="n">
-        <v>0.145043</v>
+        <v>0.484956</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.183162</v>
+        <v>0.179251</v>
       </c>
       <c r="C79" t="n">
-        <v>0.118175</v>
+        <v>0.116013</v>
       </c>
       <c r="D79" t="n">
-        <v>0.1567</v>
+        <v>0.520562</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.224728</v>
+        <v>0.217845</v>
       </c>
       <c r="C80" t="n">
-        <v>0.07926030000000001</v>
+        <v>0.0767222</v>
       </c>
       <c r="D80" t="n">
-        <v>0.112567</v>
+        <v>0.561414</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.112782</v>
+        <v>0.108809</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0805905</v>
+        <v>0.0781791</v>
       </c>
       <c r="D81" t="n">
-        <v>0.114448</v>
+        <v>0.5734</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.110056</v>
+        <v>0.110277</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0830275</v>
+        <v>0.0785811</v>
       </c>
       <c r="D82" t="n">
-        <v>0.119047</v>
+        <v>0.5725710000000001</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.110767</v>
+        <v>0.111946</v>
       </c>
       <c r="C83" t="n">
-        <v>0.082445</v>
+        <v>0.0821728</v>
       </c>
       <c r="D83" t="n">
-        <v>0.118072</v>
+        <v>0.59367</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.113293</v>
+        <v>0.116764</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0817249</v>
+        <v>0.0860317</v>
       </c>
       <c r="D84" t="n">
-        <v>0.119934</v>
+        <v>0.625457</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.123796</v>
+        <v>0.118576</v>
       </c>
       <c r="C85" t="n">
-        <v>0.08589960000000001</v>
+        <v>0.0860298</v>
       </c>
       <c r="D85" t="n">
-        <v>0.123809</v>
+        <v>0.655644</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.119683</v>
+        <v>0.125461</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0881403</v>
+        <v>0.0878683</v>
       </c>
       <c r="D86" t="n">
-        <v>0.12474</v>
+        <v>0.673276</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.131272</v>
+        <v>0.126483</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0907346</v>
+        <v>0.0872101</v>
       </c>
       <c r="D87" t="n">
-        <v>0.124601</v>
+        <v>0.690348</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.134084</v>
+        <v>0.131556</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0943403</v>
+        <v>0.09172420000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>0.128187</v>
+        <v>0.7151650000000001</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.140081</v>
+        <v>0.137349</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0978074</v>
+        <v>0.09764340000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>0.13296</v>
+        <v>0.767702</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.150602</v>
+        <v>0.14716</v>
       </c>
       <c r="C90" t="n">
-        <v>0.103061</v>
+        <v>0.100703</v>
       </c>
       <c r="D90" t="n">
-        <v>0.137834</v>
+        <v>0.769048</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.161668</v>
+        <v>0.156625</v>
       </c>
       <c r="C91" t="n">
-        <v>0.108592</v>
+        <v>0.109016</v>
       </c>
       <c r="D91" t="n">
-        <v>0.145293</v>
+        <v>0.81315</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.18058</v>
+        <v>0.178347</v>
       </c>
       <c r="C92" t="n">
-        <v>0.117611</v>
+        <v>0.113172</v>
       </c>
       <c r="D92" t="n">
-        <v>0.155207</v>
+        <v>0.5941419999999999</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.201587</v>
+        <v>0.200627</v>
       </c>
       <c r="C93" t="n">
-        <v>0.12727</v>
+        <v>0.12913</v>
       </c>
       <c r="D93" t="n">
-        <v>0.172325</v>
+        <v>0.6316349999999999</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.244457</v>
+        <v>0.241278</v>
       </c>
       <c r="C94" t="n">
-        <v>0.101327</v>
+        <v>0.0996866</v>
       </c>
       <c r="D94" t="n">
-        <v>0.134117</v>
+        <v>0.664328</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.13683</v>
+        <v>0.141336</v>
       </c>
       <c r="C95" t="n">
-        <v>0.101991</v>
+        <v>0.102861</v>
       </c>
       <c r="D95" t="n">
-        <v>0.142573</v>
+        <v>0.683864</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.140027</v>
+        <v>0.140648</v>
       </c>
       <c r="C96" t="n">
-        <v>0.103512</v>
+        <v>0.10023</v>
       </c>
       <c r="D96" t="n">
-        <v>0.145813</v>
+        <v>0.699051</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.143248</v>
+        <v>0.140568</v>
       </c>
       <c r="C97" t="n">
-        <v>0.103356</v>
+        <v>0.103977</v>
       </c>
       <c r="D97" t="n">
-        <v>0.139957</v>
+        <v>0.735782</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.146852</v>
+        <v>0.153381</v>
       </c>
       <c r="C98" t="n">
-        <v>0.103067</v>
+        <v>0.105622</v>
       </c>
       <c r="D98" t="n">
-        <v>0.142704</v>
+        <v>0.738123</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.151152</v>
+        <v>0.153232</v>
       </c>
       <c r="C99" t="n">
-        <v>0.109217</v>
+        <v>0.108763</v>
       </c>
       <c r="D99" t="n">
-        <v>0.145173</v>
+        <v>0.750023</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.150915</v>
+        <v>0.156586</v>
       </c>
       <c r="C100" t="n">
-        <v>0.108945</v>
+        <v>0.106888</v>
       </c>
       <c r="D100" t="n">
-        <v>0.150326</v>
+        <v>0.804738</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.155514</v>
+        <v>0.164084</v>
       </c>
       <c r="C101" t="n">
-        <v>0.112261</v>
+        <v>0.112353</v>
       </c>
       <c r="D101" t="n">
-        <v>0.151298</v>
+        <v>0.824884</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.164882</v>
+        <v>0.163842</v>
       </c>
       <c r="C102" t="n">
-        <v>0.113277</v>
+        <v>0.115747</v>
       </c>
       <c r="D102" t="n">
-        <v>0.15434</v>
+        <v>0.840492</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.174736</v>
+        <v>0.173237</v>
       </c>
       <c r="C103" t="n">
-        <v>0.120121</v>
+        <v>0.117276</v>
       </c>
       <c r="D103" t="n">
-        <v>0.159997</v>
+        <v>0.866355</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.183132</v>
+        <v>0.179738</v>
       </c>
       <c r="C104" t="n">
-        <v>0.124816</v>
+        <v>0.126968</v>
       </c>
       <c r="D104" t="n">
-        <v>0.170406</v>
+        <v>0.891353</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.189335</v>
+        <v>0.195901</v>
       </c>
       <c r="C105" t="n">
-        <v>0.131354</v>
+        <v>0.12782</v>
       </c>
       <c r="D105" t="n">
-        <v>0.174662</v>
+        <v>0.933903</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.212931</v>
+        <v>0.206774</v>
       </c>
       <c r="C106" t="n">
-        <v>0.139572</v>
+        <v>0.139131</v>
       </c>
       <c r="D106" t="n">
-        <v>0.183892</v>
+        <v>0.956029</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.233539</v>
+        <v>0.242616</v>
       </c>
       <c r="C107" t="n">
-        <v>0.151576</v>
+        <v>0.148688</v>
       </c>
       <c r="D107" t="n">
-        <v>0.208161</v>
+        <v>0.755999</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.284336</v>
+        <v>0.273342</v>
       </c>
       <c r="C108" t="n">
-        <v>0.178193</v>
+        <v>0.187991</v>
       </c>
       <c r="D108" t="n">
-        <v>0.24393</v>
+        <v>0.75115</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.362241</v>
+        <v>0.346748</v>
       </c>
       <c r="C109" t="n">
-        <v>0.174694</v>
+        <v>0.188986</v>
       </c>
       <c r="D109" t="n">
-        <v>0.241858</v>
+        <v>0.794558</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.231513</v>
+        <v>0.23241</v>
       </c>
       <c r="C110" t="n">
-        <v>0.179035</v>
+        <v>0.181535</v>
       </c>
       <c r="D110" t="n">
-        <v>0.230298</v>
+        <v>0.839037</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.231846</v>
+        <v>0.234909</v>
       </c>
       <c r="C111" t="n">
-        <v>0.178257</v>
+        <v>0.179463</v>
       </c>
       <c r="D111" t="n">
-        <v>0.230959</v>
+        <v>0.807729</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.249877</v>
+        <v>0.249563</v>
       </c>
       <c r="C112" t="n">
-        <v>0.179715</v>
+        <v>0.179001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.256654</v>
+        <v>0.819258</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.255327</v>
+        <v>0.238623</v>
       </c>
       <c r="C113" t="n">
-        <v>0.182494</v>
+        <v>0.185975</v>
       </c>
       <c r="D113" t="n">
-        <v>0.236864</v>
+        <v>0.860237</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.246694</v>
+        <v>0.243409</v>
       </c>
       <c r="C114" t="n">
-        <v>0.186652</v>
+        <v>0.19241</v>
       </c>
       <c r="D114" t="n">
-        <v>0.243475</v>
+        <v>0.882215</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.263025</v>
+        <v>0.246894</v>
       </c>
       <c r="C115" t="n">
-        <v>0.195576</v>
+        <v>0.192388</v>
       </c>
       <c r="D115" t="n">
-        <v>0.271966</v>
+        <v>0.904938</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.255249</v>
+        <v>0.25812</v>
       </c>
       <c r="C116" t="n">
-        <v>0.195032</v>
+        <v>0.20343</v>
       </c>
       <c r="D116" t="n">
-        <v>0.252268</v>
+        <v>0.92284</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.273786</v>
+        <v>0.265484</v>
       </c>
       <c r="C117" t="n">
-        <v>0.194541</v>
+        <v>0.211896</v>
       </c>
       <c r="D117" t="n">
-        <v>0.252546</v>
+        <v>0.975961</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.272778</v>
+        <v>0.263673</v>
       </c>
       <c r="C118" t="n">
-        <v>0.208222</v>
+        <v>0.215264</v>
       </c>
       <c r="D118" t="n">
-        <v>0.275452</v>
+        <v>0.990511</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.296413</v>
+        <v>0.28673</v>
       </c>
       <c r="C119" t="n">
-        <v>0.219702</v>
+        <v>0.207414</v>
       </c>
       <c r="D119" t="n">
-        <v>0.284194</v>
+        <v>1.00534</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.318281</v>
+        <v>0.310463</v>
       </c>
       <c r="C120" t="n">
-        <v>0.2208</v>
+        <v>0.218915</v>
       </c>
       <c r="D120" t="n">
-        <v>0.289911</v>
+        <v>1.16005</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.344654</v>
+        <v>0.324975</v>
       </c>
       <c r="C121" t="n">
-        <v>0.238514</v>
+        <v>0.22559</v>
       </c>
       <c r="D121" t="n">
-        <v>0.291817</v>
+        <v>0.805005</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.379929</v>
+        <v>0.375747</v>
       </c>
       <c r="C122" t="n">
-        <v>0.25724</v>
+        <v>0.258085</v>
       </c>
       <c r="D122" t="n">
-        <v>0.317119</v>
+        <v>0.823465</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.459571</v>
+        <v>0.441255</v>
       </c>
       <c r="C123" t="n">
-        <v>0.282402</v>
+        <v>0.285075</v>
       </c>
       <c r="D123" t="n">
-        <v>0.405824</v>
+        <v>0.824689</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.371328</v>
+        <v>0.366297</v>
       </c>
       <c r="C124" t="n">
-        <v>0.287581</v>
+        <v>0.277786</v>
       </c>
       <c r="D124" t="n">
-        <v>0.411404</v>
+        <v>0.874201</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.375255</v>
+        <v>0.369769</v>
       </c>
       <c r="C125" t="n">
-        <v>0.286953</v>
+        <v>0.279125</v>
       </c>
       <c r="D125" t="n">
-        <v>0.418536</v>
+        <v>0.898693</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.376009</v>
+        <v>0.37263</v>
       </c>
       <c r="C126" t="n">
-        <v>0.288433</v>
+        <v>0.29634</v>
       </c>
       <c r="D126" t="n">
-        <v>0.404506</v>
+        <v>0.932717</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.374822</v>
+        <v>0.38131</v>
       </c>
       <c r="C127" t="n">
-        <v>0.300057</v>
+        <v>0.292062</v>
       </c>
       <c r="D127" t="n">
-        <v>0.424567</v>
+        <v>0.936747</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.392561</v>
+        <v>0.383606</v>
       </c>
       <c r="C128" t="n">
-        <v>0.297179</v>
+        <v>0.29076</v>
       </c>
       <c r="D128" t="n">
-        <v>0.441123</v>
+        <v>0.962797</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.388014</v>
+        <v>0.381456</v>
       </c>
       <c r="C129" t="n">
-        <v>0.296866</v>
+        <v>0.301555</v>
       </c>
       <c r="D129" t="n">
-        <v>0.422274</v>
+        <v>1.01789</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.393241</v>
+        <v>0.393342</v>
       </c>
       <c r="C130" t="n">
-        <v>0.301883</v>
+        <v>0.298032</v>
       </c>
       <c r="D130" t="n">
-        <v>0.423546</v>
+        <v>1.0669</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.409717</v>
+        <v>0.405359</v>
       </c>
       <c r="C131" t="n">
-        <v>0.307833</v>
+        <v>0.312687</v>
       </c>
       <c r="D131" t="n">
-        <v>0.437202</v>
+        <v>1.0874</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.424167</v>
+        <v>0.423334</v>
       </c>
       <c r="C132" t="n">
-        <v>0.319122</v>
+        <v>0.30759</v>
       </c>
       <c r="D132" t="n">
-        <v>0.459076</v>
+        <v>1.12151</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.434417</v>
+        <v>0.437072</v>
       </c>
       <c r="C133" t="n">
-        <v>0.319723</v>
+        <v>0.318936</v>
       </c>
       <c r="D133" t="n">
-        <v>0.456385</v>
+        <v>1.16387</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.467082</v>
+        <v>0.455846</v>
       </c>
       <c r="C134" t="n">
-        <v>0.332665</v>
+        <v>0.332039</v>
       </c>
       <c r="D134" t="n">
-        <v>0.471054</v>
+        <v>1.22414</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.483781</v>
+        <v>0.488166</v>
       </c>
       <c r="C135" t="n">
-        <v>0.344478</v>
+        <v>0.328893</v>
       </c>
       <c r="D135" t="n">
-        <v>0.481091</v>
+        <v>0.954495</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.543544</v>
+        <v>0.542069</v>
       </c>
       <c r="C136" t="n">
-        <v>0.375776</v>
+        <v>0.351306</v>
       </c>
       <c r="D136" t="n">
-        <v>0.511222</v>
+        <v>0.967931</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.625212</v>
+        <v>0.627579</v>
       </c>
       <c r="C137" t="n">
-        <v>0.340447</v>
+        <v>0.343331</v>
       </c>
       <c r="D137" t="n">
-        <v>0.530442</v>
+        <v>1.02747</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.461759</v>
+        <v>0.452303</v>
       </c>
       <c r="C138" t="n">
-        <v>0.341754</v>
+        <v>0.343522</v>
       </c>
       <c r="D138" t="n">
-        <v>0.528728</v>
+        <v>1.04831</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.461112</v>
+        <v>0.454243</v>
       </c>
       <c r="C139" t="n">
-        <v>0.342935</v>
+        <v>0.343559</v>
       </c>
       <c r="D139" t="n">
-        <v>0.536703</v>
+        <v>1.09138</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.466635</v>
+        <v>0.467607</v>
       </c>
       <c r="C140" t="n">
-        <v>0.348138</v>
+        <v>0.34153</v>
       </c>
       <c r="D140" t="n">
-        <v>0.542852</v>
+        <v>1.13403</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.46114</v>
+        <v>0.469665</v>
       </c>
       <c r="C141" t="n">
-        <v>0.35436</v>
+        <v>0.351704</v>
       </c>
       <c r="D141" t="n">
-        <v>0.539206</v>
+        <v>1.15192</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.471102</v>
+        <v>0.469176</v>
       </c>
       <c r="C142" t="n">
-        <v>0.350795</v>
+        <v>0.355782</v>
       </c>
       <c r="D142" t="n">
-        <v>0.534724</v>
+        <v>1.1956</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.479814</v>
+        <v>0.478441</v>
       </c>
       <c r="C143" t="n">
-        <v>0.355519</v>
+        <v>0.356498</v>
       </c>
       <c r="D143" t="n">
-        <v>0.549818</v>
+        <v>1.25904</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -552,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.020381</v>
+                  <v>0.0196541</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0231567</v>
+                  <v>0.022714</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0281757</v>
+                  <v>0.0280732</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0352799</v>
+                  <v>0.0383508</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.04539</v>
+                  <v>0.052548</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.06491429999999999</v>
+                  <v>0.066875</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0891632</v>
+                  <v>0.0901585</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.112722</v>
+                  <v>0.118385</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.017053</v>
+                  <v>0.0166794</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0176131</v>
+                  <v>0.017095</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.018294</v>
+                  <v>0.0175332</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.019009</v>
+                  <v>0.0179948</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0202027</v>
+                  <v>0.0186281</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0216873</v>
+                  <v>0.0208214</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0238871</v>
+                  <v>0.0229571</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0283309</v>
+                  <v>0.0261478</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0347629</v>
+                  <v>0.0314248</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0427405</v>
+                  <v>0.0425587</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0557526</v>
+                  <v>0.0519527</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0731723</v>
+                  <v>0.07000199999999999</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0958377</v>
+                  <v>0.0890392</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.12115</v>
+                  <v>0.119166</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0167999</v>
+                  <v>0.0162997</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.017383</v>
+                  <v>0.0169862</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0183382</v>
+                  <v>0.0176941</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0193988</v>
+                  <v>0.0184008</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0205537</v>
+                  <v>0.0198508</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0226966</v>
+                  <v>0.0220004</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0250047</v>
+                  <v>0.0252038</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0309238</v>
+                  <v>0.029776</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0361738</v>
+                  <v>0.0355674</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0455675</v>
+                  <v>0.0445372</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0564017</v>
+                  <v>0.0557284</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0722527</v>
+                  <v>0.0722409</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.09413820000000001</v>
+                  <v>0.0937438</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.118638</v>
+                  <v>0.120898</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0174142</v>
+                  <v>0.017101</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0181997</v>
+                  <v>0.0179106</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0191908</v>
+                  <v>0.0187733</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0204403</v>
+                  <v>0.0201048</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.021836</v>
+                  <v>0.0218759</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0239224</v>
+                  <v>0.0240552</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0276839</v>
+                  <v>0.0282097</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0315092</v>
+                  <v>0.0323602</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0372217</v>
+                  <v>0.0379086</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0454352</v>
+                  <v>0.045608</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0550601</v>
+                  <v>0.056116</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0703042</v>
+                  <v>0.0707222</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0905224</v>
+                  <v>0.0919893</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.115437</v>
+                  <v>0.118674</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.1408</v>
+                  <v>0.145772</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0192387</v>
+                  <v>0.0196284</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0204627</v>
+                  <v>0.0208398</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0220737</v>
+                  <v>0.0223922</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0239349</v>
+                  <v>0.0244506</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0262923</v>
+                  <v>0.026822</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0297657</v>
+                  <v>0.0309899</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0341001</v>
+                  <v>0.0354207</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0395028</v>
+                  <v>0.0417881</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0465838</v>
+                  <v>0.0476276</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0559668</v>
+                  <v>0.0572692</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0699388</v>
+                  <v>0.0716026</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0889996</v>
+                  <v>0.0905608</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.114856</v>
+                  <v>0.116785</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.145398</v>
+                  <v>0.147933</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0196969</v>
+                  <v>0.0197012</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.02093</v>
+                  <v>0.0211376</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0224969</v>
+                  <v>0.0228213</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0245783</v>
+                  <v>0.0247479</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.027095</v>
+                  <v>0.0274354</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0303959</v>
+                  <v>0.0306606</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0348732</v>
+                  <v>0.0349113</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0401107</v>
+                  <v>0.0401967</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0469689</v>
+                  <v>0.0468474</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.056182</v>
+                  <v>0.0560401</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0692083</v>
+                  <v>0.0688926</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0876976</v>
+                  <v>0.0873152</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.112624</v>
+                  <v>0.112319</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.143056</v>
+                  <v>0.143939</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0203051</v>
+                  <v>0.0198688</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0214311</v>
+                  <v>0.0212272</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0227951</v>
+                  <v>0.0227931</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0248606</v>
+                  <v>0.0248234</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0274961</v>
+                  <v>0.0274348</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0304265</v>
+                  <v>0.0304566</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.034491</v>
+                  <v>0.03421</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0392189</v>
+                  <v>0.0392722</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0454425</v>
+                  <v>0.0457853</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.054124</v>
+                  <v>0.0543613</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0660497</v>
+                  <v>0.0667861</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0833161</v>
+                  <v>0.0837842</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.107117</v>
+                  <v>0.107021</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.137068</v>
+                  <v>0.138367</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0205917</v>
+                  <v>0.0206107</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0217319</v>
+                  <v>0.021977</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0234086</v>
+                  <v>0.0236946</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0249196</v>
+                  <v>0.0252601</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0271441</v>
+                  <v>0.0278301</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0301186</v>
+                  <v>0.0304313</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.034225</v>
+                  <v>0.0347894</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0395874</v>
+                  <v>0.0397493</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.046425</v>
+                  <v>0.0462983</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0547381</v>
+                  <v>0.0543709</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0655719</v>
+                  <v>0.0656243</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0810201</v>
+                  <v>0.0814584</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.103131</v>
+                  <v>0.103239</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.132455</v>
+                  <v>0.133268</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.167936</v>
+                  <v>0.169441</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0314641</v>
+                  <v>0.0309188</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0327748</v>
+                  <v>0.0323647</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0344387</v>
+                  <v>0.034075</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0359115</v>
+                  <v>0.0358327</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0384212</v>
+                  <v>0.0383382</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0411013</v>
+                  <v>0.0406737</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0443196</v>
+                  <v>0.0441246</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0490798</v>
+                  <v>0.048723</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0556472</v>
+                  <v>0.0551746</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0652692</v>
+                  <v>0.0650047</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.080124</v>
+                  <v>0.07941529999999999</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.100594</v>
+                  <v>0.100142</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.128412</v>
+                  <v>0.128345</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.163387</v>
+                  <v>0.16426</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0342733</v>
+                  <v>0.0340693</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0354023</v>
+                  <v>0.035891</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0369613</v>
+                  <v>0.0369158</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0386997</v>
+                  <v>0.0387195</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0406429</v>
+                  <v>0.0407176</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0434292</v>
+                  <v>0.0435753</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0467513</v>
+                  <v>0.0474413</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0511822</v>
+                  <v>0.0518101</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0585649</v>
+                  <v>0.0586713</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0673728</v>
+                  <v>0.06794360000000001</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.08104450000000001</v>
+                  <v>0.0817268</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.101034</v>
+                  <v>0.101445</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.128826</v>
+                  <v>0.129425</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.16274</v>
+                  <v>0.163873</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0471946</v>
+                  <v>0.0473433</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0480173</v>
+                  <v>0.0531312</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0491618</v>
+                  <v>0.058706</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0504992</v>
+                  <v>0.0582968</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0529453</v>
+                  <v>0.0553286</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0554429</v>
+                  <v>0.0675741</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1446,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0243821</v>
+                  <v>0.0236953</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0263419</v>
+                  <v>0.0249792</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.03189</v>
+                  <v>0.0258301</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0372784</v>
+                  <v>0.027365</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0515556</v>
+                  <v>0.0285038</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.06764829999999999</v>
+                  <v>0.0328798</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.08149480000000001</v>
+                  <v>0.0393672</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.129222</v>
+                  <v>0.0204906</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0208127</v>
+                  <v>0.0206485</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0213278</v>
+                  <v>0.0211179</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0218828</v>
+                  <v>0.0213</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.02263</v>
+                  <v>0.0216018</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0232512</v>
+                  <v>0.0219038</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0241428</v>
+                  <v>0.0225654</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0268695</v>
+                  <v>0.0230834</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0288871</v>
+                  <v>0.0241669</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0328262</v>
+                  <v>0.0251919</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0390993</v>
+                  <v>0.0266921</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0470423</v>
+                  <v>0.028982</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0633778</v>
+                  <v>0.0333148</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.088602</v>
+                  <v>0.041356</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.13405</v>
+                  <v>0.0202092</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0214978</v>
+                  <v>0.0206159</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0219645</v>
+                  <v>0.0208339</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0227306</v>
+                  <v>0.0210765</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0236983</v>
+                  <v>0.0214492</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0246423</v>
+                  <v>0.0218967</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.025917</v>
+                  <v>0.0226372</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0281203</v>
+                  <v>0.023422</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0305191</v>
+                  <v>0.0242916</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0351044</v>
+                  <v>0.0254245</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0407874</v>
+                  <v>0.0274613</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0501899</v>
+                  <v>0.030458</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.06329070000000001</v>
+                  <v>0.0342121</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0883089</v>
+                  <v>0.040763</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.125523</v>
+                  <v>0.0210932</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0226441</v>
+                  <v>0.0214487</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0231278</v>
+                  <v>0.0217322</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0239266</v>
+                  <v>0.0220884</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.024755</v>
+                  <v>0.0225227</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0260181</v>
+                  <v>0.022985</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0274856</v>
+                  <v>0.0235789</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0292543</v>
+                  <v>0.0242082</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0326774</v>
+                  <v>0.0251386</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0370439</v>
+                  <v>0.026316</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0430271</v>
+                  <v>0.0281349</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0514098</v>
+                  <v>0.0309591</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0649906</v>
+                  <v>0.0351441</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0841389</v>
+                  <v>0.0422416</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.117343</v>
+                  <v>0.0221848</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.163332</v>
+                  <v>0.0226422</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0241041</v>
+                  <v>0.0230127</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0248142</v>
+                  <v>0.0233388</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0258859</v>
+                  <v>0.0237292</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0269065</v>
+                  <v>0.0243318</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0285555</v>
+                  <v>0.0249093</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0308138</v>
+                  <v>0.0260608</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0334128</v>
+                  <v>0.0270795</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0373409</v>
+                  <v>0.0277862</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.043244</v>
+                  <v>0.0291051</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0514921</v>
+                  <v>0.0317252</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0631197</v>
+                  <v>0.0360878</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.08064549999999999</v>
+                  <v>0.0429958</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.111224</v>
+                  <v>0.0551095</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.156782</v>
+                  <v>0.0226031</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0246273</v>
+                  <v>0.0229372</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0254874</v>
+                  <v>0.0232973</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.026515</v>
+                  <v>0.023692</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0276786</v>
+                  <v>0.0242143</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0291119</v>
+                  <v>0.0247678</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0311576</v>
+                  <v>0.0255057</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0339469</v>
+                  <v>0.0263971</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0377205</v>
+                  <v>0.0276756</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0430427</v>
+                  <v>0.0295323</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0505867</v>
+                  <v>0.0321746</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0612508</v>
+                  <v>0.0363344</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0763192</v>
+                  <v>0.0425489</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.101765</v>
+                  <v>0.0534234</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.144347</v>
+                  <v>0.0228514</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0253488</v>
+                  <v>0.0231978</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.026265</v>
+                  <v>0.0235633</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0271908</v>
+                  <v>0.0239172</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0284288</v>
+                  <v>0.0244035</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.03001</v>
+                  <v>0.025024</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0319039</v>
+                  <v>0.0259339</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0343672</v>
+                  <v>0.0269228</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0378547</v>
+                  <v>0.0282665</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0426376</v>
+                  <v>0.0299743</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0498571</v>
+                  <v>0.0325068</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.059631</v>
+                  <v>0.03601</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0742997</v>
+                  <v>0.0416961</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0979019</v>
+                  <v>0.0509443</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.137136</v>
+                  <v>0.0243696</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0270102</v>
+                  <v>0.0248253</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0282021</v>
+                  <v>0.0253215</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0301873</v>
+                  <v>0.0259145</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0330636</v>
+                  <v>0.0267649</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0367725</v>
+                  <v>0.0281154</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0404956</v>
+                  <v>0.0301922</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0438179</v>
+                  <v>0.0330066</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0472354</v>
+                  <v>0.0364155</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0509235</v>
+                  <v>0.0397311</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0560138</v>
+                  <v>0.0428055</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.06314790000000001</v>
+                  <v>0.0463608</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.07436619999999999</v>
+                  <v>0.0508278</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0937021</v>
+                  <v>0.0575807</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.129268</v>
+                  <v>0.0361449</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.180556</v>
+                  <v>0.0368822</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0432623</v>
+                  <v>0.0379133</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0443061</v>
+                  <v>0.0388181</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0453678</v>
+                  <v>0.0396854</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0466564</v>
+                  <v>0.0406322</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0481</v>
+                  <v>0.0416831</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0498885</v>
+                  <v>0.0427634</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0522653</v>
+                  <v>0.0439657</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0552329</v>
+                  <v>0.0456052</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0592122</v>
+                  <v>0.0476259</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0652914</v>
+                  <v>0.0501364</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0749547</v>
+                  <v>0.0541071</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.09116730000000001</v>
+                  <v>0.0600156</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.12157</v>
+                  <v>0.0702492</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.169666</v>
+                  <v>0.0426162</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0485409</v>
+                  <v>0.0433137</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0498932</v>
+                  <v>0.0441334</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0510164</v>
+                  <v>0.0448138</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0521044</v>
+                  <v>0.0457069</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0539084</v>
+                  <v>0.0468309</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0557247</v>
+                  <v>0.047681</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0579581</v>
+                  <v>0.0488768</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0612119</v>
+                  <v>0.0504662</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0655746</v>
+                  <v>0.0524585</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.07118579999999999</v>
+                  <v>0.0553225</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0805454</v>
+                  <v>0.0590454</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0955641</v>
+                  <v>0.0649672</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.122167</v>
+                  <v>0.07502730000000001</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.166136</v>
+                  <v>0.0609618</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0632577</v>
+                  <v>0.0606272</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0643639</v>
+                  <v>0.0716113</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0654462</v>
+                  <v>0.0740532</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0668815</v>
+                  <v>0.075507</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0683774</v>
+                  <v>0.0709659</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.07045510000000001</v>
+                  <v>0.0822119</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1880,7 +1880,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <v>boost::unordered_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0213141</v>
+                  <v>0.0628543</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0220012</v>
+                  <v>0.0664814</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0228637</v>
+                  <v>0.07155309999999999</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0244676</v>
+                  <v>0.0787023</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0259604</v>
+                  <v>0.0762729</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.028658</v>
+                  <v>0.0596881</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0371282</v>
+                  <v>0.0581592</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0186849</v>
+                  <v>0.0642033</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0189948</v>
+                  <v>0.066584</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0192948</v>
+                  <v>0.07067469999999999</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0198101</v>
+                  <v>0.07539460000000001</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0200323</v>
+                  <v>0.0776222</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0205084</v>
+                  <v>0.08080030000000001</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0207002</v>
+                  <v>0.08254499999999999</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0214276</v>
+                  <v>0.0868236</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.022011</v>
+                  <v>0.0901443</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0230028</v>
+                  <v>0.09041780000000001</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0242253</v>
+                  <v>0.09432</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0262024</v>
+                  <v>0.0970657</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.030044</v>
+                  <v>0.0672951</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0370516</v>
+                  <v>0.0716408</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0188867</v>
+                  <v>0.0714137</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0192237</v>
+                  <v>0.0762883</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0194425</v>
+                  <v>0.0788282</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0197946</v>
+                  <v>0.0817253</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0201342</v>
+                  <v>0.0845086</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0205266</v>
+                  <v>0.0872682</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.020959</v>
+                  <v>0.0900213</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0214844</v>
+                  <v>0.0922123</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0223231</v>
+                  <v>0.0951592</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0233566</v>
+                  <v>0.0965795</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0248748</v>
+                  <v>0.0983135</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0269432</v>
+                  <v>0.101668</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0307678</v>
+                  <v>0.06976019999999999</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0381048</v>
+                  <v>0.0732333</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.019505</v>
+                  <v>0.07563</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0197378</v>
+                  <v>0.07849739999999999</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0199753</v>
+                  <v>0.082784</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0202695</v>
+                  <v>0.08502469999999999</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0205809</v>
+                  <v>0.0879409</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0210132</v>
+                  <v>0.091546</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0215764</v>
+                  <v>0.0944207</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0222081</v>
+                  <v>0.0970037</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0231524</v>
+                  <v>0.0991208</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0243994</v>
+                  <v>0.101009</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0261699</v>
+                  <v>0.103707</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0288567</v>
+                  <v>0.105854</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0324993</v>
+                  <v>0.108622</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0388699</v>
+                  <v>0.07991180000000001</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0203994</v>
+                  <v>0.0852565</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0206304</v>
+                  <v>0.09070300000000001</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.020899</v>
+                  <v>0.100166</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0212713</v>
+                  <v>0.104121</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0215734</v>
+                  <v>0.110505</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0220027</v>
+                  <v>0.118017</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0224713</v>
+                  <v>0.134799</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0232356</v>
+                  <v>0.150714</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0241598</v>
+                  <v>0.149598</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0252935</v>
+                  <v>0.106064</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0270674</v>
+                  <v>0.110453</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0297328</v>
+                  <v>0.112451</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0338401</v>
+                  <v>0.114784</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0404851</v>
+                  <v>0.0808511</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0515575</v>
+                  <v>0.0851362</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.020937</v>
+                  <v>0.0905902</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0212617</v>
+                  <v>0.0957775</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0215815</v>
+                  <v>0.09995809999999999</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0219942</v>
+                  <v>0.105452</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0224339</v>
+                  <v>0.110664</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0229822</v>
+                  <v>0.115302</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0236686</v>
+                  <v>0.119763</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0245813</v>
+                  <v>0.125554</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0258009</v>
+                  <v>0.130129</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0276711</v>
+                  <v>0.134996</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0301418</v>
+                  <v>0.141567</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0339599</v>
+                  <v>0.147833</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.039757</v>
+                  <v>0.113894</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0495474</v>
+                  <v>0.121926</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.021192</v>
+                  <v>0.12561</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0215353</v>
+                  <v>0.134696</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0219745</v>
+                  <v>0.13899</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0224512</v>
+                  <v>0.149483</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0229726</v>
+                  <v>0.154065</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0236312</v>
+                  <v>0.163029</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0244723</v>
+                  <v>0.167705</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0253764</v>
+                  <v>0.178539</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0267266</v>
+                  <v>0.186083</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.02845</v>
+                  <v>0.189656</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0307713</v>
+                  <v>0.197145</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0342051</v>
+                  <v>0.214136</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.039387</v>
+                  <v>0.155917</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0481448</v>
+                  <v>0.163239</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0230461</v>
+                  <v>0.170659</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0235885</v>
+                  <v>0.176032</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0240683</v>
+                  <v>0.180564</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0245612</v>
+                  <v>0.187866</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0254625</v>
+                  <v>0.197686</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0269155</v>
+                  <v>0.205106</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0289929</v>
+                  <v>0.213378</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0319022</v>
+                  <v>0.22001</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0353162</v>
+                  <v>0.227646</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0382454</v>
+                  <v>0.235713</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0414212</v>
+                  <v>0.243297</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0448928</v>
+                  <v>0.252123</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0491213</v>
+                  <v>0.261676</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0556722</v>
+                  <v>0.190199</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0349946</v>
+                  <v>0.197145</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.036062</v>
+                  <v>0.204605</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0370126</v>
+                  <v>0.21028</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0378882</v>
+                  <v>0.217256</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0386232</v>
+                  <v>0.224583</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.039608</v>
+                  <v>0.233435</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0405332</v>
+                  <v>0.241083</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0416032</v>
+                  <v>0.248226</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0429799</v>
+                  <v>0.256309</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.044442</v>
+                  <v>0.263815</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0464735</v>
+                  <v>0.272729</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0490779</v>
+                  <v>0.281114</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0526027</v>
+                  <v>0.29099</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0585157</v>
+                  <v>0.206413</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.0682112</v>
+                  <v>0.211988</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0416503</v>
+                  <v>0.218375</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0422691</v>
+                  <v>0.225371</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0430552</v>
+                  <v>0.233023</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.04371</v>
+                  <v>0.239145</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0446326</v>
+                  <v>0.246948</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.045744</v>
+                  <v>0.254198</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0464876</v>
+                  <v>0.261944</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0480236</v>
+                  <v>0.270874</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0497905</v>
+                  <v>0.277744</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0515751</v>
+                  <v>0.285401</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0541836</v>
+                  <v>0.294939</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0578235</v>
+                  <v>0.304154</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.06359289999999999</v>
+                  <v>0.212796</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.07301820000000001</v>
+                  <v>0.219404</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0587163</v>
+                  <v>0.226867</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0595507</v>
+                  <v>0.233183</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0603892</v>
+                  <v>0.258776</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0609068</v>
+                  <v>0.2671</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0617944</v>
+                  <v>0.259936</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0626568</v>
+                  <v>0.270609</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0637523</v>
+                  <v>0.281995</v>
                 </pt>
               </numCache>
             </numRef>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0598915</v>
+        <v>0.0633702</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0592501</v>
+        <v>0.07228469999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0880075</v>
+        <v>0.0737085</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.060903</v>
+        <v>0.06381249999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0585253</v>
+        <v>0.07462439999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09010840000000001</v>
+        <v>0.0759016</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0670393</v>
+        <v>0.06795379999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0602079</v>
+        <v>0.07522470000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09556439999999999</v>
+        <v>0.0758572</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07218960000000001</v>
+        <v>0.0737762</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0650353</v>
+        <v>0.0765825</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0979444</v>
+        <v>0.07717449999999999</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.080404</v>
+        <v>0.0860968</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06488380000000001</v>
+        <v>0.0837628</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0995983</v>
+        <v>0.0811952</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.09857489999999999</v>
+        <v>0.103256</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0738217</v>
+        <v>0.0896463</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1076</v>
+        <v>0.0939905</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.118493</v>
+        <v>0.12486</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0835253</v>
+        <v>0.102825</v>
       </c>
       <c r="D8" t="n">
-        <v>0.119192</v>
+        <v>0.101018</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.155421</v>
+        <v>0.166728</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0567181</v>
+        <v>0.0686105</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0850206</v>
+        <v>0.071024</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0584472</v>
+        <v>0.0619084</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0590152</v>
+        <v>0.0685219</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08809500000000001</v>
+        <v>0.07011149999999999</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0595549</v>
+        <v>0.0613979</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0561842</v>
+        <v>0.0681233</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0861209</v>
+        <v>0.0694082</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0593922</v>
+        <v>0.0625124</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0557905</v>
+        <v>0.0726559</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08610429999999999</v>
+        <v>0.0719132</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0588961</v>
+        <v>0.06311360000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0556591</v>
+        <v>0.0680028</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0852893</v>
+        <v>0.0732686</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0605482</v>
+        <v>0.0624987</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0586359</v>
+        <v>0.0696427</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0864224</v>
+        <v>0.0711025</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0634619</v>
+        <v>0.0649605</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0575969</v>
+        <v>0.07461569999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.09108810000000001</v>
+        <v>0.0713567</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0650239</v>
+        <v>0.066701</v>
       </c>
       <c r="C16" t="n">
-        <v>0.059175</v>
+        <v>0.0743801</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0882831</v>
+        <v>0.07351630000000001</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06738470000000001</v>
+        <v>0.0685714</v>
       </c>
       <c r="C17" t="n">
-        <v>0.059266</v>
+        <v>0.07131899999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0927501</v>
+        <v>0.07366010000000001</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07049850000000001</v>
+        <v>0.072281</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0601032</v>
+        <v>0.0748796</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0925782</v>
+        <v>0.0745155</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0776263</v>
+        <v>0.0819669</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0639353</v>
+        <v>0.07580480000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.09496739999999999</v>
+        <v>0.0783083</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.083953</v>
+        <v>0.08866830000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.066258</v>
+        <v>0.0826916</v>
       </c>
       <c r="D20" t="n">
-        <v>0.09579840000000001</v>
+        <v>0.0829343</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0940806</v>
+        <v>0.10089</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0716121</v>
+        <v>0.0882336</v>
       </c>
       <c r="D21" t="n">
-        <v>0.103286</v>
+        <v>0.0899771</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.11121</v>
+        <v>0.12498</v>
       </c>
       <c r="C22" t="n">
-        <v>0.08194369999999999</v>
+        <v>0.101761</v>
       </c>
       <c r="D22" t="n">
-        <v>0.114586</v>
+        <v>0.10221</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.145538</v>
+        <v>0.158225</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0565611</v>
+        <v>0.0688489</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0887064</v>
+        <v>0.0719465</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0641451</v>
+        <v>0.0649516</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0570958</v>
+        <v>0.0695803</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0896021</v>
+        <v>0.0698164</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0634469</v>
+        <v>0.064065</v>
       </c>
       <c r="C25" t="n">
-        <v>0.057507</v>
+        <v>0.0706972</v>
       </c>
       <c r="D25" t="n">
-        <v>0.08633739999999999</v>
+        <v>0.07267940000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.06396159999999999</v>
+        <v>0.06376569999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0572688</v>
+        <v>0.07009369999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0866883</v>
+        <v>0.0724955</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.06639009999999999</v>
+        <v>0.06633219999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0587413</v>
+        <v>0.07140390000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0884947</v>
+        <v>0.0737435</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.06453979999999999</v>
+        <v>0.0648635</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0587803</v>
+        <v>0.07136480000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.08798159999999999</v>
+        <v>0.0715369</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0667271</v>
+        <v>0.06749570000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0600806</v>
+        <v>0.0734534</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0894279</v>
+        <v>0.0717768</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0683618</v>
+        <v>0.0678276</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0607442</v>
+        <v>0.0729804</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0910518</v>
+        <v>0.0727862</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0728309</v>
+        <v>0.0705658</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0604451</v>
+        <v>0.074223</v>
       </c>
       <c r="D31" t="n">
-        <v>0.092894</v>
+        <v>0.0751657</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0738198</v>
+        <v>0.0768885</v>
       </c>
       <c r="C32" t="n">
-        <v>0.061401</v>
+        <v>0.0815823</v>
       </c>
       <c r="D32" t="n">
-        <v>0.09470389999999999</v>
+        <v>0.07505729999999999</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0796515</v>
+        <v>0.0798311</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0658508</v>
+        <v>0.0769059</v>
       </c>
       <c r="D33" t="n">
-        <v>0.09333809999999999</v>
+        <v>0.080207</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08982859999999999</v>
+        <v>0.0890029</v>
       </c>
       <c r="C34" t="n">
-        <v>0.06834510000000001</v>
+        <v>0.0815736</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0981209</v>
+        <v>0.08202569999999999</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0982097</v>
+        <v>0.0993479</v>
       </c>
       <c r="C35" t="n">
-        <v>0.07186629999999999</v>
+        <v>0.0887971</v>
       </c>
       <c r="D35" t="n">
-        <v>0.107054</v>
+        <v>0.0887003</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.118738</v>
+        <v>0.118188</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0801761</v>
+        <v>0.0994384</v>
       </c>
       <c r="D36" t="n">
-        <v>0.113366</v>
+        <v>0.0995794</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.147563</v>
+        <v>0.148645</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0587572</v>
+        <v>0.07354910000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.09005779999999999</v>
+        <v>0.0731494</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0723217</v>
+        <v>0.0710973</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0605764</v>
+        <v>0.07105880000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.09133090000000001</v>
+        <v>0.07155549999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.06826210000000001</v>
+        <v>0.06977270000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0586419</v>
+        <v>0.0736774</v>
       </c>
       <c r="D39" t="n">
-        <v>0.08881</v>
+        <v>0.0743043</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0697207</v>
+        <v>0.06895270000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0609409</v>
+        <v>0.0725948</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0899413</v>
+        <v>0.0750118</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0717049</v>
+        <v>0.0719354</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0597318</v>
+        <v>0.0745797</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0889954</v>
+        <v>0.07665379999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0717233</v>
+        <v>0.07144060000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0621279</v>
+        <v>0.07308290000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0916558</v>
+        <v>0.0757153</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.07073980000000001</v>
+        <v>0.07347629999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0623103</v>
+        <v>0.07398200000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0909003</v>
+        <v>0.07789550000000001</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0762481</v>
+        <v>0.07474690000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.063845</v>
+        <v>0.0779981</v>
       </c>
       <c r="D44" t="n">
-        <v>0.092617</v>
+        <v>0.07400379999999999</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.07478410000000001</v>
+        <v>0.077889</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0652851</v>
+        <v>0.0767719</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0926066</v>
+        <v>0.0769807</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.07843509999999999</v>
+        <v>0.0839227</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0665043</v>
+        <v>0.07666389999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0973898</v>
+        <v>0.07962329999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0831047</v>
+        <v>0.0839884</v>
       </c>
       <c r="C47" t="n">
-        <v>0.068032</v>
+        <v>0.08220769999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.100401</v>
+        <v>0.080911</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.09384199999999999</v>
+        <v>0.0940817</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0678188</v>
+        <v>0.0832917</v>
       </c>
       <c r="D48" t="n">
-        <v>0.102039</v>
+        <v>0.0861668</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.10065</v>
+        <v>0.109349</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0745344</v>
+        <v>0.0922581</v>
       </c>
       <c r="D49" t="n">
-        <v>0.106214</v>
+        <v>0.0904065</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.124883</v>
+        <v>0.122333</v>
       </c>
       <c r="C50" t="n">
-        <v>0.081791</v>
+        <v>0.0991991</v>
       </c>
       <c r="D50" t="n">
-        <v>0.116642</v>
+        <v>0.0986943</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.143474</v>
+        <v>0.148102</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0666992</v>
+        <v>0.07952720000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0956172</v>
+        <v>0.0765704</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.189137</v>
+        <v>0.1888</v>
       </c>
       <c r="C52" t="n">
-        <v>0.064592</v>
+        <v>0.0798914</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0948962</v>
+        <v>0.0783582</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.08149190000000001</v>
+        <v>0.0859273</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0649337</v>
+        <v>0.0776713</v>
       </c>
       <c r="D53" t="n">
-        <v>0.099054</v>
+        <v>0.0784902</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0815338</v>
+        <v>0.0810738</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0660925</v>
+        <v>0.07949489999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0972527</v>
+        <v>0.084829</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0809377</v>
+        <v>0.0828826</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0653257</v>
+        <v>0.0788872</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0952321</v>
+        <v>0.08027910000000001</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0831242</v>
+        <v>0.0898617</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0661774</v>
+        <v>0.08006149999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.102068</v>
+        <v>0.0822483</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0836287</v>
+        <v>0.0888086</v>
       </c>
       <c r="C57" t="n">
-        <v>0.071127</v>
+        <v>0.0816495</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0996409</v>
+        <v>0.08287410000000001</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0872643</v>
+        <v>0.0906945</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0699573</v>
+        <v>0.08021010000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0999018</v>
+        <v>0.08322309999999999</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.09386</v>
+        <v>0.09050030000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.06990300000000001</v>
+        <v>0.0879817</v>
       </c>
       <c r="D59" t="n">
-        <v>0.101604</v>
+        <v>0.08453140000000001</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0929693</v>
+        <v>0.0945986</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0742707</v>
+        <v>0.0863568</v>
       </c>
       <c r="D60" t="n">
-        <v>0.101585</v>
+        <v>0.0879355</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0996075</v>
+        <v>0.0991635</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0758943</v>
+        <v>0.0878842</v>
       </c>
       <c r="D61" t="n">
-        <v>0.104882</v>
+        <v>0.0874128</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.104366</v>
+        <v>0.106559</v>
       </c>
       <c r="C62" t="n">
-        <v>0.07964640000000001</v>
+        <v>0.0902742</v>
       </c>
       <c r="D62" t="n">
-        <v>0.108886</v>
+        <v>0.09060559999999999</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.113919</v>
+        <v>0.115921</v>
       </c>
       <c r="C63" t="n">
-        <v>0.08457720000000001</v>
+        <v>0.0955061</v>
       </c>
       <c r="D63" t="n">
-        <v>0.119468</v>
+        <v>0.096341</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.128203</v>
+        <v>0.134298</v>
       </c>
       <c r="C64" t="n">
-        <v>0.09180729999999999</v>
+        <v>0.104657</v>
       </c>
       <c r="D64" t="n">
-        <v>0.130495</v>
+        <v>0.103484</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.157826</v>
+        <v>0.16763</v>
       </c>
       <c r="C65" t="n">
-        <v>0.104768</v>
+        <v>0.123394</v>
       </c>
       <c r="D65" t="n">
-        <v>0.143232</v>
+        <v>0.123876</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.19472</v>
+        <v>0.215799</v>
       </c>
       <c r="C66" t="n">
-        <v>0.07151680000000001</v>
+        <v>0.0843163</v>
       </c>
       <c r="D66" t="n">
-        <v>0.103286</v>
+        <v>0.0865972</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0930327</v>
+        <v>0.0978738</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0714067</v>
+        <v>0.0841532</v>
       </c>
       <c r="D67" t="n">
-        <v>0.104825</v>
+        <v>0.0851811</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0941786</v>
+        <v>0.0959256</v>
       </c>
       <c r="C68" t="n">
-        <v>0.06971330000000001</v>
+        <v>0.0849946</v>
       </c>
       <c r="D68" t="n">
-        <v>0.105142</v>
+        <v>0.0884414</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0945411</v>
+        <v>0.100534</v>
       </c>
       <c r="C69" t="n">
-        <v>0.07215439999999999</v>
+        <v>0.08653329999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.104941</v>
+        <v>0.0857242</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0968803</v>
+        <v>0.100597</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0733158</v>
+        <v>0.0877143</v>
       </c>
       <c r="D70" t="n">
-        <v>0.105827</v>
+        <v>0.0860542</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0987175</v>
+        <v>0.10106</v>
       </c>
       <c r="C71" t="n">
-        <v>0.074461</v>
+        <v>0.0899023</v>
       </c>
       <c r="D71" t="n">
-        <v>0.109731</v>
+        <v>0.0958526</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.102515</v>
+        <v>0.10969</v>
       </c>
       <c r="C72" t="n">
-        <v>0.07552</v>
+        <v>0.0899674</v>
       </c>
       <c r="D72" t="n">
-        <v>0.10779</v>
+        <v>0.09499109999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.106506</v>
+        <v>0.108874</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0777125</v>
+        <v>0.0942491</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1117</v>
+        <v>0.0911907</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.108521</v>
+        <v>0.117662</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0800078</v>
+        <v>0.0997465</v>
       </c>
       <c r="D74" t="n">
-        <v>0.115206</v>
+        <v>0.09672210000000001</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.115508</v>
+        <v>0.119973</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0835849</v>
+        <v>0.100022</v>
       </c>
       <c r="D75" t="n">
-        <v>0.118479</v>
+        <v>0.104666</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.125896</v>
+        <v>0.138619</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0856994</v>
+        <v>0.107426</v>
       </c>
       <c r="D76" t="n">
-        <v>0.122706</v>
+        <v>0.106726</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.13705</v>
+        <v>0.143492</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0942147</v>
+        <v>0.110418</v>
       </c>
       <c r="D77" t="n">
-        <v>0.129656</v>
+        <v>0.112655</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.154506</v>
+        <v>0.164391</v>
       </c>
       <c r="C78" t="n">
-        <v>0.101958</v>
+        <v>0.118458</v>
       </c>
       <c r="D78" t="n">
-        <v>0.145043</v>
+        <v>0.118965</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.183162</v>
+        <v>0.190981</v>
       </c>
       <c r="C79" t="n">
-        <v>0.118175</v>
+        <v>0.140036</v>
       </c>
       <c r="D79" t="n">
-        <v>0.1567</v>
+        <v>0.136732</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.224728</v>
+        <v>0.23385</v>
       </c>
       <c r="C80" t="n">
-        <v>0.07926030000000001</v>
+        <v>0.0910458</v>
       </c>
       <c r="D80" t="n">
-        <v>0.112567</v>
+        <v>0.0927407</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.112782</v>
+        <v>0.112666</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0805905</v>
+        <v>0.0924109</v>
       </c>
       <c r="D81" t="n">
-        <v>0.114448</v>
+        <v>0.095447</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.110056</v>
+        <v>0.12009</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0830275</v>
+        <v>0.0953466</v>
       </c>
       <c r="D82" t="n">
-        <v>0.119047</v>
+        <v>0.0975712</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.110767</v>
+        <v>0.121064</v>
       </c>
       <c r="C83" t="n">
-        <v>0.082445</v>
+        <v>0.0967485</v>
       </c>
       <c r="D83" t="n">
-        <v>0.118072</v>
+        <v>0.09766900000000001</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.113293</v>
+        <v>0.12005</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0817249</v>
+        <v>0.0996636</v>
       </c>
       <c r="D84" t="n">
-        <v>0.119934</v>
+        <v>0.10397</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.123796</v>
+        <v>0.128372</v>
       </c>
       <c r="C85" t="n">
-        <v>0.08589960000000001</v>
+        <v>0.104927</v>
       </c>
       <c r="D85" t="n">
-        <v>0.123809</v>
+        <v>0.101141</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.119683</v>
+        <v>0.129765</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0881403</v>
+        <v>0.102432</v>
       </c>
       <c r="D86" t="n">
-        <v>0.12474</v>
+        <v>0.103274</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.131272</v>
+        <v>0.135986</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0907346</v>
+        <v>0.107821</v>
       </c>
       <c r="D87" t="n">
-        <v>0.124601</v>
+        <v>0.107787</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.134084</v>
+        <v>0.144798</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0943403</v>
+        <v>0.108395</v>
       </c>
       <c r="D88" t="n">
-        <v>0.128187</v>
+        <v>0.110859</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.140081</v>
+        <v>0.151797</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0978074</v>
+        <v>0.11434</v>
       </c>
       <c r="D89" t="n">
-        <v>0.13296</v>
+        <v>0.115038</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.150602</v>
+        <v>0.15957</v>
       </c>
       <c r="C90" t="n">
-        <v>0.103061</v>
+        <v>0.119737</v>
       </c>
       <c r="D90" t="n">
-        <v>0.137834</v>
+        <v>0.118894</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.161668</v>
+        <v>0.166683</v>
       </c>
       <c r="C91" t="n">
-        <v>0.108592</v>
+        <v>0.123405</v>
       </c>
       <c r="D91" t="n">
-        <v>0.145293</v>
+        <v>0.130024</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.18058</v>
+        <v>0.192017</v>
       </c>
       <c r="C92" t="n">
-        <v>0.117611</v>
+        <v>0.134924</v>
       </c>
       <c r="D92" t="n">
-        <v>0.155207</v>
+        <v>0.136578</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.201587</v>
+        <v>0.208793</v>
       </c>
       <c r="C93" t="n">
-        <v>0.12727</v>
+        <v>0.147338</v>
       </c>
       <c r="D93" t="n">
-        <v>0.172325</v>
+        <v>0.151462</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.244457</v>
+        <v>0.251139</v>
       </c>
       <c r="C94" t="n">
-        <v>0.101327</v>
+        <v>0.112521</v>
       </c>
       <c r="D94" t="n">
-        <v>0.134117</v>
+        <v>0.121785</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.13683</v>
+        <v>0.144885</v>
       </c>
       <c r="C95" t="n">
-        <v>0.101991</v>
+        <v>0.117992</v>
       </c>
       <c r="D95" t="n">
-        <v>0.142573</v>
+        <v>0.124712</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.140027</v>
+        <v>0.147184</v>
       </c>
       <c r="C96" t="n">
-        <v>0.103512</v>
+        <v>0.119262</v>
       </c>
       <c r="D96" t="n">
-        <v>0.145813</v>
+        <v>0.117617</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.143248</v>
+        <v>0.150183</v>
       </c>
       <c r="C97" t="n">
-        <v>0.103356</v>
+        <v>0.120133</v>
       </c>
       <c r="D97" t="n">
-        <v>0.139957</v>
+        <v>0.123184</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.146852</v>
+        <v>0.156678</v>
       </c>
       <c r="C98" t="n">
-        <v>0.103067</v>
+        <v>0.120389</v>
       </c>
       <c r="D98" t="n">
-        <v>0.142704</v>
+        <v>0.123074</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.151152</v>
+        <v>0.159255</v>
       </c>
       <c r="C99" t="n">
-        <v>0.109217</v>
+        <v>0.122336</v>
       </c>
       <c r="D99" t="n">
-        <v>0.145173</v>
+        <v>0.127249</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.150915</v>
+        <v>0.16746</v>
       </c>
       <c r="C100" t="n">
-        <v>0.108945</v>
+        <v>0.125875</v>
       </c>
       <c r="D100" t="n">
-        <v>0.150326</v>
+        <v>0.129445</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.155514</v>
+        <v>0.171036</v>
       </c>
       <c r="C101" t="n">
-        <v>0.112261</v>
+        <v>0.12823</v>
       </c>
       <c r="D101" t="n">
-        <v>0.151298</v>
+        <v>0.12867</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.164882</v>
+        <v>0.176542</v>
       </c>
       <c r="C102" t="n">
-        <v>0.113277</v>
+        <v>0.13239</v>
       </c>
       <c r="D102" t="n">
-        <v>0.15434</v>
+        <v>0.133341</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.174736</v>
+        <v>0.175988</v>
       </c>
       <c r="C103" t="n">
-        <v>0.120121</v>
+        <v>0.133712</v>
       </c>
       <c r="D103" t="n">
-        <v>0.159997</v>
+        <v>0.138611</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.183132</v>
+        <v>0.184591</v>
       </c>
       <c r="C104" t="n">
-        <v>0.124816</v>
+        <v>0.141356</v>
       </c>
       <c r="D104" t="n">
-        <v>0.170406</v>
+        <v>0.146346</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.189335</v>
+        <v>0.200935</v>
       </c>
       <c r="C105" t="n">
-        <v>0.131354</v>
+        <v>0.149623</v>
       </c>
       <c r="D105" t="n">
-        <v>0.174662</v>
+        <v>0.149999</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.212931</v>
+        <v>0.225328</v>
       </c>
       <c r="C106" t="n">
-        <v>0.139572</v>
+        <v>0.152958</v>
       </c>
       <c r="D106" t="n">
-        <v>0.183892</v>
+        <v>0.155525</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.233539</v>
+        <v>0.253137</v>
       </c>
       <c r="C107" t="n">
-        <v>0.151576</v>
+        <v>0.172153</v>
       </c>
       <c r="D107" t="n">
-        <v>0.208161</v>
+        <v>0.176111</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.284336</v>
+        <v>0.280269</v>
       </c>
       <c r="C108" t="n">
-        <v>0.178193</v>
+        <v>0.198263</v>
       </c>
       <c r="D108" t="n">
-        <v>0.24393</v>
+        <v>0.211812</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.362241</v>
+        <v>0.358456</v>
       </c>
       <c r="C109" t="n">
-        <v>0.174694</v>
+        <v>0.191908</v>
       </c>
       <c r="D109" t="n">
-        <v>0.241858</v>
+        <v>0.195079</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.231513</v>
+        <v>0.257304</v>
       </c>
       <c r="C110" t="n">
-        <v>0.179035</v>
+        <v>0.20551</v>
       </c>
       <c r="D110" t="n">
-        <v>0.230298</v>
+        <v>0.209422</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.231846</v>
+        <v>0.255874</v>
       </c>
       <c r="C111" t="n">
-        <v>0.178257</v>
+        <v>0.206852</v>
       </c>
       <c r="D111" t="n">
-        <v>0.230959</v>
+        <v>0.204797</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.249877</v>
+        <v>0.265602</v>
       </c>
       <c r="C112" t="n">
-        <v>0.179715</v>
+        <v>0.207047</v>
       </c>
       <c r="D112" t="n">
-        <v>0.256654</v>
+        <v>0.208173</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.255327</v>
+        <v>0.279126</v>
       </c>
       <c r="C113" t="n">
-        <v>0.182494</v>
+        <v>0.210897</v>
       </c>
       <c r="D113" t="n">
-        <v>0.236864</v>
+        <v>0.216612</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.246694</v>
+        <v>0.279868</v>
       </c>
       <c r="C114" t="n">
-        <v>0.186652</v>
+        <v>0.207886</v>
       </c>
       <c r="D114" t="n">
-        <v>0.243475</v>
+        <v>0.20883</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.263025</v>
+        <v>0.275864</v>
       </c>
       <c r="C115" t="n">
-        <v>0.195576</v>
+        <v>0.212317</v>
       </c>
       <c r="D115" t="n">
-        <v>0.271966</v>
+        <v>0.210278</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.255249</v>
+        <v>0.280649</v>
       </c>
       <c r="C116" t="n">
-        <v>0.195032</v>
+        <v>0.21278</v>
       </c>
       <c r="D116" t="n">
-        <v>0.252268</v>
+        <v>0.217132</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.273786</v>
+        <v>0.297244</v>
       </c>
       <c r="C117" t="n">
-        <v>0.194541</v>
+        <v>0.223305</v>
       </c>
       <c r="D117" t="n">
-        <v>0.252546</v>
+        <v>0.218407</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.272778</v>
+        <v>0.292168</v>
       </c>
       <c r="C118" t="n">
-        <v>0.208222</v>
+        <v>0.218609</v>
       </c>
       <c r="D118" t="n">
-        <v>0.275452</v>
+        <v>0.247056</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.296413</v>
+        <v>0.314343</v>
       </c>
       <c r="C119" t="n">
-        <v>0.219702</v>
+        <v>0.250843</v>
       </c>
       <c r="D119" t="n">
-        <v>0.284194</v>
+        <v>0.251319</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.318281</v>
+        <v>0.352576</v>
       </c>
       <c r="C120" t="n">
-        <v>0.2208</v>
+        <v>0.24535</v>
       </c>
       <c r="D120" t="n">
-        <v>0.289911</v>
+        <v>0.245842</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.344654</v>
+        <v>0.367408</v>
       </c>
       <c r="C121" t="n">
-        <v>0.238514</v>
+        <v>0.2698</v>
       </c>
       <c r="D121" t="n">
-        <v>0.291817</v>
+        <v>0.254284</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.379929</v>
+        <v>0.407447</v>
       </c>
       <c r="C122" t="n">
-        <v>0.25724</v>
+        <v>0.289496</v>
       </c>
       <c r="D122" t="n">
-        <v>0.317119</v>
+        <v>0.284914</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.459571</v>
+        <v>0.490429</v>
       </c>
       <c r="C123" t="n">
-        <v>0.282402</v>
+        <v>0.31617</v>
       </c>
       <c r="D123" t="n">
-        <v>0.405824</v>
+        <v>0.315171</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.371328</v>
+        <v>0.39192</v>
       </c>
       <c r="C124" t="n">
-        <v>0.287581</v>
+        <v>0.309876</v>
       </c>
       <c r="D124" t="n">
-        <v>0.411404</v>
+        <v>0.307019</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.375255</v>
+        <v>0.396287</v>
       </c>
       <c r="C125" t="n">
-        <v>0.286953</v>
+        <v>0.314731</v>
       </c>
       <c r="D125" t="n">
-        <v>0.418536</v>
+        <v>0.31383</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.376009</v>
+        <v>0.401146</v>
       </c>
       <c r="C126" t="n">
-        <v>0.288433</v>
+        <v>0.311119</v>
       </c>
       <c r="D126" t="n">
-        <v>0.404506</v>
+        <v>0.326528</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.374822</v>
+        <v>0.400557</v>
       </c>
       <c r="C127" t="n">
-        <v>0.300057</v>
+        <v>0.311801</v>
       </c>
       <c r="D127" t="n">
-        <v>0.424567</v>
+        <v>0.316729</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.392561</v>
+        <v>0.410129</v>
       </c>
       <c r="C128" t="n">
-        <v>0.297179</v>
+        <v>0.311733</v>
       </c>
       <c r="D128" t="n">
-        <v>0.441123</v>
+        <v>0.327863</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.388014</v>
+        <v>0.403844</v>
       </c>
       <c r="C129" t="n">
-        <v>0.296866</v>
+        <v>0.321194</v>
       </c>
       <c r="D129" t="n">
-        <v>0.422274</v>
+        <v>0.320043</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.393241</v>
+        <v>0.423786</v>
       </c>
       <c r="C130" t="n">
-        <v>0.301883</v>
+        <v>0.327477</v>
       </c>
       <c r="D130" t="n">
-        <v>0.423546</v>
+        <v>0.326345</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.409717</v>
+        <v>0.420292</v>
       </c>
       <c r="C131" t="n">
-        <v>0.307833</v>
+        <v>0.330961</v>
       </c>
       <c r="D131" t="n">
-        <v>0.437202</v>
+        <v>0.340086</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.424167</v>
+        <v>0.445945</v>
       </c>
       <c r="C132" t="n">
-        <v>0.319122</v>
+        <v>0.336859</v>
       </c>
       <c r="D132" t="n">
-        <v>0.459076</v>
+        <v>0.355573</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.434417</v>
+        <v>0.462721</v>
       </c>
       <c r="C133" t="n">
-        <v>0.319723</v>
+        <v>0.34577</v>
       </c>
       <c r="D133" t="n">
-        <v>0.456385</v>
+        <v>0.346756</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.467082</v>
+        <v>0.473727</v>
       </c>
       <c r="C134" t="n">
-        <v>0.332665</v>
+        <v>0.347566</v>
       </c>
       <c r="D134" t="n">
-        <v>0.471054</v>
+        <v>0.353377</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.483781</v>
+        <v>0.511585</v>
       </c>
       <c r="C135" t="n">
-        <v>0.344478</v>
+        <v>0.374115</v>
       </c>
       <c r="D135" t="n">
-        <v>0.481091</v>
+        <v>0.37783</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.543544</v>
+        <v>0.576147</v>
       </c>
       <c r="C136" t="n">
-        <v>0.375776</v>
+        <v>0.38809</v>
       </c>
       <c r="D136" t="n">
-        <v>0.511222</v>
+        <v>0.403802</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.625212</v>
+        <v>0.648639</v>
       </c>
       <c r="C137" t="n">
-        <v>0.340447</v>
+        <v>0.349655</v>
       </c>
       <c r="D137" t="n">
-        <v>0.530442</v>
+        <v>0.370915</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.461759</v>
+        <v>0.467966</v>
       </c>
       <c r="C138" t="n">
-        <v>0.341754</v>
+        <v>0.366906</v>
       </c>
       <c r="D138" t="n">
-        <v>0.528728</v>
+        <v>0.368432</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.461112</v>
+        <v>0.467195</v>
       </c>
       <c r="C139" t="n">
-        <v>0.342935</v>
+        <v>0.364089</v>
       </c>
       <c r="D139" t="n">
-        <v>0.536703</v>
+        <v>0.365782</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.466635</v>
+        <v>0.4856</v>
       </c>
       <c r="C140" t="n">
-        <v>0.348138</v>
+        <v>0.36686</v>
       </c>
       <c r="D140" t="n">
-        <v>0.542852</v>
+        <v>0.363027</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.46114</v>
+        <v>0.495556</v>
       </c>
       <c r="C141" t="n">
-        <v>0.35436</v>
+        <v>0.365917</v>
       </c>
       <c r="D141" t="n">
-        <v>0.539206</v>
+        <v>0.371301</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.471102</v>
+        <v>0.502495</v>
       </c>
       <c r="C142" t="n">
-        <v>0.350795</v>
+        <v>0.37581</v>
       </c>
       <c r="D142" t="n">
-        <v>0.534724</v>
+        <v>0.373805</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.479814</v>
+        <v>0.499684</v>
       </c>
       <c r="C143" t="n">
-        <v>0.355519</v>
+        <v>0.381277</v>
       </c>
       <c r="D143" t="n">
-        <v>0.549818</v>
+        <v>0.38435</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0633702</v>
+        <v>0.06294710000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07228469999999999</v>
+        <v>0.0717782</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0737085</v>
+        <v>0.0721398</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06381249999999999</v>
+        <v>0.0653295</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07462439999999999</v>
+        <v>0.0747756</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0759016</v>
+        <v>0.07283539999999999</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06795379999999999</v>
+        <v>0.066527</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07522470000000001</v>
+        <v>0.0780691</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0758572</v>
+        <v>0.0735724</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0737762</v>
+        <v>0.0740548</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0765825</v>
+        <v>0.0790126</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07717449999999999</v>
+        <v>0.0755697</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0860968</v>
+        <v>0.0828726</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0837628</v>
+        <v>0.0804851</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0811952</v>
+        <v>0.0841319</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.103256</v>
+        <v>0.0971007</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0896463</v>
+        <v>0.0917837</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0939905</v>
+        <v>0.089097</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.12486</v>
+        <v>0.124302</v>
       </c>
       <c r="C8" t="n">
-        <v>0.102825</v>
+        <v>0.105774</v>
       </c>
       <c r="D8" t="n">
-        <v>0.101018</v>
+        <v>0.100764</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.166728</v>
+        <v>0.158887</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0686105</v>
+        <v>0.0692942</v>
       </c>
       <c r="D9" t="n">
-        <v>0.071024</v>
+        <v>0.071131</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0619084</v>
+        <v>0.0628177</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0685219</v>
+        <v>0.0681243</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07011149999999999</v>
+        <v>0.0690542</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0613979</v>
+        <v>0.063196</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0681233</v>
+        <v>0.07052750000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0694082</v>
+        <v>0.0786708</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0625124</v>
+        <v>0.07298060000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0726559</v>
+        <v>0.0729207</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0719132</v>
+        <v>0.0784556</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.06311360000000001</v>
+        <v>0.0686778</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0680028</v>
+        <v>0.0750976</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0732686</v>
+        <v>0.0742559</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0624987</v>
+        <v>0.0633083</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0696427</v>
+        <v>0.0726835</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0711025</v>
+        <v>0.0727782</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0649605</v>
+        <v>0.06322990000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07461569999999999</v>
+        <v>0.0707057</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0713567</v>
+        <v>0.0762104</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.066701</v>
+        <v>0.0695687</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0743801</v>
+        <v>0.07544149999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.07351630000000001</v>
+        <v>0.0733446</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0685714</v>
+        <v>0.07037549999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07131899999999999</v>
+        <v>0.0759194</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07366010000000001</v>
+        <v>0.0742698</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.072281</v>
+        <v>0.0738023</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0748796</v>
+        <v>0.0748535</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0745155</v>
+        <v>0.0768133</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0819669</v>
+        <v>0.08239009999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07580480000000001</v>
+        <v>0.07804510000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0783083</v>
+        <v>0.07840560000000001</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08866830000000001</v>
+        <v>0.08655409999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0826916</v>
+        <v>0.08237750000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0829343</v>
+        <v>0.0849174</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.10089</v>
+        <v>0.100611</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0882336</v>
+        <v>0.08918429999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0899771</v>
+        <v>0.0922118</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.12498</v>
+        <v>0.119052</v>
       </c>
       <c r="C22" t="n">
-        <v>0.101761</v>
+        <v>0.09925290000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.10221</v>
+        <v>0.101436</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.158225</v>
+        <v>0.152067</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0688489</v>
+        <v>0.07053429999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0719465</v>
+        <v>0.0710602</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0649516</v>
+        <v>0.0639714</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0695803</v>
+        <v>0.0684386</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0698164</v>
+        <v>0.0710167</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.064065</v>
+        <v>0.0641178</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0706972</v>
+        <v>0.0714883</v>
       </c>
       <c r="D25" t="n">
-        <v>0.07267940000000001</v>
+        <v>0.07309980000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.06376569999999999</v>
+        <v>0.0688478</v>
       </c>
       <c r="C26" t="n">
-        <v>0.07009369999999999</v>
+        <v>0.0724934</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0724955</v>
+        <v>0.07622959999999999</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.06633219999999999</v>
+        <v>0.0660985</v>
       </c>
       <c r="C27" t="n">
-        <v>0.07140390000000001</v>
+        <v>0.0735497</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0737435</v>
+        <v>0.0698274</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0648635</v>
+        <v>0.06756819999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.07136480000000001</v>
+        <v>0.0709394</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0715369</v>
+        <v>0.0721736</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.06749570000000001</v>
+        <v>0.06951450000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0734534</v>
+        <v>0.0709185</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0717768</v>
+        <v>0.07350279999999999</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0678276</v>
+        <v>0.070981</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0729804</v>
+        <v>0.0732085</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0727862</v>
+        <v>0.0743048</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0705658</v>
+        <v>0.0750537</v>
       </c>
       <c r="C31" t="n">
-        <v>0.074223</v>
+        <v>0.07449989999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0751657</v>
+        <v>0.0759727</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0768885</v>
+        <v>0.0754885</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0815823</v>
+        <v>0.07491440000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07505729999999999</v>
+        <v>0.0762689</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0798311</v>
+        <v>0.0846421</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0769059</v>
+        <v>0.08179740000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.080207</v>
+        <v>0.07901</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0890029</v>
+        <v>0.0890316</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0815736</v>
+        <v>0.0837586</v>
       </c>
       <c r="D34" t="n">
-        <v>0.08202569999999999</v>
+        <v>0.0831906</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0993479</v>
+        <v>0.100841</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0887971</v>
+        <v>0.0870066</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0887003</v>
+        <v>0.0879228</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.118188</v>
+        <v>0.117954</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0994384</v>
+        <v>0.0970485</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0995794</v>
+        <v>0.100817</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.148645</v>
+        <v>0.15058</v>
       </c>
       <c r="C37" t="n">
-        <v>0.07354910000000001</v>
+        <v>0.073875</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0731494</v>
+        <v>0.0726866</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0710973</v>
+        <v>0.0706449</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07105880000000001</v>
+        <v>0.07232570000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07155549999999999</v>
+        <v>0.0768867</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.06977270000000001</v>
+        <v>0.0791298</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0736774</v>
+        <v>0.0758697</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0743043</v>
+        <v>0.0800825</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.06895270000000001</v>
+        <v>0.0709207</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0725948</v>
+        <v>0.0734171</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0750118</v>
+        <v>0.0766144</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0719354</v>
+        <v>0.0738494</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0745797</v>
+        <v>0.072801</v>
       </c>
       <c r="D41" t="n">
-        <v>0.07665379999999999</v>
+        <v>0.0738154</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.07144060000000001</v>
+        <v>0.0702248</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07308290000000001</v>
+        <v>0.0760893</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0757153</v>
+        <v>0.0761817</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.07347629999999999</v>
+        <v>0.07845149999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.07398200000000001</v>
+        <v>0.0734364</v>
       </c>
       <c r="D43" t="n">
-        <v>0.07789550000000001</v>
+        <v>0.0739596</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.07474690000000001</v>
+        <v>0.0746317</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0779981</v>
+        <v>0.0741613</v>
       </c>
       <c r="D44" t="n">
-        <v>0.07400379999999999</v>
+        <v>0.07473829999999999</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.077889</v>
+        <v>0.0776037</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0767719</v>
+        <v>0.079055</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0769807</v>
+        <v>0.0810997</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0839227</v>
+        <v>0.0841389</v>
       </c>
       <c r="C46" t="n">
-        <v>0.07666389999999999</v>
+        <v>0.0770098</v>
       </c>
       <c r="D46" t="n">
-        <v>0.07962329999999999</v>
+        <v>0.0810051</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0839884</v>
+        <v>0.0859881</v>
       </c>
       <c r="C47" t="n">
-        <v>0.08220769999999999</v>
+        <v>0.0856112</v>
       </c>
       <c r="D47" t="n">
-        <v>0.080911</v>
+        <v>0.0824294</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0940817</v>
+        <v>0.09173580000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0832917</v>
+        <v>0.08605359999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0861668</v>
+        <v>0.0877481</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.109349</v>
+        <v>0.102113</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0922581</v>
+        <v>0.09060020000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0904065</v>
+        <v>0.0956273</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.122333</v>
+        <v>0.123904</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0991991</v>
+        <v>0.102493</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0986943</v>
+        <v>0.102645</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.148102</v>
+        <v>0.147712</v>
       </c>
       <c r="C51" t="n">
-        <v>0.07952720000000001</v>
+        <v>0.0811492</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0765704</v>
+        <v>0.0764191</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1888</v>
+        <v>0.195065</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0798914</v>
+        <v>0.0791181</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0783582</v>
+        <v>0.0776261</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0859273</v>
+        <v>0.08496380000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0776713</v>
+        <v>0.08278919999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0784902</v>
+        <v>0.08161160000000001</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0810738</v>
+        <v>0.0856203</v>
       </c>
       <c r="C54" t="n">
-        <v>0.07949489999999999</v>
+        <v>0.0821236</v>
       </c>
       <c r="D54" t="n">
-        <v>0.084829</v>
+        <v>0.0813941</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0828826</v>
+        <v>0.0830593</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0788872</v>
+        <v>0.0794035</v>
       </c>
       <c r="D55" t="n">
-        <v>0.08027910000000001</v>
+        <v>0.0817956</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0898617</v>
+        <v>0.0869709</v>
       </c>
       <c r="C56" t="n">
-        <v>0.08006149999999999</v>
+        <v>0.0814878</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0822483</v>
+        <v>0.0800223</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0888086</v>
+        <v>0.0886991</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0816495</v>
+        <v>0.07869569999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.08287410000000001</v>
+        <v>0.0805428</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0906945</v>
+        <v>0.0873849</v>
       </c>
       <c r="C58" t="n">
-        <v>0.08021010000000001</v>
+        <v>0.08502029999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.08322309999999999</v>
+        <v>0.0829964</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.09050030000000001</v>
+        <v>0.09207940000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0879817</v>
+        <v>0.08708879999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.08453140000000001</v>
+        <v>0.084817</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0945986</v>
+        <v>0.09307890000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0863568</v>
+        <v>0.0852789</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0879355</v>
+        <v>0.08676250000000001</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0991635</v>
+        <v>0.100016</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0878842</v>
+        <v>0.0878229</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0874128</v>
+        <v>0.0910643</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.106559</v>
+        <v>0.106827</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0902742</v>
+        <v>0.0922432</v>
       </c>
       <c r="D62" t="n">
-        <v>0.09060559999999999</v>
+        <v>0.0923084</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.115921</v>
+        <v>0.117761</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0955061</v>
+        <v>0.1003</v>
       </c>
       <c r="D63" t="n">
-        <v>0.096341</v>
+        <v>0.0995822</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.134298</v>
+        <v>0.129542</v>
       </c>
       <c r="C64" t="n">
-        <v>0.104657</v>
+        <v>0.11092</v>
       </c>
       <c r="D64" t="n">
-        <v>0.103484</v>
+        <v>0.106079</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.16763</v>
+        <v>0.16507</v>
       </c>
       <c r="C65" t="n">
-        <v>0.123394</v>
+        <v>0.121629</v>
       </c>
       <c r="D65" t="n">
-        <v>0.123876</v>
+        <v>0.120407</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.215799</v>
+        <v>0.202809</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0843163</v>
+        <v>0.0817388</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0865972</v>
+        <v>0.0840733</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0978738</v>
+        <v>0.09696490000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0841532</v>
+        <v>0.0858834</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0851811</v>
+        <v>0.0910594</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0959256</v>
+        <v>0.095761</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0849946</v>
+        <v>0.0879523</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0884414</v>
+        <v>0.0873628</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.100534</v>
+        <v>0.0993271</v>
       </c>
       <c r="C69" t="n">
-        <v>0.08653329999999999</v>
+        <v>0.08723740000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0857242</v>
+        <v>0.0906122</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.100597</v>
+        <v>0.102234</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0877143</v>
+        <v>0.0867184</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0860542</v>
+        <v>0.0890828</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.10106</v>
+        <v>0.107049</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0899023</v>
+        <v>0.0896969</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0958526</v>
+        <v>0.0888284</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.10969</v>
+        <v>0.105536</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0899674</v>
+        <v>0.0915847</v>
       </c>
       <c r="D72" t="n">
-        <v>0.09499109999999999</v>
+        <v>0.0904829</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.108874</v>
+        <v>0.110975</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0942491</v>
+        <v>0.0940496</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0911907</v>
+        <v>0.092362</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.117662</v>
+        <v>0.114013</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0997465</v>
+        <v>0.0954378</v>
       </c>
       <c r="D74" t="n">
-        <v>0.09672210000000001</v>
+        <v>0.0983865</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.119973</v>
+        <v>0.121894</v>
       </c>
       <c r="C75" t="n">
-        <v>0.100022</v>
+        <v>0.09861549999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.104666</v>
+        <v>0.102635</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.138619</v>
+        <v>0.132309</v>
       </c>
       <c r="C76" t="n">
-        <v>0.107426</v>
+        <v>0.107409</v>
       </c>
       <c r="D76" t="n">
-        <v>0.106726</v>
+        <v>0.10544</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.143492</v>
+        <v>0.147251</v>
       </c>
       <c r="C77" t="n">
-        <v>0.110418</v>
+        <v>0.113149</v>
       </c>
       <c r="D77" t="n">
-        <v>0.112655</v>
+        <v>0.113833</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.164391</v>
+        <v>0.163905</v>
       </c>
       <c r="C78" t="n">
-        <v>0.118458</v>
+        <v>0.121397</v>
       </c>
       <c r="D78" t="n">
-        <v>0.118965</v>
+        <v>0.127275</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.190981</v>
+        <v>0.196201</v>
       </c>
       <c r="C79" t="n">
-        <v>0.140036</v>
+        <v>0.137773</v>
       </c>
       <c r="D79" t="n">
-        <v>0.136732</v>
+        <v>0.139666</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.23385</v>
+        <v>0.240056</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0910458</v>
+        <v>0.0939907</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0927407</v>
+        <v>0.09462950000000001</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.112666</v>
+        <v>0.120727</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0924109</v>
+        <v>0.0954165</v>
       </c>
       <c r="D81" t="n">
-        <v>0.095447</v>
+        <v>0.0937919</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.12009</v>
+        <v>0.113503</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0953466</v>
+        <v>0.0955395</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0975712</v>
+        <v>0.09886639999999999</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.121064</v>
+        <v>0.117047</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0967485</v>
+        <v>0.0955632</v>
       </c>
       <c r="D83" t="n">
-        <v>0.09766900000000001</v>
+        <v>0.0995557</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.12005</v>
+        <v>0.124055</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0996636</v>
+        <v>0.09901500000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.10397</v>
+        <v>0.102213</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.128372</v>
+        <v>0.130986</v>
       </c>
       <c r="C85" t="n">
-        <v>0.104927</v>
+        <v>0.101528</v>
       </c>
       <c r="D85" t="n">
-        <v>0.101141</v>
+        <v>0.104414</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.129765</v>
+        <v>0.130623</v>
       </c>
       <c r="C86" t="n">
-        <v>0.102432</v>
+        <v>0.104118</v>
       </c>
       <c r="D86" t="n">
-        <v>0.103274</v>
+        <v>0.103107</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.135986</v>
+        <v>0.140454</v>
       </c>
       <c r="C87" t="n">
-        <v>0.107821</v>
+        <v>0.106799</v>
       </c>
       <c r="D87" t="n">
-        <v>0.107787</v>
+        <v>0.107153</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.144798</v>
+        <v>0.14147</v>
       </c>
       <c r="C88" t="n">
-        <v>0.108395</v>
+        <v>0.110355</v>
       </c>
       <c r="D88" t="n">
-        <v>0.110859</v>
+        <v>0.109576</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.151797</v>
+        <v>0.150271</v>
       </c>
       <c r="C89" t="n">
-        <v>0.11434</v>
+        <v>0.11415</v>
       </c>
       <c r="D89" t="n">
-        <v>0.115038</v>
+        <v>0.113989</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.15957</v>
+        <v>0.157311</v>
       </c>
       <c r="C90" t="n">
-        <v>0.119737</v>
+        <v>0.120442</v>
       </c>
       <c r="D90" t="n">
-        <v>0.118894</v>
+        <v>0.117059</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.166683</v>
+        <v>0.173588</v>
       </c>
       <c r="C91" t="n">
-        <v>0.123405</v>
+        <v>0.127004</v>
       </c>
       <c r="D91" t="n">
-        <v>0.130024</v>
+        <v>0.130994</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.192017</v>
+        <v>0.187555</v>
       </c>
       <c r="C92" t="n">
-        <v>0.134924</v>
+        <v>0.134763</v>
       </c>
       <c r="D92" t="n">
-        <v>0.136578</v>
+        <v>0.14095</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.208793</v>
+        <v>0.215025</v>
       </c>
       <c r="C93" t="n">
-        <v>0.147338</v>
+        <v>0.148823</v>
       </c>
       <c r="D93" t="n">
-        <v>0.151462</v>
+        <v>0.150138</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.251139</v>
+        <v>0.252383</v>
       </c>
       <c r="C94" t="n">
-        <v>0.112521</v>
+        <v>0.111669</v>
       </c>
       <c r="D94" t="n">
-        <v>0.121785</v>
+        <v>0.11609</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.144885</v>
+        <v>0.147368</v>
       </c>
       <c r="C95" t="n">
-        <v>0.117992</v>
+        <v>0.116377</v>
       </c>
       <c r="D95" t="n">
-        <v>0.124712</v>
+        <v>0.117651</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.147184</v>
+        <v>0.154046</v>
       </c>
       <c r="C96" t="n">
-        <v>0.119262</v>
+        <v>0.115292</v>
       </c>
       <c r="D96" t="n">
-        <v>0.117617</v>
+        <v>0.119729</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.150183</v>
+        <v>0.153395</v>
       </c>
       <c r="C97" t="n">
-        <v>0.120133</v>
+        <v>0.118078</v>
       </c>
       <c r="D97" t="n">
-        <v>0.123184</v>
+        <v>0.118908</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.156678</v>
+        <v>0.164717</v>
       </c>
       <c r="C98" t="n">
-        <v>0.120389</v>
+        <v>0.119127</v>
       </c>
       <c r="D98" t="n">
-        <v>0.123074</v>
+        <v>0.125755</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.159255</v>
+        <v>0.163908</v>
       </c>
       <c r="C99" t="n">
-        <v>0.122336</v>
+        <v>0.124316</v>
       </c>
       <c r="D99" t="n">
-        <v>0.127249</v>
+        <v>0.127973</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.16746</v>
+        <v>0.166529</v>
       </c>
       <c r="C100" t="n">
-        <v>0.125875</v>
+        <v>0.130202</v>
       </c>
       <c r="D100" t="n">
-        <v>0.129445</v>
+        <v>0.133987</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.171036</v>
+        <v>0.167977</v>
       </c>
       <c r="C101" t="n">
-        <v>0.12823</v>
+        <v>0.126756</v>
       </c>
       <c r="D101" t="n">
-        <v>0.12867</v>
+        <v>0.133687</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.176542</v>
+        <v>0.176757</v>
       </c>
       <c r="C102" t="n">
-        <v>0.13239</v>
+        <v>0.132709</v>
       </c>
       <c r="D102" t="n">
-        <v>0.133341</v>
+        <v>0.131958</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.175988</v>
+        <v>0.180998</v>
       </c>
       <c r="C103" t="n">
-        <v>0.133712</v>
+        <v>0.133156</v>
       </c>
       <c r="D103" t="n">
-        <v>0.138611</v>
+        <v>0.14042</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.184591</v>
+        <v>0.190195</v>
       </c>
       <c r="C104" t="n">
-        <v>0.141356</v>
+        <v>0.145125</v>
       </c>
       <c r="D104" t="n">
-        <v>0.146346</v>
+        <v>0.14669</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.200935</v>
+        <v>0.199158</v>
       </c>
       <c r="C105" t="n">
-        <v>0.149623</v>
+        <v>0.147243</v>
       </c>
       <c r="D105" t="n">
-        <v>0.149999</v>
+        <v>0.147411</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.225328</v>
+        <v>0.226273</v>
       </c>
       <c r="C106" t="n">
-        <v>0.152958</v>
+        <v>0.163665</v>
       </c>
       <c r="D106" t="n">
-        <v>0.155525</v>
+        <v>0.162645</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.253137</v>
+        <v>0.254961</v>
       </c>
       <c r="C107" t="n">
-        <v>0.172153</v>
+        <v>0.177658</v>
       </c>
       <c r="D107" t="n">
-        <v>0.176111</v>
+        <v>0.175952</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.280269</v>
+        <v>0.28428</v>
       </c>
       <c r="C108" t="n">
-        <v>0.198263</v>
+        <v>0.195981</v>
       </c>
       <c r="D108" t="n">
-        <v>0.211812</v>
+        <v>0.199706</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.358456</v>
+        <v>0.353957</v>
       </c>
       <c r="C109" t="n">
-        <v>0.191908</v>
+        <v>0.210067</v>
       </c>
       <c r="D109" t="n">
-        <v>0.195079</v>
+        <v>0.207412</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.257304</v>
+        <v>0.249319</v>
       </c>
       <c r="C110" t="n">
-        <v>0.20551</v>
+        <v>0.203929</v>
       </c>
       <c r="D110" t="n">
-        <v>0.209422</v>
+        <v>0.212628</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.255874</v>
+        <v>0.280386</v>
       </c>
       <c r="C111" t="n">
-        <v>0.206852</v>
+        <v>0.211402</v>
       </c>
       <c r="D111" t="n">
-        <v>0.204797</v>
+        <v>0.206062</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.265602</v>
+        <v>0.266157</v>
       </c>
       <c r="C112" t="n">
-        <v>0.207047</v>
+        <v>0.216198</v>
       </c>
       <c r="D112" t="n">
-        <v>0.208173</v>
+        <v>0.211075</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.279126</v>
+        <v>0.266239</v>
       </c>
       <c r="C113" t="n">
-        <v>0.210897</v>
+        <v>0.206109</v>
       </c>
       <c r="D113" t="n">
-        <v>0.216612</v>
+        <v>0.207294</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.279868</v>
+        <v>0.285218</v>
       </c>
       <c r="C114" t="n">
-        <v>0.207886</v>
+        <v>0.216405</v>
       </c>
       <c r="D114" t="n">
-        <v>0.20883</v>
+        <v>0.225394</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.275864</v>
+        <v>0.27809</v>
       </c>
       <c r="C115" t="n">
-        <v>0.212317</v>
+        <v>0.214019</v>
       </c>
       <c r="D115" t="n">
-        <v>0.210278</v>
+        <v>0.217632</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.280649</v>
+        <v>0.282849</v>
       </c>
       <c r="C116" t="n">
-        <v>0.21278</v>
+        <v>0.218651</v>
       </c>
       <c r="D116" t="n">
-        <v>0.217132</v>
+        <v>0.221548</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.297244</v>
+        <v>0.300769</v>
       </c>
       <c r="C117" t="n">
-        <v>0.223305</v>
+        <v>0.219588</v>
       </c>
       <c r="D117" t="n">
-        <v>0.218407</v>
+        <v>0.23317</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.292168</v>
+        <v>0.304429</v>
       </c>
       <c r="C118" t="n">
-        <v>0.218609</v>
+        <v>0.22343</v>
       </c>
       <c r="D118" t="n">
-        <v>0.247056</v>
+        <v>0.224189</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.314343</v>
+        <v>0.312887</v>
       </c>
       <c r="C119" t="n">
-        <v>0.250843</v>
+        <v>0.240516</v>
       </c>
       <c r="D119" t="n">
-        <v>0.251319</v>
+        <v>0.245233</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.352576</v>
+        <v>0.348982</v>
       </c>
       <c r="C120" t="n">
-        <v>0.24535</v>
+        <v>0.242348</v>
       </c>
       <c r="D120" t="n">
-        <v>0.245842</v>
+        <v>0.241954</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.367408</v>
+        <v>0.373249</v>
       </c>
       <c r="C121" t="n">
-        <v>0.2698</v>
+        <v>0.261086</v>
       </c>
       <c r="D121" t="n">
-        <v>0.254284</v>
+        <v>0.258396</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.407447</v>
+        <v>0.428798</v>
       </c>
       <c r="C122" t="n">
-        <v>0.289496</v>
+        <v>0.296175</v>
       </c>
       <c r="D122" t="n">
-        <v>0.284914</v>
+        <v>0.290887</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.490429</v>
+        <v>0.493633</v>
       </c>
       <c r="C123" t="n">
-        <v>0.31617</v>
+        <v>0.313996</v>
       </c>
       <c r="D123" t="n">
-        <v>0.315171</v>
+        <v>0.312162</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.39192</v>
+        <v>0.399127</v>
       </c>
       <c r="C124" t="n">
-        <v>0.309876</v>
+        <v>0.31101</v>
       </c>
       <c r="D124" t="n">
-        <v>0.307019</v>
+        <v>0.30557</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.396287</v>
+        <v>0.390811</v>
       </c>
       <c r="C125" t="n">
-        <v>0.314731</v>
+        <v>0.315251</v>
       </c>
       <c r="D125" t="n">
-        <v>0.31383</v>
+        <v>0.315392</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.401146</v>
+        <v>0.402293</v>
       </c>
       <c r="C126" t="n">
-        <v>0.311119</v>
+        <v>0.31495</v>
       </c>
       <c r="D126" t="n">
-        <v>0.326528</v>
+        <v>0.314155</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.400557</v>
+        <v>0.4031</v>
       </c>
       <c r="C127" t="n">
-        <v>0.311801</v>
+        <v>0.31559</v>
       </c>
       <c r="D127" t="n">
-        <v>0.316729</v>
+        <v>0.319573</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.410129</v>
+        <v>0.412949</v>
       </c>
       <c r="C128" t="n">
-        <v>0.311733</v>
+        <v>0.323917</v>
       </c>
       <c r="D128" t="n">
-        <v>0.327863</v>
+        <v>0.319347</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.403844</v>
+        <v>0.423523</v>
       </c>
       <c r="C129" t="n">
-        <v>0.321194</v>
+        <v>0.328163</v>
       </c>
       <c r="D129" t="n">
-        <v>0.320043</v>
+        <v>0.336799</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.423786</v>
+        <v>0.429819</v>
       </c>
       <c r="C130" t="n">
-        <v>0.327477</v>
+        <v>0.322771</v>
       </c>
       <c r="D130" t="n">
-        <v>0.326345</v>
+        <v>0.31513</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.420292</v>
+        <v>0.422772</v>
       </c>
       <c r="C131" t="n">
-        <v>0.330961</v>
+        <v>0.332441</v>
       </c>
       <c r="D131" t="n">
-        <v>0.340086</v>
+        <v>0.333676</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.445945</v>
+        <v>0.430111</v>
       </c>
       <c r="C132" t="n">
-        <v>0.336859</v>
+        <v>0.335462</v>
       </c>
       <c r="D132" t="n">
-        <v>0.355573</v>
+        <v>0.342187</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.462721</v>
+        <v>0.458345</v>
       </c>
       <c r="C133" t="n">
-        <v>0.34577</v>
+        <v>0.335549</v>
       </c>
       <c r="D133" t="n">
-        <v>0.346756</v>
+        <v>0.347672</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.473727</v>
+        <v>0.477118</v>
       </c>
       <c r="C134" t="n">
-        <v>0.347566</v>
+        <v>0.351397</v>
       </c>
       <c r="D134" t="n">
-        <v>0.353377</v>
+        <v>0.353853</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.511585</v>
+        <v>0.51124</v>
       </c>
       <c r="C135" t="n">
-        <v>0.374115</v>
+        <v>0.375944</v>
       </c>
       <c r="D135" t="n">
-        <v>0.37783</v>
+        <v>0.370198</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.576147</v>
+        <v>0.57312</v>
       </c>
       <c r="C136" t="n">
-        <v>0.38809</v>
+        <v>0.394813</v>
       </c>
       <c r="D136" t="n">
-        <v>0.403802</v>
+        <v>0.403091</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.648639</v>
+        <v>0.648158</v>
       </c>
       <c r="C137" t="n">
-        <v>0.349655</v>
+        <v>0.35858</v>
       </c>
       <c r="D137" t="n">
-        <v>0.370915</v>
+        <v>0.351972</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.467966</v>
+        <v>0.462108</v>
       </c>
       <c r="C138" t="n">
-        <v>0.366906</v>
+        <v>0.358826</v>
       </c>
       <c r="D138" t="n">
-        <v>0.368432</v>
+        <v>0.363519</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.467195</v>
+        <v>0.471703</v>
       </c>
       <c r="C139" t="n">
-        <v>0.364089</v>
+        <v>0.35967</v>
       </c>
       <c r="D139" t="n">
-        <v>0.365782</v>
+        <v>0.364027</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.4856</v>
+        <v>0.472673</v>
       </c>
       <c r="C140" t="n">
-        <v>0.36686</v>
+        <v>0.365236</v>
       </c>
       <c r="D140" t="n">
-        <v>0.363027</v>
+        <v>0.363114</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.495556</v>
+        <v>0.480012</v>
       </c>
       <c r="C141" t="n">
-        <v>0.365917</v>
+        <v>0.36704</v>
       </c>
       <c r="D141" t="n">
-        <v>0.371301</v>
+        <v>0.382069</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.502495</v>
+        <v>0.501741</v>
       </c>
       <c r="C142" t="n">
-        <v>0.37581</v>
+        <v>0.370888</v>
       </c>
       <c r="D142" t="n">
-        <v>0.373805</v>
+        <v>0.381803</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.499684</v>
+        <v>0.514336</v>
       </c>
       <c r="C143" t="n">
-        <v>0.381277</v>
+        <v>0.384121</v>
       </c>
       <c r="D143" t="n">
-        <v>0.38435</v>
+        <v>0.372929</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06294710000000001</v>
+        <v>0.0624452</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0717782</v>
+        <v>0.071834</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0721398</v>
+        <v>0.07379819999999999</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0653295</v>
+        <v>0.067047</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0747756</v>
+        <v>0.0754609</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07283539999999999</v>
+        <v>0.07613259999999999</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.066527</v>
+        <v>0.07096280000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0780691</v>
+        <v>0.0746513</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0735724</v>
+        <v>0.076942</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0740548</v>
+        <v>0.0771592</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0790126</v>
+        <v>0.0790761</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0755697</v>
+        <v>0.0791478</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0828726</v>
+        <v>0.08591169999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0804851</v>
+        <v>0.08039780000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0841319</v>
+        <v>0.08503429999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0971007</v>
+        <v>0.100039</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0917837</v>
+        <v>0.0906116</v>
       </c>
       <c r="D7" t="n">
-        <v>0.089097</v>
+        <v>0.0903593</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.124302</v>
+        <v>0.129819</v>
       </c>
       <c r="C8" t="n">
-        <v>0.105774</v>
+        <v>0.104293</v>
       </c>
       <c r="D8" t="n">
-        <v>0.100764</v>
+        <v>0.0963097</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.158887</v>
+        <v>0.170079</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0692942</v>
+        <v>0.0734176</v>
       </c>
       <c r="D9" t="n">
-        <v>0.071131</v>
+        <v>0.070325</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0628177</v>
+        <v>0.0633199</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0681243</v>
+        <v>0.0693966</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0690542</v>
+        <v>0.07075149999999999</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.063196</v>
+        <v>0.05918</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07052750000000001</v>
+        <v>0.0705634</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0786708</v>
+        <v>0.07202020000000001</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.07298060000000001</v>
+        <v>0.0595796</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0729207</v>
+        <v>0.07028860000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0784556</v>
+        <v>0.0731492</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0686778</v>
+        <v>0.0647967</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0750976</v>
+        <v>0.07027170000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0742559</v>
+        <v>0.0699137</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0633083</v>
+        <v>0.0633079</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0726835</v>
+        <v>0.0692712</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0727782</v>
+        <v>0.074446</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.06322990000000001</v>
+        <v>0.06340469999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0707057</v>
+        <v>0.07156369999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0762104</v>
+        <v>0.07015150000000001</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0695687</v>
+        <v>0.06380180000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07544149999999999</v>
+        <v>0.07248830000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0733446</v>
+        <v>0.0719858</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07037549999999999</v>
+        <v>0.0663765</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0759194</v>
+        <v>0.0736246</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0742698</v>
+        <v>0.07295980000000001</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0738023</v>
+        <v>0.06902659999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0748535</v>
+        <v>0.0755844</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0768133</v>
+        <v>0.0744103</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.08239009999999999</v>
+        <v>0.07495930000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07804510000000001</v>
+        <v>0.0778374</v>
       </c>
       <c r="D19" t="n">
-        <v>0.07840560000000001</v>
+        <v>0.0787301</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08655409999999999</v>
+        <v>0.0870327</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08237750000000001</v>
+        <v>0.08430459999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0849174</v>
+        <v>0.08204409999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.100611</v>
+        <v>0.0965973</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08918429999999999</v>
+        <v>0.0912486</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0922118</v>
+        <v>0.08863119999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.119052</v>
+        <v>0.112707</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09925290000000001</v>
+        <v>0.102981</v>
       </c>
       <c r="D22" t="n">
-        <v>0.101436</v>
+        <v>0.100245</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.152067</v>
+        <v>0.14641</v>
       </c>
       <c r="C23" t="n">
-        <v>0.07053429999999999</v>
+        <v>0.069198</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0710602</v>
+        <v>0.0716526</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0639714</v>
+        <v>0.0645609</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0684386</v>
+        <v>0.07193910000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0710167</v>
+        <v>0.0698013</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0641178</v>
+        <v>0.0667296</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0714883</v>
+        <v>0.0719061</v>
       </c>
       <c r="D25" t="n">
-        <v>0.07309980000000001</v>
+        <v>0.0746011</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0688478</v>
+        <v>0.06402869999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0724934</v>
+        <v>0.06847930000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.07622959999999999</v>
+        <v>0.0722849</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0660985</v>
+        <v>0.0653603</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0735497</v>
+        <v>0.0689583</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0698274</v>
+        <v>0.0720449</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.06756819999999999</v>
+        <v>0.0651501</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0709394</v>
+        <v>0.07200380000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0721736</v>
+        <v>0.071177</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.06951450000000001</v>
+        <v>0.0682205</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0709185</v>
+        <v>0.0741464</v>
       </c>
       <c r="D29" t="n">
-        <v>0.07350279999999999</v>
+        <v>0.07344820000000001</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.070981</v>
+        <v>0.0702496</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0732085</v>
+        <v>0.07369340000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0743048</v>
+        <v>0.0786877</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0750537</v>
+        <v>0.07295980000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07449989999999999</v>
+        <v>0.0731986</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0759727</v>
+        <v>0.07677829999999999</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0754885</v>
+        <v>0.0760647</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07491440000000001</v>
+        <v>0.0765773</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0762689</v>
+        <v>0.07742300000000001</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0846421</v>
+        <v>0.080387</v>
       </c>
       <c r="C33" t="n">
-        <v>0.08179740000000001</v>
+        <v>0.0767241</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07901</v>
+        <v>0.0819294</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0890316</v>
+        <v>0.0878347</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0837586</v>
+        <v>0.08335869999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0831906</v>
+        <v>0.0822399</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.100841</v>
+        <v>0.0999954</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0870066</v>
+        <v>0.0889976</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0879228</v>
+        <v>0.08793520000000001</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.117954</v>
+        <v>0.119707</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0970485</v>
+        <v>0.09707639999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.100817</v>
+        <v>0.0993777</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.15058</v>
+        <v>0.144205</v>
       </c>
       <c r="C37" t="n">
-        <v>0.073875</v>
+        <v>0.0727587</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0726866</v>
+        <v>0.07333050000000001</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0706449</v>
+        <v>0.07031</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07232570000000001</v>
+        <v>0.07304919999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0768867</v>
+        <v>0.07218140000000001</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0791298</v>
+        <v>0.07105400000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0758697</v>
+        <v>0.0728871</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0800825</v>
+        <v>0.0737989</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0709207</v>
+        <v>0.0727549</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0734171</v>
+        <v>0.07422769999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0766144</v>
+        <v>0.0742925</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0738494</v>
+        <v>0.070511</v>
       </c>
       <c r="C41" t="n">
-        <v>0.072801</v>
+        <v>0.0744995</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0738154</v>
+        <v>0.0762914</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0702248</v>
+        <v>0.0740302</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0760893</v>
+        <v>0.0756216</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0761817</v>
+        <v>0.0773182</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.07845149999999999</v>
+        <v>0.0742574</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0734364</v>
+        <v>0.0756115</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0739596</v>
+        <v>0.07850989999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0746317</v>
+        <v>0.07490620000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0741613</v>
+        <v>0.0761701</v>
       </c>
       <c r="D44" t="n">
-        <v>0.07473829999999999</v>
+        <v>0.0743972</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0776037</v>
+        <v>0.07834339999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.079055</v>
+        <v>0.0785328</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0810997</v>
+        <v>0.0805823</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0841389</v>
+        <v>0.0854861</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0770098</v>
+        <v>0.0795464</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0810051</v>
+        <v>0.07790710000000001</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0859881</v>
+        <v>0.08530310000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0856112</v>
+        <v>0.08310289999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0824294</v>
+        <v>0.0805604</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.09173580000000001</v>
+        <v>0.0925068</v>
       </c>
       <c r="C48" t="n">
-        <v>0.08605359999999999</v>
+        <v>0.0842762</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0877481</v>
+        <v>0.0849707</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.102113</v>
+        <v>0.108121</v>
       </c>
       <c r="C49" t="n">
-        <v>0.09060020000000001</v>
+        <v>0.09118569999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0956273</v>
+        <v>0.09474970000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.123904</v>
+        <v>0.122679</v>
       </c>
       <c r="C50" t="n">
-        <v>0.102493</v>
+        <v>0.10153</v>
       </c>
       <c r="D50" t="n">
-        <v>0.102645</v>
+        <v>0.102442</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.147712</v>
+        <v>0.155673</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0811492</v>
+        <v>0.0760332</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0764191</v>
+        <v>0.079128</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.195065</v>
+        <v>0.19612</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0791181</v>
+        <v>0.0799028</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0776261</v>
+        <v>0.0778425</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.08496380000000001</v>
+        <v>0.08206919999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.08278919999999999</v>
+        <v>0.0829075</v>
       </c>
       <c r="D53" t="n">
-        <v>0.08161160000000001</v>
+        <v>0.0794909</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0856203</v>
+        <v>0.0832792</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0821236</v>
+        <v>0.0837738</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0813941</v>
+        <v>0.08139440000000001</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0830593</v>
+        <v>0.0839998</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0794035</v>
+        <v>0.0802105</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0817956</v>
+        <v>0.080252</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0869709</v>
+        <v>0.0860934</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0814878</v>
+        <v>0.0810163</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0800223</v>
+        <v>0.08038149999999999</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0886991</v>
+        <v>0.088884</v>
       </c>
       <c r="C57" t="n">
-        <v>0.07869569999999999</v>
+        <v>0.0798645</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0805428</v>
+        <v>0.0822422</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0873849</v>
+        <v>0.0961948</v>
       </c>
       <c r="C58" t="n">
-        <v>0.08502029999999999</v>
+        <v>0.08071010000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0829964</v>
+        <v>0.0869963</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.09207940000000001</v>
+        <v>0.0924188</v>
       </c>
       <c r="C59" t="n">
-        <v>0.08708879999999999</v>
+        <v>0.0849429</v>
       </c>
       <c r="D59" t="n">
-        <v>0.084817</v>
+        <v>0.0835824</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.09307890000000001</v>
+        <v>0.0985622</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0852789</v>
+        <v>0.0857074</v>
       </c>
       <c r="D60" t="n">
-        <v>0.08676250000000001</v>
+        <v>0.08984880000000001</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.100016</v>
+        <v>0.100771</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0878229</v>
+        <v>0.0865157</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0910643</v>
+        <v>0.0898979</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.106827</v>
+        <v>0.108579</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0922432</v>
+        <v>0.09480130000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0923084</v>
+        <v>0.0939108</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.117761</v>
+        <v>0.120953</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1003</v>
+        <v>0.0985791</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0995822</v>
+        <v>0.097619</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.129542</v>
+        <v>0.136368</v>
       </c>
       <c r="C64" t="n">
-        <v>0.11092</v>
+        <v>0.110885</v>
       </c>
       <c r="D64" t="n">
-        <v>0.106079</v>
+        <v>0.110596</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.16507</v>
+        <v>0.161765</v>
       </c>
       <c r="C65" t="n">
-        <v>0.121629</v>
+        <v>0.119731</v>
       </c>
       <c r="D65" t="n">
-        <v>0.120407</v>
+        <v>0.120863</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.202809</v>
+        <v>0.2112</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0817388</v>
+        <v>0.08190269999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0840733</v>
+        <v>0.0868954</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.09696490000000001</v>
+        <v>0.0969675</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0858834</v>
+        <v>0.08696660000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0910594</v>
+        <v>0.0874077</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.095761</v>
+        <v>0.09877809999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0879523</v>
+        <v>0.0859909</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0873628</v>
+        <v>0.08837730000000001</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0993271</v>
+        <v>0.104169</v>
       </c>
       <c r="C69" t="n">
-        <v>0.08723740000000001</v>
+        <v>0.0867068</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0906122</v>
+        <v>0.0895932</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.102234</v>
+        <v>0.103524</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0867184</v>
+        <v>0.0879837</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0890828</v>
+        <v>0.08774469999999999</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.107049</v>
+        <v>0.107361</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0896969</v>
+        <v>0.0883453</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0888284</v>
+        <v>0.09450119999999999</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.105536</v>
+        <v>0.107381</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0915847</v>
+        <v>0.0902799</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0904829</v>
+        <v>0.09499639999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.110975</v>
+        <v>0.112915</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0940496</v>
+        <v>0.0939629</v>
       </c>
       <c r="D73" t="n">
-        <v>0.092362</v>
+        <v>0.0951113</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.114013</v>
+        <v>0.115659</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0954378</v>
+        <v>0.101277</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0983865</v>
+        <v>0.0980056</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.121894</v>
+        <v>0.125583</v>
       </c>
       <c r="C75" t="n">
-        <v>0.09861549999999999</v>
+        <v>0.09926550000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.102635</v>
+        <v>0.101865</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.132309</v>
+        <v>0.138588</v>
       </c>
       <c r="C76" t="n">
-        <v>0.107409</v>
+        <v>0.104711</v>
       </c>
       <c r="D76" t="n">
-        <v>0.10544</v>
+        <v>0.106224</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.147251</v>
+        <v>0.153406</v>
       </c>
       <c r="C77" t="n">
-        <v>0.113149</v>
+        <v>0.114277</v>
       </c>
       <c r="D77" t="n">
-        <v>0.113833</v>
+        <v>0.114086</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.163905</v>
+        <v>0.163378</v>
       </c>
       <c r="C78" t="n">
-        <v>0.121397</v>
+        <v>0.122864</v>
       </c>
       <c r="D78" t="n">
-        <v>0.127275</v>
+        <v>0.123952</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.196201</v>
+        <v>0.19827</v>
       </c>
       <c r="C79" t="n">
-        <v>0.137773</v>
+        <v>0.141158</v>
       </c>
       <c r="D79" t="n">
-        <v>0.139666</v>
+        <v>0.143312</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.240056</v>
+        <v>0.246661</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0939907</v>
+        <v>0.096343</v>
       </c>
       <c r="D80" t="n">
-        <v>0.09462950000000001</v>
+        <v>0.0934048</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.120727</v>
+        <v>0.124073</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0954165</v>
+        <v>0.10121</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0937919</v>
+        <v>0.09686400000000001</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.113503</v>
+        <v>0.126282</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0955395</v>
+        <v>0.100395</v>
       </c>
       <c r="D82" t="n">
-        <v>0.09886639999999999</v>
+        <v>0.103814</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.117047</v>
+        <v>0.129354</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0955632</v>
+        <v>0.100431</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0995557</v>
+        <v>0.109686</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.124055</v>
+        <v>0.129275</v>
       </c>
       <c r="C84" t="n">
-        <v>0.09901500000000001</v>
+        <v>0.102347</v>
       </c>
       <c r="D84" t="n">
-        <v>0.102213</v>
+        <v>0.101526</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.130986</v>
+        <v>0.133233</v>
       </c>
       <c r="C85" t="n">
-        <v>0.101528</v>
+        <v>0.104342</v>
       </c>
       <c r="D85" t="n">
-        <v>0.104414</v>
+        <v>0.106594</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.130623</v>
+        <v>0.13562</v>
       </c>
       <c r="C86" t="n">
-        <v>0.104118</v>
+        <v>0.107495</v>
       </c>
       <c r="D86" t="n">
-        <v>0.103107</v>
+        <v>0.109369</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.140454</v>
+        <v>0.1403</v>
       </c>
       <c r="C87" t="n">
-        <v>0.106799</v>
+        <v>0.11093</v>
       </c>
       <c r="D87" t="n">
-        <v>0.107153</v>
+        <v>0.107651</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.14147</v>
+        <v>0.13955</v>
       </c>
       <c r="C88" t="n">
-        <v>0.110355</v>
+        <v>0.110336</v>
       </c>
       <c r="D88" t="n">
-        <v>0.109576</v>
+        <v>0.111966</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.150271</v>
+        <v>0.146776</v>
       </c>
       <c r="C89" t="n">
-        <v>0.11415</v>
+        <v>0.112118</v>
       </c>
       <c r="D89" t="n">
-        <v>0.113989</v>
+        <v>0.118071</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.157311</v>
+        <v>0.16402</v>
       </c>
       <c r="C90" t="n">
-        <v>0.120442</v>
+        <v>0.118517</v>
       </c>
       <c r="D90" t="n">
-        <v>0.117059</v>
+        <v>0.121234</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.173588</v>
+        <v>0.168609</v>
       </c>
       <c r="C91" t="n">
-        <v>0.127004</v>
+        <v>0.127736</v>
       </c>
       <c r="D91" t="n">
-        <v>0.130994</v>
+        <v>0.132255</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.187555</v>
+        <v>0.189856</v>
       </c>
       <c r="C92" t="n">
-        <v>0.134763</v>
+        <v>0.134872</v>
       </c>
       <c r="D92" t="n">
-        <v>0.14095</v>
+        <v>0.138003</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.215025</v>
+        <v>0.217659</v>
       </c>
       <c r="C93" t="n">
-        <v>0.148823</v>
+        <v>0.15341</v>
       </c>
       <c r="D93" t="n">
-        <v>0.150138</v>
+        <v>0.148996</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.252383</v>
+        <v>0.257223</v>
       </c>
       <c r="C94" t="n">
-        <v>0.111669</v>
+        <v>0.113519</v>
       </c>
       <c r="D94" t="n">
-        <v>0.11609</v>
+        <v>0.120516</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.147368</v>
+        <v>0.149788</v>
       </c>
       <c r="C95" t="n">
-        <v>0.116377</v>
+        <v>0.121832</v>
       </c>
       <c r="D95" t="n">
-        <v>0.117651</v>
+        <v>0.12395</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.154046</v>
+        <v>0.159092</v>
       </c>
       <c r="C96" t="n">
-        <v>0.115292</v>
+        <v>0.124118</v>
       </c>
       <c r="D96" t="n">
-        <v>0.119729</v>
+        <v>0.12573</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.153395</v>
+        <v>0.162181</v>
       </c>
       <c r="C97" t="n">
-        <v>0.118078</v>
+        <v>0.125704</v>
       </c>
       <c r="D97" t="n">
-        <v>0.118908</v>
+        <v>0.132026</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.164717</v>
+        <v>0.165508</v>
       </c>
       <c r="C98" t="n">
-        <v>0.119127</v>
+        <v>0.126044</v>
       </c>
       <c r="D98" t="n">
-        <v>0.125755</v>
+        <v>0.126502</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.163908</v>
+        <v>0.168306</v>
       </c>
       <c r="C99" t="n">
-        <v>0.124316</v>
+        <v>0.124762</v>
       </c>
       <c r="D99" t="n">
-        <v>0.127973</v>
+        <v>0.130124</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.166529</v>
+        <v>0.174507</v>
       </c>
       <c r="C100" t="n">
-        <v>0.130202</v>
+        <v>0.131466</v>
       </c>
       <c r="D100" t="n">
-        <v>0.133987</v>
+        <v>0.130886</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.167977</v>
+        <v>0.169382</v>
       </c>
       <c r="C101" t="n">
-        <v>0.126756</v>
+        <v>0.133551</v>
       </c>
       <c r="D101" t="n">
-        <v>0.133687</v>
+        <v>0.134103</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.176757</v>
+        <v>0.189592</v>
       </c>
       <c r="C102" t="n">
-        <v>0.132709</v>
+        <v>0.130182</v>
       </c>
       <c r="D102" t="n">
-        <v>0.131958</v>
+        <v>0.135138</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.180998</v>
+        <v>0.185885</v>
       </c>
       <c r="C103" t="n">
-        <v>0.133156</v>
+        <v>0.135744</v>
       </c>
       <c r="D103" t="n">
-        <v>0.14042</v>
+        <v>0.137716</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.190195</v>
+        <v>0.189674</v>
       </c>
       <c r="C104" t="n">
-        <v>0.145125</v>
+        <v>0.149438</v>
       </c>
       <c r="D104" t="n">
-        <v>0.14669</v>
+        <v>0.154591</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.199158</v>
+        <v>0.196517</v>
       </c>
       <c r="C105" t="n">
-        <v>0.147243</v>
+        <v>0.150134</v>
       </c>
       <c r="D105" t="n">
-        <v>0.147411</v>
+        <v>0.154922</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.226273</v>
+        <v>0.219426</v>
       </c>
       <c r="C106" t="n">
-        <v>0.163665</v>
+        <v>0.161437</v>
       </c>
       <c r="D106" t="n">
-        <v>0.162645</v>
+        <v>0.166192</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.254961</v>
+        <v>0.248312</v>
       </c>
       <c r="C107" t="n">
-        <v>0.177658</v>
+        <v>0.174548</v>
       </c>
       <c r="D107" t="n">
-        <v>0.175952</v>
+        <v>0.173285</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.28428</v>
+        <v>0.287169</v>
       </c>
       <c r="C108" t="n">
-        <v>0.195981</v>
+        <v>0.198241</v>
       </c>
       <c r="D108" t="n">
-        <v>0.199706</v>
+        <v>0.197274</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.353957</v>
+        <v>0.358026</v>
       </c>
       <c r="C109" t="n">
-        <v>0.210067</v>
+        <v>0.197874</v>
       </c>
       <c r="D109" t="n">
-        <v>0.207412</v>
+        <v>0.201439</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.249319</v>
+        <v>0.249057</v>
       </c>
       <c r="C110" t="n">
-        <v>0.203929</v>
+        <v>0.20135</v>
       </c>
       <c r="D110" t="n">
-        <v>0.212628</v>
+        <v>0.211791</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.280386</v>
+        <v>0.26884</v>
       </c>
       <c r="C111" t="n">
-        <v>0.211402</v>
+        <v>0.206603</v>
       </c>
       <c r="D111" t="n">
-        <v>0.206062</v>
+        <v>0.199388</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.266157</v>
+        <v>0.257832</v>
       </c>
       <c r="C112" t="n">
-        <v>0.216198</v>
+        <v>0.200696</v>
       </c>
       <c r="D112" t="n">
-        <v>0.211075</v>
+        <v>0.204389</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.266239</v>
+        <v>0.266388</v>
       </c>
       <c r="C113" t="n">
-        <v>0.206109</v>
+        <v>0.20831</v>
       </c>
       <c r="D113" t="n">
-        <v>0.207294</v>
+        <v>0.23066</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.285218</v>
+        <v>0.274789</v>
       </c>
       <c r="C114" t="n">
-        <v>0.216405</v>
+        <v>0.208267</v>
       </c>
       <c r="D114" t="n">
-        <v>0.225394</v>
+        <v>0.211756</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.27809</v>
+        <v>0.280509</v>
       </c>
       <c r="C115" t="n">
-        <v>0.214019</v>
+        <v>0.215488</v>
       </c>
       <c r="D115" t="n">
-        <v>0.217632</v>
+        <v>0.228418</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.282849</v>
+        <v>0.278684</v>
       </c>
       <c r="C116" t="n">
-        <v>0.218651</v>
+        <v>0.210868</v>
       </c>
       <c r="D116" t="n">
-        <v>0.221548</v>
+        <v>0.214528</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.300769</v>
+        <v>0.293948</v>
       </c>
       <c r="C117" t="n">
-        <v>0.219588</v>
+        <v>0.220671</v>
       </c>
       <c r="D117" t="n">
-        <v>0.23317</v>
+        <v>0.222865</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.304429</v>
+        <v>0.298877</v>
       </c>
       <c r="C118" t="n">
-        <v>0.22343</v>
+        <v>0.22131</v>
       </c>
       <c r="D118" t="n">
-        <v>0.224189</v>
+        <v>0.227899</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.312887</v>
+        <v>0.311423</v>
       </c>
       <c r="C119" t="n">
-        <v>0.240516</v>
+        <v>0.234556</v>
       </c>
       <c r="D119" t="n">
-        <v>0.245233</v>
+        <v>0.238395</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.348982</v>
+        <v>0.327808</v>
       </c>
       <c r="C120" t="n">
-        <v>0.242348</v>
+        <v>0.245231</v>
       </c>
       <c r="D120" t="n">
-        <v>0.241954</v>
+        <v>0.258979</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.373249</v>
+        <v>0.385962</v>
       </c>
       <c r="C121" t="n">
-        <v>0.261086</v>
+        <v>0.254813</v>
       </c>
       <c r="D121" t="n">
-        <v>0.258396</v>
+        <v>0.256556</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.428798</v>
+        <v>0.415851</v>
       </c>
       <c r="C122" t="n">
-        <v>0.296175</v>
+        <v>0.296682</v>
       </c>
       <c r="D122" t="n">
-        <v>0.290887</v>
+        <v>0.282638</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.493633</v>
+        <v>0.5024459999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.313996</v>
+        <v>0.313518</v>
       </c>
       <c r="D123" t="n">
-        <v>0.312162</v>
+        <v>0.313007</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.399127</v>
+        <v>0.386864</v>
       </c>
       <c r="C124" t="n">
-        <v>0.31101</v>
+        <v>0.315884</v>
       </c>
       <c r="D124" t="n">
-        <v>0.30557</v>
+        <v>0.314155</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.390811</v>
+        <v>0.394135</v>
       </c>
       <c r="C125" t="n">
-        <v>0.315251</v>
+        <v>0.317746</v>
       </c>
       <c r="D125" t="n">
-        <v>0.315392</v>
+        <v>0.312833</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.402293</v>
+        <v>0.399362</v>
       </c>
       <c r="C126" t="n">
-        <v>0.31495</v>
+        <v>0.31135</v>
       </c>
       <c r="D126" t="n">
-        <v>0.314155</v>
+        <v>0.320872</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.4031</v>
+        <v>0.391518</v>
       </c>
       <c r="C127" t="n">
-        <v>0.31559</v>
+        <v>0.315716</v>
       </c>
       <c r="D127" t="n">
-        <v>0.319573</v>
+        <v>0.326944</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.412949</v>
+        <v>0.410072</v>
       </c>
       <c r="C128" t="n">
-        <v>0.323917</v>
+        <v>0.322588</v>
       </c>
       <c r="D128" t="n">
-        <v>0.319347</v>
+        <v>0.322239</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.423523</v>
+        <v>0.416134</v>
       </c>
       <c r="C129" t="n">
-        <v>0.328163</v>
+        <v>0.326806</v>
       </c>
       <c r="D129" t="n">
-        <v>0.336799</v>
+        <v>0.329673</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.429819</v>
+        <v>0.415765</v>
       </c>
       <c r="C130" t="n">
-        <v>0.322771</v>
+        <v>0.330482</v>
       </c>
       <c r="D130" t="n">
-        <v>0.31513</v>
+        <v>0.321425</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.422772</v>
+        <v>0.43501</v>
       </c>
       <c r="C131" t="n">
-        <v>0.332441</v>
+        <v>0.323195</v>
       </c>
       <c r="D131" t="n">
-        <v>0.333676</v>
+        <v>0.333447</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.430111</v>
+        <v>0.439963</v>
       </c>
       <c r="C132" t="n">
-        <v>0.335462</v>
+        <v>0.332509</v>
       </c>
       <c r="D132" t="n">
-        <v>0.342187</v>
+        <v>0.344571</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.458345</v>
+        <v>0.48981</v>
       </c>
       <c r="C133" t="n">
-        <v>0.335549</v>
+        <v>0.348113</v>
       </c>
       <c r="D133" t="n">
-        <v>0.347672</v>
+        <v>0.345204</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.477118</v>
+        <v>0.483489</v>
       </c>
       <c r="C134" t="n">
-        <v>0.351397</v>
+        <v>0.357406</v>
       </c>
       <c r="D134" t="n">
-        <v>0.353853</v>
+        <v>0.360193</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.51124</v>
+        <v>0.502687</v>
       </c>
       <c r="C135" t="n">
-        <v>0.375944</v>
+        <v>0.377828</v>
       </c>
       <c r="D135" t="n">
-        <v>0.370198</v>
+        <v>0.372993</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.57312</v>
+        <v>0.574021</v>
       </c>
       <c r="C136" t="n">
-        <v>0.394813</v>
+        <v>0.393609</v>
       </c>
       <c r="D136" t="n">
-        <v>0.403091</v>
+        <v>0.405173</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.648158</v>
+        <v>0.655332</v>
       </c>
       <c r="C137" t="n">
-        <v>0.35858</v>
+        <v>0.360654</v>
       </c>
       <c r="D137" t="n">
-        <v>0.351972</v>
+        <v>0.353363</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.462108</v>
+        <v>0.465699</v>
       </c>
       <c r="C138" t="n">
-        <v>0.358826</v>
+        <v>0.351394</v>
       </c>
       <c r="D138" t="n">
-        <v>0.363519</v>
+        <v>0.360062</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.471703</v>
+        <v>0.476889</v>
       </c>
       <c r="C139" t="n">
-        <v>0.35967</v>
+        <v>0.355388</v>
       </c>
       <c r="D139" t="n">
-        <v>0.364027</v>
+        <v>0.372419</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.472673</v>
+        <v>0.484293</v>
       </c>
       <c r="C140" t="n">
-        <v>0.365236</v>
+        <v>0.358249</v>
       </c>
       <c r="D140" t="n">
-        <v>0.363114</v>
+        <v>0.363732</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.480012</v>
+        <v>0.481475</v>
       </c>
       <c r="C141" t="n">
-        <v>0.36704</v>
+        <v>0.367102</v>
       </c>
       <c r="D141" t="n">
-        <v>0.382069</v>
+        <v>0.379801</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.501741</v>
+        <v>0.499404</v>
       </c>
       <c r="C142" t="n">
-        <v>0.370888</v>
+        <v>0.385389</v>
       </c>
       <c r="D142" t="n">
-        <v>0.381803</v>
+        <v>0.374626</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.514336</v>
+        <v>0.502271</v>
       </c>
       <c r="C143" t="n">
-        <v>0.384121</v>
+        <v>0.371486</v>
       </c>
       <c r="D143" t="n">
-        <v>0.372929</v>
+        <v>0.384417</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0605094</v>
+        <v>0.0615432</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0570029</v>
+        <v>0.0704881</v>
       </c>
       <c r="D2" t="n">
-        <v>0.149668</v>
+        <v>0.171856</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0655757</v>
+        <v>0.0626617</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0580547</v>
+        <v>0.0734755</v>
       </c>
       <c r="D3" t="n">
-        <v>0.157584</v>
+        <v>0.175729</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06813760000000001</v>
+        <v>0.0651101</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0600357</v>
+        <v>0.0726361</v>
       </c>
       <c r="D4" t="n">
-        <v>0.156699</v>
+        <v>0.179022</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.076709</v>
+        <v>0.0735304</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0617348</v>
+        <v>0.0744351</v>
       </c>
       <c r="D5" t="n">
-        <v>0.164123</v>
+        <v>0.185437</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0831595</v>
+        <v>0.0856455</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0656461</v>
+        <v>0.0829352</v>
       </c>
       <c r="D6" t="n">
-        <v>0.16798</v>
+        <v>0.191534</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0996697</v>
+        <v>0.0982175</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07068869999999999</v>
+        <v>0.08801059999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.137108</v>
+        <v>0.154224</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.118536</v>
+        <v>0.125555</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0815762</v>
+        <v>0.10168</v>
       </c>
       <c r="D8" t="n">
-        <v>0.14049</v>
+        <v>0.161392</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.154844</v>
+        <v>0.158756</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0561247</v>
+        <v>0.0697749</v>
       </c>
       <c r="D9" t="n">
-        <v>0.141463</v>
+        <v>0.166686</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0594347</v>
+        <v>0.0594885</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0563958</v>
+        <v>0.0701705</v>
       </c>
       <c r="D10" t="n">
-        <v>0.149708</v>
+        <v>0.167639</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.06121</v>
+        <v>0.0602366</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0557809</v>
+        <v>0.0687725</v>
       </c>
       <c r="D11" t="n">
-        <v>0.161001</v>
+        <v>0.173581</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0603424</v>
+        <v>0.0611952</v>
       </c>
       <c r="C12" t="n">
-        <v>0.057571</v>
+        <v>0.070656</v>
       </c>
       <c r="D12" t="n">
-        <v>0.16063</v>
+        <v>0.183122</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0612275</v>
+        <v>0.0612882</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0561312</v>
+        <v>0.0677093</v>
       </c>
       <c r="D13" t="n">
-        <v>0.163032</v>
+        <v>0.185644</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0629622</v>
+        <v>0.0624642</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0571421</v>
+        <v>0.0700547</v>
       </c>
       <c r="D14" t="n">
-        <v>0.171303</v>
+        <v>0.191926</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0655572</v>
+        <v>0.06437560000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05751</v>
+        <v>0.0708357</v>
       </c>
       <c r="D15" t="n">
-        <v>0.176098</v>
+        <v>0.193134</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0655057</v>
+        <v>0.0667109</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0576891</v>
+        <v>0.0725919</v>
       </c>
       <c r="D16" t="n">
-        <v>0.183301</v>
+        <v>0.201568</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0660703</v>
+        <v>0.0695491</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0594835</v>
+        <v>0.07309350000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.181939</v>
+        <v>0.207753</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07099569999999999</v>
+        <v>0.0732676</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0611564</v>
+        <v>0.0733564</v>
       </c>
       <c r="D18" t="n">
-        <v>0.187025</v>
+        <v>0.207498</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07796930000000001</v>
+        <v>0.0800667</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0637209</v>
+        <v>0.07582659999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.198571</v>
+        <v>0.206889</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0835217</v>
+        <v>0.0859091</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0670637</v>
+        <v>0.082704</v>
       </c>
       <c r="D20" t="n">
-        <v>0.209019</v>
+        <v>0.219343</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0954096</v>
+        <v>0.0957809</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07181700000000001</v>
+        <v>0.08984540000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.149802</v>
+        <v>0.165213</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.115674</v>
+        <v>0.116706</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0809318</v>
+        <v>0.100944</v>
       </c>
       <c r="D22" t="n">
-        <v>0.149932</v>
+        <v>0.170039</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.15468</v>
+        <v>0.153298</v>
       </c>
       <c r="C23" t="n">
-        <v>0.057881</v>
+        <v>0.0686264</v>
       </c>
       <c r="D23" t="n">
-        <v>0.165827</v>
+        <v>0.173077</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0646311</v>
+        <v>0.062949</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0571751</v>
+        <v>0.0693561</v>
       </c>
       <c r="D24" t="n">
-        <v>0.165097</v>
+        <v>0.18269</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0661534</v>
+        <v>0.06336559999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0567758</v>
+        <v>0.0711678</v>
       </c>
       <c r="D25" t="n">
-        <v>0.172766</v>
+        <v>0.185356</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0649725</v>
+        <v>0.0652471</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0604134</v>
+        <v>0.07004390000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.175296</v>
+        <v>0.191201</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0673203</v>
+        <v>0.0676586</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0588055</v>
+        <v>0.0690224</v>
       </c>
       <c r="D27" t="n">
-        <v>0.175909</v>
+        <v>0.202891</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0660379</v>
+        <v>0.0671025</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0578804</v>
+        <v>0.0701299</v>
       </c>
       <c r="D28" t="n">
-        <v>0.185452</v>
+        <v>0.199582</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0689473</v>
+        <v>0.06744989999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0585318</v>
+        <v>0.070282</v>
       </c>
       <c r="D29" t="n">
-        <v>0.195473</v>
+        <v>0.209276</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0687909</v>
+        <v>0.0713323</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0587532</v>
+        <v>0.07143099999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.195885</v>
+        <v>0.21402</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.07193330000000001</v>
+        <v>0.0738712</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0625242</v>
+        <v>0.0757529</v>
       </c>
       <c r="D31" t="n">
-        <v>0.20637</v>
+        <v>0.220795</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.07452309999999999</v>
+        <v>0.0759624</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0632151</v>
+        <v>0.0745605</v>
       </c>
       <c r="D32" t="n">
-        <v>0.212305</v>
+        <v>0.221677</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.079273</v>
+        <v>0.0793387</v>
       </c>
       <c r="C33" t="n">
-        <v>0.06588189999999999</v>
+        <v>0.07904700000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.211066</v>
+        <v>0.233217</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0884239</v>
+        <v>0.0884578</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0680543</v>
+        <v>0.0836355</v>
       </c>
       <c r="D34" t="n">
-        <v>0.217762</v>
+        <v>0.236496</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.102936</v>
+        <v>0.0991524</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0726357</v>
+        <v>0.0884123</v>
       </c>
       <c r="D35" t="n">
-        <v>0.165899</v>
+        <v>0.177397</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.115391</v>
+        <v>0.11452</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0823125</v>
+        <v>0.0970313</v>
       </c>
       <c r="D36" t="n">
-        <v>0.174314</v>
+        <v>0.183998</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.145477</v>
+        <v>0.146432</v>
       </c>
       <c r="C37" t="n">
-        <v>0.059258</v>
+        <v>0.0704409</v>
       </c>
       <c r="D37" t="n">
-        <v>0.180675</v>
+        <v>0.197221</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0663615</v>
+        <v>0.0694246</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0599524</v>
+        <v>0.07324509999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.18672</v>
+        <v>0.197697</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.070034</v>
+        <v>0.0693566</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0583811</v>
+        <v>0.07181899999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.197329</v>
+        <v>0.204982</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.07021910000000001</v>
+        <v>0.069526</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0603314</v>
+        <v>0.07253279999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.203524</v>
+        <v>0.220294</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0723081</v>
+        <v>0.0731011</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0626717</v>
+        <v>0.0708289</v>
       </c>
       <c r="D41" t="n">
-        <v>0.207941</v>
+        <v>0.233522</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0707416</v>
+        <v>0.07242850000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0624393</v>
+        <v>0.0730917</v>
       </c>
       <c r="D42" t="n">
-        <v>0.232752</v>
+        <v>0.231121</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.07136579999999999</v>
+        <v>0.0763901</v>
       </c>
       <c r="C43" t="n">
-        <v>0.060626</v>
+        <v>0.0727159</v>
       </c>
       <c r="D43" t="n">
-        <v>0.226743</v>
+        <v>0.244601</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0752268</v>
+        <v>0.07579329999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0620238</v>
+        <v>0.07291010000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.242828</v>
+        <v>0.250999</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0791226</v>
+        <v>0.0787562</v>
       </c>
       <c r="C45" t="n">
-        <v>0.06445140000000001</v>
+        <v>0.07552440000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.259496</v>
+        <v>0.268431</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0799971</v>
+        <v>0.0778983</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0657123</v>
+        <v>0.0753993</v>
       </c>
       <c r="D46" t="n">
-        <v>0.262487</v>
+        <v>0.281978</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0848975</v>
+        <v>0.0839675</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0683077</v>
+        <v>0.0814527</v>
       </c>
       <c r="D47" t="n">
-        <v>0.285595</v>
+        <v>0.283241</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.09379</v>
+        <v>0.0924363</v>
       </c>
       <c r="C48" t="n">
-        <v>0.07109890000000001</v>
+        <v>0.08279160000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.291901</v>
+        <v>0.298889</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.101342</v>
+        <v>0.10479</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0766418</v>
+        <v>0.0909872</v>
       </c>
       <c r="D49" t="n">
-        <v>0.302465</v>
+        <v>0.318629</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.118675</v>
+        <v>0.117961</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0846018</v>
+        <v>0.1022</v>
       </c>
       <c r="D50" t="n">
-        <v>0.215327</v>
+        <v>0.233385</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.146786</v>
+        <v>0.146989</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0622755</v>
+        <v>0.07583239999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.219742</v>
+        <v>0.248307</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.186057</v>
+        <v>0.189777</v>
       </c>
       <c r="C52" t="n">
-        <v>0.06338770000000001</v>
+        <v>0.0769082</v>
       </c>
       <c r="D52" t="n">
-        <v>0.243504</v>
+        <v>0.251338</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0831252</v>
+        <v>0.078973</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0647471</v>
+        <v>0.07785889999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.254336</v>
+        <v>0.270012</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0813741</v>
+        <v>0.08180129999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0664072</v>
+        <v>0.0772883</v>
       </c>
       <c r="D54" t="n">
-        <v>0.268725</v>
+        <v>0.290529</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0839495</v>
+        <v>0.0838354</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0665748</v>
+        <v>0.0765771</v>
       </c>
       <c r="D55" t="n">
-        <v>0.291587</v>
+        <v>0.307374</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.08370900000000001</v>
+        <v>0.08271199999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.06735819999999999</v>
+        <v>0.0776917</v>
       </c>
       <c r="D56" t="n">
-        <v>0.31377</v>
+        <v>0.331222</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0873145</v>
+        <v>0.0841002</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0660472</v>
+        <v>0.0805389</v>
       </c>
       <c r="D57" t="n">
-        <v>0.31945</v>
+        <v>0.340121</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.08669689999999999</v>
+        <v>0.0865906</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0688496</v>
+        <v>0.081203</v>
       </c>
       <c r="D58" t="n">
-        <v>0.31977</v>
+        <v>0.355426</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0868312</v>
+        <v>0.0880652</v>
       </c>
       <c r="C59" t="n">
-        <v>0.06831379999999999</v>
+        <v>0.0821909</v>
       </c>
       <c r="D59" t="n">
-        <v>0.34175</v>
+        <v>0.379043</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0915866</v>
+        <v>0.0897674</v>
       </c>
       <c r="C60" t="n">
-        <v>0.06978330000000001</v>
+        <v>0.0849048</v>
       </c>
       <c r="D60" t="n">
-        <v>0.361607</v>
+        <v>0.395942</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.09423140000000001</v>
+        <v>0.0995443</v>
       </c>
       <c r="C61" t="n">
-        <v>0.07226879999999999</v>
+        <v>0.0871951</v>
       </c>
       <c r="D61" t="n">
-        <v>0.382945</v>
+        <v>0.422629</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.101122</v>
+        <v>0.102299</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0780042</v>
+        <v>0.0883554</v>
       </c>
       <c r="D62" t="n">
-        <v>0.416733</v>
+        <v>0.438171</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.117342</v>
+        <v>0.111811</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0790759</v>
+        <v>0.0925185</v>
       </c>
       <c r="D63" t="n">
-        <v>0.438938</v>
+        <v>0.482639</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.124475</v>
+        <v>0.126766</v>
       </c>
       <c r="C64" t="n">
-        <v>0.09038499999999999</v>
+        <v>0.101251</v>
       </c>
       <c r="D64" t="n">
-        <v>0.329791</v>
+        <v>0.341731</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.150789</v>
+        <v>0.15309</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0999772</v>
+        <v>0.119237</v>
       </c>
       <c r="D65" t="n">
-        <v>0.349225</v>
+        <v>0.361644</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.197934</v>
+        <v>0.198098</v>
       </c>
       <c r="C66" t="n">
-        <v>0.06917769999999999</v>
+        <v>0.0818929</v>
       </c>
       <c r="D66" t="n">
-        <v>0.347917</v>
+        <v>0.388769</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0924748</v>
+        <v>0.0952532</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0685286</v>
+        <v>0.0817988</v>
       </c>
       <c r="D67" t="n">
-        <v>0.372349</v>
+        <v>0.415074</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.08850280000000001</v>
+        <v>0.0926912</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0688848</v>
+        <v>0.0830736</v>
       </c>
       <c r="D68" t="n">
-        <v>0.420062</v>
+        <v>0.428715</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0928597</v>
+        <v>0.091614</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0694766</v>
+        <v>0.084674</v>
       </c>
       <c r="D69" t="n">
-        <v>0.414687</v>
+        <v>0.455624</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0934739</v>
+        <v>0.0975017</v>
       </c>
       <c r="C70" t="n">
-        <v>0.07359980000000001</v>
+        <v>0.0838887</v>
       </c>
       <c r="D70" t="n">
-        <v>0.435671</v>
+        <v>0.469416</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0923035</v>
+        <v>0.0961904</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0716353</v>
+        <v>0.0866422</v>
       </c>
       <c r="D71" t="n">
-        <v>0.449874</v>
+        <v>0.490697</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.094584</v>
+        <v>0.103159</v>
       </c>
       <c r="C72" t="n">
-        <v>0.07324319999999999</v>
+        <v>0.0844597</v>
       </c>
       <c r="D72" t="n">
-        <v>0.489796</v>
+        <v>0.518266</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0978369</v>
+        <v>0.104704</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0771935</v>
+        <v>0.0883685</v>
       </c>
       <c r="D73" t="n">
-        <v>0.516655</v>
+        <v>0.559986</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.101897</v>
+        <v>0.110757</v>
       </c>
       <c r="C74" t="n">
-        <v>0.077976</v>
+        <v>0.0931424</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5623359999999999</v>
+        <v>0.587185</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.112983</v>
+        <v>0.114104</v>
       </c>
       <c r="C75" t="n">
-        <v>0.08784989999999999</v>
+        <v>0.0929185</v>
       </c>
       <c r="D75" t="n">
-        <v>0.594518</v>
+        <v>0.595702</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.122833</v>
+        <v>0.128549</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0893032</v>
+        <v>0.0994241</v>
       </c>
       <c r="D76" t="n">
-        <v>0.623963</v>
+        <v>0.643946</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.13745</v>
+        <v>0.137605</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0919286</v>
+        <v>0.108093</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6538079999999999</v>
+        <v>0.656975</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.15133</v>
+        <v>0.15674</v>
       </c>
       <c r="C78" t="n">
-        <v>0.101156</v>
+        <v>0.118977</v>
       </c>
       <c r="D78" t="n">
-        <v>0.484956</v>
+        <v>0.503093</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.179251</v>
+        <v>0.186101</v>
       </c>
       <c r="C79" t="n">
-        <v>0.116013</v>
+        <v>0.132054</v>
       </c>
       <c r="D79" t="n">
-        <v>0.520562</v>
+        <v>0.505825</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.217845</v>
+        <v>0.230064</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0767222</v>
+        <v>0.0898583</v>
       </c>
       <c r="D80" t="n">
-        <v>0.561414</v>
+        <v>0.54047</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.108809</v>
+        <v>0.121155</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0781791</v>
+        <v>0.09199830000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5734</v>
+        <v>0.566087</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.110277</v>
+        <v>0.112205</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0785811</v>
+        <v>0.0924783</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5725710000000001</v>
+        <v>0.577207</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.111946</v>
+        <v>0.113572</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0821728</v>
+        <v>0.0947385</v>
       </c>
       <c r="D83" t="n">
-        <v>0.59367</v>
+        <v>0.606923</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.116764</v>
+        <v>0.120512</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0860317</v>
+        <v>0.0984211</v>
       </c>
       <c r="D84" t="n">
-        <v>0.625457</v>
+        <v>0.621681</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.118576</v>
+        <v>0.118276</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0860298</v>
+        <v>0.10091</v>
       </c>
       <c r="D85" t="n">
-        <v>0.655644</v>
+        <v>0.660772</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.125461</v>
+        <v>0.124965</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0878683</v>
+        <v>0.102059</v>
       </c>
       <c r="D86" t="n">
-        <v>0.673276</v>
+        <v>0.698971</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.126483</v>
+        <v>0.127854</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0872101</v>
+        <v>0.104138</v>
       </c>
       <c r="D87" t="n">
-        <v>0.690348</v>
+        <v>0.71672</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.131556</v>
+        <v>0.131581</v>
       </c>
       <c r="C88" t="n">
-        <v>0.09172420000000001</v>
+        <v>0.107508</v>
       </c>
       <c r="D88" t="n">
-        <v>0.7151650000000001</v>
+        <v>0.7206669999999999</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.137349</v>
+        <v>0.136048</v>
       </c>
       <c r="C89" t="n">
-        <v>0.09764340000000001</v>
+        <v>0.106108</v>
       </c>
       <c r="D89" t="n">
-        <v>0.767702</v>
+        <v>0.747861</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.14716</v>
+        <v>0.148978</v>
       </c>
       <c r="C90" t="n">
-        <v>0.100703</v>
+        <v>0.110854</v>
       </c>
       <c r="D90" t="n">
-        <v>0.769048</v>
+        <v>0.781094</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.156625</v>
+        <v>0.161568</v>
       </c>
       <c r="C91" t="n">
-        <v>0.109016</v>
+        <v>0.119172</v>
       </c>
       <c r="D91" t="n">
-        <v>0.81315</v>
+        <v>0.822286</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.178347</v>
+        <v>0.177038</v>
       </c>
       <c r="C92" t="n">
-        <v>0.113172</v>
+        <v>0.127741</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5941419999999999</v>
+        <v>0.620569</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.200627</v>
+        <v>0.19982</v>
       </c>
       <c r="C93" t="n">
-        <v>0.12913</v>
+        <v>0.144662</v>
       </c>
       <c r="D93" t="n">
-        <v>0.6316349999999999</v>
+        <v>0.638769</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.241278</v>
+        <v>0.247742</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0996866</v>
+        <v>0.109517</v>
       </c>
       <c r="D94" t="n">
-        <v>0.664328</v>
+        <v>0.6493</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.141336</v>
+        <v>0.139456</v>
       </c>
       <c r="C95" t="n">
-        <v>0.102861</v>
+        <v>0.1118</v>
       </c>
       <c r="D95" t="n">
-        <v>0.683864</v>
+        <v>0.687602</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.140648</v>
+        <v>0.142674</v>
       </c>
       <c r="C96" t="n">
-        <v>0.10023</v>
+        <v>0.113026</v>
       </c>
       <c r="D96" t="n">
-        <v>0.699051</v>
+        <v>0.698751</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.140568</v>
+        <v>0.146995</v>
       </c>
       <c r="C97" t="n">
-        <v>0.103977</v>
+        <v>0.116617</v>
       </c>
       <c r="D97" t="n">
-        <v>0.735782</v>
+        <v>0.753306</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.153381</v>
+        <v>0.156371</v>
       </c>
       <c r="C98" t="n">
-        <v>0.105622</v>
+        <v>0.119576</v>
       </c>
       <c r="D98" t="n">
-        <v>0.738123</v>
+        <v>0.744128</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.153232</v>
+        <v>0.153953</v>
       </c>
       <c r="C99" t="n">
-        <v>0.108763</v>
+        <v>0.122331</v>
       </c>
       <c r="D99" t="n">
-        <v>0.750023</v>
+        <v>0.761507</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.156586</v>
+        <v>0.152784</v>
       </c>
       <c r="C100" t="n">
-        <v>0.106888</v>
+        <v>0.126941</v>
       </c>
       <c r="D100" t="n">
-        <v>0.804738</v>
+        <v>0.807521</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.164084</v>
+        <v>0.167896</v>
       </c>
       <c r="C101" t="n">
-        <v>0.112353</v>
+        <v>0.120686</v>
       </c>
       <c r="D101" t="n">
-        <v>0.824884</v>
+        <v>0.84582</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.163842</v>
+        <v>0.168503</v>
       </c>
       <c r="C102" t="n">
-        <v>0.115747</v>
+        <v>0.12371</v>
       </c>
       <c r="D102" t="n">
-        <v>0.840492</v>
+        <v>0.8551800000000001</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.173237</v>
+        <v>0.176078</v>
       </c>
       <c r="C103" t="n">
-        <v>0.117276</v>
+        <v>0.132965</v>
       </c>
       <c r="D103" t="n">
-        <v>0.866355</v>
+        <v>0.890828</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.179738</v>
+        <v>0.185509</v>
       </c>
       <c r="C104" t="n">
-        <v>0.126968</v>
+        <v>0.135002</v>
       </c>
       <c r="D104" t="n">
-        <v>0.891353</v>
+        <v>0.91207</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.195901</v>
+        <v>0.192801</v>
       </c>
       <c r="C105" t="n">
-        <v>0.12782</v>
+        <v>0.140531</v>
       </c>
       <c r="D105" t="n">
-        <v>0.933903</v>
+        <v>0.930403</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.206774</v>
+        <v>0.205772</v>
       </c>
       <c r="C106" t="n">
-        <v>0.139131</v>
+        <v>0.156522</v>
       </c>
       <c r="D106" t="n">
-        <v>0.956029</v>
+        <v>0.956158</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.242616</v>
+        <v>0.239729</v>
       </c>
       <c r="C107" t="n">
-        <v>0.148688</v>
+        <v>0.164626</v>
       </c>
       <c r="D107" t="n">
-        <v>0.755999</v>
+        <v>0.753038</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.273342</v>
+        <v>0.27268</v>
       </c>
       <c r="C108" t="n">
-        <v>0.187991</v>
+        <v>0.184235</v>
       </c>
       <c r="D108" t="n">
-        <v>0.75115</v>
+        <v>0.765451</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.346748</v>
+        <v>0.346694</v>
       </c>
       <c r="C109" t="n">
-        <v>0.188986</v>
+        <v>0.187651</v>
       </c>
       <c r="D109" t="n">
-        <v>0.794558</v>
+        <v>0.810189</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.23241</v>
+        <v>0.241664</v>
       </c>
       <c r="C110" t="n">
-        <v>0.181535</v>
+        <v>0.186166</v>
       </c>
       <c r="D110" t="n">
-        <v>0.839037</v>
+        <v>0.7867459999999999</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.234909</v>
+        <v>0.236994</v>
       </c>
       <c r="C111" t="n">
-        <v>0.179463</v>
+        <v>0.194927</v>
       </c>
       <c r="D111" t="n">
-        <v>0.807729</v>
+        <v>0.86139</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.249563</v>
+        <v>0.240993</v>
       </c>
       <c r="C112" t="n">
-        <v>0.179001</v>
+        <v>0.189941</v>
       </c>
       <c r="D112" t="n">
-        <v>0.819258</v>
+        <v>0.83758</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.238623</v>
+        <v>0.255015</v>
       </c>
       <c r="C113" t="n">
-        <v>0.185975</v>
+        <v>0.192054</v>
       </c>
       <c r="D113" t="n">
-        <v>0.860237</v>
+        <v>0.865154</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.243409</v>
+        <v>0.258739</v>
       </c>
       <c r="C114" t="n">
-        <v>0.19241</v>
+        <v>0.204503</v>
       </c>
       <c r="D114" t="n">
-        <v>0.882215</v>
+        <v>0.9507640000000001</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.246894</v>
+        <v>0.244853</v>
       </c>
       <c r="C115" t="n">
-        <v>0.192388</v>
+        <v>0.208253</v>
       </c>
       <c r="D115" t="n">
-        <v>0.904938</v>
+        <v>0.922154</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.25812</v>
+        <v>0.258658</v>
       </c>
       <c r="C116" t="n">
-        <v>0.20343</v>
+        <v>0.199296</v>
       </c>
       <c r="D116" t="n">
-        <v>0.92284</v>
+        <v>0.92524</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.265484</v>
+        <v>0.266473</v>
       </c>
       <c r="C117" t="n">
-        <v>0.211896</v>
+        <v>0.212393</v>
       </c>
       <c r="D117" t="n">
-        <v>0.975961</v>
+        <v>1.03648</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.263673</v>
+        <v>0.264076</v>
       </c>
       <c r="C118" t="n">
-        <v>0.215264</v>
+        <v>0.211318</v>
       </c>
       <c r="D118" t="n">
-        <v>0.990511</v>
+        <v>1.00509</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.28673</v>
+        <v>0.286914</v>
       </c>
       <c r="C119" t="n">
-        <v>0.207414</v>
+        <v>0.227252</v>
       </c>
       <c r="D119" t="n">
-        <v>1.00534</v>
+        <v>1.04151</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.310463</v>
+        <v>0.308848</v>
       </c>
       <c r="C120" t="n">
-        <v>0.218915</v>
+        <v>0.218606</v>
       </c>
       <c r="D120" t="n">
-        <v>1.16005</v>
+        <v>1.04524</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.324975</v>
+        <v>0.32823</v>
       </c>
       <c r="C121" t="n">
-        <v>0.22559</v>
+        <v>0.253182</v>
       </c>
       <c r="D121" t="n">
-        <v>0.805005</v>
+        <v>0.825458</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.375747</v>
+        <v>0.37517</v>
       </c>
       <c r="C122" t="n">
-        <v>0.258085</v>
+        <v>0.264726</v>
       </c>
       <c r="D122" t="n">
-        <v>0.823465</v>
+        <v>0.836843</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.441255</v>
+        <v>0.442257</v>
       </c>
       <c r="C123" t="n">
-        <v>0.285075</v>
+        <v>0.2896</v>
       </c>
       <c r="D123" t="n">
-        <v>0.824689</v>
+        <v>0.843319</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.366297</v>
+        <v>0.376304</v>
       </c>
       <c r="C124" t="n">
-        <v>0.277786</v>
+        <v>0.300587</v>
       </c>
       <c r="D124" t="n">
-        <v>0.874201</v>
+        <v>0.945238</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.369769</v>
+        <v>0.377881</v>
       </c>
       <c r="C125" t="n">
-        <v>0.279125</v>
+        <v>0.297671</v>
       </c>
       <c r="D125" t="n">
-        <v>0.898693</v>
+        <v>0.906297</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.37263</v>
+        <v>0.376343</v>
       </c>
       <c r="C126" t="n">
-        <v>0.29634</v>
+        <v>0.293273</v>
       </c>
       <c r="D126" t="n">
-        <v>0.932717</v>
+        <v>1.02897</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.38131</v>
+        <v>0.374081</v>
       </c>
       <c r="C127" t="n">
-        <v>0.292062</v>
+        <v>0.301187</v>
       </c>
       <c r="D127" t="n">
-        <v>0.936747</v>
+        <v>0.9478569999999999</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.383606</v>
+        <v>0.389357</v>
       </c>
       <c r="C128" t="n">
-        <v>0.29076</v>
+        <v>0.306531</v>
       </c>
       <c r="D128" t="n">
-        <v>0.962797</v>
+        <v>0.992294</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.381456</v>
+        <v>0.389926</v>
       </c>
       <c r="C129" t="n">
-        <v>0.301555</v>
+        <v>0.306939</v>
       </c>
       <c r="D129" t="n">
-        <v>1.01789</v>
+        <v>1.10133</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.393342</v>
+        <v>0.406883</v>
       </c>
       <c r="C130" t="n">
-        <v>0.298032</v>
+        <v>0.312818</v>
       </c>
       <c r="D130" t="n">
-        <v>1.0669</v>
+        <v>1.03889</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.405359</v>
+        <v>0.411739</v>
       </c>
       <c r="C131" t="n">
-        <v>0.312687</v>
+        <v>0.30669</v>
       </c>
       <c r="D131" t="n">
-        <v>1.0874</v>
+        <v>1.11368</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.423334</v>
+        <v>0.408719</v>
       </c>
       <c r="C132" t="n">
-        <v>0.30759</v>
+        <v>0.333496</v>
       </c>
       <c r="D132" t="n">
-        <v>1.12151</v>
+        <v>1.13582</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.437072</v>
+        <v>0.44428</v>
       </c>
       <c r="C133" t="n">
-        <v>0.318936</v>
+        <v>0.347041</v>
       </c>
       <c r="D133" t="n">
-        <v>1.16387</v>
+        <v>1.17589</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.455846</v>
+        <v>0.458963</v>
       </c>
       <c r="C134" t="n">
-        <v>0.332039</v>
+        <v>0.335705</v>
       </c>
       <c r="D134" t="n">
-        <v>1.22414</v>
+        <v>1.20347</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.488166</v>
+        <v>0.492849</v>
       </c>
       <c r="C135" t="n">
-        <v>0.328893</v>
+        <v>0.348497</v>
       </c>
       <c r="D135" t="n">
-        <v>0.954495</v>
+        <v>0.988973</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.542069</v>
+        <v>0.548455</v>
       </c>
       <c r="C136" t="n">
-        <v>0.351306</v>
+        <v>0.369689</v>
       </c>
       <c r="D136" t="n">
-        <v>0.967931</v>
+        <v>0.993611</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.627579</v>
+        <v>0.633558</v>
       </c>
       <c r="C137" t="n">
-        <v>0.343331</v>
+        <v>0.355174</v>
       </c>
       <c r="D137" t="n">
-        <v>1.02747</v>
+        <v>1.04529</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.452303</v>
+        <v>0.454715</v>
       </c>
       <c r="C138" t="n">
-        <v>0.343522</v>
+        <v>0.343483</v>
       </c>
       <c r="D138" t="n">
-        <v>1.04831</v>
+        <v>1.06431</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.454243</v>
+        <v>0.456502</v>
       </c>
       <c r="C139" t="n">
-        <v>0.343559</v>
+        <v>0.349775</v>
       </c>
       <c r="D139" t="n">
-        <v>1.09138</v>
+        <v>1.09238</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.467607</v>
+        <v>0.463538</v>
       </c>
       <c r="C140" t="n">
-        <v>0.34153</v>
+        <v>0.357301</v>
       </c>
       <c r="D140" t="n">
-        <v>1.13403</v>
+        <v>1.13924</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.469665</v>
+        <v>0.460068</v>
       </c>
       <c r="C141" t="n">
-        <v>0.351704</v>
+        <v>0.355586</v>
       </c>
       <c r="D141" t="n">
-        <v>1.15192</v>
+        <v>1.17847</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.469176</v>
+        <v>0.473046</v>
       </c>
       <c r="C142" t="n">
-        <v>0.355782</v>
+        <v>0.361173</v>
       </c>
       <c r="D142" t="n">
-        <v>1.1956</v>
+        <v>1.20592</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.478441</v>
+        <v>0.478399</v>
       </c>
       <c r="C143" t="n">
-        <v>0.356498</v>
+        <v>0.363554</v>
       </c>
       <c r="D143" t="n">
-        <v>1.25904</v>
+        <v>1.2501</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0615432</v>
+        <v>0.0618584</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0704881</v>
+        <v>0.0689739</v>
       </c>
       <c r="D2" t="n">
-        <v>0.171856</v>
+        <v>0.170621</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0626617</v>
+        <v>0.0625226</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0734755</v>
+        <v>0.07263650000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.175729</v>
+        <v>0.174413</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0651101</v>
+        <v>0.0643123</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0726361</v>
+        <v>0.0732482</v>
       </c>
       <c r="D4" t="n">
-        <v>0.179022</v>
+        <v>0.179145</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0735304</v>
+        <v>0.06913560000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0744351</v>
+        <v>0.0744927</v>
       </c>
       <c r="D5" t="n">
-        <v>0.185437</v>
+        <v>0.189734</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0856455</v>
+        <v>0.08018649999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0829352</v>
+        <v>0.08034959999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.191534</v>
+        <v>0.193558</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0982175</v>
+        <v>0.0924378</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08801059999999999</v>
+        <v>0.08806700000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.154224</v>
+        <v>0.152978</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.125555</v>
+        <v>0.123625</v>
       </c>
       <c r="C8" t="n">
-        <v>0.10168</v>
+        <v>0.0997847</v>
       </c>
       <c r="D8" t="n">
-        <v>0.161392</v>
+        <v>0.158933</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.158756</v>
+        <v>0.149038</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0697749</v>
+        <v>0.06722309999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.166686</v>
+        <v>0.160677</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0594885</v>
+        <v>0.0594925</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0701705</v>
+        <v>0.0683612</v>
       </c>
       <c r="D10" t="n">
-        <v>0.167639</v>
+        <v>0.164174</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0602366</v>
+        <v>0.0608847</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0687725</v>
+        <v>0.0687888</v>
       </c>
       <c r="D11" t="n">
-        <v>0.173581</v>
+        <v>0.170454</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0611952</v>
+        <v>0.0611591</v>
       </c>
       <c r="C12" t="n">
-        <v>0.070656</v>
+        <v>0.07239139999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.183122</v>
+        <v>0.17599</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0612882</v>
+        <v>0.0609191</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0677093</v>
+        <v>0.0694475</v>
       </c>
       <c r="D13" t="n">
-        <v>0.185644</v>
+        <v>0.18095</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0624642</v>
+        <v>0.06279899999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0700547</v>
+        <v>0.0714273</v>
       </c>
       <c r="D14" t="n">
-        <v>0.191926</v>
+        <v>0.184843</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.06437560000000001</v>
+        <v>0.0623426</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0708357</v>
+        <v>0.0695066</v>
       </c>
       <c r="D15" t="n">
-        <v>0.193134</v>
+        <v>0.191798</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0667109</v>
+        <v>0.06715500000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0725919</v>
+        <v>0.0720782</v>
       </c>
       <c r="D16" t="n">
-        <v>0.201568</v>
+        <v>0.195362</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0695491</v>
+        <v>0.06794219999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07309350000000001</v>
+        <v>0.07247099999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.207753</v>
+        <v>0.199704</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0732676</v>
+        <v>0.0725142</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0733564</v>
+        <v>0.0733996</v>
       </c>
       <c r="D18" t="n">
-        <v>0.207498</v>
+        <v>0.203011</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0800667</v>
+        <v>0.078304</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07582659999999999</v>
+        <v>0.0793508</v>
       </c>
       <c r="D19" t="n">
-        <v>0.206889</v>
+        <v>0.206233</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0859091</v>
+        <v>0.08387550000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.082704</v>
+        <v>0.0805893</v>
       </c>
       <c r="D20" t="n">
-        <v>0.219343</v>
+        <v>0.21119</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0957809</v>
+        <v>0.0959805</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08984540000000001</v>
+        <v>0.0886613</v>
       </c>
       <c r="D21" t="n">
-        <v>0.165213</v>
+        <v>0.159894</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.116706</v>
+        <v>0.113723</v>
       </c>
       <c r="C22" t="n">
-        <v>0.100944</v>
+        <v>0.0982749</v>
       </c>
       <c r="D22" t="n">
-        <v>0.170039</v>
+        <v>0.166268</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.153298</v>
+        <v>0.144859</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0686264</v>
+        <v>0.06881900000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.173077</v>
+        <v>0.173484</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.062949</v>
+        <v>0.0612787</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0693561</v>
+        <v>0.06890930000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.18269</v>
+        <v>0.179221</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.06336559999999999</v>
+        <v>0.06283560000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0711678</v>
+        <v>0.07145170000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.185356</v>
+        <v>0.184606</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0652471</v>
+        <v>0.06556969999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.07004390000000001</v>
+        <v>0.0721046</v>
       </c>
       <c r="D26" t="n">
-        <v>0.191201</v>
+        <v>0.18614</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0676586</v>
+        <v>0.064844</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0690224</v>
+        <v>0.0709138</v>
       </c>
       <c r="D27" t="n">
-        <v>0.202891</v>
+        <v>0.193835</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0671025</v>
+        <v>0.06714100000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0701299</v>
+        <v>0.0720331</v>
       </c>
       <c r="D28" t="n">
-        <v>0.199582</v>
+        <v>0.199724</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.06744989999999999</v>
+        <v>0.0652872</v>
       </c>
       <c r="C29" t="n">
-        <v>0.070282</v>
+        <v>0.0728178</v>
       </c>
       <c r="D29" t="n">
-        <v>0.209276</v>
+        <v>0.201823</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0713323</v>
+        <v>0.068065</v>
       </c>
       <c r="C30" t="n">
-        <v>0.07143099999999999</v>
+        <v>0.0750691</v>
       </c>
       <c r="D30" t="n">
-        <v>0.21402</v>
+        <v>0.214746</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0738712</v>
+        <v>0.06971330000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0757529</v>
+        <v>0.0731475</v>
       </c>
       <c r="D31" t="n">
-        <v>0.220795</v>
+        <v>0.219536</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0759624</v>
+        <v>0.07515869999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0745605</v>
+        <v>0.0742821</v>
       </c>
       <c r="D32" t="n">
-        <v>0.221677</v>
+        <v>0.22482</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0793387</v>
+        <v>0.07868799999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.07904700000000001</v>
+        <v>0.0770728</v>
       </c>
       <c r="D33" t="n">
-        <v>0.233217</v>
+        <v>0.228129</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0884578</v>
+        <v>0.0864027</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0836355</v>
+        <v>0.0814738</v>
       </c>
       <c r="D34" t="n">
-        <v>0.236496</v>
+        <v>0.231</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0991524</v>
+        <v>0.09718209999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0884123</v>
+        <v>0.08750280000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.177397</v>
+        <v>0.178286</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.11452</v>
+        <v>0.121106</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0970313</v>
+        <v>0.0978821</v>
       </c>
       <c r="D36" t="n">
-        <v>0.183998</v>
+        <v>0.186337</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.146432</v>
+        <v>0.155001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0704409</v>
+        <v>0.0742874</v>
       </c>
       <c r="D37" t="n">
-        <v>0.197221</v>
+        <v>0.194052</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0694246</v>
+        <v>0.0713536</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07324509999999999</v>
+        <v>0.0756526</v>
       </c>
       <c r="D38" t="n">
-        <v>0.197697</v>
+        <v>0.204305</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0693566</v>
+        <v>0.0739924</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07181899999999999</v>
+        <v>0.0749117</v>
       </c>
       <c r="D39" t="n">
-        <v>0.204982</v>
+        <v>0.208181</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.069526</v>
+        <v>0.0710694</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07253279999999999</v>
+        <v>0.07391109999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.220294</v>
+        <v>0.218465</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0731011</v>
+        <v>0.070065</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0708289</v>
+        <v>0.07385070000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.233522</v>
+        <v>0.229368</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.07242850000000001</v>
+        <v>0.07159450000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0730917</v>
+        <v>0.0755446</v>
       </c>
       <c r="D42" t="n">
-        <v>0.231121</v>
+        <v>0.235167</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0763901</v>
+        <v>0.0760716</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0727159</v>
+        <v>0.075645</v>
       </c>
       <c r="D43" t="n">
-        <v>0.244601</v>
+        <v>0.247234</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.07579329999999999</v>
+        <v>0.0735244</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07291010000000001</v>
+        <v>0.080119</v>
       </c>
       <c r="D44" t="n">
-        <v>0.250999</v>
+        <v>0.256081</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0787562</v>
+        <v>0.07759489999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07552440000000001</v>
+        <v>0.07920199999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.268431</v>
+        <v>0.277419</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0778983</v>
+        <v>0.0812016</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0753993</v>
+        <v>0.08258509999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.281978</v>
+        <v>0.280945</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0839675</v>
+        <v>0.0863198</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0814527</v>
+        <v>0.0807258</v>
       </c>
       <c r="D47" t="n">
-        <v>0.283241</v>
+        <v>0.294855</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0924363</v>
+        <v>0.0903953</v>
       </c>
       <c r="C48" t="n">
-        <v>0.08279160000000001</v>
+        <v>0.0881874</v>
       </c>
       <c r="D48" t="n">
-        <v>0.298889</v>
+        <v>0.299545</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.10479</v>
+        <v>0.100109</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0909872</v>
+        <v>0.08901630000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.318629</v>
+        <v>0.318948</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.117961</v>
+        <v>0.117569</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1022</v>
+        <v>0.0965107</v>
       </c>
       <c r="D50" t="n">
-        <v>0.233385</v>
+        <v>0.234343</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.146989</v>
+        <v>0.147074</v>
       </c>
       <c r="C51" t="n">
-        <v>0.07583239999999999</v>
+        <v>0.077999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.248307</v>
+        <v>0.245151</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.189777</v>
+        <v>0.188858</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0769082</v>
+        <v>0.0808473</v>
       </c>
       <c r="D52" t="n">
-        <v>0.251338</v>
+        <v>0.262102</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.078973</v>
+        <v>0.0820882</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07785889999999999</v>
+        <v>0.0788973</v>
       </c>
       <c r="D53" t="n">
-        <v>0.270012</v>
+        <v>0.272784</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.08180129999999999</v>
+        <v>0.08199389999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0772883</v>
+        <v>0.0791398</v>
       </c>
       <c r="D54" t="n">
-        <v>0.290529</v>
+        <v>0.289202</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0838354</v>
+        <v>0.08513660000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0765771</v>
+        <v>0.08242090000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.307374</v>
+        <v>0.297554</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.08271199999999999</v>
+        <v>0.084191</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0776917</v>
+        <v>0.0821292</v>
       </c>
       <c r="D56" t="n">
-        <v>0.331222</v>
+        <v>0.318873</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0841002</v>
+        <v>0.0886931</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0805389</v>
+        <v>0.0833795</v>
       </c>
       <c r="D57" t="n">
-        <v>0.340121</v>
+        <v>0.341784</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0865906</v>
+        <v>0.0865123</v>
       </c>
       <c r="C58" t="n">
-        <v>0.081203</v>
+        <v>0.0832876</v>
       </c>
       <c r="D58" t="n">
-        <v>0.355426</v>
+        <v>0.357261</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0880652</v>
+        <v>0.0901294</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0821909</v>
+        <v>0.0857451</v>
       </c>
       <c r="D59" t="n">
-        <v>0.379043</v>
+        <v>0.385196</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0897674</v>
+        <v>0.0934194</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0849048</v>
+        <v>0.0852165</v>
       </c>
       <c r="D60" t="n">
-        <v>0.395942</v>
+        <v>0.413605</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0995443</v>
+        <v>0.100055</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0871951</v>
+        <v>0.0880683</v>
       </c>
       <c r="D61" t="n">
-        <v>0.422629</v>
+        <v>0.428387</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.102299</v>
+        <v>0.107709</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0883554</v>
+        <v>0.0944871</v>
       </c>
       <c r="D62" t="n">
-        <v>0.438171</v>
+        <v>0.466407</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.111811</v>
+        <v>0.113845</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0925185</v>
+        <v>0.0948466</v>
       </c>
       <c r="D63" t="n">
-        <v>0.482639</v>
+        <v>0.473394</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.126766</v>
+        <v>0.133848</v>
       </c>
       <c r="C64" t="n">
-        <v>0.101251</v>
+        <v>0.101289</v>
       </c>
       <c r="D64" t="n">
-        <v>0.341731</v>
+        <v>0.353032</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.15309</v>
+        <v>0.153645</v>
       </c>
       <c r="C65" t="n">
-        <v>0.119237</v>
+        <v>0.116816</v>
       </c>
       <c r="D65" t="n">
-        <v>0.361644</v>
+        <v>0.369276</v>
       </c>
     </row>
     <row r="66">
@@ -4142,10 +4142,10 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.198098</v>
+        <v>0.194145</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0818929</v>
+        <v>0.095517</v>
       </c>
       <c r="D66" t="n">
         <v>0.388769</v>
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0952532</v>
+        <v>0.09225079999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0817988</v>
+        <v>0.09771630000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.415074</v>
+        <v>0.404691</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0926912</v>
+        <v>0.0921695</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0830736</v>
+        <v>0.101152</v>
       </c>
       <c r="D68" t="n">
-        <v>0.428715</v>
+        <v>0.440273</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.091614</v>
+        <v>0.09249019999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.084674</v>
+        <v>0.100597</v>
       </c>
       <c r="D69" t="n">
-        <v>0.455624</v>
+        <v>0.461392</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0975017</v>
+        <v>0.09846779999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0838887</v>
+        <v>0.100775</v>
       </c>
       <c r="D70" t="n">
-        <v>0.469416</v>
+        <v>0.484263</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0961904</v>
+        <v>0.0992963</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0866422</v>
+        <v>0.102743</v>
       </c>
       <c r="D71" t="n">
-        <v>0.490697</v>
+        <v>0.504988</v>
       </c>
     </row>
     <row r="72">
@@ -4229,10 +4229,10 @@
         <v>0.103159</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0844597</v>
+        <v>0.106591</v>
       </c>
       <c r="D72" t="n">
-        <v>0.518266</v>
+        <v>0.541156</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.104704</v>
+        <v>0.106605</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0883685</v>
+        <v>0.112247</v>
       </c>
       <c r="D73" t="n">
-        <v>0.559986</v>
+        <v>0.561067</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.110757</v>
+        <v>0.108708</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0931424</v>
+        <v>0.114625</v>
       </c>
       <c r="D74" t="n">
-        <v>0.587185</v>
+        <v>0.5718760000000001</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.114104</v>
+        <v>0.117127</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0929185</v>
+        <v>0.117444</v>
       </c>
       <c r="D75" t="n">
-        <v>0.595702</v>
+        <v>0.609556</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.128549</v>
+        <v>0.120959</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0994241</v>
+        <v>0.126808</v>
       </c>
       <c r="D76" t="n">
-        <v>0.643946</v>
+        <v>0.635696</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.137605</v>
+        <v>0.136322</v>
       </c>
       <c r="C77" t="n">
-        <v>0.108093</v>
+        <v>0.13041</v>
       </c>
       <c r="D77" t="n">
-        <v>0.656975</v>
+        <v>0.669679</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.15674</v>
+        <v>0.155049</v>
       </c>
       <c r="C78" t="n">
-        <v>0.118977</v>
+        <v>0.142863</v>
       </c>
       <c r="D78" t="n">
-        <v>0.503093</v>
+        <v>0.502431</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.186101</v>
+        <v>0.182496</v>
       </c>
       <c r="C79" t="n">
-        <v>0.132054</v>
+        <v>0.156942</v>
       </c>
       <c r="D79" t="n">
-        <v>0.505825</v>
+        <v>0.532853</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.230064</v>
+        <v>0.217805</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0898583</v>
+        <v>0.0936095</v>
       </c>
       <c r="D80" t="n">
-        <v>0.54047</v>
+        <v>0.540516</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.121155</v>
+        <v>0.111535</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09199830000000001</v>
+        <v>0.09524199999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.566087</v>
+        <v>0.568358</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.112205</v>
+        <v>0.111473</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0924783</v>
+        <v>0.0954455</v>
       </c>
       <c r="D82" t="n">
-        <v>0.577207</v>
+        <v>0.578493</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.113572</v>
+        <v>0.112042</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0947385</v>
+        <v>0.100214</v>
       </c>
       <c r="D83" t="n">
-        <v>0.606923</v>
+        <v>0.618824</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.120512</v>
+        <v>0.115016</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0984211</v>
+        <v>0.0978924</v>
       </c>
       <c r="D84" t="n">
-        <v>0.621681</v>
+        <v>0.632884</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.118276</v>
+        <v>0.118814</v>
       </c>
       <c r="C85" t="n">
-        <v>0.10091</v>
+        <v>0.100773</v>
       </c>
       <c r="D85" t="n">
-        <v>0.660772</v>
+        <v>0.662844</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.124965</v>
+        <v>0.124149</v>
       </c>
       <c r="C86" t="n">
-        <v>0.102059</v>
+        <v>0.101169</v>
       </c>
       <c r="D86" t="n">
-        <v>0.698971</v>
+        <v>0.688383</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.127854</v>
+        <v>0.125898</v>
       </c>
       <c r="C87" t="n">
-        <v>0.104138</v>
+        <v>0.104519</v>
       </c>
       <c r="D87" t="n">
-        <v>0.71672</v>
+        <v>0.708192</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.131581</v>
+        <v>0.134358</v>
       </c>
       <c r="C88" t="n">
-        <v>0.107508</v>
+        <v>0.11023</v>
       </c>
       <c r="D88" t="n">
-        <v>0.7206669999999999</v>
+        <v>0.745057</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.136048</v>
+        <v>0.139227</v>
       </c>
       <c r="C89" t="n">
-        <v>0.106108</v>
+        <v>0.114572</v>
       </c>
       <c r="D89" t="n">
-        <v>0.747861</v>
+        <v>0.793864</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.148978</v>
+        <v>0.158504</v>
       </c>
       <c r="C90" t="n">
-        <v>0.110854</v>
+        <v>0.116704</v>
       </c>
       <c r="D90" t="n">
-        <v>0.781094</v>
+        <v>0.782541</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.161568</v>
+        <v>0.161348</v>
       </c>
       <c r="C91" t="n">
-        <v>0.119172</v>
+        <v>0.124242</v>
       </c>
       <c r="D91" t="n">
-        <v>0.822286</v>
+        <v>0.820009</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.177038</v>
+        <v>0.173541</v>
       </c>
       <c r="C92" t="n">
-        <v>0.127741</v>
+        <v>0.128885</v>
       </c>
       <c r="D92" t="n">
-        <v>0.620569</v>
+        <v>0.624995</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.19982</v>
+        <v>0.203931</v>
       </c>
       <c r="C93" t="n">
-        <v>0.144662</v>
+        <v>0.144096</v>
       </c>
       <c r="D93" t="n">
-        <v>0.638769</v>
+        <v>0.644378</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.247742</v>
+        <v>0.247126</v>
       </c>
       <c r="C94" t="n">
-        <v>0.109517</v>
+        <v>0.113387</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6493</v>
+        <v>0.6580549999999999</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.139456</v>
+        <v>0.137787</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1118</v>
+        <v>0.118121</v>
       </c>
       <c r="D95" t="n">
-        <v>0.687602</v>
+        <v>0.6935480000000001</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.142674</v>
+        <v>0.1427</v>
       </c>
       <c r="C96" t="n">
-        <v>0.113026</v>
+        <v>0.115045</v>
       </c>
       <c r="D96" t="n">
-        <v>0.698751</v>
+        <v>0.698724</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.146995</v>
+        <v>0.14696</v>
       </c>
       <c r="C97" t="n">
-        <v>0.116617</v>
+        <v>0.12116</v>
       </c>
       <c r="D97" t="n">
-        <v>0.753306</v>
+        <v>0.73175</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.156371</v>
+        <v>0.150357</v>
       </c>
       <c r="C98" t="n">
-        <v>0.119576</v>
+        <v>0.12258</v>
       </c>
       <c r="D98" t="n">
-        <v>0.744128</v>
+        <v>0.739456</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.153953</v>
+        <v>0.149217</v>
       </c>
       <c r="C99" t="n">
-        <v>0.122331</v>
+        <v>0.123209</v>
       </c>
       <c r="D99" t="n">
-        <v>0.761507</v>
+        <v>0.779088</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.152784</v>
+        <v>0.154131</v>
       </c>
       <c r="C100" t="n">
-        <v>0.126941</v>
+        <v>0.12378</v>
       </c>
       <c r="D100" t="n">
-        <v>0.807521</v>
+        <v>0.80402</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.167896</v>
+        <v>0.161085</v>
       </c>
       <c r="C101" t="n">
-        <v>0.120686</v>
+        <v>0.128624</v>
       </c>
       <c r="D101" t="n">
-        <v>0.84582</v>
+        <v>0.8169149999999999</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.168503</v>
+        <v>0.167955</v>
       </c>
       <c r="C102" t="n">
-        <v>0.12371</v>
+        <v>0.127138</v>
       </c>
       <c r="D102" t="n">
-        <v>0.8551800000000001</v>
+        <v>0.848684</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.176078</v>
+        <v>0.169802</v>
       </c>
       <c r="C103" t="n">
-        <v>0.132965</v>
+        <v>0.135714</v>
       </c>
       <c r="D103" t="n">
-        <v>0.890828</v>
+        <v>0.8656779999999999</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.185509</v>
+        <v>0.184119</v>
       </c>
       <c r="C104" t="n">
-        <v>0.135002</v>
+        <v>0.137395</v>
       </c>
       <c r="D104" t="n">
-        <v>0.91207</v>
+        <v>0.921812</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.192801</v>
+        <v>0.192478</v>
       </c>
       <c r="C105" t="n">
-        <v>0.140531</v>
+        <v>0.148615</v>
       </c>
       <c r="D105" t="n">
-        <v>0.930403</v>
+        <v>0.941103</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.205772</v>
+        <v>0.210664</v>
       </c>
       <c r="C106" t="n">
-        <v>0.156522</v>
+        <v>0.154291</v>
       </c>
       <c r="D106" t="n">
-        <v>0.956158</v>
+        <v>0.97997</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.239729</v>
+        <v>0.239629</v>
       </c>
       <c r="C107" t="n">
-        <v>0.164626</v>
+        <v>0.172499</v>
       </c>
       <c r="D107" t="n">
-        <v>0.753038</v>
+        <v>0.748951</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.27268</v>
+        <v>0.285044</v>
       </c>
       <c r="C108" t="n">
-        <v>0.184235</v>
+        <v>0.185736</v>
       </c>
       <c r="D108" t="n">
-        <v>0.765451</v>
+        <v>0.746381</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.346694</v>
+        <v>0.342109</v>
       </c>
       <c r="C109" t="n">
-        <v>0.187651</v>
+        <v>0.203983</v>
       </c>
       <c r="D109" t="n">
-        <v>0.810189</v>
+        <v>0.785559</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.241664</v>
+        <v>0.226398</v>
       </c>
       <c r="C110" t="n">
-        <v>0.186166</v>
+        <v>0.194807</v>
       </c>
       <c r="D110" t="n">
-        <v>0.7867459999999999</v>
+        <v>0.779226</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.236994</v>
+        <v>0.226978</v>
       </c>
       <c r="C111" t="n">
-        <v>0.194927</v>
+        <v>0.197243</v>
       </c>
       <c r="D111" t="n">
-        <v>0.86139</v>
+        <v>0.845297</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.240993</v>
+        <v>0.234381</v>
       </c>
       <c r="C112" t="n">
-        <v>0.189941</v>
+        <v>0.199151</v>
       </c>
       <c r="D112" t="n">
-        <v>0.83758</v>
+        <v>0.888977</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.255015</v>
+        <v>0.258986</v>
       </c>
       <c r="C113" t="n">
-        <v>0.192054</v>
+        <v>0.202068</v>
       </c>
       <c r="D113" t="n">
-        <v>0.865154</v>
+        <v>0.861395</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.258739</v>
+        <v>0.24082</v>
       </c>
       <c r="C114" t="n">
-        <v>0.204503</v>
+        <v>0.20377</v>
       </c>
       <c r="D114" t="n">
-        <v>0.9507640000000001</v>
+        <v>0.876633</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.244853</v>
+        <v>0.242775</v>
       </c>
       <c r="C115" t="n">
-        <v>0.208253</v>
+        <v>0.203808</v>
       </c>
       <c r="D115" t="n">
-        <v>0.922154</v>
+        <v>0.956442</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.258658</v>
+        <v>0.25052</v>
       </c>
       <c r="C116" t="n">
-        <v>0.199296</v>
+        <v>0.214686</v>
       </c>
       <c r="D116" t="n">
-        <v>0.92524</v>
+        <v>0.957955</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.266473</v>
+        <v>0.257397</v>
       </c>
       <c r="C117" t="n">
-        <v>0.212393</v>
+        <v>0.214507</v>
       </c>
       <c r="D117" t="n">
-        <v>1.03648</v>
+        <v>0.958566</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.264076</v>
+        <v>0.267698</v>
       </c>
       <c r="C118" t="n">
-        <v>0.211318</v>
+        <v>0.215156</v>
       </c>
       <c r="D118" t="n">
-        <v>1.00509</v>
+        <v>0.993271</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.286914</v>
+        <v>0.276741</v>
       </c>
       <c r="C119" t="n">
-        <v>0.227252</v>
+        <v>0.218486</v>
       </c>
       <c r="D119" t="n">
-        <v>1.04151</v>
+        <v>1.12527</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.308848</v>
+        <v>0.300075</v>
       </c>
       <c r="C120" t="n">
-        <v>0.218606</v>
+        <v>0.229515</v>
       </c>
       <c r="D120" t="n">
-        <v>1.04524</v>
+        <v>1.04579</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.32823</v>
+        <v>0.32993</v>
       </c>
       <c r="C121" t="n">
-        <v>0.253182</v>
+        <v>0.238372</v>
       </c>
       <c r="D121" t="n">
-        <v>0.825458</v>
+        <v>0.793163</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.37517</v>
+        <v>0.364461</v>
       </c>
       <c r="C122" t="n">
-        <v>0.264726</v>
+        <v>0.262078</v>
       </c>
       <c r="D122" t="n">
-        <v>0.836843</v>
+        <v>0.819648</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.442257</v>
+        <v>0.438423</v>
       </c>
       <c r="C123" t="n">
-        <v>0.2896</v>
+        <v>0.309625</v>
       </c>
       <c r="D123" t="n">
-        <v>0.843319</v>
+        <v>0.843291</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.376304</v>
+        <v>0.370449</v>
       </c>
       <c r="C124" t="n">
-        <v>0.300587</v>
+        <v>0.318056</v>
       </c>
       <c r="D124" t="n">
-        <v>0.945238</v>
+        <v>0.867219</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.377881</v>
+        <v>0.360907</v>
       </c>
       <c r="C125" t="n">
-        <v>0.297671</v>
+        <v>0.319631</v>
       </c>
       <c r="D125" t="n">
-        <v>0.906297</v>
+        <v>0.878547</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.376343</v>
+        <v>0.369901</v>
       </c>
       <c r="C126" t="n">
-        <v>0.293273</v>
+        <v>0.320017</v>
       </c>
       <c r="D126" t="n">
-        <v>1.02897</v>
+        <v>0.933343</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.374081</v>
+        <v>0.374729</v>
       </c>
       <c r="C127" t="n">
-        <v>0.301187</v>
+        <v>0.324324</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9478569999999999</v>
+        <v>0.971799</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.389357</v>
+        <v>0.401882</v>
       </c>
       <c r="C128" t="n">
-        <v>0.306531</v>
+        <v>0.338299</v>
       </c>
       <c r="D128" t="n">
-        <v>0.992294</v>
+        <v>0.9944730000000001</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.389926</v>
+        <v>0.395354</v>
       </c>
       <c r="C129" t="n">
-        <v>0.306939</v>
+        <v>0.324663</v>
       </c>
       <c r="D129" t="n">
-        <v>1.10133</v>
+        <v>1.01863</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.406883</v>
+        <v>0.40184</v>
       </c>
       <c r="C130" t="n">
-        <v>0.312818</v>
+        <v>0.332147</v>
       </c>
       <c r="D130" t="n">
-        <v>1.03889</v>
+        <v>1.04056</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.411739</v>
+        <v>0.40271</v>
       </c>
       <c r="C131" t="n">
-        <v>0.30669</v>
+        <v>0.331655</v>
       </c>
       <c r="D131" t="n">
-        <v>1.11368</v>
+        <v>1.08706</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.408719</v>
+        <v>0.419666</v>
       </c>
       <c r="C132" t="n">
-        <v>0.333496</v>
+        <v>0.338531</v>
       </c>
       <c r="D132" t="n">
-        <v>1.13582</v>
+        <v>1.14074</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.44428</v>
+        <v>0.434944</v>
       </c>
       <c r="C133" t="n">
-        <v>0.347041</v>
+        <v>0.34865</v>
       </c>
       <c r="D133" t="n">
-        <v>1.17589</v>
+        <v>1.1558</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.458963</v>
+        <v>0.46242</v>
       </c>
       <c r="C134" t="n">
-        <v>0.335705</v>
+        <v>0.361763</v>
       </c>
       <c r="D134" t="n">
-        <v>1.20347</v>
+        <v>1.23027</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.492849</v>
+        <v>0.489116</v>
       </c>
       <c r="C135" t="n">
-        <v>0.348497</v>
+        <v>0.380578</v>
       </c>
       <c r="D135" t="n">
-        <v>0.988973</v>
+        <v>0.976739</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.548455</v>
+        <v>0.529934</v>
       </c>
       <c r="C136" t="n">
-        <v>0.369689</v>
+        <v>0.406641</v>
       </c>
       <c r="D136" t="n">
-        <v>0.993611</v>
+        <v>0.998167</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.633558</v>
+        <v>0.63398</v>
       </c>
       <c r="C137" t="n">
-        <v>0.355174</v>
+        <v>0.378014</v>
       </c>
       <c r="D137" t="n">
-        <v>1.04529</v>
+        <v>1.00511</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.454715</v>
+        <v>0.452555</v>
       </c>
       <c r="C138" t="n">
-        <v>0.343483</v>
+        <v>0.388451</v>
       </c>
       <c r="D138" t="n">
-        <v>1.06431</v>
+        <v>1.06212</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.456502</v>
+        <v>0.450099</v>
       </c>
       <c r="C139" t="n">
-        <v>0.349775</v>
+        <v>0.394425</v>
       </c>
       <c r="D139" t="n">
-        <v>1.09238</v>
+        <v>1.10769</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.463538</v>
+        <v>0.456917</v>
       </c>
       <c r="C140" t="n">
-        <v>0.357301</v>
+        <v>0.389751</v>
       </c>
       <c r="D140" t="n">
-        <v>1.13924</v>
+        <v>1.14866</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.460068</v>
+        <v>0.458855</v>
       </c>
       <c r="C141" t="n">
-        <v>0.355586</v>
+        <v>0.393074</v>
       </c>
       <c r="D141" t="n">
-        <v>1.17847</v>
+        <v>1.16514</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.473046</v>
+        <v>0.470457</v>
       </c>
       <c r="C142" t="n">
-        <v>0.361173</v>
+        <v>0.402481</v>
       </c>
       <c r="D142" t="n">
-        <v>1.20592</v>
+        <v>1.22174</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.478399</v>
+        <v>0.47356</v>
       </c>
       <c r="C143" t="n">
-        <v>0.363554</v>
+        <v>0.405769</v>
       </c>
       <c r="D143" t="n">
-        <v>1.2501</v>
+        <v>1.27299</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0615432</v>
+        <v>0.0613728</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0704881</v>
+        <v>0.0692836</v>
       </c>
       <c r="D2" t="n">
-        <v>0.171856</v>
+        <v>0.172592</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0626617</v>
+        <v>0.0641482</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0734755</v>
+        <v>0.0699244</v>
       </c>
       <c r="D3" t="n">
-        <v>0.175729</v>
+        <v>0.169954</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0651101</v>
+        <v>0.0663074</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0726361</v>
+        <v>0.0727737</v>
       </c>
       <c r="D4" t="n">
-        <v>0.179022</v>
+        <v>0.176141</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0735304</v>
+        <v>0.0727492</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0744351</v>
+        <v>0.0765614</v>
       </c>
       <c r="D5" t="n">
-        <v>0.185437</v>
+        <v>0.177134</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0856455</v>
+        <v>0.0813646</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0829352</v>
+        <v>0.0805645</v>
       </c>
       <c r="D6" t="n">
-        <v>0.191534</v>
+        <v>0.18392</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0982175</v>
+        <v>0.09629550000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08801059999999999</v>
+        <v>0.08682810000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.154224</v>
+        <v>0.152058</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.125555</v>
+        <v>0.117592</v>
       </c>
       <c r="C8" t="n">
-        <v>0.10168</v>
+        <v>0.095786</v>
       </c>
       <c r="D8" t="n">
-        <v>0.161392</v>
+        <v>0.157235</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.158756</v>
+        <v>0.159093</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0697749</v>
+        <v>0.06786209999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.166686</v>
+        <v>0.162722</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0594885</v>
+        <v>0.0598793</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0701705</v>
+        <v>0.06690889999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.167639</v>
+        <v>0.168785</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0602366</v>
+        <v>0.0612228</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0687725</v>
+        <v>0.06595769999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.173581</v>
+        <v>0.172822</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0611952</v>
+        <v>0.0621679</v>
       </c>
       <c r="C12" t="n">
-        <v>0.070656</v>
+        <v>0.06700680000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.183122</v>
+        <v>0.175799</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0612882</v>
+        <v>0.061659</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0677093</v>
+        <v>0.0691953</v>
       </c>
       <c r="D13" t="n">
-        <v>0.185644</v>
+        <v>0.175763</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0624642</v>
+        <v>0.0625275</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0700547</v>
+        <v>0.06858590000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.191926</v>
+        <v>0.184534</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.06437560000000001</v>
+        <v>0.0635425</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0708357</v>
+        <v>0.0682975</v>
       </c>
       <c r="D15" t="n">
-        <v>0.193134</v>
+        <v>0.196875</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0667109</v>
+        <v>0.0658123</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0725919</v>
+        <v>0.07310709999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.201568</v>
+        <v>0.201526</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0695491</v>
+        <v>0.0701875</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07309350000000001</v>
+        <v>0.07273839999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.207753</v>
+        <v>0.198431</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0732676</v>
+        <v>0.07049469999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0733564</v>
+        <v>0.07209749999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.207498</v>
+        <v>0.203142</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0800667</v>
+        <v>0.0768243</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07582659999999999</v>
+        <v>0.07479959999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.206889</v>
+        <v>0.212067</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0859091</v>
+        <v>0.0860754</v>
       </c>
       <c r="C20" t="n">
-        <v>0.082704</v>
+        <v>0.0781118</v>
       </c>
       <c r="D20" t="n">
-        <v>0.219343</v>
+        <v>0.212266</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0957809</v>
+        <v>0.096321</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08984540000000001</v>
+        <v>0.08373269999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.165213</v>
+        <v>0.16211</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.116706</v>
+        <v>0.115245</v>
       </c>
       <c r="C22" t="n">
-        <v>0.100944</v>
+        <v>0.0945754</v>
       </c>
       <c r="D22" t="n">
-        <v>0.170039</v>
+        <v>0.168861</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.153298</v>
+        <v>0.145701</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0686264</v>
+        <v>0.0659831</v>
       </c>
       <c r="D23" t="n">
-        <v>0.173077</v>
+        <v>0.17845</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.062949</v>
+        <v>0.063819</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0693561</v>
+        <v>0.06736640000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.18269</v>
+        <v>0.1927</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.06336559999999999</v>
+        <v>0.0629144</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0711678</v>
+        <v>0.07091260000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.185356</v>
+        <v>0.189085</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0652471</v>
+        <v>0.0640338</v>
       </c>
       <c r="C26" t="n">
-        <v>0.07004390000000001</v>
+        <v>0.0685093</v>
       </c>
       <c r="D26" t="n">
-        <v>0.191201</v>
+        <v>0.201087</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0676586</v>
+        <v>0.0641728</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0690224</v>
+        <v>0.0695365</v>
       </c>
       <c r="D27" t="n">
-        <v>0.202891</v>
+        <v>0.192215</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0671025</v>
+        <v>0.064356</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0701299</v>
+        <v>0.0711517</v>
       </c>
       <c r="D28" t="n">
-        <v>0.199582</v>
+        <v>0.208269</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.06744989999999999</v>
+        <v>0.0695277</v>
       </c>
       <c r="C29" t="n">
-        <v>0.070282</v>
+        <v>0.069302</v>
       </c>
       <c r="D29" t="n">
-        <v>0.209276</v>
+        <v>0.210714</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0713323</v>
+        <v>0.0667605</v>
       </c>
       <c r="C30" t="n">
-        <v>0.07143099999999999</v>
+        <v>0.07473</v>
       </c>
       <c r="D30" t="n">
-        <v>0.21402</v>
+        <v>0.21422</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0738712</v>
+        <v>0.0699466</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0757529</v>
+        <v>0.0709304</v>
       </c>
       <c r="D31" t="n">
-        <v>0.220795</v>
+        <v>0.216955</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0759624</v>
+        <v>0.0757385</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0745605</v>
+        <v>0.07552499999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.221677</v>
+        <v>0.226649</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0793387</v>
+        <v>0.0825683</v>
       </c>
       <c r="C33" t="n">
-        <v>0.07904700000000001</v>
+        <v>0.0745579</v>
       </c>
       <c r="D33" t="n">
-        <v>0.233217</v>
+        <v>0.233174</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0884578</v>
+        <v>0.0864939</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0836355</v>
+        <v>0.0799995</v>
       </c>
       <c r="D34" t="n">
-        <v>0.236496</v>
+        <v>0.24084</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0991524</v>
+        <v>0.0988125</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0884123</v>
+        <v>0.0839717</v>
       </c>
       <c r="D35" t="n">
-        <v>0.177397</v>
+        <v>0.181833</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.11452</v>
+        <v>0.11447</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0970313</v>
+        <v>0.093737</v>
       </c>
       <c r="D36" t="n">
-        <v>0.183998</v>
+        <v>0.185788</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.146432</v>
+        <v>0.145955</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0704409</v>
+        <v>0.0717507</v>
       </c>
       <c r="D37" t="n">
-        <v>0.197221</v>
+        <v>0.19316</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0694246</v>
+        <v>0.0683025</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07324509999999999</v>
+        <v>0.0724079</v>
       </c>
       <c r="D38" t="n">
-        <v>0.197697</v>
+        <v>0.198622</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0693566</v>
+        <v>0.0693159</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07181899999999999</v>
+        <v>0.0705033</v>
       </c>
       <c r="D39" t="n">
-        <v>0.204982</v>
+        <v>0.210079</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.069526</v>
+        <v>0.0700432</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07253279999999999</v>
+        <v>0.0695979</v>
       </c>
       <c r="D40" t="n">
-        <v>0.220294</v>
+        <v>0.220842</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0731011</v>
+        <v>0.0718849</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0708289</v>
+        <v>0.0748219</v>
       </c>
       <c r="D41" t="n">
-        <v>0.233522</v>
+        <v>0.223084</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.07242850000000001</v>
+        <v>0.071947</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0730917</v>
+        <v>0.07246900000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.231121</v>
+        <v>0.238582</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0763901</v>
+        <v>0.0723849</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0727159</v>
+        <v>0.0749988</v>
       </c>
       <c r="D43" t="n">
-        <v>0.244601</v>
+        <v>0.257473</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.07579329999999999</v>
+        <v>0.0751589</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07291010000000001</v>
+        <v>0.07452689999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.250999</v>
+        <v>0.265029</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0787562</v>
+        <v>0.07706440000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07552440000000001</v>
+        <v>0.074887</v>
       </c>
       <c r="D45" t="n">
-        <v>0.268431</v>
+        <v>0.265049</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0778983</v>
+        <v>0.0808569</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0753993</v>
+        <v>0.0755859</v>
       </c>
       <c r="D46" t="n">
-        <v>0.281978</v>
+        <v>0.288664</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0839675</v>
+        <v>0.0840448</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0814527</v>
+        <v>0.0759864</v>
       </c>
       <c r="D47" t="n">
-        <v>0.283241</v>
+        <v>0.291733</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0924363</v>
+        <v>0.0896222</v>
       </c>
       <c r="C48" t="n">
-        <v>0.08279160000000001</v>
+        <v>0.0815593</v>
       </c>
       <c r="D48" t="n">
-        <v>0.298889</v>
+        <v>0.321607</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.10479</v>
+        <v>0.101269</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0909872</v>
+        <v>0.08670460000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.318629</v>
+        <v>0.312014</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.117961</v>
+        <v>0.116724</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1022</v>
+        <v>0.0941821</v>
       </c>
       <c r="D50" t="n">
-        <v>0.233385</v>
+        <v>0.233755</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.146989</v>
+        <v>0.141814</v>
       </c>
       <c r="C51" t="n">
-        <v>0.07583239999999999</v>
+        <v>0.07432270000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.248307</v>
+        <v>0.240689</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.189777</v>
+        <v>0.197656</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0769082</v>
+        <v>0.0771516</v>
       </c>
       <c r="D52" t="n">
-        <v>0.251338</v>
+        <v>0.258441</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.078973</v>
+        <v>0.0808152</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07785889999999999</v>
+        <v>0.0768552</v>
       </c>
       <c r="D53" t="n">
-        <v>0.270012</v>
+        <v>0.271784</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.08180129999999999</v>
+        <v>0.0834242</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0772883</v>
+        <v>0.0783587</v>
       </c>
       <c r="D54" t="n">
-        <v>0.290529</v>
+        <v>0.284561</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0838354</v>
+        <v>0.08301989999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0765771</v>
+        <v>0.0772091</v>
       </c>
       <c r="D55" t="n">
-        <v>0.307374</v>
+        <v>0.298089</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.08271199999999999</v>
+        <v>0.08261839999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0776917</v>
+        <v>0.07648389999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.331222</v>
+        <v>0.314852</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0841002</v>
+        <v>0.08282399999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0805389</v>
+        <v>0.0780404</v>
       </c>
       <c r="D57" t="n">
-        <v>0.340121</v>
+        <v>0.337926</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0865906</v>
+        <v>0.08738079999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.081203</v>
+        <v>0.0798571</v>
       </c>
       <c r="D58" t="n">
-        <v>0.355426</v>
+        <v>0.350303</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0880652</v>
+        <v>0.08894249999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0821909</v>
+        <v>0.0824532</v>
       </c>
       <c r="D59" t="n">
-        <v>0.379043</v>
+        <v>0.375666</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0897674</v>
+        <v>0.0915199</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0849048</v>
+        <v>0.08396430000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.395942</v>
+        <v>0.392948</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0995443</v>
+        <v>0.0970183</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0871951</v>
+        <v>0.0854972</v>
       </c>
       <c r="D61" t="n">
-        <v>0.422629</v>
+        <v>0.432696</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.102299</v>
+        <v>0.104499</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0883554</v>
+        <v>0.0898236</v>
       </c>
       <c r="D62" t="n">
-        <v>0.438171</v>
+        <v>0.470155</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.111811</v>
+        <v>0.11311</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0925185</v>
+        <v>0.09405860000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.482639</v>
+        <v>0.489704</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.126766</v>
+        <v>0.132037</v>
       </c>
       <c r="C64" t="n">
-        <v>0.101251</v>
+        <v>0.09965350000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.341731</v>
+        <v>0.36187</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.15309</v>
+        <v>0.15845</v>
       </c>
       <c r="C65" t="n">
-        <v>0.119237</v>
+        <v>0.117805</v>
       </c>
       <c r="D65" t="n">
-        <v>0.361644</v>
+        <v>0.381152</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.198098</v>
+        <v>0.199567</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0818929</v>
+        <v>0.08197409999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.388769</v>
+        <v>0.416169</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0952532</v>
+        <v>0.0942084</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0817988</v>
+        <v>0.08176120000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.415074</v>
+        <v>0.414242</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0926912</v>
+        <v>0.0939304</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0830736</v>
+        <v>0.0837735</v>
       </c>
       <c r="D68" t="n">
-        <v>0.428715</v>
+        <v>0.430092</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.091614</v>
+        <v>0.09652380000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.084674</v>
+        <v>0.084244</v>
       </c>
       <c r="D69" t="n">
-        <v>0.455624</v>
+        <v>0.453337</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0975017</v>
+        <v>0.0963794</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0838887</v>
+        <v>0.08456080000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.469416</v>
+        <v>0.475332</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0961904</v>
+        <v>0.096044</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0866422</v>
+        <v>0.0857371</v>
       </c>
       <c r="D71" t="n">
-        <v>0.490697</v>
+        <v>0.507799</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.103159</v>
+        <v>0.0997931</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0844597</v>
+        <v>0.0912528</v>
       </c>
       <c r="D72" t="n">
-        <v>0.518266</v>
+        <v>0.519157</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.104704</v>
+        <v>0.101823</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0883685</v>
+        <v>0.088822</v>
       </c>
       <c r="D73" t="n">
-        <v>0.559986</v>
+        <v>0.551198</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.110757</v>
+        <v>0.112657</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0931424</v>
+        <v>0.0911454</v>
       </c>
       <c r="D74" t="n">
-        <v>0.587185</v>
+        <v>0.586214</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.114104</v>
+        <v>0.117313</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0929185</v>
+        <v>0.09446599999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.595702</v>
+        <v>0.610322</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.128549</v>
+        <v>0.121403</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0994241</v>
+        <v>0.0988214</v>
       </c>
       <c r="D76" t="n">
-        <v>0.643946</v>
+        <v>0.644433</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.137605</v>
+        <v>0.136084</v>
       </c>
       <c r="C77" t="n">
-        <v>0.108093</v>
+        <v>0.105435</v>
       </c>
       <c r="D77" t="n">
-        <v>0.656975</v>
+        <v>0.654595</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.15674</v>
+        <v>0.153338</v>
       </c>
       <c r="C78" t="n">
-        <v>0.118977</v>
+        <v>0.114899</v>
       </c>
       <c r="D78" t="n">
-        <v>0.503093</v>
+        <v>0.504763</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.186101</v>
+        <v>0.181898</v>
       </c>
       <c r="C79" t="n">
-        <v>0.132054</v>
+        <v>0.12662</v>
       </c>
       <c r="D79" t="n">
-        <v>0.505825</v>
+        <v>0.521165</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.230064</v>
+        <v>0.22585</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0898583</v>
+        <v>0.0894721</v>
       </c>
       <c r="D80" t="n">
-        <v>0.54047</v>
+        <v>0.533529</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.121155</v>
+        <v>0.108264</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09199830000000001</v>
+        <v>0.0901158</v>
       </c>
       <c r="D81" t="n">
-        <v>0.566087</v>
+        <v>0.567485</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.112205</v>
+        <v>0.114756</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0924783</v>
+        <v>0.0915513</v>
       </c>
       <c r="D82" t="n">
-        <v>0.577207</v>
+        <v>0.582054</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.113572</v>
+        <v>0.110599</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0947385</v>
+        <v>0.0976674</v>
       </c>
       <c r="D83" t="n">
-        <v>0.606923</v>
+        <v>0.6109869999999999</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.120512</v>
+        <v>0.118146</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0984211</v>
+        <v>0.0939965</v>
       </c>
       <c r="D84" t="n">
-        <v>0.621681</v>
+        <v>0.630767</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.118276</v>
+        <v>0.120016</v>
       </c>
       <c r="C85" t="n">
-        <v>0.10091</v>
+        <v>0.09535009999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.660772</v>
+        <v>0.658721</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.124965</v>
+        <v>0.121022</v>
       </c>
       <c r="C86" t="n">
-        <v>0.102059</v>
+        <v>0.100133</v>
       </c>
       <c r="D86" t="n">
-        <v>0.698971</v>
+        <v>0.678839</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.127854</v>
+        <v>0.128631</v>
       </c>
       <c r="C87" t="n">
-        <v>0.104138</v>
+        <v>0.0996412</v>
       </c>
       <c r="D87" t="n">
-        <v>0.71672</v>
+        <v>0.695313</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.131581</v>
+        <v>0.131874</v>
       </c>
       <c r="C88" t="n">
-        <v>0.107508</v>
+        <v>0.10749</v>
       </c>
       <c r="D88" t="n">
-        <v>0.7206669999999999</v>
+        <v>0.740514</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.136048</v>
+        <v>0.138586</v>
       </c>
       <c r="C89" t="n">
-        <v>0.106108</v>
+        <v>0.107065</v>
       </c>
       <c r="D89" t="n">
-        <v>0.747861</v>
+        <v>0.771145</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.148978</v>
+        <v>0.148516</v>
       </c>
       <c r="C90" t="n">
-        <v>0.110854</v>
+        <v>0.114365</v>
       </c>
       <c r="D90" t="n">
-        <v>0.781094</v>
+        <v>0.786668</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.161568</v>
+        <v>0.158604</v>
       </c>
       <c r="C91" t="n">
-        <v>0.119172</v>
+        <v>0.119498</v>
       </c>
       <c r="D91" t="n">
-        <v>0.822286</v>
+        <v>0.837101</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.177038</v>
+        <v>0.181675</v>
       </c>
       <c r="C92" t="n">
-        <v>0.127741</v>
+        <v>0.125933</v>
       </c>
       <c r="D92" t="n">
-        <v>0.620569</v>
+        <v>0.620308</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.19982</v>
+        <v>0.209661</v>
       </c>
       <c r="C93" t="n">
-        <v>0.144662</v>
+        <v>0.140506</v>
       </c>
       <c r="D93" t="n">
-        <v>0.638769</v>
+        <v>0.648103</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.247742</v>
+        <v>0.236282</v>
       </c>
       <c r="C94" t="n">
-        <v>0.109517</v>
+        <v>0.107136</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6493</v>
+        <v>0.66184</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.139456</v>
+        <v>0.138676</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1118</v>
+        <v>0.109634</v>
       </c>
       <c r="D95" t="n">
-        <v>0.687602</v>
+        <v>0.688082</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.142674</v>
+        <v>0.137517</v>
       </c>
       <c r="C96" t="n">
-        <v>0.113026</v>
+        <v>0.111006</v>
       </c>
       <c r="D96" t="n">
-        <v>0.698751</v>
+        <v>0.713898</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.146995</v>
+        <v>0.146337</v>
       </c>
       <c r="C97" t="n">
-        <v>0.116617</v>
+        <v>0.116049</v>
       </c>
       <c r="D97" t="n">
-        <v>0.753306</v>
+        <v>0.7305</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.156371</v>
+        <v>0.144333</v>
       </c>
       <c r="C98" t="n">
-        <v>0.119576</v>
+        <v>0.116451</v>
       </c>
       <c r="D98" t="n">
-        <v>0.744128</v>
+        <v>0.752456</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.153953</v>
+        <v>0.155501</v>
       </c>
       <c r="C99" t="n">
-        <v>0.122331</v>
+        <v>0.12046</v>
       </c>
       <c r="D99" t="n">
-        <v>0.761507</v>
+        <v>0.778354</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.152784</v>
+        <v>0.159077</v>
       </c>
       <c r="C100" t="n">
-        <v>0.126941</v>
+        <v>0.121998</v>
       </c>
       <c r="D100" t="n">
-        <v>0.807521</v>
+        <v>0.8048149999999999</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.167896</v>
+        <v>0.16086</v>
       </c>
       <c r="C101" t="n">
-        <v>0.120686</v>
+        <v>0.125971</v>
       </c>
       <c r="D101" t="n">
-        <v>0.84582</v>
+        <v>0.82019</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.168503</v>
+        <v>0.161551</v>
       </c>
       <c r="C102" t="n">
-        <v>0.12371</v>
+        <v>0.126652</v>
       </c>
       <c r="D102" t="n">
-        <v>0.8551800000000001</v>
+        <v>0.854328</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.176078</v>
+        <v>0.168007</v>
       </c>
       <c r="C103" t="n">
-        <v>0.132965</v>
+        <v>0.129884</v>
       </c>
       <c r="D103" t="n">
-        <v>0.890828</v>
+        <v>0.887453</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.185509</v>
+        <v>0.180676</v>
       </c>
       <c r="C104" t="n">
-        <v>0.135002</v>
+        <v>0.136779</v>
       </c>
       <c r="D104" t="n">
-        <v>0.91207</v>
+        <v>0.936514</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.192801</v>
+        <v>0.190583</v>
       </c>
       <c r="C105" t="n">
-        <v>0.140531</v>
+        <v>0.141103</v>
       </c>
       <c r="D105" t="n">
-        <v>0.930403</v>
+        <v>0.939341</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.205772</v>
+        <v>0.210064</v>
       </c>
       <c r="C106" t="n">
-        <v>0.156522</v>
+        <v>0.151405</v>
       </c>
       <c r="D106" t="n">
-        <v>0.956158</v>
+        <v>0.96557</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.239729</v>
+        <v>0.234494</v>
       </c>
       <c r="C107" t="n">
-        <v>0.164626</v>
+        <v>0.163066</v>
       </c>
       <c r="D107" t="n">
-        <v>0.753038</v>
+        <v>0.731112</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.27268</v>
+        <v>0.274119</v>
       </c>
       <c r="C108" t="n">
-        <v>0.184235</v>
+        <v>0.181794</v>
       </c>
       <c r="D108" t="n">
-        <v>0.765451</v>
+        <v>0.753636</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.346694</v>
+        <v>0.347672</v>
       </c>
       <c r="C109" t="n">
-        <v>0.187651</v>
+        <v>0.184288</v>
       </c>
       <c r="D109" t="n">
-        <v>0.810189</v>
+        <v>0.766888</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.241664</v>
+        <v>0.222746</v>
       </c>
       <c r="C110" t="n">
-        <v>0.186166</v>
+        <v>0.200761</v>
       </c>
       <c r="D110" t="n">
-        <v>0.7867459999999999</v>
+        <v>0.799041</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.236994</v>
+        <v>0.239543</v>
       </c>
       <c r="C111" t="n">
-        <v>0.194927</v>
+        <v>0.190773</v>
       </c>
       <c r="D111" t="n">
-        <v>0.86139</v>
+        <v>0.8119690000000001</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.240993</v>
+        <v>0.235732</v>
       </c>
       <c r="C112" t="n">
-        <v>0.189941</v>
+        <v>0.194806</v>
       </c>
       <c r="D112" t="n">
-        <v>0.83758</v>
+        <v>0.843754</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.255015</v>
+        <v>0.234222</v>
       </c>
       <c r="C113" t="n">
-        <v>0.192054</v>
+        <v>0.193846</v>
       </c>
       <c r="D113" t="n">
-        <v>0.865154</v>
+        <v>0.855208</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.258739</v>
+        <v>0.257417</v>
       </c>
       <c r="C114" t="n">
-        <v>0.204503</v>
+        <v>0.195522</v>
       </c>
       <c r="D114" t="n">
-        <v>0.9507640000000001</v>
+        <v>0.883132</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.244853</v>
+        <v>0.257926</v>
       </c>
       <c r="C115" t="n">
-        <v>0.208253</v>
+        <v>0.202245</v>
       </c>
       <c r="D115" t="n">
-        <v>0.922154</v>
+        <v>0.934109</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.258658</v>
+        <v>0.269805</v>
       </c>
       <c r="C116" t="n">
-        <v>0.199296</v>
+        <v>0.216416</v>
       </c>
       <c r="D116" t="n">
-        <v>0.92524</v>
+        <v>0.9320349999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.266473</v>
+        <v>0.258035</v>
       </c>
       <c r="C117" t="n">
-        <v>0.212393</v>
+        <v>0.200017</v>
       </c>
       <c r="D117" t="n">
-        <v>1.03648</v>
+        <v>0.957502</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.264076</v>
+        <v>0.267104</v>
       </c>
       <c r="C118" t="n">
-        <v>0.211318</v>
+        <v>0.218792</v>
       </c>
       <c r="D118" t="n">
-        <v>1.00509</v>
+        <v>0.995012</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.286914</v>
+        <v>0.289842</v>
       </c>
       <c r="C119" t="n">
-        <v>0.227252</v>
+        <v>0.236964</v>
       </c>
       <c r="D119" t="n">
-        <v>1.04151</v>
+        <v>1.03104</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.308848</v>
+        <v>0.322212</v>
       </c>
       <c r="C120" t="n">
-        <v>0.218606</v>
+        <v>0.222583</v>
       </c>
       <c r="D120" t="n">
-        <v>1.04524</v>
+        <v>1.0716</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.32823</v>
+        <v>0.352266</v>
       </c>
       <c r="C121" t="n">
-        <v>0.253182</v>
+        <v>0.236493</v>
       </c>
       <c r="D121" t="n">
-        <v>0.825458</v>
+        <v>0.794522</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.37517</v>
+        <v>0.379097</v>
       </c>
       <c r="C122" t="n">
-        <v>0.264726</v>
+        <v>0.265613</v>
       </c>
       <c r="D122" t="n">
-        <v>0.836843</v>
+        <v>0.815987</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.442257</v>
+        <v>0.436724</v>
       </c>
       <c r="C123" t="n">
-        <v>0.2896</v>
+        <v>0.294403</v>
       </c>
       <c r="D123" t="n">
-        <v>0.843319</v>
+        <v>0.8447170000000001</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.376304</v>
+        <v>0.368841</v>
       </c>
       <c r="C124" t="n">
-        <v>0.300587</v>
+        <v>0.297671</v>
       </c>
       <c r="D124" t="n">
-        <v>0.945238</v>
+        <v>0.8678979999999999</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.377881</v>
+        <v>0.375161</v>
       </c>
       <c r="C125" t="n">
-        <v>0.297671</v>
+        <v>0.295072</v>
       </c>
       <c r="D125" t="n">
-        <v>0.906297</v>
+        <v>0.8962869999999999</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.376343</v>
+        <v>0.37254</v>
       </c>
       <c r="C126" t="n">
-        <v>0.293273</v>
+        <v>0.315414</v>
       </c>
       <c r="D126" t="n">
-        <v>1.02897</v>
+        <v>0.921611</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.374081</v>
+        <v>0.385459</v>
       </c>
       <c r="C127" t="n">
-        <v>0.301187</v>
+        <v>0.299788</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9478569999999999</v>
+        <v>0.967224</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.389357</v>
+        <v>0.378589</v>
       </c>
       <c r="C128" t="n">
-        <v>0.306531</v>
+        <v>0.311424</v>
       </c>
       <c r="D128" t="n">
-        <v>0.992294</v>
+        <v>0.981896</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.389926</v>
+        <v>0.392059</v>
       </c>
       <c r="C129" t="n">
-        <v>0.306939</v>
+        <v>0.305225</v>
       </c>
       <c r="D129" t="n">
-        <v>1.10133</v>
+        <v>1.01675</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.406883</v>
+        <v>0.39809</v>
       </c>
       <c r="C130" t="n">
-        <v>0.312818</v>
+        <v>0.315842</v>
       </c>
       <c r="D130" t="n">
-        <v>1.03889</v>
+        <v>1.0603</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.411739</v>
+        <v>0.400869</v>
       </c>
       <c r="C131" t="n">
-        <v>0.30669</v>
+        <v>0.314387</v>
       </c>
       <c r="D131" t="n">
-        <v>1.11368</v>
+        <v>1.07209</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.408719</v>
+        <v>0.417806</v>
       </c>
       <c r="C132" t="n">
-        <v>0.333496</v>
+        <v>0.325983</v>
       </c>
       <c r="D132" t="n">
-        <v>1.13582</v>
+        <v>1.13176</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.44428</v>
+        <v>0.438953</v>
       </c>
       <c r="C133" t="n">
-        <v>0.347041</v>
+        <v>0.327914</v>
       </c>
       <c r="D133" t="n">
-        <v>1.17589</v>
+        <v>1.20395</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.458963</v>
+        <v>0.452615</v>
       </c>
       <c r="C134" t="n">
-        <v>0.335705</v>
+        <v>0.346424</v>
       </c>
       <c r="D134" t="n">
-        <v>1.20347</v>
+        <v>1.22963</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.492849</v>
+        <v>0.490406</v>
       </c>
       <c r="C135" t="n">
-        <v>0.348497</v>
+        <v>0.356399</v>
       </c>
       <c r="D135" t="n">
-        <v>0.988973</v>
+        <v>0.958805</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.548455</v>
+        <v>0.54477</v>
       </c>
       <c r="C136" t="n">
-        <v>0.369689</v>
+        <v>0.379696</v>
       </c>
       <c r="D136" t="n">
-        <v>0.993611</v>
+        <v>1.00592</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.633558</v>
+        <v>0.618237</v>
       </c>
       <c r="C137" t="n">
-        <v>0.355174</v>
+        <v>0.354728</v>
       </c>
       <c r="D137" t="n">
-        <v>1.04529</v>
+        <v>1.03081</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.454715</v>
+        <v>0.45338</v>
       </c>
       <c r="C138" t="n">
-        <v>0.343483</v>
+        <v>0.362312</v>
       </c>
       <c r="D138" t="n">
-        <v>1.06431</v>
+        <v>1.07413</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.456502</v>
+        <v>0.465602</v>
       </c>
       <c r="C139" t="n">
-        <v>0.349775</v>
+        <v>0.358811</v>
       </c>
       <c r="D139" t="n">
-        <v>1.09238</v>
+        <v>1.11259</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.463538</v>
+        <v>0.459042</v>
       </c>
       <c r="C140" t="n">
-        <v>0.357301</v>
+        <v>0.368029</v>
       </c>
       <c r="D140" t="n">
-        <v>1.13924</v>
+        <v>1.14921</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.460068</v>
+        <v>0.460825</v>
       </c>
       <c r="C141" t="n">
-        <v>0.355586</v>
+        <v>0.366254</v>
       </c>
       <c r="D141" t="n">
-        <v>1.17847</v>
+        <v>1.18173</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.473046</v>
+        <v>0.462591</v>
       </c>
       <c r="C142" t="n">
-        <v>0.361173</v>
+        <v>0.367895</v>
       </c>
       <c r="D142" t="n">
-        <v>1.20592</v>
+        <v>1.20868</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.478399</v>
+        <v>0.478866</v>
       </c>
       <c r="C143" t="n">
-        <v>0.363554</v>
+        <v>0.371265</v>
       </c>
       <c r="D143" t="n">
-        <v>1.2501</v>
+        <v>1.25752</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0615432</v>
+        <v>0.0608446</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0704881</v>
+        <v>0.0750846</v>
       </c>
       <c r="D2" t="n">
-        <v>0.171856</v>
+        <v>0.170719</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0626617</v>
+        <v>0.0636427</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0734755</v>
+        <v>0.0768337</v>
       </c>
       <c r="D3" t="n">
-        <v>0.175729</v>
+        <v>0.173216</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0651101</v>
+        <v>0.0654551</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0726361</v>
+        <v>0.0744013</v>
       </c>
       <c r="D4" t="n">
-        <v>0.179022</v>
+        <v>0.180082</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0735304</v>
+        <v>0.0720494</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0744351</v>
+        <v>0.0769585</v>
       </c>
       <c r="D5" t="n">
-        <v>0.185437</v>
+        <v>0.193234</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0856455</v>
+        <v>0.0811566</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0829352</v>
+        <v>0.0819334</v>
       </c>
       <c r="D6" t="n">
-        <v>0.191534</v>
+        <v>0.187919</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0982175</v>
+        <v>0.09979979999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08801059999999999</v>
+        <v>0.0892902</v>
       </c>
       <c r="D7" t="n">
-        <v>0.154224</v>
+        <v>0.153204</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.125555</v>
+        <v>0.123787</v>
       </c>
       <c r="C8" t="n">
-        <v>0.10168</v>
+        <v>0.09919020000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.161392</v>
+        <v>0.159378</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.158756</v>
+        <v>0.158083</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0697749</v>
+        <v>0.0745647</v>
       </c>
       <c r="D9" t="n">
-        <v>0.166686</v>
+        <v>0.168148</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0594885</v>
+        <v>0.0598554</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0701705</v>
+        <v>0.0718384</v>
       </c>
       <c r="D10" t="n">
-        <v>0.167639</v>
+        <v>0.167688</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0602366</v>
+        <v>0.0592505</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0687725</v>
+        <v>0.0719241</v>
       </c>
       <c r="D11" t="n">
-        <v>0.173581</v>
+        <v>0.166001</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0611952</v>
+        <v>0.0617413</v>
       </c>
       <c r="C12" t="n">
-        <v>0.070656</v>
+        <v>0.07267949999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.183122</v>
+        <v>0.180441</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0612882</v>
+        <v>0.0612602</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0677093</v>
+        <v>0.0753004</v>
       </c>
       <c r="D13" t="n">
-        <v>0.185644</v>
+        <v>0.178145</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0624642</v>
+        <v>0.06304410000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0700547</v>
+        <v>0.0731053</v>
       </c>
       <c r="D14" t="n">
-        <v>0.191926</v>
+        <v>0.187188</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.06437560000000001</v>
+        <v>0.0633592</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0708357</v>
+        <v>0.07374020000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.193134</v>
+        <v>0.192289</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0667109</v>
+        <v>0.0661231</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0725919</v>
+        <v>0.0727213</v>
       </c>
       <c r="D16" t="n">
-        <v>0.201568</v>
+        <v>0.199399</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0695491</v>
+        <v>0.0657228</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07309350000000001</v>
+        <v>0.0745995</v>
       </c>
       <c r="D17" t="n">
-        <v>0.207753</v>
+        <v>0.19696</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0732676</v>
+        <v>0.0708469</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0733564</v>
+        <v>0.0775011</v>
       </c>
       <c r="D18" t="n">
-        <v>0.207498</v>
+        <v>0.200243</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0800667</v>
+        <v>0.0747913</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07582659999999999</v>
+        <v>0.0788432</v>
       </c>
       <c r="D19" t="n">
-        <v>0.206889</v>
+        <v>0.207252</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0859091</v>
+        <v>0.0844075</v>
       </c>
       <c r="C20" t="n">
-        <v>0.082704</v>
+        <v>0.0845228</v>
       </c>
       <c r="D20" t="n">
-        <v>0.219343</v>
+        <v>0.20841</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0957809</v>
+        <v>0.0972404</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08984540000000001</v>
+        <v>0.09480909999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.165213</v>
+        <v>0.163127</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.116706</v>
+        <v>0.119099</v>
       </c>
       <c r="C22" t="n">
-        <v>0.100944</v>
+        <v>0.0980838</v>
       </c>
       <c r="D22" t="n">
-        <v>0.170039</v>
+        <v>0.172423</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.153298</v>
+        <v>0.15187</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0686264</v>
+        <v>0.07271089999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.173077</v>
+        <v>0.172912</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.062949</v>
+        <v>0.0644791</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0693561</v>
+        <v>0.07380059999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.18269</v>
+        <v>0.181177</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.06336559999999999</v>
+        <v>0.0633519</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0711678</v>
+        <v>0.0728346</v>
       </c>
       <c r="D25" t="n">
-        <v>0.185356</v>
+        <v>0.184311</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0652471</v>
+        <v>0.0661426</v>
       </c>
       <c r="C26" t="n">
-        <v>0.07004390000000001</v>
+        <v>0.0734992</v>
       </c>
       <c r="D26" t="n">
-        <v>0.191201</v>
+        <v>0.188702</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0676586</v>
+        <v>0.0651866</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0690224</v>
+        <v>0.07356550000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.202891</v>
+        <v>0.199541</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0671025</v>
+        <v>0.06591959999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0701299</v>
+        <v>0.07617069999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.199582</v>
+        <v>0.202048</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.06744989999999999</v>
+        <v>0.0683922</v>
       </c>
       <c r="C29" t="n">
-        <v>0.070282</v>
+        <v>0.0762475</v>
       </c>
       <c r="D29" t="n">
-        <v>0.209276</v>
+        <v>0.211251</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0713323</v>
+        <v>0.0692474</v>
       </c>
       <c r="C30" t="n">
-        <v>0.07143099999999999</v>
+        <v>0.0744083</v>
       </c>
       <c r="D30" t="n">
-        <v>0.21402</v>
+        <v>0.21699</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0738712</v>
+        <v>0.0694809</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0757529</v>
+        <v>0.0760159</v>
       </c>
       <c r="D31" t="n">
-        <v>0.220795</v>
+        <v>0.216628</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0759624</v>
+        <v>0.0746984</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0745605</v>
+        <v>0.07972410000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.221677</v>
+        <v>0.229671</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0793387</v>
+        <v>0.0787949</v>
       </c>
       <c r="C33" t="n">
-        <v>0.07904700000000001</v>
+        <v>0.0809507</v>
       </c>
       <c r="D33" t="n">
-        <v>0.233217</v>
+        <v>0.230237</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0884578</v>
+        <v>0.0902226</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0836355</v>
+        <v>0.0859891</v>
       </c>
       <c r="D34" t="n">
-        <v>0.236496</v>
+        <v>0.244967</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0991524</v>
+        <v>0.0998222</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0884123</v>
+        <v>0.0919772</v>
       </c>
       <c r="D35" t="n">
-        <v>0.177397</v>
+        <v>0.182125</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.11452</v>
+        <v>0.116573</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0970313</v>
+        <v>0.101168</v>
       </c>
       <c r="D36" t="n">
-        <v>0.183998</v>
+        <v>0.189285</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.146432</v>
+        <v>0.149483</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0704409</v>
+        <v>0.075228</v>
       </c>
       <c r="D37" t="n">
-        <v>0.197221</v>
+        <v>0.199736</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0694246</v>
+        <v>0.066453</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07324509999999999</v>
+        <v>0.0769576</v>
       </c>
       <c r="D38" t="n">
-        <v>0.197697</v>
+        <v>0.202671</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0693566</v>
+        <v>0.0699497</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07181899999999999</v>
+        <v>0.07567790000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.204982</v>
+        <v>0.213965</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.069526</v>
+        <v>0.06947639999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07253279999999999</v>
+        <v>0.07681259999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.220294</v>
+        <v>0.217446</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0731011</v>
+        <v>0.06965440000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0708289</v>
+        <v>0.07693</v>
       </c>
       <c r="D41" t="n">
-        <v>0.233522</v>
+        <v>0.222022</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.07242850000000001</v>
+        <v>0.0715234</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0730917</v>
+        <v>0.0773443</v>
       </c>
       <c r="D42" t="n">
-        <v>0.231121</v>
+        <v>0.239387</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0763901</v>
+        <v>0.072422</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0727159</v>
+        <v>0.0764812</v>
       </c>
       <c r="D43" t="n">
-        <v>0.244601</v>
+        <v>0.246246</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.07579329999999999</v>
+        <v>0.0731662</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07291010000000001</v>
+        <v>0.0801451</v>
       </c>
       <c r="D44" t="n">
-        <v>0.250999</v>
+        <v>0.248268</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0787562</v>
+        <v>0.075137</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07552440000000001</v>
+        <v>0.078578</v>
       </c>
       <c r="D45" t="n">
-        <v>0.268431</v>
+        <v>0.265845</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0778983</v>
+        <v>0.07974489999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0753993</v>
+        <v>0.0823092</v>
       </c>
       <c r="D46" t="n">
-        <v>0.281978</v>
+        <v>0.273321</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0839675</v>
+        <v>0.0844246</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0814527</v>
+        <v>0.082743</v>
       </c>
       <c r="D47" t="n">
-        <v>0.283241</v>
+        <v>0.289863</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0924363</v>
+        <v>0.09297179999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.08279160000000001</v>
+        <v>0.0870798</v>
       </c>
       <c r="D48" t="n">
-        <v>0.298889</v>
+        <v>0.30268</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.10479</v>
+        <v>0.101162</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0909872</v>
+        <v>0.0906724</v>
       </c>
       <c r="D49" t="n">
-        <v>0.318629</v>
+        <v>0.31896</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.117961</v>
+        <v>0.115483</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1022</v>
+        <v>0.100968</v>
       </c>
       <c r="D50" t="n">
-        <v>0.233385</v>
+        <v>0.23019</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.146989</v>
+        <v>0.144857</v>
       </c>
       <c r="C51" t="n">
-        <v>0.07583239999999999</v>
+        <v>0.08104690000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.248307</v>
+        <v>0.248664</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.189777</v>
+        <v>0.187636</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0769082</v>
+        <v>0.08213230000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.251338</v>
+        <v>0.257421</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.078973</v>
+        <v>0.08199380000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07785889999999999</v>
+        <v>0.08199679999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.270012</v>
+        <v>0.269901</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.08180129999999999</v>
+        <v>0.08007019999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0772883</v>
+        <v>0.08264340000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.290529</v>
+        <v>0.278928</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0838354</v>
+        <v>0.08094320000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0765771</v>
+        <v>0.08101129999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.307374</v>
+        <v>0.295806</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.08271199999999999</v>
+        <v>0.0828208</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0776917</v>
+        <v>0.0829008</v>
       </c>
       <c r="D56" t="n">
-        <v>0.331222</v>
+        <v>0.323676</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0841002</v>
+        <v>0.0839232</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0805389</v>
+        <v>0.0820139</v>
       </c>
       <c r="D57" t="n">
-        <v>0.340121</v>
+        <v>0.338412</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0865906</v>
+        <v>0.0862945</v>
       </c>
       <c r="C58" t="n">
-        <v>0.081203</v>
+        <v>0.0868616</v>
       </c>
       <c r="D58" t="n">
-        <v>0.355426</v>
+        <v>0.364292</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0880652</v>
+        <v>0.0898848</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0821909</v>
+        <v>0.0862301</v>
       </c>
       <c r="D59" t="n">
-        <v>0.379043</v>
+        <v>0.37967</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0897674</v>
+        <v>0.09275369999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0849048</v>
+        <v>0.0890394</v>
       </c>
       <c r="D60" t="n">
-        <v>0.395942</v>
+        <v>0.399335</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0995443</v>
+        <v>0.0973098</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0871951</v>
+        <v>0.0892733</v>
       </c>
       <c r="D61" t="n">
-        <v>0.422629</v>
+        <v>0.437056</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.102299</v>
+        <v>0.101898</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0883554</v>
+        <v>0.094065</v>
       </c>
       <c r="D62" t="n">
-        <v>0.438171</v>
+        <v>0.446026</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.111811</v>
+        <v>0.111735</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0925185</v>
+        <v>0.101625</v>
       </c>
       <c r="D63" t="n">
-        <v>0.482639</v>
+        <v>0.473679</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.126766</v>
+        <v>0.126444</v>
       </c>
       <c r="C64" t="n">
-        <v>0.101251</v>
+        <v>0.106279</v>
       </c>
       <c r="D64" t="n">
-        <v>0.341731</v>
+        <v>0.354267</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.15309</v>
+        <v>0.151396</v>
       </c>
       <c r="C65" t="n">
-        <v>0.119237</v>
+        <v>0.123269</v>
       </c>
       <c r="D65" t="n">
-        <v>0.361644</v>
+        <v>0.377567</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.198098</v>
+        <v>0.189809</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0818929</v>
+        <v>0.0842989</v>
       </c>
       <c r="D66" t="n">
-        <v>0.388769</v>
+        <v>0.405063</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0952532</v>
+        <v>0.0894857</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0817988</v>
+        <v>0.0856362</v>
       </c>
       <c r="D67" t="n">
-        <v>0.415074</v>
+        <v>0.419406</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0926912</v>
+        <v>0.0924334</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0830736</v>
+        <v>0.08730069999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.428715</v>
+        <v>0.444011</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.091614</v>
+        <v>0.0939131</v>
       </c>
       <c r="C69" t="n">
-        <v>0.084674</v>
+        <v>0.0901361</v>
       </c>
       <c r="D69" t="n">
-        <v>0.455624</v>
+        <v>0.46581</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0975017</v>
+        <v>0.09972789999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0838887</v>
+        <v>0.10311</v>
       </c>
       <c r="D70" t="n">
-        <v>0.469416</v>
+        <v>0.538855</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0961904</v>
+        <v>0.09929200000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0866422</v>
+        <v>0.09131</v>
       </c>
       <c r="D71" t="n">
-        <v>0.490697</v>
+        <v>0.510944</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.103159</v>
+        <v>0.100672</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0844597</v>
+        <v>0.0962156</v>
       </c>
       <c r="D72" t="n">
-        <v>0.518266</v>
+        <v>0.548133</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.104704</v>
+        <v>0.101995</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0883685</v>
+        <v>0.09324109999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.559986</v>
+        <v>0.557393</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.110757</v>
+        <v>0.106706</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0931424</v>
+        <v>0.0965012</v>
       </c>
       <c r="D74" t="n">
-        <v>0.587185</v>
+        <v>0.587543</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.114104</v>
+        <v>0.114008</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0929185</v>
+        <v>0.099719</v>
       </c>
       <c r="D75" t="n">
-        <v>0.595702</v>
+        <v>0.60414</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.128549</v>
+        <v>0.125387</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0994241</v>
+        <v>0.104268</v>
       </c>
       <c r="D76" t="n">
-        <v>0.643946</v>
+        <v>0.633418</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.137605</v>
+        <v>0.132913</v>
       </c>
       <c r="C77" t="n">
-        <v>0.108093</v>
+        <v>0.106637</v>
       </c>
       <c r="D77" t="n">
-        <v>0.656975</v>
+        <v>0.653045</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.15674</v>
+        <v>0.151406</v>
       </c>
       <c r="C78" t="n">
-        <v>0.118977</v>
+        <v>0.115771</v>
       </c>
       <c r="D78" t="n">
-        <v>0.503093</v>
+        <v>0.494962</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.186101</v>
+        <v>0.181927</v>
       </c>
       <c r="C79" t="n">
-        <v>0.132054</v>
+        <v>0.130882</v>
       </c>
       <c r="D79" t="n">
-        <v>0.505825</v>
+        <v>0.521614</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.230064</v>
+        <v>0.231943</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0898583</v>
+        <v>0.0938345</v>
       </c>
       <c r="D80" t="n">
-        <v>0.54047</v>
+        <v>0.532439</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.121155</v>
+        <v>0.111146</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09199830000000001</v>
+        <v>0.09549340000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.566087</v>
+        <v>0.557335</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.112205</v>
+        <v>0.114558</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0924783</v>
+        <v>0.0999655</v>
       </c>
       <c r="D82" t="n">
-        <v>0.577207</v>
+        <v>0.592268</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.113572</v>
+        <v>0.119138</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0947385</v>
+        <v>0.0977031</v>
       </c>
       <c r="D83" t="n">
-        <v>0.606923</v>
+        <v>0.591597</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.120512</v>
+        <v>0.11827</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0984211</v>
+        <v>0.10456</v>
       </c>
       <c r="D84" t="n">
-        <v>0.621681</v>
+        <v>0.6292140000000001</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.118276</v>
+        <v>0.118569</v>
       </c>
       <c r="C85" t="n">
-        <v>0.10091</v>
+        <v>0.101399</v>
       </c>
       <c r="D85" t="n">
-        <v>0.660772</v>
+        <v>0.652855</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.124965</v>
+        <v>0.123936</v>
       </c>
       <c r="C86" t="n">
-        <v>0.102059</v>
+        <v>0.106166</v>
       </c>
       <c r="D86" t="n">
-        <v>0.698971</v>
+        <v>0.680151</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.127854</v>
+        <v>0.13514</v>
       </c>
       <c r="C87" t="n">
-        <v>0.104138</v>
+        <v>0.114914</v>
       </c>
       <c r="D87" t="n">
-        <v>0.71672</v>
+        <v>0.721594</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.131581</v>
+        <v>0.136687</v>
       </c>
       <c r="C88" t="n">
-        <v>0.107508</v>
+        <v>0.112036</v>
       </c>
       <c r="D88" t="n">
-        <v>0.7206669999999999</v>
+        <v>0.723588</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.136048</v>
+        <v>0.142274</v>
       </c>
       <c r="C89" t="n">
-        <v>0.106108</v>
+        <v>0.120311</v>
       </c>
       <c r="D89" t="n">
-        <v>0.747861</v>
+        <v>0.755643</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.148978</v>
+        <v>0.154155</v>
       </c>
       <c r="C90" t="n">
-        <v>0.110854</v>
+        <v>0.118224</v>
       </c>
       <c r="D90" t="n">
-        <v>0.781094</v>
+        <v>0.801814</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.161568</v>
+        <v>0.164774</v>
       </c>
       <c r="C91" t="n">
-        <v>0.119172</v>
+        <v>0.120952</v>
       </c>
       <c r="D91" t="n">
-        <v>0.822286</v>
+        <v>0.811099</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.177038</v>
+        <v>0.181065</v>
       </c>
       <c r="C92" t="n">
-        <v>0.127741</v>
+        <v>0.134791</v>
       </c>
       <c r="D92" t="n">
-        <v>0.620569</v>
+        <v>0.636923</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.19982</v>
+        <v>0.197398</v>
       </c>
       <c r="C93" t="n">
-        <v>0.144662</v>
+        <v>0.148915</v>
       </c>
       <c r="D93" t="n">
-        <v>0.638769</v>
+        <v>0.659911</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.247742</v>
+        <v>0.246929</v>
       </c>
       <c r="C94" t="n">
-        <v>0.109517</v>
+        <v>0.114227</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6493</v>
+        <v>0.661496</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.139456</v>
+        <v>0.138638</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1118</v>
+        <v>0.115022</v>
       </c>
       <c r="D95" t="n">
-        <v>0.687602</v>
+        <v>0.719062</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.142674</v>
+        <v>0.136572</v>
       </c>
       <c r="C96" t="n">
-        <v>0.113026</v>
+        <v>0.115695</v>
       </c>
       <c r="D96" t="n">
-        <v>0.698751</v>
+        <v>0.704382</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.146995</v>
+        <v>0.14042</v>
       </c>
       <c r="C97" t="n">
-        <v>0.116617</v>
+        <v>0.117956</v>
       </c>
       <c r="D97" t="n">
-        <v>0.753306</v>
+        <v>0.74373</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.156371</v>
+        <v>0.151008</v>
       </c>
       <c r="C98" t="n">
-        <v>0.119576</v>
+        <v>0.120902</v>
       </c>
       <c r="D98" t="n">
-        <v>0.744128</v>
+        <v>0.765419</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.153953</v>
+        <v>0.15342</v>
       </c>
       <c r="C99" t="n">
-        <v>0.122331</v>
+        <v>0.128429</v>
       </c>
       <c r="D99" t="n">
-        <v>0.761507</v>
+        <v>0.779817</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.152784</v>
+        <v>0.149552</v>
       </c>
       <c r="C100" t="n">
-        <v>0.126941</v>
+        <v>0.127014</v>
       </c>
       <c r="D100" t="n">
-        <v>0.807521</v>
+        <v>0.78298</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.167896</v>
+        <v>0.157634</v>
       </c>
       <c r="C101" t="n">
-        <v>0.120686</v>
+        <v>0.126658</v>
       </c>
       <c r="D101" t="n">
-        <v>0.84582</v>
+        <v>0.845093</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.168503</v>
+        <v>0.162065</v>
       </c>
       <c r="C102" t="n">
-        <v>0.12371</v>
+        <v>0.132791</v>
       </c>
       <c r="D102" t="n">
-        <v>0.8551800000000001</v>
+        <v>0.841943</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.176078</v>
+        <v>0.175362</v>
       </c>
       <c r="C103" t="n">
-        <v>0.132965</v>
+        <v>0.137606</v>
       </c>
       <c r="D103" t="n">
-        <v>0.890828</v>
+        <v>0.872914</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.185509</v>
+        <v>0.175963</v>
       </c>
       <c r="C104" t="n">
-        <v>0.135002</v>
+        <v>0.143085</v>
       </c>
       <c r="D104" t="n">
-        <v>0.91207</v>
+        <v>0.8985109999999999</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.192801</v>
+        <v>0.1895</v>
       </c>
       <c r="C105" t="n">
-        <v>0.140531</v>
+        <v>0.150464</v>
       </c>
       <c r="D105" t="n">
-        <v>0.930403</v>
+        <v>0.968469</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.205772</v>
+        <v>0.211265</v>
       </c>
       <c r="C106" t="n">
-        <v>0.156522</v>
+        <v>0.159314</v>
       </c>
       <c r="D106" t="n">
-        <v>0.956158</v>
+        <v>0.978366</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.239729</v>
+        <v>0.226968</v>
       </c>
       <c r="C107" t="n">
-        <v>0.164626</v>
+        <v>0.164319</v>
       </c>
       <c r="D107" t="n">
-        <v>0.753038</v>
+        <v>0.747411</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.27268</v>
+        <v>0.269688</v>
       </c>
       <c r="C108" t="n">
-        <v>0.184235</v>
+        <v>0.18883</v>
       </c>
       <c r="D108" t="n">
-        <v>0.765451</v>
+        <v>0.7478089999999999</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.346694</v>
+        <v>0.336439</v>
       </c>
       <c r="C109" t="n">
-        <v>0.187651</v>
+        <v>0.19104</v>
       </c>
       <c r="D109" t="n">
-        <v>0.810189</v>
+        <v>0.785682</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.241664</v>
+        <v>0.232368</v>
       </c>
       <c r="C110" t="n">
-        <v>0.186166</v>
+        <v>0.19345</v>
       </c>
       <c r="D110" t="n">
-        <v>0.7867459999999999</v>
+        <v>0.794727</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.236994</v>
+        <v>0.228295</v>
       </c>
       <c r="C111" t="n">
-        <v>0.194927</v>
+        <v>0.195287</v>
       </c>
       <c r="D111" t="n">
-        <v>0.86139</v>
+        <v>0.817849</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.240993</v>
+        <v>0.240438</v>
       </c>
       <c r="C112" t="n">
-        <v>0.189941</v>
+        <v>0.194958</v>
       </c>
       <c r="D112" t="n">
-        <v>0.83758</v>
+        <v>0.828852</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.255015</v>
+        <v>0.235234</v>
       </c>
       <c r="C113" t="n">
-        <v>0.192054</v>
+        <v>0.196495</v>
       </c>
       <c r="D113" t="n">
-        <v>0.865154</v>
+        <v>0.852142</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.258739</v>
+        <v>0.240843</v>
       </c>
       <c r="C114" t="n">
-        <v>0.204503</v>
+        <v>0.196557</v>
       </c>
       <c r="D114" t="n">
-        <v>0.9507640000000001</v>
+        <v>0.883282</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.244853</v>
+        <v>0.247979</v>
       </c>
       <c r="C115" t="n">
-        <v>0.208253</v>
+        <v>0.199914</v>
       </c>
       <c r="D115" t="n">
-        <v>0.922154</v>
+        <v>0.925076</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.258658</v>
+        <v>0.249899</v>
       </c>
       <c r="C116" t="n">
-        <v>0.199296</v>
+        <v>0.20094</v>
       </c>
       <c r="D116" t="n">
-        <v>0.92524</v>
+        <v>0.941234</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.266473</v>
+        <v>0.257113</v>
       </c>
       <c r="C117" t="n">
-        <v>0.212393</v>
+        <v>0.203775</v>
       </c>
       <c r="D117" t="n">
-        <v>1.03648</v>
+        <v>0.952012</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.264076</v>
+        <v>0.26686</v>
       </c>
       <c r="C118" t="n">
-        <v>0.211318</v>
+        <v>0.218061</v>
       </c>
       <c r="D118" t="n">
-        <v>1.00509</v>
+        <v>0.988899</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.286914</v>
+        <v>0.285024</v>
       </c>
       <c r="C119" t="n">
-        <v>0.227252</v>
+        <v>0.215959</v>
       </c>
       <c r="D119" t="n">
-        <v>1.04151</v>
+        <v>1.01423</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.308848</v>
+        <v>0.297793</v>
       </c>
       <c r="C120" t="n">
-        <v>0.218606</v>
+        <v>0.229888</v>
       </c>
       <c r="D120" t="n">
-        <v>1.04524</v>
+        <v>1.05984</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.32823</v>
+        <v>0.335561</v>
       </c>
       <c r="C121" t="n">
-        <v>0.253182</v>
+        <v>0.243654</v>
       </c>
       <c r="D121" t="n">
-        <v>0.825458</v>
+        <v>0.804014</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.37517</v>
+        <v>0.373441</v>
       </c>
       <c r="C122" t="n">
-        <v>0.264726</v>
+        <v>0.26645</v>
       </c>
       <c r="D122" t="n">
-        <v>0.836843</v>
+        <v>0.829537</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.442257</v>
+        <v>0.434247</v>
       </c>
       <c r="C123" t="n">
-        <v>0.2896</v>
+        <v>0.296628</v>
       </c>
       <c r="D123" t="n">
-        <v>0.843319</v>
+        <v>0.860639</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.376304</v>
+        <v>0.366737</v>
       </c>
       <c r="C124" t="n">
-        <v>0.300587</v>
+        <v>0.298416</v>
       </c>
       <c r="D124" t="n">
-        <v>0.945238</v>
+        <v>0.868343</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.377881</v>
+        <v>0.368383</v>
       </c>
       <c r="C125" t="n">
-        <v>0.297671</v>
+        <v>0.30459</v>
       </c>
       <c r="D125" t="n">
-        <v>0.906297</v>
+        <v>0.8852719999999999</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.376343</v>
+        <v>0.3706</v>
       </c>
       <c r="C126" t="n">
-        <v>0.293273</v>
+        <v>0.322957</v>
       </c>
       <c r="D126" t="n">
-        <v>1.02897</v>
+        <v>0.910523</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.374081</v>
+        <v>0.368697</v>
       </c>
       <c r="C127" t="n">
-        <v>0.301187</v>
+        <v>0.320607</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9478569999999999</v>
+        <v>0.9511770000000001</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.389357</v>
+        <v>0.385373</v>
       </c>
       <c r="C128" t="n">
-        <v>0.306531</v>
+        <v>0.312522</v>
       </c>
       <c r="D128" t="n">
-        <v>0.992294</v>
+        <v>0.981793</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.389926</v>
+        <v>0.393244</v>
       </c>
       <c r="C129" t="n">
-        <v>0.306939</v>
+        <v>0.313002</v>
       </c>
       <c r="D129" t="n">
-        <v>1.10133</v>
+        <v>1.01991</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.406883</v>
+        <v>0.39339</v>
       </c>
       <c r="C130" t="n">
-        <v>0.312818</v>
+        <v>0.31227</v>
       </c>
       <c r="D130" t="n">
-        <v>1.03889</v>
+        <v>1.05158</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.411739</v>
+        <v>0.4069</v>
       </c>
       <c r="C131" t="n">
-        <v>0.30669</v>
+        <v>0.330264</v>
       </c>
       <c r="D131" t="n">
-        <v>1.11368</v>
+        <v>1.09591</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.408719</v>
+        <v>0.412496</v>
       </c>
       <c r="C132" t="n">
-        <v>0.333496</v>
+        <v>0.339427</v>
       </c>
       <c r="D132" t="n">
-        <v>1.13582</v>
+        <v>1.10128</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.44428</v>
+        <v>0.42975</v>
       </c>
       <c r="C133" t="n">
-        <v>0.347041</v>
+        <v>0.33851</v>
       </c>
       <c r="D133" t="n">
-        <v>1.17589</v>
+        <v>1.15041</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.458963</v>
+        <v>0.460301</v>
       </c>
       <c r="C134" t="n">
-        <v>0.335705</v>
+        <v>0.35333</v>
       </c>
       <c r="D134" t="n">
-        <v>1.20347</v>
+        <v>1.20488</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.492849</v>
+        <v>0.488046</v>
       </c>
       <c r="C135" t="n">
-        <v>0.348497</v>
+        <v>0.35405</v>
       </c>
       <c r="D135" t="n">
-        <v>0.988973</v>
+        <v>0.941904</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.548455</v>
+        <v>0.5347460000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>0.369689</v>
+        <v>0.387959</v>
       </c>
       <c r="D136" t="n">
-        <v>0.993611</v>
+        <v>1.00967</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.633558</v>
+        <v>0.6310480000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>0.355174</v>
+        <v>0.361812</v>
       </c>
       <c r="D137" t="n">
-        <v>1.04529</v>
+        <v>1.0198</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.454715</v>
+        <v>0.452475</v>
       </c>
       <c r="C138" t="n">
-        <v>0.343483</v>
+        <v>0.36555</v>
       </c>
       <c r="D138" t="n">
-        <v>1.06431</v>
+        <v>1.07736</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.456502</v>
+        <v>0.449941</v>
       </c>
       <c r="C139" t="n">
-        <v>0.349775</v>
+        <v>0.364643</v>
       </c>
       <c r="D139" t="n">
-        <v>1.09238</v>
+        <v>1.08666</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.463538</v>
+        <v>0.451465</v>
       </c>
       <c r="C140" t="n">
-        <v>0.357301</v>
+        <v>0.371044</v>
       </c>
       <c r="D140" t="n">
-        <v>1.13924</v>
+        <v>1.1353</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.460068</v>
+        <v>0.467784</v>
       </c>
       <c r="C141" t="n">
-        <v>0.355586</v>
+        <v>0.384599</v>
       </c>
       <c r="D141" t="n">
-        <v>1.17847</v>
+        <v>1.16447</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.473046</v>
+        <v>0.470028</v>
       </c>
       <c r="C142" t="n">
-        <v>0.361173</v>
+        <v>0.386953</v>
       </c>
       <c r="D142" t="n">
-        <v>1.20592</v>
+        <v>1.20098</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.478399</v>
+        <v>0.475841</v>
       </c>
       <c r="C143" t="n">
-        <v>0.363554</v>
+        <v>0.382777</v>
       </c>
       <c r="D143" t="n">
-        <v>1.2501</v>
+        <v>1.25172</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0608446</v>
+        <v>0.0623877</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0750846</v>
+        <v>0.0722512</v>
       </c>
       <c r="D2" t="n">
-        <v>0.170719</v>
+        <v>0.166504</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0636427</v>
+        <v>0.063837</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0768337</v>
+        <v>0.0738699</v>
       </c>
       <c r="D3" t="n">
-        <v>0.173216</v>
+        <v>0.172745</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0654551</v>
+        <v>0.06987699999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0744013</v>
+        <v>0.07385419999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.180082</v>
+        <v>0.172881</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0720494</v>
+        <v>0.0716127</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0769585</v>
+        <v>0.0754094</v>
       </c>
       <c r="D5" t="n">
-        <v>0.193234</v>
+        <v>0.177349</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0811566</v>
+        <v>0.08298759999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0819334</v>
+        <v>0.07862760000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.187919</v>
+        <v>0.183086</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.09979979999999999</v>
+        <v>0.0991691</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0892902</v>
+        <v>0.09033819999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.153204</v>
+        <v>0.148405</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.123787</v>
+        <v>0.126097</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09919020000000001</v>
+        <v>0.101128</v>
       </c>
       <c r="D8" t="n">
-        <v>0.159378</v>
+        <v>0.15651</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.158083</v>
+        <v>0.159824</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0745647</v>
+        <v>0.0729865</v>
       </c>
       <c r="D9" t="n">
-        <v>0.168148</v>
+        <v>0.160488</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0598554</v>
+        <v>0.059407</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0718384</v>
+        <v>0.0727903</v>
       </c>
       <c r="D10" t="n">
-        <v>0.167688</v>
+        <v>0.1644</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0592505</v>
+        <v>0.0604427</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0719241</v>
+        <v>0.0732657</v>
       </c>
       <c r="D11" t="n">
-        <v>0.166001</v>
+        <v>0.170165</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0617413</v>
+        <v>0.0604295</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07267949999999999</v>
+        <v>0.0723163</v>
       </c>
       <c r="D12" t="n">
-        <v>0.180441</v>
+        <v>0.174838</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0612602</v>
+        <v>0.0615592</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0753004</v>
+        <v>0.074656</v>
       </c>
       <c r="D13" t="n">
-        <v>0.178145</v>
+        <v>0.176764</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.06304410000000001</v>
+        <v>0.0615933</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0731053</v>
+        <v>0.0720707</v>
       </c>
       <c r="D14" t="n">
-        <v>0.187188</v>
+        <v>0.187508</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0633592</v>
+        <v>0.0627047</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07374020000000001</v>
+        <v>0.0737077</v>
       </c>
       <c r="D15" t="n">
-        <v>0.192289</v>
+        <v>0.18666</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0661231</v>
+        <v>0.0669009</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0727213</v>
+        <v>0.07384499999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.199399</v>
+        <v>0.190742</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0657228</v>
+        <v>0.0666996</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0745995</v>
+        <v>0.0760108</v>
       </c>
       <c r="D17" t="n">
-        <v>0.19696</v>
+        <v>0.206584</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0708469</v>
+        <v>0.07110850000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0775011</v>
+        <v>0.0775628</v>
       </c>
       <c r="D18" t="n">
-        <v>0.200243</v>
+        <v>0.205354</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0747913</v>
+        <v>0.07665130000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0788432</v>
+        <v>0.0792942</v>
       </c>
       <c r="D19" t="n">
-        <v>0.207252</v>
+        <v>0.207078</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0844075</v>
+        <v>0.08783870000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0845228</v>
+        <v>0.0856196</v>
       </c>
       <c r="D20" t="n">
-        <v>0.20841</v>
+        <v>0.212931</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0972404</v>
+        <v>0.0981745</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09480909999999999</v>
+        <v>0.0912886</v>
       </c>
       <c r="D21" t="n">
-        <v>0.163127</v>
+        <v>0.167316</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.119099</v>
+        <v>0.115959</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0980838</v>
+        <v>0.0997253</v>
       </c>
       <c r="D22" t="n">
-        <v>0.172423</v>
+        <v>0.172072</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.15187</v>
+        <v>0.14713</v>
       </c>
       <c r="C23" t="n">
-        <v>0.07271089999999999</v>
+        <v>0.07378850000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.172912</v>
+        <v>0.174995</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0644791</v>
+        <v>0.0637621</v>
       </c>
       <c r="C24" t="n">
-        <v>0.07380059999999999</v>
+        <v>0.07307420000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.181177</v>
+        <v>0.178568</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0633519</v>
+        <v>0.062426</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0728346</v>
+        <v>0.07492269999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.184311</v>
+        <v>0.186286</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0661426</v>
+        <v>0.0636782</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0734992</v>
+        <v>0.0735394</v>
       </c>
       <c r="D26" t="n">
-        <v>0.188702</v>
+        <v>0.189724</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0651866</v>
+        <v>0.0661064</v>
       </c>
       <c r="C27" t="n">
-        <v>0.07356550000000001</v>
+        <v>0.07484789999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.199541</v>
+        <v>0.206432</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.06591959999999999</v>
+        <v>0.0651616</v>
       </c>
       <c r="C28" t="n">
-        <v>0.07617069999999999</v>
+        <v>0.07625899999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.202048</v>
+        <v>0.207675</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0683922</v>
+        <v>0.0682874</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0762475</v>
+        <v>0.0752275</v>
       </c>
       <c r="D29" t="n">
-        <v>0.211251</v>
+        <v>0.21859</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0692474</v>
+        <v>0.0685002</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0744083</v>
+        <v>0.0781152</v>
       </c>
       <c r="D30" t="n">
-        <v>0.21699</v>
+        <v>0.214455</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0694809</v>
+        <v>0.0702248</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0760159</v>
+        <v>0.0769233</v>
       </c>
       <c r="D31" t="n">
-        <v>0.216628</v>
+        <v>0.225567</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0746984</v>
+        <v>0.07250379999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07972410000000001</v>
+        <v>0.0795537</v>
       </c>
       <c r="D32" t="n">
-        <v>0.229671</v>
+        <v>0.22746</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0787949</v>
+        <v>0.07930619999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0809507</v>
+        <v>0.0846462</v>
       </c>
       <c r="D33" t="n">
-        <v>0.230237</v>
+        <v>0.232827</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0902226</v>
+        <v>0.08614719999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0859891</v>
+        <v>0.083846</v>
       </c>
       <c r="D34" t="n">
-        <v>0.244967</v>
+        <v>0.246553</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0998222</v>
+        <v>0.09757059999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0919772</v>
+        <v>0.0900499</v>
       </c>
       <c r="D35" t="n">
-        <v>0.182125</v>
+        <v>0.18081</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.116573</v>
+        <v>0.116458</v>
       </c>
       <c r="C36" t="n">
-        <v>0.101168</v>
+        <v>0.100254</v>
       </c>
       <c r="D36" t="n">
-        <v>0.189285</v>
+        <v>0.188259</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.149483</v>
+        <v>0.139684</v>
       </c>
       <c r="C37" t="n">
-        <v>0.075228</v>
+        <v>0.0771112</v>
       </c>
       <c r="D37" t="n">
-        <v>0.199736</v>
+        <v>0.200554</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.066453</v>
+        <v>0.0688334</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0769576</v>
+        <v>0.07608620000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.202671</v>
+        <v>0.213336</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0699497</v>
+        <v>0.0674859</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07567790000000001</v>
+        <v>0.0761429</v>
       </c>
       <c r="D39" t="n">
-        <v>0.213965</v>
+        <v>0.21207</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.06947639999999999</v>
+        <v>0.0714351</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07681259999999999</v>
+        <v>0.0796497</v>
       </c>
       <c r="D40" t="n">
-        <v>0.217446</v>
+        <v>0.221784</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.06965440000000001</v>
+        <v>0.0725672</v>
       </c>
       <c r="C41" t="n">
-        <v>0.07693</v>
+        <v>0.0770779</v>
       </c>
       <c r="D41" t="n">
-        <v>0.222022</v>
+        <v>0.235014</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0715234</v>
+        <v>0.0713892</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0773443</v>
+        <v>0.07768129999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.239387</v>
+        <v>0.243561</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.072422</v>
+        <v>0.0717991</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0764812</v>
+        <v>0.078069</v>
       </c>
       <c r="D43" t="n">
-        <v>0.246246</v>
+        <v>0.249574</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0731662</v>
+        <v>0.0747871</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0801451</v>
+        <v>0.07775120000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.248268</v>
+        <v>0.257404</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.075137</v>
+        <v>0.0756727</v>
       </c>
       <c r="C45" t="n">
-        <v>0.078578</v>
+        <v>0.08071730000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.265845</v>
+        <v>0.267373</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.07974489999999999</v>
+        <v>0.08068450000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0823092</v>
+        <v>0.0836457</v>
       </c>
       <c r="D46" t="n">
-        <v>0.273321</v>
+        <v>0.27592</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0844246</v>
+        <v>0.08273079999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.082743</v>
+        <v>0.0829114</v>
       </c>
       <c r="D47" t="n">
-        <v>0.289863</v>
+        <v>0.298778</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.09297179999999999</v>
+        <v>0.09207899999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0870798</v>
+        <v>0.0859171</v>
       </c>
       <c r="D48" t="n">
-        <v>0.30268</v>
+        <v>0.304758</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.101162</v>
+        <v>0.102217</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0906724</v>
+        <v>0.09663289999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.31896</v>
+        <v>0.320014</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.115483</v>
+        <v>0.117044</v>
       </c>
       <c r="C50" t="n">
-        <v>0.100968</v>
+        <v>0.104991</v>
       </c>
       <c r="D50" t="n">
-        <v>0.23019</v>
+        <v>0.234832</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.144857</v>
+        <v>0.145876</v>
       </c>
       <c r="C51" t="n">
-        <v>0.08104690000000001</v>
+        <v>0.07914880000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.248664</v>
+        <v>0.241265</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.187636</v>
+        <v>0.188698</v>
       </c>
       <c r="C52" t="n">
-        <v>0.08213230000000001</v>
+        <v>0.0815829</v>
       </c>
       <c r="D52" t="n">
-        <v>0.257421</v>
+        <v>0.266958</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.08199380000000001</v>
+        <v>0.0816735</v>
       </c>
       <c r="C53" t="n">
-        <v>0.08199679999999999</v>
+        <v>0.0831441</v>
       </c>
       <c r="D53" t="n">
-        <v>0.269901</v>
+        <v>0.279556</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.08007019999999999</v>
+        <v>0.08228729999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.08264340000000001</v>
+        <v>0.081038</v>
       </c>
       <c r="D54" t="n">
-        <v>0.278928</v>
+        <v>0.296924</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.08094320000000001</v>
+        <v>0.0821717</v>
       </c>
       <c r="C55" t="n">
-        <v>0.08101129999999999</v>
+        <v>0.08231869999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.295806</v>
+        <v>0.306366</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0828208</v>
+        <v>0.08214059999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0829008</v>
+        <v>0.08303190000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.323676</v>
+        <v>0.333723</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0839232</v>
+        <v>0.0839575</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0820139</v>
+        <v>0.08363180000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.338412</v>
+        <v>0.345394</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0862945</v>
+        <v>0.088648</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0868616</v>
+        <v>0.08887</v>
       </c>
       <c r="D58" t="n">
-        <v>0.364292</v>
+        <v>0.369424</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0898848</v>
+        <v>0.0900779</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0862301</v>
+        <v>0.08713849999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.37967</v>
+        <v>0.401401</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.09275369999999999</v>
+        <v>0.0930735</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0890394</v>
+        <v>0.0869273</v>
       </c>
       <c r="D60" t="n">
-        <v>0.399335</v>
+        <v>0.407577</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0973098</v>
+        <v>0.0948943</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0892733</v>
+        <v>0.08989709999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.437056</v>
+        <v>0.433519</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.101898</v>
+        <v>0.104271</v>
       </c>
       <c r="C62" t="n">
-        <v>0.094065</v>
+        <v>0.0927564</v>
       </c>
       <c r="D62" t="n">
-        <v>0.446026</v>
+        <v>0.463238</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.111735</v>
+        <v>0.114131</v>
       </c>
       <c r="C63" t="n">
-        <v>0.101625</v>
+        <v>0.0988266</v>
       </c>
       <c r="D63" t="n">
-        <v>0.473679</v>
+        <v>0.485055</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.126444</v>
+        <v>0.127689</v>
       </c>
       <c r="C64" t="n">
-        <v>0.106279</v>
+        <v>0.107847</v>
       </c>
       <c r="D64" t="n">
-        <v>0.354267</v>
+        <v>0.351703</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.151396</v>
+        <v>0.15084</v>
       </c>
       <c r="C65" t="n">
-        <v>0.123269</v>
+        <v>0.120182</v>
       </c>
       <c r="D65" t="n">
-        <v>0.377567</v>
+        <v>0.392655</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.189809</v>
+        <v>0.19785</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0842989</v>
+        <v>0.0851503</v>
       </c>
       <c r="D66" t="n">
-        <v>0.405063</v>
+        <v>0.408257</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0894857</v>
+        <v>0.0904939</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0856362</v>
+        <v>0.08493539999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.419406</v>
+        <v>0.406997</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0924334</v>
+        <v>0.0916429</v>
       </c>
       <c r="C68" t="n">
-        <v>0.08730069999999999</v>
+        <v>0.08667329999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.444011</v>
+        <v>0.437376</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0939131</v>
+        <v>0.0955782</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0901361</v>
+        <v>0.0897448</v>
       </c>
       <c r="D69" t="n">
-        <v>0.46581</v>
+        <v>0.460506</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.09972789999999999</v>
+        <v>0.09529559999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.10311</v>
+        <v>0.08884019999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.538855</v>
+        <v>0.47134</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.09929200000000001</v>
+        <v>0.0980843</v>
       </c>
       <c r="C71" t="n">
-        <v>0.09131</v>
+        <v>0.08960460000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.510944</v>
+        <v>0.515015</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.100672</v>
+        <v>0.0997411</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0962156</v>
+        <v>0.0923639</v>
       </c>
       <c r="D72" t="n">
-        <v>0.548133</v>
+        <v>0.531782</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.101995</v>
+        <v>0.104149</v>
       </c>
       <c r="C73" t="n">
-        <v>0.09324109999999999</v>
+        <v>0.0944189</v>
       </c>
       <c r="D73" t="n">
-        <v>0.557393</v>
+        <v>0.566454</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.106706</v>
+        <v>0.112009</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0965012</v>
+        <v>0.0988407</v>
       </c>
       <c r="D74" t="n">
-        <v>0.587543</v>
+        <v>0.594437</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.114008</v>
+        <v>0.117691</v>
       </c>
       <c r="C75" t="n">
-        <v>0.099719</v>
+        <v>0.0990007</v>
       </c>
       <c r="D75" t="n">
-        <v>0.60414</v>
+        <v>0.611338</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.125387</v>
+        <v>0.126291</v>
       </c>
       <c r="C76" t="n">
-        <v>0.104268</v>
+        <v>0.107815</v>
       </c>
       <c r="D76" t="n">
-        <v>0.633418</v>
+        <v>0.655688</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.132913</v>
+        <v>0.138263</v>
       </c>
       <c r="C77" t="n">
-        <v>0.106637</v>
+        <v>0.117188</v>
       </c>
       <c r="D77" t="n">
-        <v>0.653045</v>
+        <v>0.6745719999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.151406</v>
+        <v>0.155157</v>
       </c>
       <c r="C78" t="n">
-        <v>0.115771</v>
+        <v>0.120695</v>
       </c>
       <c r="D78" t="n">
-        <v>0.494962</v>
+        <v>0.510068</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.181927</v>
+        <v>0.186024</v>
       </c>
       <c r="C79" t="n">
-        <v>0.130882</v>
+        <v>0.138346</v>
       </c>
       <c r="D79" t="n">
-        <v>0.521614</v>
+        <v>0.525719</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.231943</v>
+        <v>0.219732</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0938345</v>
+        <v>0.0973329</v>
       </c>
       <c r="D80" t="n">
-        <v>0.532439</v>
+        <v>0.566227</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.111146</v>
+        <v>0.115276</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09549340000000001</v>
+        <v>0.09753820000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.557335</v>
+        <v>0.552103</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.114558</v>
+        <v>0.108551</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0999655</v>
+        <v>0.100262</v>
       </c>
       <c r="D82" t="n">
-        <v>0.592268</v>
+        <v>0.581331</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.119138</v>
+        <v>0.11422</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0977031</v>
+        <v>0.09917430000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.591597</v>
+        <v>0.609457</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.11827</v>
+        <v>0.115325</v>
       </c>
       <c r="C84" t="n">
-        <v>0.10456</v>
+        <v>0.100518</v>
       </c>
       <c r="D84" t="n">
-        <v>0.6292140000000001</v>
+        <v>0.6409629999999999</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.118569</v>
+        <v>0.122393</v>
       </c>
       <c r="C85" t="n">
-        <v>0.101399</v>
+        <v>0.102506</v>
       </c>
       <c r="D85" t="n">
-        <v>0.652855</v>
+        <v>0.676992</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.123936</v>
+        <v>0.121821</v>
       </c>
       <c r="C86" t="n">
-        <v>0.106166</v>
+        <v>0.102445</v>
       </c>
       <c r="D86" t="n">
-        <v>0.680151</v>
+        <v>0.684295</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.13514</v>
+        <v>0.126631</v>
       </c>
       <c r="C87" t="n">
-        <v>0.114914</v>
+        <v>0.106959</v>
       </c>
       <c r="D87" t="n">
-        <v>0.721594</v>
+        <v>0.726475</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.136687</v>
+        <v>0.132926</v>
       </c>
       <c r="C88" t="n">
-        <v>0.112036</v>
+        <v>0.108822</v>
       </c>
       <c r="D88" t="n">
-        <v>0.723588</v>
+        <v>0.7382069999999999</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.142274</v>
+        <v>0.139928</v>
       </c>
       <c r="C89" t="n">
-        <v>0.120311</v>
+        <v>0.1121</v>
       </c>
       <c r="D89" t="n">
-        <v>0.755643</v>
+        <v>0.75895</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.154155</v>
+        <v>0.150898</v>
       </c>
       <c r="C90" t="n">
-        <v>0.118224</v>
+        <v>0.116906</v>
       </c>
       <c r="D90" t="n">
-        <v>0.801814</v>
+        <v>0.801872</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.164774</v>
+        <v>0.157916</v>
       </c>
       <c r="C91" t="n">
-        <v>0.120952</v>
+        <v>0.124902</v>
       </c>
       <c r="D91" t="n">
-        <v>0.811099</v>
+        <v>0.836287</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.181065</v>
+        <v>0.17611</v>
       </c>
       <c r="C92" t="n">
-        <v>0.134791</v>
+        <v>0.135653</v>
       </c>
       <c r="D92" t="n">
-        <v>0.636923</v>
+        <v>0.6364069999999999</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.197398</v>
+        <v>0.199786</v>
       </c>
       <c r="C93" t="n">
-        <v>0.148915</v>
+        <v>0.144527</v>
       </c>
       <c r="D93" t="n">
-        <v>0.659911</v>
+        <v>0.665054</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.246929</v>
+        <v>0.235083</v>
       </c>
       <c r="C94" t="n">
-        <v>0.114227</v>
+        <v>0.114078</v>
       </c>
       <c r="D94" t="n">
-        <v>0.661496</v>
+        <v>0.676282</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.138638</v>
+        <v>0.137424</v>
       </c>
       <c r="C95" t="n">
-        <v>0.115022</v>
+        <v>0.118404</v>
       </c>
       <c r="D95" t="n">
-        <v>0.719062</v>
+        <v>0.699757</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.136572</v>
+        <v>0.141943</v>
       </c>
       <c r="C96" t="n">
-        <v>0.115695</v>
+        <v>0.1206</v>
       </c>
       <c r="D96" t="n">
-        <v>0.704382</v>
+        <v>0.714925</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.14042</v>
+        <v>0.141755</v>
       </c>
       <c r="C97" t="n">
-        <v>0.117956</v>
+        <v>0.119415</v>
       </c>
       <c r="D97" t="n">
-        <v>0.74373</v>
+        <v>0.734743</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.151008</v>
+        <v>0.14944</v>
       </c>
       <c r="C98" t="n">
-        <v>0.120902</v>
+        <v>0.119657</v>
       </c>
       <c r="D98" t="n">
-        <v>0.765419</v>
+        <v>0.756142</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.15342</v>
+        <v>0.156455</v>
       </c>
       <c r="C99" t="n">
-        <v>0.128429</v>
+        <v>0.125153</v>
       </c>
       <c r="D99" t="n">
-        <v>0.779817</v>
+        <v>0.775499</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.149552</v>
+        <v>0.151586</v>
       </c>
       <c r="C100" t="n">
-        <v>0.127014</v>
+        <v>0.126486</v>
       </c>
       <c r="D100" t="n">
-        <v>0.78298</v>
+        <v>0.840992</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.157634</v>
+        <v>0.157828</v>
       </c>
       <c r="C101" t="n">
-        <v>0.126658</v>
+        <v>0.130201</v>
       </c>
       <c r="D101" t="n">
-        <v>0.845093</v>
+        <v>0.857147</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.162065</v>
+        <v>0.160346</v>
       </c>
       <c r="C102" t="n">
-        <v>0.132791</v>
+        <v>0.135968</v>
       </c>
       <c r="D102" t="n">
-        <v>0.841943</v>
+        <v>0.87718</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.175362</v>
+        <v>0.173095</v>
       </c>
       <c r="C103" t="n">
-        <v>0.137606</v>
+        <v>0.140367</v>
       </c>
       <c r="D103" t="n">
-        <v>0.872914</v>
+        <v>0.897208</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.175963</v>
+        <v>0.180993</v>
       </c>
       <c r="C104" t="n">
-        <v>0.143085</v>
+        <v>0.139481</v>
       </c>
       <c r="D104" t="n">
-        <v>0.8985109999999999</v>
+        <v>0.943171</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1895</v>
+        <v>0.187176</v>
       </c>
       <c r="C105" t="n">
-        <v>0.150464</v>
+        <v>0.147237</v>
       </c>
       <c r="D105" t="n">
-        <v>0.968469</v>
+        <v>0.949386</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.211265</v>
+        <v>0.210031</v>
       </c>
       <c r="C106" t="n">
-        <v>0.159314</v>
+        <v>0.157342</v>
       </c>
       <c r="D106" t="n">
-        <v>0.978366</v>
+        <v>0.9762110000000001</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.226968</v>
+        <v>0.234134</v>
       </c>
       <c r="C107" t="n">
-        <v>0.164319</v>
+        <v>0.167363</v>
       </c>
       <c r="D107" t="n">
-        <v>0.747411</v>
+        <v>0.7324310000000001</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.269688</v>
+        <v>0.274773</v>
       </c>
       <c r="C108" t="n">
-        <v>0.18883</v>
+        <v>0.185</v>
       </c>
       <c r="D108" t="n">
-        <v>0.7478089999999999</v>
+        <v>0.764889</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.336439</v>
+        <v>0.355952</v>
       </c>
       <c r="C109" t="n">
-        <v>0.19104</v>
+        <v>0.201911</v>
       </c>
       <c r="D109" t="n">
-        <v>0.785682</v>
+        <v>0.805738</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.232368</v>
+        <v>0.227276</v>
       </c>
       <c r="C110" t="n">
-        <v>0.19345</v>
+        <v>0.189257</v>
       </c>
       <c r="D110" t="n">
-        <v>0.794727</v>
+        <v>0.804148</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.228295</v>
+        <v>0.23964</v>
       </c>
       <c r="C111" t="n">
-        <v>0.195287</v>
+        <v>0.20907</v>
       </c>
       <c r="D111" t="n">
-        <v>0.817849</v>
+        <v>0.859702</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.240438</v>
+        <v>0.251918</v>
       </c>
       <c r="C112" t="n">
-        <v>0.194958</v>
+        <v>0.194683</v>
       </c>
       <c r="D112" t="n">
-        <v>0.828852</v>
+        <v>0.842065</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.235234</v>
+        <v>0.234048</v>
       </c>
       <c r="C113" t="n">
-        <v>0.196495</v>
+        <v>0.208012</v>
       </c>
       <c r="D113" t="n">
-        <v>0.852142</v>
+        <v>0.909542</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.240843</v>
+        <v>0.25668</v>
       </c>
       <c r="C114" t="n">
-        <v>0.196557</v>
+        <v>0.204046</v>
       </c>
       <c r="D114" t="n">
-        <v>0.883282</v>
+        <v>0.895741</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.247979</v>
+        <v>0.263918</v>
       </c>
       <c r="C115" t="n">
-        <v>0.199914</v>
+        <v>0.222857</v>
       </c>
       <c r="D115" t="n">
-        <v>0.925076</v>
+        <v>0.919214</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.249899</v>
+        <v>0.25598</v>
       </c>
       <c r="C116" t="n">
-        <v>0.20094</v>
+        <v>0.210329</v>
       </c>
       <c r="D116" t="n">
-        <v>0.941234</v>
+        <v>0.92785</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.257113</v>
+        <v>0.261641</v>
       </c>
       <c r="C117" t="n">
-        <v>0.203775</v>
+        <v>0.211756</v>
       </c>
       <c r="D117" t="n">
-        <v>0.952012</v>
+        <v>0.968846</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.26686</v>
+        <v>0.274476</v>
       </c>
       <c r="C118" t="n">
-        <v>0.218061</v>
+        <v>0.231474</v>
       </c>
       <c r="D118" t="n">
-        <v>0.988899</v>
+        <v>1.08862</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.285024</v>
+        <v>0.29126</v>
       </c>
       <c r="C119" t="n">
-        <v>0.215959</v>
+        <v>0.224628</v>
       </c>
       <c r="D119" t="n">
-        <v>1.01423</v>
+        <v>1.03172</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.297793</v>
+        <v>0.319242</v>
       </c>
       <c r="C120" t="n">
-        <v>0.229888</v>
+        <v>0.230874</v>
       </c>
       <c r="D120" t="n">
-        <v>1.05984</v>
+        <v>1.19312</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.335561</v>
+        <v>0.322359</v>
       </c>
       <c r="C121" t="n">
-        <v>0.243654</v>
+        <v>0.241959</v>
       </c>
       <c r="D121" t="n">
-        <v>0.804014</v>
+        <v>0.812738</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.373441</v>
+        <v>0.384955</v>
       </c>
       <c r="C122" t="n">
-        <v>0.26645</v>
+        <v>0.265004</v>
       </c>
       <c r="D122" t="n">
-        <v>0.829537</v>
+        <v>0.833881</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.434247</v>
+        <v>0.463384</v>
       </c>
       <c r="C123" t="n">
-        <v>0.296628</v>
+        <v>0.296688</v>
       </c>
       <c r="D123" t="n">
-        <v>0.860639</v>
+        <v>0.864057</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.366737</v>
+        <v>0.368272</v>
       </c>
       <c r="C124" t="n">
-        <v>0.298416</v>
+        <v>0.309368</v>
       </c>
       <c r="D124" t="n">
-        <v>0.868343</v>
+        <v>0.886426</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.368383</v>
+        <v>0.373625</v>
       </c>
       <c r="C125" t="n">
-        <v>0.30459</v>
+        <v>0.316303</v>
       </c>
       <c r="D125" t="n">
-        <v>0.8852719999999999</v>
+        <v>0.908257</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.3706</v>
+        <v>0.381807</v>
       </c>
       <c r="C126" t="n">
-        <v>0.322957</v>
+        <v>0.305541</v>
       </c>
       <c r="D126" t="n">
-        <v>0.910523</v>
+        <v>0.935213</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.368697</v>
+        <v>0.378565</v>
       </c>
       <c r="C127" t="n">
-        <v>0.320607</v>
+        <v>0.320611</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9511770000000001</v>
+        <v>1.12428</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.385373</v>
+        <v>0.38724</v>
       </c>
       <c r="C128" t="n">
-        <v>0.312522</v>
+        <v>0.30725</v>
       </c>
       <c r="D128" t="n">
-        <v>0.981793</v>
+        <v>1.0094</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.393244</v>
+        <v>0.391623</v>
       </c>
       <c r="C129" t="n">
-        <v>0.313002</v>
+        <v>0.330873</v>
       </c>
       <c r="D129" t="n">
-        <v>1.01991</v>
+        <v>1.02697</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.39339</v>
+        <v>0.414451</v>
       </c>
       <c r="C130" t="n">
-        <v>0.31227</v>
+        <v>0.330694</v>
       </c>
       <c r="D130" t="n">
-        <v>1.05158</v>
+        <v>1.05945</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.4069</v>
+        <v>0.404975</v>
       </c>
       <c r="C131" t="n">
-        <v>0.330264</v>
+        <v>0.337804</v>
       </c>
       <c r="D131" t="n">
-        <v>1.09591</v>
+        <v>1.10186</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.412496</v>
+        <v>0.42082</v>
       </c>
       <c r="C132" t="n">
-        <v>0.339427</v>
+        <v>0.333385</v>
       </c>
       <c r="D132" t="n">
-        <v>1.10128</v>
+        <v>1.1269</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.42975</v>
+        <v>0.43751</v>
       </c>
       <c r="C133" t="n">
-        <v>0.33851</v>
+        <v>0.353031</v>
       </c>
       <c r="D133" t="n">
-        <v>1.15041</v>
+        <v>1.16926</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.460301</v>
+        <v>0.463947</v>
       </c>
       <c r="C134" t="n">
-        <v>0.35333</v>
+        <v>0.346863</v>
       </c>
       <c r="D134" t="n">
-        <v>1.20488</v>
+        <v>1.24128</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.488046</v>
+        <v>0.488379</v>
       </c>
       <c r="C135" t="n">
-        <v>0.35405</v>
+        <v>0.356813</v>
       </c>
       <c r="D135" t="n">
-        <v>0.941904</v>
+        <v>0.953398</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.5347460000000001</v>
+        <v>0.536309</v>
       </c>
       <c r="C136" t="n">
-        <v>0.387959</v>
+        <v>0.38472</v>
       </c>
       <c r="D136" t="n">
-        <v>1.00967</v>
+        <v>0.995489</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6310480000000001</v>
+        <v>0.612973</v>
       </c>
       <c r="C137" t="n">
-        <v>0.361812</v>
+        <v>0.364217</v>
       </c>
       <c r="D137" t="n">
-        <v>1.0198</v>
+        <v>1.02785</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.452475</v>
+        <v>0.448693</v>
       </c>
       <c r="C138" t="n">
-        <v>0.36555</v>
+        <v>0.369832</v>
       </c>
       <c r="D138" t="n">
-        <v>1.07736</v>
+        <v>1.11092</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.449941</v>
+        <v>0.455191</v>
       </c>
       <c r="C139" t="n">
-        <v>0.364643</v>
+        <v>0.370553</v>
       </c>
       <c r="D139" t="n">
-        <v>1.08666</v>
+        <v>1.09989</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.451465</v>
+        <v>0.471923</v>
       </c>
       <c r="C140" t="n">
-        <v>0.371044</v>
+        <v>0.377671</v>
       </c>
       <c r="D140" t="n">
-        <v>1.1353</v>
+        <v>1.18447</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.467784</v>
+        <v>0.462683</v>
       </c>
       <c r="C141" t="n">
-        <v>0.384599</v>
+        <v>0.379759</v>
       </c>
       <c r="D141" t="n">
-        <v>1.16447</v>
+        <v>1.17036</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.470028</v>
+        <v>0.466482</v>
       </c>
       <c r="C142" t="n">
-        <v>0.386953</v>
+        <v>0.381452</v>
       </c>
       <c r="D142" t="n">
-        <v>1.20098</v>
+        <v>1.22303</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.475841</v>
+        <v>0.474671</v>
       </c>
       <c r="C143" t="n">
-        <v>0.382777</v>
+        <v>0.384666</v>
       </c>
       <c r="D143" t="n">
-        <v>1.25172</v>
+        <v>1.26173</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3213,7 +3213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="G23" sqref="G23"/>
@@ -3246,13 +3246,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0623877</v>
+        <v>0.0588919</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0722512</v>
+        <v>0.168006</v>
       </c>
       <c r="D2" t="n">
-        <v>0.166504</v>
+        <v>0.0711518</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0620699</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3263,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.063837</v>
+        <v>0.06256539999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0738699</v>
+        <v>0.176011</v>
       </c>
       <c r="D3" t="n">
-        <v>0.172745</v>
+        <v>0.07288210000000001</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.06372369999999999</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3280,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06987699999999999</v>
+        <v>0.065946</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07385419999999999</v>
+        <v>0.177025</v>
       </c>
       <c r="D4" t="n">
-        <v>0.172881</v>
+        <v>0.0732766</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0644791</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3297,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0716127</v>
+        <v>0.0735227</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0754094</v>
+        <v>0.181756</v>
       </c>
       <c r="D5" t="n">
-        <v>0.177349</v>
+        <v>0.0749734</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0663917</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3314,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.08298759999999999</v>
+        <v>0.07758859999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07862760000000001</v>
+        <v>0.18562</v>
       </c>
       <c r="D6" t="n">
-        <v>0.183086</v>
+        <v>0.0783967</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0697981</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3331,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0991691</v>
+        <v>0.0899908</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09033819999999999</v>
+        <v>0.153548</v>
       </c>
       <c r="D7" t="n">
-        <v>0.148405</v>
+        <v>0.0855733</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0767741</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3348,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.126097</v>
+        <v>0.112164</v>
       </c>
       <c r="C8" t="n">
-        <v>0.101128</v>
+        <v>0.156782</v>
       </c>
       <c r="D8" t="n">
-        <v>0.15651</v>
+        <v>0.0949585</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.08657090000000001</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3365,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.159824</v>
+        <v>0.14544</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0729865</v>
+        <v>0.16268</v>
       </c>
       <c r="D9" t="n">
-        <v>0.160488</v>
+        <v>0.0696866</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0611714</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3382,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.059407</v>
+        <v>0.0572003</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0727903</v>
+        <v>0.166182</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1644</v>
+        <v>0.0696678</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.061638</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3399,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0604427</v>
+        <v>0.057536</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0732657</v>
+        <v>0.171194</v>
       </c>
       <c r="D11" t="n">
-        <v>0.170165</v>
+        <v>0.0701456</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.061906</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3416,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0604295</v>
+        <v>0.0579186</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0723163</v>
+        <v>0.176096</v>
       </c>
       <c r="D12" t="n">
-        <v>0.174838</v>
+        <v>0.07013949999999999</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0619926</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3433,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0615592</v>
+        <v>0.0583329</v>
       </c>
       <c r="C13" t="n">
-        <v>0.074656</v>
+        <v>0.18047</v>
       </c>
       <c r="D13" t="n">
-        <v>0.176764</v>
+        <v>0.07072100000000001</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.06280769999999999</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3450,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0615933</v>
+        <v>0.0590661</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0720707</v>
+        <v>0.185277</v>
       </c>
       <c r="D14" t="n">
-        <v>0.187508</v>
+        <v>0.0705311</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0626191</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3467,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0627047</v>
+        <v>0.0599316</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0737077</v>
+        <v>0.188598</v>
       </c>
       <c r="D15" t="n">
-        <v>0.18666</v>
+        <v>0.0711672</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.06313340000000001</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3484,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0669009</v>
+        <v>0.0612849</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07384499999999999</v>
+        <v>0.193427</v>
       </c>
       <c r="D16" t="n">
-        <v>0.190742</v>
+        <v>0.07242410000000001</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0640246</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3501,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0666996</v>
+        <v>0.06446499999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0760108</v>
+        <v>0.197854</v>
       </c>
       <c r="D17" t="n">
-        <v>0.206584</v>
+        <v>0.07318810000000001</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0654687</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3518,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07110850000000001</v>
+        <v>0.0678144</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0775628</v>
+        <v>0.205439</v>
       </c>
       <c r="D18" t="n">
-        <v>0.205354</v>
+        <v>0.0749455</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0674703</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3535,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07665130000000001</v>
+        <v>0.0723357</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0792942</v>
+        <v>0.206554</v>
       </c>
       <c r="D19" t="n">
-        <v>0.207078</v>
+        <v>0.0764526</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0693391</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3552,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08783870000000001</v>
+        <v>0.0800902</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0856196</v>
+        <v>0.213008</v>
       </c>
       <c r="D20" t="n">
-        <v>0.212931</v>
+        <v>0.0800999</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0724592</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3569,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0981745</v>
+        <v>0.0918728</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0912886</v>
+        <v>0.168553</v>
       </c>
       <c r="D21" t="n">
-        <v>0.167316</v>
+        <v>0.08584319999999999</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0785254</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3586,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.115959</v>
+        <v>0.113561</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0997253</v>
+        <v>0.174157</v>
       </c>
       <c r="D22" t="n">
-        <v>0.172072</v>
+        <v>0.0959535</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0876352</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3603,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.14713</v>
+        <v>0.14272</v>
       </c>
       <c r="C23" t="n">
-        <v>0.07378850000000001</v>
+        <v>0.176791</v>
       </c>
       <c r="D23" t="n">
-        <v>0.174995</v>
+        <v>0.0699013</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0634306</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3620,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0637621</v>
+        <v>0.0609131</v>
       </c>
       <c r="C24" t="n">
-        <v>0.07307420000000001</v>
+        <v>0.18499</v>
       </c>
       <c r="D24" t="n">
-        <v>0.178568</v>
+        <v>0.0711215</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0642995</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3637,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.062426</v>
+        <v>0.0617327</v>
       </c>
       <c r="C25" t="n">
-        <v>0.07492269999999999</v>
+        <v>0.18763</v>
       </c>
       <c r="D25" t="n">
-        <v>0.186286</v>
+        <v>0.07138600000000001</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.06521200000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3654,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0636782</v>
+        <v>0.0623733</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0735394</v>
+        <v>0.189915</v>
       </c>
       <c r="D26" t="n">
-        <v>0.189724</v>
+        <v>0.07147000000000001</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0668116</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3671,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0661064</v>
+        <v>0.0647795</v>
       </c>
       <c r="C27" t="n">
-        <v>0.07484789999999999</v>
+        <v>0.197066</v>
       </c>
       <c r="D27" t="n">
-        <v>0.206432</v>
+        <v>0.071412</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.06507839999999999</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3688,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0651616</v>
+        <v>0.0632783</v>
       </c>
       <c r="C28" t="n">
-        <v>0.07625899999999999</v>
+        <v>0.208946</v>
       </c>
       <c r="D28" t="n">
-        <v>0.207675</v>
+        <v>0.07237109999999999</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0667466</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3705,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0682874</v>
+        <v>0.0650903</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0752275</v>
+        <v>0.207293</v>
       </c>
       <c r="D29" t="n">
-        <v>0.21859</v>
+        <v>0.07280440000000001</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0664044</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3722,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0685002</v>
+        <v>0.0657981</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0781152</v>
+        <v>0.215853</v>
       </c>
       <c r="D30" t="n">
-        <v>0.214455</v>
+        <v>0.0731275</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0675554</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3739,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0702248</v>
+        <v>0.06826939999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0769233</v>
+        <v>0.222343</v>
       </c>
       <c r="D31" t="n">
-        <v>0.225567</v>
+        <v>0.0746209</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.06875199999999999</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3756,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.07250379999999999</v>
+        <v>0.0720461</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0795537</v>
+        <v>0.224898</v>
       </c>
       <c r="D32" t="n">
-        <v>0.22746</v>
+        <v>0.0765111</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0709052</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3773,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.07930619999999999</v>
+        <v>0.0764722</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0846462</v>
+        <v>0.230787</v>
       </c>
       <c r="D33" t="n">
-        <v>0.232827</v>
+        <v>0.0789989</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0733029</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3790,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08614719999999999</v>
+        <v>0.0833047</v>
       </c>
       <c r="C34" t="n">
-        <v>0.083846</v>
+        <v>0.234268</v>
       </c>
       <c r="D34" t="n">
-        <v>0.246553</v>
+        <v>0.0825139</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.07677050000000001</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3807,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.09757059999999999</v>
+        <v>0.09378640000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0900499</v>
+        <v>0.187994</v>
       </c>
       <c r="D35" t="n">
-        <v>0.18081</v>
+        <v>0.08891880000000001</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.08290110000000001</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3824,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.116458</v>
+        <v>0.113108</v>
       </c>
       <c r="C36" t="n">
-        <v>0.100254</v>
+        <v>0.192698</v>
       </c>
       <c r="D36" t="n">
-        <v>0.188259</v>
+        <v>0.098426</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.09474829999999999</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3841,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.139684</v>
+        <v>0.140331</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0771112</v>
+        <v>0.200049</v>
       </c>
       <c r="D37" t="n">
-        <v>0.200554</v>
+        <v>0.0727402</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.06776409999999999</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3858,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0688334</v>
+        <v>0.0666012</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07608620000000001</v>
+        <v>0.203545</v>
       </c>
       <c r="D38" t="n">
-        <v>0.213336</v>
+        <v>0.0733669</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0680957</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3875,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0674859</v>
+        <v>0.0667628</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0761429</v>
+        <v>0.20974</v>
       </c>
       <c r="D39" t="n">
-        <v>0.21207</v>
+        <v>0.07335410000000001</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.06873840000000001</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3892,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0714351</v>
+        <v>0.0666013</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0796497</v>
+        <v>0.216628</v>
       </c>
       <c r="D40" t="n">
-        <v>0.221784</v>
+        <v>0.07355540000000001</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.06939430000000001</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3909,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0725672</v>
+        <v>0.0681398</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0770779</v>
+        <v>0.227003</v>
       </c>
       <c r="D41" t="n">
-        <v>0.235014</v>
+        <v>0.0741058</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0705186</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3926,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0713892</v>
+        <v>0.06875439999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07768129999999999</v>
+        <v>0.23243</v>
       </c>
       <c r="D42" t="n">
-        <v>0.243561</v>
+        <v>0.0745813</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0709132</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3943,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0717991</v>
+        <v>0.06986539999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.078069</v>
+        <v>0.242659</v>
       </c>
       <c r="D43" t="n">
-        <v>0.249574</v>
+        <v>0.075168</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0718352</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3960,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0747871</v>
+        <v>0.0709707</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07775120000000001</v>
+        <v>0.250747</v>
       </c>
       <c r="D44" t="n">
-        <v>0.257404</v>
+        <v>0.0757312</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0730225</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3977,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0756727</v>
+        <v>0.07327980000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.08071730000000001</v>
+        <v>0.265017</v>
       </c>
       <c r="D45" t="n">
-        <v>0.267373</v>
+        <v>0.07737479999999999</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.07713589999999999</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3994,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.08068450000000001</v>
+        <v>0.0771717</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0836457</v>
+        <v>0.274711</v>
       </c>
       <c r="D46" t="n">
-        <v>0.27592</v>
+        <v>0.0788148</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0772487</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +4011,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.08273079999999999</v>
+        <v>0.0809705</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0829114</v>
+        <v>0.287736</v>
       </c>
       <c r="D47" t="n">
-        <v>0.298778</v>
+        <v>0.080958</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0792646</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +4028,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.09207899999999999</v>
+        <v>0.0883135</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0859171</v>
+        <v>0.2974</v>
       </c>
       <c r="D48" t="n">
-        <v>0.304758</v>
+        <v>0.0848864</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.08522250000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +4045,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.102217</v>
+        <v>0.0983745</v>
       </c>
       <c r="C49" t="n">
-        <v>0.09663289999999999</v>
+        <v>0.310218</v>
       </c>
       <c r="D49" t="n">
-        <v>0.320014</v>
+        <v>0.088912</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.08829049999999999</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +4062,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.117044</v>
+        <v>0.113307</v>
       </c>
       <c r="C50" t="n">
-        <v>0.104991</v>
+        <v>0.227666</v>
       </c>
       <c r="D50" t="n">
-        <v>0.234832</v>
+        <v>0.09741</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.09743209999999999</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +4079,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.145876</v>
+        <v>0.142045</v>
       </c>
       <c r="C51" t="n">
-        <v>0.07914880000000001</v>
+        <v>0.238878</v>
       </c>
       <c r="D51" t="n">
-        <v>0.241265</v>
+        <v>0.0775675</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.07532129999999999</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +4096,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.188698</v>
+        <v>0.184704</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0815829</v>
+        <v>0.248875</v>
       </c>
       <c r="D52" t="n">
-        <v>0.266958</v>
+        <v>0.0779919</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.0764283</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +4113,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0816735</v>
+        <v>0.077125</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0831441</v>
+        <v>0.268158</v>
       </c>
       <c r="D53" t="n">
-        <v>0.279556</v>
+        <v>0.08035340000000001</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.0779156</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +4130,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.08228729999999999</v>
+        <v>0.0790053</v>
       </c>
       <c r="C54" t="n">
-        <v>0.081038</v>
+        <v>0.278289</v>
       </c>
       <c r="D54" t="n">
-        <v>0.296924</v>
+        <v>0.078833</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.0782402</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +4147,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0821717</v>
+        <v>0.0788054</v>
       </c>
       <c r="C55" t="n">
-        <v>0.08231869999999999</v>
+        <v>0.294041</v>
       </c>
       <c r="D55" t="n">
-        <v>0.306366</v>
+        <v>0.07946209999999999</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.0792581</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4164,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.08214059999999999</v>
+        <v>0.0811151</v>
       </c>
       <c r="C56" t="n">
-        <v>0.08303190000000001</v>
+        <v>0.332794</v>
       </c>
       <c r="D56" t="n">
-        <v>0.333723</v>
+        <v>0.0798942</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.0802515</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4181,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0839575</v>
+        <v>0.0822875</v>
       </c>
       <c r="C57" t="n">
-        <v>0.08363180000000001</v>
+        <v>0.324739</v>
       </c>
       <c r="D57" t="n">
-        <v>0.345394</v>
+        <v>0.08079600000000001</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.0813039</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4198,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.088648</v>
+        <v>0.0832579</v>
       </c>
       <c r="C58" t="n">
-        <v>0.08887</v>
+        <v>0.344942</v>
       </c>
       <c r="D58" t="n">
-        <v>0.369424</v>
+        <v>0.08273510000000001</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.0835518</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4215,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0900779</v>
+        <v>0.0866745</v>
       </c>
       <c r="C59" t="n">
-        <v>0.08713849999999999</v>
+        <v>0.362122</v>
       </c>
       <c r="D59" t="n">
-        <v>0.401401</v>
+        <v>0.0834478</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.08612499999999999</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4232,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0930735</v>
+        <v>0.08915770000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0869273</v>
+        <v>0.398249</v>
       </c>
       <c r="D60" t="n">
-        <v>0.407577</v>
+        <v>0.08511870000000001</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.08792990000000001</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4249,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0948943</v>
+        <v>0.0925951</v>
       </c>
       <c r="C61" t="n">
-        <v>0.08989709999999999</v>
+        <v>0.40919</v>
       </c>
       <c r="D61" t="n">
-        <v>0.433519</v>
+        <v>0.0873366</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.0910754</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4266,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.104271</v>
+        <v>0.101839</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0927564</v>
+        <v>0.408706</v>
       </c>
       <c r="D62" t="n">
-        <v>0.463238</v>
+        <v>0.0905049</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.0949933</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4283,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.114131</v>
+        <v>0.117683</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0988266</v>
+        <v>0.439976</v>
       </c>
       <c r="D63" t="n">
-        <v>0.485055</v>
+        <v>0.0964479</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.100447</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4300,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.127689</v>
+        <v>0.123955</v>
       </c>
       <c r="C64" t="n">
-        <v>0.107847</v>
+        <v>0.320379</v>
       </c>
       <c r="D64" t="n">
-        <v>0.351703</v>
+        <v>0.103868</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.110402</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4317,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.15084</v>
+        <v>0.149757</v>
       </c>
       <c r="C65" t="n">
-        <v>0.120182</v>
+        <v>0.340761</v>
       </c>
       <c r="D65" t="n">
-        <v>0.392655</v>
+        <v>0.117121</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.130441</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4334,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.19785</v>
+        <v>0.189731</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0851503</v>
+        <v>0.355123</v>
       </c>
       <c r="D66" t="n">
-        <v>0.408257</v>
+        <v>0.0828984</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.0845069</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4351,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0904939</v>
+        <v>0.0883867</v>
       </c>
       <c r="C67" t="n">
-        <v>0.08493539999999999</v>
+        <v>0.37829</v>
       </c>
       <c r="D67" t="n">
-        <v>0.406997</v>
+        <v>0.083338</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0870194</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4368,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0916429</v>
+        <v>0.0885266</v>
       </c>
       <c r="C68" t="n">
-        <v>0.08667329999999999</v>
+        <v>0.394724</v>
       </c>
       <c r="D68" t="n">
-        <v>0.437376</v>
+        <v>0.0840003</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.0869428</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4385,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0955782</v>
+        <v>0.0895225</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0897448</v>
+        <v>0.421614</v>
       </c>
       <c r="D69" t="n">
-        <v>0.460506</v>
+        <v>0.08489140000000001</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.0903022</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4402,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.09529559999999999</v>
+        <v>0.09263879999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.08884019999999999</v>
+        <v>0.453149</v>
       </c>
       <c r="D70" t="n">
-        <v>0.47134</v>
+        <v>0.0872764</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.09044729999999999</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4419,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0980843</v>
+        <v>0.0931028</v>
       </c>
       <c r="C71" t="n">
-        <v>0.08960460000000001</v>
+        <v>0.462822</v>
       </c>
       <c r="D71" t="n">
-        <v>0.515015</v>
+        <v>0.08667710000000001</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.0924629</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4436,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0997411</v>
+        <v>0.0971998</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0923639</v>
+        <v>0.481078</v>
       </c>
       <c r="D72" t="n">
-        <v>0.531782</v>
+        <v>0.088393</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.0942192</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4453,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.104149</v>
+        <v>0.09957770000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0944189</v>
+        <v>0.51081</v>
       </c>
       <c r="D73" t="n">
-        <v>0.566454</v>
+        <v>0.0897043</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.09469619999999999</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4470,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.112009</v>
+        <v>0.101904</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0988407</v>
+        <v>0.5331900000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.594437</v>
+        <v>0.09203020000000001</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.099411</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4487,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.117691</v>
+        <v>0.107132</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0990007</v>
+        <v>0.556407</v>
       </c>
       <c r="D75" t="n">
-        <v>0.611338</v>
+        <v>0.0939144</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.1022</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4504,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.126291</v>
+        <v>0.114994</v>
       </c>
       <c r="C76" t="n">
-        <v>0.107815</v>
+        <v>0.588861</v>
       </c>
       <c r="D76" t="n">
-        <v>0.655688</v>
+        <v>0.0976186</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.108429</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4521,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.138263</v>
+        <v>0.134242</v>
       </c>
       <c r="C77" t="n">
-        <v>0.117188</v>
+        <v>0.628172</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6745719999999999</v>
+        <v>0.10416</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.116795</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4538,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.155157</v>
+        <v>0.140304</v>
       </c>
       <c r="C78" t="n">
-        <v>0.120695</v>
+        <v>0.459242</v>
       </c>
       <c r="D78" t="n">
-        <v>0.510068</v>
+        <v>0.112178</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.128728</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4555,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.186024</v>
+        <v>0.16614</v>
       </c>
       <c r="C79" t="n">
-        <v>0.138346</v>
+        <v>0.479684</v>
       </c>
       <c r="D79" t="n">
-        <v>0.525719</v>
+        <v>0.124816</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.143721</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4572,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.219732</v>
+        <v>0.206198</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0973329</v>
+        <v>0.503842</v>
       </c>
       <c r="D80" t="n">
-        <v>0.566227</v>
+        <v>0.0885451</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.09462370000000001</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4589,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.115276</v>
+        <v>0.09943200000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09753820000000001</v>
+        <v>0.522983</v>
       </c>
       <c r="D81" t="n">
-        <v>0.552103</v>
+        <v>0.08953319999999999</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.0976139</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4606,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.108551</v>
+        <v>0.100748</v>
       </c>
       <c r="C82" t="n">
-        <v>0.100262</v>
+        <v>0.542764</v>
       </c>
       <c r="D82" t="n">
-        <v>0.581331</v>
+        <v>0.0907673</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.09992620000000001</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4623,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.11422</v>
+        <v>0.103343</v>
       </c>
       <c r="C83" t="n">
-        <v>0.09917430000000001</v>
+        <v>0.579376</v>
       </c>
       <c r="D83" t="n">
-        <v>0.609457</v>
+        <v>0.0940705</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.102951</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4640,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.115325</v>
+        <v>0.106581</v>
       </c>
       <c r="C84" t="n">
-        <v>0.100518</v>
+        <v>0.607843</v>
       </c>
       <c r="D84" t="n">
-        <v>0.6409629999999999</v>
+        <v>0.0941181</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.10603</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4657,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.122393</v>
+        <v>0.116093</v>
       </c>
       <c r="C85" t="n">
-        <v>0.102506</v>
+        <v>0.613018</v>
       </c>
       <c r="D85" t="n">
-        <v>0.676992</v>
+        <v>0.0953195</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.108913</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4674,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.121821</v>
+        <v>0.113522</v>
       </c>
       <c r="C86" t="n">
-        <v>0.102445</v>
+        <v>0.633622</v>
       </c>
       <c r="D86" t="n">
-        <v>0.684295</v>
+        <v>0.0973127</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.113919</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4691,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.126631</v>
+        <v>0.120202</v>
       </c>
       <c r="C87" t="n">
-        <v>0.106959</v>
+        <v>0.662716</v>
       </c>
       <c r="D87" t="n">
-        <v>0.726475</v>
+        <v>0.0994483</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.115429</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4708,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.132926</v>
+        <v>0.122549</v>
       </c>
       <c r="C88" t="n">
-        <v>0.108822</v>
+        <v>0.679181</v>
       </c>
       <c r="D88" t="n">
-        <v>0.7382069999999999</v>
+        <v>0.103423</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.119996</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4725,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.139928</v>
+        <v>0.127171</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1121</v>
+        <v>0.707988</v>
       </c>
       <c r="D89" t="n">
-        <v>0.75895</v>
+        <v>0.105089</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.125188</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4742,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.150898</v>
+        <v>0.135747</v>
       </c>
       <c r="C90" t="n">
-        <v>0.116906</v>
+        <v>0.731969</v>
       </c>
       <c r="D90" t="n">
-        <v>0.801872</v>
+        <v>0.111128</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.133534</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4759,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.157916</v>
+        <v>0.147851</v>
       </c>
       <c r="C91" t="n">
-        <v>0.124902</v>
+        <v>0.772548</v>
       </c>
       <c r="D91" t="n">
-        <v>0.836287</v>
+        <v>0.121785</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.140854</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4776,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.17611</v>
+        <v>0.162757</v>
       </c>
       <c r="C92" t="n">
-        <v>0.135653</v>
+        <v>0.5828719999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6364069999999999</v>
+        <v>0.12462</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.152706</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4793,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.199786</v>
+        <v>0.187375</v>
       </c>
       <c r="C93" t="n">
-        <v>0.144527</v>
+        <v>0.6029</v>
       </c>
       <c r="D93" t="n">
-        <v>0.665054</v>
+        <v>0.138264</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.170919</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4810,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.235083</v>
+        <v>0.225392</v>
       </c>
       <c r="C94" t="n">
-        <v>0.114078</v>
+        <v>0.621875</v>
       </c>
       <c r="D94" t="n">
-        <v>0.676282</v>
+        <v>0.107201</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.126931</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4827,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.137424</v>
+        <v>0.129019</v>
       </c>
       <c r="C95" t="n">
-        <v>0.118404</v>
+        <v>0.651732</v>
       </c>
       <c r="D95" t="n">
-        <v>0.699757</v>
+        <v>0.108922</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.128359</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4844,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.141943</v>
+        <v>0.1305</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1206</v>
+        <v>0.662345</v>
       </c>
       <c r="D96" t="n">
-        <v>0.714925</v>
+        <v>0.109946</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.132168</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4861,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.141755</v>
+        <v>0.133128</v>
       </c>
       <c r="C97" t="n">
-        <v>0.119415</v>
+        <v>0.732698</v>
       </c>
       <c r="D97" t="n">
-        <v>0.734743</v>
+        <v>0.112509</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.135477</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4878,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.14944</v>
+        <v>0.140721</v>
       </c>
       <c r="C98" t="n">
-        <v>0.119657</v>
+        <v>0.735967</v>
       </c>
       <c r="D98" t="n">
-        <v>0.756142</v>
+        <v>0.115209</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.141054</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4895,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.156455</v>
+        <v>0.141245</v>
       </c>
       <c r="C99" t="n">
-        <v>0.125153</v>
+        <v>0.741587</v>
       </c>
       <c r="D99" t="n">
-        <v>0.775499</v>
+        <v>0.117072</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.144605</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4912,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.151586</v>
+        <v>0.144643</v>
       </c>
       <c r="C100" t="n">
-        <v>0.126486</v>
+        <v>0.765454</v>
       </c>
       <c r="D100" t="n">
-        <v>0.840992</v>
+        <v>0.120123</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.149009</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4929,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.157828</v>
+        <v>0.149728</v>
       </c>
       <c r="C101" t="n">
-        <v>0.130201</v>
+        <v>0.790459</v>
       </c>
       <c r="D101" t="n">
-        <v>0.857147</v>
+        <v>0.122618</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.154326</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4946,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.160346</v>
+        <v>0.153741</v>
       </c>
       <c r="C102" t="n">
-        <v>0.135968</v>
+        <v>0.805782</v>
       </c>
       <c r="D102" t="n">
-        <v>0.87718</v>
+        <v>0.124899</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.157711</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4963,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.173095</v>
+        <v>0.163929</v>
       </c>
       <c r="C103" t="n">
-        <v>0.140367</v>
+        <v>0.871265</v>
       </c>
       <c r="D103" t="n">
-        <v>0.897208</v>
+        <v>0.133933</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.169617</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4980,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.180993</v>
+        <v>0.167854</v>
       </c>
       <c r="C104" t="n">
-        <v>0.139481</v>
+        <v>0.857033</v>
       </c>
       <c r="D104" t="n">
-        <v>0.943171</v>
+        <v>0.13261</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.171666</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4997,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.187176</v>
+        <v>0.180517</v>
       </c>
       <c r="C105" t="n">
-        <v>0.147237</v>
+        <v>0.893665</v>
       </c>
       <c r="D105" t="n">
-        <v>0.949386</v>
+        <v>0.138265</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.179415</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +5014,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.210031</v>
+        <v>0.195609</v>
       </c>
       <c r="C106" t="n">
-        <v>0.157342</v>
+        <v>0.941261</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9762110000000001</v>
+        <v>0.148579</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.191257</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +5031,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.234134</v>
+        <v>0.21954</v>
       </c>
       <c r="C107" t="n">
-        <v>0.167363</v>
+        <v>0.694694</v>
       </c>
       <c r="D107" t="n">
-        <v>0.7324310000000001</v>
+        <v>0.161382</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.212477</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +5048,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.274773</v>
+        <v>0.263428</v>
       </c>
       <c r="C108" t="n">
-        <v>0.185</v>
+        <v>0.723157</v>
       </c>
       <c r="D108" t="n">
-        <v>0.764889</v>
+        <v>0.175668</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.205973</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +5065,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.355952</v>
+        <v>0.332565</v>
       </c>
       <c r="C109" t="n">
-        <v>0.201911</v>
+        <v>0.759533</v>
       </c>
       <c r="D109" t="n">
-        <v>0.805738</v>
+        <v>0.177736</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.204166</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +5082,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.227276</v>
+        <v>0.213326</v>
       </c>
       <c r="C110" t="n">
-        <v>0.189257</v>
+        <v>0.749219</v>
       </c>
       <c r="D110" t="n">
-        <v>0.804148</v>
+        <v>0.18475</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.227534</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +5099,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.23964</v>
+        <v>0.224653</v>
       </c>
       <c r="C111" t="n">
-        <v>0.20907</v>
+        <v>0.814377</v>
       </c>
       <c r="D111" t="n">
-        <v>0.859702</v>
+        <v>0.18181</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.219846</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +5116,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.251918</v>
+        <v>0.229082</v>
       </c>
       <c r="C112" t="n">
-        <v>0.194683</v>
+        <v>0.809797</v>
       </c>
       <c r="D112" t="n">
-        <v>0.842065</v>
+        <v>0.181948</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.217268</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +5133,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.234048</v>
+        <v>0.227715</v>
       </c>
       <c r="C113" t="n">
-        <v>0.208012</v>
+        <v>0.822087</v>
       </c>
       <c r="D113" t="n">
-        <v>0.909542</v>
+        <v>0.204413</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.237423</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +5150,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.25668</v>
+        <v>0.234338</v>
       </c>
       <c r="C114" t="n">
-        <v>0.204046</v>
+        <v>0.847682</v>
       </c>
       <c r="D114" t="n">
-        <v>0.895741</v>
+        <v>0.191788</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.237466</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +5167,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.263918</v>
+        <v>0.231496</v>
       </c>
       <c r="C115" t="n">
-        <v>0.222857</v>
+        <v>0.878458</v>
       </c>
       <c r="D115" t="n">
-        <v>0.919214</v>
+        <v>0.192565</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.23538</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +5184,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.25598</v>
+        <v>0.255815</v>
       </c>
       <c r="C116" t="n">
-        <v>0.210329</v>
+        <v>0.8869359999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.92785</v>
+        <v>0.194175</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.235044</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +5201,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.261641</v>
+        <v>0.263072</v>
       </c>
       <c r="C117" t="n">
-        <v>0.211756</v>
+        <v>0.911884</v>
       </c>
       <c r="D117" t="n">
-        <v>0.968846</v>
+        <v>0.195621</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.260578</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +5218,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.274476</v>
+        <v>0.271718</v>
       </c>
       <c r="C118" t="n">
-        <v>0.231474</v>
+        <v>0.940387</v>
       </c>
       <c r="D118" t="n">
-        <v>1.08862</v>
+        <v>0.206774</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.249046</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +5235,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.29126</v>
+        <v>0.262512</v>
       </c>
       <c r="C119" t="n">
-        <v>0.224628</v>
+        <v>0.964954</v>
       </c>
       <c r="D119" t="n">
-        <v>1.03172</v>
+        <v>0.234229</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.263669</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +5252,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.319242</v>
+        <v>0.281903</v>
       </c>
       <c r="C120" t="n">
-        <v>0.230874</v>
+        <v>0.998236</v>
       </c>
       <c r="D120" t="n">
-        <v>1.19312</v>
+        <v>0.21756</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.268808</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +5269,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.322359</v>
+        <v>0.304336</v>
       </c>
       <c r="C121" t="n">
-        <v>0.241959</v>
+        <v>0.774529</v>
       </c>
       <c r="D121" t="n">
-        <v>0.812738</v>
+        <v>0.22687</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.292242</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +5286,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.384955</v>
+        <v>0.342281</v>
       </c>
       <c r="C122" t="n">
-        <v>0.265004</v>
+        <v>0.771766</v>
       </c>
       <c r="D122" t="n">
-        <v>0.833881</v>
+        <v>0.248036</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.320607</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +5303,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.463384</v>
+        <v>0.418565</v>
       </c>
       <c r="C123" t="n">
-        <v>0.296688</v>
+        <v>0.797147</v>
       </c>
       <c r="D123" t="n">
-        <v>0.864057</v>
+        <v>0.290124</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.322847</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +5320,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.368272</v>
+        <v>0.358898</v>
       </c>
       <c r="C124" t="n">
-        <v>0.309368</v>
+        <v>0.814506</v>
       </c>
       <c r="D124" t="n">
-        <v>0.886426</v>
+        <v>0.28922</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.320244</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +5337,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.373625</v>
+        <v>0.35279</v>
       </c>
       <c r="C125" t="n">
-        <v>0.316303</v>
+        <v>0.841689</v>
       </c>
       <c r="D125" t="n">
-        <v>0.908257</v>
+        <v>0.300312</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.319476</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +5354,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.381807</v>
+        <v>0.35518</v>
       </c>
       <c r="C126" t="n">
-        <v>0.305541</v>
+        <v>0.889954</v>
       </c>
       <c r="D126" t="n">
-        <v>0.935213</v>
+        <v>0.301268</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.326104</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +5371,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.378565</v>
+        <v>0.357202</v>
       </c>
       <c r="C127" t="n">
-        <v>0.320611</v>
+        <v>0.893429</v>
       </c>
       <c r="D127" t="n">
-        <v>1.12428</v>
+        <v>0.290413</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.327256</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5388,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.38724</v>
+        <v>0.365731</v>
       </c>
       <c r="C128" t="n">
-        <v>0.30725</v>
+        <v>0.898479</v>
       </c>
       <c r="D128" t="n">
-        <v>1.0094</v>
+        <v>0.292701</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.332067</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5405,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.391623</v>
+        <v>0.382178</v>
       </c>
       <c r="C129" t="n">
-        <v>0.330873</v>
+        <v>0.934453</v>
       </c>
       <c r="D129" t="n">
-        <v>1.02697</v>
+        <v>0.31089</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.343372</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5422,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.414451</v>
+        <v>0.378031</v>
       </c>
       <c r="C130" t="n">
-        <v>0.330694</v>
+        <v>0.970486</v>
       </c>
       <c r="D130" t="n">
-        <v>1.05945</v>
+        <v>0.305478</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.347466</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5439,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.404975</v>
+        <v>0.3852</v>
       </c>
       <c r="C131" t="n">
-        <v>0.337804</v>
+        <v>0.990473</v>
       </c>
       <c r="D131" t="n">
-        <v>1.10186</v>
+        <v>0.307422</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.355047</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5456,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.42082</v>
+        <v>0.404131</v>
       </c>
       <c r="C132" t="n">
-        <v>0.333385</v>
+        <v>1.04053</v>
       </c>
       <c r="D132" t="n">
-        <v>1.1269</v>
+        <v>0.314045</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.364702</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5473,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.43751</v>
+        <v>0.409984</v>
       </c>
       <c r="C133" t="n">
-        <v>0.353031</v>
+        <v>1.06803</v>
       </c>
       <c r="D133" t="n">
-        <v>1.16926</v>
+        <v>0.320067</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.370594</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5490,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.463947</v>
+        <v>0.428018</v>
       </c>
       <c r="C134" t="n">
-        <v>0.346863</v>
+        <v>1.10712</v>
       </c>
       <c r="D134" t="n">
-        <v>1.24128</v>
+        <v>0.324949</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.395063</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5507,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.488379</v>
+        <v>0.46466</v>
       </c>
       <c r="C135" t="n">
-        <v>0.356813</v>
+        <v>0.894138</v>
       </c>
       <c r="D135" t="n">
-        <v>0.953398</v>
+        <v>0.341749</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.403587</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5524,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.536309</v>
+        <v>0.512951</v>
       </c>
       <c r="C136" t="n">
-        <v>0.38472</v>
+        <v>0.911121</v>
       </c>
       <c r="D136" t="n">
-        <v>0.995489</v>
+        <v>0.366852</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.436651</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5541,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.612973</v>
+        <v>0.5870570000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>0.364217</v>
+        <v>0.94504</v>
       </c>
       <c r="D137" t="n">
-        <v>1.02785</v>
+        <v>0.348982</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.37837</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5558,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.448693</v>
+        <v>0.426712</v>
       </c>
       <c r="C138" t="n">
-        <v>0.369832</v>
+        <v>0.965318</v>
       </c>
       <c r="D138" t="n">
-        <v>1.11092</v>
+        <v>0.352668</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.380826</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5575,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.455191</v>
+        <v>0.434038</v>
       </c>
       <c r="C139" t="n">
-        <v>0.370553</v>
+        <v>1.01804</v>
       </c>
       <c r="D139" t="n">
-        <v>1.09989</v>
+        <v>0.356026</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.388018</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5592,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.471923</v>
+        <v>0.433001</v>
       </c>
       <c r="C140" t="n">
-        <v>0.377671</v>
+        <v>1.03329</v>
       </c>
       <c r="D140" t="n">
-        <v>1.18447</v>
+        <v>0.356523</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.391199</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5609,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.462683</v>
+        <v>0.448102</v>
       </c>
       <c r="C141" t="n">
-        <v>0.379759</v>
+        <v>1.08887</v>
       </c>
       <c r="D141" t="n">
-        <v>1.17036</v>
+        <v>0.359426</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.401585</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5626,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.466482</v>
+        <v>0.444005</v>
       </c>
       <c r="C142" t="n">
-        <v>0.381452</v>
+        <v>1.11603</v>
       </c>
       <c r="D142" t="n">
-        <v>1.22303</v>
+        <v>0.364402</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.407009</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5643,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.474671</v>
+        <v>0.464265</v>
       </c>
       <c r="C143" t="n">
-        <v>0.384666</v>
+        <v>1.14119</v>
       </c>
       <c r="D143" t="n">
-        <v>1.26173</v>
+        <v>0.366115</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.407191</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15600" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="plot" sheetId="1" state="visible" r:id="rId1"/>
@@ -89,10 +89,18 @@
         <scatterStyle val="lineMarker"/>
         <varyColors val="0"/>
         <ser>
-          <idx val="3"/>
+          <idx val="0"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -552,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0196541</v>
+                  <v>0.0188563</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.022714</v>
+                  <v>0.020482</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0280732</v>
+                  <v>0.0250918</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0383508</v>
+                  <v>0.0324396</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.052548</v>
+                  <v>0.0486736</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.066875</v>
+                  <v>0.0676407</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0901585</v>
+                  <v>0.0914015</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.118385</v>
+                  <v>0.120117</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0166794</v>
+                  <v>0.0161742</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.017095</v>
+                  <v>0.0167609</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0175332</v>
+                  <v>0.017033</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0179948</v>
+                  <v>0.0178156</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0186281</v>
+                  <v>0.0186429</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0208214</v>
+                  <v>0.0201514</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0229571</v>
+                  <v>0.0223364</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0261478</v>
+                  <v>0.0265812</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0314248</v>
+                  <v>0.0315209</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0425587</v>
+                  <v>0.0404218</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0519527</v>
+                  <v>0.0523243</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.07000199999999999</v>
+                  <v>0.068802</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0890392</v>
+                  <v>0.0916015</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.119166</v>
+                  <v>0.115789</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0162997</v>
+                  <v>0.0165559</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0169862</v>
+                  <v>0.01713</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0176941</v>
+                  <v>0.017832</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0184008</v>
+                  <v>0.0186431</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0198508</v>
+                  <v>0.0204344</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0220004</v>
+                  <v>0.0223797</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0252038</v>
+                  <v>0.0260575</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.029776</v>
+                  <v>0.0296827</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0355674</v>
+                  <v>0.0351294</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0445372</v>
+                  <v>0.0439567</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0557284</v>
+                  <v>0.0560566</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0722409</v>
+                  <v>0.0724226</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0937438</v>
+                  <v>0.0942229</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.120898</v>
+                  <v>0.120526</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.017101</v>
+                  <v>0.0171733</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0179106</v>
+                  <v>0.0178413</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0187733</v>
+                  <v>0.0187789</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0201048</v>
+                  <v>0.0201514</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0218759</v>
+                  <v>0.0218874</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0240552</v>
+                  <v>0.0244952</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0282097</v>
+                  <v>0.0277145</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0323602</v>
+                  <v>0.0318614</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0379086</v>
+                  <v>0.038157</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.045608</v>
+                  <v>0.0458946</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.056116</v>
+                  <v>0.0561284</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0707222</v>
+                  <v>0.07138170000000001</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0919893</v>
+                  <v>0.09212090000000001</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.118674</v>
+                  <v>0.117399</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.145772</v>
+                  <v>0.142611</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0196284</v>
+                  <v>0.0191063</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0208398</v>
+                  <v>0.0202054</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0223922</v>
+                  <v>0.0216884</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0244506</v>
+                  <v>0.023762</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.026822</v>
+                  <v>0.0265754</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0309899</v>
+                  <v>0.0299431</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0354207</v>
+                  <v>0.0344095</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0417881</v>
+                  <v>0.0405591</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0476276</v>
+                  <v>0.0475581</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0572692</v>
+                  <v>0.0572633</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0716026</v>
+                  <v>0.0711276</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0905608</v>
+                  <v>0.0912027</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.116785</v>
+                  <v>0.117531</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.147933</v>
+                  <v>0.147591</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0197012</v>
+                  <v>0.0198684</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0211376</v>
+                  <v>0.0210982</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0228213</v>
+                  <v>0.0228671</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0247479</v>
+                  <v>0.0250892</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0274354</v>
+                  <v>0.0274858</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0306606</v>
+                  <v>0.0307585</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0349113</v>
+                  <v>0.0350439</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0401967</v>
+                  <v>0.0401473</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0468474</v>
+                  <v>0.0470655</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0560401</v>
+                  <v>0.0565303</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0688926</v>
+                  <v>0.0694931</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0873152</v>
+                  <v>0.0876659</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.112319</v>
+                  <v>0.112976</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.143939</v>
+                  <v>0.14429</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0198688</v>
+                  <v>0.0201115</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0212272</v>
+                  <v>0.0216766</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0227931</v>
+                  <v>0.0228365</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0248234</v>
+                  <v>0.0248985</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0274348</v>
+                  <v>0.0272584</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0304566</v>
+                  <v>0.0302977</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.03421</v>
+                  <v>0.0342083</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0392722</v>
+                  <v>0.039444</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0457853</v>
+                  <v>0.0458422</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0543613</v>
+                  <v>0.0546333</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0667861</v>
+                  <v>0.0669435</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0837842</v>
+                  <v>0.0841283</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.107021</v>
+                  <v>0.108178</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.138367</v>
+                  <v>0.139209</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0206107</v>
+                  <v>0.0208397</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.021977</v>
+                  <v>0.0217789</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0236946</v>
+                  <v>0.0236136</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0252601</v>
+                  <v>0.0250037</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0278301</v>
+                  <v>0.0272123</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0304313</v>
+                  <v>0.0306604</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0347894</v>
+                  <v>0.0359699</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0397493</v>
+                  <v>0.0400556</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0462983</v>
+                  <v>0.0464214</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0543709</v>
+                  <v>0.0543718</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0656243</v>
+                  <v>0.0654956</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0814584</v>
+                  <v>0.0810722</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.103239</v>
+                  <v>0.102897</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.133268</v>
+                  <v>0.133253</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.169441</v>
+                  <v>0.1679</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0309188</v>
+                  <v>0.0312378</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0323647</v>
+                  <v>0.032867</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.034075</v>
+                  <v>0.0343439</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0358327</v>
+                  <v>0.0361309</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0383382</v>
+                  <v>0.0383012</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0406737</v>
+                  <v>0.0408352</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0441246</v>
+                  <v>0.0439366</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.048723</v>
+                  <v>0.0486743</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0551746</v>
+                  <v>0.0550738</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0650047</v>
+                  <v>0.0645583</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.07941529999999999</v>
+                  <v>0.0791676</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.100142</v>
+                  <v>0.0998057</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.128345</v>
+                  <v>0.128197</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.16426</v>
+                  <v>0.163841</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0340693</v>
+                  <v>0.0345014</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.035891</v>
+                  <v>0.035219</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0369158</v>
+                  <v>0.0366214</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0387195</v>
+                  <v>0.0384021</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0407176</v>
+                  <v>0.0405117</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0435753</v>
+                  <v>0.0431668</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0474413</v>
+                  <v>0.0465002</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0518101</v>
+                  <v>0.0510499</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0586713</v>
+                  <v>0.0587435</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.06794360000000001</v>
+                  <v>0.0679357</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0817268</v>
+                  <v>0.0816269</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.101445</v>
+                  <v>0.101812</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.129425</v>
+                  <v>0.129487</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.163873</v>
+                  <v>0.164993</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0473433</v>
+                  <v>0.0468838</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0531312</v>
+                  <v>0.0484521</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.058706</v>
+                  <v>0.0493311</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0582968</v>
+                  <v>0.0507617</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0553286</v>
+                  <v>0.0532957</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0675741</v>
+                  <v>0.0554191</v>
                 </pt>
               </numCache>
             </numRef>
@@ -983,10 +991,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="4"/>
+          <idx val="1"/>
           <order val="1"/>
           <tx>
-            <v>boost::unordered_flat_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1446,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0236953</v>
+                  <v>0.0745743</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0249792</v>
+                  <v>0.0818991</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0258301</v>
+                  <v>0.0759394</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.027365</v>
+                  <v>0.0880992</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0285038</v>
+                  <v>0.08153489999999999</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0328798</v>
+                  <v>0.0624356</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0393672</v>
+                  <v>0.061869</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0204906</v>
+                  <v>0.0683074</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0206485</v>
+                  <v>0.0686766</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0211179</v>
+                  <v>0.07166640000000001</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0213</v>
+                  <v>0.0739997</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0216018</v>
+                  <v>0.077265</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0219038</v>
+                  <v>0.0817507</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0225654</v>
+                  <v>0.0856117</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0230834</v>
+                  <v>0.0866362</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0241669</v>
+                  <v>0.09086229999999999</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0251919</v>
+                  <v>0.09648760000000001</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0266921</v>
+                  <v>0.096305</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.028982</v>
+                  <v>0.09784320000000001</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0333148</v>
+                  <v>0.0664341</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.041356</v>
+                  <v>0.0712783</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0202092</v>
+                  <v>0.0762056</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0206159</v>
+                  <v>0.0754963</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0208339</v>
+                  <v>0.0791755</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0210765</v>
+                  <v>0.0828492</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0214492</v>
+                  <v>0.08543870000000001</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0218967</v>
+                  <v>0.0887561</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0226372</v>
+                  <v>0.092414</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.023422</v>
+                  <v>0.0948533</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0242916</v>
+                  <v>0.0957143</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0254245</v>
+                  <v>0.09790550000000001</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0274613</v>
+                  <v>0.09936730000000001</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.030458</v>
+                  <v>0.101587</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0342121</v>
+                  <v>0.06934940000000001</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.040763</v>
+                  <v>0.0726347</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0210932</v>
+                  <v>0.07564949999999999</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0214487</v>
+                  <v>0.0790356</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0217322</v>
+                  <v>0.0818281</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0220884</v>
+                  <v>0.0856015</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0225227</v>
+                  <v>0.08902640000000001</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.022985</v>
+                  <v>0.0915702</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0235789</v>
+                  <v>0.0953242</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0242082</v>
+                  <v>0.0973436</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0251386</v>
+                  <v>0.100137</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.026316</v>
+                  <v>0.102066</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0281349</v>
+                  <v>0.104689</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0309591</v>
+                  <v>0.106565</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0351441</v>
+                  <v>0.109417</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0422416</v>
+                  <v>0.0759278</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0221848</v>
+                  <v>0.07929940000000001</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0226422</v>
+                  <v>0.0833945</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0230127</v>
+                  <v>0.08607579999999999</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0233388</v>
+                  <v>0.0893982</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0237292</v>
+                  <v>0.0926165</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0243318</v>
+                  <v>0.09584810000000001</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0249093</v>
+                  <v>0.100165</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0260608</v>
+                  <v>0.101736</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0270795</v>
+                  <v>0.105135</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0277862</v>
+                  <v>0.107339</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0291051</v>
+                  <v>0.109803</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0317252</v>
+                  <v>0.111709</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0360878</v>
+                  <v>0.115496</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0429958</v>
+                  <v>0.0812769</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0551095</v>
+                  <v>0.08581900000000001</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0226031</v>
+                  <v>0.09048920000000001</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0229372</v>
+                  <v>0.09512900000000001</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0232973</v>
+                  <v>0.09904019999999999</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.023692</v>
+                  <v>0.103762</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0242143</v>
+                  <v>0.109767</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0247678</v>
+                  <v>0.115064</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0255057</v>
+                  <v>0.119625</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0263971</v>
+                  <v>0.123912</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0276756</v>
+                  <v>0.128639</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0295323</v>
+                  <v>0.136023</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0321746</v>
+                  <v>0.141569</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0363344</v>
+                  <v>0.147324</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0425489</v>
+                  <v>0.114448</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0534234</v>
+                  <v>0.120419</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0228514</v>
+                  <v>0.125131</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0231978</v>
+                  <v>0.131477</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0235633</v>
+                  <v>0.139604</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0239172</v>
+                  <v>0.146445</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0244035</v>
+                  <v>0.154887</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.025024</v>
+                  <v>0.163154</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0259339</v>
+                  <v>0.170385</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0269228</v>
+                  <v>0.178312</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0282665</v>
+                  <v>0.182546</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0299743</v>
+                  <v>0.19023</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0325068</v>
+                  <v>0.200533</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.03601</v>
+                  <v>0.208859</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0416961</v>
+                  <v>0.157758</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0509443</v>
+                  <v>0.162746</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0243696</v>
+                  <v>0.168477</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0248253</v>
+                  <v>0.17633</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0253215</v>
+                  <v>0.183525</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0259145</v>
+                  <v>0.190701</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0267649</v>
+                  <v>0.19753</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0281154</v>
+                  <v>0.204795</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0301922</v>
+                  <v>0.226592</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0330066</v>
+                  <v>0.219043</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0364155</v>
+                  <v>0.227757</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0397311</v>
+                  <v>0.233267</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0428055</v>
+                  <v>0.243865</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0463608</v>
+                  <v>0.252361</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0508278</v>
+                  <v>0.261173</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0575807</v>
+                  <v>0.190647</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0361449</v>
+                  <v>0.197526</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0368822</v>
+                  <v>0.203566</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0379133</v>
+                  <v>0.210146</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0388181</v>
+                  <v>0.218257</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0396854</v>
+                  <v>0.224714</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0406322</v>
+                  <v>0.23258</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0416831</v>
+                  <v>0.239218</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0427634</v>
+                  <v>0.24724</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0439657</v>
+                  <v>0.255715</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0456052</v>
+                  <v>0.263655</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0476259</v>
+                  <v>0.271989</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0501364</v>
+                  <v>0.282797</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0541071</v>
+                  <v>0.289767</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0600156</v>
+                  <v>0.206007</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.0702492</v>
+                  <v>0.211597</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0426162</v>
+                  <v>0.217961</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0433137</v>
+                  <v>0.22481</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0441334</v>
+                  <v>0.231511</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0448138</v>
+                  <v>0.23876</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0457069</v>
+                  <v>0.246015</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0468309</v>
+                  <v>0.253902</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.047681</v>
+                  <v>0.261754</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0488768</v>
+                  <v>0.269215</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0504662</v>
+                  <v>0.276809</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0524585</v>
+                  <v>0.285243</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0553225</v>
+                  <v>0.294416</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0590454</v>
+                  <v>0.303237</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0649672</v>
+                  <v>0.212509</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.07502730000000001</v>
+                  <v>0.21893</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0609618</v>
+                  <v>0.225118</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0606272</v>
+                  <v>0.232231</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0716113</v>
+                  <v>0.239705</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0740532</v>
+                  <v>0.247032</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.075507</v>
+                  <v>0.255056</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0709659</v>
+                  <v>0.262733</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0822119</v>
+                  <v>0.271863</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1877,10 +1893,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="5"/>
+          <idx val="2"/>
           <order val="2"/>
           <tx>
-            <v>boost::unordered_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_flat_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2364,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0628543</v>
+                  <v>0.0212525</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0664814</v>
+                  <v>0.0216004</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.07155309999999999</v>
+                  <v>0.0227228</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0787023</v>
+                  <v>0.0236692</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0762729</v>
+                  <v>0.025734</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0596881</v>
+                  <v>0.0307283</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0581592</v>
+                  <v>0.0400074</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0642033</v>
+                  <v>0.0191859</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.066584</v>
+                  <v>0.0194145</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.07067469999999999</v>
+                  <v>0.0197171</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.07539460000000001</v>
+                  <v>0.0200098</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0776222</v>
+                  <v>0.0202944</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.08080030000000001</v>
+                  <v>0.0205605</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.08254499999999999</v>
+                  <v>0.0210623</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0868236</v>
+                  <v>0.021745</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0901443</v>
+                  <v>0.0224624</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.09041780000000001</v>
+                  <v>0.0233932</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.09432</v>
+                  <v>0.0246564</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0970657</v>
+                  <v>0.0274191</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0672951</v>
+                  <v>0.0316025</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0716408</v>
+                  <v>0.0413247</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0714137</v>
+                  <v>0.0187664</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0762883</v>
+                  <v>0.0190384</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0788282</v>
+                  <v>0.019321</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0817253</v>
+                  <v>0.0195661</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0845086</v>
+                  <v>0.0198599</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0872682</v>
+                  <v>0.0203393</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0900213</v>
+                  <v>0.0209382</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0922123</v>
+                  <v>0.0214818</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0951592</v>
+                  <v>0.0223346</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0965795</v>
+                  <v>0.0233779</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0983135</v>
+                  <v>0.0247673</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.101668</v>
+                  <v>0.0273931</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.06976019999999999</v>
+                  <v>0.0317286</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0732333</v>
+                  <v>0.039339</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.07563</v>
+                  <v>0.0193829</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.07849739999999999</v>
+                  <v>0.0197036</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.082784</v>
+                  <v>0.0199834</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.08502469999999999</v>
+                  <v>0.0203028</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0879409</v>
+                  <v>0.0206416</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.091546</v>
+                  <v>0.021054</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0944207</v>
+                  <v>0.0216854</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0970037</v>
+                  <v>0.0224175</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0991208</v>
+                  <v>0.0232548</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.101009</v>
+                  <v>0.0245789</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.103707</v>
+                  <v>0.0261833</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.105854</v>
+                  <v>0.0289704</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.108622</v>
+                  <v>0.0328291</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.07991180000000001</v>
+                  <v>0.0389724</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0852565</v>
+                  <v>0.0204109</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.09070300000000001</v>
+                  <v>0.0206887</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.100166</v>
+                  <v>0.0209817</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.104121</v>
+                  <v>0.0212755</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.110505</v>
+                  <v>0.0216547</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.118017</v>
+                  <v>0.0221738</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.134799</v>
+                  <v>0.0227227</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.150714</v>
+                  <v>0.0233788</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.149598</v>
+                  <v>0.0243162</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.106064</v>
+                  <v>0.0256636</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.110453</v>
+                  <v>0.0275441</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.112451</v>
+                  <v>0.0301356</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.114784</v>
+                  <v>0.0341597</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0808511</v>
+                  <v>0.0404667</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0851362</v>
+                  <v>0.0516123</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0905902</v>
+                  <v>0.0209483</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0957775</v>
+                  <v>0.0212904</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.09995809999999999</v>
+                  <v>0.0216414</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.105452</v>
+                  <v>0.0220066</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.110664</v>
+                  <v>0.022503</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.115302</v>
+                  <v>0.0230597</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.119763</v>
+                  <v>0.023794</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.125554</v>
+                  <v>0.024724</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.130129</v>
+                  <v>0.0259069</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.134996</v>
+                  <v>0.0276355</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.141567</v>
+                  <v>0.0302519</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.147833</v>
+                  <v>0.0340355</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.113894</v>
+                  <v>0.0396979</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.121926</v>
+                  <v>0.049477</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.12561</v>
+                  <v>0.0212779</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.134696</v>
+                  <v>0.0216341</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.13899</v>
+                  <v>0.0219984</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.149483</v>
+                  <v>0.0224363</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.154065</v>
+                  <v>0.0229328</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.163029</v>
+                  <v>0.0235783</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.167705</v>
+                  <v>0.0244305</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.178539</v>
+                  <v>0.0254418</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.186083</v>
+                  <v>0.0267137</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.189656</v>
+                  <v>0.0283454</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.197145</v>
+                  <v>0.0308527</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.214136</v>
+                  <v>0.0342322</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.155917</v>
+                  <v>0.03938</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.163239</v>
+                  <v>0.048197</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.170659</v>
+                  <v>0.0229879</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.176032</v>
+                  <v>0.0234516</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.180564</v>
+                  <v>0.0240067</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.187866</v>
+                  <v>0.0245912</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.197686</v>
+                  <v>0.0253619</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.205106</v>
+                  <v>0.0267537</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.213378</v>
+                  <v>0.0289872</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.22001</v>
+                  <v>0.0317781</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227646</v>
+                  <v>0.0350402</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.235713</v>
+                  <v>0.0383243</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.243297</v>
+                  <v>0.0415289</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.252123</v>
+                  <v>0.0449303</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.261676</v>
+                  <v>0.0491857</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.190199</v>
+                  <v>0.0555259</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.197145</v>
+                  <v>0.0351129</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.204605</v>
+                  <v>0.0361988</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.21028</v>
+                  <v>0.0370074</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.217256</v>
+                  <v>0.0378667</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.224583</v>
+                  <v>0.0385583</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.233435</v>
+                  <v>0.0395869</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.241083</v>
+                  <v>0.0406235</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.248226</v>
+                  <v>0.0416052</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.256309</v>
+                  <v>0.0428433</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.263815</v>
+                  <v>0.0445415</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.272729</v>
+                  <v>0.0464755</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.281114</v>
+                  <v>0.0489272</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.29099</v>
+                  <v>0.0526395</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.206413</v>
+                  <v>0.0583473</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.211988</v>
+                  <v>0.06810819999999999</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.218375</v>
+                  <v>0.0412799</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.225371</v>
+                  <v>0.0422281</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.233023</v>
+                  <v>0.0429276</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.239145</v>
+                  <v>0.0439297</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.246948</v>
+                  <v>0.0447307</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.254198</v>
+                  <v>0.0457736</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.261944</v>
+                  <v>0.0468762</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.270874</v>
+                  <v>0.0480061</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.277744</v>
+                  <v>0.0495994</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.285401</v>
+                  <v>0.0516555</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.294939</v>
+                  <v>0.0541823</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.304154</v>
+                  <v>0.0578916</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.212796</v>
+                  <v>0.0634131</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.219404</v>
+                  <v>0.07260369999999999</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.226867</v>
+                  <v>0.0591479</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.233183</v>
+                  <v>0.0608915</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.258776</v>
+                  <v>0.0603453</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.2671</v>
+                  <v>0.0608767</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.259936</v>
+                  <v>0.0620272</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.270609</v>
+                  <v>0.0625593</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.281995</v>
+                  <v>0.0640025</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>plot!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$E$2:$E$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.0214076</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.0220449</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.0228814</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.0238445</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.0259967</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.0308818</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.0397899</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.0190868</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.0193166</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.0195902</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.0199197</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.0202396</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.0206034</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.0211027</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.02181</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.0225325</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.0234089</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.0246829</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.0272518</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.0319929</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.0414377</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.0188357</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.0191047</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.019293</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.0195628</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.020006</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.0203576</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.0209983</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.0216036</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.0224206</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.0234567</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.0248701</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.0276153</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.0319171</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.0394712</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.0194612</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.019774</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.0200997</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.0204224</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.0207986</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.0212501</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.0218422</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.0225976</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.023464</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.0247861</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.0263224</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.0291543</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.0329324</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.0390016</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.0204605</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.020763</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.0211036</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.0214464</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.0218044</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.02235</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.0228519</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.0235195</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.0244936</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.0258272</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.0276262</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.0303212</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.0343892</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.0407201</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.0517515</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.0210642</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.0214078</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.0217171</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.0221679</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.0225732</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.0231145</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.023886</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.0248041</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.0260928</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.0279417</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.0307152</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.0341993</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.0399898</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.0497379</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.0218936</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.0223402</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.0229967</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.0238374</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.0244912</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.0255432</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.0269618</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.0283241</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.0302692</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.0321612</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.0348082</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.0382122</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.0434233</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.0534129</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.0282249</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.029139</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.03133</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.0341335</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.0381704</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.0428413</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.0471767</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.0508107</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.0541568</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.0573175</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.0605919</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.06430470000000001</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.06932820000000001</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.07656540000000001</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.0513709</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.0528133</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.0541587</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.0555634</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.0569233</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.0585293</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.0602617</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.0619037</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.0640491</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.0662812</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.06915499999999999</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.07276100000000001</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.07756780000000001</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.0847301</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.0960261</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.0604808</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.0618613</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.0635545</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.0648304</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.06670520000000001</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.0683797</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.0702016</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.0724499</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.07498920000000001</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.0779345</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.081499</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.0866347</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.09380090000000001</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.105376</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.0789271</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.0802612</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.08157540000000001</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.0829015</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.0845514</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.08594209999999999</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.0877042</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2865,8 +3791,8 @@
           <hMode val="factor"/>
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
-          <w val="0.3953147440728324"/>
-          <h val="0.2347463490140655"/>
+          <w val="0.3308817338426756"/>
+          <h val="0.2472877044215627"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -3215,8 +4141,8 @@
   </sheetPr>
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3232,12 +4158,17 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>boost::unordered_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_map</t>
+          <t>boost::unordered_flat_map</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::unordered_node_map</t>
         </is>
       </c>
     </row>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0588919</v>
+        <v>0.0586687</v>
       </c>
       <c r="C2" t="n">
-        <v>0.168006</v>
+        <v>0.0596079</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0711518</v>
+        <v>0.07118629999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0620699</v>
+        <v>0.0617215</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06256539999999999</v>
+        <v>0.0605513</v>
       </c>
       <c r="C3" t="n">
-        <v>0.176011</v>
+        <v>0.06267</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07288210000000001</v>
+        <v>0.071893</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06372369999999999</v>
+        <v>0.0626215</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.065946</v>
+        <v>0.0631345</v>
       </c>
       <c r="C4" t="n">
-        <v>0.177025</v>
+        <v>0.0666696</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0732766</v>
+        <v>0.0730628</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0644791</v>
+        <v>0.0637875</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0735227</v>
+        <v>0.06894939999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.181756</v>
+        <v>0.0726941</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0749734</v>
+        <v>0.07492269999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0663917</v>
+        <v>0.0661726</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07758859999999999</v>
+        <v>0.0766961</v>
       </c>
       <c r="C6" t="n">
-        <v>0.18562</v>
+        <v>0.0794176</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0783967</v>
+        <v>0.0782571</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0697981</v>
+        <v>0.0695641</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0899908</v>
+        <v>0.0893642</v>
       </c>
       <c r="C7" t="n">
-        <v>0.153548</v>
+        <v>0.0905738</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0855733</v>
+        <v>0.0855858</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0767741</v>
+        <v>0.0769615</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.112164</v>
+        <v>0.110539</v>
       </c>
       <c r="C8" t="n">
-        <v>0.156782</v>
+        <v>0.110169</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0949585</v>
+        <v>0.0955237</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08657090000000001</v>
+        <v>0.0871207</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.14544</v>
+        <v>0.143209</v>
       </c>
       <c r="C9" t="n">
-        <v>0.16268</v>
+        <v>0.146542</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0696866</v>
+        <v>0.06946339999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0611714</v>
+        <v>0.0611437</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0572003</v>
+        <v>0.0573678</v>
       </c>
       <c r="C10" t="n">
-        <v>0.166182</v>
+        <v>0.0580398</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0696678</v>
+        <v>0.0697786</v>
       </c>
       <c r="E10" t="n">
-        <v>0.061638</v>
+        <v>0.0615177</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.057536</v>
+        <v>0.057741</v>
       </c>
       <c r="C11" t="n">
-        <v>0.171194</v>
+        <v>0.0585072</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0701456</v>
+        <v>0.0703696</v>
       </c>
       <c r="E11" t="n">
-        <v>0.061906</v>
+        <v>0.0620347</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0579186</v>
+        <v>0.0583125</v>
       </c>
       <c r="C12" t="n">
-        <v>0.176096</v>
+        <v>0.0592301</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07013949999999999</v>
+        <v>0.07007330000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0619926</v>
+        <v>0.0624001</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0583329</v>
+        <v>0.0590797</v>
       </c>
       <c r="C13" t="n">
-        <v>0.18047</v>
+        <v>0.0608158</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07072100000000001</v>
+        <v>0.0707285</v>
       </c>
       <c r="E13" t="n">
-        <v>0.06280769999999999</v>
+        <v>0.06293749999999999</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0590661</v>
+        <v>0.0602162</v>
       </c>
       <c r="C14" t="n">
-        <v>0.185277</v>
+        <v>0.0615434</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0705311</v>
+        <v>0.0727984</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0626191</v>
+        <v>0.0632598</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0599316</v>
+        <v>0.0610837</v>
       </c>
       <c r="C15" t="n">
-        <v>0.188598</v>
+        <v>0.0632196</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0711672</v>
+        <v>0.0715499</v>
       </c>
       <c r="E15" t="n">
-        <v>0.06313340000000001</v>
+        <v>0.0641268</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0612849</v>
+        <v>0.0632653</v>
       </c>
       <c r="C16" t="n">
-        <v>0.193427</v>
+        <v>0.0654641</v>
       </c>
       <c r="D16" t="n">
-        <v>0.07242410000000001</v>
+        <v>0.072142</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0640246</v>
+        <v>0.06449530000000001</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06446499999999999</v>
+        <v>0.0648899</v>
       </c>
       <c r="C17" t="n">
-        <v>0.197854</v>
+        <v>0.0684666</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07318810000000001</v>
+        <v>0.0729769</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0654687</v>
+        <v>0.0656856</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0678144</v>
+        <v>0.0701355</v>
       </c>
       <c r="C18" t="n">
-        <v>0.205439</v>
+        <v>0.0716545</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0749455</v>
+        <v>0.07445350000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0674703</v>
+        <v>0.0672616</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0723357</v>
+        <v>0.074851</v>
       </c>
       <c r="C19" t="n">
-        <v>0.206554</v>
+        <v>0.07699350000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0764526</v>
+        <v>0.0765879</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0693391</v>
+        <v>0.0698093</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0800902</v>
+        <v>0.085586</v>
       </c>
       <c r="C20" t="n">
-        <v>0.213008</v>
+        <v>0.08422109999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0800999</v>
+        <v>0.0796477</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0724592</v>
+        <v>0.072418</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0918728</v>
+        <v>0.0966568</v>
       </c>
       <c r="C21" t="n">
-        <v>0.168553</v>
+        <v>0.0937244</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08584319999999999</v>
+        <v>0.0858167</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0785254</v>
+        <v>0.0769522</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.113561</v>
+        <v>0.12159</v>
       </c>
       <c r="C22" t="n">
-        <v>0.174157</v>
+        <v>0.113869</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0959535</v>
+        <v>0.0959684</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0876352</v>
+        <v>0.0874858</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.14272</v>
+        <v>0.144177</v>
       </c>
       <c r="C23" t="n">
-        <v>0.176791</v>
+        <v>0.140536</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0699013</v>
+        <v>0.0702055</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0634306</v>
+        <v>0.06374440000000001</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0609131</v>
+        <v>0.0609142</v>
       </c>
       <c r="C24" t="n">
-        <v>0.18499</v>
+        <v>0.0636043</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0711215</v>
+        <v>0.07125099999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0642995</v>
+        <v>0.0651978</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0617327</v>
+        <v>0.0611622</v>
       </c>
       <c r="C25" t="n">
-        <v>0.18763</v>
+        <v>0.0641559</v>
       </c>
       <c r="D25" t="n">
-        <v>0.07138600000000001</v>
+        <v>0.0706386</v>
       </c>
       <c r="E25" t="n">
-        <v>0.06521200000000001</v>
+        <v>0.0642083</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0623733</v>
+        <v>0.0619242</v>
       </c>
       <c r="C26" t="n">
-        <v>0.189915</v>
+        <v>0.06562229999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.07147000000000001</v>
+        <v>0.0709446</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0668116</v>
+        <v>0.0645762</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0647795</v>
+        <v>0.06263589999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.197066</v>
+        <v>0.0661428</v>
       </c>
       <c r="D27" t="n">
-        <v>0.071412</v>
+        <v>0.0713472</v>
       </c>
       <c r="E27" t="n">
-        <v>0.06507839999999999</v>
+        <v>0.0651379</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0632783</v>
+        <v>0.0632841</v>
       </c>
       <c r="C28" t="n">
-        <v>0.208946</v>
+        <v>0.0678047</v>
       </c>
       <c r="D28" t="n">
-        <v>0.07237109999999999</v>
+        <v>0.071381</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0667466</v>
+        <v>0.0706712</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0650903</v>
+        <v>0.06411070000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.207293</v>
+        <v>0.0716475</v>
       </c>
       <c r="D29" t="n">
-        <v>0.07280440000000001</v>
+        <v>0.0719568</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0664044</v>
+        <v>0.06658650000000001</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0657981</v>
+        <v>0.06791170000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>0.215853</v>
+        <v>0.0727057</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0731275</v>
+        <v>0.0742681</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0675554</v>
+        <v>0.0689533</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.06826939999999999</v>
+        <v>0.07019069999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.222343</v>
+        <v>0.0745651</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0746209</v>
+        <v>0.0748979</v>
       </c>
       <c r="E31" t="n">
-        <v>0.06875199999999999</v>
+        <v>0.0695321</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0720461</v>
+        <v>0.0730262</v>
       </c>
       <c r="C32" t="n">
-        <v>0.224898</v>
+        <v>0.0771424</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0765111</v>
+        <v>0.07588930000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0709052</v>
+        <v>0.0703019</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0764722</v>
+        <v>0.0776126</v>
       </c>
       <c r="C33" t="n">
-        <v>0.230787</v>
+        <v>0.0822225</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0789989</v>
+        <v>0.07884430000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0733029</v>
+        <v>0.0752862</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0833047</v>
+        <v>0.0860383</v>
       </c>
       <c r="C34" t="n">
-        <v>0.234268</v>
+        <v>0.08871130000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0825139</v>
+        <v>0.082069</v>
       </c>
       <c r="E34" t="n">
-        <v>0.07677050000000001</v>
+        <v>0.07640470000000001</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.09378640000000001</v>
+        <v>0.09555950000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.187994</v>
+        <v>0.0988477</v>
       </c>
       <c r="D35" t="n">
-        <v>0.08891880000000001</v>
+        <v>0.0890411</v>
       </c>
       <c r="E35" t="n">
-        <v>0.08290110000000001</v>
+        <v>0.08286250000000001</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.113108</v>
+        <v>0.115429</v>
       </c>
       <c r="C36" t="n">
-        <v>0.192698</v>
+        <v>0.117323</v>
       </c>
       <c r="D36" t="n">
-        <v>0.098426</v>
+        <v>0.0976264</v>
       </c>
       <c r="E36" t="n">
-        <v>0.09474829999999999</v>
+        <v>0.0914117</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.140331</v>
+        <v>0.155861</v>
       </c>
       <c r="C37" t="n">
-        <v>0.200049</v>
+        <v>0.14419</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0727402</v>
+        <v>0.07300570000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>0.06776409999999999</v>
+        <v>0.06875580000000001</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0666012</v>
+        <v>0.0668996</v>
       </c>
       <c r="C38" t="n">
-        <v>0.203545</v>
+        <v>0.071892</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0733669</v>
+        <v>0.0730084</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0680957</v>
+        <v>0.07214669999999999</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0667628</v>
+        <v>0.06656620000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.20974</v>
+        <v>0.0724026</v>
       </c>
       <c r="D39" t="n">
-        <v>0.07335410000000001</v>
+        <v>0.0732573</v>
       </c>
       <c r="E39" t="n">
-        <v>0.06873840000000001</v>
+        <v>0.0687673</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0666013</v>
+        <v>0.0670835</v>
       </c>
       <c r="C40" t="n">
-        <v>0.216628</v>
+        <v>0.0739361</v>
       </c>
       <c r="D40" t="n">
-        <v>0.07355540000000001</v>
+        <v>0.07360990000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>0.06939430000000001</v>
+        <v>0.0696051</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0681398</v>
+        <v>0.069745</v>
       </c>
       <c r="C41" t="n">
-        <v>0.227003</v>
+        <v>0.0757499</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0741058</v>
+        <v>0.074304</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0705186</v>
+        <v>0.0699009</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.06875439999999999</v>
+        <v>0.0684883</v>
       </c>
       <c r="C42" t="n">
-        <v>0.23243</v>
+        <v>0.0790329</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0745813</v>
+        <v>0.07438119999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0709132</v>
+        <v>0.0712658</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.06986539999999999</v>
+        <v>0.06946960000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.242659</v>
+        <v>0.07955230000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.075168</v>
+        <v>0.07470019999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0718352</v>
+        <v>0.071699</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0709707</v>
+        <v>0.07129249999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.250747</v>
+        <v>0.0813952</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0757312</v>
+        <v>0.0755794</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0730225</v>
+        <v>0.0732168</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.07327980000000001</v>
+        <v>0.07523050000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.265017</v>
+        <v>0.08516029999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.07737479999999999</v>
+        <v>0.0770759</v>
       </c>
       <c r="E45" t="n">
-        <v>0.07713589999999999</v>
+        <v>0.07502730000000001</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0771717</v>
+        <v>0.0769051</v>
       </c>
       <c r="C46" t="n">
-        <v>0.274711</v>
+        <v>0.0893235</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0788148</v>
+        <v>0.07792109999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0772487</v>
+        <v>0.0764961</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0809705</v>
+        <v>0.0817297</v>
       </c>
       <c r="C47" t="n">
-        <v>0.287736</v>
+        <v>0.09348629999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.080958</v>
+        <v>0.0804073</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0792646</v>
+        <v>0.07911410000000001</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0883135</v>
+        <v>0.08852690000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2974</v>
+        <v>0.103043</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0848864</v>
+        <v>0.08362940000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>0.08522250000000001</v>
+        <v>0.0833214</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0983745</v>
+        <v>0.0991794</v>
       </c>
       <c r="C49" t="n">
-        <v>0.310218</v>
+        <v>0.115262</v>
       </c>
       <c r="D49" t="n">
-        <v>0.088912</v>
+        <v>0.0890423</v>
       </c>
       <c r="E49" t="n">
-        <v>0.08829049999999999</v>
+        <v>0.08880639999999999</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.113307</v>
+        <v>0.11513</v>
       </c>
       <c r="C50" t="n">
-        <v>0.227666</v>
+        <v>0.135857</v>
       </c>
       <c r="D50" t="n">
-        <v>0.09741</v>
+        <v>0.09973509999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>0.09743209999999999</v>
+        <v>0.0980212</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.142045</v>
+        <v>0.14174</v>
       </c>
       <c r="C51" t="n">
-        <v>0.238878</v>
+        <v>0.157412</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0775675</v>
+        <v>0.0773007</v>
       </c>
       <c r="E51" t="n">
-        <v>0.07532129999999999</v>
+        <v>0.07538839999999999</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.184704</v>
+        <v>0.187244</v>
       </c>
       <c r="C52" t="n">
-        <v>0.248875</v>
+        <v>0.207727</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0779919</v>
+        <v>0.0804636</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0764283</v>
+        <v>0.07692350000000001</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.077125</v>
+        <v>0.0774485</v>
       </c>
       <c r="C53" t="n">
-        <v>0.268158</v>
+        <v>0.0907405</v>
       </c>
       <c r="D53" t="n">
-        <v>0.08035340000000001</v>
+        <v>0.07888779999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0779156</v>
+        <v>0.0779218</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0790053</v>
+        <v>0.07793750000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.278289</v>
+        <v>0.0923168</v>
       </c>
       <c r="D54" t="n">
-        <v>0.078833</v>
+        <v>0.0790056</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0782402</v>
+        <v>0.0792196</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0788054</v>
+        <v>0.0803152</v>
       </c>
       <c r="C55" t="n">
-        <v>0.294041</v>
+        <v>0.09258959999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.07946209999999999</v>
+        <v>0.07872469999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0792581</v>
+        <v>0.07850119999999999</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0811151</v>
+        <v>0.08028</v>
       </c>
       <c r="C56" t="n">
-        <v>0.332794</v>
+        <v>0.0969198</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0798942</v>
+        <v>0.0803644</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0802515</v>
+        <v>0.0828086</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0822875</v>
+        <v>0.08575380000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.324739</v>
+        <v>0.09859</v>
       </c>
       <c r="D57" t="n">
-        <v>0.08079600000000001</v>
+        <v>0.08086169999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0813039</v>
+        <v>0.0818656</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0832579</v>
+        <v>0.0845303</v>
       </c>
       <c r="C58" t="n">
-        <v>0.344942</v>
+        <v>0.101348</v>
       </c>
       <c r="D58" t="n">
-        <v>0.08273510000000001</v>
+        <v>0.08216759999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0835518</v>
+        <v>0.0829193</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0866745</v>
+        <v>0.08622109999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.362122</v>
+        <v>0.104398</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0834478</v>
+        <v>0.0835949</v>
       </c>
       <c r="E59" t="n">
-        <v>0.08612499999999999</v>
+        <v>0.0850472</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.08915770000000001</v>
+        <v>0.0891662</v>
       </c>
       <c r="C60" t="n">
-        <v>0.398249</v>
+        <v>0.108782</v>
       </c>
       <c r="D60" t="n">
-        <v>0.08511870000000001</v>
+        <v>0.0849178</v>
       </c>
       <c r="E60" t="n">
-        <v>0.08792990000000001</v>
+        <v>0.0871629</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0925951</v>
+        <v>0.09321020000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.40919</v>
+        <v>0.11443</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0873366</v>
+        <v>0.08701109999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0910754</v>
+        <v>0.0896453</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.101839</v>
+        <v>0.09843689999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.408706</v>
+        <v>0.122598</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0905049</v>
+        <v>0.09010079999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0949933</v>
+        <v>0.09348620000000001</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.117683</v>
+        <v>0.108383</v>
       </c>
       <c r="C63" t="n">
-        <v>0.439976</v>
+        <v>0.136301</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0964479</v>
+        <v>0.095308</v>
       </c>
       <c r="E63" t="n">
-        <v>0.100447</v>
+        <v>0.0995576</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.123955</v>
+        <v>0.122632</v>
       </c>
       <c r="C64" t="n">
-        <v>0.320379</v>
+        <v>0.152289</v>
       </c>
       <c r="D64" t="n">
-        <v>0.103868</v>
+        <v>0.103707</v>
       </c>
       <c r="E64" t="n">
-        <v>0.110402</v>
+        <v>0.10924</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.149757</v>
+        <v>0.151219</v>
       </c>
       <c r="C65" t="n">
-        <v>0.340761</v>
+        <v>0.181788</v>
       </c>
       <c r="D65" t="n">
-        <v>0.117121</v>
+        <v>0.116841</v>
       </c>
       <c r="E65" t="n">
-        <v>0.130441</v>
+        <v>0.12363</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.189731</v>
+        <v>0.185916</v>
       </c>
       <c r="C66" t="n">
-        <v>0.355123</v>
+        <v>0.220521</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0828984</v>
+        <v>0.08269</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0845069</v>
+        <v>0.0841375</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0883867</v>
+        <v>0.0883234</v>
       </c>
       <c r="C67" t="n">
-        <v>0.37829</v>
+        <v>0.107717</v>
       </c>
       <c r="D67" t="n">
-        <v>0.083338</v>
+        <v>0.0837933</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0870194</v>
+        <v>0.0851316</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0885266</v>
+        <v>0.0887857</v>
       </c>
       <c r="C68" t="n">
-        <v>0.394724</v>
+        <v>0.110436</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0840003</v>
+        <v>0.08431859999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0869428</v>
+        <v>0.08685900000000001</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0895225</v>
+        <v>0.0901332</v>
       </c>
       <c r="C69" t="n">
-        <v>0.421614</v>
+        <v>0.112286</v>
       </c>
       <c r="D69" t="n">
-        <v>0.08489140000000001</v>
+        <v>0.0844258</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0903022</v>
+        <v>0.0875015</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.09263879999999999</v>
+        <v>0.0912761</v>
       </c>
       <c r="C70" t="n">
-        <v>0.453149</v>
+        <v>0.113968</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0872764</v>
+        <v>0.0852512</v>
       </c>
       <c r="E70" t="n">
-        <v>0.09044729999999999</v>
+        <v>0.08911860000000001</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0931028</v>
+        <v>0.0922687</v>
       </c>
       <c r="C71" t="n">
-        <v>0.462822</v>
+        <v>0.119306</v>
       </c>
       <c r="D71" t="n">
-        <v>0.08667710000000001</v>
+        <v>0.0872342</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0924629</v>
+        <v>0.0926409</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0971998</v>
+        <v>0.09529219999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.481078</v>
+        <v>0.124829</v>
       </c>
       <c r="D72" t="n">
-        <v>0.088393</v>
+        <v>0.08851299999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0942192</v>
+        <v>0.0941188</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.09957770000000001</v>
+        <v>0.0974903</v>
       </c>
       <c r="C73" t="n">
-        <v>0.51081</v>
+        <v>0.126678</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0897043</v>
+        <v>0.08945060000000001</v>
       </c>
       <c r="E73" t="n">
-        <v>0.09469619999999999</v>
+        <v>0.09656679999999999</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.101904</v>
+        <v>0.100404</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5331900000000001</v>
+        <v>0.133564</v>
       </c>
       <c r="D74" t="n">
-        <v>0.09203020000000001</v>
+        <v>0.0914712</v>
       </c>
       <c r="E74" t="n">
-        <v>0.099411</v>
+        <v>0.09924239999999999</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.107132</v>
+        <v>0.105127</v>
       </c>
       <c r="C75" t="n">
-        <v>0.556407</v>
+        <v>0.140782</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0939144</v>
+        <v>0.0935704</v>
       </c>
       <c r="E75" t="n">
-        <v>0.1022</v>
+        <v>0.101309</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.114994</v>
+        <v>0.11135</v>
       </c>
       <c r="C76" t="n">
-        <v>0.588861</v>
+        <v>0.152508</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0976186</v>
+        <v>0.0978948</v>
       </c>
       <c r="E76" t="n">
-        <v>0.108429</v>
+        <v>0.10657</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.134242</v>
+        <v>0.123246</v>
       </c>
       <c r="C77" t="n">
-        <v>0.628172</v>
+        <v>0.165721</v>
       </c>
       <c r="D77" t="n">
-        <v>0.10416</v>
+        <v>0.102242</v>
       </c>
       <c r="E77" t="n">
-        <v>0.116795</v>
+        <v>0.113626</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.140304</v>
+        <v>0.141132</v>
       </c>
       <c r="C78" t="n">
-        <v>0.459242</v>
+        <v>0.196918</v>
       </c>
       <c r="D78" t="n">
-        <v>0.112178</v>
+        <v>0.110706</v>
       </c>
       <c r="E78" t="n">
-        <v>0.128728</v>
+        <v>0.1246</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.16614</v>
+        <v>0.164064</v>
       </c>
       <c r="C79" t="n">
-        <v>0.479684</v>
+        <v>0.221578</v>
       </c>
       <c r="D79" t="n">
-        <v>0.124816</v>
+        <v>0.129393</v>
       </c>
       <c r="E79" t="n">
-        <v>0.143721</v>
+        <v>0.142406</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.206198</v>
+        <v>0.203491</v>
       </c>
       <c r="C80" t="n">
-        <v>0.503842</v>
+        <v>0.271448</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0885451</v>
+        <v>0.0893149</v>
       </c>
       <c r="E80" t="n">
-        <v>0.09462370000000001</v>
+        <v>0.0949769</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.09943200000000001</v>
+        <v>0.09703779999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.522983</v>
+        <v>0.131296</v>
       </c>
       <c r="D81" t="n">
-        <v>0.08953319999999999</v>
+        <v>0.0899534</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0976139</v>
+        <v>0.0976436</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.100748</v>
+        <v>0.101393</v>
       </c>
       <c r="C82" t="n">
-        <v>0.542764</v>
+        <v>0.13759</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0907673</v>
+        <v>0.0910096</v>
       </c>
       <c r="E82" t="n">
-        <v>0.09992620000000001</v>
+        <v>0.0987606</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.103343</v>
+        <v>0.102702</v>
       </c>
       <c r="C83" t="n">
-        <v>0.579376</v>
+        <v>0.141166</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0940705</v>
+        <v>0.09211220000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>0.102951</v>
+        <v>0.101225</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.106581</v>
+        <v>0.109552</v>
       </c>
       <c r="C84" t="n">
-        <v>0.607843</v>
+        <v>0.147983</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0941181</v>
+        <v>0.09371110000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>0.10603</v>
+        <v>0.105317</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.116093</v>
+        <v>0.109934</v>
       </c>
       <c r="C85" t="n">
-        <v>0.613018</v>
+        <v>0.153482</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0953195</v>
+        <v>0.0949745</v>
       </c>
       <c r="E85" t="n">
-        <v>0.108913</v>
+        <v>0.107732</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.113522</v>
+        <v>0.111973</v>
       </c>
       <c r="C86" t="n">
-        <v>0.633622</v>
+        <v>0.158875</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0973127</v>
+        <v>0.0981011</v>
       </c>
       <c r="E86" t="n">
-        <v>0.113919</v>
+        <v>0.11647</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.120202</v>
+        <v>0.11884</v>
       </c>
       <c r="C87" t="n">
-        <v>0.662716</v>
+        <v>0.166069</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0994483</v>
+        <v>0.100416</v>
       </c>
       <c r="E87" t="n">
-        <v>0.115429</v>
+        <v>0.115903</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.122549</v>
+        <v>0.121617</v>
       </c>
       <c r="C88" t="n">
-        <v>0.679181</v>
+        <v>0.182638</v>
       </c>
       <c r="D88" t="n">
-        <v>0.103423</v>
+        <v>0.104235</v>
       </c>
       <c r="E88" t="n">
-        <v>0.119996</v>
+        <v>0.120844</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.127171</v>
+        <v>0.129652</v>
       </c>
       <c r="C89" t="n">
-        <v>0.707988</v>
+        <v>0.185409</v>
       </c>
       <c r="D89" t="n">
-        <v>0.105089</v>
+        <v>0.106109</v>
       </c>
       <c r="E89" t="n">
-        <v>0.125188</v>
+        <v>0.125502</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.135747</v>
+        <v>0.138041</v>
       </c>
       <c r="C90" t="n">
-        <v>0.731969</v>
+        <v>0.197299</v>
       </c>
       <c r="D90" t="n">
-        <v>0.111128</v>
+        <v>0.11033</v>
       </c>
       <c r="E90" t="n">
-        <v>0.133534</v>
+        <v>0.13224</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.147851</v>
+        <v>0.148213</v>
       </c>
       <c r="C91" t="n">
-        <v>0.772548</v>
+        <v>0.211841</v>
       </c>
       <c r="D91" t="n">
-        <v>0.121785</v>
+        <v>0.116516</v>
       </c>
       <c r="E91" t="n">
-        <v>0.140854</v>
+        <v>0.139858</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.162757</v>
+        <v>0.163965</v>
       </c>
       <c r="C92" t="n">
-        <v>0.5828719999999999</v>
+        <v>0.235455</v>
       </c>
       <c r="D92" t="n">
-        <v>0.12462</v>
+        <v>0.125423</v>
       </c>
       <c r="E92" t="n">
-        <v>0.152706</v>
+        <v>0.151045</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.187375</v>
+        <v>0.186573</v>
       </c>
       <c r="C93" t="n">
-        <v>0.6029</v>
+        <v>0.27727</v>
       </c>
       <c r="D93" t="n">
-        <v>0.138264</v>
+        <v>0.1389</v>
       </c>
       <c r="E93" t="n">
-        <v>0.170919</v>
+        <v>0.168511</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.225392</v>
+        <v>0.224192</v>
       </c>
       <c r="C94" t="n">
-        <v>0.621875</v>
+        <v>0.317207</v>
       </c>
       <c r="D94" t="n">
-        <v>0.107201</v>
+        <v>0.107711</v>
       </c>
       <c r="E94" t="n">
-        <v>0.126931</v>
+        <v>0.125995</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.129019</v>
+        <v>0.130261</v>
       </c>
       <c r="C95" t="n">
-        <v>0.651732</v>
+        <v>0.181883</v>
       </c>
       <c r="D95" t="n">
-        <v>0.108922</v>
+        <v>0.112791</v>
       </c>
       <c r="E95" t="n">
-        <v>0.128359</v>
+        <v>0.130243</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1305</v>
+        <v>0.132381</v>
       </c>
       <c r="C96" t="n">
-        <v>0.662345</v>
+        <v>0.185019</v>
       </c>
       <c r="D96" t="n">
-        <v>0.109946</v>
+        <v>0.111202</v>
       </c>
       <c r="E96" t="n">
-        <v>0.132168</v>
+        <v>0.133968</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.133128</v>
+        <v>0.136021</v>
       </c>
       <c r="C97" t="n">
-        <v>0.732698</v>
+        <v>0.194301</v>
       </c>
       <c r="D97" t="n">
-        <v>0.112509</v>
+        <v>0.112969</v>
       </c>
       <c r="E97" t="n">
-        <v>0.135477</v>
+        <v>0.134801</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.140721</v>
+        <v>0.136319</v>
       </c>
       <c r="C98" t="n">
-        <v>0.735967</v>
+        <v>0.192751</v>
       </c>
       <c r="D98" t="n">
-        <v>0.115209</v>
+        <v>0.113917</v>
       </c>
       <c r="E98" t="n">
-        <v>0.141054</v>
+        <v>0.138845</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.141245</v>
+        <v>0.13942</v>
       </c>
       <c r="C99" t="n">
-        <v>0.741587</v>
+        <v>0.19968</v>
       </c>
       <c r="D99" t="n">
-        <v>0.117072</v>
+        <v>0.125363</v>
       </c>
       <c r="E99" t="n">
-        <v>0.144605</v>
+        <v>0.150788</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.144643</v>
+        <v>0.14425</v>
       </c>
       <c r="C100" t="n">
-        <v>0.765454</v>
+        <v>0.20764</v>
       </c>
       <c r="D100" t="n">
-        <v>0.120123</v>
+        <v>0.117999</v>
       </c>
       <c r="E100" t="n">
-        <v>0.149009</v>
+        <v>0.145892</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.149728</v>
+        <v>0.146902</v>
       </c>
       <c r="C101" t="n">
-        <v>0.790459</v>
+        <v>0.217678</v>
       </c>
       <c r="D101" t="n">
-        <v>0.122618</v>
+        <v>0.122317</v>
       </c>
       <c r="E101" t="n">
-        <v>0.154326</v>
+        <v>0.153081</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.153741</v>
+        <v>0.155622</v>
       </c>
       <c r="C102" t="n">
-        <v>0.805782</v>
+        <v>0.224913</v>
       </c>
       <c r="D102" t="n">
-        <v>0.124899</v>
+        <v>0.124969</v>
       </c>
       <c r="E102" t="n">
-        <v>0.157711</v>
+        <v>0.156687</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.163929</v>
+        <v>0.159324</v>
       </c>
       <c r="C103" t="n">
-        <v>0.871265</v>
+        <v>0.24641</v>
       </c>
       <c r="D103" t="n">
-        <v>0.133933</v>
+        <v>0.129213</v>
       </c>
       <c r="E103" t="n">
-        <v>0.169617</v>
+        <v>0.163248</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.167854</v>
+        <v>0.167164</v>
       </c>
       <c r="C104" t="n">
-        <v>0.857033</v>
+        <v>0.248582</v>
       </c>
       <c r="D104" t="n">
-        <v>0.13261</v>
+        <v>0.132344</v>
       </c>
       <c r="E104" t="n">
-        <v>0.171666</v>
+        <v>0.168915</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.180517</v>
+        <v>0.179436</v>
       </c>
       <c r="C105" t="n">
-        <v>0.893665</v>
+        <v>0.267783</v>
       </c>
       <c r="D105" t="n">
-        <v>0.138265</v>
+        <v>0.139333</v>
       </c>
       <c r="E105" t="n">
-        <v>0.179415</v>
+        <v>0.176804</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.195609</v>
+        <v>0.192756</v>
       </c>
       <c r="C106" t="n">
-        <v>0.941261</v>
+        <v>0.290018</v>
       </c>
       <c r="D106" t="n">
-        <v>0.148579</v>
+        <v>0.146198</v>
       </c>
       <c r="E106" t="n">
-        <v>0.191257</v>
+        <v>0.188928</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.21954</v>
+        <v>0.217202</v>
       </c>
       <c r="C107" t="n">
-        <v>0.694694</v>
+        <v>0.327147</v>
       </c>
       <c r="D107" t="n">
-        <v>0.161382</v>
+        <v>0.160403</v>
       </c>
       <c r="E107" t="n">
-        <v>0.212477</v>
+        <v>0.220216</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.263428</v>
+        <v>0.257201</v>
       </c>
       <c r="C108" t="n">
-        <v>0.723157</v>
+        <v>0.38465</v>
       </c>
       <c r="D108" t="n">
-        <v>0.175668</v>
+        <v>0.174209</v>
       </c>
       <c r="E108" t="n">
-        <v>0.205973</v>
+        <v>0.200307</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.332565</v>
+        <v>0.324092</v>
       </c>
       <c r="C109" t="n">
-        <v>0.759533</v>
+        <v>0.477076</v>
       </c>
       <c r="D109" t="n">
-        <v>0.177736</v>
+        <v>0.176642</v>
       </c>
       <c r="E109" t="n">
-        <v>0.204166</v>
+        <v>0.201612</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.213326</v>
+        <v>0.212508</v>
       </c>
       <c r="C110" t="n">
-        <v>0.749219</v>
+        <v>0.268563</v>
       </c>
       <c r="D110" t="n">
-        <v>0.18475</v>
+        <v>0.182173</v>
       </c>
       <c r="E110" t="n">
-        <v>0.227534</v>
+        <v>0.206054</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.224653</v>
+        <v>0.213413</v>
       </c>
       <c r="C111" t="n">
-        <v>0.814377</v>
+        <v>0.273232</v>
       </c>
       <c r="D111" t="n">
-        <v>0.18181</v>
+        <v>0.180364</v>
       </c>
       <c r="E111" t="n">
-        <v>0.219846</v>
+        <v>0.211522</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.229082</v>
+        <v>0.216209</v>
       </c>
       <c r="C112" t="n">
-        <v>0.809797</v>
+        <v>0.279963</v>
       </c>
       <c r="D112" t="n">
-        <v>0.181948</v>
+        <v>0.180744</v>
       </c>
       <c r="E112" t="n">
-        <v>0.217268</v>
+        <v>0.210037</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.227715</v>
+        <v>0.22084</v>
       </c>
       <c r="C113" t="n">
-        <v>0.822087</v>
+        <v>0.286907</v>
       </c>
       <c r="D113" t="n">
-        <v>0.204413</v>
+        <v>0.185007</v>
       </c>
       <c r="E113" t="n">
-        <v>0.237423</v>
+        <v>0.221551</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.234338</v>
+        <v>0.220503</v>
       </c>
       <c r="C114" t="n">
-        <v>0.847682</v>
+        <v>0.292504</v>
       </c>
       <c r="D114" t="n">
-        <v>0.191788</v>
+        <v>0.186699</v>
       </c>
       <c r="E114" t="n">
-        <v>0.237466</v>
+        <v>0.224822</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.231496</v>
+        <v>0.223232</v>
       </c>
       <c r="C115" t="n">
-        <v>0.878458</v>
+        <v>0.300343</v>
       </c>
       <c r="D115" t="n">
-        <v>0.192565</v>
+        <v>0.190474</v>
       </c>
       <c r="E115" t="n">
-        <v>0.23538</v>
+        <v>0.229834</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.255815</v>
+        <v>0.233309</v>
       </c>
       <c r="C116" t="n">
-        <v>0.8869359999999999</v>
+        <v>0.313819</v>
       </c>
       <c r="D116" t="n">
-        <v>0.194175</v>
+        <v>0.194682</v>
       </c>
       <c r="E116" t="n">
-        <v>0.235044</v>
+        <v>0.236115</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.263072</v>
+        <v>0.238577</v>
       </c>
       <c r="C117" t="n">
-        <v>0.911884</v>
+        <v>0.32959</v>
       </c>
       <c r="D117" t="n">
-        <v>0.195621</v>
+        <v>0.192321</v>
       </c>
       <c r="E117" t="n">
-        <v>0.260578</v>
+        <v>0.23654</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.271718</v>
+        <v>0.250164</v>
       </c>
       <c r="C118" t="n">
-        <v>0.940387</v>
+        <v>0.340353</v>
       </c>
       <c r="D118" t="n">
-        <v>0.206774</v>
+        <v>0.199748</v>
       </c>
       <c r="E118" t="n">
-        <v>0.249046</v>
+        <v>0.247641</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.262512</v>
+        <v>0.260278</v>
       </c>
       <c r="C119" t="n">
-        <v>0.964954</v>
+        <v>0.389838</v>
       </c>
       <c r="D119" t="n">
-        <v>0.234229</v>
+        <v>0.204275</v>
       </c>
       <c r="E119" t="n">
-        <v>0.263669</v>
+        <v>0.255475</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.281903</v>
+        <v>0.27166</v>
       </c>
       <c r="C120" t="n">
-        <v>0.998236</v>
+        <v>0.384169</v>
       </c>
       <c r="D120" t="n">
-        <v>0.21756</v>
+        <v>0.213378</v>
       </c>
       <c r="E120" t="n">
-        <v>0.268808</v>
+        <v>0.26792</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.304336</v>
+        <v>0.316652</v>
       </c>
       <c r="C121" t="n">
-        <v>0.774529</v>
+        <v>0.440343</v>
       </c>
       <c r="D121" t="n">
-        <v>0.22687</v>
+        <v>0.231569</v>
       </c>
       <c r="E121" t="n">
-        <v>0.292242</v>
+        <v>0.288194</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.342281</v>
+        <v>0.345158</v>
       </c>
       <c r="C122" t="n">
-        <v>0.771766</v>
+        <v>0.495924</v>
       </c>
       <c r="D122" t="n">
-        <v>0.248036</v>
+        <v>0.250744</v>
       </c>
       <c r="E122" t="n">
-        <v>0.320607</v>
+        <v>0.320327</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.418565</v>
+        <v>0.414387</v>
       </c>
       <c r="C123" t="n">
-        <v>0.797147</v>
+        <v>0.588224</v>
       </c>
       <c r="D123" t="n">
-        <v>0.290124</v>
+        <v>0.284156</v>
       </c>
       <c r="E123" t="n">
-        <v>0.322847</v>
+        <v>0.319774</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.358898</v>
+        <v>0.344688</v>
       </c>
       <c r="C124" t="n">
-        <v>0.814506</v>
+        <v>0.401923</v>
       </c>
       <c r="D124" t="n">
-        <v>0.28922</v>
+        <v>0.295221</v>
       </c>
       <c r="E124" t="n">
-        <v>0.320244</v>
+        <v>0.320385</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.35279</v>
+        <v>0.348548</v>
       </c>
       <c r="C125" t="n">
-        <v>0.841689</v>
+        <v>0.424486</v>
       </c>
       <c r="D125" t="n">
-        <v>0.300312</v>
+        <v>0.291522</v>
       </c>
       <c r="E125" t="n">
-        <v>0.319476</v>
+        <v>0.320643</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.35518</v>
+        <v>0.351182</v>
       </c>
       <c r="C126" t="n">
-        <v>0.889954</v>
+        <v>0.418661</v>
       </c>
       <c r="D126" t="n">
-        <v>0.301268</v>
+        <v>0.291368</v>
       </c>
       <c r="E126" t="n">
-        <v>0.326104</v>
+        <v>0.325714</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.357202</v>
+        <v>0.366658</v>
       </c>
       <c r="C127" t="n">
-        <v>0.893429</v>
+        <v>0.421243</v>
       </c>
       <c r="D127" t="n">
-        <v>0.290413</v>
+        <v>0.291458</v>
       </c>
       <c r="E127" t="n">
-        <v>0.327256</v>
+        <v>0.328496</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.365731</v>
+        <v>0.358703</v>
       </c>
       <c r="C128" t="n">
-        <v>0.898479</v>
+        <v>0.431053</v>
       </c>
       <c r="D128" t="n">
-        <v>0.292701</v>
+        <v>0.296994</v>
       </c>
       <c r="E128" t="n">
-        <v>0.332067</v>
+        <v>0.335657</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.382178</v>
+        <v>0.36464</v>
       </c>
       <c r="C129" t="n">
-        <v>0.934453</v>
+        <v>0.437193</v>
       </c>
       <c r="D129" t="n">
-        <v>0.31089</v>
+        <v>0.300391</v>
       </c>
       <c r="E129" t="n">
-        <v>0.343372</v>
+        <v>0.345026</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.378031</v>
+        <v>0.379683</v>
       </c>
       <c r="C130" t="n">
-        <v>0.970486</v>
+        <v>0.471509</v>
       </c>
       <c r="D130" t="n">
-        <v>0.305478</v>
+        <v>0.302504</v>
       </c>
       <c r="E130" t="n">
-        <v>0.347466</v>
+        <v>0.346013</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3852</v>
+        <v>0.381058</v>
       </c>
       <c r="C131" t="n">
-        <v>0.990473</v>
+        <v>0.46014</v>
       </c>
       <c r="D131" t="n">
-        <v>0.307422</v>
+        <v>0.309116</v>
       </c>
       <c r="E131" t="n">
-        <v>0.355047</v>
+        <v>0.353464</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.404131</v>
+        <v>0.395983</v>
       </c>
       <c r="C132" t="n">
-        <v>1.04053</v>
+        <v>0.484446</v>
       </c>
       <c r="D132" t="n">
-        <v>0.314045</v>
+        <v>0.324335</v>
       </c>
       <c r="E132" t="n">
-        <v>0.364702</v>
+        <v>0.368692</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.409984</v>
+        <v>0.430816</v>
       </c>
       <c r="C133" t="n">
-        <v>1.06803</v>
+        <v>0.50056</v>
       </c>
       <c r="D133" t="n">
-        <v>0.320067</v>
+        <v>0.323431</v>
       </c>
       <c r="E133" t="n">
-        <v>0.370594</v>
+        <v>0.372574</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.428018</v>
+        <v>0.433038</v>
       </c>
       <c r="C134" t="n">
-        <v>1.10712</v>
+        <v>0.531027</v>
       </c>
       <c r="D134" t="n">
-        <v>0.324949</v>
+        <v>0.343727</v>
       </c>
       <c r="E134" t="n">
-        <v>0.395063</v>
+        <v>0.391689</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.46466</v>
+        <v>0.460409</v>
       </c>
       <c r="C135" t="n">
-        <v>0.894138</v>
+        <v>0.56667</v>
       </c>
       <c r="D135" t="n">
-        <v>0.341749</v>
+        <v>0.346904</v>
       </c>
       <c r="E135" t="n">
-        <v>0.403587</v>
+        <v>0.405752</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.512951</v>
+        <v>0.509651</v>
       </c>
       <c r="C136" t="n">
-        <v>0.911121</v>
+        <v>0.640593</v>
       </c>
       <c r="D136" t="n">
-        <v>0.366852</v>
+        <v>0.36609</v>
       </c>
       <c r="E136" t="n">
-        <v>0.436651</v>
+        <v>0.439973</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.5870570000000001</v>
+        <v>0.5870030000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>0.94504</v>
+        <v>0.7765840000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>0.348982</v>
+        <v>0.350924</v>
       </c>
       <c r="E137" t="n">
-        <v>0.37837</v>
+        <v>0.374225</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.426712</v>
+        <v>0.42681</v>
       </c>
       <c r="C138" t="n">
-        <v>0.965318</v>
+        <v>0.494952</v>
       </c>
       <c r="D138" t="n">
-        <v>0.352668</v>
+        <v>0.348944</v>
       </c>
       <c r="E138" t="n">
-        <v>0.380826</v>
+        <v>0.382986</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.434038</v>
+        <v>0.44336</v>
       </c>
       <c r="C139" t="n">
-        <v>1.01804</v>
+        <v>0.489148</v>
       </c>
       <c r="D139" t="n">
-        <v>0.356026</v>
+        <v>0.351604</v>
       </c>
       <c r="E139" t="n">
-        <v>0.388018</v>
+        <v>0.383955</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.433001</v>
+        <v>0.444755</v>
       </c>
       <c r="C140" t="n">
-        <v>1.03329</v>
+        <v>0.513363</v>
       </c>
       <c r="D140" t="n">
-        <v>0.356523</v>
+        <v>0.358987</v>
       </c>
       <c r="E140" t="n">
-        <v>0.391199</v>
+        <v>0.394509</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.448102</v>
+        <v>0.446966</v>
       </c>
       <c r="C141" t="n">
-        <v>1.08887</v>
+        <v>0.517444</v>
       </c>
       <c r="D141" t="n">
-        <v>0.359426</v>
+        <v>0.362708</v>
       </c>
       <c r="E141" t="n">
-        <v>0.401585</v>
+        <v>0.392108</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.444005</v>
+        <v>0.452106</v>
       </c>
       <c r="C142" t="n">
-        <v>1.11603</v>
+        <v>0.521366</v>
       </c>
       <c r="D142" t="n">
-        <v>0.364402</v>
+        <v>0.363186</v>
       </c>
       <c r="E142" t="n">
-        <v>0.407009</v>
+        <v>0.404308</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.464265</v>
+        <v>0.456708</v>
       </c>
       <c r="C143" t="n">
-        <v>1.14119</v>
+        <v>0.542705</v>
       </c>
       <c r="D143" t="n">
-        <v>0.366115</v>
+        <v>0.365884</v>
       </c>
       <c r="E143" t="n">
-        <v>0.407191</v>
+        <v>0.414954</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0588919</v>
+        <v>0.0604233</v>
       </c>
       <c r="C2" t="n">
-        <v>0.168006</v>
+        <v>0.166925</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0711518</v>
+        <v>0.07152849999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0620699</v>
+        <v>0.0625867</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06256539999999999</v>
+        <v>0.0633417</v>
       </c>
       <c r="C3" t="n">
-        <v>0.176011</v>
+        <v>0.168395</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07288210000000001</v>
+        <v>0.07336860000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06372369999999999</v>
+        <v>0.0629152</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.065946</v>
+        <v>0.06269230000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.177025</v>
+        <v>0.175381</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0732766</v>
+        <v>0.07539659999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0644791</v>
+        <v>0.0672218</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0735227</v>
+        <v>0.0721451</v>
       </c>
       <c r="C5" t="n">
-        <v>0.181756</v>
+        <v>0.178702</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0749734</v>
+        <v>0.07581690000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0663917</v>
+        <v>0.0666601</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07758859999999999</v>
+        <v>0.07650999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.18562</v>
+        <v>0.195404</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0783967</v>
+        <v>0.0810794</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0697981</v>
+        <v>0.0738465</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0899908</v>
+        <v>0.0909841</v>
       </c>
       <c r="C7" t="n">
-        <v>0.153548</v>
+        <v>0.148508</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0855733</v>
+        <v>0.08936769999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0767741</v>
+        <v>0.0778382</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.112164</v>
+        <v>0.115517</v>
       </c>
       <c r="C8" t="n">
-        <v>0.156782</v>
+        <v>0.154795</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0949585</v>
+        <v>0.0979241</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08657090000000001</v>
+        <v>0.08894100000000001</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.14544</v>
+        <v>0.14885</v>
       </c>
       <c r="C9" t="n">
-        <v>0.16268</v>
+        <v>0.155803</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0696866</v>
+        <v>0.0713642</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0611714</v>
+        <v>0.0655012</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0572003</v>
+        <v>0.0601672</v>
       </c>
       <c r="C10" t="n">
-        <v>0.166182</v>
+        <v>0.16105</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0696678</v>
+        <v>0.0700177</v>
       </c>
       <c r="E10" t="n">
-        <v>0.061638</v>
+        <v>0.0614516</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.057536</v>
+        <v>0.0586036</v>
       </c>
       <c r="C11" t="n">
-        <v>0.171194</v>
+        <v>0.166784</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0701456</v>
+        <v>0.0706339</v>
       </c>
       <c r="E11" t="n">
-        <v>0.061906</v>
+        <v>0.062497</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0579186</v>
+        <v>0.0599772</v>
       </c>
       <c r="C12" t="n">
-        <v>0.176096</v>
+        <v>0.171382</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07013949999999999</v>
+        <v>0.0739605</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0619926</v>
+        <v>0.0621427</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0583329</v>
+        <v>0.059115</v>
       </c>
       <c r="C13" t="n">
-        <v>0.18047</v>
+        <v>0.174741</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07072100000000001</v>
+        <v>0.0721289</v>
       </c>
       <c r="E13" t="n">
-        <v>0.06280769999999999</v>
+        <v>0.0626771</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0590661</v>
+        <v>0.061587</v>
       </c>
       <c r="C14" t="n">
-        <v>0.185277</v>
+        <v>0.18035</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0705311</v>
+        <v>0.0712855</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0626191</v>
+        <v>0.0634623</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0599316</v>
+        <v>0.0605427</v>
       </c>
       <c r="C15" t="n">
-        <v>0.188598</v>
+        <v>0.186982</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0711672</v>
+        <v>0.0729384</v>
       </c>
       <c r="E15" t="n">
-        <v>0.06313340000000001</v>
+        <v>0.06339119999999999</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0612849</v>
+        <v>0.0638772</v>
       </c>
       <c r="C16" t="n">
-        <v>0.193427</v>
+        <v>0.19063</v>
       </c>
       <c r="D16" t="n">
-        <v>0.07242410000000001</v>
+        <v>0.0731253</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0640246</v>
+        <v>0.0646002</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06446499999999999</v>
+        <v>0.0689902</v>
       </c>
       <c r="C17" t="n">
-        <v>0.197854</v>
+        <v>0.205947</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07318810000000001</v>
+        <v>0.0733066</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0654687</v>
+        <v>0.06640939999999999</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0678144</v>
+        <v>0.0681865</v>
       </c>
       <c r="C18" t="n">
-        <v>0.205439</v>
+        <v>0.19833</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0749455</v>
+        <v>0.0748965</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0674703</v>
+        <v>0.0694892</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0723357</v>
+        <v>0.07533810000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>0.206554</v>
+        <v>0.202298</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0764526</v>
+        <v>0.0776517</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0693391</v>
+        <v>0.0695823</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0800902</v>
+        <v>0.078984</v>
       </c>
       <c r="C20" t="n">
-        <v>0.213008</v>
+        <v>0.210919</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0800999</v>
+        <v>0.0815288</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0724592</v>
+        <v>0.0731878</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0918728</v>
+        <v>0.0903641</v>
       </c>
       <c r="C21" t="n">
-        <v>0.168553</v>
+        <v>0.160601</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08584319999999999</v>
+        <v>0.0899398</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0785254</v>
+        <v>0.078448</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.113561</v>
+        <v>0.109383</v>
       </c>
       <c r="C22" t="n">
-        <v>0.174157</v>
+        <v>0.166031</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0959535</v>
+        <v>0.09669030000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0876352</v>
+        <v>0.0886936</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.14272</v>
+        <v>0.144972</v>
       </c>
       <c r="C23" t="n">
-        <v>0.176791</v>
+        <v>0.169919</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0699013</v>
+        <v>0.07101059999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0634306</v>
+        <v>0.066326</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0609131</v>
+        <v>0.06327530000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.18499</v>
+        <v>0.177971</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0711215</v>
+        <v>0.0722172</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0642995</v>
+        <v>0.06738130000000001</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0617327</v>
+        <v>0.0614429</v>
       </c>
       <c r="C25" t="n">
-        <v>0.18763</v>
+        <v>0.188527</v>
       </c>
       <c r="D25" t="n">
-        <v>0.07138600000000001</v>
+        <v>0.07570399999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.06521200000000001</v>
+        <v>0.0644459</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0623733</v>
+        <v>0.06691759999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.189915</v>
+        <v>0.190352</v>
       </c>
       <c r="D26" t="n">
-        <v>0.07147000000000001</v>
+        <v>0.0729069</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0668116</v>
+        <v>0.0680195</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0647795</v>
+        <v>0.06381290000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.197066</v>
+        <v>0.190282</v>
       </c>
       <c r="D27" t="n">
-        <v>0.071412</v>
+        <v>0.0718998</v>
       </c>
       <c r="E27" t="n">
-        <v>0.06507839999999999</v>
+        <v>0.0664491</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0632783</v>
+        <v>0.065511</v>
       </c>
       <c r="C28" t="n">
-        <v>0.208946</v>
+        <v>0.201719</v>
       </c>
       <c r="D28" t="n">
-        <v>0.07237109999999999</v>
+        <v>0.0780711</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0667466</v>
+        <v>0.06753720000000001</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0650903</v>
+        <v>0.06561889999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.207293</v>
+        <v>0.211176</v>
       </c>
       <c r="D29" t="n">
-        <v>0.07280440000000001</v>
+        <v>0.0727747</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0664044</v>
+        <v>0.0687407</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0657981</v>
+        <v>0.0662348</v>
       </c>
       <c r="C30" t="n">
-        <v>0.215853</v>
+        <v>0.212283</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0731275</v>
+        <v>0.0748123</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0675554</v>
+        <v>0.0681163</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.06826939999999999</v>
+        <v>0.0707604</v>
       </c>
       <c r="C31" t="n">
-        <v>0.222343</v>
+        <v>0.222574</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0746209</v>
+        <v>0.0754267</v>
       </c>
       <c r="E31" t="n">
-        <v>0.06875199999999999</v>
+        <v>0.0695677</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0720461</v>
+        <v>0.0731089</v>
       </c>
       <c r="C32" t="n">
-        <v>0.224898</v>
+        <v>0.22909</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0765111</v>
+        <v>0.07736</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0709052</v>
+        <v>0.0736035</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0764722</v>
+        <v>0.0763996</v>
       </c>
       <c r="C33" t="n">
-        <v>0.230787</v>
+        <v>0.230577</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0789989</v>
+        <v>0.07897220000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0733029</v>
+        <v>0.07348970000000001</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0833047</v>
+        <v>0.0854374</v>
       </c>
       <c r="C34" t="n">
-        <v>0.234268</v>
+        <v>0.23636</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0825139</v>
+        <v>0.08495419999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>0.07677050000000001</v>
+        <v>0.0795748</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.09378640000000001</v>
+        <v>0.0936659</v>
       </c>
       <c r="C35" t="n">
-        <v>0.187994</v>
+        <v>0.1723</v>
       </c>
       <c r="D35" t="n">
-        <v>0.08891880000000001</v>
+        <v>0.0882531</v>
       </c>
       <c r="E35" t="n">
-        <v>0.08290110000000001</v>
+        <v>0.0820408</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.113108</v>
+        <v>0.109367</v>
       </c>
       <c r="C36" t="n">
-        <v>0.192698</v>
+        <v>0.180019</v>
       </c>
       <c r="D36" t="n">
-        <v>0.098426</v>
+        <v>0.0985727</v>
       </c>
       <c r="E36" t="n">
-        <v>0.09474829999999999</v>
+        <v>0.0946676</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.140331</v>
+        <v>0.142908</v>
       </c>
       <c r="C37" t="n">
-        <v>0.200049</v>
+        <v>0.19084</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0727402</v>
+        <v>0.07299509999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>0.06776409999999999</v>
+        <v>0.06881089999999999</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0666012</v>
+        <v>0.06626319999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.203545</v>
+        <v>0.196108</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0733669</v>
+        <v>0.0751183</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0680957</v>
+        <v>0.0687059</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0667628</v>
+        <v>0.0689028</v>
       </c>
       <c r="C39" t="n">
-        <v>0.20974</v>
+        <v>0.207496</v>
       </c>
       <c r="D39" t="n">
-        <v>0.07335410000000001</v>
+        <v>0.0738253</v>
       </c>
       <c r="E39" t="n">
-        <v>0.06873840000000001</v>
+        <v>0.0724899</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0666013</v>
+        <v>0.0674324</v>
       </c>
       <c r="C40" t="n">
-        <v>0.216628</v>
+        <v>0.212824</v>
       </c>
       <c r="D40" t="n">
-        <v>0.07355540000000001</v>
+        <v>0.07572420000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>0.06939430000000001</v>
+        <v>0.07062690000000001</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0681398</v>
+        <v>0.0718097</v>
       </c>
       <c r="C41" t="n">
-        <v>0.227003</v>
+        <v>0.225735</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0741058</v>
+        <v>0.0755675</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0705186</v>
+        <v>0.07230780000000001</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.06875439999999999</v>
+        <v>0.0744166</v>
       </c>
       <c r="C42" t="n">
-        <v>0.23243</v>
+        <v>0.23333</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0745813</v>
+        <v>0.0764162</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0709132</v>
+        <v>0.0717434</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.06986539999999999</v>
+        <v>0.07095940000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.242659</v>
+        <v>0.235168</v>
       </c>
       <c r="D43" t="n">
-        <v>0.075168</v>
+        <v>0.0763061</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0718352</v>
+        <v>0.07334739999999999</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0709707</v>
+        <v>0.07104480000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.250747</v>
+        <v>0.248457</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0757312</v>
+        <v>0.078554</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0730225</v>
+        <v>0.074347</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.07327980000000001</v>
+        <v>0.07373589999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.265017</v>
+        <v>0.266815</v>
       </c>
       <c r="D45" t="n">
-        <v>0.07737479999999999</v>
+        <v>0.0773355</v>
       </c>
       <c r="E45" t="n">
-        <v>0.07713589999999999</v>
+        <v>0.07516440000000001</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0771717</v>
+        <v>0.0781341</v>
       </c>
       <c r="C46" t="n">
-        <v>0.274711</v>
+        <v>0.272416</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0788148</v>
+        <v>0.0791379</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0772487</v>
+        <v>0.0776847</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0809705</v>
+        <v>0.0808426</v>
       </c>
       <c r="C47" t="n">
-        <v>0.287736</v>
+        <v>0.280123</v>
       </c>
       <c r="D47" t="n">
-        <v>0.080958</v>
+        <v>0.0846712</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0792646</v>
+        <v>0.0817837</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0883135</v>
+        <v>0.0879219</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2974</v>
+        <v>0.303226</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0848864</v>
+        <v>0.084513</v>
       </c>
       <c r="E48" t="n">
-        <v>0.08522250000000001</v>
+        <v>0.0848883</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0983745</v>
+        <v>0.09644419999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.310218</v>
+        <v>0.310494</v>
       </c>
       <c r="D49" t="n">
-        <v>0.088912</v>
+        <v>0.0889302</v>
       </c>
       <c r="E49" t="n">
-        <v>0.08829049999999999</v>
+        <v>0.0895416</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.113307</v>
+        <v>0.115423</v>
       </c>
       <c r="C50" t="n">
-        <v>0.227666</v>
+        <v>0.231065</v>
       </c>
       <c r="D50" t="n">
-        <v>0.09741</v>
+        <v>0.09899330000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>0.09743209999999999</v>
+        <v>0.102003</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.142045</v>
+        <v>0.145137</v>
       </c>
       <c r="C51" t="n">
-        <v>0.238878</v>
+        <v>0.234804</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0775675</v>
+        <v>0.0789227</v>
       </c>
       <c r="E51" t="n">
-        <v>0.07532129999999999</v>
+        <v>0.07603119999999999</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.184704</v>
+        <v>0.190158</v>
       </c>
       <c r="C52" t="n">
-        <v>0.248875</v>
+        <v>0.25238</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0779919</v>
+        <v>0.0793044</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0764283</v>
+        <v>0.0794811</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.077125</v>
+        <v>0.0782048</v>
       </c>
       <c r="C53" t="n">
-        <v>0.268158</v>
+        <v>0.261572</v>
       </c>
       <c r="D53" t="n">
-        <v>0.08035340000000001</v>
+        <v>0.0830139</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0779156</v>
+        <v>0.0789801</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0790053</v>
+        <v>0.0787727</v>
       </c>
       <c r="C54" t="n">
-        <v>0.278289</v>
+        <v>0.301715</v>
       </c>
       <c r="D54" t="n">
-        <v>0.078833</v>
+        <v>0.0834844</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0782402</v>
+        <v>0.0793678</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0788054</v>
+        <v>0.0793005</v>
       </c>
       <c r="C55" t="n">
-        <v>0.294041</v>
+        <v>0.290679</v>
       </c>
       <c r="D55" t="n">
-        <v>0.07946209999999999</v>
+        <v>0.0793</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0792581</v>
+        <v>0.0792358</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0811151</v>
+        <v>0.0808442</v>
       </c>
       <c r="C56" t="n">
-        <v>0.332794</v>
+        <v>0.305403</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0798942</v>
+        <v>0.0808553</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0802515</v>
+        <v>0.0806979</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0822875</v>
+        <v>0.0838073</v>
       </c>
       <c r="C57" t="n">
-        <v>0.324739</v>
+        <v>0.337867</v>
       </c>
       <c r="D57" t="n">
-        <v>0.08079600000000001</v>
+        <v>0.08182589999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0813039</v>
+        <v>0.0823962</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0832579</v>
+        <v>0.08525249999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.344942</v>
+        <v>0.352428</v>
       </c>
       <c r="D58" t="n">
-        <v>0.08273510000000001</v>
+        <v>0.0853231</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0835518</v>
+        <v>0.08685660000000001</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0866745</v>
+        <v>0.0878834</v>
       </c>
       <c r="C59" t="n">
-        <v>0.362122</v>
+        <v>0.362327</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0834478</v>
+        <v>0.08379490000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>0.08612499999999999</v>
+        <v>0.0858894</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.08915770000000001</v>
+        <v>0.0890094</v>
       </c>
       <c r="C60" t="n">
-        <v>0.398249</v>
+        <v>0.365192</v>
       </c>
       <c r="D60" t="n">
-        <v>0.08511870000000001</v>
+        <v>0.08696420000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>0.08792990000000001</v>
+        <v>0.08734450000000001</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0925951</v>
+        <v>0.0948113</v>
       </c>
       <c r="C61" t="n">
-        <v>0.40919</v>
+        <v>0.388818</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0873366</v>
+        <v>0.09497510000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0910754</v>
+        <v>0.09370290000000001</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.101839</v>
+        <v>0.10579</v>
       </c>
       <c r="C62" t="n">
-        <v>0.408706</v>
+        <v>0.421026</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0905049</v>
+        <v>0.100217</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0949933</v>
+        <v>0.09769949999999999</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.117683</v>
+        <v>0.111418</v>
       </c>
       <c r="C63" t="n">
-        <v>0.439976</v>
+        <v>0.43554</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0964479</v>
+        <v>0.0967326</v>
       </c>
       <c r="E63" t="n">
-        <v>0.100447</v>
+        <v>0.10291</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.123955</v>
+        <v>0.126736</v>
       </c>
       <c r="C64" t="n">
-        <v>0.320379</v>
+        <v>0.325795</v>
       </c>
       <c r="D64" t="n">
-        <v>0.103868</v>
+        <v>0.104956</v>
       </c>
       <c r="E64" t="n">
-        <v>0.110402</v>
+        <v>0.113204</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.149757</v>
+        <v>0.150095</v>
       </c>
       <c r="C65" t="n">
-        <v>0.340761</v>
+        <v>0.348991</v>
       </c>
       <c r="D65" t="n">
-        <v>0.117121</v>
+        <v>0.11818</v>
       </c>
       <c r="E65" t="n">
-        <v>0.130441</v>
+        <v>0.127838</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.189731</v>
+        <v>0.193657</v>
       </c>
       <c r="C66" t="n">
-        <v>0.355123</v>
+        <v>0.362072</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0828984</v>
+        <v>0.08677269999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0845069</v>
+        <v>0.0884906</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0883867</v>
+        <v>0.0885113</v>
       </c>
       <c r="C67" t="n">
-        <v>0.37829</v>
+        <v>0.384072</v>
       </c>
       <c r="D67" t="n">
-        <v>0.083338</v>
+        <v>0.08568580000000001</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0870194</v>
+        <v>0.086523</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0885266</v>
+        <v>0.09288920000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.394724</v>
+        <v>0.409186</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0840003</v>
+        <v>0.0855793</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0869428</v>
+        <v>0.0877732</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0895225</v>
+        <v>0.0937117</v>
       </c>
       <c r="C69" t="n">
-        <v>0.421614</v>
+        <v>0.436365</v>
       </c>
       <c r="D69" t="n">
-        <v>0.08489140000000001</v>
+        <v>0.0880017</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0903022</v>
+        <v>0.0896695</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.09263879999999999</v>
+        <v>0.09413779999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.453149</v>
+        <v>0.445187</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0872764</v>
+        <v>0.08883000000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>0.09044729999999999</v>
+        <v>0.0916781</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0931028</v>
+        <v>0.09440999999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.462822</v>
+        <v>0.464813</v>
       </c>
       <c r="D71" t="n">
-        <v>0.08667710000000001</v>
+        <v>0.0925537</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0924629</v>
+        <v>0.09753199999999999</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0971998</v>
+        <v>0.09754690000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.481078</v>
+        <v>0.494825</v>
       </c>
       <c r="D72" t="n">
-        <v>0.088393</v>
+        <v>0.0890519</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0942192</v>
+        <v>0.0995967</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.09957770000000001</v>
+        <v>0.0998175</v>
       </c>
       <c r="C73" t="n">
-        <v>0.51081</v>
+        <v>0.5164609999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0897043</v>
+        <v>0.0919847</v>
       </c>
       <c r="E73" t="n">
-        <v>0.09469619999999999</v>
+        <v>0.100666</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.101904</v>
+        <v>0.104711</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5331900000000001</v>
+        <v>0.5513940000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.09203020000000001</v>
+        <v>0.0944089</v>
       </c>
       <c r="E74" t="n">
-        <v>0.099411</v>
+        <v>0.101273</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.107132</v>
+        <v>0.110717</v>
       </c>
       <c r="C75" t="n">
-        <v>0.556407</v>
+        <v>0.572497</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0939144</v>
+        <v>0.0968643</v>
       </c>
       <c r="E75" t="n">
-        <v>0.1022</v>
+        <v>0.107887</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.114994</v>
+        <v>0.118058</v>
       </c>
       <c r="C76" t="n">
-        <v>0.588861</v>
+        <v>0.6076</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0976186</v>
+        <v>0.103002</v>
       </c>
       <c r="E76" t="n">
-        <v>0.108429</v>
+        <v>0.117496</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.134242</v>
+        <v>0.127984</v>
       </c>
       <c r="C77" t="n">
-        <v>0.628172</v>
+        <v>0.6171759999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.10416</v>
+        <v>0.10867</v>
       </c>
       <c r="E77" t="n">
-        <v>0.116795</v>
+        <v>0.119008</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.140304</v>
+        <v>0.16075</v>
       </c>
       <c r="C78" t="n">
-        <v>0.459242</v>
+        <v>0.48916</v>
       </c>
       <c r="D78" t="n">
-        <v>0.112178</v>
+        <v>0.115209</v>
       </c>
       <c r="E78" t="n">
-        <v>0.128728</v>
+        <v>0.126629</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.16614</v>
+        <v>0.168598</v>
       </c>
       <c r="C79" t="n">
-        <v>0.479684</v>
+        <v>0.486743</v>
       </c>
       <c r="D79" t="n">
-        <v>0.124816</v>
+        <v>0.137624</v>
       </c>
       <c r="E79" t="n">
-        <v>0.143721</v>
+        <v>0.146751</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.206198</v>
+        <v>0.205052</v>
       </c>
       <c r="C80" t="n">
-        <v>0.503842</v>
+        <v>0.563465</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0885451</v>
+        <v>0.0922207</v>
       </c>
       <c r="E80" t="n">
-        <v>0.09462370000000001</v>
+        <v>0.0958981</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.09943200000000001</v>
+        <v>0.102209</v>
       </c>
       <c r="C81" t="n">
-        <v>0.522983</v>
+        <v>0.52564</v>
       </c>
       <c r="D81" t="n">
-        <v>0.08953319999999999</v>
+        <v>0.0944208</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0976139</v>
+        <v>0.100846</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.100748</v>
+        <v>0.103029</v>
       </c>
       <c r="C82" t="n">
-        <v>0.542764</v>
+        <v>0.548816</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0907673</v>
+        <v>0.09497120000000001</v>
       </c>
       <c r="E82" t="n">
-        <v>0.09992620000000001</v>
+        <v>0.103487</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.103343</v>
+        <v>0.106601</v>
       </c>
       <c r="C83" t="n">
-        <v>0.579376</v>
+        <v>0.619969</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0940705</v>
+        <v>0.0979677</v>
       </c>
       <c r="E83" t="n">
-        <v>0.102951</v>
+        <v>0.103938</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.106581</v>
+        <v>0.109681</v>
       </c>
       <c r="C84" t="n">
-        <v>0.607843</v>
+        <v>0.623722</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0941181</v>
+        <v>0.09647840000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>0.10603</v>
+        <v>0.107789</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.116093</v>
+        <v>0.117119</v>
       </c>
       <c r="C85" t="n">
-        <v>0.613018</v>
+        <v>0.630163</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0953195</v>
+        <v>0.095679</v>
       </c>
       <c r="E85" t="n">
-        <v>0.108913</v>
+        <v>0.110779</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.113522</v>
+        <v>0.116228</v>
       </c>
       <c r="C86" t="n">
-        <v>0.633622</v>
+        <v>0.640842</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0973127</v>
+        <v>0.102509</v>
       </c>
       <c r="E86" t="n">
-        <v>0.113919</v>
+        <v>0.114128</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.120202</v>
+        <v>0.125362</v>
       </c>
       <c r="C87" t="n">
-        <v>0.662716</v>
+        <v>0.663477</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0994483</v>
+        <v>0.101184</v>
       </c>
       <c r="E87" t="n">
-        <v>0.115429</v>
+        <v>0.118579</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.122549</v>
+        <v>0.127875</v>
       </c>
       <c r="C88" t="n">
-        <v>0.679181</v>
+        <v>0.707549</v>
       </c>
       <c r="D88" t="n">
-        <v>0.103423</v>
+        <v>0.104199</v>
       </c>
       <c r="E88" t="n">
-        <v>0.119996</v>
+        <v>0.128217</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.127171</v>
+        <v>0.132301</v>
       </c>
       <c r="C89" t="n">
-        <v>0.707988</v>
+        <v>0.717388</v>
       </c>
       <c r="D89" t="n">
-        <v>0.105089</v>
+        <v>0.108292</v>
       </c>
       <c r="E89" t="n">
-        <v>0.125188</v>
+        <v>0.132373</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.135747</v>
+        <v>0.146752</v>
       </c>
       <c r="C90" t="n">
-        <v>0.731969</v>
+        <v>0.765359</v>
       </c>
       <c r="D90" t="n">
-        <v>0.111128</v>
+        <v>0.112738</v>
       </c>
       <c r="E90" t="n">
-        <v>0.133534</v>
+        <v>0.1369</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.147851</v>
+        <v>0.158008</v>
       </c>
       <c r="C91" t="n">
-        <v>0.772548</v>
+        <v>0.794632</v>
       </c>
       <c r="D91" t="n">
-        <v>0.121785</v>
+        <v>0.119227</v>
       </c>
       <c r="E91" t="n">
-        <v>0.140854</v>
+        <v>0.142787</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.162757</v>
+        <v>0.170503</v>
       </c>
       <c r="C92" t="n">
-        <v>0.5828719999999999</v>
+        <v>0.613938</v>
       </c>
       <c r="D92" t="n">
-        <v>0.12462</v>
+        <v>0.127791</v>
       </c>
       <c r="E92" t="n">
-        <v>0.152706</v>
+        <v>0.160416</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.187375</v>
+        <v>0.193131</v>
       </c>
       <c r="C93" t="n">
-        <v>0.6029</v>
+        <v>0.617726</v>
       </c>
       <c r="D93" t="n">
-        <v>0.138264</v>
+        <v>0.144308</v>
       </c>
       <c r="E93" t="n">
-        <v>0.170919</v>
+        <v>0.18107</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.225392</v>
+        <v>0.23578</v>
       </c>
       <c r="C94" t="n">
-        <v>0.621875</v>
+        <v>0.647095</v>
       </c>
       <c r="D94" t="n">
-        <v>0.107201</v>
+        <v>0.111261</v>
       </c>
       <c r="E94" t="n">
-        <v>0.126931</v>
+        <v>0.128396</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.129019</v>
+        <v>0.13105</v>
       </c>
       <c r="C95" t="n">
-        <v>0.651732</v>
+        <v>0.665726</v>
       </c>
       <c r="D95" t="n">
-        <v>0.108922</v>
+        <v>0.113352</v>
       </c>
       <c r="E95" t="n">
-        <v>0.128359</v>
+        <v>0.138394</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1305</v>
+        <v>0.138208</v>
       </c>
       <c r="C96" t="n">
-        <v>0.662345</v>
+        <v>0.691215</v>
       </c>
       <c r="D96" t="n">
-        <v>0.109946</v>
+        <v>0.112482</v>
       </c>
       <c r="E96" t="n">
-        <v>0.132168</v>
+        <v>0.137735</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.133128</v>
+        <v>0.140587</v>
       </c>
       <c r="C97" t="n">
-        <v>0.732698</v>
+        <v>0.714581</v>
       </c>
       <c r="D97" t="n">
-        <v>0.112509</v>
+        <v>0.123082</v>
       </c>
       <c r="E97" t="n">
-        <v>0.135477</v>
+        <v>0.141174</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.140721</v>
+        <v>0.141999</v>
       </c>
       <c r="C98" t="n">
-        <v>0.735967</v>
+        <v>0.719876</v>
       </c>
       <c r="D98" t="n">
-        <v>0.115209</v>
+        <v>0.122537</v>
       </c>
       <c r="E98" t="n">
-        <v>0.141054</v>
+        <v>0.142376</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.141245</v>
+        <v>0.14965</v>
       </c>
       <c r="C99" t="n">
-        <v>0.741587</v>
+        <v>0.768581</v>
       </c>
       <c r="D99" t="n">
-        <v>0.117072</v>
+        <v>0.12176</v>
       </c>
       <c r="E99" t="n">
-        <v>0.144605</v>
+        <v>0.148604</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.144643</v>
+        <v>0.149773</v>
       </c>
       <c r="C100" t="n">
-        <v>0.765454</v>
+        <v>0.759973</v>
       </c>
       <c r="D100" t="n">
-        <v>0.120123</v>
+        <v>0.122245</v>
       </c>
       <c r="E100" t="n">
-        <v>0.149009</v>
+        <v>0.157743</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.149728</v>
+        <v>0.157802</v>
       </c>
       <c r="C101" t="n">
-        <v>0.790459</v>
+        <v>0.816392</v>
       </c>
       <c r="D101" t="n">
-        <v>0.122618</v>
+        <v>0.126643</v>
       </c>
       <c r="E101" t="n">
-        <v>0.154326</v>
+        <v>0.159517</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.153741</v>
+        <v>0.154867</v>
       </c>
       <c r="C102" t="n">
-        <v>0.805782</v>
+        <v>0.828704</v>
       </c>
       <c r="D102" t="n">
-        <v>0.124899</v>
+        <v>0.128676</v>
       </c>
       <c r="E102" t="n">
-        <v>0.157711</v>
+        <v>0.165858</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.163929</v>
+        <v>0.163341</v>
       </c>
       <c r="C103" t="n">
-        <v>0.871265</v>
+        <v>0.855656</v>
       </c>
       <c r="D103" t="n">
-        <v>0.133933</v>
+        <v>0.131261</v>
       </c>
       <c r="E103" t="n">
-        <v>0.169617</v>
+        <v>0.167431</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.167854</v>
+        <v>0.177441</v>
       </c>
       <c r="C104" t="n">
-        <v>0.857033</v>
+        <v>0.889933</v>
       </c>
       <c r="D104" t="n">
-        <v>0.13261</v>
+        <v>0.136728</v>
       </c>
       <c r="E104" t="n">
-        <v>0.171666</v>
+        <v>0.172453</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.180517</v>
+        <v>0.19073</v>
       </c>
       <c r="C105" t="n">
-        <v>0.893665</v>
+        <v>0.898047</v>
       </c>
       <c r="D105" t="n">
-        <v>0.138265</v>
+        <v>0.140846</v>
       </c>
       <c r="E105" t="n">
-        <v>0.179415</v>
+        <v>0.185454</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.195609</v>
+        <v>0.201773</v>
       </c>
       <c r="C106" t="n">
-        <v>0.941261</v>
+        <v>0.912323</v>
       </c>
       <c r="D106" t="n">
-        <v>0.148579</v>
+        <v>0.149006</v>
       </c>
       <c r="E106" t="n">
-        <v>0.191257</v>
+        <v>0.203782</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.21954</v>
+        <v>0.221957</v>
       </c>
       <c r="C107" t="n">
-        <v>0.694694</v>
+        <v>0.701192</v>
       </c>
       <c r="D107" t="n">
-        <v>0.161382</v>
+        <v>0.164558</v>
       </c>
       <c r="E107" t="n">
-        <v>0.212477</v>
+        <v>0.213038</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.263428</v>
+        <v>0.268059</v>
       </c>
       <c r="C108" t="n">
-        <v>0.723157</v>
+        <v>0.754342</v>
       </c>
       <c r="D108" t="n">
-        <v>0.175668</v>
+        <v>0.185442</v>
       </c>
       <c r="E108" t="n">
-        <v>0.205973</v>
+        <v>0.206521</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.332565</v>
+        <v>0.343975</v>
       </c>
       <c r="C109" t="n">
-        <v>0.759533</v>
+        <v>0.745468</v>
       </c>
       <c r="D109" t="n">
-        <v>0.177736</v>
+        <v>0.178077</v>
       </c>
       <c r="E109" t="n">
-        <v>0.204166</v>
+        <v>0.216096</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.213326</v>
+        <v>0.220896</v>
       </c>
       <c r="C110" t="n">
-        <v>0.749219</v>
+        <v>0.78088</v>
       </c>
       <c r="D110" t="n">
-        <v>0.18475</v>
+        <v>0.188149</v>
       </c>
       <c r="E110" t="n">
-        <v>0.227534</v>
+        <v>0.209398</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.224653</v>
+        <v>0.249486</v>
       </c>
       <c r="C111" t="n">
-        <v>0.814377</v>
+        <v>0.801183</v>
       </c>
       <c r="D111" t="n">
-        <v>0.18181</v>
+        <v>0.188819</v>
       </c>
       <c r="E111" t="n">
-        <v>0.219846</v>
+        <v>0.219674</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.229082</v>
+        <v>0.22305</v>
       </c>
       <c r="C112" t="n">
-        <v>0.809797</v>
+        <v>0.814348</v>
       </c>
       <c r="D112" t="n">
-        <v>0.181948</v>
+        <v>0.191848</v>
       </c>
       <c r="E112" t="n">
-        <v>0.217268</v>
+        <v>0.221312</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.227715</v>
+        <v>0.230955</v>
       </c>
       <c r="C113" t="n">
-        <v>0.822087</v>
+        <v>0.836656</v>
       </c>
       <c r="D113" t="n">
-        <v>0.204413</v>
+        <v>0.190367</v>
       </c>
       <c r="E113" t="n">
-        <v>0.237423</v>
+        <v>0.232302</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.234338</v>
+        <v>0.231864</v>
       </c>
       <c r="C114" t="n">
-        <v>0.847682</v>
+        <v>0.85953</v>
       </c>
       <c r="D114" t="n">
-        <v>0.191788</v>
+        <v>0.192937</v>
       </c>
       <c r="E114" t="n">
-        <v>0.237466</v>
+        <v>0.23018</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.231496</v>
+        <v>0.234487</v>
       </c>
       <c r="C115" t="n">
-        <v>0.878458</v>
+        <v>0.876211</v>
       </c>
       <c r="D115" t="n">
-        <v>0.192565</v>
+        <v>0.211569</v>
       </c>
       <c r="E115" t="n">
-        <v>0.23538</v>
+        <v>0.234372</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.255815</v>
+        <v>0.272847</v>
       </c>
       <c r="C116" t="n">
-        <v>0.8869359999999999</v>
+        <v>0.975915</v>
       </c>
       <c r="D116" t="n">
-        <v>0.194175</v>
+        <v>0.202873</v>
       </c>
       <c r="E116" t="n">
-        <v>0.235044</v>
+        <v>0.265212</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.263072</v>
+        <v>0.271897</v>
       </c>
       <c r="C117" t="n">
-        <v>0.911884</v>
+        <v>0.954745</v>
       </c>
       <c r="D117" t="n">
-        <v>0.195621</v>
+        <v>0.206326</v>
       </c>
       <c r="E117" t="n">
-        <v>0.260578</v>
+        <v>0.249669</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.271718</v>
+        <v>0.26765</v>
       </c>
       <c r="C118" t="n">
-        <v>0.940387</v>
+        <v>0.983478</v>
       </c>
       <c r="D118" t="n">
-        <v>0.206774</v>
+        <v>0.224516</v>
       </c>
       <c r="E118" t="n">
-        <v>0.249046</v>
+        <v>0.275565</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.262512</v>
+        <v>0.266709</v>
       </c>
       <c r="C119" t="n">
-        <v>0.964954</v>
+        <v>0.973447</v>
       </c>
       <c r="D119" t="n">
-        <v>0.234229</v>
+        <v>0.213119</v>
       </c>
       <c r="E119" t="n">
-        <v>0.263669</v>
+        <v>0.271235</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.281903</v>
+        <v>0.282499</v>
       </c>
       <c r="C120" t="n">
-        <v>0.998236</v>
+        <v>0.9948360000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>0.21756</v>
+        <v>0.233182</v>
       </c>
       <c r="E120" t="n">
-        <v>0.268808</v>
+        <v>0.287897</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.304336</v>
+        <v>0.317843</v>
       </c>
       <c r="C121" t="n">
-        <v>0.774529</v>
+        <v>0.7619089999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>0.22687</v>
+        <v>0.248934</v>
       </c>
       <c r="E121" t="n">
-        <v>0.292242</v>
+        <v>0.296239</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.342281</v>
+        <v>0.351475</v>
       </c>
       <c r="C122" t="n">
-        <v>0.771766</v>
+        <v>0.799938</v>
       </c>
       <c r="D122" t="n">
-        <v>0.248036</v>
+        <v>0.254726</v>
       </c>
       <c r="E122" t="n">
-        <v>0.320607</v>
+        <v>0.331556</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.418565</v>
+        <v>0.430287</v>
       </c>
       <c r="C123" t="n">
-        <v>0.797147</v>
+        <v>0.811629</v>
       </c>
       <c r="D123" t="n">
-        <v>0.290124</v>
+        <v>0.287245</v>
       </c>
       <c r="E123" t="n">
-        <v>0.322847</v>
+        <v>0.318738</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.358898</v>
+        <v>0.353478</v>
       </c>
       <c r="C124" t="n">
-        <v>0.814506</v>
+        <v>0.815646</v>
       </c>
       <c r="D124" t="n">
-        <v>0.28922</v>
+        <v>0.291978</v>
       </c>
       <c r="E124" t="n">
-        <v>0.320244</v>
+        <v>0.33228</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.35279</v>
+        <v>0.356976</v>
       </c>
       <c r="C125" t="n">
-        <v>0.841689</v>
+        <v>0.851934</v>
       </c>
       <c r="D125" t="n">
-        <v>0.300312</v>
+        <v>0.301715</v>
       </c>
       <c r="E125" t="n">
-        <v>0.319476</v>
+        <v>0.347163</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.35518</v>
+        <v>0.370993</v>
       </c>
       <c r="C126" t="n">
-        <v>0.889954</v>
+        <v>0.870528</v>
       </c>
       <c r="D126" t="n">
-        <v>0.301268</v>
+        <v>0.303983</v>
       </c>
       <c r="E126" t="n">
-        <v>0.326104</v>
+        <v>0.34463</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.357202</v>
+        <v>0.368327</v>
       </c>
       <c r="C127" t="n">
-        <v>0.893429</v>
+        <v>0.913597</v>
       </c>
       <c r="D127" t="n">
-        <v>0.290413</v>
+        <v>0.306109</v>
       </c>
       <c r="E127" t="n">
-        <v>0.327256</v>
+        <v>0.339079</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.365731</v>
+        <v>0.371374</v>
       </c>
       <c r="C128" t="n">
-        <v>0.898479</v>
+        <v>0.9243980000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>0.292701</v>
+        <v>0.299547</v>
       </c>
       <c r="E128" t="n">
-        <v>0.332067</v>
+        <v>0.35312</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.382178</v>
+        <v>0.372098</v>
       </c>
       <c r="C129" t="n">
-        <v>0.934453</v>
+        <v>0.962897</v>
       </c>
       <c r="D129" t="n">
-        <v>0.31089</v>
+        <v>0.310237</v>
       </c>
       <c r="E129" t="n">
-        <v>0.343372</v>
+        <v>0.34593</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.378031</v>
+        <v>0.400722</v>
       </c>
       <c r="C130" t="n">
-        <v>0.970486</v>
+        <v>1.01766</v>
       </c>
       <c r="D130" t="n">
-        <v>0.305478</v>
+        <v>0.324772</v>
       </c>
       <c r="E130" t="n">
-        <v>0.347466</v>
+        <v>0.351139</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3852</v>
+        <v>0.392914</v>
       </c>
       <c r="C131" t="n">
-        <v>0.990473</v>
+        <v>1.0254</v>
       </c>
       <c r="D131" t="n">
-        <v>0.307422</v>
+        <v>0.314362</v>
       </c>
       <c r="E131" t="n">
-        <v>0.355047</v>
+        <v>0.377535</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.404131</v>
+        <v>0.409316</v>
       </c>
       <c r="C132" t="n">
-        <v>1.04053</v>
+        <v>1.05393</v>
       </c>
       <c r="D132" t="n">
-        <v>0.314045</v>
+        <v>0.317108</v>
       </c>
       <c r="E132" t="n">
-        <v>0.364702</v>
+        <v>0.368913</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.409984</v>
+        <v>0.416122</v>
       </c>
       <c r="C133" t="n">
-        <v>1.06803</v>
+        <v>1.08796</v>
       </c>
       <c r="D133" t="n">
-        <v>0.320067</v>
+        <v>0.332961</v>
       </c>
       <c r="E133" t="n">
-        <v>0.370594</v>
+        <v>0.38124</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.428018</v>
+        <v>0.453478</v>
       </c>
       <c r="C134" t="n">
-        <v>1.10712</v>
+        <v>1.14117</v>
       </c>
       <c r="D134" t="n">
-        <v>0.324949</v>
+        <v>0.355771</v>
       </c>
       <c r="E134" t="n">
-        <v>0.395063</v>
+        <v>0.393608</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.46466</v>
+        <v>0.46411</v>
       </c>
       <c r="C135" t="n">
-        <v>0.894138</v>
+        <v>0.907473</v>
       </c>
       <c r="D135" t="n">
-        <v>0.341749</v>
+        <v>0.364211</v>
       </c>
       <c r="E135" t="n">
-        <v>0.403587</v>
+        <v>0.42418</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.512951</v>
+        <v>0.520494</v>
       </c>
       <c r="C136" t="n">
-        <v>0.911121</v>
+        <v>0.941779</v>
       </c>
       <c r="D136" t="n">
-        <v>0.366852</v>
+        <v>0.378259</v>
       </c>
       <c r="E136" t="n">
-        <v>0.436651</v>
+        <v>0.450838</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.5870570000000001</v>
+        <v>0.599638</v>
       </c>
       <c r="C137" t="n">
-        <v>0.94504</v>
+        <v>0.983406</v>
       </c>
       <c r="D137" t="n">
-        <v>0.348982</v>
+        <v>0.350997</v>
       </c>
       <c r="E137" t="n">
-        <v>0.37837</v>
+        <v>0.387271</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.426712</v>
+        <v>0.429827</v>
       </c>
       <c r="C138" t="n">
-        <v>0.965318</v>
+        <v>1.00751</v>
       </c>
       <c r="D138" t="n">
-        <v>0.352668</v>
+        <v>0.355564</v>
       </c>
       <c r="E138" t="n">
-        <v>0.380826</v>
+        <v>0.392492</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.434038</v>
+        <v>0.443769</v>
       </c>
       <c r="C139" t="n">
-        <v>1.01804</v>
+        <v>1.03358</v>
       </c>
       <c r="D139" t="n">
-        <v>0.356026</v>
+        <v>0.361033</v>
       </c>
       <c r="E139" t="n">
-        <v>0.388018</v>
+        <v>0.39885</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.433001</v>
+        <v>0.454475</v>
       </c>
       <c r="C140" t="n">
-        <v>1.03329</v>
+        <v>1.08131</v>
       </c>
       <c r="D140" t="n">
-        <v>0.356523</v>
+        <v>0.381036</v>
       </c>
       <c r="E140" t="n">
-        <v>0.391199</v>
+        <v>0.397693</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.448102</v>
+        <v>0.459562</v>
       </c>
       <c r="C141" t="n">
-        <v>1.08887</v>
+        <v>1.11792</v>
       </c>
       <c r="D141" t="n">
-        <v>0.359426</v>
+        <v>0.368645</v>
       </c>
       <c r="E141" t="n">
-        <v>0.401585</v>
+        <v>0.416413</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.444005</v>
+        <v>0.460773</v>
       </c>
       <c r="C142" t="n">
-        <v>1.11603</v>
+        <v>1.13934</v>
       </c>
       <c r="D142" t="n">
-        <v>0.364402</v>
+        <v>0.383164</v>
       </c>
       <c r="E142" t="n">
-        <v>0.407009</v>
+        <v>0.417979</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.464265</v>
+        <v>0.460698</v>
       </c>
       <c r="C143" t="n">
-        <v>1.14119</v>
+        <v>1.18734</v>
       </c>
       <c r="D143" t="n">
-        <v>0.366115</v>
+        <v>0.375581</v>
       </c>
       <c r="E143" t="n">
-        <v>0.407191</v>
+        <v>0.429117</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -4139,7 +4139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I27" sqref="I27"/>
@@ -4177,16 +4177,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0604233</v>
+        <v>0.0587053</v>
       </c>
       <c r="C2" t="n">
-        <v>0.166925</v>
+        <v>0.0601688</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07152849999999999</v>
+        <v>0.16559</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0625867</v>
+        <v>0.0744587</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.06289069999999999</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4197,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0633417</v>
+        <v>0.0605229</v>
       </c>
       <c r="C3" t="n">
-        <v>0.168395</v>
+        <v>0.06506190000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07336860000000001</v>
+        <v>0.16787</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0629152</v>
+        <v>0.0724487</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0628166</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4217,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06269230000000001</v>
+        <v>0.06369089999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.175381</v>
+        <v>0.0676499</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07539659999999999</v>
+        <v>0.171311</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0672218</v>
+        <v>0.0757027</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0643116</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4237,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0721451</v>
+        <v>0.0707716</v>
       </c>
       <c r="C5" t="n">
-        <v>0.178702</v>
+        <v>0.07429230000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07581690000000001</v>
+        <v>0.182421</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0666601</v>
+        <v>0.075226</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0686749</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4257,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07650999999999999</v>
+        <v>0.0787926</v>
       </c>
       <c r="C6" t="n">
-        <v>0.195404</v>
+        <v>0.0836648</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0810794</v>
+        <v>0.1868</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0738465</v>
+        <v>0.0797153</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0697039</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4277,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0909841</v>
+        <v>0.09691569999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.148508</v>
+        <v>0.0975555</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08936769999999999</v>
+        <v>0.145525</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0778382</v>
+        <v>0.0858505</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0779277</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4297,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.115517</v>
+        <v>0.118275</v>
       </c>
       <c r="C8" t="n">
-        <v>0.154795</v>
+        <v>0.117901</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0979241</v>
+        <v>0.152427</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08894100000000001</v>
+        <v>0.0984464</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0864972</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4317,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.14885</v>
+        <v>0.155887</v>
       </c>
       <c r="C9" t="n">
-        <v>0.155803</v>
+        <v>0.147013</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0713642</v>
+        <v>0.158746</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0655012</v>
+        <v>0.0709255</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0610066</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4337,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0601672</v>
+        <v>0.0579393</v>
       </c>
       <c r="C10" t="n">
-        <v>0.16105</v>
+        <v>0.0585323</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0700177</v>
+        <v>0.160529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0614516</v>
+        <v>0.0699526</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0620483</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4357,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0586036</v>
+        <v>0.0588938</v>
       </c>
       <c r="C11" t="n">
-        <v>0.166784</v>
+        <v>0.0608599</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0706339</v>
+        <v>0.165267</v>
       </c>
       <c r="E11" t="n">
-        <v>0.062497</v>
+        <v>0.0717788</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0624974</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4377,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0599772</v>
+        <v>0.0604138</v>
       </c>
       <c r="C12" t="n">
-        <v>0.171382</v>
+        <v>0.0623111</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0739605</v>
+        <v>0.172894</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0621427</v>
+        <v>0.0703708</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.06423040000000001</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4397,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.059115</v>
+        <v>0.0585509</v>
       </c>
       <c r="C13" t="n">
-        <v>0.174741</v>
+        <v>0.061146</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0721289</v>
+        <v>0.174787</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0626771</v>
+        <v>0.07201249999999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.063513</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4417,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.061587</v>
+        <v>0.0605803</v>
       </c>
       <c r="C14" t="n">
-        <v>0.18035</v>
+        <v>0.0620407</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0712855</v>
+        <v>0.182738</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0634623</v>
+        <v>0.0707527</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0625068</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4437,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0605427</v>
+        <v>0.0610469</v>
       </c>
       <c r="C15" t="n">
-        <v>0.186982</v>
+        <v>0.06523320000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0729384</v>
+        <v>0.187893</v>
       </c>
       <c r="E15" t="n">
-        <v>0.06339119999999999</v>
+        <v>0.0715971</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0635411</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4457,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0638772</v>
+        <v>0.0624881</v>
       </c>
       <c r="C16" t="n">
-        <v>0.19063</v>
+        <v>0.0669995</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0731253</v>
+        <v>0.191271</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0646002</v>
+        <v>0.0753094</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0646317</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4477,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0689902</v>
+        <v>0.0655768</v>
       </c>
       <c r="C17" t="n">
-        <v>0.205947</v>
+        <v>0.0685574</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0733066</v>
+        <v>0.195572</v>
       </c>
       <c r="E17" t="n">
-        <v>0.06640939999999999</v>
+        <v>0.0732342</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0662219</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4497,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0681865</v>
+        <v>0.0698853</v>
       </c>
       <c r="C18" t="n">
-        <v>0.19833</v>
+        <v>0.0721709</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0748965</v>
+        <v>0.194733</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0694892</v>
+        <v>0.075463</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0686693</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4517,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07533810000000001</v>
+        <v>0.0749991</v>
       </c>
       <c r="C19" t="n">
-        <v>0.202298</v>
+        <v>0.0772163</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0776517</v>
+        <v>0.199846</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0695823</v>
+        <v>0.0771328</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0694652</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4537,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.078984</v>
+        <v>0.08856260000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.210919</v>
+        <v>0.0858188</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0815288</v>
+        <v>0.214124</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0731878</v>
+        <v>0.080292</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.076448</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4557,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0903641</v>
+        <v>0.0984908</v>
       </c>
       <c r="C21" t="n">
-        <v>0.160601</v>
+        <v>0.101206</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0899398</v>
+        <v>0.159784</v>
       </c>
       <c r="E21" t="n">
-        <v>0.078448</v>
+        <v>0.08618720000000001</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.078046</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4577,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.109383</v>
+        <v>0.118082</v>
       </c>
       <c r="C22" t="n">
-        <v>0.166031</v>
+        <v>0.121486</v>
       </c>
       <c r="D22" t="n">
-        <v>0.09669030000000001</v>
+        <v>0.165288</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0886936</v>
+        <v>0.0969395</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0912327</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4597,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.144972</v>
+        <v>0.146106</v>
       </c>
       <c r="C23" t="n">
-        <v>0.169919</v>
+        <v>0.152589</v>
       </c>
       <c r="D23" t="n">
-        <v>0.07101059999999999</v>
+        <v>0.16945</v>
       </c>
       <c r="E23" t="n">
-        <v>0.066326</v>
+        <v>0.0702927</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.06416570000000001</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4617,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.06327530000000001</v>
+        <v>0.0623797</v>
       </c>
       <c r="C24" t="n">
-        <v>0.177971</v>
+        <v>0.0644824</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0722172</v>
+        <v>0.17596</v>
       </c>
       <c r="E24" t="n">
-        <v>0.06738130000000001</v>
+        <v>0.0728174</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0656231</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4637,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0614429</v>
+        <v>0.0615249</v>
       </c>
       <c r="C25" t="n">
-        <v>0.188527</v>
+        <v>0.0643616</v>
       </c>
       <c r="D25" t="n">
-        <v>0.07570399999999999</v>
+        <v>0.190539</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0644459</v>
+        <v>0.0711039</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0644884</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4657,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.06691759999999999</v>
+        <v>0.0617038</v>
       </c>
       <c r="C26" t="n">
-        <v>0.190352</v>
+        <v>0.06559</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0729069</v>
+        <v>0.184294</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0680195</v>
+        <v>0.0713382</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0648801</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4677,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.06381290000000001</v>
+        <v>0.06553920000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.190282</v>
+        <v>0.0687759</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0718998</v>
+        <v>0.19422</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0664491</v>
+        <v>0.07156709999999999</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0661991</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4697,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.065511</v>
+        <v>0.063851</v>
       </c>
       <c r="C28" t="n">
-        <v>0.201719</v>
+        <v>0.06850050000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0780711</v>
+        <v>0.199312</v>
       </c>
       <c r="E28" t="n">
-        <v>0.06753720000000001</v>
+        <v>0.07206410000000001</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.06619559999999999</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4717,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.06561889999999999</v>
+        <v>0.06542729999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.211176</v>
+        <v>0.0703969</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0727747</v>
+        <v>0.204862</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0687407</v>
+        <v>0.0730177</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0676136</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4737,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0662348</v>
+        <v>0.0666094</v>
       </c>
       <c r="C30" t="n">
-        <v>0.212283</v>
+        <v>0.0721557</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0748123</v>
+        <v>0.208815</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0681163</v>
+        <v>0.0742741</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0694665</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4757,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0707604</v>
+        <v>0.06858839999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.222574</v>
+        <v>0.07668850000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0754267</v>
+        <v>0.213133</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0695677</v>
+        <v>0.0745627</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.06917379999999999</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4777,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0731089</v>
+        <v>0.07284740000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.22909</v>
+        <v>0.07785350000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07736</v>
+        <v>0.219741</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0736035</v>
+        <v>0.0762287</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.07112449999999999</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4797,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0763996</v>
+        <v>0.0767557</v>
       </c>
       <c r="C33" t="n">
-        <v>0.230577</v>
+        <v>0.083786</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07897220000000001</v>
+        <v>0.22145</v>
       </c>
       <c r="E33" t="n">
-        <v>0.07348970000000001</v>
+        <v>0.0790812</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0789396</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4817,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0854374</v>
+        <v>0.0859418</v>
       </c>
       <c r="C34" t="n">
-        <v>0.23636</v>
+        <v>0.0903023</v>
       </c>
       <c r="D34" t="n">
-        <v>0.08495419999999999</v>
+        <v>0.230596</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0795748</v>
+        <v>0.0823913</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.08003159999999999</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4837,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0936659</v>
+        <v>0.0967262</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1723</v>
+        <v>0.102043</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0882531</v>
+        <v>0.175134</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0820408</v>
+        <v>0.09234009999999999</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0831438</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4857,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.109367</v>
+        <v>0.11775</v>
       </c>
       <c r="C36" t="n">
-        <v>0.180019</v>
+        <v>0.122636</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0985727</v>
+        <v>0.186013</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0946676</v>
+        <v>0.0979693</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.09182319999999999</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4877,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.142908</v>
+        <v>0.143189</v>
       </c>
       <c r="C37" t="n">
-        <v>0.19084</v>
+        <v>0.145635</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07299509999999999</v>
+        <v>0.190452</v>
       </c>
       <c r="E37" t="n">
-        <v>0.06881089999999999</v>
+        <v>0.0729018</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0676358</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4897,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.06626319999999999</v>
+        <v>0.0672654</v>
       </c>
       <c r="C38" t="n">
-        <v>0.196108</v>
+        <v>0.0737294</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0751183</v>
+        <v>0.198644</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0687059</v>
+        <v>0.0728796</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0691702</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4917,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0689028</v>
+        <v>0.0680108</v>
       </c>
       <c r="C39" t="n">
-        <v>0.207496</v>
+        <v>0.0778991</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0738253</v>
+        <v>0.207959</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0724899</v>
+        <v>0.078791</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.07431160000000001</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4937,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0674324</v>
+        <v>0.06957430000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>0.212824</v>
+        <v>0.07415239999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.07572420000000001</v>
+        <v>0.224901</v>
       </c>
       <c r="E40" t="n">
-        <v>0.07062690000000001</v>
+        <v>0.0750036</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0705471</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4957,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0718097</v>
+        <v>0.07111779999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.225735</v>
+        <v>0.07640569999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0755675</v>
+        <v>0.222307</v>
       </c>
       <c r="E41" t="n">
-        <v>0.07230780000000001</v>
+        <v>0.07358770000000001</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0701981</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4977,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0744166</v>
+        <v>0.07035619999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.23333</v>
+        <v>0.07818070000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0764162</v>
+        <v>0.232413</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0717434</v>
+        <v>0.07471990000000001</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0720076</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4997,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.07095940000000001</v>
+        <v>0.0705783</v>
       </c>
       <c r="C43" t="n">
-        <v>0.235168</v>
+        <v>0.08269990000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0763061</v>
+        <v>0.240706</v>
       </c>
       <c r="E43" t="n">
-        <v>0.07334739999999999</v>
+        <v>0.0755057</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0725349</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +5017,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.07104480000000001</v>
+        <v>0.0744026</v>
       </c>
       <c r="C44" t="n">
-        <v>0.248457</v>
+        <v>0.08244070000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.078554</v>
+        <v>0.249745</v>
       </c>
       <c r="E44" t="n">
-        <v>0.074347</v>
+        <v>0.07797220000000001</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.07380979999999999</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +5037,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.07373589999999999</v>
+        <v>0.0787939</v>
       </c>
       <c r="C45" t="n">
-        <v>0.266815</v>
+        <v>0.09250410000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0773355</v>
+        <v>0.264003</v>
       </c>
       <c r="E45" t="n">
-        <v>0.07516440000000001</v>
+        <v>0.0833752</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0760329</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +5057,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0781341</v>
+        <v>0.0785951</v>
       </c>
       <c r="C46" t="n">
-        <v>0.272416</v>
+        <v>0.0895987</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0791379</v>
+        <v>0.2806</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0776847</v>
+        <v>0.0786444</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0801723</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +5077,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0808426</v>
+        <v>0.08292430000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.280123</v>
+        <v>0.0951907</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0846712</v>
+        <v>0.281703</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0817837</v>
+        <v>0.0812615</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0827396</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +5097,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0879219</v>
+        <v>0.0904944</v>
       </c>
       <c r="C48" t="n">
-        <v>0.303226</v>
+        <v>0.102599</v>
       </c>
       <c r="D48" t="n">
-        <v>0.084513</v>
+        <v>0.295384</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0848883</v>
+        <v>0.085907</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0850839</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +5117,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.09644419999999999</v>
+        <v>0.0981395</v>
       </c>
       <c r="C49" t="n">
-        <v>0.310494</v>
+        <v>0.116343</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0889302</v>
+        <v>0.307618</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0895416</v>
+        <v>0.0895225</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0932156</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +5137,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.115423</v>
+        <v>0.116065</v>
       </c>
       <c r="C50" t="n">
-        <v>0.231065</v>
+        <v>0.130287</v>
       </c>
       <c r="D50" t="n">
-        <v>0.09899330000000001</v>
+        <v>0.229425</v>
       </c>
       <c r="E50" t="n">
-        <v>0.102003</v>
+        <v>0.100978</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.0972278</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5157,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.145137</v>
+        <v>0.145286</v>
       </c>
       <c r="C51" t="n">
-        <v>0.234804</v>
+        <v>0.158531</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0789227</v>
+        <v>0.233363</v>
       </c>
       <c r="E51" t="n">
-        <v>0.07603119999999999</v>
+        <v>0.07732550000000001</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0790492</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5177,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.190158</v>
+        <v>0.190769</v>
       </c>
       <c r="C52" t="n">
-        <v>0.25238</v>
+        <v>0.217098</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0793044</v>
+        <v>0.244091</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0794811</v>
+        <v>0.0799831</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0763563</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5197,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0782048</v>
+        <v>0.0811026</v>
       </c>
       <c r="C53" t="n">
-        <v>0.261572</v>
+        <v>0.0906545</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0830139</v>
+        <v>0.25963</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0789801</v>
+        <v>0.08023429999999999</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0788575</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5217,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0787727</v>
+        <v>0.08007160000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.301715</v>
+        <v>0.0931942</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0834844</v>
+        <v>0.271772</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0793678</v>
+        <v>0.081813</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.081953</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5237,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0793005</v>
+        <v>0.0833856</v>
       </c>
       <c r="C55" t="n">
-        <v>0.290679</v>
+        <v>0.0948343</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0793</v>
+        <v>0.285781</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0792358</v>
+        <v>0.07917879999999999</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.0796058</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5257,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0808442</v>
+        <v>0.082528</v>
       </c>
       <c r="C56" t="n">
-        <v>0.305403</v>
+        <v>0.09667199999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0808553</v>
+        <v>0.307995</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0806979</v>
+        <v>0.0807594</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.07986600000000001</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5277,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0838073</v>
+        <v>0.0826916</v>
       </c>
       <c r="C57" t="n">
-        <v>0.337867</v>
+        <v>0.0983893</v>
       </c>
       <c r="D57" t="n">
-        <v>0.08182589999999999</v>
+        <v>0.317891</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0823962</v>
+        <v>0.08505699999999999</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0816273</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5297,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.08525249999999999</v>
+        <v>0.0831913</v>
       </c>
       <c r="C58" t="n">
-        <v>0.352428</v>
+        <v>0.102358</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0853231</v>
+        <v>0.336218</v>
       </c>
       <c r="E58" t="n">
-        <v>0.08685660000000001</v>
+        <v>0.0834351</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.0863463</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5317,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0878834</v>
+        <v>0.0861924</v>
       </c>
       <c r="C59" t="n">
-        <v>0.362327</v>
+        <v>0.106706</v>
       </c>
       <c r="D59" t="n">
-        <v>0.08379490000000001</v>
+        <v>0.356578</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0858894</v>
+        <v>0.0837632</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.0857006</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5337,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0890094</v>
+        <v>0.0887662</v>
       </c>
       <c r="C60" t="n">
-        <v>0.365192</v>
+        <v>0.110102</v>
       </c>
       <c r="D60" t="n">
-        <v>0.08696420000000001</v>
+        <v>0.392257</v>
       </c>
       <c r="E60" t="n">
-        <v>0.08734450000000001</v>
+        <v>0.0870853</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.0873881</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5357,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0948113</v>
+        <v>0.09697939999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.388818</v>
+        <v>0.12254</v>
       </c>
       <c r="D61" t="n">
-        <v>0.09497510000000001</v>
+        <v>0.39278</v>
       </c>
       <c r="E61" t="n">
-        <v>0.09370290000000001</v>
+        <v>0.0882483</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.09032370000000001</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5377,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.10579</v>
+        <v>0.103787</v>
       </c>
       <c r="C62" t="n">
-        <v>0.421026</v>
+        <v>0.124293</v>
       </c>
       <c r="D62" t="n">
-        <v>0.100217</v>
+        <v>0.428139</v>
       </c>
       <c r="E62" t="n">
-        <v>0.09769949999999999</v>
+        <v>0.0906875</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.09460010000000001</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5397,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.111418</v>
+        <v>0.109725</v>
       </c>
       <c r="C63" t="n">
-        <v>0.43554</v>
+        <v>0.137245</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0967326</v>
+        <v>0.435944</v>
       </c>
       <c r="E63" t="n">
-        <v>0.10291</v>
+        <v>0.09569179999999999</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.100138</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5417,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.126736</v>
+        <v>0.128922</v>
       </c>
       <c r="C64" t="n">
-        <v>0.325795</v>
+        <v>0.15463</v>
       </c>
       <c r="D64" t="n">
-        <v>0.104956</v>
+        <v>0.342304</v>
       </c>
       <c r="E64" t="n">
-        <v>0.113204</v>
+        <v>0.104172</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.115157</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5437,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.150095</v>
+        <v>0.157054</v>
       </c>
       <c r="C65" t="n">
-        <v>0.348991</v>
+        <v>0.187245</v>
       </c>
       <c r="D65" t="n">
-        <v>0.11818</v>
+        <v>0.336152</v>
       </c>
       <c r="E65" t="n">
-        <v>0.127838</v>
+        <v>0.119124</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.12478</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5457,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.193657</v>
+        <v>0.188394</v>
       </c>
       <c r="C66" t="n">
-        <v>0.362072</v>
+        <v>0.232765</v>
       </c>
       <c r="D66" t="n">
-        <v>0.08677269999999999</v>
+        <v>0.355896</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0884906</v>
+        <v>0.0853622</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.0861952</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5477,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0885113</v>
+        <v>0.0873683</v>
       </c>
       <c r="C67" t="n">
-        <v>0.384072</v>
+        <v>0.107409</v>
       </c>
       <c r="D67" t="n">
-        <v>0.08568580000000001</v>
+        <v>0.371583</v>
       </c>
       <c r="E67" t="n">
-        <v>0.086523</v>
+        <v>0.085592</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0882539</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5497,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.09288920000000001</v>
+        <v>0.0888651</v>
       </c>
       <c r="C68" t="n">
-        <v>0.409186</v>
+        <v>0.110022</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0855793</v>
+        <v>0.413794</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0877732</v>
+        <v>0.08623409999999999</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.0871692</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5517,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0937117</v>
+        <v>0.0899713</v>
       </c>
       <c r="C69" t="n">
-        <v>0.436365</v>
+        <v>0.114551</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0880017</v>
+        <v>0.410168</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0896695</v>
+        <v>0.0856341</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0871714</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5537,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.09413779999999999</v>
+        <v>0.09815699999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.445187</v>
+        <v>0.121125</v>
       </c>
       <c r="D70" t="n">
-        <v>0.08883000000000001</v>
+        <v>0.445245</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0916781</v>
+        <v>0.0861201</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.095183</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5557,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.09440999999999999</v>
+        <v>0.09435830000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.464813</v>
+        <v>0.121092</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0925537</v>
+        <v>0.472413</v>
       </c>
       <c r="E71" t="n">
-        <v>0.09753199999999999</v>
+        <v>0.09291729999999999</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.0936656</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5577,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.09754690000000001</v>
+        <v>0.09488290000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.494825</v>
+        <v>0.126376</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0890519</v>
+        <v>0.493286</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0995967</v>
+        <v>0.0887126</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.09465659999999999</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5597,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0998175</v>
+        <v>0.09783749999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5164609999999999</v>
+        <v>0.129526</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0919847</v>
+        <v>0.502655</v>
       </c>
       <c r="E73" t="n">
-        <v>0.100666</v>
+        <v>0.09131359999999999</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.095502</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5617,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.104711</v>
+        <v>0.101138</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5513940000000001</v>
+        <v>0.134317</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0944089</v>
+        <v>0.541449</v>
       </c>
       <c r="E74" t="n">
-        <v>0.101273</v>
+        <v>0.0914956</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.100453</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5637,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.110717</v>
+        <v>0.107215</v>
       </c>
       <c r="C75" t="n">
-        <v>0.572497</v>
+        <v>0.148705</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0968643</v>
+        <v>0.576435</v>
       </c>
       <c r="E75" t="n">
-        <v>0.107887</v>
+        <v>0.09570240000000001</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.102919</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5657,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.118058</v>
+        <v>0.116051</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6076</v>
+        <v>0.157532</v>
       </c>
       <c r="D76" t="n">
-        <v>0.103002</v>
+        <v>0.599469</v>
       </c>
       <c r="E76" t="n">
-        <v>0.117496</v>
+        <v>0.09797350000000001</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.110476</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5677,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.127984</v>
+        <v>0.124586</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6171759999999999</v>
+        <v>0.172233</v>
       </c>
       <c r="D77" t="n">
-        <v>0.10867</v>
+        <v>0.6252760000000001</v>
       </c>
       <c r="E77" t="n">
-        <v>0.119008</v>
+        <v>0.10391</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.117141</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5697,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.16075</v>
+        <v>0.150339</v>
       </c>
       <c r="C78" t="n">
-        <v>0.48916</v>
+        <v>0.192808</v>
       </c>
       <c r="D78" t="n">
-        <v>0.115209</v>
+        <v>0.464991</v>
       </c>
       <c r="E78" t="n">
-        <v>0.126629</v>
+        <v>0.114115</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.129182</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5717,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.168598</v>
+        <v>0.167445</v>
       </c>
       <c r="C79" t="n">
-        <v>0.486743</v>
+        <v>0.229398</v>
       </c>
       <c r="D79" t="n">
-        <v>0.137624</v>
+        <v>0.487522</v>
       </c>
       <c r="E79" t="n">
-        <v>0.146751</v>
+        <v>0.125205</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.143939</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5737,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.205052</v>
+        <v>0.203164</v>
       </c>
       <c r="C80" t="n">
-        <v>0.563465</v>
+        <v>0.280891</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0922207</v>
+        <v>0.507672</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0958981</v>
+        <v>0.0899889</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.0996701</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5757,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.102209</v>
+        <v>0.102932</v>
       </c>
       <c r="C81" t="n">
-        <v>0.52564</v>
+        <v>0.142362</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0944208</v>
+        <v>0.52021</v>
       </c>
       <c r="E81" t="n">
-        <v>0.100846</v>
+        <v>0.09058819999999999</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.10025</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5777,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.103029</v>
+        <v>0.102423</v>
       </c>
       <c r="C82" t="n">
-        <v>0.548816</v>
+        <v>0.146808</v>
       </c>
       <c r="D82" t="n">
-        <v>0.09497120000000001</v>
+        <v>0.549214</v>
       </c>
       <c r="E82" t="n">
-        <v>0.103487</v>
+        <v>0.0921228</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.09959809999999999</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5797,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.106601</v>
+        <v>0.109165</v>
       </c>
       <c r="C83" t="n">
-        <v>0.619969</v>
+        <v>0.144478</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0979677</v>
+        <v>0.586241</v>
       </c>
       <c r="E83" t="n">
-        <v>0.103938</v>
+        <v>0.0922442</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.107698</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5817,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.109681</v>
+        <v>0.109535</v>
       </c>
       <c r="C84" t="n">
-        <v>0.623722</v>
+        <v>0.149909</v>
       </c>
       <c r="D84" t="n">
-        <v>0.09647840000000001</v>
+        <v>0.590355</v>
       </c>
       <c r="E84" t="n">
-        <v>0.107789</v>
+        <v>0.0939213</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.1123</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5837,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.117119</v>
+        <v>0.108667</v>
       </c>
       <c r="C85" t="n">
-        <v>0.630163</v>
+        <v>0.159323</v>
       </c>
       <c r="D85" t="n">
-        <v>0.095679</v>
+        <v>0.660463</v>
       </c>
       <c r="E85" t="n">
-        <v>0.110779</v>
+        <v>0.0995629</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.108341</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5857,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.116228</v>
+        <v>0.12102</v>
       </c>
       <c r="C86" t="n">
-        <v>0.640842</v>
+        <v>0.162599</v>
       </c>
       <c r="D86" t="n">
-        <v>0.102509</v>
+        <v>0.63779</v>
       </c>
       <c r="E86" t="n">
-        <v>0.114128</v>
+        <v>0.0966045</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.115155</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5877,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.125362</v>
+        <v>0.123663</v>
       </c>
       <c r="C87" t="n">
-        <v>0.663477</v>
+        <v>0.17332</v>
       </c>
       <c r="D87" t="n">
-        <v>0.101184</v>
+        <v>0.683739</v>
       </c>
       <c r="E87" t="n">
-        <v>0.118579</v>
+        <v>0.100294</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.119514</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5897,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.127875</v>
+        <v>0.125993</v>
       </c>
       <c r="C88" t="n">
-        <v>0.707549</v>
+        <v>0.180287</v>
       </c>
       <c r="D88" t="n">
-        <v>0.104199</v>
+        <v>0.694196</v>
       </c>
       <c r="E88" t="n">
-        <v>0.128217</v>
+        <v>0.104708</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.120429</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5917,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.132301</v>
+        <v>0.135816</v>
       </c>
       <c r="C89" t="n">
-        <v>0.717388</v>
+        <v>0.189958</v>
       </c>
       <c r="D89" t="n">
-        <v>0.108292</v>
+        <v>0.718606</v>
       </c>
       <c r="E89" t="n">
-        <v>0.132373</v>
+        <v>0.106184</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.127251</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5937,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.146752</v>
+        <v>0.141539</v>
       </c>
       <c r="C90" t="n">
-        <v>0.765359</v>
+        <v>0.207296</v>
       </c>
       <c r="D90" t="n">
-        <v>0.112738</v>
+        <v>0.74717</v>
       </c>
       <c r="E90" t="n">
-        <v>0.1369</v>
+        <v>0.111189</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.143003</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5957,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.158008</v>
+        <v>0.145672</v>
       </c>
       <c r="C91" t="n">
-        <v>0.794632</v>
+        <v>0.214937</v>
       </c>
       <c r="D91" t="n">
-        <v>0.119227</v>
+        <v>0.7894370000000001</v>
       </c>
       <c r="E91" t="n">
-        <v>0.142787</v>
+        <v>0.124876</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.145124</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5977,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.170503</v>
+        <v>0.171487</v>
       </c>
       <c r="C92" t="n">
-        <v>0.613938</v>
+        <v>0.248465</v>
       </c>
       <c r="D92" t="n">
-        <v>0.127791</v>
+        <v>0.595257</v>
       </c>
       <c r="E92" t="n">
-        <v>0.160416</v>
+        <v>0.126193</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.154849</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5997,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.193131</v>
+        <v>0.197386</v>
       </c>
       <c r="C93" t="n">
-        <v>0.617726</v>
+        <v>0.290015</v>
       </c>
       <c r="D93" t="n">
-        <v>0.144308</v>
+        <v>0.621153</v>
       </c>
       <c r="E93" t="n">
-        <v>0.18107</v>
+        <v>0.144933</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.178554</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +6017,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.23578</v>
+        <v>0.230194</v>
       </c>
       <c r="C94" t="n">
-        <v>0.647095</v>
+        <v>0.329945</v>
       </c>
       <c r="D94" t="n">
-        <v>0.111261</v>
+        <v>0.658578</v>
       </c>
       <c r="E94" t="n">
-        <v>0.128396</v>
+        <v>0.106981</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.128763</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +6037,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.13105</v>
+        <v>0.137707</v>
       </c>
       <c r="C95" t="n">
-        <v>0.665726</v>
+        <v>0.184762</v>
       </c>
       <c r="D95" t="n">
-        <v>0.113352</v>
+        <v>0.647852</v>
       </c>
       <c r="E95" t="n">
-        <v>0.138394</v>
+        <v>0.109595</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.136296</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +6057,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.138208</v>
+        <v>0.131256</v>
       </c>
       <c r="C96" t="n">
-        <v>0.691215</v>
+        <v>0.184587</v>
       </c>
       <c r="D96" t="n">
-        <v>0.112482</v>
+        <v>0.702999</v>
       </c>
       <c r="E96" t="n">
-        <v>0.137735</v>
+        <v>0.113992</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.133847</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +6077,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.140587</v>
+        <v>0.134267</v>
       </c>
       <c r="C97" t="n">
-        <v>0.714581</v>
+        <v>0.194031</v>
       </c>
       <c r="D97" t="n">
-        <v>0.123082</v>
+        <v>0.725151</v>
       </c>
       <c r="E97" t="n">
-        <v>0.141174</v>
+        <v>0.1188</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.14377</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +6097,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.141999</v>
+        <v>0.148805</v>
       </c>
       <c r="C98" t="n">
-        <v>0.719876</v>
+        <v>0.209636</v>
       </c>
       <c r="D98" t="n">
-        <v>0.122537</v>
+        <v>0.721499</v>
       </c>
       <c r="E98" t="n">
-        <v>0.142376</v>
+        <v>0.115095</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.14043</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +6117,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.14965</v>
+        <v>0.149948</v>
       </c>
       <c r="C99" t="n">
-        <v>0.768581</v>
+        <v>0.206097</v>
       </c>
       <c r="D99" t="n">
-        <v>0.12176</v>
+        <v>0.751107</v>
       </c>
       <c r="E99" t="n">
-        <v>0.148604</v>
+        <v>0.118275</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.146241</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +6137,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.149773</v>
+        <v>0.148947</v>
       </c>
       <c r="C100" t="n">
-        <v>0.759973</v>
+        <v>0.220708</v>
       </c>
       <c r="D100" t="n">
-        <v>0.122245</v>
+        <v>0.762428</v>
       </c>
       <c r="E100" t="n">
-        <v>0.157743</v>
+        <v>0.12234</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.150785</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +6157,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.157802</v>
+        <v>0.147944</v>
       </c>
       <c r="C101" t="n">
-        <v>0.816392</v>
+        <v>0.219631</v>
       </c>
       <c r="D101" t="n">
-        <v>0.126643</v>
+        <v>0.833635</v>
       </c>
       <c r="E101" t="n">
-        <v>0.159517</v>
+        <v>0.123207</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.160926</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +6177,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.154867</v>
+        <v>0.153945</v>
       </c>
       <c r="C102" t="n">
-        <v>0.828704</v>
+        <v>0.250089</v>
       </c>
       <c r="D102" t="n">
-        <v>0.128676</v>
+        <v>0.855412</v>
       </c>
       <c r="E102" t="n">
-        <v>0.165858</v>
+        <v>0.127971</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.161915</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +6197,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.163341</v>
+        <v>0.165477</v>
       </c>
       <c r="C103" t="n">
-        <v>0.855656</v>
+        <v>0.240971</v>
       </c>
       <c r="D103" t="n">
-        <v>0.131261</v>
+        <v>0.836636</v>
       </c>
       <c r="E103" t="n">
-        <v>0.167431</v>
+        <v>0.131109</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.170748</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +6217,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.177441</v>
+        <v>0.182167</v>
       </c>
       <c r="C104" t="n">
-        <v>0.889933</v>
+        <v>0.256561</v>
       </c>
       <c r="D104" t="n">
-        <v>0.136728</v>
+        <v>0.88896</v>
       </c>
       <c r="E104" t="n">
-        <v>0.172453</v>
+        <v>0.134477</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.173173</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +6237,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.19073</v>
+        <v>0.183175</v>
       </c>
       <c r="C105" t="n">
-        <v>0.898047</v>
+        <v>0.273183</v>
       </c>
       <c r="D105" t="n">
-        <v>0.140846</v>
+        <v>0.8977309999999999</v>
       </c>
       <c r="E105" t="n">
-        <v>0.185454</v>
+        <v>0.142498</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.192714</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +6257,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.201773</v>
+        <v>0.195594</v>
       </c>
       <c r="C106" t="n">
-        <v>0.912323</v>
+        <v>0.294404</v>
       </c>
       <c r="D106" t="n">
-        <v>0.149006</v>
+        <v>0.931482</v>
       </c>
       <c r="E106" t="n">
-        <v>0.203782</v>
+        <v>0.158395</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.196188</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +6277,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.221957</v>
+        <v>0.221456</v>
       </c>
       <c r="C107" t="n">
-        <v>0.701192</v>
+        <v>0.340188</v>
       </c>
       <c r="D107" t="n">
-        <v>0.164558</v>
+        <v>0.702878</v>
       </c>
       <c r="E107" t="n">
-        <v>0.213038</v>
+        <v>0.162252</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.208604</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +6297,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.268059</v>
+        <v>0.264251</v>
       </c>
       <c r="C108" t="n">
-        <v>0.754342</v>
+        <v>0.395438</v>
       </c>
       <c r="D108" t="n">
-        <v>0.185442</v>
+        <v>0.71745</v>
       </c>
       <c r="E108" t="n">
-        <v>0.206521</v>
+        <v>0.176537</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.204956</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +6317,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.343975</v>
+        <v>0.333356</v>
       </c>
       <c r="C109" t="n">
-        <v>0.745468</v>
+        <v>0.496963</v>
       </c>
       <c r="D109" t="n">
-        <v>0.178077</v>
+        <v>0.763379</v>
       </c>
       <c r="E109" t="n">
-        <v>0.216096</v>
+        <v>0.177977</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.20774</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6337,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.220896</v>
+        <v>0.216008</v>
       </c>
       <c r="C110" t="n">
-        <v>0.78088</v>
+        <v>0.29144</v>
       </c>
       <c r="D110" t="n">
-        <v>0.188149</v>
+        <v>0.757991</v>
       </c>
       <c r="E110" t="n">
-        <v>0.209398</v>
+        <v>0.185436</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.218418</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6357,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.249486</v>
+        <v>0.225415</v>
       </c>
       <c r="C111" t="n">
-        <v>0.801183</v>
+        <v>0.279963</v>
       </c>
       <c r="D111" t="n">
-        <v>0.188819</v>
+        <v>0.814347</v>
       </c>
       <c r="E111" t="n">
-        <v>0.219674</v>
+        <v>0.184672</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.22749</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6377,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.22305</v>
+        <v>0.228085</v>
       </c>
       <c r="C112" t="n">
-        <v>0.814348</v>
+        <v>0.287252</v>
       </c>
       <c r="D112" t="n">
-        <v>0.191848</v>
+        <v>0.841141</v>
       </c>
       <c r="E112" t="n">
-        <v>0.221312</v>
+        <v>0.181875</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.229968</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6397,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.230955</v>
+        <v>0.224475</v>
       </c>
       <c r="C113" t="n">
-        <v>0.836656</v>
+        <v>0.302902</v>
       </c>
       <c r="D113" t="n">
-        <v>0.190367</v>
+        <v>0.83807</v>
       </c>
       <c r="E113" t="n">
-        <v>0.232302</v>
+        <v>0.196954</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.228457</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6417,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.231864</v>
+        <v>0.230943</v>
       </c>
       <c r="C114" t="n">
-        <v>0.85953</v>
+        <v>0.29701</v>
       </c>
       <c r="D114" t="n">
-        <v>0.192937</v>
+        <v>0.8811020000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>0.23018</v>
+        <v>0.196253</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.230473</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6437,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.234487</v>
+        <v>0.238301</v>
       </c>
       <c r="C115" t="n">
-        <v>0.876211</v>
+        <v>0.307823</v>
       </c>
       <c r="D115" t="n">
-        <v>0.211569</v>
+        <v>0.8777779999999999</v>
       </c>
       <c r="E115" t="n">
-        <v>0.234372</v>
+        <v>0.189251</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.232077</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6457,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.272847</v>
+        <v>0.241588</v>
       </c>
       <c r="C116" t="n">
-        <v>0.975915</v>
+        <v>0.312982</v>
       </c>
       <c r="D116" t="n">
-        <v>0.202873</v>
+        <v>0.906026</v>
       </c>
       <c r="E116" t="n">
-        <v>0.265212</v>
+        <v>0.197448</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.236648</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6477,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.271897</v>
+        <v>0.253514</v>
       </c>
       <c r="C117" t="n">
-        <v>0.954745</v>
+        <v>0.328752</v>
       </c>
       <c r="D117" t="n">
-        <v>0.206326</v>
+        <v>0.921921</v>
       </c>
       <c r="E117" t="n">
-        <v>0.249669</v>
+        <v>0.196475</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.248094</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6497,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.26765</v>
+        <v>0.277548</v>
       </c>
       <c r="C118" t="n">
-        <v>0.983478</v>
+        <v>0.346355</v>
       </c>
       <c r="D118" t="n">
-        <v>0.224516</v>
+        <v>0.948842</v>
       </c>
       <c r="E118" t="n">
-        <v>0.275565</v>
+        <v>0.20678</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.252574</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6517,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.266709</v>
+        <v>0.294398</v>
       </c>
       <c r="C119" t="n">
-        <v>0.973447</v>
+        <v>0.361253</v>
       </c>
       <c r="D119" t="n">
-        <v>0.213119</v>
+        <v>0.980349</v>
       </c>
       <c r="E119" t="n">
-        <v>0.271235</v>
+        <v>0.214338</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.264066</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6537,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.282499</v>
+        <v>0.285607</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9948360000000001</v>
+        <v>0.422311</v>
       </c>
       <c r="D120" t="n">
-        <v>0.233182</v>
+        <v>1.00857</v>
       </c>
       <c r="E120" t="n">
-        <v>0.287897</v>
+        <v>0.214487</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.301641</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6557,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.317843</v>
+        <v>0.308863</v>
       </c>
       <c r="C121" t="n">
-        <v>0.7619089999999999</v>
+        <v>0.429325</v>
       </c>
       <c r="D121" t="n">
-        <v>0.248934</v>
+        <v>0.751221</v>
       </c>
       <c r="E121" t="n">
-        <v>0.296239</v>
+        <v>0.229291</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.316265</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6577,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.351475</v>
+        <v>0.349785</v>
       </c>
       <c r="C122" t="n">
-        <v>0.799938</v>
+        <v>0.497107</v>
       </c>
       <c r="D122" t="n">
-        <v>0.254726</v>
+        <v>0.780202</v>
       </c>
       <c r="E122" t="n">
-        <v>0.331556</v>
+        <v>0.289969</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.343027</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6597,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.430287</v>
+        <v>0.45143</v>
       </c>
       <c r="C123" t="n">
-        <v>0.811629</v>
+        <v>0.593336</v>
       </c>
       <c r="D123" t="n">
-        <v>0.287245</v>
+        <v>0.809766</v>
       </c>
       <c r="E123" t="n">
-        <v>0.318738</v>
+        <v>0.295037</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.331391</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6617,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.353478</v>
+        <v>0.352609</v>
       </c>
       <c r="C124" t="n">
-        <v>0.815646</v>
+        <v>0.416484</v>
       </c>
       <c r="D124" t="n">
-        <v>0.291978</v>
+        <v>0.820918</v>
       </c>
       <c r="E124" t="n">
-        <v>0.33228</v>
+        <v>0.3136</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.322213</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6637,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.356976</v>
+        <v>0.360996</v>
       </c>
       <c r="C125" t="n">
-        <v>0.851934</v>
+        <v>0.407585</v>
       </c>
       <c r="D125" t="n">
-        <v>0.301715</v>
+        <v>0.841901</v>
       </c>
       <c r="E125" t="n">
-        <v>0.347163</v>
+        <v>0.299245</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.333287</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6657,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.370993</v>
+        <v>0.361154</v>
       </c>
       <c r="C126" t="n">
-        <v>0.870528</v>
+        <v>0.446426</v>
       </c>
       <c r="D126" t="n">
-        <v>0.303983</v>
+        <v>0.9006769999999999</v>
       </c>
       <c r="E126" t="n">
-        <v>0.34463</v>
+        <v>0.2934</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.337034</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6677,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.368327</v>
+        <v>0.356559</v>
       </c>
       <c r="C127" t="n">
-        <v>0.913597</v>
+        <v>0.435344</v>
       </c>
       <c r="D127" t="n">
-        <v>0.306109</v>
+        <v>0.892447</v>
       </c>
       <c r="E127" t="n">
-        <v>0.339079</v>
+        <v>0.293081</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.352439</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6697,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.371374</v>
+        <v>0.36073</v>
       </c>
       <c r="C128" t="n">
-        <v>0.9243980000000001</v>
+        <v>0.444831</v>
       </c>
       <c r="D128" t="n">
-        <v>0.299547</v>
+        <v>0.941262</v>
       </c>
       <c r="E128" t="n">
-        <v>0.35312</v>
+        <v>0.298404</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.34223</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6717,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.372098</v>
+        <v>0.380986</v>
       </c>
       <c r="C129" t="n">
-        <v>0.962897</v>
+        <v>0.449328</v>
       </c>
       <c r="D129" t="n">
-        <v>0.310237</v>
+        <v>0.962139</v>
       </c>
       <c r="E129" t="n">
-        <v>0.34593</v>
+        <v>0.30199</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.359053</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6737,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.400722</v>
+        <v>0.382848</v>
       </c>
       <c r="C130" t="n">
-        <v>1.01766</v>
+        <v>0.455917</v>
       </c>
       <c r="D130" t="n">
-        <v>0.324772</v>
+        <v>1.00906</v>
       </c>
       <c r="E130" t="n">
-        <v>0.351139</v>
+        <v>0.311354</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.363747</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6757,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.392914</v>
+        <v>0.395155</v>
       </c>
       <c r="C131" t="n">
-        <v>1.0254</v>
+        <v>0.46957</v>
       </c>
       <c r="D131" t="n">
-        <v>0.314362</v>
+        <v>1.02496</v>
       </c>
       <c r="E131" t="n">
-        <v>0.377535</v>
+        <v>0.31149</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.358132</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6777,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.409316</v>
+        <v>0.400441</v>
       </c>
       <c r="C132" t="n">
-        <v>1.05393</v>
+        <v>0.485878</v>
       </c>
       <c r="D132" t="n">
-        <v>0.317108</v>
+        <v>1.05467</v>
       </c>
       <c r="E132" t="n">
-        <v>0.368913</v>
+        <v>0.318203</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.375339</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6797,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.416122</v>
+        <v>0.416729</v>
       </c>
       <c r="C133" t="n">
-        <v>1.08796</v>
+        <v>0.530231</v>
       </c>
       <c r="D133" t="n">
-        <v>0.332961</v>
+        <v>1.09109</v>
       </c>
       <c r="E133" t="n">
-        <v>0.38124</v>
+        <v>0.344853</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.376317</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6817,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.453478</v>
+        <v>0.440807</v>
       </c>
       <c r="C134" t="n">
-        <v>1.14117</v>
+        <v>0.5428500000000001</v>
       </c>
       <c r="D134" t="n">
-        <v>0.355771</v>
+        <v>1.11805</v>
       </c>
       <c r="E134" t="n">
-        <v>0.393608</v>
+        <v>0.347609</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.390135</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6837,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.46411</v>
+        <v>0.462187</v>
       </c>
       <c r="C135" t="n">
-        <v>0.907473</v>
+        <v>0.58769</v>
       </c>
       <c r="D135" t="n">
-        <v>0.364211</v>
+        <v>0.887188</v>
       </c>
       <c r="E135" t="n">
-        <v>0.42418</v>
+        <v>0.344737</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.421651</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6857,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.520494</v>
+        <v>0.514858</v>
       </c>
       <c r="C136" t="n">
-        <v>0.941779</v>
+        <v>0.673394</v>
       </c>
       <c r="D136" t="n">
-        <v>0.378259</v>
+        <v>0.938733</v>
       </c>
       <c r="E136" t="n">
-        <v>0.450838</v>
+        <v>0.377019</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.456849</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6877,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.599638</v>
+        <v>0.606674</v>
       </c>
       <c r="C137" t="n">
-        <v>0.983406</v>
+        <v>0.793817</v>
       </c>
       <c r="D137" t="n">
-        <v>0.350997</v>
+        <v>0.977633</v>
       </c>
       <c r="E137" t="n">
-        <v>0.387271</v>
+        <v>0.351331</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.386766</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6897,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.429827</v>
+        <v>0.438255</v>
       </c>
       <c r="C138" t="n">
-        <v>1.00751</v>
+        <v>0.507246</v>
       </c>
       <c r="D138" t="n">
-        <v>0.355564</v>
+        <v>1.00389</v>
       </c>
       <c r="E138" t="n">
-        <v>0.392492</v>
+        <v>0.355291</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.391642</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6917,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.443769</v>
+        <v>0.448329</v>
       </c>
       <c r="C139" t="n">
-        <v>1.03358</v>
+        <v>0.515024</v>
       </c>
       <c r="D139" t="n">
-        <v>0.361033</v>
+        <v>1.05002</v>
       </c>
       <c r="E139" t="n">
-        <v>0.39885</v>
+        <v>0.351724</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.388721</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6937,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.454475</v>
+        <v>0.442712</v>
       </c>
       <c r="C140" t="n">
-        <v>1.08131</v>
+        <v>0.527765</v>
       </c>
       <c r="D140" t="n">
-        <v>0.381036</v>
+        <v>1.0699</v>
       </c>
       <c r="E140" t="n">
-        <v>0.397693</v>
+        <v>0.357527</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.397769</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6957,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.459562</v>
+        <v>0.458216</v>
       </c>
       <c r="C141" t="n">
-        <v>1.11792</v>
+        <v>0.537511</v>
       </c>
       <c r="D141" t="n">
-        <v>0.368645</v>
+        <v>1.14562</v>
       </c>
       <c r="E141" t="n">
-        <v>0.416413</v>
+        <v>0.373679</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.412967</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6977,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.460773</v>
+        <v>0.454629</v>
       </c>
       <c r="C142" t="n">
-        <v>1.13934</v>
+        <v>0.525714</v>
       </c>
       <c r="D142" t="n">
-        <v>0.383164</v>
+        <v>1.1434</v>
       </c>
       <c r="E142" t="n">
-        <v>0.417979</v>
+        <v>0.367873</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.409095</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6997,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.460698</v>
+        <v>0.46885</v>
       </c>
       <c r="C143" t="n">
-        <v>1.18734</v>
+        <v>0.537484</v>
       </c>
       <c r="D143" t="n">
-        <v>0.375581</v>
+        <v>1.17025</v>
       </c>
       <c r="E143" t="n">
-        <v>0.429117</v>
+        <v>0.375648</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.418444</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -560,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0188563</v>
+                  <v>0.0201731</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.020482</v>
+                  <v>0.0223373</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0250918</v>
+                  <v>0.0283973</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0324396</v>
+                  <v>0.0359745</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0486736</v>
+                  <v>0.0468578</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0676407</v>
+                  <v>0.0662001</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0914015</v>
+                  <v>0.0874499</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.120117</v>
+                  <v>0.118178</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0161742</v>
+                  <v>0.0163823</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0167609</v>
+                  <v>0.0169442</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.017033</v>
+                  <v>0.0173203</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0178156</v>
+                  <v>0.0179112</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0186429</v>
+                  <v>0.0186739</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0201514</v>
+                  <v>0.0206062</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0223364</v>
+                  <v>0.0231143</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0265812</v>
+                  <v>0.0271457</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0315209</v>
+                  <v>0.0334194</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0404218</v>
+                  <v>0.0418801</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0523243</v>
+                  <v>0.0544232</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.068802</v>
+                  <v>0.06979779999999999</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0916015</v>
+                  <v>0.0938215</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.115789</v>
+                  <v>0.121481</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0165559</v>
+                  <v>0.0166604</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.01713</v>
+                  <v>0.0171542</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.017832</v>
+                  <v>0.0177934</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0186431</v>
+                  <v>0.0184952</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0204344</v>
+                  <v>0.0201196</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0223797</v>
+                  <v>0.0218972</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0260575</v>
+                  <v>0.0251077</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0296827</v>
+                  <v>0.0292352</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0351294</v>
+                  <v>0.0347619</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0439567</v>
+                  <v>0.0435356</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0560566</v>
+                  <v>0.0537204</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0724226</v>
+                  <v>0.0688154</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0942229</v>
+                  <v>0.09015720000000001</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.120526</v>
+                  <v>0.116026</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0171733</v>
+                  <v>0.0170183</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0178413</v>
+                  <v>0.0178123</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0187789</v>
+                  <v>0.01864</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0201514</v>
+                  <v>0.0197201</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0218874</v>
+                  <v>0.0215528</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0244952</v>
+                  <v>0.0238953</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0277145</v>
+                  <v>0.0270839</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0318614</v>
+                  <v>0.0315753</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.038157</v>
+                  <v>0.0372642</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0458946</v>
+                  <v>0.0449549</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0561284</v>
+                  <v>0.0551349</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.07138170000000001</v>
+                  <v>0.06987989999999999</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.09212090000000001</v>
+                  <v>0.09050619999999999</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.117399</v>
+                  <v>0.116517</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.142611</v>
+                  <v>0.142867</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0191063</v>
+                  <v>0.0189245</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0202054</v>
+                  <v>0.0202459</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0216884</v>
+                  <v>0.0217405</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.023762</v>
+                  <v>0.0238386</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0265754</v>
+                  <v>0.0263284</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0299431</v>
+                  <v>0.0295381</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0344095</v>
+                  <v>0.0336662</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0405591</v>
+                  <v>0.0393238</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0475581</v>
+                  <v>0.0464554</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0572633</v>
+                  <v>0.0563056</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0711276</v>
+                  <v>0.0704912</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0912027</v>
+                  <v>0.090473</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.117531</v>
+                  <v>0.116153</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.147591</v>
+                  <v>0.148156</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0198684</v>
+                  <v>0.0199809</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0210982</v>
+                  <v>0.0212024</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0228671</v>
+                  <v>0.0226467</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0250892</v>
+                  <v>0.0247555</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0274858</v>
+                  <v>0.0272389</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0307585</v>
+                  <v>0.0304965</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0350439</v>
+                  <v>0.034774</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0401473</v>
+                  <v>0.0399272</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0470655</v>
+                  <v>0.0466726</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0565303</v>
+                  <v>0.0562112</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0694931</v>
+                  <v>0.0692453</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0876659</v>
+                  <v>0.08731709999999999</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.112976</v>
+                  <v>0.112012</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.14429</v>
+                  <v>0.143596</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0201115</v>
+                  <v>0.0198969</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0216766</v>
+                  <v>0.0211685</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0228365</v>
+                  <v>0.0228963</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0248985</v>
+                  <v>0.0246315</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0272584</v>
+                  <v>0.0270319</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0302977</v>
+                  <v>0.0301633</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0342083</v>
+                  <v>0.0343003</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.039444</v>
+                  <v>0.0392099</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0458422</v>
+                  <v>0.0461135</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0546333</v>
+                  <v>0.0547299</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0669435</v>
+                  <v>0.0668189</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0841283</v>
+                  <v>0.0836469</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.108178</v>
+                  <v>0.107787</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.139209</v>
+                  <v>0.138233</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0208397</v>
+                  <v>0.021069</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0217789</v>
+                  <v>0.0216843</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0236136</v>
+                  <v>0.0235278</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0250037</v>
+                  <v>0.0252833</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0272123</v>
+                  <v>0.0276404</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0306604</v>
+                  <v>0.0303935</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0359699</v>
+                  <v>0.0347047</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0400556</v>
+                  <v>0.03961</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0464214</v>
+                  <v>0.0462842</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0543718</v>
+                  <v>0.0542663</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0654956</v>
+                  <v>0.06533070000000001</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0810722</v>
+                  <v>0.0810447</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.102897</v>
+                  <v>0.102744</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.133253</v>
+                  <v>0.132435</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.1679</v>
+                  <v>0.168123</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0312378</v>
+                  <v>0.0311566</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.032867</v>
+                  <v>0.0327274</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0343439</v>
+                  <v>0.0342032</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0361309</v>
+                  <v>0.0360288</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0383012</v>
+                  <v>0.038221</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0408352</v>
+                  <v>0.0407202</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0439366</v>
+                  <v>0.0443612</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0486743</v>
+                  <v>0.0487038</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0550738</v>
+                  <v>0.0551061</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0645583</v>
+                  <v>0.0650413</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0791676</v>
+                  <v>0.0796751</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0998057</v>
+                  <v>0.100197</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.128197</v>
+                  <v>0.128476</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.163841</v>
+                  <v>0.164648</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0345014</v>
+                  <v>0.0347131</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.035219</v>
+                  <v>0.0356762</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0366214</v>
+                  <v>0.0366723</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0384021</v>
+                  <v>0.0385512</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0405117</v>
+                  <v>0.0406167</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0431668</v>
+                  <v>0.0432628</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0465002</v>
+                  <v>0.0469616</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0510499</v>
+                  <v>0.0522871</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0587435</v>
+                  <v>0.0587787</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0679357</v>
+                  <v>0.06793159999999999</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0816269</v>
+                  <v>0.0818242</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.101812</v>
+                  <v>0.10117</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.129487</v>
+                  <v>0.129216</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.164993</v>
+                  <v>0.164833</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0468838</v>
+                  <v>0.04719</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0484521</v>
+                  <v>0.0477155</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0493311</v>
+                  <v>0.0498207</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0507617</v>
+                  <v>0.0506207</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0532957</v>
+                  <v>0.0533573</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0554191</v>
+                  <v>0.0561423</v>
                 </pt>
               </numCache>
             </numRef>
@@ -999,7 +999,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_map</v>
+                  <v>absl::node_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1462,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0745743</v>
+                  <v>0.0194065</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0818991</v>
+                  <v>0.0224007</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0759394</v>
+                  <v>0.0288135</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0880992</v>
+                  <v>0.0338387</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.08153489999999999</v>
+                  <v>0.0464436</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0624356</v>
+                  <v>0.0656384</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.061869</v>
+                  <v>0.0870889</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0683074</v>
+                  <v>0.116853</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0686766</v>
+                  <v>0.016173</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.07166640000000001</v>
+                  <v>0.0167609</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0739997</v>
+                  <v>0.0172318</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.077265</v>
+                  <v>0.0179025</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0817507</v>
+                  <v>0.0189746</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0856117</v>
+                  <v>0.019983</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0866362</v>
+                  <v>0.0223099</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.09086229999999999</v>
+                  <v>0.0264348</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.09648760000000001</v>
+                  <v>0.0312478</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.096305</v>
+                  <v>0.0404906</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.09784320000000001</v>
+                  <v>0.0537627</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0664341</v>
+                  <v>0.0690885</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0712783</v>
+                  <v>0.0933016</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0762056</v>
+                  <v>0.118794</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0754963</v>
+                  <v>0.0162717</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0791755</v>
+                  <v>0.0168356</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0828492</v>
+                  <v>0.017468</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.08543870000000001</v>
+                  <v>0.0182377</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0887561</v>
+                  <v>0.0194683</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.092414</v>
+                  <v>0.0212317</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0948533</v>
+                  <v>0.0242552</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0957143</v>
+                  <v>0.0284577</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.09790550000000001</v>
+                  <v>0.0343277</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.09936730000000001</v>
+                  <v>0.0428176</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.101587</v>
+                  <v>0.0534805</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.06934940000000001</v>
+                  <v>0.0688173</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0726347</v>
+                  <v>0.0907517</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.07564949999999999</v>
+                  <v>0.117543</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0790356</v>
+                  <v>0.0168393</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0818281</v>
+                  <v>0.0175714</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0856015</v>
+                  <v>0.0184474</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.08902640000000001</v>
+                  <v>0.0198324</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0915702</v>
+                  <v>0.021464</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0953242</v>
+                  <v>0.0237258</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0973436</v>
+                  <v>0.0270856</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.100137</v>
+                  <v>0.0315007</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.102066</v>
+                  <v>0.0372003</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.104689</v>
+                  <v>0.0443335</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.106565</v>
+                  <v>0.0545841</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.109417</v>
+                  <v>0.06922639999999999</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0759278</v>
+                  <v>0.0899831</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.07929940000000001</v>
+                  <v>0.117779</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0833945</v>
+                  <v>0.142876</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.08607579999999999</v>
+                  <v>0.0191296</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0893982</v>
+                  <v>0.0201955</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0926165</v>
+                  <v>0.0216483</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.09584810000000001</v>
+                  <v>0.023403</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.100165</v>
+                  <v>0.026064</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.101736</v>
+                  <v>0.0294373</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.105135</v>
+                  <v>0.0339117</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.107339</v>
+                  <v>0.0393543</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.109803</v>
+                  <v>0.0465728</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.111709</v>
+                  <v>0.056655</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.115496</v>
+                  <v>0.0699357</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0812769</v>
+                  <v>0.0901044</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.08581900000000001</v>
+                  <v>0.117115</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.09048920000000001</v>
+                  <v>0.147525</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.09512900000000001</v>
+                  <v>0.0200422</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.09904019999999999</v>
+                  <v>0.0210888</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.103762</v>
+                  <v>0.0229847</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.109767</v>
+                  <v>0.0248889</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.115064</v>
+                  <v>0.0271453</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.119625</v>
+                  <v>0.0304582</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.123912</v>
+                  <v>0.0344984</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.128639</v>
+                  <v>0.0397809</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.136023</v>
+                  <v>0.0470601</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.141569</v>
+                  <v>0.0565718</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.147324</v>
+                  <v>0.06901500000000001</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.114448</v>
+                  <v>0.087157</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.120419</v>
+                  <v>0.112264</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.125131</v>
+                  <v>0.144133</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.131477</v>
+                  <v>0.0200835</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.139604</v>
+                  <v>0.0214419</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.146445</v>
+                  <v>0.0229504</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.154887</v>
+                  <v>0.0250695</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.163154</v>
+                  <v>0.0273812</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.170385</v>
+                  <v>0.0308585</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.178312</v>
+                  <v>0.0344507</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.182546</v>
+                  <v>0.0394985</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.19023</v>
+                  <v>0.0460324</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.200533</v>
+                  <v>0.0550461</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.208859</v>
+                  <v>0.0671224</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.157758</v>
+                  <v>0.0844076</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.162746</v>
+                  <v>0.109009</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.168477</v>
+                  <v>0.139885</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.17633</v>
+                  <v>0.0246877</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.183525</v>
+                  <v>0.0262639</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.190701</v>
+                  <v>0.0285106</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.19753</v>
+                  <v>0.0326365</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.204795</v>
+                  <v>0.0376421</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.226592</v>
+                  <v>0.0431873</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.219043</v>
+                  <v>0.0495911</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227757</v>
+                  <v>0.0557668</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.233267</v>
+                  <v>0.0618652</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.243865</v>
+                  <v>0.0688729</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.252361</v>
+                  <v>0.0776963</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.261173</v>
+                  <v>0.0907839</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.190647</v>
+                  <v>0.109448</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.197526</v>
+                  <v>0.136707</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.203566</v>
+                  <v>0.172459</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.210146</v>
+                  <v>0.0467682</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.218257</v>
+                  <v>0.0483897</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.224714</v>
+                  <v>0.0507314</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.23258</v>
+                  <v>0.0528627</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.239218</v>
+                  <v>0.0555484</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.24724</v>
+                  <v>0.0590007</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.255715</v>
+                  <v>0.0628261</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.263655</v>
+                  <v>0.0678373</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.271989</v>
+                  <v>0.0743669</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.282797</v>
+                  <v>0.08271000000000001</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.289767</v>
+                  <v>0.0944628</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.206007</v>
+                  <v>0.11085</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.211597</v>
+                  <v>0.135461</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.217961</v>
+                  <v>0.170368</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.22481</v>
+                  <v>0.0512479</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.231511</v>
+                  <v>0.052865</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.23876</v>
+                  <v>0.0549309</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.246015</v>
+                  <v>0.058871</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.253902</v>
+                  <v>0.0612004</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.261754</v>
+                  <v>0.0650288</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.269215</v>
+                  <v>0.069248</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.276809</v>
+                  <v>0.0746687</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.285243</v>
+                  <v>0.08118839999999999</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.294416</v>
+                  <v>0.0896735</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.303237</v>
+                  <v>0.101136</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.212509</v>
+                  <v>0.117614</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.21893</v>
+                  <v>0.141623</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.225118</v>
+                  <v>0.176838</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.232231</v>
+                  <v>0.0654614</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.239705</v>
+                  <v>0.0667495</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.247032</v>
+                  <v>0.06891559999999999</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.255056</v>
+                  <v>0.07127269999999999</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.262733</v>
+                  <v>0.0736226</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.271863</v>
+                  <v>0.077071</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1901,7 +1901,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_flat_map</v>
+                  <v>boost::unordered_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2364,430 +2364,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0212525</v>
+                  <v>0.0719905</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0216004</v>
+                  <v>0.0729974</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0227228</v>
+                  <v>0.082431</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0236692</v>
+                  <v>0.0738939</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.025734</v>
+                  <v>0.0825699</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0307283</v>
+                  <v>0.0649699</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0400074</v>
+                  <v>0.0601928</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0191859</v>
+                  <v>0.0616023</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0194145</v>
+                  <v>0.0644928</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0197171</v>
+                  <v>0.07119880000000001</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0200098</v>
+                  <v>0.07261140000000001</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0202944</v>
+                  <v>0.07676910000000001</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0205605</v>
+                  <v>0.0821347</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0210623</v>
+                  <v>0.0866618</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.021745</v>
+                  <v>0.08824650000000001</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0224624</v>
+                  <v>0.0907429</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0233932</v>
+                  <v>0.09464789999999999</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0246564</v>
+                  <v>0.0952583</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0274191</v>
+                  <v>0.0964115</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0316025</v>
+                  <v>0.0694861</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0413247</v>
+                  <v>0.07024809999999999</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0187664</v>
+                  <v>0.0724142</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0190384</v>
+                  <v>0.07515040000000001</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.019321</v>
+                  <v>0.07962320000000001</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0195661</v>
+                  <v>0.0832406</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0198599</v>
+                  <v>0.0852619</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0203393</v>
+                  <v>0.0896028</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0209382</v>
+                  <v>0.09148480000000001</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0214818</v>
+                  <v>0.0939405</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0223346</v>
+                  <v>0.0965188</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0233779</v>
+                  <v>0.09831380000000001</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0247673</v>
+                  <v>0.100199</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0273931</v>
+                  <v>0.102902</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0317286</v>
+                  <v>0.0698054</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.039339</v>
+                  <v>0.0726036</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0193829</v>
+                  <v>0.0757068</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0197036</v>
+                  <v>0.0793538</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0199834</v>
+                  <v>0.083243</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0203028</v>
+                  <v>0.08550199999999999</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0206416</v>
+                  <v>0.08859019999999999</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.021054</v>
+                  <v>0.09167649999999999</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0216854</v>
+                  <v>0.0949025</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0224175</v>
+                  <v>0.0970295</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0232548</v>
+                  <v>0.100157</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0245789</v>
+                  <v>0.102332</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0261833</v>
+                  <v>0.104522</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0289704</v>
+                  <v>0.105831</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0328291</v>
+                  <v>0.108825</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0389724</v>
+                  <v>0.0755461</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0204109</v>
+                  <v>0.078995</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0206887</v>
+                  <v>0.0825134</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0209817</v>
+                  <v>0.0867947</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0212755</v>
+                  <v>0.0901161</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0216547</v>
+                  <v>0.09300659999999999</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0221738</v>
+                  <v>0.0971045</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0227227</v>
+                  <v>0.10016</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0233788</v>
+                  <v>0.102369</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0243162</v>
+                  <v>0.105472</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0256636</v>
+                  <v>0.108186</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0275441</v>
+                  <v>0.110002</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0301356</v>
+                  <v>0.112754</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0341597</v>
+                  <v>0.115747</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0404667</v>
+                  <v>0.0811159</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0516123</v>
+                  <v>0.08591849999999999</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0209483</v>
+                  <v>0.0904712</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0212904</v>
+                  <v>0.094886</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0216414</v>
+                  <v>0.0995163</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0220066</v>
+                  <v>0.10423</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.022503</v>
+                  <v>0.108446</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0230597</v>
+                  <v>0.115564</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.023794</v>
+                  <v>0.120256</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.024724</v>
+                  <v>0.124687</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0259069</v>
+                  <v>0.130917</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0276355</v>
+                  <v>0.135851</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0302519</v>
+                  <v>0.141198</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0340355</v>
+                  <v>0.147703</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0396979</v>
+                  <v>0.111012</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.049477</v>
+                  <v>0.120113</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0212779</v>
+                  <v>0.124171</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0216341</v>
+                  <v>0.131036</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0219984</v>
+                  <v>0.138476</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0224363</v>
+                  <v>0.145921</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0229328</v>
+                  <v>0.154954</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0235783</v>
+                  <v>0.163989</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0244305</v>
+                  <v>0.168326</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0254418</v>
+                  <v>0.177149</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0267137</v>
+                  <v>0.182049</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0283454</v>
+                  <v>0.18983</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0308527</v>
+                  <v>0.198267</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0342322</v>
+                  <v>0.205699</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.03938</v>
+                  <v>0.155131</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.048197</v>
+                  <v>0.161371</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0229879</v>
+                  <v>0.167644</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0234516</v>
+                  <v>0.174382</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0240067</v>
+                  <v>0.180841</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0245912</v>
+                  <v>0.18713</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0253619</v>
+                  <v>0.194952</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0267537</v>
+                  <v>0.202006</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0289872</v>
+                  <v>0.210399</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0317781</v>
+                  <v>0.216909</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0350402</v>
+                  <v>0.225263</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0383243</v>
+                  <v>0.232957</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0415289</v>
+                  <v>0.240595</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0449303</v>
+                  <v>0.24943</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0491857</v>
+                  <v>0.259096</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0555259</v>
+                  <v>0.189204</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0351129</v>
+                  <v>0.195409</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0361988</v>
+                  <v>0.202101</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0370074</v>
+                  <v>0.208914</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0378667</v>
+                  <v>0.216123</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0385583</v>
+                  <v>0.223325</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0395869</v>
+                  <v>0.230562</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0406235</v>
+                  <v>0.23813</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0416052</v>
+                  <v>0.245517</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0428433</v>
+                  <v>0.253672</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0445415</v>
+                  <v>0.262325</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0464755</v>
+                  <v>0.270451</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0489272</v>
+                  <v>0.279981</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0526395</v>
+                  <v>0.288965</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0583473</v>
+                  <v>0.20558</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.06810819999999999</v>
+                  <v>0.211153</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0412799</v>
+                  <v>0.21773</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0422281</v>
+                  <v>0.224538</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0429276</v>
+                  <v>0.231602</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0439297</v>
+                  <v>0.239227</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0447307</v>
+                  <v>0.246785</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0457736</v>
+                  <v>0.254214</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0468762</v>
+                  <v>0.26216</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0480061</v>
+                  <v>0.269644</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0495994</v>
+                  <v>0.278269</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0516555</v>
+                  <v>0.28676</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0541823</v>
+                  <v>0.294905</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0578916</v>
+                  <v>0.304292</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0634131</v>
+                  <v>0.213434</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.07260369999999999</v>
+                  <v>0.219307</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0591479</v>
+                  <v>0.226031</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0608915</v>
+                  <v>0.233449</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0603453</v>
+                  <v>0.239676</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0608767</v>
+                  <v>0.247679</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0620272</v>
+                  <v>0.255283</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0625593</v>
+                  <v>0.262438</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0640025</v>
+                  <v>0.270371</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2803,7 +2803,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_node_map</v>
+                  <v>boost::unordered_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3266,430 +3266,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0214076</v>
+                  <v>0.0216009</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0220449</v>
+                  <v>0.0221084</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0228814</v>
+                  <v>0.0230466</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0238445</v>
+                  <v>0.0244666</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0259967</v>
+                  <v>0.0265716</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0308818</v>
+                  <v>0.0306845</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0397899</v>
+                  <v>0.0377971</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0190868</v>
+                  <v>0.0191766</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0193166</v>
+                  <v>0.0193893</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0195902</v>
+                  <v>0.0197043</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0199197</v>
+                  <v>0.0200607</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0202396</v>
+                  <v>0.0204068</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0206034</v>
+                  <v>0.0206994</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0211027</v>
+                  <v>0.0212233</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.02181</v>
+                  <v>0.0219078</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0225325</v>
+                  <v>0.0227165</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0234089</v>
+                  <v>0.0235386</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0246829</v>
+                  <v>0.0248559</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0272518</v>
+                  <v>0.0272925</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0319929</v>
+                  <v>0.0311581</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0414377</v>
+                  <v>0.039445</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0188357</v>
+                  <v>0.0189417</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0191047</v>
+                  <v>0.0192166</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.019293</v>
+                  <v>0.0194402</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0195628</v>
+                  <v>0.01967</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.020006</v>
+                  <v>0.0200648</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0203576</v>
+                  <v>0.0205084</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0209983</v>
+                  <v>0.0211482</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0216036</v>
+                  <v>0.0217413</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0224206</v>
+                  <v>0.0226275</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0234567</v>
+                  <v>0.023562</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0248701</v>
+                  <v>0.0249451</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0276153</v>
+                  <v>0.0273574</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0319171</v>
+                  <v>0.0311211</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0394712</v>
+                  <v>0.0379297</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0194612</v>
+                  <v>0.0194402</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.019774</v>
+                  <v>0.0197588</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0200997</v>
+                  <v>0.020083</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0204224</v>
+                  <v>0.0204271</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0207986</v>
+                  <v>0.020797</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0212501</v>
+                  <v>0.0212094</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0218422</v>
+                  <v>0.0218012</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0225976</v>
+                  <v>0.0225426</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.023464</v>
+                  <v>0.0233782</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0247861</v>
+                  <v>0.0246526</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0263224</v>
+                  <v>0.0261541</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0291543</v>
+                  <v>0.0288267</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0329324</v>
+                  <v>0.0324146</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0390016</v>
+                  <v>0.0383102</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0204605</v>
+                  <v>0.0205245</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.020763</v>
+                  <v>0.0207576</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0211036</v>
+                  <v>0.0210818</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0214464</v>
+                  <v>0.0214063</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0218044</v>
+                  <v>0.0217707</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.02235</v>
+                  <v>0.0222808</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0228519</v>
+                  <v>0.0227865</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0235195</v>
+                  <v>0.0234609</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0244936</v>
+                  <v>0.0243803</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0258272</v>
+                  <v>0.0256999</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0276262</v>
+                  <v>0.0274345</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0303212</v>
+                  <v>0.0299708</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0343892</v>
+                  <v>0.0339134</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0407201</v>
+                  <v>0.0399682</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0517515</v>
+                  <v>0.0509853</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0210642</v>
+                  <v>0.0210663</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0214078</v>
+                  <v>0.0214128</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0217171</v>
+                  <v>0.0217044</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0221679</v>
+                  <v>0.0220793</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0225732</v>
+                  <v>0.0225101</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0231145</v>
+                  <v>0.0230847</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.023886</v>
+                  <v>0.0238389</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0248041</v>
+                  <v>0.0247061</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0260928</v>
+                  <v>0.0259229</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0279417</v>
+                  <v>0.027636</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0307152</v>
+                  <v>0.0300556</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0341993</v>
+                  <v>0.033803</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0399898</v>
+                  <v>0.0394898</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0497379</v>
+                  <v>0.0492793</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0218936</v>
+                  <v>0.0212983</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0223402</v>
+                  <v>0.0216173</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0229967</v>
+                  <v>0.0220136</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0238374</v>
+                  <v>0.0224719</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0244912</v>
+                  <v>0.0229306</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0255432</v>
+                  <v>0.0235925</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0269618</v>
+                  <v>0.0244368</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0283241</v>
+                  <v>0.0254208</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0302692</v>
+                  <v>0.0267328</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0321612</v>
+                  <v>0.0283669</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0348082</v>
+                  <v>0.0308234</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0382122</v>
+                  <v>0.0342177</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0434233</v>
+                  <v>0.0393046</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0534129</v>
+                  <v>0.0481634</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0282249</v>
+                  <v>0.0230218</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.029139</v>
+                  <v>0.0235096</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.03133</v>
+                  <v>0.024067</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0341335</v>
+                  <v>0.0247073</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0381704</v>
+                  <v>0.0254037</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0428413</v>
+                  <v>0.0268593</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0471767</v>
+                  <v>0.0290853</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0508107</v>
+                  <v>0.0319312</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0541568</v>
+                  <v>0.0351347</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0573175</v>
+                  <v>0.0384163</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0605919</v>
+                  <v>0.0415243</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.06430470000000001</v>
+                  <v>0.0448445</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.06932820000000001</v>
+                  <v>0.049027</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.07656540000000001</v>
+                  <v>0.0554999</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0513709</v>
+                  <v>0.0351618</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0528133</v>
+                  <v>0.0362013</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0541587</v>
+                  <v>0.0370039</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0555634</v>
+                  <v>0.0378586</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0569233</v>
+                  <v>0.0386194</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0585293</v>
+                  <v>0.0394682</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0602617</v>
+                  <v>0.040537</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0619037</v>
+                  <v>0.0416614</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0640491</v>
+                  <v>0.0430189</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0662812</v>
+                  <v>0.0444291</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.06915499999999999</v>
+                  <v>0.0463979</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.07276100000000001</v>
+                  <v>0.0489896</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.07756780000000001</v>
+                  <v>0.0528205</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0847301</v>
+                  <v>0.058274</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.0960261</v>
+                  <v>0.06796190000000001</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0604808</v>
+                  <v>0.0403819</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0618613</v>
+                  <v>0.0411282</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0635545</v>
+                  <v>0.0420223</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0648304</v>
+                  <v>0.043459</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.06670520000000001</v>
+                  <v>0.0444712</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0683797</v>
+                  <v>0.0454145</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0702016</v>
+                  <v>0.0465307</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0724499</v>
+                  <v>0.0478298</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.07498920000000001</v>
+                  <v>0.0494071</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0779345</v>
+                  <v>0.0513635</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.081499</v>
+                  <v>0.0537652</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0866347</v>
+                  <v>0.0575184</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.09380090000000001</v>
+                  <v>0.06303880000000001</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.105376</v>
+                  <v>0.0724042</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0789271</v>
+                  <v>0.0589715</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0802612</v>
+                  <v>0.0597273</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.08157540000000001</v>
+                  <v>0.0603338</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0829015</v>
+                  <v>0.0607136</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0845514</v>
+                  <v>0.0616614</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.08594209999999999</v>
+                  <v>0.0623911</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0877042</v>
+                  <v>0.0637191</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>plot!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$F$2:$F$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.0213731</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.0219128</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.0229614</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.0237155</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.025576</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.029993</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.0372132</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.0191559</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.0193448</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.0196525</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.0200966</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.0202894</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.0206235</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.0211043</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.0218162</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.0225323</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.023233</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.0243677</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.0267946</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.0309274</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.0396682</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.0188515</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.0191092</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.0193229</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.0195956</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.0199672</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.0203555</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.0210076</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.0216355</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.0223774</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.0233702</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.0247201</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.0272634</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.0312534</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.0380069</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.0194619</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.0197841</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.0201213</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.0204515</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.0207924</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.021191</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.0218251</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.0226156</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.0234105</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.0246226</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.0262507</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.0288559</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.0324919</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.0384891</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.0204688</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.0207663</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.0210612</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.0213982</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.0217859</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.0222653</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.0228454</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.0235124</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.0243594</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.0256987</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.0274883</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.0300593</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.0340648</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.0401741</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.0512194</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.0210961</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.0213836</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.0217762</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.0220643</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.0226375</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.0232502</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.0239062</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.0248356</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.026065</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.0279232</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.0305011</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.0343393</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.0399486</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.0496558</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.0218532</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.0222095</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.0228944</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.0236355</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.0243062</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.0253495</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.0267319</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.0282859</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.0299437</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.0317743</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.0345472</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.0380622</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.0432275</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.0531484</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.0281559</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.0293133</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.031368</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.0340943</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.0378803</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.0424448</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.0466268</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.0506328</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.0540476</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.0572826</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.0607623</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.0644699</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.0693695</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.0764777</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.0511115</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.05263</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.0540065</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.0553181</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.0566814</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.0582196</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.0599567</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.0618321</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.0637921</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.0661122</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.0689598</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.0725898</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.077532</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.08458259999999999</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.0955395</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.0601745</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.0615969</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.0631738</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.06469229999999999</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.06635340000000001</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.0679819</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.0698984</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.0721822</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.07472959999999999</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.0777127</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.08139440000000001</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.0863636</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.0936022</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.104572</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.0791782</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.0801432</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.0817592</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.0831262</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.0843787</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.0859061</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.0897927</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3792,7 +4694,7 @@
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
           <w val="0.3308817338426756"/>
-          <h val="0.2472877044215627"/>
+          <h val="0.3091096305269533"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -4142,7 +5044,7 @@
   <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4158,15 +5060,20 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>absl::node_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::unordered_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::unordered_flat_map</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>boost::unordered_node_map</t>
         </is>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0587053</v>
+        <v>0.0588576</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0601688</v>
+        <v>0.0587914</v>
       </c>
       <c r="D2" t="n">
-        <v>0.16559</v>
+        <v>0.163668</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0744587</v>
+        <v>0.07161149999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06289069999999999</v>
+        <v>0.061782</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0605229</v>
+        <v>0.0610321</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06506190000000001</v>
+        <v>0.0617208</v>
       </c>
       <c r="D3" t="n">
-        <v>0.16787</v>
+        <v>0.16845</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0724487</v>
+        <v>0.07179489999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0628166</v>
+        <v>0.0624803</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06369089999999999</v>
+        <v>0.0628476</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0676499</v>
+        <v>0.06530039999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.171311</v>
+        <v>0.172459</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0757027</v>
+        <v>0.0735172</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0643116</v>
+        <v>0.06618830000000001</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0707716</v>
+        <v>0.0716203</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07429230000000001</v>
+        <v>0.07078660000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.182421</v>
+        <v>0.176768</v>
       </c>
       <c r="E5" t="n">
-        <v>0.075226</v>
+        <v>0.07517020000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0686749</v>
+        <v>0.0664714</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0787926</v>
+        <v>0.0755411</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0836648</v>
+        <v>0.078906</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1868</v>
+        <v>0.181627</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0797153</v>
+        <v>0.0803854</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0697039</v>
+        <v>0.069578</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.09691569999999999</v>
+        <v>0.0869318</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0975555</v>
+        <v>0.0896922</v>
       </c>
       <c r="D7" t="n">
-        <v>0.145525</v>
+        <v>0.145911</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0858505</v>
+        <v>0.08529109999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0779277</v>
+        <v>0.0764784</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.118275</v>
+        <v>0.11033</v>
       </c>
       <c r="C8" t="n">
-        <v>0.117901</v>
+        <v>0.111831</v>
       </c>
       <c r="D8" t="n">
-        <v>0.152427</v>
+        <v>0.14995</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0984464</v>
+        <v>0.0951767</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0864972</v>
+        <v>0.0862332</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.155887</v>
+        <v>0.152663</v>
       </c>
       <c r="C9" t="n">
-        <v>0.147013</v>
+        <v>0.144331</v>
       </c>
       <c r="D9" t="n">
-        <v>0.158746</v>
+        <v>0.154608</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0709255</v>
+        <v>0.06929299999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0610066</v>
+        <v>0.0611498</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0579393</v>
+        <v>0.0571501</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0585323</v>
+        <v>0.0579957</v>
       </c>
       <c r="D10" t="n">
-        <v>0.160529</v>
+        <v>0.160042</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0699526</v>
+        <v>0.0706576</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0620483</v>
+        <v>0.06361700000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0588938</v>
+        <v>0.0575356</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0608599</v>
+        <v>0.0586879</v>
       </c>
       <c r="D11" t="n">
-        <v>0.165267</v>
+        <v>0.164858</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0717788</v>
+        <v>0.0699939</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0624974</v>
+        <v>0.061743</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0604138</v>
+        <v>0.0580063</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0623111</v>
+        <v>0.0612389</v>
       </c>
       <c r="D12" t="n">
-        <v>0.172894</v>
+        <v>0.168894</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0703708</v>
+        <v>0.0703105</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06423040000000001</v>
+        <v>0.0620595</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0585509</v>
+        <v>0.0610697</v>
       </c>
       <c r="C13" t="n">
-        <v>0.061146</v>
+        <v>0.0615691</v>
       </c>
       <c r="D13" t="n">
-        <v>0.174787</v>
+        <v>0.178573</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07201249999999999</v>
+        <v>0.0705388</v>
       </c>
       <c r="F13" t="n">
-        <v>0.063513</v>
+        <v>0.0639996</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0605803</v>
+        <v>0.0604046</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0620407</v>
+        <v>0.0612324</v>
       </c>
       <c r="D14" t="n">
-        <v>0.182738</v>
+        <v>0.182218</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0707527</v>
+        <v>0.07087010000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0625068</v>
+        <v>0.0627495</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0610469</v>
+        <v>0.0620386</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06523320000000001</v>
+        <v>0.0623966</v>
       </c>
       <c r="D15" t="n">
-        <v>0.187893</v>
+        <v>0.185802</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0715971</v>
+        <v>0.07680439999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0635411</v>
+        <v>0.0633176</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0624881</v>
+        <v>0.0619951</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0669995</v>
+        <v>0.0648883</v>
       </c>
       <c r="D16" t="n">
-        <v>0.191271</v>
+        <v>0.187332</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0753094</v>
+        <v>0.0722507</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0646317</v>
+        <v>0.0645107</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0655768</v>
+        <v>0.06522029999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0685574</v>
+        <v>0.0667672</v>
       </c>
       <c r="D17" t="n">
-        <v>0.195572</v>
+        <v>0.191842</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0732342</v>
+        <v>0.0738605</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0662219</v>
+        <v>0.06758119999999999</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0698853</v>
+        <v>0.0695882</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0721709</v>
+        <v>0.070422</v>
       </c>
       <c r="D18" t="n">
-        <v>0.194733</v>
+        <v>0.196174</v>
       </c>
       <c r="E18" t="n">
-        <v>0.075463</v>
+        <v>0.0789787</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0686693</v>
+        <v>0.0666672</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0749991</v>
+        <v>0.0735162</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0772163</v>
+        <v>0.0750941</v>
       </c>
       <c r="D19" t="n">
-        <v>0.199846</v>
+        <v>0.202408</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0771328</v>
+        <v>0.08061219999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0694652</v>
+        <v>0.0695981</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08856260000000001</v>
+        <v>0.08029169999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0858188</v>
+        <v>0.081469</v>
       </c>
       <c r="D20" t="n">
-        <v>0.214124</v>
+        <v>0.210753</v>
       </c>
       <c r="E20" t="n">
-        <v>0.080292</v>
+        <v>0.0802967</v>
       </c>
       <c r="F20" t="n">
-        <v>0.076448</v>
+        <v>0.07249990000000001</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0984908</v>
+        <v>0.0923214</v>
       </c>
       <c r="C21" t="n">
-        <v>0.101206</v>
+        <v>0.09237860000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.159784</v>
+        <v>0.157428</v>
       </c>
       <c r="E21" t="n">
-        <v>0.08618720000000001</v>
+        <v>0.08618679999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>0.078046</v>
+        <v>0.07814309999999999</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.118082</v>
+        <v>0.114218</v>
       </c>
       <c r="C22" t="n">
-        <v>0.121486</v>
+        <v>0.118101</v>
       </c>
       <c r="D22" t="n">
-        <v>0.165288</v>
+        <v>0.166122</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0969395</v>
+        <v>0.09685199999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0912327</v>
+        <v>0.0871662</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.146106</v>
+        <v>0.140459</v>
       </c>
       <c r="C23" t="n">
-        <v>0.152589</v>
+        <v>0.142904</v>
       </c>
       <c r="D23" t="n">
-        <v>0.16945</v>
+        <v>0.171911</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0702927</v>
+        <v>0.0728892</v>
       </c>
       <c r="F23" t="n">
-        <v>0.06416570000000001</v>
+        <v>0.0634015</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0623797</v>
+        <v>0.0617442</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0644824</v>
+        <v>0.0644435</v>
       </c>
       <c r="D24" t="n">
-        <v>0.17596</v>
+        <v>0.175008</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0728174</v>
+        <v>0.0717936</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0656231</v>
+        <v>0.0635342</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0615249</v>
+        <v>0.0640442</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0643616</v>
+        <v>0.0644255</v>
       </c>
       <c r="D25" t="n">
-        <v>0.190539</v>
+        <v>0.179185</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0711039</v>
+        <v>0.0707719</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0644884</v>
+        <v>0.0647392</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0617038</v>
+        <v>0.0621327</v>
       </c>
       <c r="C26" t="n">
-        <v>0.06559</v>
+        <v>0.0644348</v>
       </c>
       <c r="D26" t="n">
-        <v>0.184294</v>
+        <v>0.187213</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0713382</v>
+        <v>0.0713693</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0648801</v>
+        <v>0.0643266</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.06553920000000001</v>
+        <v>0.0622627</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0687759</v>
+        <v>0.06579400000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.19422</v>
+        <v>0.194217</v>
       </c>
       <c r="E27" t="n">
-        <v>0.07156709999999999</v>
+        <v>0.0724364</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0661991</v>
+        <v>0.0666556</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.063851</v>
+        <v>0.06340079999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.06850050000000001</v>
+        <v>0.0696334</v>
       </c>
       <c r="D28" t="n">
-        <v>0.199312</v>
+        <v>0.200317</v>
       </c>
       <c r="E28" t="n">
-        <v>0.07206410000000001</v>
+        <v>0.0755701</v>
       </c>
       <c r="F28" t="n">
-        <v>0.06619559999999999</v>
+        <v>0.06711689999999999</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.06542729999999999</v>
+        <v>0.0688304</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0703969</v>
+        <v>0.06978760000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.204862</v>
+        <v>0.222639</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0730177</v>
+        <v>0.07338020000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0676136</v>
+        <v>0.06727320000000001</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0666094</v>
+        <v>0.06858499999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0721557</v>
+        <v>0.0713516</v>
       </c>
       <c r="D30" t="n">
-        <v>0.208815</v>
+        <v>0.206378</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0742741</v>
+        <v>0.07311049999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0694665</v>
+        <v>0.0678002</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.06858839999999999</v>
+        <v>0.0693346</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07668850000000001</v>
+        <v>0.07819520000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.213133</v>
+        <v>0.212108</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0745627</v>
+        <v>0.07685740000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06917379999999999</v>
+        <v>0.0680523</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.07284740000000001</v>
+        <v>0.0741409</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07785350000000001</v>
+        <v>0.075796</v>
       </c>
       <c r="D32" t="n">
-        <v>0.219741</v>
+        <v>0.223383</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0762287</v>
+        <v>0.0816306</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07112449999999999</v>
+        <v>0.0700646</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0767557</v>
+        <v>0.0756478</v>
       </c>
       <c r="C33" t="n">
-        <v>0.083786</v>
+        <v>0.0814829</v>
       </c>
       <c r="D33" t="n">
-        <v>0.22145</v>
+        <v>0.223586</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0790812</v>
+        <v>0.079053</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0789396</v>
+        <v>0.0729026</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0859418</v>
+        <v>0.08390060000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0903023</v>
+        <v>0.08848399999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.230596</v>
+        <v>0.247042</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0823913</v>
+        <v>0.08265069999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08003159999999999</v>
+        <v>0.0785851</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0967262</v>
+        <v>0.0960965</v>
       </c>
       <c r="C35" t="n">
-        <v>0.102043</v>
+        <v>0.101891</v>
       </c>
       <c r="D35" t="n">
-        <v>0.175134</v>
+        <v>0.175403</v>
       </c>
       <c r="E35" t="n">
-        <v>0.09234009999999999</v>
+        <v>0.0909961</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0831438</v>
+        <v>0.0822478</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.11775</v>
+        <v>0.114663</v>
       </c>
       <c r="C36" t="n">
-        <v>0.122636</v>
+        <v>0.11886</v>
       </c>
       <c r="D36" t="n">
-        <v>0.186013</v>
+        <v>0.189369</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0979693</v>
+        <v>0.0977359</v>
       </c>
       <c r="F36" t="n">
-        <v>0.09182319999999999</v>
+        <v>0.09647169999999999</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.143189</v>
+        <v>0.143586</v>
       </c>
       <c r="C37" t="n">
-        <v>0.145635</v>
+        <v>0.142125</v>
       </c>
       <c r="D37" t="n">
-        <v>0.190452</v>
+        <v>0.190962</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0729018</v>
+        <v>0.07240679999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0676358</v>
+        <v>0.06904299999999999</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0672654</v>
+        <v>0.0669237</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0737294</v>
+        <v>0.0715336</v>
       </c>
       <c r="D38" t="n">
-        <v>0.198644</v>
+        <v>0.204688</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0728796</v>
+        <v>0.0763808</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0691702</v>
+        <v>0.0732809</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0680108</v>
+        <v>0.06850970000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0778991</v>
+        <v>0.0782004</v>
       </c>
       <c r="D39" t="n">
-        <v>0.207959</v>
+        <v>0.206651</v>
       </c>
       <c r="E39" t="n">
-        <v>0.078791</v>
+        <v>0.074793</v>
       </c>
       <c r="F39" t="n">
-        <v>0.07431160000000001</v>
+        <v>0.0726498</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.06957430000000001</v>
+        <v>0.06810579999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07415239999999999</v>
+        <v>0.0752034</v>
       </c>
       <c r="D40" t="n">
-        <v>0.224901</v>
+        <v>0.224145</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0750036</v>
+        <v>0.07477590000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0705471</v>
+        <v>0.0697942</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.07111779999999999</v>
+        <v>0.0705918</v>
       </c>
       <c r="C41" t="n">
-        <v>0.07640569999999999</v>
+        <v>0.0750021</v>
       </c>
       <c r="D41" t="n">
-        <v>0.222307</v>
+        <v>0.219616</v>
       </c>
       <c r="E41" t="n">
-        <v>0.07358770000000001</v>
+        <v>0.0756699</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0701981</v>
+        <v>0.07050629999999999</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.07035619999999999</v>
+        <v>0.0714095</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07818070000000001</v>
+        <v>0.0768432</v>
       </c>
       <c r="D42" t="n">
-        <v>0.232413</v>
+        <v>0.230004</v>
       </c>
       <c r="E42" t="n">
-        <v>0.07471990000000001</v>
+        <v>0.0752675</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0720076</v>
+        <v>0.07292029999999999</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0705783</v>
+        <v>0.0719337</v>
       </c>
       <c r="C43" t="n">
-        <v>0.08269990000000001</v>
+        <v>0.0788391</v>
       </c>
       <c r="D43" t="n">
-        <v>0.240706</v>
+        <v>0.243249</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0755057</v>
+        <v>0.0780872</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0725349</v>
+        <v>0.07135370000000001</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0744026</v>
+        <v>0.0721145</v>
       </c>
       <c r="C44" t="n">
-        <v>0.08244070000000001</v>
+        <v>0.0827171</v>
       </c>
       <c r="D44" t="n">
-        <v>0.249745</v>
+        <v>0.247083</v>
       </c>
       <c r="E44" t="n">
-        <v>0.07797220000000001</v>
+        <v>0.0753513</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07380979999999999</v>
+        <v>0.072961</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0787939</v>
+        <v>0.0771893</v>
       </c>
       <c r="C45" t="n">
-        <v>0.09250410000000001</v>
+        <v>0.08879919999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.264003</v>
+        <v>0.256208</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0833752</v>
+        <v>0.0785148</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0760329</v>
+        <v>0.0759147</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0785951</v>
+        <v>0.07926560000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0895987</v>
+        <v>0.0886663</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2806</v>
+        <v>0.266051</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0786444</v>
+        <v>0.0801385</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0801723</v>
+        <v>0.07783859999999999</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.08292430000000001</v>
+        <v>0.081597</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0951907</v>
+        <v>0.09628200000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.281703</v>
+        <v>0.275251</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0812615</v>
+        <v>0.0828072</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0827396</v>
+        <v>0.0798378</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0904944</v>
+        <v>0.0880595</v>
       </c>
       <c r="C48" t="n">
-        <v>0.102599</v>
+        <v>0.103581</v>
       </c>
       <c r="D48" t="n">
-        <v>0.295384</v>
+        <v>0.29098</v>
       </c>
       <c r="E48" t="n">
-        <v>0.085907</v>
+        <v>0.0845095</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0850839</v>
+        <v>0.08364820000000001</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0981395</v>
+        <v>0.0981374</v>
       </c>
       <c r="C49" t="n">
-        <v>0.116343</v>
+        <v>0.117855</v>
       </c>
       <c r="D49" t="n">
-        <v>0.307618</v>
+        <v>0.310449</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0895225</v>
+        <v>0.0931864</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0932156</v>
+        <v>0.0891367</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.116065</v>
+        <v>0.120937</v>
       </c>
       <c r="C50" t="n">
-        <v>0.130287</v>
+        <v>0.128585</v>
       </c>
       <c r="D50" t="n">
-        <v>0.229425</v>
+        <v>0.221794</v>
       </c>
       <c r="E50" t="n">
-        <v>0.100978</v>
+        <v>0.100949</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0972278</v>
+        <v>0.0977663</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.145286</v>
+        <v>0.142008</v>
       </c>
       <c r="C51" t="n">
-        <v>0.158531</v>
+        <v>0.155481</v>
       </c>
       <c r="D51" t="n">
-        <v>0.233363</v>
+        <v>0.22791</v>
       </c>
       <c r="E51" t="n">
-        <v>0.07732550000000001</v>
+        <v>0.0785536</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0790492</v>
+        <v>0.0777962</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.190769</v>
+        <v>0.188929</v>
       </c>
       <c r="C52" t="n">
-        <v>0.217098</v>
+        <v>0.194668</v>
       </c>
       <c r="D52" t="n">
-        <v>0.244091</v>
+        <v>0.249181</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0799831</v>
+        <v>0.0785252</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0763563</v>
+        <v>0.07658860000000001</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0811026</v>
+        <v>0.0814594</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0906545</v>
+        <v>0.0910176</v>
       </c>
       <c r="D53" t="n">
-        <v>0.25963</v>
+        <v>0.254365</v>
       </c>
       <c r="E53" t="n">
-        <v>0.08023429999999999</v>
+        <v>0.07977330000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0788575</v>
+        <v>0.0772045</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.08007160000000001</v>
+        <v>0.07800269999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0931942</v>
+        <v>0.0922311</v>
       </c>
       <c r="D54" t="n">
-        <v>0.271772</v>
+        <v>0.26841</v>
       </c>
       <c r="E54" t="n">
-        <v>0.081813</v>
+        <v>0.0787931</v>
       </c>
       <c r="F54" t="n">
-        <v>0.081953</v>
+        <v>0.0785614</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0833856</v>
+        <v>0.0822942</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0948343</v>
+        <v>0.097025</v>
       </c>
       <c r="D55" t="n">
-        <v>0.285781</v>
+        <v>0.275672</v>
       </c>
       <c r="E55" t="n">
-        <v>0.07917879999999999</v>
+        <v>0.0798372</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0796058</v>
+        <v>0.0831969</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.082528</v>
+        <v>0.08047360000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.09667199999999999</v>
+        <v>0.09523239999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.307995</v>
+        <v>0.298917</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0807594</v>
+        <v>0.081745</v>
       </c>
       <c r="F56" t="n">
-        <v>0.07986600000000001</v>
+        <v>0.08106090000000001</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0826916</v>
+        <v>0.0832963</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0983893</v>
+        <v>0.101481</v>
       </c>
       <c r="D57" t="n">
-        <v>0.317891</v>
+        <v>0.311283</v>
       </c>
       <c r="E57" t="n">
-        <v>0.08505699999999999</v>
+        <v>0.08067630000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0816273</v>
+        <v>0.0814131</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0831913</v>
+        <v>0.08503910000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.102358</v>
+        <v>0.101308</v>
       </c>
       <c r="D58" t="n">
-        <v>0.336218</v>
+        <v>0.327563</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0834351</v>
+        <v>0.0830168</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0863463</v>
+        <v>0.0845881</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0861924</v>
+        <v>0.091775</v>
       </c>
       <c r="C59" t="n">
-        <v>0.106706</v>
+        <v>0.104898</v>
       </c>
       <c r="D59" t="n">
-        <v>0.356578</v>
+        <v>0.346289</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0837632</v>
+        <v>0.0857048</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0857006</v>
+        <v>0.0885079</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0887662</v>
+        <v>0.08986479999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.110102</v>
+        <v>0.109066</v>
       </c>
       <c r="D60" t="n">
-        <v>0.392257</v>
+        <v>0.361857</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0870853</v>
+        <v>0.08711820000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0873881</v>
+        <v>0.0867682</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.09697939999999999</v>
+        <v>0.0929765</v>
       </c>
       <c r="C61" t="n">
-        <v>0.12254</v>
+        <v>0.117015</v>
       </c>
       <c r="D61" t="n">
-        <v>0.39278</v>
+        <v>0.378111</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0882483</v>
+        <v>0.0877189</v>
       </c>
       <c r="F61" t="n">
-        <v>0.09032370000000001</v>
+        <v>0.090381</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.103787</v>
+        <v>0.101161</v>
       </c>
       <c r="C62" t="n">
-        <v>0.124293</v>
+        <v>0.124312</v>
       </c>
       <c r="D62" t="n">
-        <v>0.428139</v>
+        <v>0.42107</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0906875</v>
+        <v>0.09118660000000001</v>
       </c>
       <c r="F62" t="n">
-        <v>0.09460010000000001</v>
+        <v>0.0984669</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.109725</v>
+        <v>0.110525</v>
       </c>
       <c r="C63" t="n">
-        <v>0.137245</v>
+        <v>0.13438</v>
       </c>
       <c r="D63" t="n">
-        <v>0.435944</v>
+        <v>0.445575</v>
       </c>
       <c r="E63" t="n">
-        <v>0.09569179999999999</v>
+        <v>0.095857</v>
       </c>
       <c r="F63" t="n">
-        <v>0.100138</v>
+        <v>0.100761</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.128922</v>
+        <v>0.126067</v>
       </c>
       <c r="C64" t="n">
-        <v>0.15463</v>
+        <v>0.155637</v>
       </c>
       <c r="D64" t="n">
-        <v>0.342304</v>
+        <v>0.340358</v>
       </c>
       <c r="E64" t="n">
-        <v>0.104172</v>
+        <v>0.103748</v>
       </c>
       <c r="F64" t="n">
-        <v>0.115157</v>
+        <v>0.109101</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.157054</v>
+        <v>0.149169</v>
       </c>
       <c r="C65" t="n">
-        <v>0.187245</v>
+        <v>0.183897</v>
       </c>
       <c r="D65" t="n">
-        <v>0.336152</v>
+        <v>0.357174</v>
       </c>
       <c r="E65" t="n">
-        <v>0.119124</v>
+        <v>0.117039</v>
       </c>
       <c r="F65" t="n">
-        <v>0.12478</v>
+        <v>0.124521</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.188394</v>
+        <v>0.190145</v>
       </c>
       <c r="C66" t="n">
-        <v>0.232765</v>
+        <v>0.235715</v>
       </c>
       <c r="D66" t="n">
-        <v>0.355896</v>
+        <v>0.386656</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0853622</v>
+        <v>0.08507339999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0861952</v>
+        <v>0.0902438</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0873683</v>
+        <v>0.08872190000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.107409</v>
+        <v>0.107363</v>
       </c>
       <c r="D67" t="n">
-        <v>0.371583</v>
+        <v>0.370296</v>
       </c>
       <c r="E67" t="n">
-        <v>0.085592</v>
+        <v>0.0869375</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0882539</v>
+        <v>0.0898661</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0888651</v>
+        <v>0.0888607</v>
       </c>
       <c r="C68" t="n">
-        <v>0.110022</v>
+        <v>0.11166</v>
       </c>
       <c r="D68" t="n">
-        <v>0.413794</v>
+        <v>0.427978</v>
       </c>
       <c r="E68" t="n">
-        <v>0.08623409999999999</v>
+        <v>0.0840516</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0871692</v>
+        <v>0.0868917</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0899713</v>
+        <v>0.0911447</v>
       </c>
       <c r="C69" t="n">
-        <v>0.114551</v>
+        <v>0.114051</v>
       </c>
       <c r="D69" t="n">
-        <v>0.410168</v>
+        <v>0.407554</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0856341</v>
+        <v>0.0844121</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0871714</v>
+        <v>0.0887044</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.09815699999999999</v>
+        <v>0.0940346</v>
       </c>
       <c r="C70" t="n">
-        <v>0.121125</v>
+        <v>0.120047</v>
       </c>
       <c r="D70" t="n">
-        <v>0.445245</v>
+        <v>0.439642</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0861201</v>
+        <v>0.0866532</v>
       </c>
       <c r="F70" t="n">
-        <v>0.095183</v>
+        <v>0.0900934</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.09435830000000001</v>
+        <v>0.0940667</v>
       </c>
       <c r="C71" t="n">
-        <v>0.121092</v>
+        <v>0.125418</v>
       </c>
       <c r="D71" t="n">
-        <v>0.472413</v>
+        <v>0.49478</v>
       </c>
       <c r="E71" t="n">
-        <v>0.09291729999999999</v>
+        <v>0.0872967</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0936656</v>
+        <v>0.09313539999999999</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.09488290000000001</v>
+        <v>0.0952939</v>
       </c>
       <c r="C72" t="n">
-        <v>0.126376</v>
+        <v>0.126623</v>
       </c>
       <c r="D72" t="n">
-        <v>0.493286</v>
+        <v>0.520189</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0887126</v>
+        <v>0.08823309999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09465659999999999</v>
+        <v>0.09426909999999999</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.09783749999999999</v>
+        <v>0.102298</v>
       </c>
       <c r="C73" t="n">
-        <v>0.129526</v>
+        <v>0.130373</v>
       </c>
       <c r="D73" t="n">
-        <v>0.502655</v>
+        <v>0.522276</v>
       </c>
       <c r="E73" t="n">
-        <v>0.09131359999999999</v>
+        <v>0.0899802</v>
       </c>
       <c r="F73" t="n">
-        <v>0.095502</v>
+        <v>0.0987325</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.101138</v>
+        <v>0.103635</v>
       </c>
       <c r="C74" t="n">
-        <v>0.134317</v>
+        <v>0.145554</v>
       </c>
       <c r="D74" t="n">
-        <v>0.541449</v>
+        <v>0.542954</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0914956</v>
+        <v>0.0920093</v>
       </c>
       <c r="F74" t="n">
-        <v>0.100453</v>
+        <v>0.107696</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.107215</v>
+        <v>0.110443</v>
       </c>
       <c r="C75" t="n">
-        <v>0.148705</v>
+        <v>0.150279</v>
       </c>
       <c r="D75" t="n">
-        <v>0.576435</v>
+        <v>0.582589</v>
       </c>
       <c r="E75" t="n">
-        <v>0.09570240000000001</v>
+        <v>0.0971882</v>
       </c>
       <c r="F75" t="n">
-        <v>0.102919</v>
+        <v>0.108399</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.116051</v>
+        <v>0.122445</v>
       </c>
       <c r="C76" t="n">
-        <v>0.157532</v>
+        <v>0.162186</v>
       </c>
       <c r="D76" t="n">
-        <v>0.599469</v>
+        <v>0.630094</v>
       </c>
       <c r="E76" t="n">
-        <v>0.09797350000000001</v>
+        <v>0.100411</v>
       </c>
       <c r="F76" t="n">
-        <v>0.110476</v>
+        <v>0.112857</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.124586</v>
+        <v>0.130147</v>
       </c>
       <c r="C77" t="n">
-        <v>0.172233</v>
+        <v>0.166778</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6252760000000001</v>
+        <v>0.607732</v>
       </c>
       <c r="E77" t="n">
-        <v>0.10391</v>
+        <v>0.104105</v>
       </c>
       <c r="F77" t="n">
-        <v>0.117141</v>
+        <v>0.121131</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.150339</v>
+        <v>0.147385</v>
       </c>
       <c r="C78" t="n">
-        <v>0.192808</v>
+        <v>0.191433</v>
       </c>
       <c r="D78" t="n">
-        <v>0.464991</v>
+        <v>0.462924</v>
       </c>
       <c r="E78" t="n">
-        <v>0.114115</v>
+        <v>0.113781</v>
       </c>
       <c r="F78" t="n">
-        <v>0.129182</v>
+        <v>0.133133</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.167445</v>
+        <v>0.161755</v>
       </c>
       <c r="C79" t="n">
-        <v>0.229398</v>
+        <v>0.22639</v>
       </c>
       <c r="D79" t="n">
-        <v>0.487522</v>
+        <v>0.476193</v>
       </c>
       <c r="E79" t="n">
-        <v>0.125205</v>
+        <v>0.1244</v>
       </c>
       <c r="F79" t="n">
-        <v>0.143939</v>
+        <v>0.143926</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.203164</v>
+        <v>0.204716</v>
       </c>
       <c r="C80" t="n">
-        <v>0.280891</v>
+        <v>0.286493</v>
       </c>
       <c r="D80" t="n">
-        <v>0.507672</v>
+        <v>0.516519</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0899889</v>
+        <v>0.0907538</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0996701</v>
+        <v>0.0977775</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.102932</v>
+        <v>0.0978487</v>
       </c>
       <c r="C81" t="n">
-        <v>0.142362</v>
+        <v>0.133215</v>
       </c>
       <c r="D81" t="n">
-        <v>0.52021</v>
+        <v>0.567761</v>
       </c>
       <c r="E81" t="n">
-        <v>0.09058819999999999</v>
+        <v>0.09354750000000001</v>
       </c>
       <c r="F81" t="n">
-        <v>0.10025</v>
+        <v>0.09830220000000001</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.102423</v>
+        <v>0.102677</v>
       </c>
       <c r="C82" t="n">
-        <v>0.146808</v>
+        <v>0.138795</v>
       </c>
       <c r="D82" t="n">
-        <v>0.549214</v>
+        <v>0.54433</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0921228</v>
+        <v>0.0936953</v>
       </c>
       <c r="F82" t="n">
-        <v>0.09959809999999999</v>
+        <v>0.1004</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.109165</v>
+        <v>0.104553</v>
       </c>
       <c r="C83" t="n">
-        <v>0.144478</v>
+        <v>0.14101</v>
       </c>
       <c r="D83" t="n">
-        <v>0.586241</v>
+        <v>0.583158</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0922442</v>
+        <v>0.0952959</v>
       </c>
       <c r="F83" t="n">
-        <v>0.107698</v>
+        <v>0.101322</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.109535</v>
+        <v>0.105706</v>
       </c>
       <c r="C84" t="n">
-        <v>0.149909</v>
+        <v>0.146466</v>
       </c>
       <c r="D84" t="n">
-        <v>0.590355</v>
+        <v>0.589917</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0939213</v>
+        <v>0.0944868</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1123</v>
+        <v>0.107894</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.108667</v>
+        <v>0.109003</v>
       </c>
       <c r="C85" t="n">
-        <v>0.159323</v>
+        <v>0.161394</v>
       </c>
       <c r="D85" t="n">
-        <v>0.660463</v>
+        <v>0.611007</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0995629</v>
+        <v>0.0948344</v>
       </c>
       <c r="F85" t="n">
-        <v>0.108341</v>
+        <v>0.115588</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.12102</v>
+        <v>0.113386</v>
       </c>
       <c r="C86" t="n">
-        <v>0.162599</v>
+        <v>0.159774</v>
       </c>
       <c r="D86" t="n">
-        <v>0.63779</v>
+        <v>0.631049</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0966045</v>
+        <v>0.102018</v>
       </c>
       <c r="F86" t="n">
-        <v>0.115155</v>
+        <v>0.114529</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.123663</v>
+        <v>0.11914</v>
       </c>
       <c r="C87" t="n">
-        <v>0.17332</v>
+        <v>0.168837</v>
       </c>
       <c r="D87" t="n">
-        <v>0.683739</v>
+        <v>0.658978</v>
       </c>
       <c r="E87" t="n">
-        <v>0.100294</v>
+        <v>0.103885</v>
       </c>
       <c r="F87" t="n">
-        <v>0.119514</v>
+        <v>0.122452</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.125993</v>
+        <v>0.124485</v>
       </c>
       <c r="C88" t="n">
-        <v>0.180287</v>
+        <v>0.175303</v>
       </c>
       <c r="D88" t="n">
-        <v>0.694196</v>
+        <v>0.681492</v>
       </c>
       <c r="E88" t="n">
-        <v>0.104708</v>
+        <v>0.102585</v>
       </c>
       <c r="F88" t="n">
-        <v>0.120429</v>
+        <v>0.120891</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.135816</v>
+        <v>0.129288</v>
       </c>
       <c r="C89" t="n">
-        <v>0.189958</v>
+        <v>0.185904</v>
       </c>
       <c r="D89" t="n">
-        <v>0.718606</v>
+        <v>0.753103</v>
       </c>
       <c r="E89" t="n">
-        <v>0.106184</v>
+        <v>0.105593</v>
       </c>
       <c r="F89" t="n">
-        <v>0.127251</v>
+        <v>0.125987</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.141539</v>
+        <v>0.136587</v>
       </c>
       <c r="C90" t="n">
-        <v>0.207296</v>
+        <v>0.199525</v>
       </c>
       <c r="D90" t="n">
-        <v>0.74717</v>
+        <v>0.7360989999999999</v>
       </c>
       <c r="E90" t="n">
-        <v>0.111189</v>
+        <v>0.111777</v>
       </c>
       <c r="F90" t="n">
-        <v>0.143003</v>
+        <v>0.136098</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.145672</v>
+        <v>0.14779</v>
       </c>
       <c r="C91" t="n">
-        <v>0.214937</v>
+        <v>0.21153</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7894370000000001</v>
+        <v>0.761894</v>
       </c>
       <c r="E91" t="n">
-        <v>0.124876</v>
+        <v>0.123303</v>
       </c>
       <c r="F91" t="n">
-        <v>0.145124</v>
+        <v>0.146295</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.171487</v>
+        <v>0.169439</v>
       </c>
       <c r="C92" t="n">
-        <v>0.248465</v>
+        <v>0.244097</v>
       </c>
       <c r="D92" t="n">
-        <v>0.595257</v>
+        <v>0.629127</v>
       </c>
       <c r="E92" t="n">
-        <v>0.126193</v>
+        <v>0.127383</v>
       </c>
       <c r="F92" t="n">
-        <v>0.154849</v>
+        <v>0.154957</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.197386</v>
+        <v>0.193453</v>
       </c>
       <c r="C93" t="n">
-        <v>0.290015</v>
+        <v>0.280582</v>
       </c>
       <c r="D93" t="n">
-        <v>0.621153</v>
+        <v>0.6340170000000001</v>
       </c>
       <c r="E93" t="n">
-        <v>0.144933</v>
+        <v>0.140095</v>
       </c>
       <c r="F93" t="n">
-        <v>0.178554</v>
+        <v>0.17495</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.230194</v>
+        <v>0.227775</v>
       </c>
       <c r="C94" t="n">
-        <v>0.329945</v>
+        <v>0.325531</v>
       </c>
       <c r="D94" t="n">
-        <v>0.658578</v>
+        <v>0.622718</v>
       </c>
       <c r="E94" t="n">
-        <v>0.106981</v>
+        <v>0.107624</v>
       </c>
       <c r="F94" t="n">
-        <v>0.128763</v>
+        <v>0.127839</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.137707</v>
+        <v>0.130717</v>
       </c>
       <c r="C95" t="n">
-        <v>0.184762</v>
+        <v>0.1822</v>
       </c>
       <c r="D95" t="n">
-        <v>0.647852</v>
+        <v>0.649402</v>
       </c>
       <c r="E95" t="n">
-        <v>0.109595</v>
+        <v>0.109331</v>
       </c>
       <c r="F95" t="n">
-        <v>0.136296</v>
+        <v>0.130865</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.131256</v>
+        <v>0.13257</v>
       </c>
       <c r="C96" t="n">
-        <v>0.184587</v>
+        <v>0.186003</v>
       </c>
       <c r="D96" t="n">
-        <v>0.702999</v>
+        <v>0.675935</v>
       </c>
       <c r="E96" t="n">
-        <v>0.113992</v>
+        <v>0.11126</v>
       </c>
       <c r="F96" t="n">
-        <v>0.133847</v>
+        <v>0.13802</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.134267</v>
+        <v>0.137736</v>
       </c>
       <c r="C97" t="n">
-        <v>0.194031</v>
+        <v>0.192622</v>
       </c>
       <c r="D97" t="n">
-        <v>0.725151</v>
+        <v>0.689672</v>
       </c>
       <c r="E97" t="n">
-        <v>0.1188</v>
+        <v>0.112354</v>
       </c>
       <c r="F97" t="n">
-        <v>0.14377</v>
+        <v>0.135947</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.148805</v>
+        <v>0.137342</v>
       </c>
       <c r="C98" t="n">
-        <v>0.209636</v>
+        <v>0.19748</v>
       </c>
       <c r="D98" t="n">
-        <v>0.721499</v>
+        <v>0.728015</v>
       </c>
       <c r="E98" t="n">
-        <v>0.115095</v>
+        <v>0.114097</v>
       </c>
       <c r="F98" t="n">
-        <v>0.14043</v>
+        <v>0.142269</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.149948</v>
+        <v>0.147813</v>
       </c>
       <c r="C99" t="n">
-        <v>0.206097</v>
+        <v>0.207518</v>
       </c>
       <c r="D99" t="n">
-        <v>0.751107</v>
+        <v>0.733575</v>
       </c>
       <c r="E99" t="n">
-        <v>0.118275</v>
+        <v>0.116502</v>
       </c>
       <c r="F99" t="n">
-        <v>0.146241</v>
+        <v>0.145115</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.148947</v>
+        <v>0.14459</v>
       </c>
       <c r="C100" t="n">
-        <v>0.220708</v>
+        <v>0.208623</v>
       </c>
       <c r="D100" t="n">
-        <v>0.762428</v>
+        <v>0.793594</v>
       </c>
       <c r="E100" t="n">
-        <v>0.12234</v>
+        <v>0.118418</v>
       </c>
       <c r="F100" t="n">
-        <v>0.150785</v>
+        <v>0.146725</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.147944</v>
+        <v>0.148959</v>
       </c>
       <c r="C101" t="n">
-        <v>0.219631</v>
+        <v>0.216611</v>
       </c>
       <c r="D101" t="n">
-        <v>0.833635</v>
+        <v>0.774033</v>
       </c>
       <c r="E101" t="n">
-        <v>0.123207</v>
+        <v>0.123998</v>
       </c>
       <c r="F101" t="n">
-        <v>0.160926</v>
+        <v>0.158333</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.153945</v>
+        <v>0.156686</v>
       </c>
       <c r="C102" t="n">
-        <v>0.250089</v>
+        <v>0.230491</v>
       </c>
       <c r="D102" t="n">
-        <v>0.855412</v>
+        <v>0.800244</v>
       </c>
       <c r="E102" t="n">
-        <v>0.127971</v>
+        <v>0.124413</v>
       </c>
       <c r="F102" t="n">
-        <v>0.161915</v>
+        <v>0.159479</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.165477</v>
+        <v>0.166695</v>
       </c>
       <c r="C103" t="n">
-        <v>0.240971</v>
+        <v>0.24086</v>
       </c>
       <c r="D103" t="n">
-        <v>0.836636</v>
+        <v>0.847181</v>
       </c>
       <c r="E103" t="n">
-        <v>0.131109</v>
+        <v>0.130028</v>
       </c>
       <c r="F103" t="n">
-        <v>0.170748</v>
+        <v>0.170573</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.182167</v>
+        <v>0.169031</v>
       </c>
       <c r="C104" t="n">
-        <v>0.256561</v>
+        <v>0.252058</v>
       </c>
       <c r="D104" t="n">
-        <v>0.88896</v>
+        <v>0.861917</v>
       </c>
       <c r="E104" t="n">
-        <v>0.134477</v>
+        <v>0.134337</v>
       </c>
       <c r="F104" t="n">
-        <v>0.173173</v>
+        <v>0.16818</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.183175</v>
+        <v>0.178985</v>
       </c>
       <c r="C105" t="n">
-        <v>0.273183</v>
+        <v>0.267718</v>
       </c>
       <c r="D105" t="n">
-        <v>0.8977309999999999</v>
+        <v>0.882349</v>
       </c>
       <c r="E105" t="n">
-        <v>0.142498</v>
+        <v>0.138058</v>
       </c>
       <c r="F105" t="n">
-        <v>0.192714</v>
+        <v>0.177258</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.195594</v>
+        <v>0.199021</v>
       </c>
       <c r="C106" t="n">
-        <v>0.294404</v>
+        <v>0.298213</v>
       </c>
       <c r="D106" t="n">
-        <v>0.931482</v>
+        <v>0.92086</v>
       </c>
       <c r="E106" t="n">
-        <v>0.158395</v>
+        <v>0.15364</v>
       </c>
       <c r="F106" t="n">
-        <v>0.196188</v>
+        <v>0.19109</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.221456</v>
+        <v>0.226357</v>
       </c>
       <c r="C107" t="n">
-        <v>0.340188</v>
+        <v>0.328631</v>
       </c>
       <c r="D107" t="n">
-        <v>0.702878</v>
+        <v>0.7422029999999999</v>
       </c>
       <c r="E107" t="n">
-        <v>0.162252</v>
+        <v>0.158806</v>
       </c>
       <c r="F107" t="n">
-        <v>0.208604</v>
+        <v>0.206744</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.264251</v>
+        <v>0.256857</v>
       </c>
       <c r="C108" t="n">
-        <v>0.395438</v>
+        <v>0.381838</v>
       </c>
       <c r="D108" t="n">
-        <v>0.71745</v>
+        <v>0.713184</v>
       </c>
       <c r="E108" t="n">
-        <v>0.176537</v>
+        <v>0.174317</v>
       </c>
       <c r="F108" t="n">
-        <v>0.204956</v>
+        <v>0.197665</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.333356</v>
+        <v>0.336426</v>
       </c>
       <c r="C109" t="n">
-        <v>0.496963</v>
+        <v>0.482154</v>
       </c>
       <c r="D109" t="n">
-        <v>0.763379</v>
+        <v>0.747505</v>
       </c>
       <c r="E109" t="n">
-        <v>0.177977</v>
+        <v>0.175868</v>
       </c>
       <c r="F109" t="n">
-        <v>0.20774</v>
+        <v>0.211262</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.216008</v>
+        <v>0.209626</v>
       </c>
       <c r="C110" t="n">
-        <v>0.29144</v>
+        <v>0.274639</v>
       </c>
       <c r="D110" t="n">
-        <v>0.757991</v>
+        <v>0.754464</v>
       </c>
       <c r="E110" t="n">
-        <v>0.185436</v>
+        <v>0.178922</v>
       </c>
       <c r="F110" t="n">
-        <v>0.218418</v>
+        <v>0.210042</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.225415</v>
+        <v>0.221554</v>
       </c>
       <c r="C111" t="n">
-        <v>0.279963</v>
+        <v>0.285327</v>
       </c>
       <c r="D111" t="n">
-        <v>0.814347</v>
+        <v>0.788931</v>
       </c>
       <c r="E111" t="n">
-        <v>0.184672</v>
+        <v>0.179908</v>
       </c>
       <c r="F111" t="n">
-        <v>0.22749</v>
+        <v>0.206681</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.228085</v>
+        <v>0.219696</v>
       </c>
       <c r="C112" t="n">
-        <v>0.287252</v>
+        <v>0.285757</v>
       </c>
       <c r="D112" t="n">
-        <v>0.841141</v>
+        <v>0.802023</v>
       </c>
       <c r="E112" t="n">
-        <v>0.181875</v>
+        <v>0.179169</v>
       </c>
       <c r="F112" t="n">
-        <v>0.229968</v>
+        <v>0.215197</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.224475</v>
+        <v>0.226189</v>
       </c>
       <c r="C113" t="n">
-        <v>0.302902</v>
+        <v>0.313662</v>
       </c>
       <c r="D113" t="n">
-        <v>0.83807</v>
+        <v>0.829753</v>
       </c>
       <c r="E113" t="n">
-        <v>0.196954</v>
+        <v>0.182766</v>
       </c>
       <c r="F113" t="n">
-        <v>0.228457</v>
+        <v>0.216911</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.230943</v>
+        <v>0.225528</v>
       </c>
       <c r="C114" t="n">
-        <v>0.29701</v>
+        <v>0.303062</v>
       </c>
       <c r="D114" t="n">
-        <v>0.8811020000000001</v>
+        <v>0.955547</v>
       </c>
       <c r="E114" t="n">
-        <v>0.196253</v>
+        <v>0.1887</v>
       </c>
       <c r="F114" t="n">
-        <v>0.230473</v>
+        <v>0.224565</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.238301</v>
+        <v>0.235092</v>
       </c>
       <c r="C115" t="n">
-        <v>0.307823</v>
+        <v>0.304754</v>
       </c>
       <c r="D115" t="n">
-        <v>0.8777779999999999</v>
+        <v>0.865911</v>
       </c>
       <c r="E115" t="n">
-        <v>0.189251</v>
+        <v>0.190856</v>
       </c>
       <c r="F115" t="n">
-        <v>0.232077</v>
+        <v>0.224119</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.241588</v>
+        <v>0.233275</v>
       </c>
       <c r="C116" t="n">
-        <v>0.312982</v>
+        <v>0.312151</v>
       </c>
       <c r="D116" t="n">
-        <v>0.906026</v>
+        <v>0.882046</v>
       </c>
       <c r="E116" t="n">
-        <v>0.197448</v>
+        <v>0.199655</v>
       </c>
       <c r="F116" t="n">
-        <v>0.236648</v>
+        <v>0.238571</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.253514</v>
+        <v>0.243729</v>
       </c>
       <c r="C117" t="n">
-        <v>0.328752</v>
+        <v>0.330962</v>
       </c>
       <c r="D117" t="n">
-        <v>0.921921</v>
+        <v>0.942203</v>
       </c>
       <c r="E117" t="n">
-        <v>0.196475</v>
+        <v>0.194085</v>
       </c>
       <c r="F117" t="n">
-        <v>0.248094</v>
+        <v>0.238716</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.277548</v>
+        <v>0.253174</v>
       </c>
       <c r="C118" t="n">
-        <v>0.346355</v>
+        <v>0.342868</v>
       </c>
       <c r="D118" t="n">
-        <v>0.948842</v>
+        <v>0.94035</v>
       </c>
       <c r="E118" t="n">
-        <v>0.20678</v>
+        <v>0.200389</v>
       </c>
       <c r="F118" t="n">
-        <v>0.252574</v>
+        <v>0.247718</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.294398</v>
+        <v>0.271161</v>
       </c>
       <c r="C119" t="n">
-        <v>0.361253</v>
+        <v>0.35777</v>
       </c>
       <c r="D119" t="n">
-        <v>0.980349</v>
+        <v>0.962965</v>
       </c>
       <c r="E119" t="n">
-        <v>0.214338</v>
+        <v>0.203315</v>
       </c>
       <c r="F119" t="n">
-        <v>0.264066</v>
+        <v>0.259719</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.285607</v>
+        <v>0.283076</v>
       </c>
       <c r="C120" t="n">
-        <v>0.422311</v>
+        <v>0.424331</v>
       </c>
       <c r="D120" t="n">
-        <v>1.00857</v>
+        <v>1.01114</v>
       </c>
       <c r="E120" t="n">
-        <v>0.214487</v>
+        <v>0.221752</v>
       </c>
       <c r="F120" t="n">
-        <v>0.301641</v>
+        <v>0.294644</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.308863</v>
+        <v>0.303473</v>
       </c>
       <c r="C121" t="n">
-        <v>0.429325</v>
+        <v>0.432231</v>
       </c>
       <c r="D121" t="n">
-        <v>0.751221</v>
+        <v>0.751119</v>
       </c>
       <c r="E121" t="n">
-        <v>0.229291</v>
+        <v>0.226977</v>
       </c>
       <c r="F121" t="n">
-        <v>0.316265</v>
+        <v>0.314136</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.349785</v>
+        <v>0.347197</v>
       </c>
       <c r="C122" t="n">
-        <v>0.497107</v>
+        <v>0.487059</v>
       </c>
       <c r="D122" t="n">
-        <v>0.780202</v>
+        <v>0.766646</v>
       </c>
       <c r="E122" t="n">
-        <v>0.289969</v>
+        <v>0.247186</v>
       </c>
       <c r="F122" t="n">
-        <v>0.343027</v>
+        <v>0.317666</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.45143</v>
+        <v>0.419404</v>
       </c>
       <c r="C123" t="n">
-        <v>0.593336</v>
+        <v>0.5934469999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>0.809766</v>
+        <v>0.795204</v>
       </c>
       <c r="E123" t="n">
-        <v>0.295037</v>
+        <v>0.283298</v>
       </c>
       <c r="F123" t="n">
-        <v>0.331391</v>
+        <v>0.323441</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.352609</v>
+        <v>0.345869</v>
       </c>
       <c r="C124" t="n">
-        <v>0.416484</v>
+        <v>0.403508</v>
       </c>
       <c r="D124" t="n">
-        <v>0.820918</v>
+        <v>0.812207</v>
       </c>
       <c r="E124" t="n">
-        <v>0.3136</v>
+        <v>0.287781</v>
       </c>
       <c r="F124" t="n">
-        <v>0.322213</v>
+        <v>0.316576</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.360996</v>
+        <v>0.350212</v>
       </c>
       <c r="C125" t="n">
-        <v>0.407585</v>
+        <v>0.418163</v>
       </c>
       <c r="D125" t="n">
-        <v>0.841901</v>
+        <v>0.940014</v>
       </c>
       <c r="E125" t="n">
-        <v>0.299245</v>
+        <v>0.296203</v>
       </c>
       <c r="F125" t="n">
-        <v>0.333287</v>
+        <v>0.325549</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.361154</v>
+        <v>0.362465</v>
       </c>
       <c r="C126" t="n">
-        <v>0.446426</v>
+        <v>0.417198</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9006769999999999</v>
+        <v>0.848341</v>
       </c>
       <c r="E126" t="n">
-        <v>0.2934</v>
+        <v>0.298598</v>
       </c>
       <c r="F126" t="n">
-        <v>0.337034</v>
+        <v>0.322946</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.356559</v>
+        <v>0.37037</v>
       </c>
       <c r="C127" t="n">
-        <v>0.435344</v>
+        <v>0.447572</v>
       </c>
       <c r="D127" t="n">
-        <v>0.892447</v>
+        <v>0.889753</v>
       </c>
       <c r="E127" t="n">
-        <v>0.293081</v>
+        <v>0.293063</v>
       </c>
       <c r="F127" t="n">
-        <v>0.352439</v>
+        <v>0.32831</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.36073</v>
+        <v>0.367053</v>
       </c>
       <c r="C128" t="n">
-        <v>0.444831</v>
+        <v>0.432861</v>
       </c>
       <c r="D128" t="n">
-        <v>0.941262</v>
+        <v>0.896381</v>
       </c>
       <c r="E128" t="n">
-        <v>0.298404</v>
+        <v>0.307412</v>
       </c>
       <c r="F128" t="n">
-        <v>0.34223</v>
+        <v>0.331914</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.380986</v>
+        <v>0.369694</v>
       </c>
       <c r="C129" t="n">
-        <v>0.449328</v>
+        <v>0.446721</v>
       </c>
       <c r="D129" t="n">
-        <v>0.962139</v>
+        <v>0.952337</v>
       </c>
       <c r="E129" t="n">
-        <v>0.30199</v>
+        <v>0.313359</v>
       </c>
       <c r="F129" t="n">
-        <v>0.359053</v>
+        <v>0.338107</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.382848</v>
+        <v>0.382022</v>
       </c>
       <c r="C130" t="n">
-        <v>0.455917</v>
+        <v>0.481506</v>
       </c>
       <c r="D130" t="n">
-        <v>1.00906</v>
+        <v>0.9741880000000001</v>
       </c>
       <c r="E130" t="n">
-        <v>0.311354</v>
+        <v>0.300929</v>
       </c>
       <c r="F130" t="n">
-        <v>0.363747</v>
+        <v>0.34304</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.395155</v>
+        <v>0.403495</v>
       </c>
       <c r="C131" t="n">
-        <v>0.46957</v>
+        <v>0.472697</v>
       </c>
       <c r="D131" t="n">
-        <v>1.02496</v>
+        <v>1.01582</v>
       </c>
       <c r="E131" t="n">
-        <v>0.31149</v>
+        <v>0.308407</v>
       </c>
       <c r="F131" t="n">
-        <v>0.358132</v>
+        <v>0.359125</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.400441</v>
+        <v>0.397309</v>
       </c>
       <c r="C132" t="n">
-        <v>0.485878</v>
+        <v>0.481937</v>
       </c>
       <c r="D132" t="n">
-        <v>1.05467</v>
+        <v>1.02914</v>
       </c>
       <c r="E132" t="n">
-        <v>0.318203</v>
+        <v>0.311328</v>
       </c>
       <c r="F132" t="n">
-        <v>0.375339</v>
+        <v>0.360354</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.416729</v>
+        <v>0.434428</v>
       </c>
       <c r="C133" t="n">
-        <v>0.530231</v>
+        <v>0.49434</v>
       </c>
       <c r="D133" t="n">
-        <v>1.09109</v>
+        <v>1.06359</v>
       </c>
       <c r="E133" t="n">
-        <v>0.344853</v>
+        <v>0.31543</v>
       </c>
       <c r="F133" t="n">
-        <v>0.376317</v>
+        <v>0.370003</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.440807</v>
+        <v>0.432779</v>
       </c>
       <c r="C134" t="n">
-        <v>0.5428500000000001</v>
+        <v>0.529903</v>
       </c>
       <c r="D134" t="n">
-        <v>1.11805</v>
+        <v>1.1054</v>
       </c>
       <c r="E134" t="n">
-        <v>0.347609</v>
+        <v>0.325951</v>
       </c>
       <c r="F134" t="n">
-        <v>0.390135</v>
+        <v>0.382091</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.462187</v>
+        <v>0.462286</v>
       </c>
       <c r="C135" t="n">
-        <v>0.58769</v>
+        <v>0.599248</v>
       </c>
       <c r="D135" t="n">
-        <v>0.887188</v>
+        <v>0.86963</v>
       </c>
       <c r="E135" t="n">
-        <v>0.344737</v>
+        <v>0.341087</v>
       </c>
       <c r="F135" t="n">
-        <v>0.421651</v>
+        <v>0.402678</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.514858</v>
+        <v>0.511864</v>
       </c>
       <c r="C136" t="n">
-        <v>0.673394</v>
+        <v>0.66781</v>
       </c>
       <c r="D136" t="n">
-        <v>0.938733</v>
+        <v>0.902679</v>
       </c>
       <c r="E136" t="n">
-        <v>0.377019</v>
+        <v>0.368415</v>
       </c>
       <c r="F136" t="n">
-        <v>0.456849</v>
+        <v>0.434216</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.606674</v>
+        <v>0.61364</v>
       </c>
       <c r="C137" t="n">
-        <v>0.793817</v>
+        <v>0.775023</v>
       </c>
       <c r="D137" t="n">
-        <v>0.977633</v>
+        <v>0.952039</v>
       </c>
       <c r="E137" t="n">
-        <v>0.351331</v>
+        <v>0.352032</v>
       </c>
       <c r="F137" t="n">
-        <v>0.386766</v>
+        <v>0.384274</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.438255</v>
+        <v>0.445544</v>
       </c>
       <c r="C138" t="n">
-        <v>0.507246</v>
+        <v>0.487555</v>
       </c>
       <c r="D138" t="n">
-        <v>1.00389</v>
+        <v>0.962843</v>
       </c>
       <c r="E138" t="n">
-        <v>0.355291</v>
+        <v>0.353238</v>
       </c>
       <c r="F138" t="n">
-        <v>0.391642</v>
+        <v>0.377463</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.448329</v>
+        <v>0.440319</v>
       </c>
       <c r="C139" t="n">
-        <v>0.515024</v>
+        <v>0.5056850000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>1.05002</v>
+        <v>0.99612</v>
       </c>
       <c r="E139" t="n">
-        <v>0.351724</v>
+        <v>0.353963</v>
       </c>
       <c r="F139" t="n">
-        <v>0.388721</v>
+        <v>0.399399</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.442712</v>
+        <v>0.450597</v>
       </c>
       <c r="C140" t="n">
-        <v>0.527765</v>
+        <v>0.511916</v>
       </c>
       <c r="D140" t="n">
-        <v>1.0699</v>
+        <v>1.03646</v>
       </c>
       <c r="E140" t="n">
-        <v>0.357527</v>
+        <v>0.357918</v>
       </c>
       <c r="F140" t="n">
-        <v>0.397769</v>
+        <v>0.391339</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.458216</v>
+        <v>0.455332</v>
       </c>
       <c r="C141" t="n">
-        <v>0.537511</v>
+        <v>0.526127</v>
       </c>
       <c r="D141" t="n">
-        <v>1.14562</v>
+        <v>1.07672</v>
       </c>
       <c r="E141" t="n">
-        <v>0.373679</v>
+        <v>0.368225</v>
       </c>
       <c r="F141" t="n">
-        <v>0.412967</v>
+        <v>0.398652</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.454629</v>
+        <v>0.460361</v>
       </c>
       <c r="C142" t="n">
-        <v>0.525714</v>
+        <v>0.535177</v>
       </c>
       <c r="D142" t="n">
-        <v>1.1434</v>
+        <v>1.10104</v>
       </c>
       <c r="E142" t="n">
-        <v>0.367873</v>
+        <v>0.36292</v>
       </c>
       <c r="F142" t="n">
-        <v>0.409095</v>
+        <v>0.407511</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.46885</v>
+        <v>0.461156</v>
       </c>
       <c r="C143" t="n">
-        <v>0.537484</v>
+        <v>0.544897</v>
       </c>
       <c r="D143" t="n">
-        <v>1.17025</v>
+        <v>1.14604</v>
       </c>
       <c r="E143" t="n">
-        <v>0.375648</v>
+        <v>0.366409</v>
       </c>
       <c r="F143" t="n">
-        <v>0.418444</v>
+        <v>0.409125</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0588576</v>
+        <v>0.0598524</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0587914</v>
+        <v>0.0604501</v>
       </c>
       <c r="D2" t="n">
-        <v>0.163668</v>
+        <v>0.163206</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07161149999999999</v>
+        <v>0.0710422</v>
       </c>
       <c r="F2" t="n">
-        <v>0.061782</v>
+        <v>0.0620645</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0610321</v>
+        <v>0.0599807</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0617208</v>
+        <v>0.062209</v>
       </c>
       <c r="D3" t="n">
-        <v>0.16845</v>
+        <v>0.167877</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07179489999999999</v>
+        <v>0.0717372</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0624803</v>
+        <v>0.0624652</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0628476</v>
+        <v>0.06292059999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06530039999999999</v>
+        <v>0.0679023</v>
       </c>
       <c r="D4" t="n">
-        <v>0.172459</v>
+        <v>0.173438</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0735172</v>
+        <v>0.0737052</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06618830000000001</v>
+        <v>0.0640351</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0716203</v>
+        <v>0.0678641</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07078660000000001</v>
+        <v>0.0704673</v>
       </c>
       <c r="D5" t="n">
-        <v>0.176768</v>
+        <v>0.176543</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07517020000000001</v>
+        <v>0.0747698</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0664714</v>
+        <v>0.0662103</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0755411</v>
+        <v>0.07645730000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.078906</v>
+        <v>0.0797455</v>
       </c>
       <c r="D6" t="n">
-        <v>0.181627</v>
+        <v>0.182215</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0803854</v>
+        <v>0.07797370000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.069578</v>
+        <v>0.0696715</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0869318</v>
+        <v>0.0893859</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0896922</v>
+        <v>0.0972744</v>
       </c>
       <c r="D7" t="n">
-        <v>0.145911</v>
+        <v>0.145407</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08529109999999999</v>
+        <v>0.0851869</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0764784</v>
+        <v>0.07637770000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.11033</v>
+        <v>0.118106</v>
       </c>
       <c r="C8" t="n">
-        <v>0.111831</v>
+        <v>0.114555</v>
       </c>
       <c r="D8" t="n">
-        <v>0.14995</v>
+        <v>0.150568</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0951767</v>
+        <v>0.0954704</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0862332</v>
+        <v>0.0860267</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.152663</v>
+        <v>0.149274</v>
       </c>
       <c r="C9" t="n">
-        <v>0.144331</v>
+        <v>0.144971</v>
       </c>
       <c r="D9" t="n">
-        <v>0.154608</v>
+        <v>0.154695</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06929299999999999</v>
+        <v>0.0690905</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0611498</v>
+        <v>0.061677</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0571501</v>
+        <v>0.0569882</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0579957</v>
+        <v>0.0587545</v>
       </c>
       <c r="D10" t="n">
-        <v>0.160042</v>
+        <v>0.159657</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0706576</v>
+        <v>0.0702115</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06361700000000001</v>
+        <v>0.0609057</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0575356</v>
+        <v>0.057276</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0586879</v>
+        <v>0.0594812</v>
       </c>
       <c r="D11" t="n">
-        <v>0.164858</v>
+        <v>0.164004</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0699939</v>
+        <v>0.0697985</v>
       </c>
       <c r="F11" t="n">
-        <v>0.061743</v>
+        <v>0.0616368</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0580063</v>
+        <v>0.058985</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0612389</v>
+        <v>0.0627564</v>
       </c>
       <c r="D12" t="n">
-        <v>0.168894</v>
+        <v>0.180797</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0703105</v>
+        <v>0.0702933</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0620595</v>
+        <v>0.0618925</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0610697</v>
+        <v>0.0594148</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0615691</v>
+        <v>0.0614551</v>
       </c>
       <c r="D13" t="n">
-        <v>0.178573</v>
+        <v>0.173745</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0705388</v>
+        <v>0.0703746</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0639996</v>
+        <v>0.0624153</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0604046</v>
+        <v>0.0601273</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0612324</v>
+        <v>0.0628309</v>
       </c>
       <c r="D14" t="n">
-        <v>0.182218</v>
+        <v>0.178883</v>
       </c>
       <c r="E14" t="n">
-        <v>0.07087010000000001</v>
+        <v>0.0717716</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0627495</v>
+        <v>0.0629477</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0620386</v>
+        <v>0.061526</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0623966</v>
+        <v>0.0643402</v>
       </c>
       <c r="D15" t="n">
-        <v>0.185802</v>
+        <v>0.183558</v>
       </c>
       <c r="E15" t="n">
-        <v>0.07680439999999999</v>
+        <v>0.0715081</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0633176</v>
+        <v>0.0634319</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0619951</v>
+        <v>0.0634248</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0648883</v>
+        <v>0.066123</v>
       </c>
       <c r="D16" t="n">
-        <v>0.187332</v>
+        <v>0.187044</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0722507</v>
+        <v>0.07179580000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0645107</v>
+        <v>0.0640733</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06522029999999999</v>
+        <v>0.0650758</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0667672</v>
+        <v>0.06823070000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.191842</v>
+        <v>0.191442</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0738605</v>
+        <v>0.07308290000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06758119999999999</v>
+        <v>0.0651928</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0695882</v>
+        <v>0.068852</v>
       </c>
       <c r="C18" t="n">
-        <v>0.070422</v>
+        <v>0.0731064</v>
       </c>
       <c r="D18" t="n">
-        <v>0.196174</v>
+        <v>0.196889</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0789787</v>
+        <v>0.0744654</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0666672</v>
+        <v>0.0672754</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0735162</v>
+        <v>0.074183</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0750941</v>
+        <v>0.0785457</v>
       </c>
       <c r="D19" t="n">
-        <v>0.202408</v>
+        <v>0.20194</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08061219999999999</v>
+        <v>0.0768616</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0695981</v>
+        <v>0.0694603</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08029169999999999</v>
+        <v>0.0825211</v>
       </c>
       <c r="C20" t="n">
-        <v>0.081469</v>
+        <v>0.086785</v>
       </c>
       <c r="D20" t="n">
-        <v>0.210753</v>
+        <v>0.210026</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0802967</v>
+        <v>0.0801196</v>
       </c>
       <c r="F20" t="n">
-        <v>0.07249990000000001</v>
+        <v>0.0753009</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0923214</v>
+        <v>0.0953198</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09237860000000001</v>
+        <v>0.0980644</v>
       </c>
       <c r="D21" t="n">
-        <v>0.157428</v>
+        <v>0.15741</v>
       </c>
       <c r="E21" t="n">
-        <v>0.08618679999999999</v>
+        <v>0.0859166</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07814309999999999</v>
+        <v>0.0772929</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.114218</v>
+        <v>0.118316</v>
       </c>
       <c r="C22" t="n">
-        <v>0.118101</v>
+        <v>0.117343</v>
       </c>
       <c r="D22" t="n">
-        <v>0.166122</v>
+        <v>0.164457</v>
       </c>
       <c r="E22" t="n">
-        <v>0.09685199999999999</v>
+        <v>0.094846</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0871662</v>
+        <v>0.08625960000000001</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.140459</v>
+        <v>0.143056</v>
       </c>
       <c r="C23" t="n">
-        <v>0.142904</v>
+        <v>0.145747</v>
       </c>
       <c r="D23" t="n">
-        <v>0.171911</v>
+        <v>0.168531</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0728892</v>
+        <v>0.06990440000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0634015</v>
+        <v>0.0631583</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0617442</v>
+        <v>0.0608623</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0644435</v>
+        <v>0.0665356</v>
       </c>
       <c r="D24" t="n">
-        <v>0.175008</v>
+        <v>0.176764</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0717936</v>
+        <v>0.07052509999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0635342</v>
+        <v>0.0639146</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0640442</v>
+        <v>0.061551</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0644255</v>
+        <v>0.06586789999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.179185</v>
+        <v>0.18496</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0707719</v>
+        <v>0.0705252</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0647392</v>
+        <v>0.06575640000000001</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0621327</v>
+        <v>0.0622696</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0644348</v>
+        <v>0.065955</v>
       </c>
       <c r="D26" t="n">
-        <v>0.187213</v>
+        <v>0.184403</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0713693</v>
+        <v>0.07123980000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0643266</v>
+        <v>0.0673431</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0622627</v>
+        <v>0.0621566</v>
       </c>
       <c r="C27" t="n">
-        <v>0.06579400000000001</v>
+        <v>0.06625399999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.194217</v>
+        <v>0.190514</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0724364</v>
+        <v>0.0730398</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0666556</v>
+        <v>0.0654725</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.06340079999999999</v>
+        <v>0.0638962</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0696334</v>
+        <v>0.0679587</v>
       </c>
       <c r="D28" t="n">
-        <v>0.200317</v>
+        <v>0.196619</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0755701</v>
+        <v>0.0745142</v>
       </c>
       <c r="F28" t="n">
-        <v>0.06711689999999999</v>
+        <v>0.0672302</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0688304</v>
+        <v>0.06466139999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.06978760000000001</v>
+        <v>0.0696864</v>
       </c>
       <c r="D29" t="n">
-        <v>0.222639</v>
+        <v>0.201182</v>
       </c>
       <c r="E29" t="n">
-        <v>0.07338020000000001</v>
+        <v>0.0722796</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06727320000000001</v>
+        <v>0.06635340000000001</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.06858499999999999</v>
+        <v>0.0662061</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0713516</v>
+        <v>0.0706982</v>
       </c>
       <c r="D30" t="n">
-        <v>0.206378</v>
+        <v>0.204543</v>
       </c>
       <c r="E30" t="n">
-        <v>0.07311049999999999</v>
+        <v>0.07318089999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0678002</v>
+        <v>0.06720139999999999</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0693346</v>
+        <v>0.0707699</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07819520000000001</v>
+        <v>0.0736636</v>
       </c>
       <c r="D31" t="n">
-        <v>0.212108</v>
+        <v>0.215621</v>
       </c>
       <c r="E31" t="n">
-        <v>0.07685740000000001</v>
+        <v>0.074947</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0680523</v>
+        <v>0.06869359999999999</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0741409</v>
+        <v>0.071501</v>
       </c>
       <c r="C32" t="n">
-        <v>0.075796</v>
+        <v>0.07692019999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.223383</v>
+        <v>0.217068</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0816306</v>
+        <v>0.07613209999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0700646</v>
+        <v>0.0703022</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0756478</v>
+        <v>0.0768518</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0814829</v>
+        <v>0.0818624</v>
       </c>
       <c r="D33" t="n">
-        <v>0.223586</v>
+        <v>0.223565</v>
       </c>
       <c r="E33" t="n">
-        <v>0.079053</v>
+        <v>0.0807795</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0729026</v>
+        <v>0.0732681</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08390060000000001</v>
+        <v>0.0833742</v>
       </c>
       <c r="C34" t="n">
-        <v>0.08848399999999999</v>
+        <v>0.0880367</v>
       </c>
       <c r="D34" t="n">
-        <v>0.247042</v>
+        <v>0.226696</v>
       </c>
       <c r="E34" t="n">
-        <v>0.08265069999999999</v>
+        <v>0.0815447</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0785851</v>
+        <v>0.0758457</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0960965</v>
+        <v>0.0943595</v>
       </c>
       <c r="C35" t="n">
-        <v>0.101891</v>
+        <v>0.100635</v>
       </c>
       <c r="D35" t="n">
-        <v>0.175403</v>
+        <v>0.170574</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0909961</v>
+        <v>0.08841010000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0822478</v>
+        <v>0.0818855</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.114663</v>
+        <v>0.113396</v>
       </c>
       <c r="C36" t="n">
-        <v>0.11886</v>
+        <v>0.117549</v>
       </c>
       <c r="D36" t="n">
-        <v>0.189369</v>
+        <v>0.177497</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0977359</v>
+        <v>0.09701220000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>0.09647169999999999</v>
+        <v>0.09100900000000001</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.143586</v>
+        <v>0.1433</v>
       </c>
       <c r="C37" t="n">
-        <v>0.142125</v>
+        <v>0.147613</v>
       </c>
       <c r="D37" t="n">
-        <v>0.190962</v>
+        <v>0.185832</v>
       </c>
       <c r="E37" t="n">
-        <v>0.07240679999999999</v>
+        <v>0.07273350000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06904299999999999</v>
+        <v>0.0676185</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0669237</v>
+        <v>0.06658210000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0715336</v>
+        <v>0.0709969</v>
       </c>
       <c r="D38" t="n">
-        <v>0.204688</v>
+        <v>0.190881</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0763808</v>
+        <v>0.0721932</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0732809</v>
+        <v>0.06763130000000001</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.06850970000000001</v>
+        <v>0.0662257</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0782004</v>
+        <v>0.072851</v>
       </c>
       <c r="D39" t="n">
-        <v>0.206651</v>
+        <v>0.200982</v>
       </c>
       <c r="E39" t="n">
-        <v>0.074793</v>
+        <v>0.07312490000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0726498</v>
+        <v>0.06881760000000001</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.06810579999999999</v>
+        <v>0.0670224</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0752034</v>
+        <v>0.0748745</v>
       </c>
       <c r="D40" t="n">
-        <v>0.224145</v>
+        <v>0.210471</v>
       </c>
       <c r="E40" t="n">
-        <v>0.07477590000000001</v>
+        <v>0.0734942</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0697942</v>
+        <v>0.0696198</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0705918</v>
+        <v>0.0674881</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0750021</v>
+        <v>0.0749697</v>
       </c>
       <c r="D41" t="n">
-        <v>0.219616</v>
+        <v>0.21646</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0756699</v>
+        <v>0.07343909999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>0.07050629999999999</v>
+        <v>0.0699067</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0714095</v>
+        <v>0.0692705</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0768432</v>
+        <v>0.07651289999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.230004</v>
+        <v>0.226533</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0752675</v>
+        <v>0.0738487</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07292029999999999</v>
+        <v>0.0725973</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0719337</v>
+        <v>0.07045410000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0788391</v>
+        <v>0.0807208</v>
       </c>
       <c r="D43" t="n">
-        <v>0.243249</v>
+        <v>0.238853</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0780872</v>
+        <v>0.07470250000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>0.07135370000000001</v>
+        <v>0.07206410000000001</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0721145</v>
+        <v>0.0711782</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0827171</v>
+        <v>0.08203770000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.247083</v>
+        <v>0.245639</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0753513</v>
+        <v>0.07598249999999999</v>
       </c>
       <c r="F44" t="n">
-        <v>0.072961</v>
+        <v>0.0733323</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0771893</v>
+        <v>0.0736898</v>
       </c>
       <c r="C45" t="n">
-        <v>0.08879919999999999</v>
+        <v>0.0853452</v>
       </c>
       <c r="D45" t="n">
-        <v>0.256208</v>
+        <v>0.25149</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0785148</v>
+        <v>0.0764555</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0759147</v>
+        <v>0.074612</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.07926560000000001</v>
+        <v>0.0764653</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0886663</v>
+        <v>0.08903030000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.266051</v>
+        <v>0.265351</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0801385</v>
+        <v>0.078152</v>
       </c>
       <c r="F46" t="n">
-        <v>0.07783859999999999</v>
+        <v>0.0766729</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.081597</v>
+        <v>0.0809815</v>
       </c>
       <c r="C47" t="n">
-        <v>0.09628200000000001</v>
+        <v>0.0943094</v>
       </c>
       <c r="D47" t="n">
-        <v>0.275251</v>
+        <v>0.277205</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0828072</v>
+        <v>0.08094700000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0798378</v>
+        <v>0.079123</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0880595</v>
+        <v>0.0884071</v>
       </c>
       <c r="C48" t="n">
-        <v>0.103581</v>
+        <v>0.103176</v>
       </c>
       <c r="D48" t="n">
-        <v>0.29098</v>
+        <v>0.291874</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0845095</v>
+        <v>0.08395610000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08364820000000001</v>
+        <v>0.0832099</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0981374</v>
+        <v>0.0991911</v>
       </c>
       <c r="C49" t="n">
-        <v>0.117855</v>
+        <v>0.114608</v>
       </c>
       <c r="D49" t="n">
-        <v>0.310449</v>
+        <v>0.305393</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0931864</v>
+        <v>0.0887994</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0891367</v>
+        <v>0.0883144</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.120937</v>
+        <v>0.114042</v>
       </c>
       <c r="C50" t="n">
-        <v>0.128585</v>
+        <v>0.130493</v>
       </c>
       <c r="D50" t="n">
-        <v>0.221794</v>
+        <v>0.222017</v>
       </c>
       <c r="E50" t="n">
-        <v>0.100949</v>
+        <v>0.0968126</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0977663</v>
+        <v>0.0972802</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.142008</v>
+        <v>0.144594</v>
       </c>
       <c r="C51" t="n">
-        <v>0.155481</v>
+        <v>0.156568</v>
       </c>
       <c r="D51" t="n">
-        <v>0.22791</v>
+        <v>0.234687</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0785536</v>
+        <v>0.07751959999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0777962</v>
+        <v>0.07575369999999999</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.188929</v>
+        <v>0.183382</v>
       </c>
       <c r="C52" t="n">
-        <v>0.194668</v>
+        <v>0.198109</v>
       </c>
       <c r="D52" t="n">
-        <v>0.249181</v>
+        <v>0.244636</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0785252</v>
+        <v>0.0779228</v>
       </c>
       <c r="F52" t="n">
-        <v>0.07658860000000001</v>
+        <v>0.0764773</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0814594</v>
+        <v>0.07683039999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0910176</v>
+        <v>0.0897371</v>
       </c>
       <c r="D53" t="n">
-        <v>0.254365</v>
+        <v>0.256149</v>
       </c>
       <c r="E53" t="n">
-        <v>0.07977330000000001</v>
+        <v>0.0784509</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0772045</v>
+        <v>0.07710839999999999</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.07800269999999999</v>
+        <v>0.0777789</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0922311</v>
+        <v>0.09211179999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.26841</v>
+        <v>0.265248</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0787931</v>
+        <v>0.0784624</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0785614</v>
+        <v>0.0780059</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0822942</v>
+        <v>0.07869859999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.097025</v>
+        <v>0.0929715</v>
       </c>
       <c r="D55" t="n">
-        <v>0.275672</v>
+        <v>0.278273</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0798372</v>
+        <v>0.0788026</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0831969</v>
+        <v>0.0785352</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.08047360000000001</v>
+        <v>0.0799676</v>
       </c>
       <c r="C56" t="n">
-        <v>0.09523239999999999</v>
+        <v>0.0953951</v>
       </c>
       <c r="D56" t="n">
-        <v>0.298917</v>
+        <v>0.295893</v>
       </c>
       <c r="E56" t="n">
-        <v>0.081745</v>
+        <v>0.07970190000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>0.08106090000000001</v>
+        <v>0.0796606</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0832963</v>
+        <v>0.0808223</v>
       </c>
       <c r="C57" t="n">
-        <v>0.101481</v>
+        <v>0.09922300000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.311283</v>
+        <v>0.312781</v>
       </c>
       <c r="E57" t="n">
-        <v>0.08067630000000001</v>
+        <v>0.08147840000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0814131</v>
+        <v>0.08210679999999999</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.08503910000000001</v>
+        <v>0.08345619999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.101308</v>
+        <v>0.102172</v>
       </c>
       <c r="D58" t="n">
-        <v>0.327563</v>
+        <v>0.326665</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0830168</v>
+        <v>0.0822695</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0845881</v>
+        <v>0.083444</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.091775</v>
+        <v>0.0869282</v>
       </c>
       <c r="C59" t="n">
-        <v>0.104898</v>
+        <v>0.1055</v>
       </c>
       <c r="D59" t="n">
-        <v>0.346289</v>
+        <v>0.342858</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0857048</v>
+        <v>0.0830925</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0885079</v>
+        <v>0.0849357</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.08986479999999999</v>
+        <v>0.0888912</v>
       </c>
       <c r="C60" t="n">
-        <v>0.109066</v>
+        <v>0.112031</v>
       </c>
       <c r="D60" t="n">
-        <v>0.361857</v>
+        <v>0.360413</v>
       </c>
       <c r="E60" t="n">
-        <v>0.08711820000000001</v>
+        <v>0.0849883</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0867682</v>
+        <v>0.0875461</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0929765</v>
+        <v>0.0944055</v>
       </c>
       <c r="C61" t="n">
-        <v>0.117015</v>
+        <v>0.116006</v>
       </c>
       <c r="D61" t="n">
-        <v>0.378111</v>
+        <v>0.398665</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0877189</v>
+        <v>0.0870215</v>
       </c>
       <c r="F61" t="n">
-        <v>0.090381</v>
+        <v>0.09000519999999999</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.101161</v>
+        <v>0.09915</v>
       </c>
       <c r="C62" t="n">
-        <v>0.124312</v>
+        <v>0.124216</v>
       </c>
       <c r="D62" t="n">
-        <v>0.42107</v>
+        <v>0.402337</v>
       </c>
       <c r="E62" t="n">
-        <v>0.09118660000000001</v>
+        <v>0.0905092</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0984669</v>
+        <v>0.09395199999999999</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.110525</v>
+        <v>0.108645</v>
       </c>
       <c r="C63" t="n">
-        <v>0.13438</v>
+        <v>0.136739</v>
       </c>
       <c r="D63" t="n">
-        <v>0.445575</v>
+        <v>0.42493</v>
       </c>
       <c r="E63" t="n">
-        <v>0.095857</v>
+        <v>0.0956385</v>
       </c>
       <c r="F63" t="n">
-        <v>0.100761</v>
+        <v>0.100093</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.126067</v>
+        <v>0.124353</v>
       </c>
       <c r="C64" t="n">
-        <v>0.155637</v>
+        <v>0.162024</v>
       </c>
       <c r="D64" t="n">
-        <v>0.340358</v>
+        <v>0.313692</v>
       </c>
       <c r="E64" t="n">
-        <v>0.103748</v>
+        <v>0.103239</v>
       </c>
       <c r="F64" t="n">
-        <v>0.109101</v>
+        <v>0.10853</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.149169</v>
+        <v>0.147746</v>
       </c>
       <c r="C65" t="n">
-        <v>0.183897</v>
+        <v>0.182465</v>
       </c>
       <c r="D65" t="n">
-        <v>0.357174</v>
+        <v>0.331996</v>
       </c>
       <c r="E65" t="n">
-        <v>0.117039</v>
+        <v>0.11649</v>
       </c>
       <c r="F65" t="n">
-        <v>0.124521</v>
+        <v>0.123865</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.190145</v>
+        <v>0.186035</v>
       </c>
       <c r="C66" t="n">
-        <v>0.235715</v>
+        <v>0.226055</v>
       </c>
       <c r="D66" t="n">
-        <v>0.386656</v>
+        <v>0.352732</v>
       </c>
       <c r="E66" t="n">
-        <v>0.08507339999999999</v>
+        <v>0.0828125</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0902438</v>
+        <v>0.0842734</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.08872190000000001</v>
+        <v>0.0874601</v>
       </c>
       <c r="C67" t="n">
-        <v>0.107363</v>
+        <v>0.107303</v>
       </c>
       <c r="D67" t="n">
-        <v>0.370296</v>
+        <v>0.369809</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0869375</v>
+        <v>0.0833719</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0898661</v>
+        <v>0.085386</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0888607</v>
+        <v>0.0887283</v>
       </c>
       <c r="C68" t="n">
-        <v>0.11166</v>
+        <v>0.109778</v>
       </c>
       <c r="D68" t="n">
-        <v>0.427978</v>
+        <v>0.392037</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0840516</v>
+        <v>0.0838555</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0868917</v>
+        <v>0.0866133</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0911447</v>
+        <v>0.0895608</v>
       </c>
       <c r="C69" t="n">
-        <v>0.114051</v>
+        <v>0.119018</v>
       </c>
       <c r="D69" t="n">
-        <v>0.407554</v>
+        <v>0.412503</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0844121</v>
+        <v>0.08446620000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0887044</v>
+        <v>0.0874863</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0940346</v>
+        <v>0.093636</v>
       </c>
       <c r="C70" t="n">
-        <v>0.120047</v>
+        <v>0.114797</v>
       </c>
       <c r="D70" t="n">
-        <v>0.439642</v>
+        <v>0.435936</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0866532</v>
+        <v>0.08589810000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0900934</v>
+        <v>0.0900487</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0940667</v>
+        <v>0.09382</v>
       </c>
       <c r="C71" t="n">
-        <v>0.125418</v>
+        <v>0.119261</v>
       </c>
       <c r="D71" t="n">
-        <v>0.49478</v>
+        <v>0.494499</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0872967</v>
+        <v>0.0865317</v>
       </c>
       <c r="F71" t="n">
-        <v>0.09313539999999999</v>
+        <v>0.0909997</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0952939</v>
+        <v>0.0961486</v>
       </c>
       <c r="C72" t="n">
-        <v>0.126623</v>
+        <v>0.12256</v>
       </c>
       <c r="D72" t="n">
-        <v>0.520189</v>
+        <v>0.483283</v>
       </c>
       <c r="E72" t="n">
-        <v>0.08823309999999999</v>
+        <v>0.0884349</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09426909999999999</v>
+        <v>0.09546689999999999</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.102298</v>
+        <v>0.100395</v>
       </c>
       <c r="C73" t="n">
-        <v>0.130373</v>
+        <v>0.12962</v>
       </c>
       <c r="D73" t="n">
-        <v>0.522276</v>
+        <v>0.527813</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0899802</v>
+        <v>0.0908663</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0987325</v>
+        <v>0.0978729</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.103635</v>
+        <v>0.104162</v>
       </c>
       <c r="C74" t="n">
-        <v>0.145554</v>
+        <v>0.135766</v>
       </c>
       <c r="D74" t="n">
-        <v>0.542954</v>
+        <v>0.5685170000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0920093</v>
+        <v>0.0921616</v>
       </c>
       <c r="F74" t="n">
-        <v>0.107696</v>
+        <v>0.09978099999999999</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.110443</v>
+        <v>0.106499</v>
       </c>
       <c r="C75" t="n">
-        <v>0.150279</v>
+        <v>0.143268</v>
       </c>
       <c r="D75" t="n">
-        <v>0.582589</v>
+        <v>0.596996</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0971882</v>
+        <v>0.094011</v>
       </c>
       <c r="F75" t="n">
-        <v>0.108399</v>
+        <v>0.10299</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.122445</v>
+        <v>0.112904</v>
       </c>
       <c r="C76" t="n">
-        <v>0.162186</v>
+        <v>0.155404</v>
       </c>
       <c r="D76" t="n">
-        <v>0.630094</v>
+        <v>0.621078</v>
       </c>
       <c r="E76" t="n">
-        <v>0.100411</v>
+        <v>0.0997849</v>
       </c>
       <c r="F76" t="n">
-        <v>0.112857</v>
+        <v>0.113188</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.130147</v>
+        <v>0.126218</v>
       </c>
       <c r="C77" t="n">
-        <v>0.166778</v>
+        <v>0.169356</v>
       </c>
       <c r="D77" t="n">
-        <v>0.607732</v>
+        <v>0.649921</v>
       </c>
       <c r="E77" t="n">
-        <v>0.104105</v>
+        <v>0.102995</v>
       </c>
       <c r="F77" t="n">
-        <v>0.121131</v>
+        <v>0.11539</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.147385</v>
+        <v>0.145852</v>
       </c>
       <c r="C78" t="n">
-        <v>0.191433</v>
+        <v>0.198185</v>
       </c>
       <c r="D78" t="n">
-        <v>0.462924</v>
+        <v>0.5035809999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>0.113781</v>
+        <v>0.115209</v>
       </c>
       <c r="F78" t="n">
-        <v>0.133133</v>
+        <v>0.132266</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.161755</v>
+        <v>0.168635</v>
       </c>
       <c r="C79" t="n">
-        <v>0.22639</v>
+        <v>0.238026</v>
       </c>
       <c r="D79" t="n">
-        <v>0.476193</v>
+        <v>0.5129089999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1244</v>
+        <v>0.130516</v>
       </c>
       <c r="F79" t="n">
-        <v>0.143926</v>
+        <v>0.143269</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.204716</v>
+        <v>0.201925</v>
       </c>
       <c r="C80" t="n">
-        <v>0.286493</v>
+        <v>0.270273</v>
       </c>
       <c r="D80" t="n">
-        <v>0.516519</v>
+        <v>0.529546</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0907538</v>
+        <v>0.0878789</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0977775</v>
+        <v>0.0947881</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0978487</v>
+        <v>0.0990876</v>
       </c>
       <c r="C81" t="n">
-        <v>0.133215</v>
+        <v>0.134351</v>
       </c>
       <c r="D81" t="n">
-        <v>0.567761</v>
+        <v>0.549691</v>
       </c>
       <c r="E81" t="n">
-        <v>0.09354750000000001</v>
+        <v>0.09056359999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09830220000000001</v>
+        <v>0.09786599999999999</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.102677</v>
+        <v>0.10099</v>
       </c>
       <c r="C82" t="n">
-        <v>0.138795</v>
+        <v>0.137249</v>
       </c>
       <c r="D82" t="n">
-        <v>0.54433</v>
+        <v>0.537588</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0936953</v>
+        <v>0.0900325</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1004</v>
+        <v>0.09944600000000001</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.104553</v>
+        <v>0.103163</v>
       </c>
       <c r="C83" t="n">
-        <v>0.14101</v>
+        <v>0.142638</v>
       </c>
       <c r="D83" t="n">
-        <v>0.583158</v>
+        <v>0.561052</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0952959</v>
+        <v>0.0922741</v>
       </c>
       <c r="F83" t="n">
-        <v>0.101322</v>
+        <v>0.102776</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.105706</v>
+        <v>0.106515</v>
       </c>
       <c r="C84" t="n">
-        <v>0.146466</v>
+        <v>0.151457</v>
       </c>
       <c r="D84" t="n">
-        <v>0.589917</v>
+        <v>0.6058750000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0944868</v>
+        <v>0.0940025</v>
       </c>
       <c r="F84" t="n">
-        <v>0.107894</v>
+        <v>0.107157</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.109003</v>
+        <v>0.110439</v>
       </c>
       <c r="C85" t="n">
-        <v>0.161394</v>
+        <v>0.155268</v>
       </c>
       <c r="D85" t="n">
-        <v>0.611007</v>
+        <v>0.604479</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0948344</v>
+        <v>0.0977785</v>
       </c>
       <c r="F85" t="n">
-        <v>0.115588</v>
+        <v>0.107767</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.113386</v>
+        <v>0.117764</v>
       </c>
       <c r="C86" t="n">
-        <v>0.159774</v>
+        <v>0.161052</v>
       </c>
       <c r="D86" t="n">
-        <v>0.631049</v>
+        <v>0.671918</v>
       </c>
       <c r="E86" t="n">
-        <v>0.102018</v>
+        <v>0.0980311</v>
       </c>
       <c r="F86" t="n">
-        <v>0.114529</v>
+        <v>0.1128</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.11914</v>
+        <v>0.118129</v>
       </c>
       <c r="C87" t="n">
-        <v>0.168837</v>
+        <v>0.166047</v>
       </c>
       <c r="D87" t="n">
-        <v>0.658978</v>
+        <v>0.6571630000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>0.103885</v>
+        <v>0.09928190000000001</v>
       </c>
       <c r="F87" t="n">
-        <v>0.122452</v>
+        <v>0.115985</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.124485</v>
+        <v>0.123257</v>
       </c>
       <c r="C88" t="n">
-        <v>0.175303</v>
+        <v>0.174938</v>
       </c>
       <c r="D88" t="n">
-        <v>0.681492</v>
+        <v>0.683605</v>
       </c>
       <c r="E88" t="n">
-        <v>0.102585</v>
+        <v>0.102175</v>
       </c>
       <c r="F88" t="n">
-        <v>0.120891</v>
+        <v>0.123829</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.129288</v>
+        <v>0.129193</v>
       </c>
       <c r="C89" t="n">
-        <v>0.185904</v>
+        <v>0.192641</v>
       </c>
       <c r="D89" t="n">
-        <v>0.753103</v>
+        <v>0.732112</v>
       </c>
       <c r="E89" t="n">
-        <v>0.105593</v>
+        <v>0.109011</v>
       </c>
       <c r="F89" t="n">
-        <v>0.125987</v>
+        <v>0.129617</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.136587</v>
+        <v>0.138981</v>
       </c>
       <c r="C90" t="n">
-        <v>0.199525</v>
+        <v>0.19585</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7360989999999999</v>
+        <v>0.735689</v>
       </c>
       <c r="E90" t="n">
-        <v>0.111777</v>
+        <v>0.110436</v>
       </c>
       <c r="F90" t="n">
-        <v>0.136098</v>
+        <v>0.134871</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.14779</v>
+        <v>0.147798</v>
       </c>
       <c r="C91" t="n">
-        <v>0.21153</v>
+        <v>0.212608</v>
       </c>
       <c r="D91" t="n">
-        <v>0.761894</v>
+        <v>0.765054</v>
       </c>
       <c r="E91" t="n">
-        <v>0.123303</v>
+        <v>0.115945</v>
       </c>
       <c r="F91" t="n">
-        <v>0.146295</v>
+        <v>0.15068</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.169439</v>
+        <v>0.161951</v>
       </c>
       <c r="C92" t="n">
-        <v>0.244097</v>
+        <v>0.24014</v>
       </c>
       <c r="D92" t="n">
-        <v>0.629127</v>
+        <v>0.580943</v>
       </c>
       <c r="E92" t="n">
-        <v>0.127383</v>
+        <v>0.12455</v>
       </c>
       <c r="F92" t="n">
-        <v>0.154957</v>
+        <v>0.151654</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.193453</v>
+        <v>0.18659</v>
       </c>
       <c r="C93" t="n">
-        <v>0.280582</v>
+        <v>0.269785</v>
       </c>
       <c r="D93" t="n">
-        <v>0.6340170000000001</v>
+        <v>0.604777</v>
       </c>
       <c r="E93" t="n">
-        <v>0.140095</v>
+        <v>0.138453</v>
       </c>
       <c r="F93" t="n">
-        <v>0.17495</v>
+        <v>0.168728</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.227775</v>
+        <v>0.222678</v>
       </c>
       <c r="C94" t="n">
-        <v>0.325531</v>
+        <v>0.321817</v>
       </c>
       <c r="D94" t="n">
-        <v>0.622718</v>
+        <v>0.62155</v>
       </c>
       <c r="E94" t="n">
-        <v>0.107624</v>
+        <v>0.107707</v>
       </c>
       <c r="F94" t="n">
-        <v>0.127839</v>
+        <v>0.126863</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.130717</v>
+        <v>0.129161</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1822</v>
+        <v>0.1811</v>
       </c>
       <c r="D95" t="n">
-        <v>0.649402</v>
+        <v>0.639576</v>
       </c>
       <c r="E95" t="n">
-        <v>0.109331</v>
+        <v>0.1089</v>
       </c>
       <c r="F95" t="n">
-        <v>0.130865</v>
+        <v>0.137084</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.13257</v>
+        <v>0.131762</v>
       </c>
       <c r="C96" t="n">
-        <v>0.186003</v>
+        <v>0.186283</v>
       </c>
       <c r="D96" t="n">
-        <v>0.675935</v>
+        <v>0.667853</v>
       </c>
       <c r="E96" t="n">
-        <v>0.11126</v>
+        <v>0.118665</v>
       </c>
       <c r="F96" t="n">
-        <v>0.13802</v>
+        <v>0.133707</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.137736</v>
+        <v>0.137049</v>
       </c>
       <c r="C97" t="n">
-        <v>0.192622</v>
+        <v>0.191952</v>
       </c>
       <c r="D97" t="n">
-        <v>0.689672</v>
+        <v>0.687943</v>
       </c>
       <c r="E97" t="n">
-        <v>0.112354</v>
+        <v>0.115231</v>
       </c>
       <c r="F97" t="n">
-        <v>0.135947</v>
+        <v>0.135738</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.137342</v>
+        <v>0.135954</v>
       </c>
       <c r="C98" t="n">
-        <v>0.19748</v>
+        <v>0.199748</v>
       </c>
       <c r="D98" t="n">
-        <v>0.728015</v>
+        <v>0.711933</v>
       </c>
       <c r="E98" t="n">
-        <v>0.114097</v>
+        <v>0.114585</v>
       </c>
       <c r="F98" t="n">
-        <v>0.142269</v>
+        <v>0.139723</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.147813</v>
+        <v>0.142501</v>
       </c>
       <c r="C99" t="n">
-        <v>0.207518</v>
+        <v>0.209735</v>
       </c>
       <c r="D99" t="n">
-        <v>0.733575</v>
+        <v>0.754142</v>
       </c>
       <c r="E99" t="n">
-        <v>0.116502</v>
+        <v>0.118477</v>
       </c>
       <c r="F99" t="n">
-        <v>0.145115</v>
+        <v>0.145357</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.14459</v>
+        <v>0.144125</v>
       </c>
       <c r="C100" t="n">
-        <v>0.208623</v>
+        <v>0.208148</v>
       </c>
       <c r="D100" t="n">
-        <v>0.793594</v>
+        <v>0.755213</v>
       </c>
       <c r="E100" t="n">
-        <v>0.118418</v>
+        <v>0.118923</v>
       </c>
       <c r="F100" t="n">
-        <v>0.146725</v>
+        <v>0.148904</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.148959</v>
+        <v>0.1496</v>
       </c>
       <c r="C101" t="n">
-        <v>0.216611</v>
+        <v>0.215211</v>
       </c>
       <c r="D101" t="n">
-        <v>0.774033</v>
+        <v>0.812419</v>
       </c>
       <c r="E101" t="n">
-        <v>0.123998</v>
+        <v>0.122744</v>
       </c>
       <c r="F101" t="n">
-        <v>0.158333</v>
+        <v>0.153293</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.156686</v>
+        <v>0.153633</v>
       </c>
       <c r="C102" t="n">
-        <v>0.230491</v>
+        <v>0.230024</v>
       </c>
       <c r="D102" t="n">
-        <v>0.800244</v>
+        <v>0.828404</v>
       </c>
       <c r="E102" t="n">
-        <v>0.124413</v>
+        <v>0.124298</v>
       </c>
       <c r="F102" t="n">
-        <v>0.159479</v>
+        <v>0.156766</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.166695</v>
+        <v>0.161363</v>
       </c>
       <c r="C103" t="n">
-        <v>0.24086</v>
+        <v>0.236274</v>
       </c>
       <c r="D103" t="n">
-        <v>0.847181</v>
+        <v>0.843021</v>
       </c>
       <c r="E103" t="n">
-        <v>0.130028</v>
+        <v>0.129105</v>
       </c>
       <c r="F103" t="n">
-        <v>0.170573</v>
+        <v>0.167036</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.169031</v>
+        <v>0.169857</v>
       </c>
       <c r="C104" t="n">
-        <v>0.252058</v>
+        <v>0.252392</v>
       </c>
       <c r="D104" t="n">
-        <v>0.861917</v>
+        <v>0.8626819999999999</v>
       </c>
       <c r="E104" t="n">
-        <v>0.134337</v>
+        <v>0.131756</v>
       </c>
       <c r="F104" t="n">
-        <v>0.16818</v>
+        <v>0.168659</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.178985</v>
+        <v>0.178556</v>
       </c>
       <c r="C105" t="n">
-        <v>0.267718</v>
+        <v>0.26816</v>
       </c>
       <c r="D105" t="n">
-        <v>0.882349</v>
+        <v>0.8824340000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>0.138058</v>
+        <v>0.13766</v>
       </c>
       <c r="F105" t="n">
-        <v>0.177258</v>
+        <v>0.196316</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.199021</v>
+        <v>0.194099</v>
       </c>
       <c r="C106" t="n">
-        <v>0.298213</v>
+        <v>0.292564</v>
       </c>
       <c r="D106" t="n">
-        <v>0.92086</v>
+        <v>0.931454</v>
       </c>
       <c r="E106" t="n">
-        <v>0.15364</v>
+        <v>0.147562</v>
       </c>
       <c r="F106" t="n">
-        <v>0.19109</v>
+        <v>0.193364</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.226357</v>
+        <v>0.221078</v>
       </c>
       <c r="C107" t="n">
-        <v>0.328631</v>
+        <v>0.33057</v>
       </c>
       <c r="D107" t="n">
-        <v>0.7422029999999999</v>
+        <v>0.697273</v>
       </c>
       <c r="E107" t="n">
-        <v>0.158806</v>
+        <v>0.16129</v>
       </c>
       <c r="F107" t="n">
-        <v>0.206744</v>
+        <v>0.210711</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.256857</v>
+        <v>0.263253</v>
       </c>
       <c r="C108" t="n">
-        <v>0.381838</v>
+        <v>0.38979</v>
       </c>
       <c r="D108" t="n">
-        <v>0.713184</v>
+        <v>0.772015</v>
       </c>
       <c r="E108" t="n">
-        <v>0.174317</v>
+        <v>0.180354</v>
       </c>
       <c r="F108" t="n">
-        <v>0.197665</v>
+        <v>0.203363</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.336426</v>
+        <v>0.329709</v>
       </c>
       <c r="C109" t="n">
-        <v>0.482154</v>
+        <v>0.485973</v>
       </c>
       <c r="D109" t="n">
-        <v>0.747505</v>
+        <v>0.751458</v>
       </c>
       <c r="E109" t="n">
-        <v>0.175868</v>
+        <v>0.190139</v>
       </c>
       <c r="F109" t="n">
-        <v>0.211262</v>
+        <v>0.206459</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.209626</v>
+        <v>0.215081</v>
       </c>
       <c r="C110" t="n">
-        <v>0.274639</v>
+        <v>0.263579</v>
       </c>
       <c r="D110" t="n">
-        <v>0.754464</v>
+        <v>0.790923</v>
       </c>
       <c r="E110" t="n">
-        <v>0.178922</v>
+        <v>0.18516</v>
       </c>
       <c r="F110" t="n">
-        <v>0.210042</v>
+        <v>0.205877</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.221554</v>
+        <v>0.213148</v>
       </c>
       <c r="C111" t="n">
-        <v>0.285327</v>
+        <v>0.297134</v>
       </c>
       <c r="D111" t="n">
-        <v>0.788931</v>
+        <v>0.8133320000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>0.179908</v>
+        <v>0.193414</v>
       </c>
       <c r="F111" t="n">
-        <v>0.206681</v>
+        <v>0.210331</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.219696</v>
+        <v>0.215329</v>
       </c>
       <c r="C112" t="n">
-        <v>0.285757</v>
+        <v>0.28536</v>
       </c>
       <c r="D112" t="n">
-        <v>0.802023</v>
+        <v>0.873015</v>
       </c>
       <c r="E112" t="n">
-        <v>0.179169</v>
+        <v>0.196767</v>
       </c>
       <c r="F112" t="n">
-        <v>0.215197</v>
+        <v>0.222609</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.226189</v>
+        <v>0.220038</v>
       </c>
       <c r="C113" t="n">
-        <v>0.313662</v>
+        <v>0.289397</v>
       </c>
       <c r="D113" t="n">
-        <v>0.829753</v>
+        <v>0.8200499999999999</v>
       </c>
       <c r="E113" t="n">
-        <v>0.182766</v>
+        <v>0.18276</v>
       </c>
       <c r="F113" t="n">
-        <v>0.216911</v>
+        <v>0.219699</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.225528</v>
+        <v>0.244403</v>
       </c>
       <c r="C114" t="n">
-        <v>0.303062</v>
+        <v>0.293634</v>
       </c>
       <c r="D114" t="n">
-        <v>0.955547</v>
+        <v>0.899628</v>
       </c>
       <c r="E114" t="n">
-        <v>0.1887</v>
+        <v>0.204984</v>
       </c>
       <c r="F114" t="n">
-        <v>0.224565</v>
+        <v>0.242162</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.235092</v>
+        <v>0.226372</v>
       </c>
       <c r="C115" t="n">
-        <v>0.304754</v>
+        <v>0.330177</v>
       </c>
       <c r="D115" t="n">
-        <v>0.865911</v>
+        <v>0.8600370000000001</v>
       </c>
       <c r="E115" t="n">
-        <v>0.190856</v>
+        <v>0.18804</v>
       </c>
       <c r="F115" t="n">
-        <v>0.224119</v>
+        <v>0.22956</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.233275</v>
+        <v>0.238006</v>
       </c>
       <c r="C116" t="n">
-        <v>0.312151</v>
+        <v>0.333458</v>
       </c>
       <c r="D116" t="n">
-        <v>0.882046</v>
+        <v>0.886478</v>
       </c>
       <c r="E116" t="n">
-        <v>0.199655</v>
+        <v>0.192258</v>
       </c>
       <c r="F116" t="n">
-        <v>0.238571</v>
+        <v>0.233366</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.243729</v>
+        <v>0.240383</v>
       </c>
       <c r="C117" t="n">
-        <v>0.330962</v>
+        <v>0.323175</v>
       </c>
       <c r="D117" t="n">
-        <v>0.942203</v>
+        <v>0.908044</v>
       </c>
       <c r="E117" t="n">
-        <v>0.194085</v>
+        <v>0.197729</v>
       </c>
       <c r="F117" t="n">
-        <v>0.238716</v>
+        <v>0.238733</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.253174</v>
+        <v>0.251443</v>
       </c>
       <c r="C118" t="n">
-        <v>0.342868</v>
+        <v>0.358159</v>
       </c>
       <c r="D118" t="n">
-        <v>0.94035</v>
+        <v>1.01928</v>
       </c>
       <c r="E118" t="n">
-        <v>0.200389</v>
+        <v>0.221284</v>
       </c>
       <c r="F118" t="n">
-        <v>0.247718</v>
+        <v>0.277686</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.271161</v>
+        <v>0.26108</v>
       </c>
       <c r="C119" t="n">
-        <v>0.35777</v>
+        <v>0.358384</v>
       </c>
       <c r="D119" t="n">
-        <v>0.962965</v>
+        <v>0.958212</v>
       </c>
       <c r="E119" t="n">
-        <v>0.203315</v>
+        <v>0.206429</v>
       </c>
       <c r="F119" t="n">
-        <v>0.259719</v>
+        <v>0.26001</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.283076</v>
+        <v>0.273842</v>
       </c>
       <c r="C120" t="n">
-        <v>0.424331</v>
+        <v>0.386206</v>
       </c>
       <c r="D120" t="n">
-        <v>1.01114</v>
+        <v>0.988575</v>
       </c>
       <c r="E120" t="n">
-        <v>0.221752</v>
+        <v>0.2144</v>
       </c>
       <c r="F120" t="n">
-        <v>0.294644</v>
+        <v>0.271655</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.303473</v>
+        <v>0.30304</v>
       </c>
       <c r="C121" t="n">
-        <v>0.432231</v>
+        <v>0.423393</v>
       </c>
       <c r="D121" t="n">
-        <v>0.751119</v>
+        <v>0.744108</v>
       </c>
       <c r="E121" t="n">
-        <v>0.226977</v>
+        <v>0.245986</v>
       </c>
       <c r="F121" t="n">
-        <v>0.314136</v>
+        <v>0.290105</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.347197</v>
+        <v>0.343753</v>
       </c>
       <c r="C122" t="n">
-        <v>0.487059</v>
+        <v>0.49154</v>
       </c>
       <c r="D122" t="n">
-        <v>0.766646</v>
+        <v>0.766425</v>
       </c>
       <c r="E122" t="n">
-        <v>0.247186</v>
+        <v>0.245244</v>
       </c>
       <c r="F122" t="n">
-        <v>0.317666</v>
+        <v>0.320223</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.419404</v>
+        <v>0.41014</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5934469999999999</v>
+        <v>0.587525</v>
       </c>
       <c r="D123" t="n">
-        <v>0.795204</v>
+        <v>0.786288</v>
       </c>
       <c r="E123" t="n">
-        <v>0.283298</v>
+        <v>0.285363</v>
       </c>
       <c r="F123" t="n">
-        <v>0.323441</v>
+        <v>0.311672</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.345869</v>
+        <v>0.358344</v>
       </c>
       <c r="C124" t="n">
-        <v>0.403508</v>
+        <v>0.399175</v>
       </c>
       <c r="D124" t="n">
-        <v>0.812207</v>
+        <v>0.809548</v>
       </c>
       <c r="E124" t="n">
-        <v>0.287781</v>
+        <v>0.286059</v>
       </c>
       <c r="F124" t="n">
-        <v>0.316576</v>
+        <v>0.334162</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.350212</v>
+        <v>0.352935</v>
       </c>
       <c r="C125" t="n">
-        <v>0.418163</v>
+        <v>0.432346</v>
       </c>
       <c r="D125" t="n">
-        <v>0.940014</v>
+        <v>0.863852</v>
       </c>
       <c r="E125" t="n">
-        <v>0.296203</v>
+        <v>0.300281</v>
       </c>
       <c r="F125" t="n">
-        <v>0.325549</v>
+        <v>0.350279</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.362465</v>
+        <v>0.3532</v>
       </c>
       <c r="C126" t="n">
-        <v>0.417198</v>
+        <v>0.42031</v>
       </c>
       <c r="D126" t="n">
-        <v>0.848341</v>
+        <v>0.86589</v>
       </c>
       <c r="E126" t="n">
-        <v>0.298598</v>
+        <v>0.295601</v>
       </c>
       <c r="F126" t="n">
-        <v>0.322946</v>
+        <v>0.323773</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.37037</v>
+        <v>0.364614</v>
       </c>
       <c r="C127" t="n">
-        <v>0.447572</v>
+        <v>0.449982</v>
       </c>
       <c r="D127" t="n">
-        <v>0.889753</v>
+        <v>0.8863259999999999</v>
       </c>
       <c r="E127" t="n">
-        <v>0.293063</v>
+        <v>0.292603</v>
       </c>
       <c r="F127" t="n">
-        <v>0.32831</v>
+        <v>0.328749</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.367053</v>
+        <v>0.376004</v>
       </c>
       <c r="C128" t="n">
-        <v>0.432861</v>
+        <v>0.434428</v>
       </c>
       <c r="D128" t="n">
-        <v>0.896381</v>
+        <v>0.909721</v>
       </c>
       <c r="E128" t="n">
-        <v>0.307412</v>
+        <v>0.302912</v>
       </c>
       <c r="F128" t="n">
-        <v>0.331914</v>
+        <v>0.334009</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.369694</v>
+        <v>0.379674</v>
       </c>
       <c r="C129" t="n">
-        <v>0.446721</v>
+        <v>0.44007</v>
       </c>
       <c r="D129" t="n">
-        <v>0.952337</v>
+        <v>0.931295</v>
       </c>
       <c r="E129" t="n">
-        <v>0.313359</v>
+        <v>0.297212</v>
       </c>
       <c r="F129" t="n">
-        <v>0.338107</v>
+        <v>0.339155</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.382022</v>
+        <v>0.376107</v>
       </c>
       <c r="C130" t="n">
-        <v>0.481506</v>
+        <v>0.450437</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9741880000000001</v>
+        <v>0.9656130000000001</v>
       </c>
       <c r="E130" t="n">
-        <v>0.300929</v>
+        <v>0.29992</v>
       </c>
       <c r="F130" t="n">
-        <v>0.34304</v>
+        <v>0.347711</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.403495</v>
+        <v>0.394585</v>
       </c>
       <c r="C131" t="n">
-        <v>0.472697</v>
+        <v>0.463653</v>
       </c>
       <c r="D131" t="n">
-        <v>1.01582</v>
+        <v>1.00441</v>
       </c>
       <c r="E131" t="n">
-        <v>0.308407</v>
+        <v>0.31028</v>
       </c>
       <c r="F131" t="n">
-        <v>0.359125</v>
+        <v>0.355701</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.397309</v>
+        <v>0.392606</v>
       </c>
       <c r="C132" t="n">
-        <v>0.481937</v>
+        <v>0.48039</v>
       </c>
       <c r="D132" t="n">
-        <v>1.02914</v>
+        <v>1.04112</v>
       </c>
       <c r="E132" t="n">
-        <v>0.311328</v>
+        <v>0.309894</v>
       </c>
       <c r="F132" t="n">
-        <v>0.360354</v>
+        <v>0.361966</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.434428</v>
+        <v>0.406513</v>
       </c>
       <c r="C133" t="n">
-        <v>0.49434</v>
+        <v>0.518281</v>
       </c>
       <c r="D133" t="n">
-        <v>1.06359</v>
+        <v>1.05914</v>
       </c>
       <c r="E133" t="n">
-        <v>0.31543</v>
+        <v>0.334882</v>
       </c>
       <c r="F133" t="n">
-        <v>0.370003</v>
+        <v>0.379736</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.432779</v>
+        <v>0.430804</v>
       </c>
       <c r="C134" t="n">
-        <v>0.529903</v>
+        <v>0.526608</v>
       </c>
       <c r="D134" t="n">
-        <v>1.1054</v>
+        <v>1.11576</v>
       </c>
       <c r="E134" t="n">
-        <v>0.325951</v>
+        <v>0.339248</v>
       </c>
       <c r="F134" t="n">
-        <v>0.382091</v>
+        <v>0.390711</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.462286</v>
+        <v>0.464498</v>
       </c>
       <c r="C135" t="n">
-        <v>0.599248</v>
+        <v>0.571726</v>
       </c>
       <c r="D135" t="n">
-        <v>0.86963</v>
+        <v>0.8747819999999999</v>
       </c>
       <c r="E135" t="n">
-        <v>0.341087</v>
+        <v>0.341805</v>
       </c>
       <c r="F135" t="n">
-        <v>0.402678</v>
+        <v>0.402918</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.511864</v>
+        <v>0.506602</v>
       </c>
       <c r="C136" t="n">
-        <v>0.66781</v>
+        <v>0.657883</v>
       </c>
       <c r="D136" t="n">
-        <v>0.902679</v>
+        <v>0.899695</v>
       </c>
       <c r="E136" t="n">
-        <v>0.368415</v>
+        <v>0.363953</v>
       </c>
       <c r="F136" t="n">
-        <v>0.434216</v>
+        <v>0.435211</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.61364</v>
+        <v>0.588349</v>
       </c>
       <c r="C137" t="n">
-        <v>0.775023</v>
+        <v>0.741318</v>
       </c>
       <c r="D137" t="n">
-        <v>0.952039</v>
+        <v>0.9305060000000001</v>
       </c>
       <c r="E137" t="n">
-        <v>0.352032</v>
+        <v>0.347834</v>
       </c>
       <c r="F137" t="n">
-        <v>0.384274</v>
+        <v>0.373868</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.445544</v>
+        <v>0.430269</v>
       </c>
       <c r="C138" t="n">
-        <v>0.487555</v>
+        <v>0.483973</v>
       </c>
       <c r="D138" t="n">
-        <v>0.962843</v>
+        <v>0.965437</v>
       </c>
       <c r="E138" t="n">
-        <v>0.353238</v>
+        <v>0.349337</v>
       </c>
       <c r="F138" t="n">
-        <v>0.377463</v>
+        <v>0.378464</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.440319</v>
+        <v>0.440466</v>
       </c>
       <c r="C139" t="n">
-        <v>0.5056850000000001</v>
+        <v>0.5074880000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.99612</v>
+        <v>0.992761</v>
       </c>
       <c r="E139" t="n">
-        <v>0.353963</v>
+        <v>0.365895</v>
       </c>
       <c r="F139" t="n">
-        <v>0.399399</v>
+        <v>0.388411</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.450597</v>
+        <v>0.43882</v>
       </c>
       <c r="C140" t="n">
-        <v>0.511916</v>
+        <v>0.513597</v>
       </c>
       <c r="D140" t="n">
-        <v>1.03646</v>
+        <v>1.03781</v>
       </c>
       <c r="E140" t="n">
-        <v>0.357918</v>
+        <v>0.359225</v>
       </c>
       <c r="F140" t="n">
-        <v>0.391339</v>
+        <v>0.38798</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.455332</v>
+        <v>0.444564</v>
       </c>
       <c r="C141" t="n">
-        <v>0.526127</v>
+        <v>0.52252</v>
       </c>
       <c r="D141" t="n">
-        <v>1.07672</v>
+        <v>1.07817</v>
       </c>
       <c r="E141" t="n">
-        <v>0.368225</v>
+        <v>0.357807</v>
       </c>
       <c r="F141" t="n">
-        <v>0.398652</v>
+        <v>0.394367</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.460361</v>
+        <v>0.444445</v>
       </c>
       <c r="C142" t="n">
-        <v>0.535177</v>
+        <v>0.534587</v>
       </c>
       <c r="D142" t="n">
-        <v>1.10104</v>
+        <v>1.11564</v>
       </c>
       <c r="E142" t="n">
-        <v>0.36292</v>
+        <v>0.362356</v>
       </c>
       <c r="F142" t="n">
-        <v>0.407511</v>
+        <v>0.401133</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.461156</v>
+        <v>0.454087</v>
       </c>
       <c r="C143" t="n">
-        <v>0.544897</v>
+        <v>0.532158</v>
       </c>
       <c r="D143" t="n">
-        <v>1.14604</v>
+        <v>1.15873</v>
       </c>
       <c r="E143" t="n">
-        <v>0.366409</v>
+        <v>0.368535</v>
       </c>
       <c r="F143" t="n">
-        <v>0.409125</v>
+        <v>0.402944</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0598524</v>
+        <v>0.0580045</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0604501</v>
+        <v>0.0582646</v>
       </c>
       <c r="D2" t="n">
-        <v>0.163206</v>
+        <v>0.163114</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0710422</v>
+        <v>0.0712098</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0620645</v>
+        <v>0.0619945</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0599807</v>
+        <v>0.0589771</v>
       </c>
       <c r="C3" t="n">
-        <v>0.062209</v>
+        <v>0.0611433</v>
       </c>
       <c r="D3" t="n">
-        <v>0.167877</v>
+        <v>0.167073</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0717372</v>
+        <v>0.07187</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0624652</v>
+        <v>0.0625676</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06292059999999999</v>
+        <v>0.0614606</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0679023</v>
+        <v>0.0637587</v>
       </c>
       <c r="D4" t="n">
-        <v>0.173438</v>
+        <v>0.172041</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0737052</v>
+        <v>0.0753346</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0640351</v>
+        <v>0.0638749</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0678641</v>
+        <v>0.06789050000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0704673</v>
+        <v>0.0683462</v>
       </c>
       <c r="D5" t="n">
-        <v>0.176543</v>
+        <v>0.176577</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0747698</v>
+        <v>0.074984</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0662103</v>
+        <v>0.06623900000000001</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07645730000000001</v>
+        <v>0.0743554</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0797455</v>
+        <v>0.0753867</v>
       </c>
       <c r="D6" t="n">
-        <v>0.182215</v>
+        <v>0.18098</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07797370000000001</v>
+        <v>0.0781828</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0696715</v>
+        <v>0.0696567</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0893859</v>
+        <v>0.0869347</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0972744</v>
+        <v>0.0884033</v>
       </c>
       <c r="D7" t="n">
-        <v>0.145407</v>
+        <v>0.155553</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0851869</v>
+        <v>0.0869375</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07637770000000001</v>
+        <v>0.0780545</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.118106</v>
+        <v>0.113966</v>
       </c>
       <c r="C8" t="n">
-        <v>0.114555</v>
+        <v>0.106814</v>
       </c>
       <c r="D8" t="n">
-        <v>0.150568</v>
+        <v>0.149925</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0954704</v>
+        <v>0.0959566</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0860267</v>
+        <v>0.0861307</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149274</v>
+        <v>0.146727</v>
       </c>
       <c r="C9" t="n">
-        <v>0.144971</v>
+        <v>0.141178</v>
       </c>
       <c r="D9" t="n">
-        <v>0.154695</v>
+        <v>0.154398</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0690905</v>
+        <v>0.0694613</v>
       </c>
       <c r="F9" t="n">
-        <v>0.061677</v>
+        <v>0.0637559</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0569882</v>
+        <v>0.0571888</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0587545</v>
+        <v>0.0583686</v>
       </c>
       <c r="D10" t="n">
-        <v>0.159657</v>
+        <v>0.159076</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0702115</v>
+        <v>0.0696239</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0609057</v>
+        <v>0.0612889</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.057276</v>
+        <v>0.0574633</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0594812</v>
+        <v>0.0590713</v>
       </c>
       <c r="D11" t="n">
-        <v>0.164004</v>
+        <v>0.163799</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0697985</v>
+        <v>0.07012690000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0616368</v>
+        <v>0.0616889</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.058985</v>
+        <v>0.0581775</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0627564</v>
+        <v>0.0621825</v>
       </c>
       <c r="D12" t="n">
-        <v>0.180797</v>
+        <v>0.169633</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0702933</v>
+        <v>0.0735585</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0618925</v>
+        <v>0.0621694</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0594148</v>
+        <v>0.0582855</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0614551</v>
+        <v>0.0616541</v>
       </c>
       <c r="D13" t="n">
-        <v>0.173745</v>
+        <v>0.173621</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0703746</v>
+        <v>0.07097489999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0624153</v>
+        <v>0.0638768</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0601273</v>
+        <v>0.0602447</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0628309</v>
+        <v>0.0624469</v>
       </c>
       <c r="D14" t="n">
-        <v>0.178883</v>
+        <v>0.18224</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0717716</v>
+        <v>0.0707113</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0629477</v>
+        <v>0.0624707</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.061526</v>
+        <v>0.0605053</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0643402</v>
+        <v>0.0635409</v>
       </c>
       <c r="D15" t="n">
-        <v>0.183558</v>
+        <v>0.182293</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0715081</v>
+        <v>0.07123309999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0634319</v>
+        <v>0.06318840000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0634248</v>
+        <v>0.0621066</v>
       </c>
       <c r="C16" t="n">
-        <v>0.066123</v>
+        <v>0.0652803</v>
       </c>
       <c r="D16" t="n">
-        <v>0.187044</v>
+        <v>0.18869</v>
       </c>
       <c r="E16" t="n">
-        <v>0.07179580000000001</v>
+        <v>0.0716692</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0640733</v>
+        <v>0.0642648</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0650758</v>
+        <v>0.0643664</v>
       </c>
       <c r="C17" t="n">
-        <v>0.06823070000000001</v>
+        <v>0.0673993</v>
       </c>
       <c r="D17" t="n">
-        <v>0.191442</v>
+        <v>0.190656</v>
       </c>
       <c r="E17" t="n">
-        <v>0.07308290000000001</v>
+        <v>0.0732376</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0651928</v>
+        <v>0.0649723</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.068852</v>
+        <v>0.0679223</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0731064</v>
+        <v>0.071766</v>
       </c>
       <c r="D18" t="n">
-        <v>0.196889</v>
+        <v>0.200292</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0744654</v>
+        <v>0.0744163</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0672754</v>
+        <v>0.066507</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.074183</v>
+        <v>0.0720006</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0785457</v>
+        <v>0.0752081</v>
       </c>
       <c r="D19" t="n">
-        <v>0.20194</v>
+        <v>0.201406</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0768616</v>
+        <v>0.07711519999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0694603</v>
+        <v>0.0694256</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0825211</v>
+        <v>0.0883422</v>
       </c>
       <c r="C20" t="n">
-        <v>0.086785</v>
+        <v>0.08192290000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.210026</v>
+        <v>0.212134</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0801196</v>
+        <v>0.0826913</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0753009</v>
+        <v>0.0727988</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0953198</v>
+        <v>0.0938744</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0980644</v>
+        <v>0.09582839999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.15741</v>
+        <v>0.160097</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0859166</v>
+        <v>0.0859335</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0772929</v>
+        <v>0.07768360000000001</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.118316</v>
+        <v>0.115304</v>
       </c>
       <c r="C22" t="n">
-        <v>0.117343</v>
+        <v>0.112302</v>
       </c>
       <c r="D22" t="n">
-        <v>0.164457</v>
+        <v>0.171244</v>
       </c>
       <c r="E22" t="n">
-        <v>0.094846</v>
+        <v>0.09551229999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08625960000000001</v>
+        <v>0.08733109999999999</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.143056</v>
+        <v>0.144118</v>
       </c>
       <c r="C23" t="n">
-        <v>0.145747</v>
+        <v>0.143133</v>
       </c>
       <c r="D23" t="n">
-        <v>0.168531</v>
+        <v>0.167766</v>
       </c>
       <c r="E23" t="n">
-        <v>0.06990440000000001</v>
+        <v>0.0711753</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0631583</v>
+        <v>0.0637621</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0608623</v>
+        <v>0.0607274</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0665356</v>
+        <v>0.0640405</v>
       </c>
       <c r="D24" t="n">
-        <v>0.176764</v>
+        <v>0.17306</v>
       </c>
       <c r="E24" t="n">
-        <v>0.07052509999999999</v>
+        <v>0.07025090000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0639146</v>
+        <v>0.0642317</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.061551</v>
+        <v>0.0627988</v>
       </c>
       <c r="C25" t="n">
-        <v>0.06586789999999999</v>
+        <v>0.0650709</v>
       </c>
       <c r="D25" t="n">
-        <v>0.18496</v>
+        <v>0.18243</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0705252</v>
+        <v>0.0709544</v>
       </c>
       <c r="F25" t="n">
-        <v>0.06575640000000001</v>
+        <v>0.0647611</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0622696</v>
+        <v>0.062105</v>
       </c>
       <c r="C26" t="n">
-        <v>0.065955</v>
+        <v>0.06600780000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.184403</v>
+        <v>0.186919</v>
       </c>
       <c r="E26" t="n">
-        <v>0.07123980000000001</v>
+        <v>0.07110569999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0673431</v>
+        <v>0.06457830000000001</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0621566</v>
+        <v>0.0629291</v>
       </c>
       <c r="C27" t="n">
-        <v>0.06625399999999999</v>
+        <v>0.0669175</v>
       </c>
       <c r="D27" t="n">
-        <v>0.190514</v>
+        <v>0.193439</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0730398</v>
+        <v>0.0713246</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0654725</v>
+        <v>0.0650179</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0638962</v>
+        <v>0.0635401</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0679587</v>
+        <v>0.0681382</v>
       </c>
       <c r="D28" t="n">
-        <v>0.196619</v>
+        <v>0.199113</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0745142</v>
+        <v>0.0733738</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0672302</v>
+        <v>0.066063</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.06466139999999999</v>
+        <v>0.0647717</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0696864</v>
+        <v>0.0698484</v>
       </c>
       <c r="D29" t="n">
-        <v>0.201182</v>
+        <v>0.205815</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0722796</v>
+        <v>0.07224369999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06635340000000001</v>
+        <v>0.0666105</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0662061</v>
+        <v>0.0657243</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0706982</v>
+        <v>0.071284</v>
       </c>
       <c r="D30" t="n">
-        <v>0.204543</v>
+        <v>0.21117</v>
       </c>
       <c r="E30" t="n">
-        <v>0.07318089999999999</v>
+        <v>0.0732999</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06720139999999999</v>
+        <v>0.06783400000000001</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0707699</v>
+        <v>0.0684693</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0736636</v>
+        <v>0.07463839999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.215621</v>
+        <v>0.213168</v>
       </c>
       <c r="E31" t="n">
-        <v>0.074947</v>
+        <v>0.0745566</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06869359999999999</v>
+        <v>0.06904589999999999</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.071501</v>
+        <v>0.07149270000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07692019999999999</v>
+        <v>0.077238</v>
       </c>
       <c r="D32" t="n">
-        <v>0.217068</v>
+        <v>0.220667</v>
       </c>
       <c r="E32" t="n">
-        <v>0.07613209999999999</v>
+        <v>0.0763959</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0703022</v>
+        <v>0.0705305</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0768518</v>
+        <v>0.0766111</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0818624</v>
+        <v>0.0819865</v>
       </c>
       <c r="D33" t="n">
-        <v>0.223565</v>
+        <v>0.229048</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0807795</v>
+        <v>0.0784397</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0732681</v>
+        <v>0.0729751</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0833742</v>
+        <v>0.0827005</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0880367</v>
+        <v>0.0879262</v>
       </c>
       <c r="D34" t="n">
-        <v>0.226696</v>
+        <v>0.232315</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0815447</v>
+        <v>0.0839942</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0758457</v>
+        <v>0.0768918</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0943595</v>
+        <v>0.0943649</v>
       </c>
       <c r="C35" t="n">
-        <v>0.100635</v>
+        <v>0.105396</v>
       </c>
       <c r="D35" t="n">
-        <v>0.170574</v>
+        <v>0.174525</v>
       </c>
       <c r="E35" t="n">
-        <v>0.08841010000000001</v>
+        <v>0.0895801</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0818855</v>
+        <v>0.0821166</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.113396</v>
+        <v>0.111297</v>
       </c>
       <c r="C36" t="n">
-        <v>0.117549</v>
+        <v>0.114869</v>
       </c>
       <c r="D36" t="n">
-        <v>0.177497</v>
+        <v>0.179711</v>
       </c>
       <c r="E36" t="n">
-        <v>0.09701220000000001</v>
+        <v>0.0978564</v>
       </c>
       <c r="F36" t="n">
-        <v>0.09100900000000001</v>
+        <v>0.0911476</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1433</v>
+        <v>0.143924</v>
       </c>
       <c r="C37" t="n">
-        <v>0.147613</v>
+        <v>0.14397</v>
       </c>
       <c r="D37" t="n">
-        <v>0.185832</v>
+        <v>0.192674</v>
       </c>
       <c r="E37" t="n">
-        <v>0.07273350000000001</v>
+        <v>0.07363989999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0676185</v>
+        <v>0.0688019</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.06658210000000001</v>
+        <v>0.0665622</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0709969</v>
+        <v>0.0724518</v>
       </c>
       <c r="D38" t="n">
-        <v>0.190881</v>
+        <v>0.196003</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0721932</v>
+        <v>0.0727462</v>
       </c>
       <c r="F38" t="n">
-        <v>0.06763130000000001</v>
+        <v>0.0683319</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0662257</v>
+        <v>0.06676849999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.072851</v>
+        <v>0.0757007</v>
       </c>
       <c r="D39" t="n">
-        <v>0.200982</v>
+        <v>0.202243</v>
       </c>
       <c r="E39" t="n">
-        <v>0.07312490000000001</v>
+        <v>0.07331699999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>0.06881760000000001</v>
+        <v>0.0689486</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0670224</v>
+        <v>0.06822159999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0748745</v>
+        <v>0.073522</v>
       </c>
       <c r="D40" t="n">
-        <v>0.210471</v>
+        <v>0.210853</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0734942</v>
+        <v>0.0732667</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0696198</v>
+        <v>0.0697612</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0674881</v>
+        <v>0.0687069</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0749697</v>
+        <v>0.0768475</v>
       </c>
       <c r="D41" t="n">
-        <v>0.21646</v>
+        <v>0.219694</v>
       </c>
       <c r="E41" t="n">
-        <v>0.07343909999999999</v>
+        <v>0.0739273</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0699067</v>
+        <v>0.070897</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0692705</v>
+        <v>0.07324550000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07651289999999999</v>
+        <v>0.0836219</v>
       </c>
       <c r="D42" t="n">
-        <v>0.226533</v>
+        <v>0.22867</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0738487</v>
+        <v>0.0743694</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0725973</v>
+        <v>0.071214</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.07045410000000001</v>
+        <v>0.0698619</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0807208</v>
+        <v>0.0803021</v>
       </c>
       <c r="D43" t="n">
-        <v>0.238853</v>
+        <v>0.238574</v>
       </c>
       <c r="E43" t="n">
-        <v>0.07470250000000001</v>
+        <v>0.0759402</v>
       </c>
       <c r="F43" t="n">
-        <v>0.07206410000000001</v>
+        <v>0.07312920000000001</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0711782</v>
+        <v>0.07220989999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.08203770000000001</v>
+        <v>0.08155270000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.245639</v>
+        <v>0.246776</v>
       </c>
       <c r="E44" t="n">
-        <v>0.07598249999999999</v>
+        <v>0.0759967</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0733323</v>
+        <v>0.0731865</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0736898</v>
+        <v>0.0731922</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0853452</v>
+        <v>0.0842325</v>
       </c>
       <c r="D45" t="n">
-        <v>0.25149</v>
+        <v>0.260662</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0764555</v>
+        <v>0.0766949</v>
       </c>
       <c r="F45" t="n">
-        <v>0.074612</v>
+        <v>0.07582659999999999</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0764653</v>
+        <v>0.0766482</v>
       </c>
       <c r="C46" t="n">
-        <v>0.08903030000000001</v>
+        <v>0.08877309999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.265351</v>
+        <v>0.267523</v>
       </c>
       <c r="E46" t="n">
-        <v>0.078152</v>
+        <v>0.0785242</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0766729</v>
+        <v>0.0771013</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0809815</v>
+        <v>0.08680010000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0943094</v>
+        <v>0.09640269999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.277205</v>
+        <v>0.279476</v>
       </c>
       <c r="E47" t="n">
-        <v>0.08094700000000001</v>
+        <v>0.08075019999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>0.079123</v>
+        <v>0.0797354</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0884071</v>
+        <v>0.0890542</v>
       </c>
       <c r="C48" t="n">
-        <v>0.103176</v>
+        <v>0.102256</v>
       </c>
       <c r="D48" t="n">
-        <v>0.291874</v>
+        <v>0.290651</v>
       </c>
       <c r="E48" t="n">
-        <v>0.08395610000000001</v>
+        <v>0.0838052</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0832099</v>
+        <v>0.0830766</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0991911</v>
+        <v>0.0972557</v>
       </c>
       <c r="C49" t="n">
-        <v>0.114608</v>
+        <v>0.112851</v>
       </c>
       <c r="D49" t="n">
-        <v>0.305393</v>
+        <v>0.309836</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0887994</v>
+        <v>0.0893666</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0883144</v>
+        <v>0.089166</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.114042</v>
+        <v>0.115825</v>
       </c>
       <c r="C50" t="n">
-        <v>0.130493</v>
+        <v>0.130408</v>
       </c>
       <c r="D50" t="n">
-        <v>0.222017</v>
+        <v>0.220961</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0968126</v>
+        <v>0.0973772</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0972802</v>
+        <v>0.0974674</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.144594</v>
+        <v>0.142206</v>
       </c>
       <c r="C51" t="n">
-        <v>0.156568</v>
+        <v>0.162051</v>
       </c>
       <c r="D51" t="n">
-        <v>0.234687</v>
+        <v>0.232242</v>
       </c>
       <c r="E51" t="n">
-        <v>0.07751959999999999</v>
+        <v>0.07906150000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>0.07575369999999999</v>
+        <v>0.0753525</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.183382</v>
+        <v>0.1826</v>
       </c>
       <c r="C52" t="n">
-        <v>0.198109</v>
+        <v>0.195766</v>
       </c>
       <c r="D52" t="n">
-        <v>0.244636</v>
+        <v>0.242442</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0779228</v>
+        <v>0.0821655</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0764773</v>
+        <v>0.0768115</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.07683039999999999</v>
+        <v>0.0777293</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0897371</v>
+        <v>0.0901457</v>
       </c>
       <c r="D53" t="n">
-        <v>0.256149</v>
+        <v>0.256432</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0784509</v>
+        <v>0.07852389999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>0.07710839999999999</v>
+        <v>0.0776659</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0777789</v>
+        <v>0.0784521</v>
       </c>
       <c r="C54" t="n">
-        <v>0.09211179999999999</v>
+        <v>0.092026</v>
       </c>
       <c r="D54" t="n">
-        <v>0.265248</v>
+        <v>0.269898</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0784624</v>
+        <v>0.0792759</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0780059</v>
+        <v>0.0786505</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.07869859999999999</v>
+        <v>0.0799388</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0929715</v>
+        <v>0.0985079</v>
       </c>
       <c r="D55" t="n">
-        <v>0.278273</v>
+        <v>0.291301</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0788026</v>
+        <v>0.0792983</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0785352</v>
+        <v>0.079154</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0799676</v>
+        <v>0.081028</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0953951</v>
+        <v>0.0955242</v>
       </c>
       <c r="D56" t="n">
-        <v>0.295893</v>
+        <v>0.296895</v>
       </c>
       <c r="E56" t="n">
-        <v>0.07970190000000001</v>
+        <v>0.07963240000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0796606</v>
+        <v>0.08015609999999999</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0808223</v>
+        <v>0.0818199</v>
       </c>
       <c r="C57" t="n">
-        <v>0.09922300000000001</v>
+        <v>0.097649</v>
       </c>
       <c r="D57" t="n">
-        <v>0.312781</v>
+        <v>0.318162</v>
       </c>
       <c r="E57" t="n">
-        <v>0.08147840000000001</v>
+        <v>0.08638419999999999</v>
       </c>
       <c r="F57" t="n">
-        <v>0.08210679999999999</v>
+        <v>0.0815321</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.08345619999999999</v>
+        <v>0.08323940000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.102172</v>
+        <v>0.10137</v>
       </c>
       <c r="D58" t="n">
-        <v>0.326665</v>
+        <v>0.3276</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0822695</v>
+        <v>0.0819785</v>
       </c>
       <c r="F58" t="n">
-        <v>0.083444</v>
+        <v>0.0830074</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0869282</v>
+        <v>0.0857951</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1055</v>
+        <v>0.104562</v>
       </c>
       <c r="D59" t="n">
-        <v>0.342858</v>
+        <v>0.358969</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0830925</v>
+        <v>0.0860279</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0849357</v>
+        <v>0.08471860000000001</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0888912</v>
+        <v>0.0886937</v>
       </c>
       <c r="C60" t="n">
-        <v>0.112031</v>
+        <v>0.108606</v>
       </c>
       <c r="D60" t="n">
-        <v>0.360413</v>
+        <v>0.370977</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0849883</v>
+        <v>0.0845943</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0875461</v>
+        <v>0.0911645</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0944055</v>
+        <v>0.09797939999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.116006</v>
+        <v>0.116313</v>
       </c>
       <c r="D61" t="n">
-        <v>0.398665</v>
+        <v>0.404303</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0870215</v>
+        <v>0.0877839</v>
       </c>
       <c r="F61" t="n">
-        <v>0.09000519999999999</v>
+        <v>0.0900614</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.09915</v>
+        <v>0.0991747</v>
       </c>
       <c r="C62" t="n">
-        <v>0.124216</v>
+        <v>0.124294</v>
       </c>
       <c r="D62" t="n">
-        <v>0.402337</v>
+        <v>0.427265</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0905092</v>
+        <v>0.09044099999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>0.09395199999999999</v>
+        <v>0.0945965</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.108645</v>
+        <v>0.109153</v>
       </c>
       <c r="C63" t="n">
-        <v>0.136739</v>
+        <v>0.134189</v>
       </c>
       <c r="D63" t="n">
-        <v>0.42493</v>
+        <v>0.439641</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0956385</v>
+        <v>0.0948823</v>
       </c>
       <c r="F63" t="n">
-        <v>0.100093</v>
+        <v>0.09893399999999999</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.124353</v>
+        <v>0.12208</v>
       </c>
       <c r="C64" t="n">
-        <v>0.162024</v>
+        <v>0.15203</v>
       </c>
       <c r="D64" t="n">
-        <v>0.313692</v>
+        <v>0.350424</v>
       </c>
       <c r="E64" t="n">
-        <v>0.103239</v>
+        <v>0.102833</v>
       </c>
       <c r="F64" t="n">
-        <v>0.10853</v>
+        <v>0.108546</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.147746</v>
+        <v>0.146581</v>
       </c>
       <c r="C65" t="n">
-        <v>0.182465</v>
+        <v>0.178982</v>
       </c>
       <c r="D65" t="n">
-        <v>0.331996</v>
+        <v>0.359165</v>
       </c>
       <c r="E65" t="n">
-        <v>0.11649</v>
+        <v>0.116158</v>
       </c>
       <c r="F65" t="n">
-        <v>0.123865</v>
+        <v>0.122729</v>
       </c>
     </row>
     <row r="66">
@@ -6367,16 +6367,16 @@
         <v>0.186035</v>
       </c>
       <c r="C66" t="n">
-        <v>0.226055</v>
+        <v>0.228745</v>
       </c>
       <c r="D66" t="n">
-        <v>0.352732</v>
+        <v>0.359525</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0828125</v>
+        <v>0.0823801</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0842734</v>
+        <v>0.08399669999999999</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0874601</v>
+        <v>0.0902386</v>
       </c>
       <c r="C67" t="n">
-        <v>0.107303</v>
+        <v>0.106363</v>
       </c>
       <c r="D67" t="n">
-        <v>0.369809</v>
+        <v>0.370289</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0833719</v>
+        <v>0.0834102</v>
       </c>
       <c r="F67" t="n">
-        <v>0.085386</v>
+        <v>0.0857116</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0887283</v>
+        <v>0.089045</v>
       </c>
       <c r="C68" t="n">
-        <v>0.109778</v>
+        <v>0.110655</v>
       </c>
       <c r="D68" t="n">
-        <v>0.392037</v>
+        <v>0.389797</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0838555</v>
+        <v>0.0852285</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0866133</v>
+        <v>0.086061</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0895608</v>
+        <v>0.0887587</v>
       </c>
       <c r="C69" t="n">
-        <v>0.119018</v>
+        <v>0.113493</v>
       </c>
       <c r="D69" t="n">
-        <v>0.412503</v>
+        <v>0.410806</v>
       </c>
       <c r="E69" t="n">
-        <v>0.08446620000000001</v>
+        <v>0.0848129</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0874863</v>
+        <v>0.0883727</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.093636</v>
+        <v>0.0914338</v>
       </c>
       <c r="C70" t="n">
-        <v>0.114797</v>
+        <v>0.115798</v>
       </c>
       <c r="D70" t="n">
-        <v>0.435936</v>
+        <v>0.425911</v>
       </c>
       <c r="E70" t="n">
-        <v>0.08589810000000001</v>
+        <v>0.0851773</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0900487</v>
+        <v>0.0892459</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.09382</v>
+        <v>0.0931037</v>
       </c>
       <c r="C71" t="n">
-        <v>0.119261</v>
+        <v>0.123963</v>
       </c>
       <c r="D71" t="n">
-        <v>0.494499</v>
+        <v>0.454232</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0865317</v>
+        <v>0.08902690000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0909997</v>
+        <v>0.0918107</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0961486</v>
+        <v>0.0953055</v>
       </c>
       <c r="C72" t="n">
-        <v>0.12256</v>
+        <v>0.122157</v>
       </c>
       <c r="D72" t="n">
-        <v>0.483283</v>
+        <v>0.51079</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0884349</v>
+        <v>0.0875476</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09546689999999999</v>
+        <v>0.09353309999999999</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.100395</v>
+        <v>0.101744</v>
       </c>
       <c r="C73" t="n">
-        <v>0.12962</v>
+        <v>0.134164</v>
       </c>
       <c r="D73" t="n">
-        <v>0.527813</v>
+        <v>0.506336</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0908663</v>
+        <v>0.0904055</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0978729</v>
+        <v>0.095689</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.104162</v>
+        <v>0.102489</v>
       </c>
       <c r="C74" t="n">
-        <v>0.135766</v>
+        <v>0.137535</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5685170000000001</v>
+        <v>0.5270089999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0921616</v>
+        <v>0.0921452</v>
       </c>
       <c r="F74" t="n">
-        <v>0.09978099999999999</v>
+        <v>0.100206</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.106499</v>
+        <v>0.106108</v>
       </c>
       <c r="C75" t="n">
-        <v>0.143268</v>
+        <v>0.139634</v>
       </c>
       <c r="D75" t="n">
-        <v>0.596996</v>
+        <v>0.617166</v>
       </c>
       <c r="E75" t="n">
-        <v>0.094011</v>
+        <v>0.0969753</v>
       </c>
       <c r="F75" t="n">
-        <v>0.10299</v>
+        <v>0.104551</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.112904</v>
+        <v>0.112639</v>
       </c>
       <c r="C76" t="n">
-        <v>0.155404</v>
+        <v>0.155235</v>
       </c>
       <c r="D76" t="n">
-        <v>0.621078</v>
+        <v>0.578672</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0997849</v>
+        <v>0.0974872</v>
       </c>
       <c r="F76" t="n">
-        <v>0.113188</v>
+        <v>0.109071</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.126218</v>
+        <v>0.120812</v>
       </c>
       <c r="C77" t="n">
-        <v>0.169356</v>
+        <v>0.166122</v>
       </c>
       <c r="D77" t="n">
-        <v>0.649921</v>
+        <v>0.635617</v>
       </c>
       <c r="E77" t="n">
-        <v>0.102995</v>
+        <v>0.102343</v>
       </c>
       <c r="F77" t="n">
-        <v>0.11539</v>
+        <v>0.114076</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.145852</v>
+        <v>0.143479</v>
       </c>
       <c r="C78" t="n">
-        <v>0.198185</v>
+        <v>0.186867</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5035809999999999</v>
+        <v>0.451964</v>
       </c>
       <c r="E78" t="n">
-        <v>0.115209</v>
+        <v>0.113116</v>
       </c>
       <c r="F78" t="n">
-        <v>0.132266</v>
+        <v>0.131828</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.168635</v>
+        <v>0.163725</v>
       </c>
       <c r="C79" t="n">
-        <v>0.238026</v>
+        <v>0.217392</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5129089999999999</v>
+        <v>0.483835</v>
       </c>
       <c r="E79" t="n">
-        <v>0.130516</v>
+        <v>0.125193</v>
       </c>
       <c r="F79" t="n">
-        <v>0.143269</v>
+        <v>0.1418</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.201925</v>
+        <v>0.208048</v>
       </c>
       <c r="C80" t="n">
-        <v>0.270273</v>
+        <v>0.27183</v>
       </c>
       <c r="D80" t="n">
-        <v>0.529546</v>
+        <v>0.495973</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0878789</v>
+        <v>0.0883454</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0947881</v>
+        <v>0.09438729999999999</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0990876</v>
+        <v>0.09881470000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>0.134351</v>
+        <v>0.129809</v>
       </c>
       <c r="D81" t="n">
-        <v>0.549691</v>
+        <v>0.510999</v>
       </c>
       <c r="E81" t="n">
-        <v>0.09056359999999999</v>
+        <v>0.08917990000000001</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09786599999999999</v>
+        <v>0.101725</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.10099</v>
+        <v>0.102677</v>
       </c>
       <c r="C82" t="n">
-        <v>0.137249</v>
+        <v>0.144887</v>
       </c>
       <c r="D82" t="n">
-        <v>0.537588</v>
+        <v>0.538348</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0900325</v>
+        <v>0.09374349999999999</v>
       </c>
       <c r="F82" t="n">
-        <v>0.09944600000000001</v>
+        <v>0.10066</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.103163</v>
+        <v>0.102464</v>
       </c>
       <c r="C83" t="n">
-        <v>0.142638</v>
+        <v>0.140359</v>
       </c>
       <c r="D83" t="n">
-        <v>0.561052</v>
+        <v>0.562077</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0922741</v>
+        <v>0.0938179</v>
       </c>
       <c r="F83" t="n">
-        <v>0.102776</v>
+        <v>0.102007</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.106515</v>
+        <v>0.10975</v>
       </c>
       <c r="C84" t="n">
-        <v>0.151457</v>
+        <v>0.152232</v>
       </c>
       <c r="D84" t="n">
-        <v>0.6058750000000001</v>
+        <v>0.579219</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0940025</v>
+        <v>0.0929598</v>
       </c>
       <c r="F84" t="n">
-        <v>0.107157</v>
+        <v>0.104533</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.110439</v>
+        <v>0.110939</v>
       </c>
       <c r="C85" t="n">
-        <v>0.155268</v>
+        <v>0.155553</v>
       </c>
       <c r="D85" t="n">
-        <v>0.604479</v>
+        <v>0.610643</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0977785</v>
+        <v>0.0954045</v>
       </c>
       <c r="F85" t="n">
-        <v>0.107767</v>
+        <v>0.108752</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.117764</v>
+        <v>0.112515</v>
       </c>
       <c r="C86" t="n">
-        <v>0.161052</v>
+        <v>0.162156</v>
       </c>
       <c r="D86" t="n">
-        <v>0.671918</v>
+        <v>0.643543</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0980311</v>
+        <v>0.0978084</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1128</v>
+        <v>0.112454</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.118129</v>
+        <v>0.118093</v>
       </c>
       <c r="C87" t="n">
-        <v>0.166047</v>
+        <v>0.164612</v>
       </c>
       <c r="D87" t="n">
-        <v>0.6571630000000001</v>
+        <v>0.6637</v>
       </c>
       <c r="E87" t="n">
-        <v>0.09928190000000001</v>
+        <v>0.0985075</v>
       </c>
       <c r="F87" t="n">
-        <v>0.115985</v>
+        <v>0.114731</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.123257</v>
+        <v>0.121336</v>
       </c>
       <c r="C88" t="n">
-        <v>0.174938</v>
+        <v>0.173255</v>
       </c>
       <c r="D88" t="n">
-        <v>0.683605</v>
+        <v>0.684731</v>
       </c>
       <c r="E88" t="n">
-        <v>0.102175</v>
+        <v>0.102138</v>
       </c>
       <c r="F88" t="n">
-        <v>0.123829</v>
+        <v>0.119917</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.129193</v>
+        <v>0.129455</v>
       </c>
       <c r="C89" t="n">
-        <v>0.192641</v>
+        <v>0.187825</v>
       </c>
       <c r="D89" t="n">
-        <v>0.732112</v>
+        <v>0.712145</v>
       </c>
       <c r="E89" t="n">
-        <v>0.109011</v>
+        <v>0.106486</v>
       </c>
       <c r="F89" t="n">
-        <v>0.129617</v>
+        <v>0.129526</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.138981</v>
+        <v>0.137507</v>
       </c>
       <c r="C90" t="n">
-        <v>0.19585</v>
+        <v>0.193684</v>
       </c>
       <c r="D90" t="n">
-        <v>0.735689</v>
+        <v>0.738401</v>
       </c>
       <c r="E90" t="n">
-        <v>0.110436</v>
+        <v>0.110345</v>
       </c>
       <c r="F90" t="n">
-        <v>0.134871</v>
+        <v>0.131805</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.147798</v>
+        <v>0.148082</v>
       </c>
       <c r="C91" t="n">
-        <v>0.212608</v>
+        <v>0.21182</v>
       </c>
       <c r="D91" t="n">
-        <v>0.765054</v>
+        <v>0.786308</v>
       </c>
       <c r="E91" t="n">
-        <v>0.115945</v>
+        <v>0.115472</v>
       </c>
       <c r="F91" t="n">
-        <v>0.15068</v>
+        <v>0.13862</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.161951</v>
+        <v>0.162034</v>
       </c>
       <c r="C92" t="n">
-        <v>0.24014</v>
+        <v>0.233186</v>
       </c>
       <c r="D92" t="n">
-        <v>0.580943</v>
+        <v>0.579152</v>
       </c>
       <c r="E92" t="n">
-        <v>0.12455</v>
+        <v>0.124088</v>
       </c>
       <c r="F92" t="n">
-        <v>0.151654</v>
+        <v>0.150463</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.18659</v>
+        <v>0.18645</v>
       </c>
       <c r="C93" t="n">
-        <v>0.269785</v>
+        <v>0.276435</v>
       </c>
       <c r="D93" t="n">
-        <v>0.604777</v>
+        <v>0.604178</v>
       </c>
       <c r="E93" t="n">
-        <v>0.138453</v>
+        <v>0.138562</v>
       </c>
       <c r="F93" t="n">
-        <v>0.168728</v>
+        <v>0.171886</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.222678</v>
+        <v>0.224839</v>
       </c>
       <c r="C94" t="n">
-        <v>0.321817</v>
+        <v>0.317469</v>
       </c>
       <c r="D94" t="n">
-        <v>0.62155</v>
+        <v>0.628119</v>
       </c>
       <c r="E94" t="n">
-        <v>0.107707</v>
+        <v>0.107777</v>
       </c>
       <c r="F94" t="n">
-        <v>0.126863</v>
+        <v>0.127218</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.129161</v>
+        <v>0.129012</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1811</v>
+        <v>0.177651</v>
       </c>
       <c r="D95" t="n">
-        <v>0.639576</v>
+        <v>0.642</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1089</v>
+        <v>0.108894</v>
       </c>
       <c r="F95" t="n">
-        <v>0.137084</v>
+        <v>0.1287</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.131762</v>
+        <v>0.130645</v>
       </c>
       <c r="C96" t="n">
-        <v>0.186283</v>
+        <v>0.182357</v>
       </c>
       <c r="D96" t="n">
-        <v>0.667853</v>
+        <v>0.661062</v>
       </c>
       <c r="E96" t="n">
-        <v>0.118665</v>
+        <v>0.110382</v>
       </c>
       <c r="F96" t="n">
-        <v>0.133707</v>
+        <v>0.13229</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.137049</v>
+        <v>0.137847</v>
       </c>
       <c r="C97" t="n">
-        <v>0.191952</v>
+        <v>0.188974</v>
       </c>
       <c r="D97" t="n">
-        <v>0.687943</v>
+        <v>0.703987</v>
       </c>
       <c r="E97" t="n">
-        <v>0.115231</v>
+        <v>0.113293</v>
       </c>
       <c r="F97" t="n">
-        <v>0.135738</v>
+        <v>0.138834</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.135954</v>
+        <v>0.136452</v>
       </c>
       <c r="C98" t="n">
-        <v>0.199748</v>
+        <v>0.194913</v>
       </c>
       <c r="D98" t="n">
-        <v>0.711933</v>
+        <v>0.728163</v>
       </c>
       <c r="E98" t="n">
-        <v>0.114585</v>
+        <v>0.116503</v>
       </c>
       <c r="F98" t="n">
-        <v>0.139723</v>
+        <v>0.140117</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.142501</v>
+        <v>0.141837</v>
       </c>
       <c r="C99" t="n">
-        <v>0.209735</v>
+        <v>0.202211</v>
       </c>
       <c r="D99" t="n">
-        <v>0.754142</v>
+        <v>0.737731</v>
       </c>
       <c r="E99" t="n">
-        <v>0.118477</v>
+        <v>0.117491</v>
       </c>
       <c r="F99" t="n">
-        <v>0.145357</v>
+        <v>0.145863</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.144125</v>
+        <v>0.144118</v>
       </c>
       <c r="C100" t="n">
-        <v>0.208148</v>
+        <v>0.20905</v>
       </c>
       <c r="D100" t="n">
-        <v>0.755213</v>
+        <v>0.756864</v>
       </c>
       <c r="E100" t="n">
-        <v>0.118923</v>
+        <v>0.119948</v>
       </c>
       <c r="F100" t="n">
-        <v>0.148904</v>
+        <v>0.148278</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1496</v>
+        <v>0.149106</v>
       </c>
       <c r="C101" t="n">
-        <v>0.215211</v>
+        <v>0.218003</v>
       </c>
       <c r="D101" t="n">
-        <v>0.812419</v>
+        <v>0.786177</v>
       </c>
       <c r="E101" t="n">
-        <v>0.122744</v>
+        <v>0.122096</v>
       </c>
       <c r="F101" t="n">
-        <v>0.153293</v>
+        <v>0.152983</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.153633</v>
+        <v>0.154965</v>
       </c>
       <c r="C102" t="n">
-        <v>0.230024</v>
+        <v>0.22599</v>
       </c>
       <c r="D102" t="n">
-        <v>0.828404</v>
+        <v>0.815712</v>
       </c>
       <c r="E102" t="n">
-        <v>0.124298</v>
+        <v>0.125301</v>
       </c>
       <c r="F102" t="n">
-        <v>0.156766</v>
+        <v>0.158224</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.161363</v>
+        <v>0.160722</v>
       </c>
       <c r="C103" t="n">
-        <v>0.236274</v>
+        <v>0.238299</v>
       </c>
       <c r="D103" t="n">
-        <v>0.843021</v>
+        <v>0.841803</v>
       </c>
       <c r="E103" t="n">
-        <v>0.129105</v>
+        <v>0.132003</v>
       </c>
       <c r="F103" t="n">
-        <v>0.167036</v>
+        <v>0.162807</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.169857</v>
+        <v>0.170497</v>
       </c>
       <c r="C104" t="n">
-        <v>0.252392</v>
+        <v>0.248173</v>
       </c>
       <c r="D104" t="n">
-        <v>0.8626819999999999</v>
+        <v>0.866658</v>
       </c>
       <c r="E104" t="n">
-        <v>0.131756</v>
+        <v>0.134381</v>
       </c>
       <c r="F104" t="n">
-        <v>0.168659</v>
+        <v>0.172656</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.178556</v>
+        <v>0.179455</v>
       </c>
       <c r="C105" t="n">
-        <v>0.26816</v>
+        <v>0.267991</v>
       </c>
       <c r="D105" t="n">
-        <v>0.8824340000000001</v>
+        <v>0.903227</v>
       </c>
       <c r="E105" t="n">
-        <v>0.13766</v>
+        <v>0.137831</v>
       </c>
       <c r="F105" t="n">
-        <v>0.196316</v>
+        <v>0.179825</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.194099</v>
+        <v>0.195619</v>
       </c>
       <c r="C106" t="n">
-        <v>0.292564</v>
+        <v>0.29411</v>
       </c>
       <c r="D106" t="n">
-        <v>0.931454</v>
+        <v>0.928222</v>
       </c>
       <c r="E106" t="n">
-        <v>0.147562</v>
+        <v>0.146501</v>
       </c>
       <c r="F106" t="n">
-        <v>0.193364</v>
+        <v>0.191943</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.221078</v>
+        <v>0.219668</v>
       </c>
       <c r="C107" t="n">
-        <v>0.33057</v>
+        <v>0.325181</v>
       </c>
       <c r="D107" t="n">
-        <v>0.697273</v>
+        <v>0.691308</v>
       </c>
       <c r="E107" t="n">
-        <v>0.16129</v>
+        <v>0.15929</v>
       </c>
       <c r="F107" t="n">
-        <v>0.210711</v>
+        <v>0.211757</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.263253</v>
+        <v>0.263177</v>
       </c>
       <c r="C108" t="n">
-        <v>0.38979</v>
+        <v>0.382411</v>
       </c>
       <c r="D108" t="n">
-        <v>0.772015</v>
+        <v>0.709299</v>
       </c>
       <c r="E108" t="n">
-        <v>0.180354</v>
+        <v>0.17533</v>
       </c>
       <c r="F108" t="n">
-        <v>0.203363</v>
+        <v>0.199709</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.329709</v>
+        <v>0.326336</v>
       </c>
       <c r="C109" t="n">
-        <v>0.485973</v>
+        <v>0.480868</v>
       </c>
       <c r="D109" t="n">
-        <v>0.751458</v>
+        <v>0.771899</v>
       </c>
       <c r="E109" t="n">
-        <v>0.190139</v>
+        <v>0.175823</v>
       </c>
       <c r="F109" t="n">
-        <v>0.206459</v>
+        <v>0.206528</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.215081</v>
+        <v>0.207793</v>
       </c>
       <c r="C110" t="n">
-        <v>0.263579</v>
+        <v>0.265551</v>
       </c>
       <c r="D110" t="n">
-        <v>0.790923</v>
+        <v>0.752704</v>
       </c>
       <c r="E110" t="n">
-        <v>0.18516</v>
+        <v>0.175456</v>
       </c>
       <c r="F110" t="n">
-        <v>0.205877</v>
+        <v>0.206733</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.213148</v>
+        <v>0.214297</v>
       </c>
       <c r="C111" t="n">
-        <v>0.297134</v>
+        <v>0.276307</v>
       </c>
       <c r="D111" t="n">
-        <v>0.8133320000000001</v>
+        <v>0.792814</v>
       </c>
       <c r="E111" t="n">
-        <v>0.193414</v>
+        <v>0.185365</v>
       </c>
       <c r="F111" t="n">
-        <v>0.210331</v>
+        <v>0.208839</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.215329</v>
+        <v>0.216363</v>
       </c>
       <c r="C112" t="n">
-        <v>0.28536</v>
+        <v>0.280363</v>
       </c>
       <c r="D112" t="n">
-        <v>0.873015</v>
+        <v>0.800084</v>
       </c>
       <c r="E112" t="n">
-        <v>0.196767</v>
+        <v>0.182192</v>
       </c>
       <c r="F112" t="n">
-        <v>0.222609</v>
+        <v>0.216058</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.220038</v>
+        <v>0.246107</v>
       </c>
       <c r="C113" t="n">
-        <v>0.289397</v>
+        <v>0.286978</v>
       </c>
       <c r="D113" t="n">
-        <v>0.8200499999999999</v>
+        <v>0.842654</v>
       </c>
       <c r="E113" t="n">
-        <v>0.18276</v>
+        <v>0.183889</v>
       </c>
       <c r="F113" t="n">
-        <v>0.219699</v>
+        <v>0.216046</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.244403</v>
+        <v>0.243572</v>
       </c>
       <c r="C114" t="n">
-        <v>0.293634</v>
+        <v>0.295734</v>
       </c>
       <c r="D114" t="n">
-        <v>0.899628</v>
+        <v>0.848626</v>
       </c>
       <c r="E114" t="n">
-        <v>0.204984</v>
+        <v>0.18812</v>
       </c>
       <c r="F114" t="n">
-        <v>0.242162</v>
+        <v>0.219697</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.226372</v>
+        <v>0.227623</v>
       </c>
       <c r="C115" t="n">
-        <v>0.330177</v>
+        <v>0.308645</v>
       </c>
       <c r="D115" t="n">
-        <v>0.8600370000000001</v>
+        <v>0.874996</v>
       </c>
       <c r="E115" t="n">
-        <v>0.18804</v>
+        <v>0.190212</v>
       </c>
       <c r="F115" t="n">
-        <v>0.22956</v>
+        <v>0.233528</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.238006</v>
+        <v>0.233877</v>
       </c>
       <c r="C116" t="n">
-        <v>0.333458</v>
+        <v>0.325098</v>
       </c>
       <c r="D116" t="n">
-        <v>0.886478</v>
+        <v>0.89664</v>
       </c>
       <c r="E116" t="n">
-        <v>0.192258</v>
+        <v>0.19136</v>
       </c>
       <c r="F116" t="n">
-        <v>0.233366</v>
+        <v>0.236288</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.240383</v>
+        <v>0.242254</v>
       </c>
       <c r="C117" t="n">
-        <v>0.323175</v>
+        <v>0.321894</v>
       </c>
       <c r="D117" t="n">
-        <v>0.908044</v>
+        <v>0.920577</v>
       </c>
       <c r="E117" t="n">
-        <v>0.197729</v>
+        <v>0.191441</v>
       </c>
       <c r="F117" t="n">
-        <v>0.238733</v>
+        <v>0.241943</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.251443</v>
+        <v>0.251688</v>
       </c>
       <c r="C118" t="n">
-        <v>0.358159</v>
+        <v>0.342016</v>
       </c>
       <c r="D118" t="n">
-        <v>1.01928</v>
+        <v>0.950682</v>
       </c>
       <c r="E118" t="n">
-        <v>0.221284</v>
+        <v>0.19952</v>
       </c>
       <c r="F118" t="n">
-        <v>0.277686</v>
+        <v>0.245482</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.26108</v>
+        <v>0.25979</v>
       </c>
       <c r="C119" t="n">
-        <v>0.358384</v>
+        <v>0.365649</v>
       </c>
       <c r="D119" t="n">
-        <v>0.958212</v>
+        <v>0.973332</v>
       </c>
       <c r="E119" t="n">
-        <v>0.206429</v>
+        <v>0.204849</v>
       </c>
       <c r="F119" t="n">
-        <v>0.26001</v>
+        <v>0.26059</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.273842</v>
+        <v>0.281459</v>
       </c>
       <c r="C120" t="n">
-        <v>0.386206</v>
+        <v>0.420221</v>
       </c>
       <c r="D120" t="n">
-        <v>0.988575</v>
+        <v>1.00866</v>
       </c>
       <c r="E120" t="n">
-        <v>0.2144</v>
+        <v>0.216267</v>
       </c>
       <c r="F120" t="n">
-        <v>0.271655</v>
+        <v>0.296109</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.30304</v>
+        <v>0.305181</v>
       </c>
       <c r="C121" t="n">
-        <v>0.423393</v>
+        <v>0.453078</v>
       </c>
       <c r="D121" t="n">
-        <v>0.744108</v>
+        <v>0.748408</v>
       </c>
       <c r="E121" t="n">
-        <v>0.245986</v>
+        <v>0.230555</v>
       </c>
       <c r="F121" t="n">
-        <v>0.290105</v>
+        <v>0.299484</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.343753</v>
+        <v>0.344079</v>
       </c>
       <c r="C122" t="n">
-        <v>0.49154</v>
+        <v>0.497554</v>
       </c>
       <c r="D122" t="n">
-        <v>0.766425</v>
+        <v>0.764387</v>
       </c>
       <c r="E122" t="n">
-        <v>0.245244</v>
+        <v>0.246911</v>
       </c>
       <c r="F122" t="n">
-        <v>0.320223</v>
+        <v>0.317956</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.41014</v>
+        <v>0.417415</v>
       </c>
       <c r="C123" t="n">
-        <v>0.587525</v>
+        <v>0.592629</v>
       </c>
       <c r="D123" t="n">
-        <v>0.786288</v>
+        <v>0.795381</v>
       </c>
       <c r="E123" t="n">
-        <v>0.285363</v>
+        <v>0.294606</v>
       </c>
       <c r="F123" t="n">
-        <v>0.311672</v>
+        <v>0.32056</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.358344</v>
+        <v>0.349361</v>
       </c>
       <c r="C124" t="n">
-        <v>0.399175</v>
+        <v>0.411624</v>
       </c>
       <c r="D124" t="n">
-        <v>0.809548</v>
+        <v>0.817917</v>
       </c>
       <c r="E124" t="n">
-        <v>0.286059</v>
+        <v>0.295562</v>
       </c>
       <c r="F124" t="n">
-        <v>0.334162</v>
+        <v>0.320597</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.352935</v>
+        <v>0.361338</v>
       </c>
       <c r="C125" t="n">
-        <v>0.432346</v>
+        <v>0.406697</v>
       </c>
       <c r="D125" t="n">
-        <v>0.863852</v>
+        <v>0.832997</v>
       </c>
       <c r="E125" t="n">
-        <v>0.300281</v>
+        <v>0.294709</v>
       </c>
       <c r="F125" t="n">
-        <v>0.350279</v>
+        <v>0.323124</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.3532</v>
+        <v>0.351632</v>
       </c>
       <c r="C126" t="n">
-        <v>0.42031</v>
+        <v>0.419804</v>
       </c>
       <c r="D126" t="n">
-        <v>0.86589</v>
+        <v>0.864237</v>
       </c>
       <c r="E126" t="n">
-        <v>0.295601</v>
+        <v>0.292703</v>
       </c>
       <c r="F126" t="n">
-        <v>0.323773</v>
+        <v>0.322877</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.364614</v>
+        <v>0.365666</v>
       </c>
       <c r="C127" t="n">
-        <v>0.449982</v>
+        <v>0.425545</v>
       </c>
       <c r="D127" t="n">
-        <v>0.8863259999999999</v>
+        <v>0.890839</v>
       </c>
       <c r="E127" t="n">
-        <v>0.292603</v>
+        <v>0.293611</v>
       </c>
       <c r="F127" t="n">
-        <v>0.328749</v>
+        <v>0.332368</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.376004</v>
+        <v>0.36739</v>
       </c>
       <c r="C128" t="n">
-        <v>0.434428</v>
+        <v>0.430349</v>
       </c>
       <c r="D128" t="n">
-        <v>0.909721</v>
+        <v>0.9172670000000001</v>
       </c>
       <c r="E128" t="n">
-        <v>0.302912</v>
+        <v>0.296295</v>
       </c>
       <c r="F128" t="n">
-        <v>0.334009</v>
+        <v>0.336859</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.379674</v>
+        <v>0.372176</v>
       </c>
       <c r="C129" t="n">
-        <v>0.44007</v>
+        <v>0.435581</v>
       </c>
       <c r="D129" t="n">
-        <v>0.931295</v>
+        <v>0.953249</v>
       </c>
       <c r="E129" t="n">
-        <v>0.297212</v>
+        <v>0.294933</v>
       </c>
       <c r="F129" t="n">
-        <v>0.339155</v>
+        <v>0.338908</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.376107</v>
+        <v>0.394916</v>
       </c>
       <c r="C130" t="n">
-        <v>0.450437</v>
+        <v>0.45225</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9656130000000001</v>
+        <v>0.987437</v>
       </c>
       <c r="E130" t="n">
-        <v>0.29992</v>
+        <v>0.301793</v>
       </c>
       <c r="F130" t="n">
-        <v>0.347711</v>
+        <v>0.355033</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.394585</v>
+        <v>0.380593</v>
       </c>
       <c r="C131" t="n">
-        <v>0.463653</v>
+        <v>0.462309</v>
       </c>
       <c r="D131" t="n">
-        <v>1.00441</v>
+        <v>0.996592</v>
       </c>
       <c r="E131" t="n">
-        <v>0.31028</v>
+        <v>0.306851</v>
       </c>
       <c r="F131" t="n">
-        <v>0.355701</v>
+        <v>0.354792</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.392606</v>
+        <v>0.391897</v>
       </c>
       <c r="C132" t="n">
-        <v>0.48039</v>
+        <v>0.47533</v>
       </c>
       <c r="D132" t="n">
-        <v>1.04112</v>
+        <v>1.03625</v>
       </c>
       <c r="E132" t="n">
-        <v>0.309894</v>
+        <v>0.321596</v>
       </c>
       <c r="F132" t="n">
-        <v>0.361966</v>
+        <v>0.369634</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.406513</v>
+        <v>0.41723</v>
       </c>
       <c r="C133" t="n">
-        <v>0.518281</v>
+        <v>0.520544</v>
       </c>
       <c r="D133" t="n">
-        <v>1.05914</v>
+        <v>1.08048</v>
       </c>
       <c r="E133" t="n">
-        <v>0.334882</v>
+        <v>0.317753</v>
       </c>
       <c r="F133" t="n">
-        <v>0.379736</v>
+        <v>0.385565</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.430804</v>
+        <v>0.430867</v>
       </c>
       <c r="C134" t="n">
-        <v>0.526608</v>
+        <v>0.528966</v>
       </c>
       <c r="D134" t="n">
-        <v>1.11576</v>
+        <v>1.10503</v>
       </c>
       <c r="E134" t="n">
-        <v>0.339248</v>
+        <v>0.334138</v>
       </c>
       <c r="F134" t="n">
-        <v>0.390711</v>
+        <v>0.398384</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.464498</v>
+        <v>0.456439</v>
       </c>
       <c r="C135" t="n">
-        <v>0.571726</v>
+        <v>0.594749</v>
       </c>
       <c r="D135" t="n">
-        <v>0.8747819999999999</v>
+        <v>0.865646</v>
       </c>
       <c r="E135" t="n">
-        <v>0.341805</v>
+        <v>0.355542</v>
       </c>
       <c r="F135" t="n">
-        <v>0.402918</v>
+        <v>0.40894</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.506602</v>
+        <v>0.515794</v>
       </c>
       <c r="C136" t="n">
-        <v>0.657883</v>
+        <v>0.629503</v>
       </c>
       <c r="D136" t="n">
-        <v>0.899695</v>
+        <v>0.8954220000000001</v>
       </c>
       <c r="E136" t="n">
-        <v>0.363953</v>
+        <v>0.373335</v>
       </c>
       <c r="F136" t="n">
-        <v>0.435211</v>
+        <v>0.438268</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.588349</v>
+        <v>0.594573</v>
       </c>
       <c r="C137" t="n">
-        <v>0.741318</v>
+        <v>0.745057</v>
       </c>
       <c r="D137" t="n">
-        <v>0.9305060000000001</v>
+        <v>0.946188</v>
       </c>
       <c r="E137" t="n">
-        <v>0.347834</v>
+        <v>0.353124</v>
       </c>
       <c r="F137" t="n">
-        <v>0.373868</v>
+        <v>0.375947</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.430269</v>
+        <v>0.431527</v>
       </c>
       <c r="C138" t="n">
-        <v>0.483973</v>
+        <v>0.489971</v>
       </c>
       <c r="D138" t="n">
-        <v>0.965437</v>
+        <v>0.968059</v>
       </c>
       <c r="E138" t="n">
-        <v>0.349337</v>
+        <v>0.349364</v>
       </c>
       <c r="F138" t="n">
-        <v>0.378464</v>
+        <v>0.380058</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.440466</v>
+        <v>0.437358</v>
       </c>
       <c r="C139" t="n">
-        <v>0.5074880000000001</v>
+        <v>0.496394</v>
       </c>
       <c r="D139" t="n">
-        <v>0.992761</v>
+        <v>1.01018</v>
       </c>
       <c r="E139" t="n">
-        <v>0.365895</v>
+        <v>0.356121</v>
       </c>
       <c r="F139" t="n">
-        <v>0.388411</v>
+        <v>0.382553</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.43882</v>
+        <v>0.439851</v>
       </c>
       <c r="C140" t="n">
-        <v>0.513597</v>
+        <v>0.505884</v>
       </c>
       <c r="D140" t="n">
-        <v>1.03781</v>
+        <v>1.03544</v>
       </c>
       <c r="E140" t="n">
-        <v>0.359225</v>
+        <v>0.362839</v>
       </c>
       <c r="F140" t="n">
-        <v>0.38798</v>
+        <v>0.394709</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.444564</v>
+        <v>0.450391</v>
       </c>
       <c r="C141" t="n">
-        <v>0.52252</v>
+        <v>0.513215</v>
       </c>
       <c r="D141" t="n">
-        <v>1.07817</v>
+        <v>1.09508</v>
       </c>
       <c r="E141" t="n">
-        <v>0.357807</v>
+        <v>0.36264</v>
       </c>
       <c r="F141" t="n">
-        <v>0.394367</v>
+        <v>0.401241</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.444445</v>
+        <v>0.448156</v>
       </c>
       <c r="C142" t="n">
-        <v>0.534587</v>
+        <v>0.519211</v>
       </c>
       <c r="D142" t="n">
-        <v>1.11564</v>
+        <v>1.11424</v>
       </c>
       <c r="E142" t="n">
-        <v>0.362356</v>
+        <v>0.364937</v>
       </c>
       <c r="F142" t="n">
-        <v>0.401133</v>
+        <v>0.401141</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.454087</v>
+        <v>0.451361</v>
       </c>
       <c r="C143" t="n">
-        <v>0.532158</v>
+        <v>0.529653</v>
       </c>
       <c r="D143" t="n">
-        <v>1.15873</v>
+        <v>1.13901</v>
       </c>
       <c r="E143" t="n">
-        <v>0.368535</v>
+        <v>0.37133</v>
       </c>
       <c r="F143" t="n">
-        <v>0.402944</v>
+        <v>0.408827</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0588576</v>
+        <v>0.0586566</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0587914</v>
+        <v>0.0598362</v>
       </c>
       <c r="D2" t="n">
-        <v>0.163668</v>
+        <v>0.164896</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07161149999999999</v>
+        <v>0.07154199999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.061782</v>
+        <v>0.0617722</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0610321</v>
+        <v>0.06104</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0617208</v>
+        <v>0.0623014</v>
       </c>
       <c r="D3" t="n">
-        <v>0.16845</v>
+        <v>0.167965</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07179489999999999</v>
+        <v>0.07209110000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0624803</v>
+        <v>0.0623899</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0628476</v>
+        <v>0.0647466</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06530039999999999</v>
+        <v>0.0665568</v>
       </c>
       <c r="D4" t="n">
-        <v>0.172459</v>
+        <v>0.171652</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0735172</v>
+        <v>0.07410360000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06618830000000001</v>
+        <v>0.06514349999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0716203</v>
+        <v>0.07131750000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07078660000000001</v>
+        <v>0.07241590000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.176768</v>
+        <v>0.178239</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07517020000000001</v>
+        <v>0.076589</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0664714</v>
+        <v>0.066594</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0755411</v>
+        <v>0.0806843</v>
       </c>
       <c r="C6" t="n">
-        <v>0.078906</v>
+        <v>0.0810988</v>
       </c>
       <c r="D6" t="n">
-        <v>0.181627</v>
+        <v>0.181274</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0803854</v>
+        <v>0.0802066</v>
       </c>
       <c r="F6" t="n">
-        <v>0.069578</v>
+        <v>0.0695081</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0869318</v>
+        <v>0.09192599999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0896922</v>
+        <v>0.0914701</v>
       </c>
       <c r="D7" t="n">
-        <v>0.145911</v>
+        <v>0.144074</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08529109999999999</v>
+        <v>0.0852754</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0764784</v>
+        <v>0.0764682</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.11033</v>
+        <v>0.119659</v>
       </c>
       <c r="C8" t="n">
-        <v>0.111831</v>
+        <v>0.11357</v>
       </c>
       <c r="D8" t="n">
-        <v>0.14995</v>
+        <v>0.151032</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0951767</v>
+        <v>0.0952339</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0862332</v>
+        <v>0.085896</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.152663</v>
+        <v>0.148592</v>
       </c>
       <c r="C9" t="n">
-        <v>0.144331</v>
+        <v>0.143541</v>
       </c>
       <c r="D9" t="n">
-        <v>0.154608</v>
+        <v>0.155543</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06929299999999999</v>
+        <v>0.06944359999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0611498</v>
+        <v>0.0609529</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0571501</v>
+        <v>0.0577497</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0579957</v>
+        <v>0.0581102</v>
       </c>
       <c r="D10" t="n">
-        <v>0.160042</v>
+        <v>0.159248</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0706576</v>
+        <v>0.0699887</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06361700000000001</v>
+        <v>0.0614868</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0575356</v>
+        <v>0.0580154</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0586879</v>
+        <v>0.0588472</v>
       </c>
       <c r="D11" t="n">
-        <v>0.164858</v>
+        <v>0.164388</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0699939</v>
+        <v>0.070198</v>
       </c>
       <c r="F11" t="n">
-        <v>0.061743</v>
+        <v>0.0630773</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0580063</v>
+        <v>0.0582717</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0612389</v>
+        <v>0.0593702</v>
       </c>
       <c r="D12" t="n">
-        <v>0.168894</v>
+        <v>0.169342</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0703105</v>
+        <v>0.07033300000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0620595</v>
+        <v>0.0619149</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0610697</v>
+        <v>0.0589774</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0615691</v>
+        <v>0.0603659</v>
       </c>
       <c r="D13" t="n">
-        <v>0.178573</v>
+        <v>0.174189</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0705388</v>
+        <v>0.07052360000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0639996</v>
+        <v>0.062284</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0604046</v>
+        <v>0.0602099</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0612324</v>
+        <v>0.061635</v>
       </c>
       <c r="D14" t="n">
-        <v>0.182218</v>
+        <v>0.179113</v>
       </c>
       <c r="E14" t="n">
-        <v>0.07087010000000001</v>
+        <v>0.0709225</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0627495</v>
+        <v>0.0624643</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0620386</v>
+        <v>0.0608501</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0623966</v>
+        <v>0.0634851</v>
       </c>
       <c r="D15" t="n">
-        <v>0.185802</v>
+        <v>0.183465</v>
       </c>
       <c r="E15" t="n">
-        <v>0.07680439999999999</v>
+        <v>0.0718047</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0633176</v>
+        <v>0.06319429999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0619951</v>
+        <v>0.062649</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0648883</v>
+        <v>0.0654745</v>
       </c>
       <c r="D16" t="n">
-        <v>0.187332</v>
+        <v>0.186637</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0722507</v>
+        <v>0.0719602</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0645107</v>
+        <v>0.0644609</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06522029999999999</v>
+        <v>0.06520479999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0667672</v>
+        <v>0.0674474</v>
       </c>
       <c r="D17" t="n">
-        <v>0.191842</v>
+        <v>0.192548</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0738605</v>
+        <v>0.0737775</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06758119999999999</v>
+        <v>0.0652725</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0695882</v>
+        <v>0.068784</v>
       </c>
       <c r="C18" t="n">
-        <v>0.070422</v>
+        <v>0.07137839999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.196174</v>
+        <v>0.196049</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0789787</v>
+        <v>0.0754296</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0666672</v>
+        <v>0.0668798</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0735162</v>
+        <v>0.0748282</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0750941</v>
+        <v>0.07554909999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.202408</v>
+        <v>0.201222</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08061219999999999</v>
+        <v>0.077898</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0695981</v>
+        <v>0.0692001</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08029169999999999</v>
+        <v>0.0816447</v>
       </c>
       <c r="C20" t="n">
-        <v>0.081469</v>
+        <v>0.08335679999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.210753</v>
+        <v>0.205978</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0802967</v>
+        <v>0.0839549</v>
       </c>
       <c r="F20" t="n">
-        <v>0.07249990000000001</v>
+        <v>0.0726628</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0923214</v>
+        <v>0.100182</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09237860000000001</v>
+        <v>0.0940797</v>
       </c>
       <c r="D21" t="n">
-        <v>0.157428</v>
+        <v>0.157363</v>
       </c>
       <c r="E21" t="n">
-        <v>0.08618679999999999</v>
+        <v>0.086768</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07814309999999999</v>
+        <v>0.07763689999999999</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.114218</v>
+        <v>0.115582</v>
       </c>
       <c r="C22" t="n">
-        <v>0.118101</v>
+        <v>0.113845</v>
       </c>
       <c r="D22" t="n">
-        <v>0.166122</v>
+        <v>0.164305</v>
       </c>
       <c r="E22" t="n">
-        <v>0.09685199999999999</v>
+        <v>0.0959155</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0871662</v>
+        <v>0.0865793</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.140459</v>
+        <v>0.150545</v>
       </c>
       <c r="C23" t="n">
-        <v>0.142904</v>
+        <v>0.14712</v>
       </c>
       <c r="D23" t="n">
-        <v>0.171911</v>
+        <v>0.170338</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0728892</v>
+        <v>0.0705066</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0634015</v>
+        <v>0.06375210000000001</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0617442</v>
+        <v>0.0607597</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0644435</v>
+        <v>0.0638058</v>
       </c>
       <c r="D24" t="n">
-        <v>0.175008</v>
+        <v>0.174301</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0717936</v>
+        <v>0.0704205</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0635342</v>
+        <v>0.0636486</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0640442</v>
+        <v>0.0615928</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0644255</v>
+        <v>0.064112</v>
       </c>
       <c r="D25" t="n">
-        <v>0.179185</v>
+        <v>0.183459</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0707719</v>
+        <v>0.0710961</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0647392</v>
+        <v>0.0638898</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0621327</v>
+        <v>0.06201</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0644348</v>
+        <v>0.0647575</v>
       </c>
       <c r="D26" t="n">
-        <v>0.187213</v>
+        <v>0.185742</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0713693</v>
+        <v>0.0709422</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0643266</v>
+        <v>0.0644617</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0622627</v>
+        <v>0.0625574</v>
       </c>
       <c r="C27" t="n">
-        <v>0.06579400000000001</v>
+        <v>0.0669399</v>
       </c>
       <c r="D27" t="n">
-        <v>0.194217</v>
+        <v>0.191788</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0724364</v>
+        <v>0.07238269999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0666556</v>
+        <v>0.06711590000000001</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.06340079999999999</v>
+        <v>0.0635693</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0696334</v>
+        <v>0.0677473</v>
       </c>
       <c r="D28" t="n">
-        <v>0.200317</v>
+        <v>0.198428</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0755701</v>
+        <v>0.07262209999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>0.06711689999999999</v>
+        <v>0.0672928</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0688304</v>
+        <v>0.0678892</v>
       </c>
       <c r="C29" t="n">
-        <v>0.06978760000000001</v>
+        <v>0.06859990000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.222639</v>
+        <v>0.203191</v>
       </c>
       <c r="E29" t="n">
-        <v>0.07338020000000001</v>
+        <v>0.0728753</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06727320000000001</v>
+        <v>0.0669565</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.06858499999999999</v>
+        <v>0.0681693</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0713516</v>
+        <v>0.0709361</v>
       </c>
       <c r="D30" t="n">
-        <v>0.206378</v>
+        <v>0.20874</v>
       </c>
       <c r="E30" t="n">
-        <v>0.07311049999999999</v>
+        <v>0.07350180000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0678002</v>
+        <v>0.0695737</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0693346</v>
+        <v>0.0695597</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07819520000000001</v>
+        <v>0.0739644</v>
       </c>
       <c r="D31" t="n">
-        <v>0.212108</v>
+        <v>0.216913</v>
       </c>
       <c r="E31" t="n">
-        <v>0.07685740000000001</v>
+        <v>0.0743231</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0680523</v>
+        <v>0.06826</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0741409</v>
+        <v>0.0714645</v>
       </c>
       <c r="C32" t="n">
-        <v>0.075796</v>
+        <v>0.0767323</v>
       </c>
       <c r="D32" t="n">
-        <v>0.223383</v>
+        <v>0.215244</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0816306</v>
+        <v>0.0764005</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0700646</v>
+        <v>0.07050530000000001</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0756478</v>
+        <v>0.0779338</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0814829</v>
+        <v>0.082179</v>
       </c>
       <c r="D33" t="n">
-        <v>0.223586</v>
+        <v>0.22685</v>
       </c>
       <c r="E33" t="n">
-        <v>0.079053</v>
+        <v>0.08111169999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0729026</v>
+        <v>0.07282909999999999</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08390060000000001</v>
+        <v>0.08428099999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.08848399999999999</v>
+        <v>0.0899684</v>
       </c>
       <c r="D34" t="n">
-        <v>0.247042</v>
+        <v>0.230512</v>
       </c>
       <c r="E34" t="n">
-        <v>0.08265069999999999</v>
+        <v>0.08252950000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0785851</v>
+        <v>0.078139</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0960965</v>
+        <v>0.0961216</v>
       </c>
       <c r="C35" t="n">
-        <v>0.101891</v>
+        <v>0.100916</v>
       </c>
       <c r="D35" t="n">
-        <v>0.175403</v>
+        <v>0.17737</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0909961</v>
+        <v>0.08874120000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0822478</v>
+        <v>0.0838656</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.114663</v>
+        <v>0.1137</v>
       </c>
       <c r="C36" t="n">
-        <v>0.11886</v>
+        <v>0.117587</v>
       </c>
       <c r="D36" t="n">
-        <v>0.189369</v>
+        <v>0.181478</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0977359</v>
+        <v>0.0980415</v>
       </c>
       <c r="F36" t="n">
-        <v>0.09647169999999999</v>
+        <v>0.09116150000000001</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.143586</v>
+        <v>0.143879</v>
       </c>
       <c r="C37" t="n">
-        <v>0.142125</v>
+        <v>0.143443</v>
       </c>
       <c r="D37" t="n">
-        <v>0.190962</v>
+        <v>0.187678</v>
       </c>
       <c r="E37" t="n">
-        <v>0.07240679999999999</v>
+        <v>0.073131</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06904299999999999</v>
+        <v>0.0678073</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0669237</v>
+        <v>0.0660319</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0715336</v>
+        <v>0.0741338</v>
       </c>
       <c r="D38" t="n">
-        <v>0.204688</v>
+        <v>0.1957</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0763808</v>
+        <v>0.0730157</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0732809</v>
+        <v>0.0688078</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.06850970000000001</v>
+        <v>0.0659508</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0782004</v>
+        <v>0.0726154</v>
       </c>
       <c r="D39" t="n">
-        <v>0.206651</v>
+        <v>0.203002</v>
       </c>
       <c r="E39" t="n">
-        <v>0.074793</v>
+        <v>0.0783701</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0726498</v>
+        <v>0.0714185</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.06810579999999999</v>
+        <v>0.0663074</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0752034</v>
+        <v>0.074241</v>
       </c>
       <c r="D40" t="n">
-        <v>0.224145</v>
+        <v>0.212744</v>
       </c>
       <c r="E40" t="n">
-        <v>0.07477590000000001</v>
+        <v>0.0739659</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0697942</v>
+        <v>0.06927850000000001</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0705918</v>
+        <v>0.0677246</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0750021</v>
+        <v>0.0760526</v>
       </c>
       <c r="D41" t="n">
-        <v>0.219616</v>
+        <v>0.21991</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0756699</v>
+        <v>0.0748069</v>
       </c>
       <c r="F41" t="n">
-        <v>0.07050629999999999</v>
+        <v>0.0698821</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0714095</v>
+        <v>0.06913420000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0768432</v>
+        <v>0.07739559999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.230004</v>
+        <v>0.233144</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0752675</v>
+        <v>0.0762718</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07292029999999999</v>
+        <v>0.0707142</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0719337</v>
+        <v>0.0715142</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0788391</v>
+        <v>0.0811215</v>
       </c>
       <c r="D43" t="n">
-        <v>0.243249</v>
+        <v>0.237611</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0780872</v>
+        <v>0.0746946</v>
       </c>
       <c r="F43" t="n">
-        <v>0.07135370000000001</v>
+        <v>0.0716855</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0721145</v>
+        <v>0.07180449999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0827171</v>
+        <v>0.0820104</v>
       </c>
       <c r="D44" t="n">
-        <v>0.247083</v>
+        <v>0.25193</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0753513</v>
+        <v>0.0811142</v>
       </c>
       <c r="F44" t="n">
-        <v>0.072961</v>
+        <v>0.0730893</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0771893</v>
+        <v>0.0735252</v>
       </c>
       <c r="C45" t="n">
-        <v>0.08879919999999999</v>
+        <v>0.0852755</v>
       </c>
       <c r="D45" t="n">
-        <v>0.256208</v>
+        <v>0.265402</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0785148</v>
+        <v>0.0766363</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0759147</v>
+        <v>0.0749861</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.07926560000000001</v>
+        <v>0.0766225</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0886663</v>
+        <v>0.0890485</v>
       </c>
       <c r="D46" t="n">
-        <v>0.266051</v>
+        <v>0.267961</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0801385</v>
+        <v>0.0785411</v>
       </c>
       <c r="F46" t="n">
-        <v>0.07783859999999999</v>
+        <v>0.0770412</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.081597</v>
+        <v>0.08142190000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.09628200000000001</v>
+        <v>0.0951332</v>
       </c>
       <c r="D47" t="n">
-        <v>0.275251</v>
+        <v>0.284642</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0828072</v>
+        <v>0.08066810000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0798378</v>
+        <v>0.080358</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0880595</v>
+        <v>0.087017</v>
       </c>
       <c r="C48" t="n">
-        <v>0.103581</v>
+        <v>0.101317</v>
       </c>
       <c r="D48" t="n">
-        <v>0.29098</v>
+        <v>0.30173</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0845095</v>
+        <v>0.0839012</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08364820000000001</v>
+        <v>0.0844575</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0981374</v>
+        <v>0.09801989999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.117855</v>
+        <v>0.114181</v>
       </c>
       <c r="D49" t="n">
-        <v>0.310449</v>
+        <v>0.307431</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0931864</v>
+        <v>0.0887888</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0891367</v>
+        <v>0.08775819999999999</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.120937</v>
+        <v>0.115752</v>
       </c>
       <c r="C50" t="n">
-        <v>0.128585</v>
+        <v>0.132273</v>
       </c>
       <c r="D50" t="n">
-        <v>0.221794</v>
+        <v>0.221439</v>
       </c>
       <c r="E50" t="n">
-        <v>0.100949</v>
+        <v>0.100444</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0977663</v>
+        <v>0.0988632</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.142008</v>
+        <v>0.140428</v>
       </c>
       <c r="C51" t="n">
-        <v>0.155481</v>
+        <v>0.156335</v>
       </c>
       <c r="D51" t="n">
-        <v>0.22791</v>
+        <v>0.230894</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0785536</v>
+        <v>0.0776251</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0777962</v>
+        <v>0.0752801</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.188929</v>
+        <v>0.193247</v>
       </c>
       <c r="C52" t="n">
-        <v>0.194668</v>
+        <v>0.203161</v>
       </c>
       <c r="D52" t="n">
-        <v>0.249181</v>
+        <v>0.244902</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0785252</v>
+        <v>0.0797856</v>
       </c>
       <c r="F52" t="n">
-        <v>0.07658860000000001</v>
+        <v>0.0783464</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0814594</v>
+        <v>0.0778069</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0910176</v>
+        <v>0.0905195</v>
       </c>
       <c r="D53" t="n">
-        <v>0.254365</v>
+        <v>0.254589</v>
       </c>
       <c r="E53" t="n">
-        <v>0.07977330000000001</v>
+        <v>0.0792206</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0772045</v>
+        <v>0.0780337</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.07800269999999999</v>
+        <v>0.0779461</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0922311</v>
+        <v>0.09199590000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.26841</v>
+        <v>0.266141</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0787931</v>
+        <v>0.0790527</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0785614</v>
+        <v>0.0810884</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0822942</v>
+        <v>0.08115849999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.097025</v>
+        <v>0.09272710000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.275672</v>
+        <v>0.278504</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0798372</v>
+        <v>0.0789723</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0831969</v>
+        <v>0.07857599999999999</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.08047360000000001</v>
+        <v>0.0807107</v>
       </c>
       <c r="C56" t="n">
-        <v>0.09523239999999999</v>
+        <v>0.0992874</v>
       </c>
       <c r="D56" t="n">
-        <v>0.298917</v>
+        <v>0.296239</v>
       </c>
       <c r="E56" t="n">
-        <v>0.081745</v>
+        <v>0.0819508</v>
       </c>
       <c r="F56" t="n">
-        <v>0.08106090000000001</v>
+        <v>0.07984579999999999</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0832963</v>
+        <v>0.0827991</v>
       </c>
       <c r="C57" t="n">
-        <v>0.101481</v>
+        <v>0.0977975</v>
       </c>
       <c r="D57" t="n">
-        <v>0.311283</v>
+        <v>0.307597</v>
       </c>
       <c r="E57" t="n">
-        <v>0.08067630000000001</v>
+        <v>0.08059040000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0814131</v>
+        <v>0.0807518</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.08503910000000001</v>
+        <v>0.08376409999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.101308</v>
+        <v>0.0998189</v>
       </c>
       <c r="D58" t="n">
-        <v>0.327563</v>
+        <v>0.341069</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0830168</v>
+        <v>0.08699900000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0845881</v>
+        <v>0.0830468</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.091775</v>
+        <v>0.0864516</v>
       </c>
       <c r="C59" t="n">
-        <v>0.104898</v>
+        <v>0.104654</v>
       </c>
       <c r="D59" t="n">
-        <v>0.346289</v>
+        <v>0.352068</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0857048</v>
+        <v>0.08522979999999999</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0885079</v>
+        <v>0.0846976</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.08986479999999999</v>
+        <v>0.0883862</v>
       </c>
       <c r="C60" t="n">
-        <v>0.109066</v>
+        <v>0.108337</v>
       </c>
       <c r="D60" t="n">
-        <v>0.361857</v>
+        <v>0.362759</v>
       </c>
       <c r="E60" t="n">
-        <v>0.08711820000000001</v>
+        <v>0.0849888</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0867682</v>
+        <v>0.08689520000000001</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0929765</v>
+        <v>0.0974199</v>
       </c>
       <c r="C61" t="n">
-        <v>0.117015</v>
+        <v>0.11537</v>
       </c>
       <c r="D61" t="n">
-        <v>0.378111</v>
+        <v>0.382788</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0877189</v>
+        <v>0.086883</v>
       </c>
       <c r="F61" t="n">
-        <v>0.090381</v>
+        <v>0.09054280000000001</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.101161</v>
+        <v>0.09913379999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.124312</v>
+        <v>0.124175</v>
       </c>
       <c r="D62" t="n">
-        <v>0.42107</v>
+        <v>0.411837</v>
       </c>
       <c r="E62" t="n">
-        <v>0.09118660000000001</v>
+        <v>0.0907828</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0984669</v>
+        <v>0.0991996</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.110525</v>
+        <v>0.109355</v>
       </c>
       <c r="C63" t="n">
-        <v>0.13438</v>
+        <v>0.13468</v>
       </c>
       <c r="D63" t="n">
-        <v>0.445575</v>
+        <v>0.434845</v>
       </c>
       <c r="E63" t="n">
-        <v>0.095857</v>
+        <v>0.0957682</v>
       </c>
       <c r="F63" t="n">
-        <v>0.100761</v>
+        <v>0.100273</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.126067</v>
+        <v>0.121772</v>
       </c>
       <c r="C64" t="n">
-        <v>0.155637</v>
+        <v>0.15438</v>
       </c>
       <c r="D64" t="n">
-        <v>0.340358</v>
+        <v>0.316063</v>
       </c>
       <c r="E64" t="n">
-        <v>0.103748</v>
+        <v>0.10376</v>
       </c>
       <c r="F64" t="n">
-        <v>0.109101</v>
+        <v>0.118069</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.149169</v>
+        <v>0.146264</v>
       </c>
       <c r="C65" t="n">
-        <v>0.183897</v>
+        <v>0.182692</v>
       </c>
       <c r="D65" t="n">
-        <v>0.357174</v>
+        <v>0.336166</v>
       </c>
       <c r="E65" t="n">
-        <v>0.117039</v>
+        <v>0.11654</v>
       </c>
       <c r="F65" t="n">
-        <v>0.124521</v>
+        <v>0.123009</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.190145</v>
+        <v>0.183375</v>
       </c>
       <c r="C66" t="n">
-        <v>0.235715</v>
+        <v>0.221262</v>
       </c>
       <c r="D66" t="n">
-        <v>0.386656</v>
+        <v>0.348805</v>
       </c>
       <c r="E66" t="n">
-        <v>0.08507339999999999</v>
+        <v>0.0825528</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0902438</v>
+        <v>0.0839821</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.08872190000000001</v>
+        <v>0.09012390000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.107363</v>
+        <v>0.107127</v>
       </c>
       <c r="D67" t="n">
-        <v>0.370296</v>
+        <v>0.368842</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0869375</v>
+        <v>0.083595</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0898661</v>
+        <v>0.0849548</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0888607</v>
+        <v>0.0879982</v>
       </c>
       <c r="C68" t="n">
-        <v>0.11166</v>
+        <v>0.109517</v>
       </c>
       <c r="D68" t="n">
-        <v>0.427978</v>
+        <v>0.393403</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0840516</v>
+        <v>0.0878096</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0868917</v>
+        <v>0.0862479</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0911447</v>
+        <v>0.0902684</v>
       </c>
       <c r="C69" t="n">
-        <v>0.114051</v>
+        <v>0.112176</v>
       </c>
       <c r="D69" t="n">
-        <v>0.407554</v>
+        <v>0.414437</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0844121</v>
+        <v>0.0872845</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0887044</v>
+        <v>0.089128</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0940346</v>
+        <v>0.0924913</v>
       </c>
       <c r="C70" t="n">
-        <v>0.120047</v>
+        <v>0.11624</v>
       </c>
       <c r="D70" t="n">
-        <v>0.439642</v>
+        <v>0.450518</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0866532</v>
+        <v>0.086149</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0900934</v>
+        <v>0.0903307</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0940667</v>
+        <v>0.0921281</v>
       </c>
       <c r="C71" t="n">
-        <v>0.125418</v>
+        <v>0.119133</v>
       </c>
       <c r="D71" t="n">
-        <v>0.49478</v>
+        <v>0.486079</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0872967</v>
+        <v>0.0875778</v>
       </c>
       <c r="F71" t="n">
-        <v>0.09313539999999999</v>
+        <v>0.090905</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0952939</v>
+        <v>0.0982215</v>
       </c>
       <c r="C72" t="n">
-        <v>0.126623</v>
+        <v>0.120885</v>
       </c>
       <c r="D72" t="n">
-        <v>0.520189</v>
+        <v>0.476904</v>
       </c>
       <c r="E72" t="n">
-        <v>0.08823309999999999</v>
+        <v>0.0885901</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09426909999999999</v>
+        <v>0.0953306</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.102298</v>
+        <v>0.09631770000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.130373</v>
+        <v>0.128119</v>
       </c>
       <c r="D73" t="n">
-        <v>0.522276</v>
+        <v>0.501314</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0899802</v>
+        <v>0.0894742</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0987325</v>
+        <v>0.09764109999999999</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.103635</v>
+        <v>0.100864</v>
       </c>
       <c r="C74" t="n">
-        <v>0.145554</v>
+        <v>0.136169</v>
       </c>
       <c r="D74" t="n">
-        <v>0.542954</v>
+        <v>0.537424</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0920093</v>
+        <v>0.0918609</v>
       </c>
       <c r="F74" t="n">
-        <v>0.107696</v>
+        <v>0.0996649</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.110443</v>
+        <v>0.10721</v>
       </c>
       <c r="C75" t="n">
-        <v>0.150279</v>
+        <v>0.141319</v>
       </c>
       <c r="D75" t="n">
-        <v>0.582589</v>
+        <v>0.551554</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0971882</v>
+        <v>0.0944638</v>
       </c>
       <c r="F75" t="n">
-        <v>0.108399</v>
+        <v>0.102573</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.122445</v>
+        <v>0.11653</v>
       </c>
       <c r="C76" t="n">
-        <v>0.162186</v>
+        <v>0.153449</v>
       </c>
       <c r="D76" t="n">
-        <v>0.630094</v>
+        <v>0.590822</v>
       </c>
       <c r="E76" t="n">
-        <v>0.100411</v>
+        <v>0.104573</v>
       </c>
       <c r="F76" t="n">
-        <v>0.112857</v>
+        <v>0.11429</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.130147</v>
+        <v>0.128207</v>
       </c>
       <c r="C77" t="n">
-        <v>0.166778</v>
+        <v>0.16912</v>
       </c>
       <c r="D77" t="n">
-        <v>0.607732</v>
+        <v>0.611609</v>
       </c>
       <c r="E77" t="n">
-        <v>0.104105</v>
+        <v>0.102307</v>
       </c>
       <c r="F77" t="n">
-        <v>0.121131</v>
+        <v>0.117086</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.147385</v>
+        <v>0.140831</v>
       </c>
       <c r="C78" t="n">
-        <v>0.191433</v>
+        <v>0.188858</v>
       </c>
       <c r="D78" t="n">
-        <v>0.462924</v>
+        <v>0.456095</v>
       </c>
       <c r="E78" t="n">
-        <v>0.113781</v>
+        <v>0.111243</v>
       </c>
       <c r="F78" t="n">
-        <v>0.133133</v>
+        <v>0.129917</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.161755</v>
+        <v>0.162612</v>
       </c>
       <c r="C79" t="n">
-        <v>0.22639</v>
+        <v>0.221796</v>
       </c>
       <c r="D79" t="n">
-        <v>0.476193</v>
+        <v>0.477121</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1244</v>
+        <v>0.129506</v>
       </c>
       <c r="F79" t="n">
-        <v>0.143926</v>
+        <v>0.141931</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.204716</v>
+        <v>0.199816</v>
       </c>
       <c r="C80" t="n">
-        <v>0.286493</v>
+        <v>0.273938</v>
       </c>
       <c r="D80" t="n">
-        <v>0.516519</v>
+        <v>0.498122</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0907538</v>
+        <v>0.0885423</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0977775</v>
+        <v>0.0959496</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0978487</v>
+        <v>0.109134</v>
       </c>
       <c r="C81" t="n">
-        <v>0.133215</v>
+        <v>0.133974</v>
       </c>
       <c r="D81" t="n">
-        <v>0.567761</v>
+        <v>0.523599</v>
       </c>
       <c r="E81" t="n">
-        <v>0.09354750000000001</v>
+        <v>0.0899001</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09830220000000001</v>
+        <v>0.0978846</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.102677</v>
+        <v>0.109359</v>
       </c>
       <c r="C82" t="n">
-        <v>0.138795</v>
+        <v>0.136977</v>
       </c>
       <c r="D82" t="n">
-        <v>0.54433</v>
+        <v>0.53518</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0936953</v>
+        <v>0.0898051</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1004</v>
+        <v>0.100968</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.104553</v>
+        <v>0.103722</v>
       </c>
       <c r="C83" t="n">
-        <v>0.14101</v>
+        <v>0.142203</v>
       </c>
       <c r="D83" t="n">
-        <v>0.583158</v>
+        <v>0.557129</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0952959</v>
+        <v>0.0950039</v>
       </c>
       <c r="F83" t="n">
-        <v>0.101322</v>
+        <v>0.101429</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.105706</v>
+        <v>0.110577</v>
       </c>
       <c r="C84" t="n">
-        <v>0.146466</v>
+        <v>0.152515</v>
       </c>
       <c r="D84" t="n">
-        <v>0.589917</v>
+        <v>0.591353</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0944868</v>
+        <v>0.0951618</v>
       </c>
       <c r="F84" t="n">
-        <v>0.107894</v>
+        <v>0.105535</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.109003</v>
+        <v>0.110018</v>
       </c>
       <c r="C85" t="n">
-        <v>0.161394</v>
+        <v>0.152482</v>
       </c>
       <c r="D85" t="n">
-        <v>0.611007</v>
+        <v>0.605733</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0948344</v>
+        <v>0.0953611</v>
       </c>
       <c r="F85" t="n">
-        <v>0.115588</v>
+        <v>0.111085</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.113386</v>
+        <v>0.120188</v>
       </c>
       <c r="C86" t="n">
-        <v>0.159774</v>
+        <v>0.157921</v>
       </c>
       <c r="D86" t="n">
-        <v>0.631049</v>
+        <v>0.635646</v>
       </c>
       <c r="E86" t="n">
-        <v>0.102018</v>
+        <v>0.09709950000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>0.114529</v>
+        <v>0.112643</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.11914</v>
+        <v>0.119516</v>
       </c>
       <c r="C87" t="n">
-        <v>0.168837</v>
+        <v>0.169781</v>
       </c>
       <c r="D87" t="n">
-        <v>0.658978</v>
+        <v>0.665783</v>
       </c>
       <c r="E87" t="n">
-        <v>0.103885</v>
+        <v>0.09978620000000001</v>
       </c>
       <c r="F87" t="n">
-        <v>0.122452</v>
+        <v>0.117297</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.124485</v>
+        <v>0.121137</v>
       </c>
       <c r="C88" t="n">
-        <v>0.175303</v>
+        <v>0.177121</v>
       </c>
       <c r="D88" t="n">
-        <v>0.681492</v>
+        <v>0.6872</v>
       </c>
       <c r="E88" t="n">
-        <v>0.102585</v>
+        <v>0.104791</v>
       </c>
       <c r="F88" t="n">
-        <v>0.120891</v>
+        <v>0.123389</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.129288</v>
+        <v>0.129844</v>
       </c>
       <c r="C89" t="n">
-        <v>0.185904</v>
+        <v>0.186497</v>
       </c>
       <c r="D89" t="n">
-        <v>0.753103</v>
+        <v>0.707884</v>
       </c>
       <c r="E89" t="n">
-        <v>0.105593</v>
+        <v>0.1057</v>
       </c>
       <c r="F89" t="n">
-        <v>0.125987</v>
+        <v>0.12597</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.136587</v>
+        <v>0.135567</v>
       </c>
       <c r="C90" t="n">
-        <v>0.199525</v>
+        <v>0.197879</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7360989999999999</v>
+        <v>0.748449</v>
       </c>
       <c r="E90" t="n">
-        <v>0.111777</v>
+        <v>0.110923</v>
       </c>
       <c r="F90" t="n">
-        <v>0.136098</v>
+        <v>0.133093</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.14779</v>
+        <v>0.148436</v>
       </c>
       <c r="C91" t="n">
-        <v>0.21153</v>
+        <v>0.213464</v>
       </c>
       <c r="D91" t="n">
-        <v>0.761894</v>
+        <v>0.763095</v>
       </c>
       <c r="E91" t="n">
-        <v>0.123303</v>
+        <v>0.11594</v>
       </c>
       <c r="F91" t="n">
-        <v>0.146295</v>
+        <v>0.144256</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.169439</v>
+        <v>0.169076</v>
       </c>
       <c r="C92" t="n">
-        <v>0.244097</v>
+        <v>0.243689</v>
       </c>
       <c r="D92" t="n">
-        <v>0.629127</v>
+        <v>0.611708</v>
       </c>
       <c r="E92" t="n">
-        <v>0.127383</v>
+        <v>0.125925</v>
       </c>
       <c r="F92" t="n">
-        <v>0.154957</v>
+        <v>0.154138</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.193453</v>
+        <v>0.193345</v>
       </c>
       <c r="C93" t="n">
-        <v>0.280582</v>
+        <v>0.272292</v>
       </c>
       <c r="D93" t="n">
-        <v>0.6340170000000001</v>
+        <v>0.600888</v>
       </c>
       <c r="E93" t="n">
-        <v>0.140095</v>
+        <v>0.139164</v>
       </c>
       <c r="F93" t="n">
-        <v>0.17495</v>
+        <v>0.168419</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.227775</v>
+        <v>0.22589</v>
       </c>
       <c r="C94" t="n">
-        <v>0.325531</v>
+        <v>0.325875</v>
       </c>
       <c r="D94" t="n">
-        <v>0.622718</v>
+        <v>0.6328009999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>0.107624</v>
+        <v>0.109715</v>
       </c>
       <c r="F94" t="n">
-        <v>0.127839</v>
+        <v>0.129866</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.130717</v>
+        <v>0.128144</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1822</v>
+        <v>0.178689</v>
       </c>
       <c r="D95" t="n">
-        <v>0.649402</v>
+        <v>0.636551</v>
       </c>
       <c r="E95" t="n">
-        <v>0.109331</v>
+        <v>0.109221</v>
       </c>
       <c r="F95" t="n">
-        <v>0.130865</v>
+        <v>0.130466</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.13257</v>
+        <v>0.13335</v>
       </c>
       <c r="C96" t="n">
-        <v>0.186003</v>
+        <v>0.187275</v>
       </c>
       <c r="D96" t="n">
-        <v>0.675935</v>
+        <v>0.699802</v>
       </c>
       <c r="E96" t="n">
-        <v>0.11126</v>
+        <v>0.11087</v>
       </c>
       <c r="F96" t="n">
-        <v>0.13802</v>
+        <v>0.134124</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.137736</v>
+        <v>0.134717</v>
       </c>
       <c r="C97" t="n">
-        <v>0.192622</v>
+        <v>0.190592</v>
       </c>
       <c r="D97" t="n">
-        <v>0.689672</v>
+        <v>0.701969</v>
       </c>
       <c r="E97" t="n">
-        <v>0.112354</v>
+        <v>0.117371</v>
       </c>
       <c r="F97" t="n">
-        <v>0.135947</v>
+        <v>0.13885</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.137342</v>
+        <v>0.146926</v>
       </c>
       <c r="C98" t="n">
-        <v>0.19748</v>
+        <v>0.195253</v>
       </c>
       <c r="D98" t="n">
-        <v>0.728015</v>
+        <v>0.7065630000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>0.114097</v>
+        <v>0.124295</v>
       </c>
       <c r="F98" t="n">
-        <v>0.142269</v>
+        <v>0.142444</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.147813</v>
+        <v>0.144624</v>
       </c>
       <c r="C99" t="n">
-        <v>0.207518</v>
+        <v>0.201433</v>
       </c>
       <c r="D99" t="n">
-        <v>0.733575</v>
+        <v>0.727954</v>
       </c>
       <c r="E99" t="n">
-        <v>0.116502</v>
+        <v>0.117094</v>
       </c>
       <c r="F99" t="n">
-        <v>0.145115</v>
+        <v>0.14381</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.14459</v>
+        <v>0.144201</v>
       </c>
       <c r="C100" t="n">
-        <v>0.208623</v>
+        <v>0.207343</v>
       </c>
       <c r="D100" t="n">
-        <v>0.793594</v>
+        <v>0.758155</v>
       </c>
       <c r="E100" t="n">
-        <v>0.118418</v>
+        <v>0.119351</v>
       </c>
       <c r="F100" t="n">
-        <v>0.146725</v>
+        <v>0.154093</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.148959</v>
+        <v>0.147369</v>
       </c>
       <c r="C101" t="n">
-        <v>0.216611</v>
+        <v>0.22504</v>
       </c>
       <c r="D101" t="n">
-        <v>0.774033</v>
+        <v>0.775064</v>
       </c>
       <c r="E101" t="n">
-        <v>0.123998</v>
+        <v>0.122271</v>
       </c>
       <c r="F101" t="n">
-        <v>0.158333</v>
+        <v>0.153446</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.156686</v>
+        <v>0.154499</v>
       </c>
       <c r="C102" t="n">
-        <v>0.230491</v>
+        <v>0.226191</v>
       </c>
       <c r="D102" t="n">
-        <v>0.800244</v>
+        <v>0.803689</v>
       </c>
       <c r="E102" t="n">
-        <v>0.124413</v>
+        <v>0.126122</v>
       </c>
       <c r="F102" t="n">
-        <v>0.159479</v>
+        <v>0.159257</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.166695</v>
+        <v>0.166046</v>
       </c>
       <c r="C103" t="n">
-        <v>0.24086</v>
+        <v>0.248235</v>
       </c>
       <c r="D103" t="n">
-        <v>0.847181</v>
+        <v>0.837248</v>
       </c>
       <c r="E103" t="n">
-        <v>0.130028</v>
+        <v>0.13122</v>
       </c>
       <c r="F103" t="n">
-        <v>0.170573</v>
+        <v>0.163638</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.169031</v>
+        <v>0.168076</v>
       </c>
       <c r="C104" t="n">
-        <v>0.252058</v>
+        <v>0.249316</v>
       </c>
       <c r="D104" t="n">
-        <v>0.861917</v>
+        <v>0.858145</v>
       </c>
       <c r="E104" t="n">
-        <v>0.134337</v>
+        <v>0.134371</v>
       </c>
       <c r="F104" t="n">
-        <v>0.16818</v>
+        <v>0.170014</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.178985</v>
+        <v>0.187148</v>
       </c>
       <c r="C105" t="n">
-        <v>0.267718</v>
+        <v>0.268437</v>
       </c>
       <c r="D105" t="n">
-        <v>0.882349</v>
+        <v>0.885448</v>
       </c>
       <c r="E105" t="n">
-        <v>0.138058</v>
+        <v>0.138049</v>
       </c>
       <c r="F105" t="n">
-        <v>0.177258</v>
+        <v>0.17997</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.199021</v>
+        <v>0.195774</v>
       </c>
       <c r="C106" t="n">
-        <v>0.298213</v>
+        <v>0.29415</v>
       </c>
       <c r="D106" t="n">
-        <v>0.92086</v>
+        <v>0.917226</v>
       </c>
       <c r="E106" t="n">
-        <v>0.15364</v>
+        <v>0.147249</v>
       </c>
       <c r="F106" t="n">
-        <v>0.19109</v>
+        <v>0.192299</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.226357</v>
+        <v>0.221777</v>
       </c>
       <c r="C107" t="n">
-        <v>0.328631</v>
+        <v>0.329238</v>
       </c>
       <c r="D107" t="n">
-        <v>0.7422029999999999</v>
+        <v>0.691172</v>
       </c>
       <c r="E107" t="n">
-        <v>0.158806</v>
+        <v>0.162335</v>
       </c>
       <c r="F107" t="n">
-        <v>0.206744</v>
+        <v>0.209459</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.256857</v>
+        <v>0.258784</v>
       </c>
       <c r="C108" t="n">
-        <v>0.381838</v>
+        <v>0.385055</v>
       </c>
       <c r="D108" t="n">
-        <v>0.713184</v>
+        <v>0.747673</v>
       </c>
       <c r="E108" t="n">
-        <v>0.174317</v>
+        <v>0.188325</v>
       </c>
       <c r="F108" t="n">
-        <v>0.197665</v>
+        <v>0.203696</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.336426</v>
+        <v>0.339349</v>
       </c>
       <c r="C109" t="n">
-        <v>0.482154</v>
+        <v>0.524466</v>
       </c>
       <c r="D109" t="n">
-        <v>0.747505</v>
+        <v>0.762454</v>
       </c>
       <c r="E109" t="n">
-        <v>0.175868</v>
+        <v>0.180888</v>
       </c>
       <c r="F109" t="n">
-        <v>0.211262</v>
+        <v>0.212208</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.209626</v>
+        <v>0.213646</v>
       </c>
       <c r="C110" t="n">
-        <v>0.274639</v>
+        <v>0.266193</v>
       </c>
       <c r="D110" t="n">
-        <v>0.754464</v>
+        <v>0.760506</v>
       </c>
       <c r="E110" t="n">
-        <v>0.178922</v>
+        <v>0.17895</v>
       </c>
       <c r="F110" t="n">
-        <v>0.210042</v>
+        <v>0.215379</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.221554</v>
+        <v>0.212475</v>
       </c>
       <c r="C111" t="n">
-        <v>0.285327</v>
+        <v>0.27636</v>
       </c>
       <c r="D111" t="n">
-        <v>0.788931</v>
+        <v>0.779643</v>
       </c>
       <c r="E111" t="n">
-        <v>0.179908</v>
+        <v>0.188467</v>
       </c>
       <c r="F111" t="n">
-        <v>0.206681</v>
+        <v>0.209166</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.219696</v>
+        <v>0.213838</v>
       </c>
       <c r="C112" t="n">
-        <v>0.285757</v>
+        <v>0.281697</v>
       </c>
       <c r="D112" t="n">
-        <v>0.802023</v>
+        <v>0.794888</v>
       </c>
       <c r="E112" t="n">
-        <v>0.179169</v>
+        <v>0.181593</v>
       </c>
       <c r="F112" t="n">
-        <v>0.215197</v>
+        <v>0.214185</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.226189</v>
+        <v>0.238546</v>
       </c>
       <c r="C113" t="n">
-        <v>0.313662</v>
+        <v>0.311366</v>
       </c>
       <c r="D113" t="n">
-        <v>0.829753</v>
+        <v>0.841203</v>
       </c>
       <c r="E113" t="n">
-        <v>0.182766</v>
+        <v>0.194075</v>
       </c>
       <c r="F113" t="n">
-        <v>0.216911</v>
+        <v>0.218964</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.225528</v>
+        <v>0.22337</v>
       </c>
       <c r="C114" t="n">
-        <v>0.303062</v>
+        <v>0.292332</v>
       </c>
       <c r="D114" t="n">
-        <v>0.955547</v>
+        <v>0.836216</v>
       </c>
       <c r="E114" t="n">
-        <v>0.1887</v>
+        <v>0.199787</v>
       </c>
       <c r="F114" t="n">
-        <v>0.224565</v>
+        <v>0.22255</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.235092</v>
+        <v>0.226402</v>
       </c>
       <c r="C115" t="n">
-        <v>0.304754</v>
+        <v>0.328598</v>
       </c>
       <c r="D115" t="n">
-        <v>0.865911</v>
+        <v>0.885758</v>
       </c>
       <c r="E115" t="n">
-        <v>0.190856</v>
+        <v>0.195125</v>
       </c>
       <c r="F115" t="n">
-        <v>0.224119</v>
+        <v>0.227063</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.233275</v>
+        <v>0.2339</v>
       </c>
       <c r="C116" t="n">
-        <v>0.312151</v>
+        <v>0.310679</v>
       </c>
       <c r="D116" t="n">
-        <v>0.882046</v>
+        <v>0.8923489999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>0.199655</v>
+        <v>0.197013</v>
       </c>
       <c r="F116" t="n">
-        <v>0.238571</v>
+        <v>0.237716</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.243729</v>
+        <v>0.241276</v>
       </c>
       <c r="C117" t="n">
-        <v>0.330962</v>
+        <v>0.325707</v>
       </c>
       <c r="D117" t="n">
-        <v>0.942203</v>
+        <v>0.906843</v>
       </c>
       <c r="E117" t="n">
-        <v>0.194085</v>
+        <v>0.193483</v>
       </c>
       <c r="F117" t="n">
-        <v>0.238716</v>
+        <v>0.241371</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.253174</v>
+        <v>0.247761</v>
       </c>
       <c r="C118" t="n">
-        <v>0.342868</v>
+        <v>0.370177</v>
       </c>
       <c r="D118" t="n">
-        <v>0.94035</v>
+        <v>0.987941</v>
       </c>
       <c r="E118" t="n">
-        <v>0.200389</v>
+        <v>0.20154</v>
       </c>
       <c r="F118" t="n">
-        <v>0.247718</v>
+        <v>0.250531</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.271161</v>
+        <v>0.257878</v>
       </c>
       <c r="C119" t="n">
-        <v>0.35777</v>
+        <v>0.359339</v>
       </c>
       <c r="D119" t="n">
-        <v>0.962965</v>
+        <v>0.956964</v>
       </c>
       <c r="E119" t="n">
-        <v>0.203315</v>
+        <v>0.206707</v>
       </c>
       <c r="F119" t="n">
-        <v>0.259719</v>
+        <v>0.260084</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.283076</v>
+        <v>0.28141</v>
       </c>
       <c r="C120" t="n">
-        <v>0.424331</v>
+        <v>0.396557</v>
       </c>
       <c r="D120" t="n">
-        <v>1.01114</v>
+        <v>0.986525</v>
       </c>
       <c r="E120" t="n">
-        <v>0.221752</v>
+        <v>0.217892</v>
       </c>
       <c r="F120" t="n">
-        <v>0.294644</v>
+        <v>0.28714</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.303473</v>
+        <v>0.300201</v>
       </c>
       <c r="C121" t="n">
-        <v>0.432231</v>
+        <v>0.423769</v>
       </c>
       <c r="D121" t="n">
-        <v>0.751119</v>
+        <v>0.744582</v>
       </c>
       <c r="E121" t="n">
-        <v>0.226977</v>
+        <v>0.230189</v>
       </c>
       <c r="F121" t="n">
-        <v>0.314136</v>
+        <v>0.291524</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.347197</v>
+        <v>0.342013</v>
       </c>
       <c r="C122" t="n">
-        <v>0.487059</v>
+        <v>0.495794</v>
       </c>
       <c r="D122" t="n">
-        <v>0.766646</v>
+        <v>0.778524</v>
       </c>
       <c r="E122" t="n">
-        <v>0.247186</v>
+        <v>0.264405</v>
       </c>
       <c r="F122" t="n">
-        <v>0.317666</v>
+        <v>0.31877</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.419404</v>
+        <v>0.444476</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5934469999999999</v>
+        <v>0.598634</v>
       </c>
       <c r="D123" t="n">
-        <v>0.795204</v>
+        <v>0.794413</v>
       </c>
       <c r="E123" t="n">
-        <v>0.283298</v>
+        <v>0.288845</v>
       </c>
       <c r="F123" t="n">
-        <v>0.323441</v>
+        <v>0.313929</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.345869</v>
+        <v>0.344004</v>
       </c>
       <c r="C124" t="n">
-        <v>0.403508</v>
+        <v>0.416978</v>
       </c>
       <c r="D124" t="n">
-        <v>0.812207</v>
+        <v>0.841463</v>
       </c>
       <c r="E124" t="n">
-        <v>0.287781</v>
+        <v>0.289571</v>
       </c>
       <c r="F124" t="n">
-        <v>0.316576</v>
+        <v>0.326084</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.350212</v>
+        <v>0.35493</v>
       </c>
       <c r="C125" t="n">
-        <v>0.418163</v>
+        <v>0.426576</v>
       </c>
       <c r="D125" t="n">
-        <v>0.940014</v>
+        <v>0.82886</v>
       </c>
       <c r="E125" t="n">
-        <v>0.296203</v>
+        <v>0.28821</v>
       </c>
       <c r="F125" t="n">
-        <v>0.325549</v>
+        <v>0.325512</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.362465</v>
+        <v>0.353447</v>
       </c>
       <c r="C126" t="n">
-        <v>0.417198</v>
+        <v>0.418269</v>
       </c>
       <c r="D126" t="n">
-        <v>0.848341</v>
+        <v>0.856169</v>
       </c>
       <c r="E126" t="n">
-        <v>0.298598</v>
+        <v>0.298781</v>
       </c>
       <c r="F126" t="n">
-        <v>0.322946</v>
+        <v>0.344221</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.37037</v>
+        <v>0.367623</v>
       </c>
       <c r="C127" t="n">
-        <v>0.447572</v>
+        <v>0.42328</v>
       </c>
       <c r="D127" t="n">
-        <v>0.889753</v>
+        <v>0.887302</v>
       </c>
       <c r="E127" t="n">
-        <v>0.293063</v>
+        <v>0.29319</v>
       </c>
       <c r="F127" t="n">
-        <v>0.32831</v>
+        <v>0.343424</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.367053</v>
+        <v>0.360252</v>
       </c>
       <c r="C128" t="n">
-        <v>0.432861</v>
+        <v>0.44692</v>
       </c>
       <c r="D128" t="n">
-        <v>0.896381</v>
+        <v>0.9053099999999999</v>
       </c>
       <c r="E128" t="n">
-        <v>0.307412</v>
+        <v>0.293881</v>
       </c>
       <c r="F128" t="n">
-        <v>0.331914</v>
+        <v>0.348064</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.369694</v>
+        <v>0.364399</v>
       </c>
       <c r="C129" t="n">
-        <v>0.446721</v>
+        <v>0.439194</v>
       </c>
       <c r="D129" t="n">
-        <v>0.952337</v>
+        <v>0.929333</v>
       </c>
       <c r="E129" t="n">
-        <v>0.313359</v>
+        <v>0.301236</v>
       </c>
       <c r="F129" t="n">
-        <v>0.338107</v>
+        <v>0.351876</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.382022</v>
+        <v>0.387545</v>
       </c>
       <c r="C130" t="n">
-        <v>0.481506</v>
+        <v>0.467432</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9741880000000001</v>
+        <v>0.964823</v>
       </c>
       <c r="E130" t="n">
-        <v>0.300929</v>
+        <v>0.304451</v>
       </c>
       <c r="F130" t="n">
-        <v>0.34304</v>
+        <v>0.349367</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.403495</v>
+        <v>0.390216</v>
       </c>
       <c r="C131" t="n">
-        <v>0.472697</v>
+        <v>0.482676</v>
       </c>
       <c r="D131" t="n">
-        <v>1.01582</v>
+        <v>1.00074</v>
       </c>
       <c r="E131" t="n">
-        <v>0.308407</v>
+        <v>0.309629</v>
       </c>
       <c r="F131" t="n">
-        <v>0.359125</v>
+        <v>0.365779</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.397309</v>
+        <v>0.394494</v>
       </c>
       <c r="C132" t="n">
-        <v>0.481937</v>
+        <v>0.479125</v>
       </c>
       <c r="D132" t="n">
-        <v>1.02914</v>
+        <v>1.02372</v>
       </c>
       <c r="E132" t="n">
-        <v>0.311328</v>
+        <v>0.323369</v>
       </c>
       <c r="F132" t="n">
-        <v>0.360354</v>
+        <v>0.374541</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.434428</v>
+        <v>0.408433</v>
       </c>
       <c r="C133" t="n">
-        <v>0.49434</v>
+        <v>0.505477</v>
       </c>
       <c r="D133" t="n">
-        <v>1.06359</v>
+        <v>1.07366</v>
       </c>
       <c r="E133" t="n">
-        <v>0.31543</v>
+        <v>0.323554</v>
       </c>
       <c r="F133" t="n">
-        <v>0.370003</v>
+        <v>0.378271</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.432779</v>
+        <v>0.430352</v>
       </c>
       <c r="C134" t="n">
-        <v>0.529903</v>
+        <v>0.53381</v>
       </c>
       <c r="D134" t="n">
-        <v>1.1054</v>
+        <v>1.10366</v>
       </c>
       <c r="E134" t="n">
-        <v>0.325951</v>
+        <v>0.328604</v>
       </c>
       <c r="F134" t="n">
-        <v>0.382091</v>
+        <v>0.390381</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.462286</v>
+        <v>0.461586</v>
       </c>
       <c r="C135" t="n">
-        <v>0.599248</v>
+        <v>0.5710150000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>0.86963</v>
+        <v>0.867873</v>
       </c>
       <c r="E135" t="n">
-        <v>0.341087</v>
+        <v>0.341641</v>
       </c>
       <c r="F135" t="n">
-        <v>0.402678</v>
+        <v>0.420084</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.511864</v>
+        <v>0.516611</v>
       </c>
       <c r="C136" t="n">
-        <v>0.66781</v>
+        <v>0.6296659999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>0.902679</v>
+        <v>0.914702</v>
       </c>
       <c r="E136" t="n">
-        <v>0.368415</v>
+        <v>0.363489</v>
       </c>
       <c r="F136" t="n">
-        <v>0.434216</v>
+        <v>0.436719</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.61364</v>
+        <v>0.585645</v>
       </c>
       <c r="C137" t="n">
-        <v>0.775023</v>
+        <v>0.745594</v>
       </c>
       <c r="D137" t="n">
-        <v>0.952039</v>
+        <v>0.931752</v>
       </c>
       <c r="E137" t="n">
-        <v>0.352032</v>
+        <v>0.353405</v>
       </c>
       <c r="F137" t="n">
-        <v>0.384274</v>
+        <v>0.389548</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.445544</v>
+        <v>0.429688</v>
       </c>
       <c r="C138" t="n">
-        <v>0.487555</v>
+        <v>0.486521</v>
       </c>
       <c r="D138" t="n">
-        <v>0.962843</v>
+        <v>0.974452</v>
       </c>
       <c r="E138" t="n">
-        <v>0.353238</v>
+        <v>0.350179</v>
       </c>
       <c r="F138" t="n">
-        <v>0.377463</v>
+        <v>0.384884</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.440319</v>
+        <v>0.436641</v>
       </c>
       <c r="C139" t="n">
-        <v>0.5056850000000001</v>
+        <v>0.495958</v>
       </c>
       <c r="D139" t="n">
-        <v>0.99612</v>
+        <v>0.9943109999999999</v>
       </c>
       <c r="E139" t="n">
-        <v>0.353963</v>
+        <v>0.359752</v>
       </c>
       <c r="F139" t="n">
-        <v>0.399399</v>
+        <v>0.387448</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.450597</v>
+        <v>0.44507</v>
       </c>
       <c r="C140" t="n">
-        <v>0.511916</v>
+        <v>0.5237540000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>1.03646</v>
+        <v>1.04019</v>
       </c>
       <c r="E140" t="n">
-        <v>0.357918</v>
+        <v>0.361836</v>
       </c>
       <c r="F140" t="n">
-        <v>0.391339</v>
+        <v>0.396177</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.455332</v>
+        <v>0.447938</v>
       </c>
       <c r="C141" t="n">
-        <v>0.526127</v>
+        <v>0.5094649999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>1.07672</v>
+        <v>1.06657</v>
       </c>
       <c r="E141" t="n">
-        <v>0.368225</v>
+        <v>0.365155</v>
       </c>
       <c r="F141" t="n">
-        <v>0.398652</v>
+        <v>0.411111</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.460361</v>
+        <v>0.45332</v>
       </c>
       <c r="C142" t="n">
-        <v>0.535177</v>
+        <v>0.533403</v>
       </c>
       <c r="D142" t="n">
-        <v>1.10104</v>
+        <v>1.11079</v>
       </c>
       <c r="E142" t="n">
-        <v>0.36292</v>
+        <v>0.367364</v>
       </c>
       <c r="F142" t="n">
-        <v>0.407511</v>
+        <v>0.402262</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.461156</v>
+        <v>0.452216</v>
       </c>
       <c r="C143" t="n">
-        <v>0.544897</v>
+        <v>0.53995</v>
       </c>
       <c r="D143" t="n">
-        <v>1.14604</v>
+        <v>1.15952</v>
       </c>
       <c r="E143" t="n">
-        <v>0.366409</v>
+        <v>0.375501</v>
       </c>
       <c r="F143" t="n">
-        <v>0.409125</v>
+        <v>0.412933</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0586566</v>
+        <v>0.0589008</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0598362</v>
+        <v>0.0598186</v>
       </c>
       <c r="D2" t="n">
-        <v>0.164896</v>
+        <v>0.162677</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07154199999999999</v>
+        <v>0.07094010000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0617722</v>
+        <v>0.0627331</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06104</v>
+        <v>0.0615086</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0623014</v>
+        <v>0.0630604</v>
       </c>
       <c r="D3" t="n">
-        <v>0.167965</v>
+        <v>0.171595</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07209110000000001</v>
+        <v>0.07350669999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0623899</v>
+        <v>0.0624563</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0647466</v>
+        <v>0.0650111</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0665568</v>
+        <v>0.0675461</v>
       </c>
       <c r="D4" t="n">
-        <v>0.171652</v>
+        <v>0.171798</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07410360000000001</v>
+        <v>0.0737652</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06514349999999999</v>
+        <v>0.0642834</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07131750000000001</v>
+        <v>0.0732385</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07241590000000001</v>
+        <v>0.0766087</v>
       </c>
       <c r="D5" t="n">
-        <v>0.178239</v>
+        <v>0.176678</v>
       </c>
       <c r="E5" t="n">
-        <v>0.076589</v>
+        <v>0.0752492</v>
       </c>
       <c r="F5" t="n">
-        <v>0.066594</v>
+        <v>0.06610779999999999</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0806843</v>
+        <v>0.0766405</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0810988</v>
+        <v>0.081007</v>
       </c>
       <c r="D6" t="n">
-        <v>0.181274</v>
+        <v>0.181007</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0802066</v>
+        <v>0.07829419999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0695081</v>
+        <v>0.0695118</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.09192599999999999</v>
+        <v>0.0885392</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0914701</v>
+        <v>0.0952363</v>
       </c>
       <c r="D7" t="n">
-        <v>0.144074</v>
+        <v>0.144456</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0852754</v>
+        <v>0.0867072</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0764682</v>
+        <v>0.0760117</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.119659</v>
+        <v>0.108686</v>
       </c>
       <c r="C8" t="n">
-        <v>0.11357</v>
+        <v>0.112495</v>
       </c>
       <c r="D8" t="n">
-        <v>0.151032</v>
+        <v>0.151791</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0952339</v>
+        <v>0.09506779999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>0.085896</v>
+        <v>0.08606809999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.148592</v>
+        <v>0.142734</v>
       </c>
       <c r="C9" t="n">
-        <v>0.143541</v>
+        <v>0.149759</v>
       </c>
       <c r="D9" t="n">
-        <v>0.155543</v>
+        <v>0.16595</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06944359999999999</v>
+        <v>0.0700118</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0609529</v>
+        <v>0.06255049999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0577497</v>
+        <v>0.0570163</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0581102</v>
+        <v>0.058272</v>
       </c>
       <c r="D10" t="n">
-        <v>0.159248</v>
+        <v>0.162037</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0699887</v>
+        <v>0.07152799999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0614868</v>
+        <v>0.0626698</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0580154</v>
+        <v>0.0579416</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0588472</v>
+        <v>0.0592279</v>
       </c>
       <c r="D11" t="n">
-        <v>0.164388</v>
+        <v>0.165241</v>
       </c>
       <c r="E11" t="n">
-        <v>0.070198</v>
+        <v>0.0723784</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0630773</v>
+        <v>0.0620282</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0582717</v>
+        <v>0.0582283</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0593702</v>
+        <v>0.0598686</v>
       </c>
       <c r="D12" t="n">
-        <v>0.169342</v>
+        <v>0.170304</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07033300000000001</v>
+        <v>0.07027700000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0619149</v>
+        <v>0.062144</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0589774</v>
+        <v>0.0588096</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0603659</v>
+        <v>0.0610711</v>
       </c>
       <c r="D13" t="n">
-        <v>0.174189</v>
+        <v>0.174525</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07052360000000001</v>
+        <v>0.0707131</v>
       </c>
       <c r="F13" t="n">
-        <v>0.062284</v>
+        <v>0.06320190000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0602099</v>
+        <v>0.0595159</v>
       </c>
       <c r="C14" t="n">
-        <v>0.061635</v>
+        <v>0.0625043</v>
       </c>
       <c r="D14" t="n">
-        <v>0.179113</v>
+        <v>0.179855</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0709225</v>
+        <v>0.07095600000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0624643</v>
+        <v>0.0629321</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0608501</v>
+        <v>0.0608834</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0634851</v>
+        <v>0.0635747</v>
       </c>
       <c r="D15" t="n">
-        <v>0.183465</v>
+        <v>0.183989</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0718047</v>
+        <v>0.0715985</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06319429999999999</v>
+        <v>0.0635787</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.062649</v>
+        <v>0.0620692</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0654745</v>
+        <v>0.0659551</v>
       </c>
       <c r="D16" t="n">
-        <v>0.186637</v>
+        <v>0.188745</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0719602</v>
+        <v>0.0733471</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0644609</v>
+        <v>0.06737410000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06520479999999999</v>
+        <v>0.065246</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0674474</v>
+        <v>0.0690089</v>
       </c>
       <c r="D17" t="n">
-        <v>0.192548</v>
+        <v>0.194244</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0737775</v>
+        <v>0.0734802</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0652725</v>
+        <v>0.0665422</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.068784</v>
+        <v>0.0712127</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07137839999999999</v>
+        <v>0.07352210000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.196049</v>
+        <v>0.196273</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0754296</v>
+        <v>0.0747743</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0668798</v>
+        <v>0.0671161</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0748282</v>
+        <v>0.0741791</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07554909999999999</v>
+        <v>0.07643320000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.201222</v>
+        <v>0.201475</v>
       </c>
       <c r="E19" t="n">
-        <v>0.077898</v>
+        <v>0.07669910000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0692001</v>
+        <v>0.0687811</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0816447</v>
+        <v>0.0813122</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08335679999999999</v>
+        <v>0.08367910000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.205978</v>
+        <v>0.21468</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0839549</v>
+        <v>0.0805873</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0726628</v>
+        <v>0.0728433</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.100182</v>
+        <v>0.0944899</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0940797</v>
+        <v>0.09644809999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.157363</v>
+        <v>0.160411</v>
       </c>
       <c r="E21" t="n">
-        <v>0.086768</v>
+        <v>0.0865847</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07763689999999999</v>
+        <v>0.0776961</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.115582</v>
+        <v>0.115204</v>
       </c>
       <c r="C22" t="n">
-        <v>0.113845</v>
+        <v>0.113704</v>
       </c>
       <c r="D22" t="n">
-        <v>0.164305</v>
+        <v>0.165818</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0959155</v>
+        <v>0.09563820000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0865793</v>
+        <v>0.08767809999999999</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.150545</v>
+        <v>0.146108</v>
       </c>
       <c r="C23" t="n">
-        <v>0.14712</v>
+        <v>0.142757</v>
       </c>
       <c r="D23" t="n">
-        <v>0.170338</v>
+        <v>0.171937</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0705066</v>
+        <v>0.070176</v>
       </c>
       <c r="F23" t="n">
-        <v>0.06375210000000001</v>
+        <v>0.0635399</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0607597</v>
+        <v>0.0613091</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0638058</v>
+        <v>0.06382259999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.174301</v>
+        <v>0.177648</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0704205</v>
+        <v>0.07035660000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0636486</v>
+        <v>0.0660453</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0615928</v>
+        <v>0.0617234</v>
       </c>
       <c r="C25" t="n">
-        <v>0.064112</v>
+        <v>0.0649882</v>
       </c>
       <c r="D25" t="n">
-        <v>0.183459</v>
+        <v>0.187347</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0710961</v>
+        <v>0.07047539999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0638898</v>
+        <v>0.06387130000000001</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.06201</v>
+        <v>0.061815</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0647575</v>
+        <v>0.0654194</v>
       </c>
       <c r="D26" t="n">
-        <v>0.185742</v>
+        <v>0.189234</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0709422</v>
+        <v>0.07081709999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0644617</v>
+        <v>0.0643904</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0625574</v>
+        <v>0.0624362</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0669399</v>
+        <v>0.06656280000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.191788</v>
+        <v>0.194488</v>
       </c>
       <c r="E27" t="n">
-        <v>0.07238269999999999</v>
+        <v>0.0722867</v>
       </c>
       <c r="F27" t="n">
-        <v>0.06711590000000001</v>
+        <v>0.065788</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0635693</v>
+        <v>0.0646182</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0677473</v>
+        <v>0.06873559999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.198428</v>
+        <v>0.207745</v>
       </c>
       <c r="E28" t="n">
-        <v>0.07262209999999999</v>
+        <v>0.07273399999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0672928</v>
+        <v>0.0656685</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0678892</v>
+        <v>0.065223</v>
       </c>
       <c r="C29" t="n">
-        <v>0.06859990000000001</v>
+        <v>0.0692286</v>
       </c>
       <c r="D29" t="n">
-        <v>0.203191</v>
+        <v>0.203588</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0728753</v>
+        <v>0.0720146</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0669565</v>
+        <v>0.066052</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0681693</v>
+        <v>0.0664501</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0709361</v>
+        <v>0.07090829999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.20874</v>
+        <v>0.212344</v>
       </c>
       <c r="E30" t="n">
-        <v>0.07350180000000001</v>
+        <v>0.0730297</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0695737</v>
+        <v>0.06760480000000001</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0695597</v>
+        <v>0.0691324</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0739644</v>
+        <v>0.0741527</v>
       </c>
       <c r="D31" t="n">
-        <v>0.216913</v>
+        <v>0.213495</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0743231</v>
+        <v>0.0741141</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06826</v>
+        <v>0.06846720000000001</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0714645</v>
+        <v>0.0731221</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0767323</v>
+        <v>0.0769691</v>
       </c>
       <c r="D32" t="n">
-        <v>0.215244</v>
+        <v>0.222533</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0764005</v>
+        <v>0.0761121</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07050530000000001</v>
+        <v>0.0707662</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0779338</v>
+        <v>0.07782360000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.082179</v>
+        <v>0.0828816</v>
       </c>
       <c r="D33" t="n">
-        <v>0.22685</v>
+        <v>0.230448</v>
       </c>
       <c r="E33" t="n">
-        <v>0.08111169999999999</v>
+        <v>0.07840270000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>0.07282909999999999</v>
+        <v>0.0741864</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08428099999999999</v>
+        <v>0.08556030000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0899684</v>
+        <v>0.0900165</v>
       </c>
       <c r="D34" t="n">
-        <v>0.230512</v>
+        <v>0.237305</v>
       </c>
       <c r="E34" t="n">
-        <v>0.08252950000000001</v>
+        <v>0.0829657</v>
       </c>
       <c r="F34" t="n">
-        <v>0.078139</v>
+        <v>0.0767173</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0961216</v>
+        <v>0.0975993</v>
       </c>
       <c r="C35" t="n">
-        <v>0.100916</v>
+        <v>0.102311</v>
       </c>
       <c r="D35" t="n">
-        <v>0.17737</v>
+        <v>0.17861</v>
       </c>
       <c r="E35" t="n">
-        <v>0.08874120000000001</v>
+        <v>0.0886536</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0838656</v>
+        <v>0.08245950000000001</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1137</v>
+        <v>0.116281</v>
       </c>
       <c r="C36" t="n">
-        <v>0.117587</v>
+        <v>0.116942</v>
       </c>
       <c r="D36" t="n">
-        <v>0.181478</v>
+        <v>0.189647</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0980415</v>
+        <v>0.0980183</v>
       </c>
       <c r="F36" t="n">
-        <v>0.09116150000000001</v>
+        <v>0.09171609999999999</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.143879</v>
+        <v>0.144922</v>
       </c>
       <c r="C37" t="n">
-        <v>0.143443</v>
+        <v>0.144003</v>
       </c>
       <c r="D37" t="n">
-        <v>0.187678</v>
+        <v>0.190914</v>
       </c>
       <c r="E37" t="n">
-        <v>0.073131</v>
+        <v>0.0730114</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0678073</v>
+        <v>0.06737</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0660319</v>
+        <v>0.06604839999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0741338</v>
+        <v>0.0702878</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1957</v>
+        <v>0.198998</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0730157</v>
+        <v>0.0728178</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0688078</v>
+        <v>0.06791030000000001</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0659508</v>
+        <v>0.0663498</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0726154</v>
+        <v>0.0723562</v>
       </c>
       <c r="D39" t="n">
-        <v>0.203002</v>
+        <v>0.208566</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0783701</v>
+        <v>0.0734518</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0714185</v>
+        <v>0.0684158</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0663074</v>
+        <v>0.0670383</v>
       </c>
       <c r="C40" t="n">
-        <v>0.074241</v>
+        <v>0.07448689999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.212744</v>
+        <v>0.213755</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0739659</v>
+        <v>0.0738825</v>
       </c>
       <c r="F40" t="n">
-        <v>0.06927850000000001</v>
+        <v>0.06957969999999999</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0677246</v>
+        <v>0.0683131</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0760526</v>
+        <v>0.0755305</v>
       </c>
       <c r="D41" t="n">
-        <v>0.21991</v>
+        <v>0.219937</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0748069</v>
+        <v>0.07353659999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0698821</v>
+        <v>0.0708488</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.06913420000000001</v>
+        <v>0.0686271</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07739559999999999</v>
+        <v>0.0768611</v>
       </c>
       <c r="D42" t="n">
-        <v>0.233144</v>
+        <v>0.230671</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0762718</v>
+        <v>0.0745502</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0707142</v>
+        <v>0.07096909999999999</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0715142</v>
+        <v>0.0698285</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0811215</v>
+        <v>0.0778871</v>
       </c>
       <c r="D43" t="n">
-        <v>0.237611</v>
+        <v>0.238611</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0746946</v>
+        <v>0.0751396</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0716855</v>
+        <v>0.0719664</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.07180449999999999</v>
+        <v>0.0711162</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0820104</v>
+        <v>0.0816212</v>
       </c>
       <c r="D44" t="n">
-        <v>0.25193</v>
+        <v>0.253473</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0811142</v>
+        <v>0.0756404</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0730893</v>
+        <v>0.07275570000000001</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0735252</v>
+        <v>0.073044</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0852755</v>
+        <v>0.08421049999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.265402</v>
+        <v>0.255002</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0766363</v>
+        <v>0.0767644</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0749861</v>
+        <v>0.0747297</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0766225</v>
+        <v>0.0770594</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0890485</v>
+        <v>0.0902086</v>
       </c>
       <c r="D46" t="n">
-        <v>0.267961</v>
+        <v>0.266068</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0785411</v>
+        <v>0.0782933</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0770412</v>
+        <v>0.0767895</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.08142190000000001</v>
+        <v>0.0805096</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0951332</v>
+        <v>0.09450119999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.284642</v>
+        <v>0.280523</v>
       </c>
       <c r="E47" t="n">
-        <v>0.08066810000000001</v>
+        <v>0.0809655</v>
       </c>
       <c r="F47" t="n">
-        <v>0.080358</v>
+        <v>0.08012759999999999</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.087017</v>
+        <v>0.08783820000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.101317</v>
+        <v>0.100306</v>
       </c>
       <c r="D48" t="n">
-        <v>0.30173</v>
+        <v>0.291663</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0839012</v>
+        <v>0.0835024</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0844575</v>
+        <v>0.0826663</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.09801989999999999</v>
+        <v>0.0963429</v>
       </c>
       <c r="C49" t="n">
-        <v>0.114181</v>
+        <v>0.111147</v>
       </c>
       <c r="D49" t="n">
-        <v>0.307431</v>
+        <v>0.310168</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0887888</v>
+        <v>0.0890435</v>
       </c>
       <c r="F49" t="n">
-        <v>0.08775819999999999</v>
+        <v>0.08867899999999999</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.115752</v>
+        <v>0.11259</v>
       </c>
       <c r="C50" t="n">
-        <v>0.132273</v>
+        <v>0.126829</v>
       </c>
       <c r="D50" t="n">
-        <v>0.221439</v>
+        <v>0.221744</v>
       </c>
       <c r="E50" t="n">
-        <v>0.100444</v>
+        <v>0.097798</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0988632</v>
+        <v>0.0978185</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.140428</v>
+        <v>0.1396</v>
       </c>
       <c r="C51" t="n">
-        <v>0.156335</v>
+        <v>0.152806</v>
       </c>
       <c r="D51" t="n">
-        <v>0.230894</v>
+        <v>0.234535</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0776251</v>
+        <v>0.07711179999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0752801</v>
+        <v>0.075184</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.193247</v>
+        <v>0.18117</v>
       </c>
       <c r="C52" t="n">
-        <v>0.203161</v>
+        <v>0.19445</v>
       </c>
       <c r="D52" t="n">
-        <v>0.244902</v>
+        <v>0.243068</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0797856</v>
+        <v>0.07747419999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0783464</v>
+        <v>0.07669189999999999</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0778069</v>
+        <v>0.0777214</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0905195</v>
+        <v>0.09079669999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.254589</v>
+        <v>0.256857</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0792206</v>
+        <v>0.0780858</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0780337</v>
+        <v>0.0768616</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0779461</v>
+        <v>0.07771459999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.09199590000000001</v>
+        <v>0.09287239999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.266141</v>
+        <v>0.271784</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0790527</v>
+        <v>0.0791472</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0810884</v>
+        <v>0.0782115</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.08115849999999999</v>
+        <v>0.0793152</v>
       </c>
       <c r="C55" t="n">
-        <v>0.09272710000000001</v>
+        <v>0.0938006</v>
       </c>
       <c r="D55" t="n">
-        <v>0.278504</v>
+        <v>0.28306</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0789723</v>
+        <v>0.0793555</v>
       </c>
       <c r="F55" t="n">
-        <v>0.07857599999999999</v>
+        <v>0.082206</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0807107</v>
+        <v>0.08662540000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0992874</v>
+        <v>0.0960611</v>
       </c>
       <c r="D56" t="n">
-        <v>0.296239</v>
+        <v>0.304567</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0819508</v>
+        <v>0.0806159</v>
       </c>
       <c r="F56" t="n">
-        <v>0.07984579999999999</v>
+        <v>0.0799208</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0827991</v>
+        <v>0.08169</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0977975</v>
+        <v>0.0976506</v>
       </c>
       <c r="D57" t="n">
-        <v>0.307597</v>
+        <v>0.309945</v>
       </c>
       <c r="E57" t="n">
-        <v>0.08059040000000001</v>
+        <v>0.08047890000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0807518</v>
+        <v>0.08116669999999999</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.08376409999999999</v>
+        <v>0.0830023</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0998189</v>
+        <v>0.100747</v>
       </c>
       <c r="D58" t="n">
-        <v>0.341069</v>
+        <v>0.339766</v>
       </c>
       <c r="E58" t="n">
-        <v>0.08699900000000001</v>
+        <v>0.0815125</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0830468</v>
+        <v>0.0830962</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0864516</v>
+        <v>0.08604580000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.104654</v>
+        <v>0.105456</v>
       </c>
       <c r="D59" t="n">
-        <v>0.352068</v>
+        <v>0.355984</v>
       </c>
       <c r="E59" t="n">
-        <v>0.08522979999999999</v>
+        <v>0.08511730000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0846976</v>
+        <v>0.0854712</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0883862</v>
+        <v>0.0897357</v>
       </c>
       <c r="C60" t="n">
-        <v>0.108337</v>
+        <v>0.109479</v>
       </c>
       <c r="D60" t="n">
-        <v>0.362759</v>
+        <v>0.373308</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0849888</v>
+        <v>0.0864611</v>
       </c>
       <c r="F60" t="n">
-        <v>0.08689520000000001</v>
+        <v>0.08813020000000001</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0974199</v>
+        <v>0.09333329999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.11537</v>
+        <v>0.116242</v>
       </c>
       <c r="D61" t="n">
-        <v>0.382788</v>
+        <v>0.390015</v>
       </c>
       <c r="E61" t="n">
-        <v>0.086883</v>
+        <v>0.0890746</v>
       </c>
       <c r="F61" t="n">
-        <v>0.09054280000000001</v>
+        <v>0.0904515</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.09913379999999999</v>
+        <v>0.0991208</v>
       </c>
       <c r="C62" t="n">
-        <v>0.124175</v>
+        <v>0.124993</v>
       </c>
       <c r="D62" t="n">
-        <v>0.411837</v>
+        <v>0.427336</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0907828</v>
+        <v>0.09065529999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0991996</v>
+        <v>0.0942003</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.109355</v>
+        <v>0.107743</v>
       </c>
       <c r="C63" t="n">
-        <v>0.13468</v>
+        <v>0.135611</v>
       </c>
       <c r="D63" t="n">
-        <v>0.434845</v>
+        <v>0.432467</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0957682</v>
+        <v>0.09597799999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>0.100273</v>
+        <v>0.108037</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.121772</v>
+        <v>0.121526</v>
       </c>
       <c r="C64" t="n">
-        <v>0.15438</v>
+        <v>0.151223</v>
       </c>
       <c r="D64" t="n">
-        <v>0.316063</v>
+        <v>0.318134</v>
       </c>
       <c r="E64" t="n">
-        <v>0.10376</v>
+        <v>0.105067</v>
       </c>
       <c r="F64" t="n">
-        <v>0.118069</v>
+        <v>0.109268</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.146264</v>
+        <v>0.144505</v>
       </c>
       <c r="C65" t="n">
-        <v>0.182692</v>
+        <v>0.178186</v>
       </c>
       <c r="D65" t="n">
-        <v>0.336166</v>
+        <v>0.334697</v>
       </c>
       <c r="E65" t="n">
-        <v>0.11654</v>
+        <v>0.116668</v>
       </c>
       <c r="F65" t="n">
-        <v>0.123009</v>
+        <v>0.124085</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.183375</v>
+        <v>0.181748</v>
       </c>
       <c r="C66" t="n">
-        <v>0.221262</v>
+        <v>0.221412</v>
       </c>
       <c r="D66" t="n">
-        <v>0.348805</v>
+        <v>0.348231</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0825528</v>
+        <v>0.082621</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0839821</v>
+        <v>0.0842736</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.09012390000000001</v>
+        <v>0.08697000000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.107127</v>
+        <v>0.106111</v>
       </c>
       <c r="D67" t="n">
-        <v>0.368842</v>
+        <v>0.370902</v>
       </c>
       <c r="E67" t="n">
-        <v>0.083595</v>
+        <v>0.0830352</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0849548</v>
+        <v>0.085254</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0879982</v>
+        <v>0.0876878</v>
       </c>
       <c r="C68" t="n">
-        <v>0.109517</v>
+        <v>0.108964</v>
       </c>
       <c r="D68" t="n">
-        <v>0.393403</v>
+        <v>0.389499</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0878096</v>
+        <v>0.08352610000000001</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0862479</v>
+        <v>0.0863264</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0902684</v>
+        <v>0.0888977</v>
       </c>
       <c r="C69" t="n">
-        <v>0.112176</v>
+        <v>0.112369</v>
       </c>
       <c r="D69" t="n">
-        <v>0.414437</v>
+        <v>0.410882</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0872845</v>
+        <v>0.0849631</v>
       </c>
       <c r="F69" t="n">
-        <v>0.089128</v>
+        <v>0.08818810000000001</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0924913</v>
+        <v>0.0920745</v>
       </c>
       <c r="C70" t="n">
-        <v>0.11624</v>
+        <v>0.118702</v>
       </c>
       <c r="D70" t="n">
-        <v>0.450518</v>
+        <v>0.434386</v>
       </c>
       <c r="E70" t="n">
-        <v>0.086149</v>
+        <v>0.0855363</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0903307</v>
+        <v>0.0897255</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0921281</v>
+        <v>0.09269819999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.119133</v>
+        <v>0.121736</v>
       </c>
       <c r="D71" t="n">
-        <v>0.486079</v>
+        <v>0.455381</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0875778</v>
+        <v>0.0866772</v>
       </c>
       <c r="F71" t="n">
-        <v>0.090905</v>
+        <v>0.0920976</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0982215</v>
+        <v>0.09570910000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.120885</v>
+        <v>0.123001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.476904</v>
+        <v>0.482996</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0885901</v>
+        <v>0.088036</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0953306</v>
+        <v>0.093254</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.09631770000000001</v>
+        <v>0.09747649999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.128119</v>
+        <v>0.126444</v>
       </c>
       <c r="D73" t="n">
-        <v>0.501314</v>
+        <v>0.5008550000000001</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0894742</v>
+        <v>0.08948349999999999</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09764109999999999</v>
+        <v>0.0960762</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.100864</v>
+        <v>0.101514</v>
       </c>
       <c r="C74" t="n">
-        <v>0.136169</v>
+        <v>0.13468</v>
       </c>
       <c r="D74" t="n">
-        <v>0.537424</v>
+        <v>0.52934</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0918609</v>
+        <v>0.0913013</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0996649</v>
+        <v>0.0991582</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.10721</v>
+        <v>0.106682</v>
       </c>
       <c r="C75" t="n">
-        <v>0.141319</v>
+        <v>0.144875</v>
       </c>
       <c r="D75" t="n">
-        <v>0.551554</v>
+        <v>0.554299</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0944638</v>
+        <v>0.09464590000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>0.102573</v>
+        <v>0.104194</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.11653</v>
+        <v>0.113574</v>
       </c>
       <c r="C76" t="n">
-        <v>0.153449</v>
+        <v>0.154208</v>
       </c>
       <c r="D76" t="n">
-        <v>0.590822</v>
+        <v>0.583253</v>
       </c>
       <c r="E76" t="n">
-        <v>0.104573</v>
+        <v>0.0977681</v>
       </c>
       <c r="F76" t="n">
-        <v>0.11429</v>
+        <v>0.108349</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.128207</v>
+        <v>0.123965</v>
       </c>
       <c r="C77" t="n">
-        <v>0.16912</v>
+        <v>0.167673</v>
       </c>
       <c r="D77" t="n">
-        <v>0.611609</v>
+        <v>0.614358</v>
       </c>
       <c r="E77" t="n">
-        <v>0.102307</v>
+        <v>0.102407</v>
       </c>
       <c r="F77" t="n">
-        <v>0.117086</v>
+        <v>0.1148</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.140831</v>
+        <v>0.136818</v>
       </c>
       <c r="C78" t="n">
-        <v>0.188858</v>
+        <v>0.186794</v>
       </c>
       <c r="D78" t="n">
-        <v>0.456095</v>
+        <v>0.448178</v>
       </c>
       <c r="E78" t="n">
-        <v>0.111243</v>
+        <v>0.109976</v>
       </c>
       <c r="F78" t="n">
-        <v>0.129917</v>
+        <v>0.124137</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.162612</v>
+        <v>0.160881</v>
       </c>
       <c r="C79" t="n">
-        <v>0.221796</v>
+        <v>0.218064</v>
       </c>
       <c r="D79" t="n">
-        <v>0.477121</v>
+        <v>0.474747</v>
       </c>
       <c r="E79" t="n">
-        <v>0.129506</v>
+        <v>0.12693</v>
       </c>
       <c r="F79" t="n">
-        <v>0.141931</v>
+        <v>0.143223</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.199816</v>
+        <v>0.203193</v>
       </c>
       <c r="C80" t="n">
-        <v>0.273938</v>
+        <v>0.269176</v>
       </c>
       <c r="D80" t="n">
-        <v>0.498122</v>
+        <v>0.496352</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0885423</v>
+        <v>0.0883403</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0959496</v>
+        <v>0.094523</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.109134</v>
+        <v>0.0995072</v>
       </c>
       <c r="C81" t="n">
-        <v>0.133974</v>
+        <v>0.135061</v>
       </c>
       <c r="D81" t="n">
-        <v>0.523599</v>
+        <v>0.534699</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0899001</v>
+        <v>0.09046800000000001</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0978846</v>
+        <v>0.0999627</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.109359</v>
+        <v>0.102399</v>
       </c>
       <c r="C82" t="n">
-        <v>0.136977</v>
+        <v>0.136483</v>
       </c>
       <c r="D82" t="n">
-        <v>0.53518</v>
+        <v>0.532761</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0898051</v>
+        <v>0.0901806</v>
       </c>
       <c r="F82" t="n">
-        <v>0.100968</v>
+        <v>0.0992096</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.103722</v>
+        <v>0.102773</v>
       </c>
       <c r="C83" t="n">
-        <v>0.142203</v>
+        <v>0.143331</v>
       </c>
       <c r="D83" t="n">
-        <v>0.557129</v>
+        <v>0.562245</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0950039</v>
+        <v>0.09257600000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>0.101429</v>
+        <v>0.102619</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.110577</v>
+        <v>0.106291</v>
       </c>
       <c r="C84" t="n">
-        <v>0.152515</v>
+        <v>0.148198</v>
       </c>
       <c r="D84" t="n">
-        <v>0.591353</v>
+        <v>0.58433</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0951618</v>
+        <v>0.0937977</v>
       </c>
       <c r="F84" t="n">
-        <v>0.105535</v>
+        <v>0.105185</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.110018</v>
+        <v>0.110261</v>
       </c>
       <c r="C85" t="n">
-        <v>0.152482</v>
+        <v>0.160565</v>
       </c>
       <c r="D85" t="n">
-        <v>0.605733</v>
+        <v>0.609249</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0953611</v>
+        <v>0.0949084</v>
       </c>
       <c r="F85" t="n">
-        <v>0.111085</v>
+        <v>0.107826</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.120188</v>
+        <v>0.111546</v>
       </c>
       <c r="C86" t="n">
-        <v>0.157921</v>
+        <v>0.157638</v>
       </c>
       <c r="D86" t="n">
-        <v>0.635646</v>
+        <v>0.6269709999999999</v>
       </c>
       <c r="E86" t="n">
-        <v>0.09709950000000001</v>
+        <v>0.09725209999999999</v>
       </c>
       <c r="F86" t="n">
-        <v>0.112643</v>
+        <v>0.114988</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.119516</v>
+        <v>0.119027</v>
       </c>
       <c r="C87" t="n">
-        <v>0.169781</v>
+        <v>0.166677</v>
       </c>
       <c r="D87" t="n">
-        <v>0.665783</v>
+        <v>0.660265</v>
       </c>
       <c r="E87" t="n">
-        <v>0.09978620000000001</v>
+        <v>0.0995798</v>
       </c>
       <c r="F87" t="n">
-        <v>0.117297</v>
+        <v>0.115536</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.121137</v>
+        <v>0.121482</v>
       </c>
       <c r="C88" t="n">
-        <v>0.177121</v>
+        <v>0.1735</v>
       </c>
       <c r="D88" t="n">
-        <v>0.6872</v>
+        <v>0.680409</v>
       </c>
       <c r="E88" t="n">
-        <v>0.104791</v>
+        <v>0.10218</v>
       </c>
       <c r="F88" t="n">
-        <v>0.123389</v>
+        <v>0.11933</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.129844</v>
+        <v>0.128283</v>
       </c>
       <c r="C89" t="n">
-        <v>0.186497</v>
+        <v>0.185307</v>
       </c>
       <c r="D89" t="n">
-        <v>0.707884</v>
+        <v>0.721279</v>
       </c>
       <c r="E89" t="n">
-        <v>0.1057</v>
+        <v>0.106505</v>
       </c>
       <c r="F89" t="n">
-        <v>0.12597</v>
+        <v>0.126065</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.135567</v>
+        <v>0.137996</v>
       </c>
       <c r="C90" t="n">
-        <v>0.197879</v>
+        <v>0.195418</v>
       </c>
       <c r="D90" t="n">
-        <v>0.748449</v>
+        <v>0.725872</v>
       </c>
       <c r="E90" t="n">
-        <v>0.110923</v>
+        <v>0.109612</v>
       </c>
       <c r="F90" t="n">
-        <v>0.133093</v>
+        <v>0.13099</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.148436</v>
+        <v>0.147224</v>
       </c>
       <c r="C91" t="n">
-        <v>0.213464</v>
+        <v>0.212171</v>
       </c>
       <c r="D91" t="n">
-        <v>0.763095</v>
+        <v>0.758524</v>
       </c>
       <c r="E91" t="n">
-        <v>0.11594</v>
+        <v>0.1161</v>
       </c>
       <c r="F91" t="n">
-        <v>0.144256</v>
+        <v>0.140318</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.169076</v>
+        <v>0.162645</v>
       </c>
       <c r="C92" t="n">
-        <v>0.243689</v>
+        <v>0.235006</v>
       </c>
       <c r="D92" t="n">
-        <v>0.611708</v>
+        <v>0.605952</v>
       </c>
       <c r="E92" t="n">
-        <v>0.125925</v>
+        <v>0.125415</v>
       </c>
       <c r="F92" t="n">
-        <v>0.154138</v>
+        <v>0.152013</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.193345</v>
+        <v>0.185487</v>
       </c>
       <c r="C93" t="n">
-        <v>0.272292</v>
+        <v>0.267956</v>
       </c>
       <c r="D93" t="n">
-        <v>0.600888</v>
+        <v>0.5971340000000001</v>
       </c>
       <c r="E93" t="n">
-        <v>0.139164</v>
+        <v>0.13834</v>
       </c>
       <c r="F93" t="n">
-        <v>0.168419</v>
+        <v>0.16908</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.22589</v>
+        <v>0.22496</v>
       </c>
       <c r="C94" t="n">
-        <v>0.325875</v>
+        <v>0.321591</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6328009999999999</v>
+        <v>0.622984</v>
       </c>
       <c r="E94" t="n">
-        <v>0.109715</v>
+        <v>0.10799</v>
       </c>
       <c r="F94" t="n">
-        <v>0.129866</v>
+        <v>0.127267</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.128144</v>
+        <v>0.129695</v>
       </c>
       <c r="C95" t="n">
-        <v>0.178689</v>
+        <v>0.180039</v>
       </c>
       <c r="D95" t="n">
-        <v>0.636551</v>
+        <v>0.6774289999999999</v>
       </c>
       <c r="E95" t="n">
-        <v>0.109221</v>
+        <v>0.110096</v>
       </c>
       <c r="F95" t="n">
-        <v>0.130466</v>
+        <v>0.130576</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.13335</v>
+        <v>0.131749</v>
       </c>
       <c r="C96" t="n">
-        <v>0.187275</v>
+        <v>0.184826</v>
       </c>
       <c r="D96" t="n">
-        <v>0.699802</v>
+        <v>0.667393</v>
       </c>
       <c r="E96" t="n">
-        <v>0.11087</v>
+        <v>0.111084</v>
       </c>
       <c r="F96" t="n">
-        <v>0.134124</v>
+        <v>0.133802</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.134717</v>
+        <v>0.134448</v>
       </c>
       <c r="C97" t="n">
-        <v>0.190592</v>
+        <v>0.19129</v>
       </c>
       <c r="D97" t="n">
-        <v>0.701969</v>
+        <v>0.692818</v>
       </c>
       <c r="E97" t="n">
-        <v>0.117371</v>
+        <v>0.113362</v>
       </c>
       <c r="F97" t="n">
-        <v>0.13885</v>
+        <v>0.139029</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.146926</v>
+        <v>0.138312</v>
       </c>
       <c r="C98" t="n">
-        <v>0.195253</v>
+        <v>0.197104</v>
       </c>
       <c r="D98" t="n">
-        <v>0.7065630000000001</v>
+        <v>0.709861</v>
       </c>
       <c r="E98" t="n">
-        <v>0.124295</v>
+        <v>0.114452</v>
       </c>
       <c r="F98" t="n">
-        <v>0.142444</v>
+        <v>0.139718</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.144624</v>
+        <v>0.140626</v>
       </c>
       <c r="C99" t="n">
-        <v>0.201433</v>
+        <v>0.202069</v>
       </c>
       <c r="D99" t="n">
-        <v>0.727954</v>
+        <v>0.728591</v>
       </c>
       <c r="E99" t="n">
-        <v>0.117094</v>
+        <v>0.116479</v>
       </c>
       <c r="F99" t="n">
-        <v>0.14381</v>
+        <v>0.143209</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.144201</v>
+        <v>0.144231</v>
       </c>
       <c r="C100" t="n">
-        <v>0.207343</v>
+        <v>0.208542</v>
       </c>
       <c r="D100" t="n">
-        <v>0.758155</v>
+        <v>0.767714</v>
       </c>
       <c r="E100" t="n">
-        <v>0.119351</v>
+        <v>0.119037</v>
       </c>
       <c r="F100" t="n">
-        <v>0.154093</v>
+        <v>0.147293</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.147369</v>
+        <v>0.152713</v>
       </c>
       <c r="C101" t="n">
-        <v>0.22504</v>
+        <v>0.217846</v>
       </c>
       <c r="D101" t="n">
-        <v>0.775064</v>
+        <v>0.781691</v>
       </c>
       <c r="E101" t="n">
-        <v>0.122271</v>
+        <v>0.122467</v>
       </c>
       <c r="F101" t="n">
-        <v>0.153446</v>
+        <v>0.154356</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.154499</v>
+        <v>0.15384</v>
       </c>
       <c r="C102" t="n">
-        <v>0.226191</v>
+        <v>0.225128</v>
       </c>
       <c r="D102" t="n">
-        <v>0.803689</v>
+        <v>0.798423</v>
       </c>
       <c r="E102" t="n">
-        <v>0.126122</v>
+        <v>0.125026</v>
       </c>
       <c r="F102" t="n">
-        <v>0.159257</v>
+        <v>0.158054</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.166046</v>
+        <v>0.160768</v>
       </c>
       <c r="C103" t="n">
-        <v>0.248235</v>
+        <v>0.237007</v>
       </c>
       <c r="D103" t="n">
-        <v>0.837248</v>
+        <v>0.829958</v>
       </c>
       <c r="E103" t="n">
-        <v>0.13122</v>
+        <v>0.129457</v>
       </c>
       <c r="F103" t="n">
-        <v>0.163638</v>
+        <v>0.161963</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.168076</v>
+        <v>0.168623</v>
       </c>
       <c r="C104" t="n">
-        <v>0.249316</v>
+        <v>0.249527</v>
       </c>
       <c r="D104" t="n">
-        <v>0.858145</v>
+        <v>0.875764</v>
       </c>
       <c r="E104" t="n">
-        <v>0.134371</v>
+        <v>0.134966</v>
       </c>
       <c r="F104" t="n">
-        <v>0.170014</v>
+        <v>0.16775</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.187148</v>
+        <v>0.177803</v>
       </c>
       <c r="C105" t="n">
-        <v>0.268437</v>
+        <v>0.264307</v>
       </c>
       <c r="D105" t="n">
-        <v>0.885448</v>
+        <v>0.872202</v>
       </c>
       <c r="E105" t="n">
-        <v>0.138049</v>
+        <v>0.137418</v>
       </c>
       <c r="F105" t="n">
-        <v>0.17997</v>
+        <v>0.182472</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.195774</v>
+        <v>0.195591</v>
       </c>
       <c r="C106" t="n">
-        <v>0.29415</v>
+        <v>0.291423</v>
       </c>
       <c r="D106" t="n">
-        <v>0.917226</v>
+        <v>0.935788</v>
       </c>
       <c r="E106" t="n">
-        <v>0.147249</v>
+        <v>0.148407</v>
       </c>
       <c r="F106" t="n">
-        <v>0.192299</v>
+        <v>0.191825</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.221777</v>
+        <v>0.218861</v>
       </c>
       <c r="C107" t="n">
-        <v>0.329238</v>
+        <v>0.327368</v>
       </c>
       <c r="D107" t="n">
-        <v>0.691172</v>
+        <v>0.7232189999999999</v>
       </c>
       <c r="E107" t="n">
-        <v>0.162335</v>
+        <v>0.16493</v>
       </c>
       <c r="F107" t="n">
-        <v>0.209459</v>
+        <v>0.207551</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.258784</v>
+        <v>0.256536</v>
       </c>
       <c r="C108" t="n">
-        <v>0.385055</v>
+        <v>0.386076</v>
       </c>
       <c r="D108" t="n">
-        <v>0.747673</v>
+        <v>0.710221</v>
       </c>
       <c r="E108" t="n">
-        <v>0.188325</v>
+        <v>0.177999</v>
       </c>
       <c r="F108" t="n">
-        <v>0.203696</v>
+        <v>0.197934</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.339349</v>
+        <v>0.329748</v>
       </c>
       <c r="C109" t="n">
-        <v>0.524466</v>
+        <v>0.476216</v>
       </c>
       <c r="D109" t="n">
-        <v>0.762454</v>
+        <v>0.7252459999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>0.180888</v>
+        <v>0.178255</v>
       </c>
       <c r="F109" t="n">
-        <v>0.212208</v>
+        <v>0.205467</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.213646</v>
+        <v>0.21465</v>
       </c>
       <c r="C110" t="n">
-        <v>0.266193</v>
+        <v>0.26435</v>
       </c>
       <c r="D110" t="n">
-        <v>0.760506</v>
+        <v>0.747264</v>
       </c>
       <c r="E110" t="n">
-        <v>0.17895</v>
+        <v>0.178831</v>
       </c>
       <c r="F110" t="n">
-        <v>0.215379</v>
+        <v>0.207612</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.212475</v>
+        <v>0.211845</v>
       </c>
       <c r="C111" t="n">
-        <v>0.27636</v>
+        <v>0.271344</v>
       </c>
       <c r="D111" t="n">
-        <v>0.779643</v>
+        <v>0.771527</v>
       </c>
       <c r="E111" t="n">
-        <v>0.188467</v>
+        <v>0.179648</v>
       </c>
       <c r="F111" t="n">
-        <v>0.209166</v>
+        <v>0.212521</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.213838</v>
+        <v>0.21998</v>
       </c>
       <c r="C112" t="n">
-        <v>0.281697</v>
+        <v>0.292224</v>
       </c>
       <c r="D112" t="n">
-        <v>0.794888</v>
+        <v>0.790516</v>
       </c>
       <c r="E112" t="n">
-        <v>0.181593</v>
+        <v>0.182941</v>
       </c>
       <c r="F112" t="n">
-        <v>0.214185</v>
+        <v>0.219966</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.238546</v>
+        <v>0.218309</v>
       </c>
       <c r="C113" t="n">
-        <v>0.311366</v>
+        <v>0.311822</v>
       </c>
       <c r="D113" t="n">
-        <v>0.841203</v>
+        <v>0.867605</v>
       </c>
       <c r="E113" t="n">
-        <v>0.194075</v>
+        <v>0.199246</v>
       </c>
       <c r="F113" t="n">
-        <v>0.218964</v>
+        <v>0.217658</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.22337</v>
+        <v>0.228112</v>
       </c>
       <c r="C114" t="n">
-        <v>0.292332</v>
+        <v>0.294544</v>
       </c>
       <c r="D114" t="n">
-        <v>0.836216</v>
+        <v>0.8643729999999999</v>
       </c>
       <c r="E114" t="n">
-        <v>0.199787</v>
+        <v>0.197655</v>
       </c>
       <c r="F114" t="n">
-        <v>0.22255</v>
+        <v>0.229048</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.226402</v>
+        <v>0.227663</v>
       </c>
       <c r="C115" t="n">
-        <v>0.328598</v>
+        <v>0.304567</v>
       </c>
       <c r="D115" t="n">
-        <v>0.885758</v>
+        <v>0.860137</v>
       </c>
       <c r="E115" t="n">
-        <v>0.195125</v>
+        <v>0.190155</v>
       </c>
       <c r="F115" t="n">
-        <v>0.227063</v>
+        <v>0.23174</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.2339</v>
+        <v>0.230262</v>
       </c>
       <c r="C116" t="n">
-        <v>0.310679</v>
+        <v>0.311149</v>
       </c>
       <c r="D116" t="n">
-        <v>0.8923489999999999</v>
+        <v>0.884802</v>
       </c>
       <c r="E116" t="n">
-        <v>0.197013</v>
+        <v>0.19497</v>
       </c>
       <c r="F116" t="n">
-        <v>0.237716</v>
+        <v>0.235008</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.241276</v>
+        <v>0.24301</v>
       </c>
       <c r="C117" t="n">
-        <v>0.325707</v>
+        <v>0.325754</v>
       </c>
       <c r="D117" t="n">
-        <v>0.906843</v>
+        <v>0.904982</v>
       </c>
       <c r="E117" t="n">
-        <v>0.193483</v>
+        <v>0.195997</v>
       </c>
       <c r="F117" t="n">
-        <v>0.241371</v>
+        <v>0.239313</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.247761</v>
+        <v>0.249641</v>
       </c>
       <c r="C118" t="n">
-        <v>0.370177</v>
+        <v>0.342176</v>
       </c>
       <c r="D118" t="n">
-        <v>0.987941</v>
+        <v>0.945276</v>
       </c>
       <c r="E118" t="n">
-        <v>0.20154</v>
+        <v>0.205789</v>
       </c>
       <c r="F118" t="n">
-        <v>0.250531</v>
+        <v>0.253154</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.257878</v>
+        <v>0.259226</v>
       </c>
       <c r="C119" t="n">
-        <v>0.359339</v>
+        <v>0.361873</v>
       </c>
       <c r="D119" t="n">
-        <v>0.956964</v>
+        <v>0.955966</v>
       </c>
       <c r="E119" t="n">
-        <v>0.206707</v>
+        <v>0.204353</v>
       </c>
       <c r="F119" t="n">
-        <v>0.260084</v>
+        <v>0.278125</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.28141</v>
+        <v>0.296785</v>
       </c>
       <c r="C120" t="n">
-        <v>0.396557</v>
+        <v>0.385242</v>
       </c>
       <c r="D120" t="n">
-        <v>0.986525</v>
+        <v>0.985152</v>
       </c>
       <c r="E120" t="n">
-        <v>0.217892</v>
+        <v>0.213459</v>
       </c>
       <c r="F120" t="n">
-        <v>0.28714</v>
+        <v>0.269634</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.300201</v>
+        <v>0.302363</v>
       </c>
       <c r="C121" t="n">
-        <v>0.423769</v>
+        <v>0.428013</v>
       </c>
       <c r="D121" t="n">
-        <v>0.744582</v>
+        <v>0.744861</v>
       </c>
       <c r="E121" t="n">
-        <v>0.230189</v>
+        <v>0.248119</v>
       </c>
       <c r="F121" t="n">
-        <v>0.291524</v>
+        <v>0.286498</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.342013</v>
+        <v>0.369863</v>
       </c>
       <c r="C122" t="n">
-        <v>0.495794</v>
+        <v>0.496187</v>
       </c>
       <c r="D122" t="n">
-        <v>0.778524</v>
+        <v>0.764612</v>
       </c>
       <c r="E122" t="n">
-        <v>0.264405</v>
+        <v>0.249412</v>
       </c>
       <c r="F122" t="n">
-        <v>0.31877</v>
+        <v>0.317803</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.444476</v>
+        <v>0.40899</v>
       </c>
       <c r="C123" t="n">
-        <v>0.598634</v>
+        <v>0.5901149999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>0.794413</v>
+        <v>0.783763</v>
       </c>
       <c r="E123" t="n">
-        <v>0.288845</v>
+        <v>0.282967</v>
       </c>
       <c r="F123" t="n">
-        <v>0.313929</v>
+        <v>0.313619</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.344004</v>
+        <v>0.340203</v>
       </c>
       <c r="C124" t="n">
-        <v>0.416978</v>
+        <v>0.413664</v>
       </c>
       <c r="D124" t="n">
-        <v>0.841463</v>
+        <v>0.822792</v>
       </c>
       <c r="E124" t="n">
-        <v>0.289571</v>
+        <v>0.296615</v>
       </c>
       <c r="F124" t="n">
-        <v>0.326084</v>
+        <v>0.319535</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.35493</v>
+        <v>0.349432</v>
       </c>
       <c r="C125" t="n">
-        <v>0.426576</v>
+        <v>0.410284</v>
       </c>
       <c r="D125" t="n">
-        <v>0.82886</v>
+        <v>0.826782</v>
       </c>
       <c r="E125" t="n">
-        <v>0.28821</v>
+        <v>0.285728</v>
       </c>
       <c r="F125" t="n">
-        <v>0.325512</v>
+        <v>0.320418</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.353447</v>
+        <v>0.350002</v>
       </c>
       <c r="C126" t="n">
-        <v>0.418269</v>
+        <v>0.408636</v>
       </c>
       <c r="D126" t="n">
-        <v>0.856169</v>
+        <v>0.85059</v>
       </c>
       <c r="E126" t="n">
-        <v>0.298781</v>
+        <v>0.293663</v>
       </c>
       <c r="F126" t="n">
-        <v>0.344221</v>
+        <v>0.325729</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.367623</v>
+        <v>0.356218</v>
       </c>
       <c r="C127" t="n">
-        <v>0.42328</v>
+        <v>0.433609</v>
       </c>
       <c r="D127" t="n">
-        <v>0.887302</v>
+        <v>0.892643</v>
       </c>
       <c r="E127" t="n">
-        <v>0.29319</v>
+        <v>0.293215</v>
       </c>
       <c r="F127" t="n">
-        <v>0.343424</v>
+        <v>0.346262</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.360252</v>
+        <v>0.361969</v>
       </c>
       <c r="C128" t="n">
-        <v>0.44692</v>
+        <v>0.430032</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9053099999999999</v>
+        <v>0.894772</v>
       </c>
       <c r="E128" t="n">
-        <v>0.293881</v>
+        <v>0.295002</v>
       </c>
       <c r="F128" t="n">
-        <v>0.348064</v>
+        <v>0.33599</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.364399</v>
+        <v>0.367196</v>
       </c>
       <c r="C129" t="n">
-        <v>0.439194</v>
+        <v>0.445387</v>
       </c>
       <c r="D129" t="n">
-        <v>0.929333</v>
+        <v>0.944902</v>
       </c>
       <c r="E129" t="n">
-        <v>0.301236</v>
+        <v>0.298069</v>
       </c>
       <c r="F129" t="n">
-        <v>0.351876</v>
+        <v>0.340194</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.387545</v>
+        <v>0.371547</v>
       </c>
       <c r="C130" t="n">
-        <v>0.467432</v>
+        <v>0.449043</v>
       </c>
       <c r="D130" t="n">
-        <v>0.964823</v>
+        <v>0.96194</v>
       </c>
       <c r="E130" t="n">
-        <v>0.304451</v>
+        <v>0.300303</v>
       </c>
       <c r="F130" t="n">
-        <v>0.349367</v>
+        <v>0.35517</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.390216</v>
+        <v>0.382089</v>
       </c>
       <c r="C131" t="n">
-        <v>0.482676</v>
+        <v>0.462222</v>
       </c>
       <c r="D131" t="n">
-        <v>1.00074</v>
+        <v>0.992092</v>
       </c>
       <c r="E131" t="n">
-        <v>0.309629</v>
+        <v>0.31278</v>
       </c>
       <c r="F131" t="n">
-        <v>0.365779</v>
+        <v>0.371315</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.394494</v>
+        <v>0.396042</v>
       </c>
       <c r="C132" t="n">
-        <v>0.479125</v>
+        <v>0.481383</v>
       </c>
       <c r="D132" t="n">
-        <v>1.02372</v>
+        <v>1.03014</v>
       </c>
       <c r="E132" t="n">
-        <v>0.323369</v>
+        <v>0.311988</v>
       </c>
       <c r="F132" t="n">
-        <v>0.374541</v>
+        <v>0.376215</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.408433</v>
+        <v>0.415055</v>
       </c>
       <c r="C133" t="n">
-        <v>0.505477</v>
+        <v>0.503811</v>
       </c>
       <c r="D133" t="n">
-        <v>1.07366</v>
+        <v>1.06691</v>
       </c>
       <c r="E133" t="n">
-        <v>0.323554</v>
+        <v>0.333952</v>
       </c>
       <c r="F133" t="n">
-        <v>0.378271</v>
+        <v>0.385059</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.430352</v>
+        <v>0.436812</v>
       </c>
       <c r="C134" t="n">
-        <v>0.53381</v>
+        <v>0.528586</v>
       </c>
       <c r="D134" t="n">
-        <v>1.10366</v>
+        <v>1.10454</v>
       </c>
       <c r="E134" t="n">
-        <v>0.328604</v>
+        <v>0.339959</v>
       </c>
       <c r="F134" t="n">
-        <v>0.390381</v>
+        <v>0.403458</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.461586</v>
+        <v>0.461545</v>
       </c>
       <c r="C135" t="n">
-        <v>0.5710150000000001</v>
+        <v>0.591522</v>
       </c>
       <c r="D135" t="n">
-        <v>0.867873</v>
+        <v>0.873037</v>
       </c>
       <c r="E135" t="n">
-        <v>0.341641</v>
+        <v>0.349487</v>
       </c>
       <c r="F135" t="n">
-        <v>0.420084</v>
+        <v>0.407931</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.516611</v>
+        <v>0.506623</v>
       </c>
       <c r="C136" t="n">
-        <v>0.6296659999999999</v>
+        <v>0.63197</v>
       </c>
       <c r="D136" t="n">
-        <v>0.914702</v>
+        <v>0.906047</v>
       </c>
       <c r="E136" t="n">
-        <v>0.363489</v>
+        <v>0.365518</v>
       </c>
       <c r="F136" t="n">
-        <v>0.436719</v>
+        <v>0.438006</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.585645</v>
+        <v>0.5885629999999999</v>
       </c>
       <c r="C137" t="n">
-        <v>0.745594</v>
+        <v>0.77589</v>
       </c>
       <c r="D137" t="n">
-        <v>0.931752</v>
+        <v>0.9329190000000001</v>
       </c>
       <c r="E137" t="n">
-        <v>0.353405</v>
+        <v>0.351105</v>
       </c>
       <c r="F137" t="n">
-        <v>0.389548</v>
+        <v>0.386807</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.429688</v>
+        <v>0.434502</v>
       </c>
       <c r="C138" t="n">
-        <v>0.486521</v>
+        <v>0.485415</v>
       </c>
       <c r="D138" t="n">
-        <v>0.974452</v>
+        <v>0.963773</v>
       </c>
       <c r="E138" t="n">
-        <v>0.350179</v>
+        <v>0.351473</v>
       </c>
       <c r="F138" t="n">
-        <v>0.384884</v>
+        <v>0.384191</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.436641</v>
+        <v>0.436897</v>
       </c>
       <c r="C139" t="n">
-        <v>0.495958</v>
+        <v>0.507418</v>
       </c>
       <c r="D139" t="n">
-        <v>0.9943109999999999</v>
+        <v>0.9969519999999999</v>
       </c>
       <c r="E139" t="n">
-        <v>0.359752</v>
+        <v>0.35516</v>
       </c>
       <c r="F139" t="n">
-        <v>0.387448</v>
+        <v>0.386776</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.44507</v>
+        <v>0.4341</v>
       </c>
       <c r="C140" t="n">
-        <v>0.5237540000000001</v>
+        <v>0.49832</v>
       </c>
       <c r="D140" t="n">
-        <v>1.04019</v>
+        <v>1.03041</v>
       </c>
       <c r="E140" t="n">
-        <v>0.361836</v>
+        <v>0.359184</v>
       </c>
       <c r="F140" t="n">
-        <v>0.396177</v>
+        <v>0.39653</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.447938</v>
+        <v>0.439269</v>
       </c>
       <c r="C141" t="n">
-        <v>0.5094649999999999</v>
+        <v>0.514356</v>
       </c>
       <c r="D141" t="n">
-        <v>1.06657</v>
+        <v>1.07262</v>
       </c>
       <c r="E141" t="n">
-        <v>0.365155</v>
+        <v>0.36105</v>
       </c>
       <c r="F141" t="n">
-        <v>0.411111</v>
+        <v>0.40766</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.45332</v>
+        <v>0.44875</v>
       </c>
       <c r="C142" t="n">
-        <v>0.533403</v>
+        <v>0.5214569999999999</v>
       </c>
       <c r="D142" t="n">
-        <v>1.11079</v>
+        <v>1.09814</v>
       </c>
       <c r="E142" t="n">
-        <v>0.367364</v>
+        <v>0.367259</v>
       </c>
       <c r="F142" t="n">
-        <v>0.402262</v>
+        <v>0.406572</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.452216</v>
+        <v>0.451767</v>
       </c>
       <c r="C143" t="n">
-        <v>0.53995</v>
+        <v>0.52898</v>
       </c>
       <c r="D143" t="n">
-        <v>1.15952</v>
+        <v>1.14406</v>
       </c>
       <c r="E143" t="n">
-        <v>0.375501</v>
+        <v>0.368454</v>
       </c>
       <c r="F143" t="n">
-        <v>0.412933</v>
+        <v>0.4169</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0588576</v>
+        <v>0.0586315</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0587914</v>
+        <v>0.0629714</v>
       </c>
       <c r="D2" t="n">
-        <v>0.163668</v>
+        <v>0.167553</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07161149999999999</v>
+        <v>0.0685974</v>
       </c>
       <c r="F2" t="n">
-        <v>0.061782</v>
+        <v>0.0660736</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0610321</v>
+        <v>0.0611697</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0617208</v>
+        <v>0.0637851</v>
       </c>
       <c r="D3" t="n">
-        <v>0.16845</v>
+        <v>0.16779</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07179489999999999</v>
+        <v>0.06866369999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0624803</v>
+        <v>0.065874</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0628476</v>
+        <v>0.0625127</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06530039999999999</v>
+        <v>0.0666781</v>
       </c>
       <c r="D4" t="n">
-        <v>0.172459</v>
+        <v>0.171733</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0735172</v>
+        <v>0.0695969</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06618830000000001</v>
+        <v>0.0677425</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0716203</v>
+        <v>0.06735140000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07078660000000001</v>
+        <v>0.071468</v>
       </c>
       <c r="D5" t="n">
-        <v>0.176768</v>
+        <v>0.17586</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07517020000000001</v>
+        <v>0.07189379999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0664714</v>
+        <v>0.0699689</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0755411</v>
+        <v>0.0760214</v>
       </c>
       <c r="C6" t="n">
-        <v>0.078906</v>
+        <v>0.0789086</v>
       </c>
       <c r="D6" t="n">
-        <v>0.181627</v>
+        <v>0.179703</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0803854</v>
+        <v>0.07514510000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.069578</v>
+        <v>0.07399020000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0869318</v>
+        <v>0.08920260000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0896922</v>
+        <v>0.0924393</v>
       </c>
       <c r="D7" t="n">
-        <v>0.145911</v>
+        <v>0.146551</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08529109999999999</v>
+        <v>0.0649221</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0764784</v>
+        <v>0.06261899999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.11033</v>
+        <v>0.112753</v>
       </c>
       <c r="C8" t="n">
-        <v>0.111831</v>
+        <v>0.113945</v>
       </c>
       <c r="D8" t="n">
-        <v>0.14995</v>
+        <v>0.152899</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0951767</v>
+        <v>0.0656672</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0862332</v>
+        <v>0.06426270000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.152663</v>
+        <v>0.145218</v>
       </c>
       <c r="C9" t="n">
-        <v>0.144331</v>
+        <v>0.148441</v>
       </c>
       <c r="D9" t="n">
-        <v>0.154608</v>
+        <v>0.155603</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06929299999999999</v>
+        <v>0.0653455</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0611498</v>
+        <v>0.0631251</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0571501</v>
+        <v>0.0573544</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0579957</v>
+        <v>0.0582029</v>
       </c>
       <c r="D10" t="n">
-        <v>0.160042</v>
+        <v>0.159766</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0706576</v>
+        <v>0.0655271</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06361700000000001</v>
+        <v>0.0635375</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0575356</v>
+        <v>0.0578216</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0586879</v>
+        <v>0.0608595</v>
       </c>
       <c r="D11" t="n">
-        <v>0.164858</v>
+        <v>0.164444</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0699939</v>
+        <v>0.06576070000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>0.061743</v>
+        <v>0.0640317</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0580063</v>
+        <v>0.0584363</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0612389</v>
+        <v>0.0636417</v>
       </c>
       <c r="D12" t="n">
-        <v>0.168894</v>
+        <v>0.177693</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0703105</v>
+        <v>0.06889000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0620595</v>
+        <v>0.072149</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0610697</v>
+        <v>0.0665236</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0615691</v>
+        <v>0.0663647</v>
       </c>
       <c r="D13" t="n">
-        <v>0.178573</v>
+        <v>0.185154</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0705388</v>
+        <v>0.0688672</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0639996</v>
+        <v>0.0687103</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0604046</v>
+        <v>0.0611795</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0612324</v>
+        <v>0.07035</v>
       </c>
       <c r="D14" t="n">
-        <v>0.182218</v>
+        <v>0.193108</v>
       </c>
       <c r="E14" t="n">
-        <v>0.07087010000000001</v>
+        <v>0.0709221</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0627495</v>
+        <v>0.06550209999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0620386</v>
+        <v>0.0621471</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0623966</v>
+        <v>0.06486790000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.185802</v>
+        <v>0.185333</v>
       </c>
       <c r="E15" t="n">
-        <v>0.07680439999999999</v>
+        <v>0.06743449999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0633176</v>
+        <v>0.0662832</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0619951</v>
+        <v>0.0635274</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0648883</v>
+        <v>0.06616030000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.187332</v>
+        <v>0.190239</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0722507</v>
+        <v>0.06792140000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0645107</v>
+        <v>0.0672068</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06522029999999999</v>
+        <v>0.0657997</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0667672</v>
+        <v>0.06936</v>
       </c>
       <c r="D17" t="n">
-        <v>0.191842</v>
+        <v>0.192748</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0738605</v>
+        <v>0.0693728</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06758119999999999</v>
+        <v>0.06944740000000001</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0695882</v>
+        <v>0.0692788</v>
       </c>
       <c r="C18" t="n">
-        <v>0.070422</v>
+        <v>0.0731594</v>
       </c>
       <c r="D18" t="n">
-        <v>0.196174</v>
+        <v>0.201857</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0789787</v>
+        <v>0.0714381</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0666672</v>
+        <v>0.0703684</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0735162</v>
+        <v>0.07420499999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0750941</v>
+        <v>0.0787298</v>
       </c>
       <c r="D19" t="n">
-        <v>0.202408</v>
+        <v>0.204833</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08061219999999999</v>
+        <v>0.074005</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0695981</v>
+        <v>0.0734287</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08029169999999999</v>
+        <v>0.08383839999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.081469</v>
+        <v>0.0865621</v>
       </c>
       <c r="D20" t="n">
-        <v>0.210753</v>
+        <v>0.213246</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0802967</v>
+        <v>0.0791437</v>
       </c>
       <c r="F20" t="n">
-        <v>0.07249990000000001</v>
+        <v>0.07825459999999999</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0923214</v>
+        <v>0.104137</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09237860000000001</v>
+        <v>0.0984679</v>
       </c>
       <c r="D21" t="n">
-        <v>0.157428</v>
+        <v>0.160069</v>
       </c>
       <c r="E21" t="n">
-        <v>0.08618679999999999</v>
+        <v>0.0659458</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07814309999999999</v>
+        <v>0.064668</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.114218</v>
+        <v>0.116686</v>
       </c>
       <c r="C22" t="n">
-        <v>0.118101</v>
+        <v>0.120448</v>
       </c>
       <c r="D22" t="n">
-        <v>0.166122</v>
+        <v>0.163564</v>
       </c>
       <c r="E22" t="n">
-        <v>0.09685199999999999</v>
+        <v>0.06576369999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0871662</v>
+        <v>0.0686697</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.140459</v>
+        <v>0.148534</v>
       </c>
       <c r="C23" t="n">
-        <v>0.142904</v>
+        <v>0.14792</v>
       </c>
       <c r="D23" t="n">
-        <v>0.171911</v>
+        <v>0.170591</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0728892</v>
+        <v>0.06639539999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0634015</v>
+        <v>0.06509620000000001</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0617442</v>
+        <v>0.0602973</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0644435</v>
+        <v>0.06436219999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.175008</v>
+        <v>0.17751</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0717936</v>
+        <v>0.066589</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0635342</v>
+        <v>0.066162</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0640442</v>
+        <v>0.0613977</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0644255</v>
+        <v>0.0651395</v>
       </c>
       <c r="D25" t="n">
-        <v>0.179185</v>
+        <v>0.179867</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0707719</v>
+        <v>0.066662</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0647392</v>
+        <v>0.06607789999999999</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0621327</v>
+        <v>0.061882</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0644348</v>
+        <v>0.06796140000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.187213</v>
+        <v>0.188246</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0713693</v>
+        <v>0.0676161</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0643266</v>
+        <v>0.0671384</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0622627</v>
+        <v>0.0627931</v>
       </c>
       <c r="C27" t="n">
-        <v>0.06579400000000001</v>
+        <v>0.0672321</v>
       </c>
       <c r="D27" t="n">
-        <v>0.194217</v>
+        <v>0.190046</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0724364</v>
+        <v>0.06698750000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0666556</v>
+        <v>0.0673431</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.06340079999999999</v>
+        <v>0.064389</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0696334</v>
+        <v>0.0677107</v>
       </c>
       <c r="D28" t="n">
-        <v>0.200317</v>
+        <v>0.193581</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0755701</v>
+        <v>0.0676069</v>
       </c>
       <c r="F28" t="n">
-        <v>0.06711689999999999</v>
+        <v>0.0686311</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0688304</v>
+        <v>0.0645023</v>
       </c>
       <c r="C29" t="n">
-        <v>0.06978760000000001</v>
+        <v>0.0758173</v>
       </c>
       <c r="D29" t="n">
-        <v>0.222639</v>
+        <v>0.208781</v>
       </c>
       <c r="E29" t="n">
-        <v>0.07338020000000001</v>
+        <v>0.0687093</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06727320000000001</v>
+        <v>0.0691286</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.06858499999999999</v>
+        <v>0.0662148</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0713516</v>
+        <v>0.07154969999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.206378</v>
+        <v>0.208308</v>
       </c>
       <c r="E30" t="n">
-        <v>0.07311049999999999</v>
+        <v>0.0699992</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0678002</v>
+        <v>0.0697863</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0693346</v>
+        <v>0.06931320000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07819520000000001</v>
+        <v>0.07600759999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.212108</v>
+        <v>0.21652</v>
       </c>
       <c r="E31" t="n">
-        <v>0.07685740000000001</v>
+        <v>0.0710872</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0680523</v>
+        <v>0.0729424</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0741409</v>
+        <v>0.0745021</v>
       </c>
       <c r="C32" t="n">
-        <v>0.075796</v>
+        <v>0.0833932</v>
       </c>
       <c r="D32" t="n">
-        <v>0.223383</v>
+        <v>0.226757</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0816306</v>
+        <v>0.0724427</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0700646</v>
+        <v>0.0732318</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0756478</v>
+        <v>0.0770627</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0814829</v>
+        <v>0.08325970000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.223586</v>
+        <v>0.247601</v>
       </c>
       <c r="E33" t="n">
-        <v>0.079053</v>
+        <v>0.07510890000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0729026</v>
+        <v>0.0761512</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08390060000000001</v>
+        <v>0.08632620000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.08848399999999999</v>
+        <v>0.0907244</v>
       </c>
       <c r="D34" t="n">
-        <v>0.247042</v>
+        <v>0.234114</v>
       </c>
       <c r="E34" t="n">
-        <v>0.08265069999999999</v>
+        <v>0.0791115</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0785851</v>
+        <v>0.0793976</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0960965</v>
+        <v>0.0981983</v>
       </c>
       <c r="C35" t="n">
-        <v>0.101891</v>
+        <v>0.102385</v>
       </c>
       <c r="D35" t="n">
-        <v>0.175403</v>
+        <v>0.174159</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0909961</v>
+        <v>0.08594259999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0822478</v>
+        <v>0.0868461</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.114663</v>
+        <v>0.114705</v>
       </c>
       <c r="C36" t="n">
-        <v>0.11886</v>
+        <v>0.11861</v>
       </c>
       <c r="D36" t="n">
-        <v>0.189369</v>
+        <v>0.186729</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0977359</v>
+        <v>0.06772160000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>0.09647169999999999</v>
+        <v>0.0681657</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.143586</v>
+        <v>0.145267</v>
       </c>
       <c r="C37" t="n">
-        <v>0.142125</v>
+        <v>0.147833</v>
       </c>
       <c r="D37" t="n">
-        <v>0.190962</v>
+        <v>0.189486</v>
       </c>
       <c r="E37" t="n">
-        <v>0.07240679999999999</v>
+        <v>0.0681938</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06904299999999999</v>
+        <v>0.0690148</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0669237</v>
+        <v>0.0665062</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0715336</v>
+        <v>0.0726097</v>
       </c>
       <c r="D38" t="n">
-        <v>0.204688</v>
+        <v>0.197636</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0763808</v>
+        <v>0.0686571</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0732809</v>
+        <v>0.06966169999999999</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.06850970000000001</v>
+        <v>0.0669825</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0782004</v>
+        <v>0.07278419999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.206651</v>
+        <v>0.2068</v>
       </c>
       <c r="E39" t="n">
-        <v>0.074793</v>
+        <v>0.06876019999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0726498</v>
+        <v>0.0698109</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.06810579999999999</v>
+        <v>0.0668912</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0752034</v>
+        <v>0.07336090000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.224145</v>
+        <v>0.213747</v>
       </c>
       <c r="E40" t="n">
-        <v>0.07477590000000001</v>
+        <v>0.0688535</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0697942</v>
+        <v>0.0709147</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0705918</v>
+        <v>0.0680366</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0750021</v>
+        <v>0.07503020000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.219616</v>
+        <v>0.223697</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0756699</v>
+        <v>0.0694198</v>
       </c>
       <c r="F41" t="n">
-        <v>0.07050629999999999</v>
+        <v>0.07151159999999999</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0714095</v>
+        <v>0.0687535</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0768432</v>
+        <v>0.0769555</v>
       </c>
       <c r="D42" t="n">
-        <v>0.230004</v>
+        <v>0.230144</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0752675</v>
+        <v>0.0696659</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07292029999999999</v>
+        <v>0.07235229999999999</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0719337</v>
+        <v>0.07335270000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0788391</v>
+        <v>0.07996929999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.243249</v>
+        <v>0.239803</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0780872</v>
+        <v>0.0702557</v>
       </c>
       <c r="F43" t="n">
-        <v>0.07135370000000001</v>
+        <v>0.073224</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0721145</v>
+        <v>0.0712945</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0827171</v>
+        <v>0.0826211</v>
       </c>
       <c r="D44" t="n">
-        <v>0.247083</v>
+        <v>0.251006</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0753513</v>
+        <v>0.0711408</v>
       </c>
       <c r="F44" t="n">
-        <v>0.072961</v>
+        <v>0.07508189999999999</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0771893</v>
+        <v>0.0740601</v>
       </c>
       <c r="C45" t="n">
-        <v>0.08879919999999999</v>
+        <v>0.0865205</v>
       </c>
       <c r="D45" t="n">
-        <v>0.256208</v>
+        <v>0.258982</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0785148</v>
+        <v>0.07297960000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0759147</v>
+        <v>0.0767485</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.07926560000000001</v>
+        <v>0.07692010000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0886663</v>
+        <v>0.0894165</v>
       </c>
       <c r="D46" t="n">
-        <v>0.266051</v>
+        <v>0.268401</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0801385</v>
+        <v>0.0739848</v>
       </c>
       <c r="F46" t="n">
-        <v>0.07783859999999999</v>
+        <v>0.0793364</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.081597</v>
+        <v>0.0813266</v>
       </c>
       <c r="C47" t="n">
-        <v>0.09628200000000001</v>
+        <v>0.0953933</v>
       </c>
       <c r="D47" t="n">
-        <v>0.275251</v>
+        <v>0.280211</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0828072</v>
+        <v>0.0767709</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0798378</v>
+        <v>0.0822001</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0880595</v>
+        <v>0.08765539999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.103581</v>
+        <v>0.102575</v>
       </c>
       <c r="D48" t="n">
-        <v>0.29098</v>
+        <v>0.294243</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0845095</v>
+        <v>0.0805758</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08364820000000001</v>
+        <v>0.0869103</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0981374</v>
+        <v>0.0998479</v>
       </c>
       <c r="C49" t="n">
-        <v>0.117855</v>
+        <v>0.115508</v>
       </c>
       <c r="D49" t="n">
-        <v>0.310449</v>
+        <v>0.312495</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0931864</v>
+        <v>0.0870581</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0891367</v>
+        <v>0.0949035</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.120937</v>
+        <v>0.115034</v>
       </c>
       <c r="C50" t="n">
-        <v>0.128585</v>
+        <v>0.13201</v>
       </c>
       <c r="D50" t="n">
-        <v>0.221794</v>
+        <v>0.220928</v>
       </c>
       <c r="E50" t="n">
-        <v>0.100949</v>
+        <v>0.07327939999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0977663</v>
+        <v>0.0769417</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.142008</v>
+        <v>0.143967</v>
       </c>
       <c r="C51" t="n">
-        <v>0.155481</v>
+        <v>0.162309</v>
       </c>
       <c r="D51" t="n">
-        <v>0.22791</v>
+        <v>0.23343</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0785536</v>
+        <v>0.07382130000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0777962</v>
+        <v>0.0809496</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.188929</v>
+        <v>0.185779</v>
       </c>
       <c r="C52" t="n">
-        <v>0.194668</v>
+        <v>0.201682</v>
       </c>
       <c r="D52" t="n">
-        <v>0.249181</v>
+        <v>0.238016</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0785252</v>
+        <v>0.0738263</v>
       </c>
       <c r="F52" t="n">
-        <v>0.07658860000000001</v>
+        <v>0.07922949999999999</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0814594</v>
+        <v>0.0809259</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0910176</v>
+        <v>0.0908033</v>
       </c>
       <c r="D53" t="n">
-        <v>0.254365</v>
+        <v>0.249668</v>
       </c>
       <c r="E53" t="n">
-        <v>0.07977330000000001</v>
+        <v>0.07422670000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0772045</v>
+        <v>0.0784492</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.07800269999999999</v>
+        <v>0.0785488</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0922311</v>
+        <v>0.09280339999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.26841</v>
+        <v>0.268306</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0787931</v>
+        <v>0.07446700000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0785614</v>
+        <v>0.0796837</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0822942</v>
+        <v>0.0802287</v>
       </c>
       <c r="C55" t="n">
-        <v>0.097025</v>
+        <v>0.0948222</v>
       </c>
       <c r="D55" t="n">
-        <v>0.275672</v>
+        <v>0.276538</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0798372</v>
+        <v>0.0753269</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0831969</v>
+        <v>0.0806838</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.08047360000000001</v>
+        <v>0.0813154</v>
       </c>
       <c r="C56" t="n">
-        <v>0.09523239999999999</v>
+        <v>0.09830510000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.298917</v>
+        <v>0.292691</v>
       </c>
       <c r="E56" t="n">
-        <v>0.081745</v>
+        <v>0.076448</v>
       </c>
       <c r="F56" t="n">
-        <v>0.08106090000000001</v>
+        <v>0.0823588</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0832963</v>
+        <v>0.08255220000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.101481</v>
+        <v>0.0999859</v>
       </c>
       <c r="D57" t="n">
-        <v>0.311283</v>
+        <v>0.309166</v>
       </c>
       <c r="E57" t="n">
-        <v>0.08067630000000001</v>
+        <v>0.0766447</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0814131</v>
+        <v>0.08381769999999999</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.08503910000000001</v>
+        <v>0.08456379999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.101308</v>
+        <v>0.102772</v>
       </c>
       <c r="D58" t="n">
-        <v>0.327563</v>
+        <v>0.3344</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0830168</v>
+        <v>0.0774434</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0845881</v>
+        <v>0.08499139999999999</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.091775</v>
+        <v>0.0873</v>
       </c>
       <c r="C59" t="n">
-        <v>0.104898</v>
+        <v>0.106786</v>
       </c>
       <c r="D59" t="n">
-        <v>0.346289</v>
+        <v>0.337403</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0857048</v>
+        <v>0.0795744</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0885079</v>
+        <v>0.0871354</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.08986479999999999</v>
+        <v>0.0900503</v>
       </c>
       <c r="C60" t="n">
-        <v>0.109066</v>
+        <v>0.111098</v>
       </c>
       <c r="D60" t="n">
-        <v>0.361857</v>
+        <v>0.354651</v>
       </c>
       <c r="E60" t="n">
-        <v>0.08711820000000001</v>
+        <v>0.0812047</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0867682</v>
+        <v>0.0897519</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0929765</v>
+        <v>0.0945093</v>
       </c>
       <c r="C61" t="n">
-        <v>0.117015</v>
+        <v>0.117894</v>
       </c>
       <c r="D61" t="n">
-        <v>0.378111</v>
+        <v>0.392082</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0877189</v>
+        <v>0.08387310000000001</v>
       </c>
       <c r="F61" t="n">
-        <v>0.090381</v>
+        <v>0.0931024</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.101161</v>
+        <v>0.100676</v>
       </c>
       <c r="C62" t="n">
-        <v>0.124312</v>
+        <v>0.126254</v>
       </c>
       <c r="D62" t="n">
-        <v>0.42107</v>
+        <v>0.401371</v>
       </c>
       <c r="E62" t="n">
-        <v>0.09118660000000001</v>
+        <v>0.0877434</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0984669</v>
+        <v>0.0975927</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.110525</v>
+        <v>0.111119</v>
       </c>
       <c r="C63" t="n">
-        <v>0.13438</v>
+        <v>0.139786</v>
       </c>
       <c r="D63" t="n">
-        <v>0.445575</v>
+        <v>0.424326</v>
       </c>
       <c r="E63" t="n">
-        <v>0.095857</v>
+        <v>0.0932057</v>
       </c>
       <c r="F63" t="n">
-        <v>0.100761</v>
+        <v>0.104121</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.126067</v>
+        <v>0.13036</v>
       </c>
       <c r="C64" t="n">
-        <v>0.155637</v>
+        <v>0.15533</v>
       </c>
       <c r="D64" t="n">
-        <v>0.340358</v>
+        <v>0.314096</v>
       </c>
       <c r="E64" t="n">
-        <v>0.103748</v>
+        <v>0.0782211</v>
       </c>
       <c r="F64" t="n">
-        <v>0.109101</v>
+        <v>0.0845817</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.149169</v>
+        <v>0.148784</v>
       </c>
       <c r="C65" t="n">
-        <v>0.183897</v>
+        <v>0.185786</v>
       </c>
       <c r="D65" t="n">
-        <v>0.357174</v>
+        <v>0.339792</v>
       </c>
       <c r="E65" t="n">
-        <v>0.117039</v>
+        <v>0.0788142</v>
       </c>
       <c r="F65" t="n">
-        <v>0.124521</v>
+        <v>0.0855815</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.190145</v>
+        <v>0.189524</v>
       </c>
       <c r="C66" t="n">
-        <v>0.235715</v>
+        <v>0.230371</v>
       </c>
       <c r="D66" t="n">
-        <v>0.386656</v>
+        <v>0.349033</v>
       </c>
       <c r="E66" t="n">
-        <v>0.08507339999999999</v>
+        <v>0.08061740000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0902438</v>
+        <v>0.0855028</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.08872190000000001</v>
+        <v>0.0871841</v>
       </c>
       <c r="C67" t="n">
-        <v>0.107363</v>
+        <v>0.107451</v>
       </c>
       <c r="D67" t="n">
-        <v>0.370296</v>
+        <v>0.369905</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0869375</v>
+        <v>0.0797242</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0898661</v>
+        <v>0.0874554</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0888607</v>
+        <v>0.0885981</v>
       </c>
       <c r="C68" t="n">
-        <v>0.11166</v>
+        <v>0.110827</v>
       </c>
       <c r="D68" t="n">
-        <v>0.427978</v>
+        <v>0.389745</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0840516</v>
+        <v>0.07995149999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0868917</v>
+        <v>0.0880536</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0911447</v>
+        <v>0.090145</v>
       </c>
       <c r="C69" t="n">
-        <v>0.114051</v>
+        <v>0.111905</v>
       </c>
       <c r="D69" t="n">
-        <v>0.407554</v>
+        <v>0.408389</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0844121</v>
+        <v>0.0817311</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0887044</v>
+        <v>0.0905777</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0940346</v>
+        <v>0.0923229</v>
       </c>
       <c r="C70" t="n">
-        <v>0.120047</v>
+        <v>0.116522</v>
       </c>
       <c r="D70" t="n">
-        <v>0.439642</v>
+        <v>0.433563</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0866532</v>
+        <v>0.0822624</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0900934</v>
+        <v>0.0919503</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0940667</v>
+        <v>0.0988199</v>
       </c>
       <c r="C71" t="n">
-        <v>0.125418</v>
+        <v>0.120956</v>
       </c>
       <c r="D71" t="n">
-        <v>0.49478</v>
+        <v>0.457703</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0872967</v>
+        <v>0.0838585</v>
       </c>
       <c r="F71" t="n">
-        <v>0.09313539999999999</v>
+        <v>0.0935922</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0952939</v>
+        <v>0.0953827</v>
       </c>
       <c r="C72" t="n">
-        <v>0.126623</v>
+        <v>0.124528</v>
       </c>
       <c r="D72" t="n">
-        <v>0.520189</v>
+        <v>0.515307</v>
       </c>
       <c r="E72" t="n">
-        <v>0.08823309999999999</v>
+        <v>0.0843623</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09426909999999999</v>
+        <v>0.0952504</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.102298</v>
+        <v>0.09667679999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.130373</v>
+        <v>0.127853</v>
       </c>
       <c r="D73" t="n">
-        <v>0.522276</v>
+        <v>0.498583</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0899802</v>
+        <v>0.0862748</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0987325</v>
+        <v>0.0983067</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.103635</v>
+        <v>0.108174</v>
       </c>
       <c r="C74" t="n">
-        <v>0.145554</v>
+        <v>0.150192</v>
       </c>
       <c r="D74" t="n">
-        <v>0.542954</v>
+        <v>0.557569</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0920093</v>
+        <v>0.0883261</v>
       </c>
       <c r="F74" t="n">
-        <v>0.107696</v>
+        <v>0.10158</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.110443</v>
+        <v>0.107897</v>
       </c>
       <c r="C75" t="n">
-        <v>0.150279</v>
+        <v>0.144646</v>
       </c>
       <c r="D75" t="n">
-        <v>0.582589</v>
+        <v>0.558029</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0971882</v>
+        <v>0.091138</v>
       </c>
       <c r="F75" t="n">
-        <v>0.108399</v>
+        <v>0.106332</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.122445</v>
+        <v>0.11501</v>
       </c>
       <c r="C76" t="n">
-        <v>0.162186</v>
+        <v>0.157031</v>
       </c>
       <c r="D76" t="n">
-        <v>0.630094</v>
+        <v>0.583588</v>
       </c>
       <c r="E76" t="n">
-        <v>0.100411</v>
+        <v>0.09573280000000001</v>
       </c>
       <c r="F76" t="n">
-        <v>0.112857</v>
+        <v>0.112256</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.130147</v>
+        <v>0.131467</v>
       </c>
       <c r="C77" t="n">
-        <v>0.166778</v>
+        <v>0.173222</v>
       </c>
       <c r="D77" t="n">
-        <v>0.607732</v>
+        <v>0.610825</v>
       </c>
       <c r="E77" t="n">
-        <v>0.104105</v>
+        <v>0.102267</v>
       </c>
       <c r="F77" t="n">
-        <v>0.121131</v>
+        <v>0.120964</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.147385</v>
+        <v>0.140731</v>
       </c>
       <c r="C78" t="n">
-        <v>0.191433</v>
+        <v>0.196035</v>
       </c>
       <c r="D78" t="n">
-        <v>0.462924</v>
+        <v>0.450182</v>
       </c>
       <c r="E78" t="n">
-        <v>0.113781</v>
+        <v>0.111544</v>
       </c>
       <c r="F78" t="n">
-        <v>0.133133</v>
+        <v>0.134237</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.161755</v>
+        <v>0.164773</v>
       </c>
       <c r="C79" t="n">
-        <v>0.22639</v>
+        <v>0.225892</v>
       </c>
       <c r="D79" t="n">
-        <v>0.476193</v>
+        <v>0.474027</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1244</v>
+        <v>0.0836621</v>
       </c>
       <c r="F79" t="n">
-        <v>0.143926</v>
+        <v>0.0958533</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.204716</v>
+        <v>0.20617</v>
       </c>
       <c r="C80" t="n">
-        <v>0.286493</v>
+        <v>0.279122</v>
       </c>
       <c r="D80" t="n">
-        <v>0.516519</v>
+        <v>0.495346</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0907538</v>
+        <v>0.0878511</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0977775</v>
+        <v>0.100834</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0978487</v>
+        <v>0.09933839999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.133215</v>
+        <v>0.132892</v>
       </c>
       <c r="D81" t="n">
-        <v>0.567761</v>
+        <v>0.516555</v>
       </c>
       <c r="E81" t="n">
-        <v>0.09354750000000001</v>
+        <v>0.0857802</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09830220000000001</v>
+        <v>0.101488</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.102677</v>
+        <v>0.101933</v>
       </c>
       <c r="C82" t="n">
-        <v>0.138795</v>
+        <v>0.139519</v>
       </c>
       <c r="D82" t="n">
-        <v>0.54433</v>
+        <v>0.5386879999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0936953</v>
+        <v>0.08705690000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1004</v>
+        <v>0.101274</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.104553</v>
+        <v>0.104359</v>
       </c>
       <c r="C83" t="n">
-        <v>0.14101</v>
+        <v>0.14449</v>
       </c>
       <c r="D83" t="n">
-        <v>0.583158</v>
+        <v>0.55729</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0952959</v>
+        <v>0.0879548</v>
       </c>
       <c r="F83" t="n">
-        <v>0.101322</v>
+        <v>0.103564</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.105706</v>
+        <v>0.105401</v>
       </c>
       <c r="C84" t="n">
-        <v>0.146466</v>
+        <v>0.148529</v>
       </c>
       <c r="D84" t="n">
-        <v>0.589917</v>
+        <v>0.5801770000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0944868</v>
+        <v>0.0894837</v>
       </c>
       <c r="F84" t="n">
-        <v>0.107894</v>
+        <v>0.107389</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.109003</v>
+        <v>0.115599</v>
       </c>
       <c r="C85" t="n">
-        <v>0.161394</v>
+        <v>0.156552</v>
       </c>
       <c r="D85" t="n">
-        <v>0.611007</v>
+        <v>0.604113</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0948344</v>
+        <v>0.091992</v>
       </c>
       <c r="F85" t="n">
-        <v>0.115588</v>
+        <v>0.110959</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.113386</v>
+        <v>0.114471</v>
       </c>
       <c r="C86" t="n">
-        <v>0.159774</v>
+        <v>0.161405</v>
       </c>
       <c r="D86" t="n">
-        <v>0.631049</v>
+        <v>0.628684</v>
       </c>
       <c r="E86" t="n">
-        <v>0.102018</v>
+        <v>0.0940695</v>
       </c>
       <c r="F86" t="n">
-        <v>0.114529</v>
+        <v>0.123924</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.11914</v>
+        <v>0.11738</v>
       </c>
       <c r="C87" t="n">
-        <v>0.168837</v>
+        <v>0.167076</v>
       </c>
       <c r="D87" t="n">
-        <v>0.658978</v>
+        <v>0.650385</v>
       </c>
       <c r="E87" t="n">
-        <v>0.103885</v>
+        <v>0.0960052</v>
       </c>
       <c r="F87" t="n">
-        <v>0.122452</v>
+        <v>0.118368</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.124485</v>
+        <v>0.129577</v>
       </c>
       <c r="C88" t="n">
-        <v>0.175303</v>
+        <v>0.178835</v>
       </c>
       <c r="D88" t="n">
-        <v>0.681492</v>
+        <v>0.696435</v>
       </c>
       <c r="E88" t="n">
-        <v>0.102585</v>
+        <v>0.0991274</v>
       </c>
       <c r="F88" t="n">
-        <v>0.120891</v>
+        <v>0.123352</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.129288</v>
+        <v>0.128601</v>
       </c>
       <c r="C89" t="n">
-        <v>0.185904</v>
+        <v>0.193619</v>
       </c>
       <c r="D89" t="n">
-        <v>0.753103</v>
+        <v>0.709137</v>
       </c>
       <c r="E89" t="n">
-        <v>0.105593</v>
+        <v>0.104025</v>
       </c>
       <c r="F89" t="n">
-        <v>0.125987</v>
+        <v>0.12979</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.136587</v>
+        <v>0.145684</v>
       </c>
       <c r="C90" t="n">
-        <v>0.199525</v>
+        <v>0.218996</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7360989999999999</v>
+        <v>0.739837</v>
       </c>
       <c r="E90" t="n">
-        <v>0.111777</v>
+        <v>0.108193</v>
       </c>
       <c r="F90" t="n">
-        <v>0.136098</v>
+        <v>0.136839</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.14779</v>
+        <v>0.149293</v>
       </c>
       <c r="C91" t="n">
-        <v>0.21153</v>
+        <v>0.219252</v>
       </c>
       <c r="D91" t="n">
-        <v>0.761894</v>
+        <v>0.765705</v>
       </c>
       <c r="E91" t="n">
-        <v>0.123303</v>
+        <v>0.115378</v>
       </c>
       <c r="F91" t="n">
-        <v>0.146295</v>
+        <v>0.147465</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.169439</v>
+        <v>0.167697</v>
       </c>
       <c r="C92" t="n">
-        <v>0.244097</v>
+        <v>0.244301</v>
       </c>
       <c r="D92" t="n">
-        <v>0.629127</v>
+        <v>0.5923310000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>0.127383</v>
+        <v>0.125217</v>
       </c>
       <c r="F92" t="n">
-        <v>0.154957</v>
+        <v>0.159912</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.193453</v>
+        <v>0.188586</v>
       </c>
       <c r="C93" t="n">
-        <v>0.280582</v>
+        <v>0.278662</v>
       </c>
       <c r="D93" t="n">
-        <v>0.6340170000000001</v>
+        <v>0.600402</v>
       </c>
       <c r="E93" t="n">
-        <v>0.140095</v>
+        <v>0.103661</v>
       </c>
       <c r="F93" t="n">
-        <v>0.17495</v>
+        <v>0.127363</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.227775</v>
+        <v>0.22823</v>
       </c>
       <c r="C94" t="n">
-        <v>0.325531</v>
+        <v>0.333066</v>
       </c>
       <c r="D94" t="n">
-        <v>0.622718</v>
+        <v>0.619872</v>
       </c>
       <c r="E94" t="n">
-        <v>0.107624</v>
+        <v>0.104775</v>
       </c>
       <c r="F94" t="n">
-        <v>0.127839</v>
+        <v>0.131439</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.130717</v>
+        <v>0.131163</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1822</v>
+        <v>0.18965</v>
       </c>
       <c r="D95" t="n">
-        <v>0.649402</v>
+        <v>0.64227</v>
       </c>
       <c r="E95" t="n">
-        <v>0.109331</v>
+        <v>0.107628</v>
       </c>
       <c r="F95" t="n">
-        <v>0.130865</v>
+        <v>0.142132</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.13257</v>
+        <v>0.135546</v>
       </c>
       <c r="C96" t="n">
-        <v>0.186003</v>
+        <v>0.193925</v>
       </c>
       <c r="D96" t="n">
-        <v>0.675935</v>
+        <v>0.669825</v>
       </c>
       <c r="E96" t="n">
-        <v>0.11126</v>
+        <v>0.109571</v>
       </c>
       <c r="F96" t="n">
-        <v>0.13802</v>
+        <v>0.1389</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.137736</v>
+        <v>0.141549</v>
       </c>
       <c r="C97" t="n">
-        <v>0.192622</v>
+        <v>0.19861</v>
       </c>
       <c r="D97" t="n">
-        <v>0.689672</v>
+        <v>0.687207</v>
       </c>
       <c r="E97" t="n">
-        <v>0.112354</v>
+        <v>0.111178</v>
       </c>
       <c r="F97" t="n">
-        <v>0.135947</v>
+        <v>0.142172</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.137342</v>
+        <v>0.142827</v>
       </c>
       <c r="C98" t="n">
-        <v>0.19748</v>
+        <v>0.204544</v>
       </c>
       <c r="D98" t="n">
-        <v>0.728015</v>
+        <v>0.727638</v>
       </c>
       <c r="E98" t="n">
-        <v>0.114097</v>
+        <v>0.113298</v>
       </c>
       <c r="F98" t="n">
-        <v>0.142269</v>
+        <v>0.15198</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.147813</v>
+        <v>0.14941</v>
       </c>
       <c r="C99" t="n">
-        <v>0.207518</v>
+        <v>0.21377</v>
       </c>
       <c r="D99" t="n">
-        <v>0.733575</v>
+        <v>0.728446</v>
       </c>
       <c r="E99" t="n">
-        <v>0.116502</v>
+        <v>0.115198</v>
       </c>
       <c r="F99" t="n">
-        <v>0.145115</v>
+        <v>0.149338</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.14459</v>
+        <v>0.147133</v>
       </c>
       <c r="C100" t="n">
-        <v>0.208623</v>
+        <v>0.218711</v>
       </c>
       <c r="D100" t="n">
-        <v>0.793594</v>
+        <v>0.777309</v>
       </c>
       <c r="E100" t="n">
-        <v>0.118418</v>
+        <v>0.12355</v>
       </c>
       <c r="F100" t="n">
-        <v>0.146725</v>
+        <v>0.155692</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.148959</v>
+        <v>0.153259</v>
       </c>
       <c r="C101" t="n">
-        <v>0.216611</v>
+        <v>0.232661</v>
       </c>
       <c r="D101" t="n">
-        <v>0.774033</v>
+        <v>0.781328</v>
       </c>
       <c r="E101" t="n">
-        <v>0.123998</v>
+        <v>0.120171</v>
       </c>
       <c r="F101" t="n">
-        <v>0.158333</v>
+        <v>0.1629</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.156686</v>
+        <v>0.156836</v>
       </c>
       <c r="C102" t="n">
-        <v>0.230491</v>
+        <v>0.234924</v>
       </c>
       <c r="D102" t="n">
-        <v>0.800244</v>
+        <v>0.81497</v>
       </c>
       <c r="E102" t="n">
-        <v>0.124413</v>
+        <v>0.124164</v>
       </c>
       <c r="F102" t="n">
-        <v>0.159479</v>
+        <v>0.16568</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.166695</v>
+        <v>0.164826</v>
       </c>
       <c r="C103" t="n">
-        <v>0.24086</v>
+        <v>0.250579</v>
       </c>
       <c r="D103" t="n">
-        <v>0.847181</v>
+        <v>0.830608</v>
       </c>
       <c r="E103" t="n">
-        <v>0.130028</v>
+        <v>0.128562</v>
       </c>
       <c r="F103" t="n">
-        <v>0.170573</v>
+        <v>0.171809</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.169031</v>
+        <v>0.17977</v>
       </c>
       <c r="C104" t="n">
-        <v>0.252058</v>
+        <v>0.264004</v>
       </c>
       <c r="D104" t="n">
-        <v>0.861917</v>
+        <v>0.863501</v>
       </c>
       <c r="E104" t="n">
-        <v>0.134337</v>
+        <v>0.133523</v>
       </c>
       <c r="F104" t="n">
-        <v>0.16818</v>
+        <v>0.184509</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.178985</v>
+        <v>0.186934</v>
       </c>
       <c r="C105" t="n">
-        <v>0.267718</v>
+        <v>0.282803</v>
       </c>
       <c r="D105" t="n">
-        <v>0.882349</v>
+        <v>0.891388</v>
       </c>
       <c r="E105" t="n">
-        <v>0.138058</v>
+        <v>0.139171</v>
       </c>
       <c r="F105" t="n">
-        <v>0.177258</v>
+        <v>0.188796</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.199021</v>
+        <v>0.201242</v>
       </c>
       <c r="C106" t="n">
-        <v>0.298213</v>
+        <v>0.327852</v>
       </c>
       <c r="D106" t="n">
-        <v>0.92086</v>
+        <v>0.9068349999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>0.15364</v>
+        <v>0.151074</v>
       </c>
       <c r="F106" t="n">
-        <v>0.19109</v>
+        <v>0.209849</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.226357</v>
+        <v>0.225312</v>
       </c>
       <c r="C107" t="n">
-        <v>0.328631</v>
+        <v>0.346613</v>
       </c>
       <c r="D107" t="n">
-        <v>0.7422029999999999</v>
+        <v>0.690705</v>
       </c>
       <c r="E107" t="n">
-        <v>0.158806</v>
+        <v>0.191235</v>
       </c>
       <c r="F107" t="n">
-        <v>0.206744</v>
+        <v>0.213651</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.256857</v>
+        <v>0.265246</v>
       </c>
       <c r="C108" t="n">
-        <v>0.381838</v>
+        <v>0.407073</v>
       </c>
       <c r="D108" t="n">
-        <v>0.713184</v>
+        <v>0.708763</v>
       </c>
       <c r="E108" t="n">
-        <v>0.174317</v>
+        <v>0.190457</v>
       </c>
       <c r="F108" t="n">
-        <v>0.197665</v>
+        <v>0.217437</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.336426</v>
+        <v>0.335455</v>
       </c>
       <c r="C109" t="n">
-        <v>0.482154</v>
+        <v>0.514359</v>
       </c>
       <c r="D109" t="n">
-        <v>0.747505</v>
+        <v>0.731496</v>
       </c>
       <c r="E109" t="n">
-        <v>0.175868</v>
+        <v>0.206566</v>
       </c>
       <c r="F109" t="n">
-        <v>0.211262</v>
+        <v>0.224147</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.209626</v>
+        <v>0.24857</v>
       </c>
       <c r="C110" t="n">
-        <v>0.274639</v>
+        <v>0.296431</v>
       </c>
       <c r="D110" t="n">
-        <v>0.754464</v>
+        <v>0.749142</v>
       </c>
       <c r="E110" t="n">
-        <v>0.178922</v>
+        <v>0.193025</v>
       </c>
       <c r="F110" t="n">
-        <v>0.210042</v>
+        <v>0.227497</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.221554</v>
+        <v>0.230371</v>
       </c>
       <c r="C111" t="n">
-        <v>0.285327</v>
+        <v>0.291959</v>
       </c>
       <c r="D111" t="n">
-        <v>0.788931</v>
+        <v>0.771915</v>
       </c>
       <c r="E111" t="n">
-        <v>0.179908</v>
+        <v>0.198555</v>
       </c>
       <c r="F111" t="n">
-        <v>0.206681</v>
+        <v>0.228108</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.219696</v>
+        <v>0.230978</v>
       </c>
       <c r="C112" t="n">
-        <v>0.285757</v>
+        <v>0.29841</v>
       </c>
       <c r="D112" t="n">
-        <v>0.802023</v>
+        <v>0.788417</v>
       </c>
       <c r="E112" t="n">
-        <v>0.179169</v>
+        <v>0.195292</v>
       </c>
       <c r="F112" t="n">
-        <v>0.215197</v>
+        <v>0.245089</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.226189</v>
+        <v>0.233263</v>
       </c>
       <c r="C113" t="n">
-        <v>0.313662</v>
+        <v>0.307366</v>
       </c>
       <c r="D113" t="n">
-        <v>0.829753</v>
+        <v>0.812546</v>
       </c>
       <c r="E113" t="n">
-        <v>0.182766</v>
+        <v>0.199166</v>
       </c>
       <c r="F113" t="n">
-        <v>0.216911</v>
+        <v>0.240663</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.225528</v>
+        <v>0.245285</v>
       </c>
       <c r="C114" t="n">
-        <v>0.303062</v>
+        <v>0.316354</v>
       </c>
       <c r="D114" t="n">
-        <v>0.955547</v>
+        <v>0.8950709999999999</v>
       </c>
       <c r="E114" t="n">
-        <v>0.1887</v>
+        <v>0.204591</v>
       </c>
       <c r="F114" t="n">
-        <v>0.224565</v>
+        <v>0.242503</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.235092</v>
+        <v>0.242755</v>
       </c>
       <c r="C115" t="n">
-        <v>0.304754</v>
+        <v>0.324347</v>
       </c>
       <c r="D115" t="n">
-        <v>0.865911</v>
+        <v>0.92145</v>
       </c>
       <c r="E115" t="n">
-        <v>0.190856</v>
+        <v>0.215351</v>
       </c>
       <c r="F115" t="n">
-        <v>0.224119</v>
+        <v>0.251895</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.233275</v>
+        <v>0.250871</v>
       </c>
       <c r="C116" t="n">
-        <v>0.312151</v>
+        <v>0.337419</v>
       </c>
       <c r="D116" t="n">
-        <v>0.882046</v>
+        <v>0.889062</v>
       </c>
       <c r="E116" t="n">
-        <v>0.199655</v>
+        <v>0.208669</v>
       </c>
       <c r="F116" t="n">
-        <v>0.238571</v>
+        <v>0.279158</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.243729</v>
+        <v>0.264181</v>
       </c>
       <c r="C117" t="n">
-        <v>0.330962</v>
+        <v>0.347363</v>
       </c>
       <c r="D117" t="n">
-        <v>0.942203</v>
+        <v>0.910146</v>
       </c>
       <c r="E117" t="n">
-        <v>0.194085</v>
+        <v>0.214133</v>
       </c>
       <c r="F117" t="n">
-        <v>0.238716</v>
+        <v>0.259909</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.253174</v>
+        <v>0.263098</v>
       </c>
       <c r="C118" t="n">
-        <v>0.342868</v>
+        <v>0.362392</v>
       </c>
       <c r="D118" t="n">
-        <v>0.94035</v>
+        <v>0.935074</v>
       </c>
       <c r="E118" t="n">
-        <v>0.200389</v>
+        <v>0.221732</v>
       </c>
       <c r="F118" t="n">
-        <v>0.247718</v>
+        <v>0.27442</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.271161</v>
+        <v>0.276461</v>
       </c>
       <c r="C119" t="n">
-        <v>0.35777</v>
+        <v>0.387475</v>
       </c>
       <c r="D119" t="n">
-        <v>0.962965</v>
+        <v>0.960909</v>
       </c>
       <c r="E119" t="n">
-        <v>0.203315</v>
+        <v>0.225298</v>
       </c>
       <c r="F119" t="n">
-        <v>0.259719</v>
+        <v>0.280573</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.283076</v>
+        <v>0.297771</v>
       </c>
       <c r="C120" t="n">
-        <v>0.424331</v>
+        <v>0.440503</v>
       </c>
       <c r="D120" t="n">
-        <v>1.01114</v>
+        <v>1.00685</v>
       </c>
       <c r="E120" t="n">
-        <v>0.221752</v>
+        <v>0.231999</v>
       </c>
       <c r="F120" t="n">
-        <v>0.294644</v>
+        <v>0.293092</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.303473</v>
+        <v>0.320814</v>
       </c>
       <c r="C121" t="n">
-        <v>0.432231</v>
+        <v>0.457472</v>
       </c>
       <c r="D121" t="n">
-        <v>0.751119</v>
+        <v>0.746481</v>
       </c>
       <c r="E121" t="n">
-        <v>0.226977</v>
+        <v>0.320874</v>
       </c>
       <c r="F121" t="n">
-        <v>0.314136</v>
+        <v>0.352073</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.347197</v>
+        <v>0.376484</v>
       </c>
       <c r="C122" t="n">
-        <v>0.487059</v>
+        <v>0.513468</v>
       </c>
       <c r="D122" t="n">
-        <v>0.766646</v>
+        <v>0.762614</v>
       </c>
       <c r="E122" t="n">
-        <v>0.247186</v>
+        <v>0.321157</v>
       </c>
       <c r="F122" t="n">
-        <v>0.317666</v>
+        <v>0.36565</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.419404</v>
+        <v>0.431036</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5934469999999999</v>
+        <v>0.638763</v>
       </c>
       <c r="D123" t="n">
-        <v>0.795204</v>
+        <v>0.7904679999999999</v>
       </c>
       <c r="E123" t="n">
-        <v>0.283298</v>
+        <v>0.323395</v>
       </c>
       <c r="F123" t="n">
-        <v>0.323441</v>
+        <v>0.350069</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.345869</v>
+        <v>0.376185</v>
       </c>
       <c r="C124" t="n">
-        <v>0.403508</v>
+        <v>0.442857</v>
       </c>
       <c r="D124" t="n">
-        <v>0.812207</v>
+        <v>0.867278</v>
       </c>
       <c r="E124" t="n">
-        <v>0.287781</v>
+        <v>0.339479</v>
       </c>
       <c r="F124" t="n">
-        <v>0.316576</v>
+        <v>0.357677</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.350212</v>
+        <v>0.375658</v>
       </c>
       <c r="C125" t="n">
-        <v>0.418163</v>
+        <v>0.457009</v>
       </c>
       <c r="D125" t="n">
-        <v>0.940014</v>
+        <v>0.831543</v>
       </c>
       <c r="E125" t="n">
-        <v>0.296203</v>
+        <v>0.328835</v>
       </c>
       <c r="F125" t="n">
-        <v>0.325549</v>
+        <v>0.369715</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.362465</v>
+        <v>0.378868</v>
       </c>
       <c r="C126" t="n">
-        <v>0.417198</v>
+        <v>0.461867</v>
       </c>
       <c r="D126" t="n">
-        <v>0.848341</v>
+        <v>0.855174</v>
       </c>
       <c r="E126" t="n">
-        <v>0.298598</v>
+        <v>0.34557</v>
       </c>
       <c r="F126" t="n">
-        <v>0.322946</v>
+        <v>0.364607</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.37037</v>
+        <v>0.385388</v>
       </c>
       <c r="C127" t="n">
-        <v>0.447572</v>
+        <v>0.470853</v>
       </c>
       <c r="D127" t="n">
-        <v>0.889753</v>
+        <v>0.931965</v>
       </c>
       <c r="E127" t="n">
-        <v>0.293063</v>
+        <v>0.331927</v>
       </c>
       <c r="F127" t="n">
-        <v>0.32831</v>
+        <v>0.384333</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.367053</v>
+        <v>0.385641</v>
       </c>
       <c r="C128" t="n">
-        <v>0.432861</v>
+        <v>0.500396</v>
       </c>
       <c r="D128" t="n">
-        <v>0.896381</v>
+        <v>0.90223</v>
       </c>
       <c r="E128" t="n">
-        <v>0.307412</v>
+        <v>0.335977</v>
       </c>
       <c r="F128" t="n">
-        <v>0.331914</v>
+        <v>0.392332</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.369694</v>
+        <v>0.396594</v>
       </c>
       <c r="C129" t="n">
-        <v>0.446721</v>
+        <v>0.486437</v>
       </c>
       <c r="D129" t="n">
-        <v>0.952337</v>
+        <v>0.945293</v>
       </c>
       <c r="E129" t="n">
-        <v>0.313359</v>
+        <v>0.338715</v>
       </c>
       <c r="F129" t="n">
-        <v>0.338107</v>
+        <v>0.383178</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.382022</v>
+        <v>0.402577</v>
       </c>
       <c r="C130" t="n">
-        <v>0.481506</v>
+        <v>0.526336</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9741880000000001</v>
+        <v>1.07011</v>
       </c>
       <c r="E130" t="n">
-        <v>0.300929</v>
+        <v>0.360755</v>
       </c>
       <c r="F130" t="n">
-        <v>0.34304</v>
+        <v>0.390862</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.403495</v>
+        <v>0.437823</v>
       </c>
       <c r="C131" t="n">
-        <v>0.472697</v>
+        <v>0.538517</v>
       </c>
       <c r="D131" t="n">
-        <v>1.01582</v>
+        <v>1.00019</v>
       </c>
       <c r="E131" t="n">
-        <v>0.308407</v>
+        <v>0.348511</v>
       </c>
       <c r="F131" t="n">
-        <v>0.359125</v>
+        <v>0.412834</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.397309</v>
+        <v>0.438013</v>
       </c>
       <c r="C132" t="n">
-        <v>0.481937</v>
+        <v>0.533264</v>
       </c>
       <c r="D132" t="n">
-        <v>1.02914</v>
+        <v>1.02166</v>
       </c>
       <c r="E132" t="n">
-        <v>0.311328</v>
+        <v>0.358798</v>
       </c>
       <c r="F132" t="n">
-        <v>0.360354</v>
+        <v>0.429046</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.434428</v>
+        <v>0.436941</v>
       </c>
       <c r="C133" t="n">
-        <v>0.49434</v>
+        <v>0.555727</v>
       </c>
       <c r="D133" t="n">
-        <v>1.06359</v>
+        <v>1.05027</v>
       </c>
       <c r="E133" t="n">
-        <v>0.31543</v>
+        <v>0.36113</v>
       </c>
       <c r="F133" t="n">
-        <v>0.370003</v>
+        <v>0.419724</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.432779</v>
+        <v>0.45635</v>
       </c>
       <c r="C134" t="n">
-        <v>0.529903</v>
+        <v>0.613059</v>
       </c>
       <c r="D134" t="n">
-        <v>1.1054</v>
+        <v>1.10251</v>
       </c>
       <c r="E134" t="n">
-        <v>0.325951</v>
+        <v>0.374939</v>
       </c>
       <c r="F134" t="n">
-        <v>0.382091</v>
+        <v>0.45994</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.462286</v>
+        <v>0.486879</v>
       </c>
       <c r="C135" t="n">
-        <v>0.599248</v>
+        <v>0.623736</v>
       </c>
       <c r="D135" t="n">
-        <v>0.86963</v>
+        <v>0.892351</v>
       </c>
       <c r="E135" t="n">
-        <v>0.341087</v>
+        <v>0.424109</v>
       </c>
       <c r="F135" t="n">
-        <v>0.402678</v>
+        <v>0.438931</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.511864</v>
+        <v>0.535061</v>
       </c>
       <c r="C136" t="n">
-        <v>0.66781</v>
+        <v>0.727608</v>
       </c>
       <c r="D136" t="n">
-        <v>0.902679</v>
+        <v>0.916547</v>
       </c>
       <c r="E136" t="n">
-        <v>0.368415</v>
+        <v>0.423153</v>
       </c>
       <c r="F136" t="n">
-        <v>0.434216</v>
+        <v>0.449936</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.61364</v>
+        <v>0.6306079999999999</v>
       </c>
       <c r="C137" t="n">
-        <v>0.775023</v>
+        <v>0.823715</v>
       </c>
       <c r="D137" t="n">
-        <v>0.952039</v>
+        <v>0.917936</v>
       </c>
       <c r="E137" t="n">
-        <v>0.352032</v>
+        <v>0.439414</v>
       </c>
       <c r="F137" t="n">
-        <v>0.384274</v>
+        <v>0.450323</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.445544</v>
+        <v>0.469257</v>
       </c>
       <c r="C138" t="n">
-        <v>0.487555</v>
+        <v>0.5537260000000001</v>
       </c>
       <c r="D138" t="n">
-        <v>0.962843</v>
+        <v>0.95578</v>
       </c>
       <c r="E138" t="n">
-        <v>0.353238</v>
+        <v>0.42942</v>
       </c>
       <c r="F138" t="n">
-        <v>0.377463</v>
+        <v>0.452587</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.440319</v>
+        <v>0.47646</v>
       </c>
       <c r="C139" t="n">
-        <v>0.5056850000000001</v>
+        <v>0.566554</v>
       </c>
       <c r="D139" t="n">
-        <v>0.99612</v>
+        <v>0.9909790000000001</v>
       </c>
       <c r="E139" t="n">
-        <v>0.353963</v>
+        <v>0.430746</v>
       </c>
       <c r="F139" t="n">
-        <v>0.399399</v>
+        <v>0.452485</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.450597</v>
+        <v>0.463451</v>
       </c>
       <c r="C140" t="n">
-        <v>0.511916</v>
+        <v>0.570213</v>
       </c>
       <c r="D140" t="n">
-        <v>1.03646</v>
+        <v>1.01633</v>
       </c>
       <c r="E140" t="n">
-        <v>0.357918</v>
+        <v>0.429834</v>
       </c>
       <c r="F140" t="n">
-        <v>0.391339</v>
+        <v>0.463227</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.455332</v>
+        <v>0.479742</v>
       </c>
       <c r="C141" t="n">
-        <v>0.526127</v>
+        <v>0.579732</v>
       </c>
       <c r="D141" t="n">
-        <v>1.07672</v>
+        <v>1.02179</v>
       </c>
       <c r="E141" t="n">
-        <v>0.368225</v>
+        <v>0.42176</v>
       </c>
       <c r="F141" t="n">
-        <v>0.398652</v>
+        <v>0.459199</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.460361</v>
+        <v>0.481475</v>
       </c>
       <c r="C142" t="n">
-        <v>0.535177</v>
+        <v>0.603756</v>
       </c>
       <c r="D142" t="n">
-        <v>1.10104</v>
+        <v>1.05292</v>
       </c>
       <c r="E142" t="n">
-        <v>0.36292</v>
+        <v>0.436101</v>
       </c>
       <c r="F142" t="n">
-        <v>0.407511</v>
+        <v>0.475099</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.461156</v>
+        <v>0.475769</v>
       </c>
       <c r="C143" t="n">
-        <v>0.544897</v>
+        <v>0.61549</v>
       </c>
       <c r="D143" t="n">
-        <v>1.14604</v>
+        <v>1.09681</v>
       </c>
       <c r="E143" t="n">
-        <v>0.366409</v>
+        <v>0.439534</v>
       </c>
       <c r="F143" t="n">
-        <v>0.409125</v>
+        <v>0.481343</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0588576</v>
+        <v>0.0580038</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0587914</v>
+        <v>0.059425</v>
       </c>
       <c r="D2" t="n">
-        <v>0.163668</v>
+        <v>0.164658</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07161149999999999</v>
+        <v>0.0716552</v>
       </c>
       <c r="F2" t="n">
-        <v>0.061782</v>
+        <v>0.0619304</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0610321</v>
+        <v>0.0598526</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0617208</v>
+        <v>0.0610656</v>
       </c>
       <c r="D3" t="n">
-        <v>0.16845</v>
+        <v>0.166036</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07179489999999999</v>
+        <v>0.0720321</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0624803</v>
+        <v>0.0625076</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0628476</v>
+        <v>0.0629281</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06530039999999999</v>
+        <v>0.0649609</v>
       </c>
       <c r="D4" t="n">
-        <v>0.172459</v>
+        <v>0.170756</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0735172</v>
+        <v>0.07356600000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06618830000000001</v>
+        <v>0.0637059</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0716203</v>
+        <v>0.06708160000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07078660000000001</v>
+        <v>0.07105499999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.176768</v>
+        <v>0.176577</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07517020000000001</v>
+        <v>0.0770376</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0664714</v>
+        <v>0.0681991</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0755411</v>
+        <v>0.0768142</v>
       </c>
       <c r="C6" t="n">
-        <v>0.078906</v>
+        <v>0.080707</v>
       </c>
       <c r="D6" t="n">
-        <v>0.181627</v>
+        <v>0.182676</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0803854</v>
+        <v>0.078984</v>
       </c>
       <c r="F6" t="n">
-        <v>0.069578</v>
+        <v>0.070322</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0869318</v>
+        <v>0.0866835</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0896922</v>
+        <v>0.09708559999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.145911</v>
+        <v>0.146474</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08529109999999999</v>
+        <v>0.0858173</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0764784</v>
+        <v>0.0764421</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.11033</v>
+        <v>0.109724</v>
       </c>
       <c r="C8" t="n">
-        <v>0.111831</v>
+        <v>0.116598</v>
       </c>
       <c r="D8" t="n">
-        <v>0.14995</v>
+        <v>0.150651</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0951767</v>
+        <v>0.0955395</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0862332</v>
+        <v>0.0861875</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.152663</v>
+        <v>0.144935</v>
       </c>
       <c r="C9" t="n">
-        <v>0.144331</v>
+        <v>0.141651</v>
       </c>
       <c r="D9" t="n">
-        <v>0.154608</v>
+        <v>0.155813</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06929299999999999</v>
+        <v>0.069802</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0611498</v>
+        <v>0.0609125</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0571501</v>
+        <v>0.0570455</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0579957</v>
+        <v>0.0578874</v>
       </c>
       <c r="D10" t="n">
-        <v>0.160042</v>
+        <v>0.159915</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0706576</v>
+        <v>0.0698918</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06361700000000001</v>
+        <v>0.0609773</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0575356</v>
+        <v>0.0571583</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0586879</v>
+        <v>0.0583601</v>
       </c>
       <c r="D11" t="n">
-        <v>0.164858</v>
+        <v>0.164349</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0699939</v>
+        <v>0.07039869999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>0.061743</v>
+        <v>0.0615411</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0580063</v>
+        <v>0.0579575</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0612389</v>
+        <v>0.0594009</v>
       </c>
       <c r="D12" t="n">
-        <v>0.168894</v>
+        <v>0.16981</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0703105</v>
+        <v>0.0706912</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0620595</v>
+        <v>0.0620474</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0610697</v>
+        <v>0.0586759</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0615691</v>
+        <v>0.061276</v>
       </c>
       <c r="D13" t="n">
-        <v>0.178573</v>
+        <v>0.174667</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0705388</v>
+        <v>0.07109509999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0639996</v>
+        <v>0.0622404</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0604046</v>
+        <v>0.0593566</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0612324</v>
+        <v>0.0616069</v>
       </c>
       <c r="D14" t="n">
-        <v>0.182218</v>
+        <v>0.178445</v>
       </c>
       <c r="E14" t="n">
-        <v>0.07087010000000001</v>
+        <v>0.0713216</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0627495</v>
+        <v>0.0625493</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0620386</v>
+        <v>0.0601289</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0623966</v>
+        <v>0.0628451</v>
       </c>
       <c r="D15" t="n">
-        <v>0.185802</v>
+        <v>0.182911</v>
       </c>
       <c r="E15" t="n">
-        <v>0.07680439999999999</v>
+        <v>0.0714504</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0633176</v>
+        <v>0.0628113</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0619951</v>
+        <v>0.0615293</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0648883</v>
+        <v>0.06536550000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.187332</v>
+        <v>0.190131</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0722507</v>
+        <v>0.0725249</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0645107</v>
+        <v>0.0638867</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06522029999999999</v>
+        <v>0.0653614</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0667672</v>
+        <v>0.0686126</v>
       </c>
       <c r="D17" t="n">
-        <v>0.191842</v>
+        <v>0.194406</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0738605</v>
+        <v>0.0737821</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06758119999999999</v>
+        <v>0.0655086</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0695882</v>
+        <v>0.0691852</v>
       </c>
       <c r="C18" t="n">
-        <v>0.070422</v>
+        <v>0.0720788</v>
       </c>
       <c r="D18" t="n">
-        <v>0.196174</v>
+        <v>0.196995</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0789787</v>
+        <v>0.07452590000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0666672</v>
+        <v>0.0670496</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0735162</v>
+        <v>0.0759537</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0750941</v>
+        <v>0.0759939</v>
       </c>
       <c r="D19" t="n">
-        <v>0.202408</v>
+        <v>0.203858</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08061219999999999</v>
+        <v>0.0777327</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0695981</v>
+        <v>0.06910769999999999</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08029169999999999</v>
+        <v>0.0830103</v>
       </c>
       <c r="C20" t="n">
-        <v>0.081469</v>
+        <v>0.0838486</v>
       </c>
       <c r="D20" t="n">
-        <v>0.210753</v>
+        <v>0.206417</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0802967</v>
+        <v>0.08126559999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>0.07249990000000001</v>
+        <v>0.0728215</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0923214</v>
+        <v>0.0973242</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09237860000000001</v>
+        <v>0.0969955</v>
       </c>
       <c r="D21" t="n">
-        <v>0.157428</v>
+        <v>0.157922</v>
       </c>
       <c r="E21" t="n">
-        <v>0.08618679999999999</v>
+        <v>0.087435</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07814309999999999</v>
+        <v>0.0776358</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.114218</v>
+        <v>0.11563</v>
       </c>
       <c r="C22" t="n">
-        <v>0.118101</v>
+        <v>0.11855</v>
       </c>
       <c r="D22" t="n">
-        <v>0.166122</v>
+        <v>0.16252</v>
       </c>
       <c r="E22" t="n">
-        <v>0.09685199999999999</v>
+        <v>0.096179</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0871662</v>
+        <v>0.08633150000000001</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.140459</v>
+        <v>0.151324</v>
       </c>
       <c r="C23" t="n">
-        <v>0.142904</v>
+        <v>0.14195</v>
       </c>
       <c r="D23" t="n">
-        <v>0.171911</v>
+        <v>0.171361</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0728892</v>
+        <v>0.0709378</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0634015</v>
+        <v>0.063565</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0617442</v>
+        <v>0.0611264</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0644435</v>
+        <v>0.063374</v>
       </c>
       <c r="D24" t="n">
-        <v>0.175008</v>
+        <v>0.174865</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0717936</v>
+        <v>0.0710607</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0635342</v>
+        <v>0.06369619999999999</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0640442</v>
+        <v>0.0609676</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0644255</v>
+        <v>0.06423570000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.179185</v>
+        <v>0.189103</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0707719</v>
+        <v>0.07097199999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0647392</v>
+        <v>0.06386219999999999</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0621327</v>
+        <v>0.0616316</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0644348</v>
+        <v>0.0645613</v>
       </c>
       <c r="D26" t="n">
-        <v>0.187213</v>
+        <v>0.189995</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0713693</v>
+        <v>0.07161919999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0643266</v>
+        <v>0.06788719999999999</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0622627</v>
+        <v>0.06276959999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.06579400000000001</v>
+        <v>0.06642000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.194217</v>
+        <v>0.191841</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0724364</v>
+        <v>0.0718321</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0666556</v>
+        <v>0.06524969999999999</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.06340079999999999</v>
+        <v>0.0641241</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0696334</v>
+        <v>0.0676351</v>
       </c>
       <c r="D28" t="n">
-        <v>0.200317</v>
+        <v>0.198385</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0755701</v>
+        <v>0.0724282</v>
       </c>
       <c r="F28" t="n">
-        <v>0.06711689999999999</v>
+        <v>0.0661007</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0688304</v>
+        <v>0.0649315</v>
       </c>
       <c r="C29" t="n">
-        <v>0.06978760000000001</v>
+        <v>0.0690384</v>
       </c>
       <c r="D29" t="n">
-        <v>0.222639</v>
+        <v>0.201764</v>
       </c>
       <c r="E29" t="n">
-        <v>0.07338020000000001</v>
+        <v>0.0727619</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06727320000000001</v>
+        <v>0.06584280000000001</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.06858499999999999</v>
+        <v>0.06598859999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0713516</v>
+        <v>0.07062549999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.206378</v>
+        <v>0.208717</v>
       </c>
       <c r="E30" t="n">
-        <v>0.07311049999999999</v>
+        <v>0.07443279999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0678002</v>
+        <v>0.06835339999999999</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0693346</v>
+        <v>0.0691904</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07819520000000001</v>
+        <v>0.0743085</v>
       </c>
       <c r="D31" t="n">
-        <v>0.212108</v>
+        <v>0.21369</v>
       </c>
       <c r="E31" t="n">
-        <v>0.07685740000000001</v>
+        <v>0.0747145</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0680523</v>
+        <v>0.06829780000000001</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0741409</v>
+        <v>0.0718439</v>
       </c>
       <c r="C32" t="n">
-        <v>0.075796</v>
+        <v>0.0766559</v>
       </c>
       <c r="D32" t="n">
-        <v>0.223383</v>
+        <v>0.220036</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0816306</v>
+        <v>0.0765188</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0700646</v>
+        <v>0.07055</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0756478</v>
+        <v>0.07722710000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0814829</v>
+        <v>0.08170810000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.223586</v>
+        <v>0.229712</v>
       </c>
       <c r="E33" t="n">
-        <v>0.079053</v>
+        <v>0.0790777</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0729026</v>
+        <v>0.0724814</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08390060000000001</v>
+        <v>0.0842721</v>
       </c>
       <c r="C34" t="n">
-        <v>0.08848399999999999</v>
+        <v>0.0901554</v>
       </c>
       <c r="D34" t="n">
-        <v>0.247042</v>
+        <v>0.234679</v>
       </c>
       <c r="E34" t="n">
-        <v>0.08265069999999999</v>
+        <v>0.083033</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0785851</v>
+        <v>0.07627689999999999</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0960965</v>
+        <v>0.0985916</v>
       </c>
       <c r="C35" t="n">
-        <v>0.101891</v>
+        <v>0.101531</v>
       </c>
       <c r="D35" t="n">
-        <v>0.175403</v>
+        <v>0.176776</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0909961</v>
+        <v>0.09192889999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0822478</v>
+        <v>0.0849263</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.114663</v>
+        <v>0.117642</v>
       </c>
       <c r="C36" t="n">
-        <v>0.11886</v>
+        <v>0.120771</v>
       </c>
       <c r="D36" t="n">
-        <v>0.189369</v>
+        <v>0.18682</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0977359</v>
+        <v>0.0992557</v>
       </c>
       <c r="F36" t="n">
-        <v>0.09647169999999999</v>
+        <v>0.0918485</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.143586</v>
+        <v>0.144926</v>
       </c>
       <c r="C37" t="n">
-        <v>0.142125</v>
+        <v>0.145801</v>
       </c>
       <c r="D37" t="n">
-        <v>0.190962</v>
+        <v>0.193208</v>
       </c>
       <c r="E37" t="n">
-        <v>0.07240679999999999</v>
+        <v>0.0733713</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06904299999999999</v>
+        <v>0.06778339999999999</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0669237</v>
+        <v>0.0658281</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0715336</v>
+        <v>0.0718961</v>
       </c>
       <c r="D38" t="n">
-        <v>0.204688</v>
+        <v>0.201227</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0763808</v>
+        <v>0.07376099999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0732809</v>
+        <v>0.06833500000000001</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.06850970000000001</v>
+        <v>0.06651319999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0782004</v>
+        <v>0.0728212</v>
       </c>
       <c r="D39" t="n">
-        <v>0.206651</v>
+        <v>0.203306</v>
       </c>
       <c r="E39" t="n">
-        <v>0.074793</v>
+        <v>0.0739929</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0726498</v>
+        <v>0.0686838</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.06810579999999999</v>
+        <v>0.066995</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0752034</v>
+        <v>0.07354430000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.224145</v>
+        <v>0.213868</v>
       </c>
       <c r="E40" t="n">
-        <v>0.07477590000000001</v>
+        <v>0.07392550000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0697942</v>
+        <v>0.0694714</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0705918</v>
+        <v>0.068104</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0750021</v>
+        <v>0.0759624</v>
       </c>
       <c r="D41" t="n">
-        <v>0.219616</v>
+        <v>0.218443</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0756699</v>
+        <v>0.0767803</v>
       </c>
       <c r="F41" t="n">
-        <v>0.07050629999999999</v>
+        <v>0.07265149999999999</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0714095</v>
+        <v>0.0710423</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0768432</v>
+        <v>0.07947940000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.230004</v>
+        <v>0.237242</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0752675</v>
+        <v>0.07554080000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07292029999999999</v>
+        <v>0.07159</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0719337</v>
+        <v>0.0707443</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0788391</v>
+        <v>0.0819256</v>
       </c>
       <c r="D43" t="n">
-        <v>0.243249</v>
+        <v>0.243688</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0780872</v>
+        <v>0.0755812</v>
       </c>
       <c r="F43" t="n">
-        <v>0.07135370000000001</v>
+        <v>0.0720237</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0721145</v>
+        <v>0.0717088</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0827171</v>
+        <v>0.0828813</v>
       </c>
       <c r="D44" t="n">
-        <v>0.247083</v>
+        <v>0.245244</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0753513</v>
+        <v>0.07612190000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>0.072961</v>
+        <v>0.07385559999999999</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0771893</v>
+        <v>0.07366540000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.08879919999999999</v>
+        <v>0.08448319999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.256208</v>
+        <v>0.260771</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0785148</v>
+        <v>0.0772965</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0759147</v>
+        <v>0.0786901</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.07926560000000001</v>
+        <v>0.0766149</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0886663</v>
+        <v>0.0886506</v>
       </c>
       <c r="D46" t="n">
-        <v>0.266051</v>
+        <v>0.269761</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0801385</v>
+        <v>0.0786618</v>
       </c>
       <c r="F46" t="n">
-        <v>0.07783859999999999</v>
+        <v>0.07644330000000001</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.081597</v>
+        <v>0.0800424</v>
       </c>
       <c r="C47" t="n">
-        <v>0.09628200000000001</v>
+        <v>0.0932291</v>
       </c>
       <c r="D47" t="n">
-        <v>0.275251</v>
+        <v>0.275885</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0828072</v>
+        <v>0.0813976</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0798378</v>
+        <v>0.0794371</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0880595</v>
+        <v>0.08656220000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.103581</v>
+        <v>0.10151</v>
       </c>
       <c r="D48" t="n">
-        <v>0.29098</v>
+        <v>0.289725</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0845095</v>
+        <v>0.0846494</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08364820000000001</v>
+        <v>0.0826345</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0981374</v>
+        <v>0.0962702</v>
       </c>
       <c r="C49" t="n">
-        <v>0.117855</v>
+        <v>0.111693</v>
       </c>
       <c r="D49" t="n">
-        <v>0.310449</v>
+        <v>0.302592</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0931864</v>
+        <v>0.089459</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0891367</v>
+        <v>0.08819150000000001</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.120937</v>
+        <v>0.112643</v>
       </c>
       <c r="C50" t="n">
-        <v>0.128585</v>
+        <v>0.128442</v>
       </c>
       <c r="D50" t="n">
-        <v>0.221794</v>
+        <v>0.220267</v>
       </c>
       <c r="E50" t="n">
-        <v>0.100949</v>
+        <v>0.0979879</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0977663</v>
+        <v>0.0974834</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.142008</v>
+        <v>0.14037</v>
       </c>
       <c r="C51" t="n">
-        <v>0.155481</v>
+        <v>0.153659</v>
       </c>
       <c r="D51" t="n">
-        <v>0.22791</v>
+        <v>0.232114</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0785536</v>
+        <v>0.0781178</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0777962</v>
+        <v>0.0753154</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.188929</v>
+        <v>0.184756</v>
       </c>
       <c r="C52" t="n">
-        <v>0.194668</v>
+        <v>0.194483</v>
       </c>
       <c r="D52" t="n">
-        <v>0.249181</v>
+        <v>0.245116</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0785252</v>
+        <v>0.0787804</v>
       </c>
       <c r="F52" t="n">
-        <v>0.07658860000000001</v>
+        <v>0.0767824</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0814594</v>
+        <v>0.0776046</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0910176</v>
+        <v>0.0898379</v>
       </c>
       <c r="D53" t="n">
-        <v>0.254365</v>
+        <v>0.261059</v>
       </c>
       <c r="E53" t="n">
-        <v>0.07977330000000001</v>
+        <v>0.0815666</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0772045</v>
+        <v>0.08018699999999999</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.07800269999999999</v>
+        <v>0.0804763</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0922311</v>
+        <v>0.0938914</v>
       </c>
       <c r="D54" t="n">
-        <v>0.26841</v>
+        <v>0.287799</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0787931</v>
+        <v>0.07948810000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0785614</v>
+        <v>0.07927140000000001</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0822942</v>
+        <v>0.079024</v>
       </c>
       <c r="C55" t="n">
-        <v>0.097025</v>
+        <v>0.094106</v>
       </c>
       <c r="D55" t="n">
-        <v>0.275672</v>
+        <v>0.28492</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0798372</v>
+        <v>0.0799743</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0831969</v>
+        <v>0.0797839</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.08047360000000001</v>
+        <v>0.0810231</v>
       </c>
       <c r="C56" t="n">
-        <v>0.09523239999999999</v>
+        <v>0.09635059999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.298917</v>
+        <v>0.30376</v>
       </c>
       <c r="E56" t="n">
-        <v>0.081745</v>
+        <v>0.080457</v>
       </c>
       <c r="F56" t="n">
-        <v>0.08106090000000001</v>
+        <v>0.0804663</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0832963</v>
+        <v>0.08177710000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.101481</v>
+        <v>0.0988009</v>
       </c>
       <c r="D57" t="n">
-        <v>0.311283</v>
+        <v>0.319481</v>
       </c>
       <c r="E57" t="n">
-        <v>0.08067630000000001</v>
+        <v>0.0812749</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0814131</v>
+        <v>0.08199239999999999</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.08503910000000001</v>
+        <v>0.0835224</v>
       </c>
       <c r="C58" t="n">
-        <v>0.101308</v>
+        <v>0.101759</v>
       </c>
       <c r="D58" t="n">
-        <v>0.327563</v>
+        <v>0.336888</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0830168</v>
+        <v>0.0825149</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0845881</v>
+        <v>0.08401450000000001</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.091775</v>
+        <v>0.0851435</v>
       </c>
       <c r="C59" t="n">
-        <v>0.104898</v>
+        <v>0.104871</v>
       </c>
       <c r="D59" t="n">
-        <v>0.346289</v>
+        <v>0.350258</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0857048</v>
+        <v>0.0835632</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0885079</v>
+        <v>0.08543870000000001</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.08986479999999999</v>
+        <v>0.0895639</v>
       </c>
       <c r="C60" t="n">
-        <v>0.109066</v>
+        <v>0.110315</v>
       </c>
       <c r="D60" t="n">
-        <v>0.361857</v>
+        <v>0.370872</v>
       </c>
       <c r="E60" t="n">
-        <v>0.08711820000000001</v>
+        <v>0.08559020000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0867682</v>
+        <v>0.088173</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0929765</v>
+        <v>0.0936197</v>
       </c>
       <c r="C61" t="n">
-        <v>0.117015</v>
+        <v>0.116973</v>
       </c>
       <c r="D61" t="n">
-        <v>0.378111</v>
+        <v>0.388992</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0877189</v>
+        <v>0.0880025</v>
       </c>
       <c r="F61" t="n">
-        <v>0.090381</v>
+        <v>0.090603</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.101161</v>
+        <v>0.0997376</v>
       </c>
       <c r="C62" t="n">
-        <v>0.124312</v>
+        <v>0.124282</v>
       </c>
       <c r="D62" t="n">
-        <v>0.42107</v>
+        <v>0.414899</v>
       </c>
       <c r="E62" t="n">
-        <v>0.09118660000000001</v>
+        <v>0.0912762</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0984669</v>
+        <v>0.0942938</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.110525</v>
+        <v>0.109795</v>
       </c>
       <c r="C63" t="n">
-        <v>0.13438</v>
+        <v>0.136418</v>
       </c>
       <c r="D63" t="n">
-        <v>0.445575</v>
+        <v>0.436561</v>
       </c>
       <c r="E63" t="n">
-        <v>0.095857</v>
+        <v>0.0963386</v>
       </c>
       <c r="F63" t="n">
-        <v>0.100761</v>
+        <v>0.09992620000000001</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.126067</v>
+        <v>0.122434</v>
       </c>
       <c r="C64" t="n">
-        <v>0.155637</v>
+        <v>0.153158</v>
       </c>
       <c r="D64" t="n">
-        <v>0.340358</v>
+        <v>0.318802</v>
       </c>
       <c r="E64" t="n">
-        <v>0.103748</v>
+        <v>0.104034</v>
       </c>
       <c r="F64" t="n">
-        <v>0.109101</v>
+        <v>0.109477</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.149169</v>
+        <v>0.146349</v>
       </c>
       <c r="C65" t="n">
-        <v>0.183897</v>
+        <v>0.178333</v>
       </c>
       <c r="D65" t="n">
-        <v>0.357174</v>
+        <v>0.336351</v>
       </c>
       <c r="E65" t="n">
-        <v>0.117039</v>
+        <v>0.117487</v>
       </c>
       <c r="F65" t="n">
-        <v>0.124521</v>
+        <v>0.126484</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.190145</v>
+        <v>0.189608</v>
       </c>
       <c r="C66" t="n">
-        <v>0.235715</v>
+        <v>0.225156</v>
       </c>
       <c r="D66" t="n">
-        <v>0.386656</v>
+        <v>0.360617</v>
       </c>
       <c r="E66" t="n">
-        <v>0.08507339999999999</v>
+        <v>0.0846623</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0902438</v>
+        <v>0.0847921</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.08872190000000001</v>
+        <v>0.0872788</v>
       </c>
       <c r="C67" t="n">
-        <v>0.107363</v>
+        <v>0.107057</v>
       </c>
       <c r="D67" t="n">
-        <v>0.370296</v>
+        <v>0.3742</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0869375</v>
+        <v>0.0837638</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0898661</v>
+        <v>0.0854872</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0888607</v>
+        <v>0.0881212</v>
       </c>
       <c r="C68" t="n">
-        <v>0.11166</v>
+        <v>0.109283</v>
       </c>
       <c r="D68" t="n">
-        <v>0.427978</v>
+        <v>0.39095</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0840516</v>
+        <v>0.0843836</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0868917</v>
+        <v>0.08654779999999999</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0911447</v>
+        <v>0.0894006</v>
       </c>
       <c r="C69" t="n">
-        <v>0.114051</v>
+        <v>0.114106</v>
       </c>
       <c r="D69" t="n">
-        <v>0.407554</v>
+        <v>0.414763</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0844121</v>
+        <v>0.08487310000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0887044</v>
+        <v>0.0878689</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0940346</v>
+        <v>0.09108819999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.120047</v>
+        <v>0.117481</v>
       </c>
       <c r="D70" t="n">
-        <v>0.439642</v>
+        <v>0.437335</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0866532</v>
+        <v>0.08629489999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0900934</v>
+        <v>0.0902911</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0940667</v>
+        <v>0.093019</v>
       </c>
       <c r="C71" t="n">
-        <v>0.125418</v>
+        <v>0.122201</v>
       </c>
       <c r="D71" t="n">
-        <v>0.49478</v>
+        <v>0.460697</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0872967</v>
+        <v>0.0875234</v>
       </c>
       <c r="F71" t="n">
-        <v>0.09313539999999999</v>
+        <v>0.09216439999999999</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0952939</v>
+        <v>0.0958929</v>
       </c>
       <c r="C72" t="n">
-        <v>0.126623</v>
+        <v>0.141331</v>
       </c>
       <c r="D72" t="n">
-        <v>0.520189</v>
+        <v>0.483316</v>
       </c>
       <c r="E72" t="n">
-        <v>0.08823309999999999</v>
+        <v>0.0889866</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09426909999999999</v>
+        <v>0.09479849999999999</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.102298</v>
+        <v>0.0977413</v>
       </c>
       <c r="C73" t="n">
-        <v>0.130373</v>
+        <v>0.136383</v>
       </c>
       <c r="D73" t="n">
-        <v>0.522276</v>
+        <v>0.520888</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0899802</v>
+        <v>0.0909017</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0987325</v>
+        <v>0.0976461</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.103635</v>
+        <v>0.102799</v>
       </c>
       <c r="C74" t="n">
-        <v>0.145554</v>
+        <v>0.1342</v>
       </c>
       <c r="D74" t="n">
-        <v>0.542954</v>
+        <v>0.533951</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0920093</v>
+        <v>0.0942834</v>
       </c>
       <c r="F74" t="n">
-        <v>0.107696</v>
+        <v>0.100634</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.110443</v>
+        <v>0.108598</v>
       </c>
       <c r="C75" t="n">
-        <v>0.150279</v>
+        <v>0.143959</v>
       </c>
       <c r="D75" t="n">
-        <v>0.582589</v>
+        <v>0.564148</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0971882</v>
+        <v>0.0960854</v>
       </c>
       <c r="F75" t="n">
-        <v>0.108399</v>
+        <v>0.106717</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.122445</v>
+        <v>0.115102</v>
       </c>
       <c r="C76" t="n">
-        <v>0.162186</v>
+        <v>0.153684</v>
       </c>
       <c r="D76" t="n">
-        <v>0.630094</v>
+        <v>0.592259</v>
       </c>
       <c r="E76" t="n">
-        <v>0.100411</v>
+        <v>0.0987517</v>
       </c>
       <c r="F76" t="n">
-        <v>0.112857</v>
+        <v>0.113296</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.130147</v>
+        <v>0.122497</v>
       </c>
       <c r="C77" t="n">
-        <v>0.166778</v>
+        <v>0.171024</v>
       </c>
       <c r="D77" t="n">
-        <v>0.607732</v>
+        <v>0.620171</v>
       </c>
       <c r="E77" t="n">
-        <v>0.104105</v>
+        <v>0.106579</v>
       </c>
       <c r="F77" t="n">
-        <v>0.121131</v>
+        <v>0.121833</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.147385</v>
+        <v>0.138385</v>
       </c>
       <c r="C78" t="n">
-        <v>0.191433</v>
+        <v>0.190405</v>
       </c>
       <c r="D78" t="n">
-        <v>0.462924</v>
+        <v>0.460089</v>
       </c>
       <c r="E78" t="n">
-        <v>0.113781</v>
+        <v>0.114577</v>
       </c>
       <c r="F78" t="n">
-        <v>0.133133</v>
+        <v>0.132466</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.161755</v>
+        <v>0.174615</v>
       </c>
       <c r="C79" t="n">
-        <v>0.22639</v>
+        <v>0.223576</v>
       </c>
       <c r="D79" t="n">
-        <v>0.476193</v>
+        <v>0.505705</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1244</v>
+        <v>0.125914</v>
       </c>
       <c r="F79" t="n">
-        <v>0.143926</v>
+        <v>0.142909</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.204716</v>
+        <v>0.204182</v>
       </c>
       <c r="C80" t="n">
-        <v>0.286493</v>
+        <v>0.275835</v>
       </c>
       <c r="D80" t="n">
-        <v>0.516519</v>
+        <v>0.498297</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0907538</v>
+        <v>0.0892482</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0977775</v>
+        <v>0.0946454</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0978487</v>
+        <v>0.0979838</v>
       </c>
       <c r="C81" t="n">
-        <v>0.133215</v>
+        <v>0.130026</v>
       </c>
       <c r="D81" t="n">
-        <v>0.567761</v>
+        <v>0.517275</v>
       </c>
       <c r="E81" t="n">
-        <v>0.09354750000000001</v>
+        <v>0.0893364</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09830220000000001</v>
+        <v>0.09686989999999999</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.102677</v>
+        <v>0.09990300000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>0.138795</v>
+        <v>0.134878</v>
       </c>
       <c r="D82" t="n">
-        <v>0.54433</v>
+        <v>0.542247</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0936953</v>
+        <v>0.0908293</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1004</v>
+        <v>0.10035</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.104553</v>
+        <v>0.103975</v>
       </c>
       <c r="C83" t="n">
-        <v>0.14101</v>
+        <v>0.142647</v>
       </c>
       <c r="D83" t="n">
-        <v>0.583158</v>
+        <v>0.566831</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0952959</v>
+        <v>0.0940911</v>
       </c>
       <c r="F83" t="n">
-        <v>0.101322</v>
+        <v>0.102357</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.105706</v>
+        <v>0.104527</v>
       </c>
       <c r="C84" t="n">
-        <v>0.146466</v>
+        <v>0.145311</v>
       </c>
       <c r="D84" t="n">
-        <v>0.589917</v>
+        <v>0.589632</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0944868</v>
+        <v>0.0931153</v>
       </c>
       <c r="F84" t="n">
-        <v>0.107894</v>
+        <v>0.10445</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.109003</v>
+        <v>0.107668</v>
       </c>
       <c r="C85" t="n">
-        <v>0.161394</v>
+        <v>0.153655</v>
       </c>
       <c r="D85" t="n">
-        <v>0.611007</v>
+        <v>0.607692</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0948344</v>
+        <v>0.0950488</v>
       </c>
       <c r="F85" t="n">
-        <v>0.115588</v>
+        <v>0.106965</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.113386</v>
+        <v>0.112873</v>
       </c>
       <c r="C86" t="n">
-        <v>0.159774</v>
+        <v>0.158508</v>
       </c>
       <c r="D86" t="n">
-        <v>0.631049</v>
+        <v>0.651284</v>
       </c>
       <c r="E86" t="n">
-        <v>0.102018</v>
+        <v>0.09732780000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>0.114529</v>
+        <v>0.111342</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.11914</v>
+        <v>0.116029</v>
       </c>
       <c r="C87" t="n">
-        <v>0.168837</v>
+        <v>0.164739</v>
       </c>
       <c r="D87" t="n">
-        <v>0.658978</v>
+        <v>0.658496</v>
       </c>
       <c r="E87" t="n">
-        <v>0.103885</v>
+        <v>0.09957589999999999</v>
       </c>
       <c r="F87" t="n">
-        <v>0.122452</v>
+        <v>0.116392</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.124485</v>
+        <v>0.121164</v>
       </c>
       <c r="C88" t="n">
-        <v>0.175303</v>
+        <v>0.176079</v>
       </c>
       <c r="D88" t="n">
-        <v>0.681492</v>
+        <v>0.6900770000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>0.102585</v>
+        <v>0.103126</v>
       </c>
       <c r="F88" t="n">
-        <v>0.120891</v>
+        <v>0.121547</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.129288</v>
+        <v>0.132817</v>
       </c>
       <c r="C89" t="n">
-        <v>0.185904</v>
+        <v>0.187161</v>
       </c>
       <c r="D89" t="n">
-        <v>0.753103</v>
+        <v>0.712346</v>
       </c>
       <c r="E89" t="n">
-        <v>0.105593</v>
+        <v>0.106861</v>
       </c>
       <c r="F89" t="n">
-        <v>0.125987</v>
+        <v>0.126071</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.136587</v>
+        <v>0.136459</v>
       </c>
       <c r="C90" t="n">
-        <v>0.199525</v>
+        <v>0.196147</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7360989999999999</v>
+        <v>0.745968</v>
       </c>
       <c r="E90" t="n">
-        <v>0.111777</v>
+        <v>0.11086</v>
       </c>
       <c r="F90" t="n">
-        <v>0.136098</v>
+        <v>0.131214</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.14779</v>
+        <v>0.146105</v>
       </c>
       <c r="C91" t="n">
-        <v>0.21153</v>
+        <v>0.215403</v>
       </c>
       <c r="D91" t="n">
-        <v>0.761894</v>
+        <v>0.776102</v>
       </c>
       <c r="E91" t="n">
-        <v>0.123303</v>
+        <v>0.116981</v>
       </c>
       <c r="F91" t="n">
-        <v>0.146295</v>
+        <v>0.140406</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.169439</v>
+        <v>0.162271</v>
       </c>
       <c r="C92" t="n">
-        <v>0.244097</v>
+        <v>0.23305</v>
       </c>
       <c r="D92" t="n">
-        <v>0.629127</v>
+        <v>0.583711</v>
       </c>
       <c r="E92" t="n">
-        <v>0.127383</v>
+        <v>0.125387</v>
       </c>
       <c r="F92" t="n">
-        <v>0.154957</v>
+        <v>0.151715</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.193453</v>
+        <v>0.188359</v>
       </c>
       <c r="C93" t="n">
-        <v>0.280582</v>
+        <v>0.269554</v>
       </c>
       <c r="D93" t="n">
-        <v>0.6340170000000001</v>
+        <v>0.601096</v>
       </c>
       <c r="E93" t="n">
-        <v>0.140095</v>
+        <v>0.138121</v>
       </c>
       <c r="F93" t="n">
-        <v>0.17495</v>
+        <v>0.168409</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.227775</v>
+        <v>0.222668</v>
       </c>
       <c r="C94" t="n">
-        <v>0.325531</v>
+        <v>0.319659</v>
       </c>
       <c r="D94" t="n">
-        <v>0.622718</v>
+        <v>0.620448</v>
       </c>
       <c r="E94" t="n">
-        <v>0.107624</v>
+        <v>0.108013</v>
       </c>
       <c r="F94" t="n">
-        <v>0.127839</v>
+        <v>0.135883</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.130717</v>
+        <v>0.12927</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1822</v>
+        <v>0.17873</v>
       </c>
       <c r="D95" t="n">
-        <v>0.649402</v>
+        <v>0.636451</v>
       </c>
       <c r="E95" t="n">
-        <v>0.109331</v>
+        <v>0.109188</v>
       </c>
       <c r="F95" t="n">
-        <v>0.130865</v>
+        <v>0.128604</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.13257</v>
+        <v>0.130047</v>
       </c>
       <c r="C96" t="n">
-        <v>0.186003</v>
+        <v>0.182332</v>
       </c>
       <c r="D96" t="n">
-        <v>0.675935</v>
+        <v>0.6572</v>
       </c>
       <c r="E96" t="n">
-        <v>0.11126</v>
+        <v>0.110786</v>
       </c>
       <c r="F96" t="n">
-        <v>0.13802</v>
+        <v>0.132826</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.137736</v>
+        <v>0.133757</v>
       </c>
       <c r="C97" t="n">
-        <v>0.192622</v>
+        <v>0.191651</v>
       </c>
       <c r="D97" t="n">
-        <v>0.689672</v>
+        <v>0.693165</v>
       </c>
       <c r="E97" t="n">
-        <v>0.112354</v>
+        <v>0.113547</v>
       </c>
       <c r="F97" t="n">
-        <v>0.135947</v>
+        <v>0.136239</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.137342</v>
+        <v>0.140379</v>
       </c>
       <c r="C98" t="n">
-        <v>0.19748</v>
+        <v>0.204873</v>
       </c>
       <c r="D98" t="n">
-        <v>0.728015</v>
+        <v>0.727853</v>
       </c>
       <c r="E98" t="n">
-        <v>0.114097</v>
+        <v>0.117447</v>
       </c>
       <c r="F98" t="n">
-        <v>0.142269</v>
+        <v>0.145329</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.147813</v>
+        <v>0.141956</v>
       </c>
       <c r="C99" t="n">
-        <v>0.207518</v>
+        <v>0.205183</v>
       </c>
       <c r="D99" t="n">
-        <v>0.733575</v>
+        <v>0.738376</v>
       </c>
       <c r="E99" t="n">
-        <v>0.116502</v>
+        <v>0.118614</v>
       </c>
       <c r="F99" t="n">
-        <v>0.145115</v>
+        <v>0.143494</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.14459</v>
+        <v>0.145372</v>
       </c>
       <c r="C100" t="n">
-        <v>0.208623</v>
+        <v>0.208135</v>
       </c>
       <c r="D100" t="n">
-        <v>0.793594</v>
+        <v>0.758999</v>
       </c>
       <c r="E100" t="n">
-        <v>0.118418</v>
+        <v>0.120396</v>
       </c>
       <c r="F100" t="n">
-        <v>0.146725</v>
+        <v>0.147119</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.148959</v>
+        <v>0.147794</v>
       </c>
       <c r="C101" t="n">
-        <v>0.216611</v>
+        <v>0.215049</v>
       </c>
       <c r="D101" t="n">
-        <v>0.774033</v>
+        <v>0.7786380000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>0.123998</v>
+        <v>0.12164</v>
       </c>
       <c r="F101" t="n">
-        <v>0.158333</v>
+        <v>0.151201</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.156686</v>
+        <v>0.152314</v>
       </c>
       <c r="C102" t="n">
-        <v>0.230491</v>
+        <v>0.225017</v>
       </c>
       <c r="D102" t="n">
-        <v>0.800244</v>
+        <v>0.799918</v>
       </c>
       <c r="E102" t="n">
-        <v>0.124413</v>
+        <v>0.124357</v>
       </c>
       <c r="F102" t="n">
-        <v>0.159479</v>
+        <v>0.157403</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.166695</v>
+        <v>0.158923</v>
       </c>
       <c r="C103" t="n">
-        <v>0.24086</v>
+        <v>0.235803</v>
       </c>
       <c r="D103" t="n">
-        <v>0.847181</v>
+        <v>0.8277600000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>0.130028</v>
+        <v>0.129108</v>
       </c>
       <c r="F103" t="n">
-        <v>0.170573</v>
+        <v>0.164433</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.169031</v>
+        <v>0.16594</v>
       </c>
       <c r="C104" t="n">
-        <v>0.252058</v>
+        <v>0.247036</v>
       </c>
       <c r="D104" t="n">
-        <v>0.861917</v>
+        <v>0.856452</v>
       </c>
       <c r="E104" t="n">
-        <v>0.134337</v>
+        <v>0.1325</v>
       </c>
       <c r="F104" t="n">
-        <v>0.16818</v>
+        <v>0.168203</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.178985</v>
+        <v>0.178106</v>
       </c>
       <c r="C105" t="n">
-        <v>0.267718</v>
+        <v>0.267479</v>
       </c>
       <c r="D105" t="n">
-        <v>0.882349</v>
+        <v>0.884504</v>
       </c>
       <c r="E105" t="n">
-        <v>0.138058</v>
+        <v>0.1384</v>
       </c>
       <c r="F105" t="n">
-        <v>0.177258</v>
+        <v>0.192618</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.199021</v>
+        <v>0.193589</v>
       </c>
       <c r="C106" t="n">
-        <v>0.298213</v>
+        <v>0.289939</v>
       </c>
       <c r="D106" t="n">
-        <v>0.92086</v>
+        <v>0.914777</v>
       </c>
       <c r="E106" t="n">
-        <v>0.15364</v>
+        <v>0.152625</v>
       </c>
       <c r="F106" t="n">
-        <v>0.19109</v>
+        <v>0.190479</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.226357</v>
+        <v>0.219773</v>
       </c>
       <c r="C107" t="n">
-        <v>0.328631</v>
+        <v>0.328916</v>
       </c>
       <c r="D107" t="n">
-        <v>0.7422029999999999</v>
+        <v>0.7146749999999999</v>
       </c>
       <c r="E107" t="n">
-        <v>0.158806</v>
+        <v>0.16675</v>
       </c>
       <c r="F107" t="n">
-        <v>0.206744</v>
+        <v>0.211077</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.256857</v>
+        <v>0.257212</v>
       </c>
       <c r="C108" t="n">
-        <v>0.381838</v>
+        <v>0.384935</v>
       </c>
       <c r="D108" t="n">
-        <v>0.713184</v>
+        <v>0.72158</v>
       </c>
       <c r="E108" t="n">
-        <v>0.174317</v>
+        <v>0.174946</v>
       </c>
       <c r="F108" t="n">
-        <v>0.197665</v>
+        <v>0.199174</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.336426</v>
+        <v>0.326337</v>
       </c>
       <c r="C109" t="n">
-        <v>0.482154</v>
+        <v>0.502503</v>
       </c>
       <c r="D109" t="n">
-        <v>0.747505</v>
+        <v>0.742192</v>
       </c>
       <c r="E109" t="n">
-        <v>0.175868</v>
+        <v>0.17799</v>
       </c>
       <c r="F109" t="n">
-        <v>0.211262</v>
+        <v>0.221728</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.209626</v>
+        <v>0.210776</v>
       </c>
       <c r="C110" t="n">
-        <v>0.274639</v>
+        <v>0.269771</v>
       </c>
       <c r="D110" t="n">
-        <v>0.754464</v>
+        <v>0.768962</v>
       </c>
       <c r="E110" t="n">
-        <v>0.178922</v>
+        <v>0.178018</v>
       </c>
       <c r="F110" t="n">
-        <v>0.210042</v>
+        <v>0.20799</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.221554</v>
+        <v>0.214103</v>
       </c>
       <c r="C111" t="n">
-        <v>0.285327</v>
+        <v>0.270524</v>
       </c>
       <c r="D111" t="n">
-        <v>0.788931</v>
+        <v>0.777109</v>
       </c>
       <c r="E111" t="n">
-        <v>0.179908</v>
+        <v>0.197603</v>
       </c>
       <c r="F111" t="n">
-        <v>0.206681</v>
+        <v>0.211321</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.219696</v>
+        <v>0.216439</v>
       </c>
       <c r="C112" t="n">
-        <v>0.285757</v>
+        <v>0.280881</v>
       </c>
       <c r="D112" t="n">
-        <v>0.802023</v>
+        <v>0.797709</v>
       </c>
       <c r="E112" t="n">
-        <v>0.179169</v>
+        <v>0.187443</v>
       </c>
       <c r="F112" t="n">
-        <v>0.215197</v>
+        <v>0.213821</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.226189</v>
+        <v>0.217789</v>
       </c>
       <c r="C113" t="n">
-        <v>0.313662</v>
+        <v>0.284731</v>
       </c>
       <c r="D113" t="n">
-        <v>0.829753</v>
+        <v>0.822962</v>
       </c>
       <c r="E113" t="n">
-        <v>0.182766</v>
+        <v>0.188204</v>
       </c>
       <c r="F113" t="n">
-        <v>0.216911</v>
+        <v>0.240505</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.225528</v>
+        <v>0.223701</v>
       </c>
       <c r="C114" t="n">
-        <v>0.303062</v>
+        <v>0.296423</v>
       </c>
       <c r="D114" t="n">
-        <v>0.955547</v>
+        <v>0.845121</v>
       </c>
       <c r="E114" t="n">
-        <v>0.1887</v>
+        <v>0.187632</v>
       </c>
       <c r="F114" t="n">
-        <v>0.224565</v>
+        <v>0.223907</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.235092</v>
+        <v>0.237026</v>
       </c>
       <c r="C115" t="n">
-        <v>0.304754</v>
+        <v>0.318418</v>
       </c>
       <c r="D115" t="n">
-        <v>0.865911</v>
+        <v>0.890382</v>
       </c>
       <c r="E115" t="n">
-        <v>0.190856</v>
+        <v>0.191677</v>
       </c>
       <c r="F115" t="n">
-        <v>0.224119</v>
+        <v>0.237365</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.233275</v>
+        <v>0.250697</v>
       </c>
       <c r="C116" t="n">
-        <v>0.312151</v>
+        <v>0.312138</v>
       </c>
       <c r="D116" t="n">
-        <v>0.882046</v>
+        <v>0.964191</v>
       </c>
       <c r="E116" t="n">
-        <v>0.199655</v>
+        <v>0.210348</v>
       </c>
       <c r="F116" t="n">
-        <v>0.238571</v>
+        <v>0.231498</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.243729</v>
+        <v>0.238465</v>
       </c>
       <c r="C117" t="n">
-        <v>0.330962</v>
+        <v>0.355629</v>
       </c>
       <c r="D117" t="n">
-        <v>0.942203</v>
+        <v>0.922975</v>
       </c>
       <c r="E117" t="n">
-        <v>0.194085</v>
+        <v>0.197895</v>
       </c>
       <c r="F117" t="n">
-        <v>0.238716</v>
+        <v>0.239803</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.253174</v>
+        <v>0.247862</v>
       </c>
       <c r="C118" t="n">
-        <v>0.342868</v>
+        <v>0.352888</v>
       </c>
       <c r="D118" t="n">
-        <v>0.94035</v>
+        <v>0.9431040000000001</v>
       </c>
       <c r="E118" t="n">
-        <v>0.200389</v>
+        <v>0.201229</v>
       </c>
       <c r="F118" t="n">
-        <v>0.247718</v>
+        <v>0.250227</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.271161</v>
+        <v>0.262049</v>
       </c>
       <c r="C119" t="n">
-        <v>0.35777</v>
+        <v>0.36308</v>
       </c>
       <c r="D119" t="n">
-        <v>0.962965</v>
+        <v>0.970812</v>
       </c>
       <c r="E119" t="n">
-        <v>0.203315</v>
+        <v>0.209354</v>
       </c>
       <c r="F119" t="n">
-        <v>0.259719</v>
+        <v>0.259149</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.283076</v>
+        <v>0.27526</v>
       </c>
       <c r="C120" t="n">
-        <v>0.424331</v>
+        <v>0.414012</v>
       </c>
       <c r="D120" t="n">
-        <v>1.01114</v>
+        <v>0.998347</v>
       </c>
       <c r="E120" t="n">
-        <v>0.221752</v>
+        <v>0.21437</v>
       </c>
       <c r="F120" t="n">
-        <v>0.294644</v>
+        <v>0.267557</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.303473</v>
+        <v>0.325181</v>
       </c>
       <c r="C121" t="n">
-        <v>0.432231</v>
+        <v>0.426565</v>
       </c>
       <c r="D121" t="n">
-        <v>0.751119</v>
+        <v>0.75267</v>
       </c>
       <c r="E121" t="n">
-        <v>0.226977</v>
+        <v>0.227626</v>
       </c>
       <c r="F121" t="n">
-        <v>0.314136</v>
+        <v>0.289993</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.347197</v>
+        <v>0.33801</v>
       </c>
       <c r="C122" t="n">
-        <v>0.487059</v>
+        <v>0.488536</v>
       </c>
       <c r="D122" t="n">
-        <v>0.766646</v>
+        <v>0.7669240000000001</v>
       </c>
       <c r="E122" t="n">
-        <v>0.247186</v>
+        <v>0.249988</v>
       </c>
       <c r="F122" t="n">
-        <v>0.317666</v>
+        <v>0.322388</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.419404</v>
+        <v>0.403764</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5934469999999999</v>
+        <v>0.590378</v>
       </c>
       <c r="D123" t="n">
-        <v>0.795204</v>
+        <v>0.786443</v>
       </c>
       <c r="E123" t="n">
-        <v>0.283298</v>
+        <v>0.287977</v>
       </c>
       <c r="F123" t="n">
-        <v>0.323441</v>
+        <v>0.313053</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.345869</v>
+        <v>0.35036</v>
       </c>
       <c r="C124" t="n">
-        <v>0.403508</v>
+        <v>0.413092</v>
       </c>
       <c r="D124" t="n">
-        <v>0.812207</v>
+        <v>0.8131119999999999</v>
       </c>
       <c r="E124" t="n">
-        <v>0.287781</v>
+        <v>0.301572</v>
       </c>
       <c r="F124" t="n">
-        <v>0.316576</v>
+        <v>0.318376</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.350212</v>
+        <v>0.359735</v>
       </c>
       <c r="C125" t="n">
-        <v>0.418163</v>
+        <v>0.419556</v>
       </c>
       <c r="D125" t="n">
-        <v>0.940014</v>
+        <v>0.836077</v>
       </c>
       <c r="E125" t="n">
-        <v>0.296203</v>
+        <v>0.300657</v>
       </c>
       <c r="F125" t="n">
-        <v>0.325549</v>
+        <v>0.318777</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.362465</v>
+        <v>0.347743</v>
       </c>
       <c r="C126" t="n">
-        <v>0.417198</v>
+        <v>0.411861</v>
       </c>
       <c r="D126" t="n">
-        <v>0.848341</v>
+        <v>0.889355</v>
       </c>
       <c r="E126" t="n">
-        <v>0.298598</v>
+        <v>0.296438</v>
       </c>
       <c r="F126" t="n">
-        <v>0.322946</v>
+        <v>0.328322</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.37037</v>
+        <v>0.355653</v>
       </c>
       <c r="C127" t="n">
-        <v>0.447572</v>
+        <v>0.424308</v>
       </c>
       <c r="D127" t="n">
-        <v>0.889753</v>
+        <v>0.897414</v>
       </c>
       <c r="E127" t="n">
-        <v>0.293063</v>
+        <v>0.318543</v>
       </c>
       <c r="F127" t="n">
-        <v>0.32831</v>
+        <v>0.333961</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.367053</v>
+        <v>0.364288</v>
       </c>
       <c r="C128" t="n">
-        <v>0.432861</v>
+        <v>0.435405</v>
       </c>
       <c r="D128" t="n">
-        <v>0.896381</v>
+        <v>0.9233130000000001</v>
       </c>
       <c r="E128" t="n">
-        <v>0.307412</v>
+        <v>0.301871</v>
       </c>
       <c r="F128" t="n">
-        <v>0.331914</v>
+        <v>0.332886</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.369694</v>
+        <v>0.362828</v>
       </c>
       <c r="C129" t="n">
-        <v>0.446721</v>
+        <v>0.442413</v>
       </c>
       <c r="D129" t="n">
-        <v>0.952337</v>
+        <v>0.942571</v>
       </c>
       <c r="E129" t="n">
-        <v>0.313359</v>
+        <v>0.304341</v>
       </c>
       <c r="F129" t="n">
-        <v>0.338107</v>
+        <v>0.344027</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.382022</v>
+        <v>0.385846</v>
       </c>
       <c r="C130" t="n">
-        <v>0.481506</v>
+        <v>0.448484</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9741880000000001</v>
+        <v>0.975191</v>
       </c>
       <c r="E130" t="n">
-        <v>0.300929</v>
+        <v>0.304364</v>
       </c>
       <c r="F130" t="n">
-        <v>0.34304</v>
+        <v>0.345441</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.403495</v>
+        <v>0.381697</v>
       </c>
       <c r="C131" t="n">
-        <v>0.472697</v>
+        <v>0.464147</v>
       </c>
       <c r="D131" t="n">
-        <v>1.01582</v>
+        <v>1.00632</v>
       </c>
       <c r="E131" t="n">
-        <v>0.308407</v>
+        <v>0.311317</v>
       </c>
       <c r="F131" t="n">
-        <v>0.359125</v>
+        <v>0.356772</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.397309</v>
+        <v>0.391458</v>
       </c>
       <c r="C132" t="n">
-        <v>0.481937</v>
+        <v>0.479028</v>
       </c>
       <c r="D132" t="n">
-        <v>1.02914</v>
+        <v>1.04369</v>
       </c>
       <c r="E132" t="n">
-        <v>0.311328</v>
+        <v>0.321299</v>
       </c>
       <c r="F132" t="n">
-        <v>0.360354</v>
+        <v>0.364309</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.434428</v>
+        <v>0.407237</v>
       </c>
       <c r="C133" t="n">
-        <v>0.49434</v>
+        <v>0.500895</v>
       </c>
       <c r="D133" t="n">
-        <v>1.06359</v>
+        <v>1.06978</v>
       </c>
       <c r="E133" t="n">
-        <v>0.31543</v>
+        <v>0.320883</v>
       </c>
       <c r="F133" t="n">
-        <v>0.370003</v>
+        <v>0.372827</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.432779</v>
+        <v>0.429257</v>
       </c>
       <c r="C134" t="n">
-        <v>0.529903</v>
+        <v>0.524744</v>
       </c>
       <c r="D134" t="n">
-        <v>1.1054</v>
+        <v>1.11015</v>
       </c>
       <c r="E134" t="n">
-        <v>0.325951</v>
+        <v>0.330822</v>
       </c>
       <c r="F134" t="n">
-        <v>0.382091</v>
+        <v>0.387479</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.462286</v>
+        <v>0.457032</v>
       </c>
       <c r="C135" t="n">
-        <v>0.599248</v>
+        <v>0.563634</v>
       </c>
       <c r="D135" t="n">
-        <v>0.86963</v>
+        <v>0.877184</v>
       </c>
       <c r="E135" t="n">
-        <v>0.341087</v>
+        <v>0.343514</v>
       </c>
       <c r="F135" t="n">
-        <v>0.402678</v>
+        <v>0.403246</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.511864</v>
+        <v>0.512706</v>
       </c>
       <c r="C136" t="n">
-        <v>0.66781</v>
+        <v>0.637421</v>
       </c>
       <c r="D136" t="n">
-        <v>0.902679</v>
+        <v>0.910563</v>
       </c>
       <c r="E136" t="n">
-        <v>0.368415</v>
+        <v>0.367282</v>
       </c>
       <c r="F136" t="n">
-        <v>0.434216</v>
+        <v>0.435508</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.61364</v>
+        <v>0.586704</v>
       </c>
       <c r="C137" t="n">
-        <v>0.775023</v>
+        <v>0.737712</v>
       </c>
       <c r="D137" t="n">
-        <v>0.952039</v>
+        <v>0.933326</v>
       </c>
       <c r="E137" t="n">
-        <v>0.352032</v>
+        <v>0.354607</v>
       </c>
       <c r="F137" t="n">
-        <v>0.384274</v>
+        <v>0.376424</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.445544</v>
+        <v>0.426623</v>
       </c>
       <c r="C138" t="n">
-        <v>0.487555</v>
+        <v>0.484003</v>
       </c>
       <c r="D138" t="n">
-        <v>0.962843</v>
+        <v>0.966222</v>
       </c>
       <c r="E138" t="n">
-        <v>0.353238</v>
+        <v>0.360912</v>
       </c>
       <c r="F138" t="n">
-        <v>0.377463</v>
+        <v>0.38217</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.440319</v>
+        <v>0.428115</v>
       </c>
       <c r="C139" t="n">
-        <v>0.5056850000000001</v>
+        <v>0.493979</v>
       </c>
       <c r="D139" t="n">
-        <v>0.99612</v>
+        <v>1.00376</v>
       </c>
       <c r="E139" t="n">
-        <v>0.353963</v>
+        <v>0.365418</v>
       </c>
       <c r="F139" t="n">
-        <v>0.399399</v>
+        <v>0.386252</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.450597</v>
+        <v>0.439349</v>
       </c>
       <c r="C140" t="n">
-        <v>0.511916</v>
+        <v>0.496463</v>
       </c>
       <c r="D140" t="n">
-        <v>1.03646</v>
+        <v>1.01318</v>
       </c>
       <c r="E140" t="n">
-        <v>0.357918</v>
+        <v>0.361352</v>
       </c>
       <c r="F140" t="n">
-        <v>0.391339</v>
+        <v>0.393466</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.455332</v>
+        <v>0.446499</v>
       </c>
       <c r="C141" t="n">
-        <v>0.526127</v>
+        <v>0.507042</v>
       </c>
       <c r="D141" t="n">
-        <v>1.07672</v>
+        <v>1.07404</v>
       </c>
       <c r="E141" t="n">
-        <v>0.368225</v>
+        <v>0.369426</v>
       </c>
       <c r="F141" t="n">
-        <v>0.398652</v>
+        <v>0.396656</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.460361</v>
+        <v>0.446719</v>
       </c>
       <c r="C142" t="n">
-        <v>0.535177</v>
+        <v>0.543893</v>
       </c>
       <c r="D142" t="n">
-        <v>1.10104</v>
+        <v>1.11829</v>
       </c>
       <c r="E142" t="n">
-        <v>0.36292</v>
+        <v>0.380311</v>
       </c>
       <c r="F142" t="n">
-        <v>0.407511</v>
+        <v>0.402252</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.461156</v>
+        <v>0.453365</v>
       </c>
       <c r="C143" t="n">
-        <v>0.544897</v>
+        <v>0.524894</v>
       </c>
       <c r="D143" t="n">
-        <v>1.14604</v>
+        <v>1.15568</v>
       </c>
       <c r="E143" t="n">
-        <v>0.366409</v>
+        <v>0.373574</v>
       </c>
       <c r="F143" t="n">
-        <v>0.409125</v>
+        <v>0.410896</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0580038</v>
+        <v>0.0581946</v>
       </c>
       <c r="C2" t="n">
-        <v>0.059425</v>
+        <v>0.0587968</v>
       </c>
       <c r="D2" t="n">
-        <v>0.164658</v>
+        <v>0.170769</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0716552</v>
+        <v>0.0718572</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0619304</v>
+        <v>0.0618443</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0598526</v>
+        <v>0.0605067</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0610656</v>
+        <v>0.0616304</v>
       </c>
       <c r="D3" t="n">
-        <v>0.166036</v>
+        <v>0.167693</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0720321</v>
+        <v>0.0721725</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0625076</v>
+        <v>0.0624198</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0629281</v>
+        <v>0.0636111</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0649609</v>
+        <v>0.06466860000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.170756</v>
+        <v>0.171586</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07356600000000001</v>
+        <v>0.0733375</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0637059</v>
+        <v>0.06371690000000001</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06708160000000001</v>
+        <v>0.0687</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07105499999999999</v>
+        <v>0.0701698</v>
       </c>
       <c r="D5" t="n">
-        <v>0.176577</v>
+        <v>0.17879</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0770376</v>
+        <v>0.07542359999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0681991</v>
+        <v>0.0662473</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0768142</v>
+        <v>0.0771488</v>
       </c>
       <c r="C6" t="n">
-        <v>0.080707</v>
+        <v>0.0768351</v>
       </c>
       <c r="D6" t="n">
-        <v>0.182676</v>
+        <v>0.182257</v>
       </c>
       <c r="E6" t="n">
-        <v>0.078984</v>
+        <v>0.0813938</v>
       </c>
       <c r="F6" t="n">
-        <v>0.070322</v>
+        <v>0.069926</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0866835</v>
+        <v>0.0902105</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09708559999999999</v>
+        <v>0.088118</v>
       </c>
       <c r="D7" t="n">
-        <v>0.146474</v>
+        <v>0.144715</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0858173</v>
+        <v>0.0856074</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0764421</v>
+        <v>0.0762811</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.109724</v>
+        <v>0.110167</v>
       </c>
       <c r="C8" t="n">
-        <v>0.116598</v>
+        <v>0.106522</v>
       </c>
       <c r="D8" t="n">
-        <v>0.150651</v>
+        <v>0.150181</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0955395</v>
+        <v>0.09537470000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0861875</v>
+        <v>0.08578280000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.144935</v>
+        <v>0.142864</v>
       </c>
       <c r="C9" t="n">
-        <v>0.141651</v>
+        <v>0.13587</v>
       </c>
       <c r="D9" t="n">
-        <v>0.155813</v>
+        <v>0.155029</v>
       </c>
       <c r="E9" t="n">
-        <v>0.069802</v>
+        <v>0.0698719</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0609125</v>
+        <v>0.0610185</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0570455</v>
+        <v>0.0574809</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0578874</v>
+        <v>0.060476</v>
       </c>
       <c r="D10" t="n">
-        <v>0.159915</v>
+        <v>0.16011</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0698918</v>
+        <v>0.0700025</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0609773</v>
+        <v>0.0614092</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0571583</v>
+        <v>0.0576663</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0583601</v>
+        <v>0.059423</v>
       </c>
       <c r="D11" t="n">
-        <v>0.164349</v>
+        <v>0.167058</v>
       </c>
       <c r="E11" t="n">
-        <v>0.07039869999999999</v>
+        <v>0.0706817</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0615411</v>
+        <v>0.0617447</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0579575</v>
+        <v>0.0584895</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0594009</v>
+        <v>0.0601877</v>
       </c>
       <c r="D12" t="n">
-        <v>0.16981</v>
+        <v>0.169798</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0706912</v>
+        <v>0.0707047</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0620474</v>
+        <v>0.0619196</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0586759</v>
+        <v>0.0606314</v>
       </c>
       <c r="C13" t="n">
-        <v>0.061276</v>
+        <v>0.0624423</v>
       </c>
       <c r="D13" t="n">
-        <v>0.174667</v>
+        <v>0.174795</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07109509999999999</v>
+        <v>0.07091799999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0622404</v>
+        <v>0.0655463</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0593566</v>
+        <v>0.0605213</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0616069</v>
+        <v>0.0621642</v>
       </c>
       <c r="D14" t="n">
-        <v>0.178445</v>
+        <v>0.179267</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0713216</v>
+        <v>0.0719477</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0625493</v>
+        <v>0.0624933</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0601289</v>
+        <v>0.0613183</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0628451</v>
+        <v>0.0640259</v>
       </c>
       <c r="D15" t="n">
-        <v>0.182911</v>
+        <v>0.183717</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0714504</v>
+        <v>0.0718717</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0628113</v>
+        <v>0.0632644</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0615293</v>
+        <v>0.0615904</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06536550000000001</v>
+        <v>0.0655162</v>
       </c>
       <c r="D16" t="n">
-        <v>0.190131</v>
+        <v>0.188117</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0725249</v>
+        <v>0.072159</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0638867</v>
+        <v>0.0636869</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0653614</v>
+        <v>0.0642925</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0686126</v>
+        <v>0.0685817</v>
       </c>
       <c r="D17" t="n">
-        <v>0.194406</v>
+        <v>0.193325</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0737821</v>
+        <v>0.07373010000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0655086</v>
+        <v>0.0651786</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0691852</v>
+        <v>0.0712983</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0720788</v>
+        <v>0.0739317</v>
       </c>
       <c r="D18" t="n">
-        <v>0.196995</v>
+        <v>0.196445</v>
       </c>
       <c r="E18" t="n">
-        <v>0.07452590000000001</v>
+        <v>0.07482229999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0670496</v>
+        <v>0.06647069999999999</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0759537</v>
+        <v>0.0718346</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0759939</v>
+        <v>0.0756646</v>
       </c>
       <c r="D19" t="n">
-        <v>0.203858</v>
+        <v>0.201057</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0777327</v>
+        <v>0.0771358</v>
       </c>
       <c r="F19" t="n">
-        <v>0.06910769999999999</v>
+        <v>0.0692938</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0830103</v>
+        <v>0.0798722</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0838486</v>
+        <v>0.0826369</v>
       </c>
       <c r="D20" t="n">
-        <v>0.206417</v>
+        <v>0.207038</v>
       </c>
       <c r="E20" t="n">
-        <v>0.08126559999999999</v>
+        <v>0.0807303</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0728215</v>
+        <v>0.0724841</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0973242</v>
+        <v>0.0910768</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0969955</v>
+        <v>0.0925313</v>
       </c>
       <c r="D21" t="n">
-        <v>0.157922</v>
+        <v>0.158995</v>
       </c>
       <c r="E21" t="n">
-        <v>0.087435</v>
+        <v>0.0864322</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0776358</v>
+        <v>0.0774946</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.11563</v>
+        <v>0.109053</v>
       </c>
       <c r="C22" t="n">
-        <v>0.11855</v>
+        <v>0.108395</v>
       </c>
       <c r="D22" t="n">
-        <v>0.16252</v>
+        <v>0.164662</v>
       </c>
       <c r="E22" t="n">
-        <v>0.096179</v>
+        <v>0.0960651</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08633150000000001</v>
+        <v>0.0872817</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.151324</v>
+        <v>0.14071</v>
       </c>
       <c r="C23" t="n">
-        <v>0.14195</v>
+        <v>0.139424</v>
       </c>
       <c r="D23" t="n">
-        <v>0.171361</v>
+        <v>0.16886</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0709378</v>
+        <v>0.07102269999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>0.063565</v>
+        <v>0.06404650000000001</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0611264</v>
+        <v>0.0611278</v>
       </c>
       <c r="C24" t="n">
-        <v>0.063374</v>
+        <v>0.0653992</v>
       </c>
       <c r="D24" t="n">
-        <v>0.174865</v>
+        <v>0.174981</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0710607</v>
+        <v>0.071419</v>
       </c>
       <c r="F24" t="n">
-        <v>0.06369619999999999</v>
+        <v>0.0642947</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0609676</v>
+        <v>0.06458270000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.06423570000000001</v>
+        <v>0.0662085</v>
       </c>
       <c r="D25" t="n">
-        <v>0.189103</v>
+        <v>0.180019</v>
       </c>
       <c r="E25" t="n">
-        <v>0.07097199999999999</v>
+        <v>0.07477019999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>0.06386219999999999</v>
+        <v>0.06566470000000001</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0616316</v>
+        <v>0.0622295</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0645613</v>
+        <v>0.0672444</v>
       </c>
       <c r="D26" t="n">
-        <v>0.189995</v>
+        <v>0.184501</v>
       </c>
       <c r="E26" t="n">
-        <v>0.07161919999999999</v>
+        <v>0.07143239999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>0.06788719999999999</v>
+        <v>0.0651255</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.06276959999999999</v>
+        <v>0.06270820000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.06642000000000001</v>
+        <v>0.0675544</v>
       </c>
       <c r="D27" t="n">
-        <v>0.191841</v>
+        <v>0.195414</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0718321</v>
+        <v>0.0719264</v>
       </c>
       <c r="F27" t="n">
-        <v>0.06524969999999999</v>
+        <v>0.0654684</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0641241</v>
+        <v>0.0635246</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0676351</v>
+        <v>0.0686785</v>
       </c>
       <c r="D28" t="n">
-        <v>0.198385</v>
+        <v>0.197435</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0724282</v>
+        <v>0.07237970000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0661007</v>
+        <v>0.0659696</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0649315</v>
+        <v>0.0646664</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0690384</v>
+        <v>0.0703807</v>
       </c>
       <c r="D29" t="n">
-        <v>0.201764</v>
+        <v>0.201535</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0727619</v>
+        <v>0.0732148</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06584280000000001</v>
+        <v>0.0671963</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.06598859999999999</v>
+        <v>0.06723519999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.07062549999999999</v>
+        <v>0.0766819</v>
       </c>
       <c r="D30" t="n">
-        <v>0.208717</v>
+        <v>0.20935</v>
       </c>
       <c r="E30" t="n">
-        <v>0.07443279999999999</v>
+        <v>0.07420549999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06835339999999999</v>
+        <v>0.0690769</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0691904</v>
+        <v>0.0690736</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0743085</v>
+        <v>0.0763539</v>
       </c>
       <c r="D31" t="n">
-        <v>0.21369</v>
+        <v>0.214706</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0747145</v>
+        <v>0.0749329</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06829780000000001</v>
+        <v>0.0690028</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0718439</v>
+        <v>0.071821</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0766559</v>
+        <v>0.0777185</v>
       </c>
       <c r="D32" t="n">
-        <v>0.220036</v>
+        <v>0.219104</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0765188</v>
+        <v>0.0764412</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07055</v>
+        <v>0.0710766</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.07722710000000001</v>
+        <v>0.0770951</v>
       </c>
       <c r="C33" t="n">
-        <v>0.08170810000000001</v>
+        <v>0.0830639</v>
       </c>
       <c r="D33" t="n">
-        <v>0.229712</v>
+        <v>0.225537</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0790777</v>
+        <v>0.07906000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0724814</v>
+        <v>0.0735768</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0842721</v>
+        <v>0.0831151</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0901554</v>
+        <v>0.0890455</v>
       </c>
       <c r="D34" t="n">
-        <v>0.234679</v>
+        <v>0.229514</v>
       </c>
       <c r="E34" t="n">
-        <v>0.083033</v>
+        <v>0.08260770000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07627689999999999</v>
+        <v>0.07678699999999999</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0985916</v>
+        <v>0.0950555</v>
       </c>
       <c r="C35" t="n">
-        <v>0.101531</v>
+        <v>0.09976640000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>0.176776</v>
+        <v>0.173425</v>
       </c>
       <c r="E35" t="n">
-        <v>0.09192889999999999</v>
+        <v>0.0890237</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0849263</v>
+        <v>0.0834709</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.117642</v>
+        <v>0.11268</v>
       </c>
       <c r="C36" t="n">
-        <v>0.120771</v>
+        <v>0.119706</v>
       </c>
       <c r="D36" t="n">
-        <v>0.18682</v>
+        <v>0.18042</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0992557</v>
+        <v>0.09866320000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0918485</v>
+        <v>0.09396839999999999</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.144926</v>
+        <v>0.141672</v>
       </c>
       <c r="C37" t="n">
-        <v>0.145801</v>
+        <v>0.145316</v>
       </c>
       <c r="D37" t="n">
-        <v>0.193208</v>
+        <v>0.186934</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0733713</v>
+        <v>0.0729559</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06778339999999999</v>
+        <v>0.0680163</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0658281</v>
+        <v>0.06554310000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0718961</v>
+        <v>0.0723504</v>
       </c>
       <c r="D38" t="n">
-        <v>0.201227</v>
+        <v>0.196111</v>
       </c>
       <c r="E38" t="n">
-        <v>0.07376099999999999</v>
+        <v>0.0749452</v>
       </c>
       <c r="F38" t="n">
-        <v>0.06833500000000001</v>
+        <v>0.0704769</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.06651319999999999</v>
+        <v>0.0660878</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0728212</v>
+        <v>0.07341060000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.203306</v>
+        <v>0.201294</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0739929</v>
+        <v>0.0734199</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0686838</v>
+        <v>0.0692802</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.066995</v>
+        <v>0.0687675</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07354430000000001</v>
+        <v>0.0774807</v>
       </c>
       <c r="D40" t="n">
-        <v>0.213868</v>
+        <v>0.211143</v>
       </c>
       <c r="E40" t="n">
-        <v>0.07392550000000001</v>
+        <v>0.0739481</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0694714</v>
+        <v>0.0696537</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.068104</v>
+        <v>0.06932629999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0759624</v>
+        <v>0.0778026</v>
       </c>
       <c r="D41" t="n">
-        <v>0.218443</v>
+        <v>0.216938</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0767803</v>
+        <v>0.07448399999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>0.07265149999999999</v>
+        <v>0.07012939999999999</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0710423</v>
+        <v>0.0689072</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07947940000000001</v>
+        <v>0.0766739</v>
       </c>
       <c r="D42" t="n">
-        <v>0.237242</v>
+        <v>0.226856</v>
       </c>
       <c r="E42" t="n">
-        <v>0.07554080000000001</v>
+        <v>0.0749069</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07159</v>
+        <v>0.0711498</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0707443</v>
+        <v>0.0700445</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0819256</v>
+        <v>0.07934239999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.243688</v>
+        <v>0.233699</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0755812</v>
+        <v>0.07552</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0720237</v>
+        <v>0.0724378</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0717088</v>
+        <v>0.07293330000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0828813</v>
+        <v>0.0825207</v>
       </c>
       <c r="D44" t="n">
-        <v>0.245244</v>
+        <v>0.245668</v>
       </c>
       <c r="E44" t="n">
-        <v>0.07612190000000001</v>
+        <v>0.0764037</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07385559999999999</v>
+        <v>0.0745063</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.07366540000000001</v>
+        <v>0.0741971</v>
       </c>
       <c r="C45" t="n">
-        <v>0.08448319999999999</v>
+        <v>0.08384369999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.260771</v>
+        <v>0.254442</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0772965</v>
+        <v>0.0770945</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0786901</v>
+        <v>0.0747437</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0766149</v>
+        <v>0.0755247</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0886506</v>
+        <v>0.0869302</v>
       </c>
       <c r="D46" t="n">
-        <v>0.269761</v>
+        <v>0.263771</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0786618</v>
+        <v>0.0786806</v>
       </c>
       <c r="F46" t="n">
-        <v>0.07644330000000001</v>
+        <v>0.07688399999999999</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0800424</v>
+        <v>0.0802175</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0932291</v>
+        <v>0.09441190000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.275885</v>
+        <v>0.276619</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0813976</v>
+        <v>0.0816793</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0794371</v>
+        <v>0.0850168</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.08656220000000001</v>
+        <v>0.0887705</v>
       </c>
       <c r="C48" t="n">
-        <v>0.10151</v>
+        <v>0.101715</v>
       </c>
       <c r="D48" t="n">
-        <v>0.289725</v>
+        <v>0.289753</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0846494</v>
+        <v>0.0846243</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0826345</v>
+        <v>0.085607</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0962702</v>
+        <v>0.09738239999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.111693</v>
+        <v>0.111787</v>
       </c>
       <c r="D49" t="n">
-        <v>0.302592</v>
+        <v>0.297121</v>
       </c>
       <c r="E49" t="n">
-        <v>0.089459</v>
+        <v>0.0890806</v>
       </c>
       <c r="F49" t="n">
-        <v>0.08819150000000001</v>
+        <v>0.0883245</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.112643</v>
+        <v>0.112521</v>
       </c>
       <c r="C50" t="n">
-        <v>0.128442</v>
+        <v>0.127796</v>
       </c>
       <c r="D50" t="n">
-        <v>0.220267</v>
+        <v>0.215301</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0979879</v>
+        <v>0.0995748</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0974834</v>
+        <v>0.09931039999999999</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.14037</v>
+        <v>0.138656</v>
       </c>
       <c r="C51" t="n">
-        <v>0.153659</v>
+        <v>0.152992</v>
       </c>
       <c r="D51" t="n">
-        <v>0.232114</v>
+        <v>0.226594</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0781178</v>
+        <v>0.0777448</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0753154</v>
+        <v>0.0761696</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.184756</v>
+        <v>0.180625</v>
       </c>
       <c r="C52" t="n">
-        <v>0.194483</v>
+        <v>0.194906</v>
       </c>
       <c r="D52" t="n">
-        <v>0.245116</v>
+        <v>0.235269</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0787804</v>
+        <v>0.0781698</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0767824</v>
+        <v>0.07594620000000001</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0776046</v>
+        <v>0.07782790000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0898379</v>
+        <v>0.0888545</v>
       </c>
       <c r="D53" t="n">
-        <v>0.261059</v>
+        <v>0.249715</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0815666</v>
+        <v>0.0790018</v>
       </c>
       <c r="F53" t="n">
-        <v>0.08018699999999999</v>
+        <v>0.07829609999999999</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0804763</v>
+        <v>0.0786367</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0938914</v>
+        <v>0.0908641</v>
       </c>
       <c r="D54" t="n">
-        <v>0.287799</v>
+        <v>0.260201</v>
       </c>
       <c r="E54" t="n">
-        <v>0.07948810000000001</v>
+        <v>0.07953300000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>0.07927140000000001</v>
+        <v>0.0782923</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.079024</v>
+        <v>0.0802884</v>
       </c>
       <c r="C55" t="n">
-        <v>0.094106</v>
+        <v>0.09317599999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.28492</v>
+        <v>0.274215</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0799743</v>
+        <v>0.0796056</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0797839</v>
+        <v>0.07921209999999999</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0810231</v>
+        <v>0.08204069999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.09635059999999999</v>
+        <v>0.09644460000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.30376</v>
+        <v>0.29405</v>
       </c>
       <c r="E56" t="n">
-        <v>0.080457</v>
+        <v>0.0803097</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0804663</v>
+        <v>0.0797312</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.08177710000000001</v>
+        <v>0.0819488</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0988009</v>
+        <v>0.09928530000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.319481</v>
+        <v>0.309333</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0812749</v>
+        <v>0.0816523</v>
       </c>
       <c r="F57" t="n">
-        <v>0.08199239999999999</v>
+        <v>0.0816341</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0835224</v>
+        <v>0.0844823</v>
       </c>
       <c r="C58" t="n">
-        <v>0.101759</v>
+        <v>0.100608</v>
       </c>
       <c r="D58" t="n">
-        <v>0.336888</v>
+        <v>0.318717</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0825149</v>
+        <v>0.0818624</v>
       </c>
       <c r="F58" t="n">
-        <v>0.08401450000000001</v>
+        <v>0.08325630000000001</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0851435</v>
+        <v>0.08756609999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.104871</v>
+        <v>0.108274</v>
       </c>
       <c r="D59" t="n">
-        <v>0.350258</v>
+        <v>0.344522</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0835632</v>
+        <v>0.0868332</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08543870000000001</v>
+        <v>0.08649660000000001</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0895639</v>
+        <v>0.0896672</v>
       </c>
       <c r="C60" t="n">
-        <v>0.110315</v>
+        <v>0.108463</v>
       </c>
       <c r="D60" t="n">
-        <v>0.370872</v>
+        <v>0.356745</v>
       </c>
       <c r="E60" t="n">
-        <v>0.08559020000000001</v>
+        <v>0.0856465</v>
       </c>
       <c r="F60" t="n">
-        <v>0.088173</v>
+        <v>0.0869738</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0936197</v>
+        <v>0.0945785</v>
       </c>
       <c r="C61" t="n">
-        <v>0.116973</v>
+        <v>0.122047</v>
       </c>
       <c r="D61" t="n">
-        <v>0.388992</v>
+        <v>0.379382</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0880025</v>
+        <v>0.08781070000000001</v>
       </c>
       <c r="F61" t="n">
-        <v>0.090603</v>
+        <v>0.0895248</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0997376</v>
+        <v>0.101005</v>
       </c>
       <c r="C62" t="n">
-        <v>0.124282</v>
+        <v>0.124002</v>
       </c>
       <c r="D62" t="n">
-        <v>0.414899</v>
+        <v>0.397034</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0912762</v>
+        <v>0.091282</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0942938</v>
+        <v>0.0941336</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.109795</v>
+        <v>0.112009</v>
       </c>
       <c r="C63" t="n">
-        <v>0.136418</v>
+        <v>0.136572</v>
       </c>
       <c r="D63" t="n">
-        <v>0.436561</v>
+        <v>0.422926</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0963386</v>
+        <v>0.0965994</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09992620000000001</v>
+        <v>0.100064</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.122434</v>
+        <v>0.12678</v>
       </c>
       <c r="C64" t="n">
-        <v>0.153158</v>
+        <v>0.153451</v>
       </c>
       <c r="D64" t="n">
-        <v>0.318802</v>
+        <v>0.313369</v>
       </c>
       <c r="E64" t="n">
-        <v>0.104034</v>
+        <v>0.104723</v>
       </c>
       <c r="F64" t="n">
-        <v>0.109477</v>
+        <v>0.109338</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.146349</v>
+        <v>0.150712</v>
       </c>
       <c r="C65" t="n">
-        <v>0.178333</v>
+        <v>0.180352</v>
       </c>
       <c r="D65" t="n">
-        <v>0.336351</v>
+        <v>0.329831</v>
       </c>
       <c r="E65" t="n">
-        <v>0.117487</v>
+        <v>0.11833</v>
       </c>
       <c r="F65" t="n">
-        <v>0.126484</v>
+        <v>0.123345</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.189608</v>
+        <v>0.191166</v>
       </c>
       <c r="C66" t="n">
-        <v>0.225156</v>
+        <v>0.221302</v>
       </c>
       <c r="D66" t="n">
-        <v>0.360617</v>
+        <v>0.346247</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0846623</v>
+        <v>0.08315110000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0847921</v>
+        <v>0.0839646</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0872788</v>
+        <v>0.0877535</v>
       </c>
       <c r="C67" t="n">
-        <v>0.107057</v>
+        <v>0.105141</v>
       </c>
       <c r="D67" t="n">
-        <v>0.3742</v>
+        <v>0.363179</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0837638</v>
+        <v>0.0836112</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0854872</v>
+        <v>0.0849458</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0881212</v>
+        <v>0.09063450000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.109283</v>
+        <v>0.109665</v>
       </c>
       <c r="D68" t="n">
-        <v>0.39095</v>
+        <v>0.387108</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0843836</v>
+        <v>0.08437169999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>0.08654779999999999</v>
+        <v>0.0861803</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0894006</v>
+        <v>0.09007179999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.114106</v>
+        <v>0.111188</v>
       </c>
       <c r="D69" t="n">
-        <v>0.414763</v>
+        <v>0.405668</v>
       </c>
       <c r="E69" t="n">
-        <v>0.08487310000000001</v>
+        <v>0.0876183</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0878689</v>
+        <v>0.08815679999999999</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.09108819999999999</v>
+        <v>0.092539</v>
       </c>
       <c r="C70" t="n">
-        <v>0.117481</v>
+        <v>0.114788</v>
       </c>
       <c r="D70" t="n">
-        <v>0.437335</v>
+        <v>0.425286</v>
       </c>
       <c r="E70" t="n">
-        <v>0.08629489999999999</v>
+        <v>0.08586299999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0902911</v>
+        <v>0.0894152</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.093019</v>
+        <v>0.09333139999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.122201</v>
+        <v>0.119372</v>
       </c>
       <c r="D71" t="n">
-        <v>0.460697</v>
+        <v>0.45366</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0875234</v>
+        <v>0.0878467</v>
       </c>
       <c r="F71" t="n">
-        <v>0.09216439999999999</v>
+        <v>0.0934971</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0958929</v>
+        <v>0.0975391</v>
       </c>
       <c r="C72" t="n">
-        <v>0.141331</v>
+        <v>0.124535</v>
       </c>
       <c r="D72" t="n">
-        <v>0.483316</v>
+        <v>0.481379</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0889866</v>
+        <v>0.0889557</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09479849999999999</v>
+        <v>0.0944826</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0977413</v>
+        <v>0.100074</v>
       </c>
       <c r="C73" t="n">
-        <v>0.136383</v>
+        <v>0.128923</v>
       </c>
       <c r="D73" t="n">
-        <v>0.520888</v>
+        <v>0.500848</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0909017</v>
+        <v>0.08969729999999999</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0976461</v>
+        <v>0.0954231</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.102799</v>
+        <v>0.101337</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1342</v>
+        <v>0.133429</v>
       </c>
       <c r="D74" t="n">
-        <v>0.533951</v>
+        <v>0.521001</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0942834</v>
+        <v>0.09527190000000001</v>
       </c>
       <c r="F74" t="n">
-        <v>0.100634</v>
+        <v>0.09916369999999999</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.108598</v>
+        <v>0.107952</v>
       </c>
       <c r="C75" t="n">
-        <v>0.143959</v>
+        <v>0.145794</v>
       </c>
       <c r="D75" t="n">
-        <v>0.564148</v>
+        <v>0.558719</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0960854</v>
+        <v>0.0954781</v>
       </c>
       <c r="F75" t="n">
-        <v>0.106717</v>
+        <v>0.105945</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.115102</v>
+        <v>0.11533</v>
       </c>
       <c r="C76" t="n">
-        <v>0.153684</v>
+        <v>0.152683</v>
       </c>
       <c r="D76" t="n">
-        <v>0.592259</v>
+        <v>0.577508</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0987517</v>
+        <v>0.09848949999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>0.113296</v>
+        <v>0.107704</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.122497</v>
+        <v>0.123506</v>
       </c>
       <c r="C77" t="n">
-        <v>0.171024</v>
+        <v>0.167631</v>
       </c>
       <c r="D77" t="n">
-        <v>0.620171</v>
+        <v>0.607924</v>
       </c>
       <c r="E77" t="n">
-        <v>0.106579</v>
+        <v>0.10385</v>
       </c>
       <c r="F77" t="n">
-        <v>0.121833</v>
+        <v>0.115167</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.138385</v>
+        <v>0.139099</v>
       </c>
       <c r="C78" t="n">
-        <v>0.190405</v>
+        <v>0.190007</v>
       </c>
       <c r="D78" t="n">
-        <v>0.460089</v>
+        <v>0.451222</v>
       </c>
       <c r="E78" t="n">
-        <v>0.114577</v>
+        <v>0.111546</v>
       </c>
       <c r="F78" t="n">
-        <v>0.132466</v>
+        <v>0.124882</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.174615</v>
+        <v>0.163185</v>
       </c>
       <c r="C79" t="n">
-        <v>0.223576</v>
+        <v>0.221887</v>
       </c>
       <c r="D79" t="n">
-        <v>0.505705</v>
+        <v>0.474304</v>
       </c>
       <c r="E79" t="n">
-        <v>0.125914</v>
+        <v>0.125357</v>
       </c>
       <c r="F79" t="n">
-        <v>0.142909</v>
+        <v>0.142533</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.204182</v>
+        <v>0.205909</v>
       </c>
       <c r="C80" t="n">
-        <v>0.275835</v>
+        <v>0.286368</v>
       </c>
       <c r="D80" t="n">
-        <v>0.498297</v>
+        <v>0.491955</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0892482</v>
+        <v>0.0884721</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0946454</v>
+        <v>0.0939121</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0979838</v>
+        <v>0.0997885</v>
       </c>
       <c r="C81" t="n">
-        <v>0.130026</v>
+        <v>0.135513</v>
       </c>
       <c r="D81" t="n">
-        <v>0.517275</v>
+        <v>0.5147350000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0893364</v>
+        <v>0.0898048</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09686989999999999</v>
+        <v>0.0975796</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.09990300000000001</v>
+        <v>0.10311</v>
       </c>
       <c r="C82" t="n">
-        <v>0.134878</v>
+        <v>0.139661</v>
       </c>
       <c r="D82" t="n">
-        <v>0.542247</v>
+        <v>0.538214</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0908293</v>
+        <v>0.09116879999999999</v>
       </c>
       <c r="F82" t="n">
-        <v>0.10035</v>
+        <v>0.100021</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.103975</v>
+        <v>0.104893</v>
       </c>
       <c r="C83" t="n">
-        <v>0.142647</v>
+        <v>0.143758</v>
       </c>
       <c r="D83" t="n">
-        <v>0.566831</v>
+        <v>0.559064</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0940911</v>
+        <v>0.0926192</v>
       </c>
       <c r="F83" t="n">
-        <v>0.102357</v>
+        <v>0.102239</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.104527</v>
+        <v>0.107459</v>
       </c>
       <c r="C84" t="n">
-        <v>0.145311</v>
+        <v>0.148547</v>
       </c>
       <c r="D84" t="n">
-        <v>0.589632</v>
+        <v>0.57834</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0931153</v>
+        <v>0.0963049</v>
       </c>
       <c r="F84" t="n">
-        <v>0.10445</v>
+        <v>0.10511</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.107668</v>
+        <v>0.110758</v>
       </c>
       <c r="C85" t="n">
-        <v>0.153655</v>
+        <v>0.159076</v>
       </c>
       <c r="D85" t="n">
-        <v>0.607692</v>
+        <v>0.602986</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0950488</v>
+        <v>0.0957191</v>
       </c>
       <c r="F85" t="n">
-        <v>0.106965</v>
+        <v>0.108874</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.112873</v>
+        <v>0.115177</v>
       </c>
       <c r="C86" t="n">
-        <v>0.158508</v>
+        <v>0.160764</v>
       </c>
       <c r="D86" t="n">
-        <v>0.651284</v>
+        <v>0.631645</v>
       </c>
       <c r="E86" t="n">
-        <v>0.09732780000000001</v>
+        <v>0.09798229999999999</v>
       </c>
       <c r="F86" t="n">
-        <v>0.111342</v>
+        <v>0.11224</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.116029</v>
+        <v>0.120677</v>
       </c>
       <c r="C87" t="n">
-        <v>0.164739</v>
+        <v>0.17587</v>
       </c>
       <c r="D87" t="n">
-        <v>0.658496</v>
+        <v>0.658251</v>
       </c>
       <c r="E87" t="n">
-        <v>0.09957589999999999</v>
+        <v>0.101344</v>
       </c>
       <c r="F87" t="n">
-        <v>0.116392</v>
+        <v>0.119728</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.121164</v>
+        <v>0.125367</v>
       </c>
       <c r="C88" t="n">
-        <v>0.176079</v>
+        <v>0.178602</v>
       </c>
       <c r="D88" t="n">
-        <v>0.6900770000000001</v>
+        <v>0.680796</v>
       </c>
       <c r="E88" t="n">
-        <v>0.103126</v>
+        <v>0.108601</v>
       </c>
       <c r="F88" t="n">
-        <v>0.121547</v>
+        <v>0.121196</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.132817</v>
+        <v>0.130804</v>
       </c>
       <c r="C89" t="n">
-        <v>0.187161</v>
+        <v>0.188597</v>
       </c>
       <c r="D89" t="n">
-        <v>0.712346</v>
+        <v>0.706077</v>
       </c>
       <c r="E89" t="n">
-        <v>0.106861</v>
+        <v>0.106814</v>
       </c>
       <c r="F89" t="n">
-        <v>0.126071</v>
+        <v>0.12703</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.136459</v>
+        <v>0.139972</v>
       </c>
       <c r="C90" t="n">
-        <v>0.196147</v>
+        <v>0.203977</v>
       </c>
       <c r="D90" t="n">
-        <v>0.745968</v>
+        <v>0.745855</v>
       </c>
       <c r="E90" t="n">
-        <v>0.11086</v>
+        <v>0.114426</v>
       </c>
       <c r="F90" t="n">
-        <v>0.131214</v>
+        <v>0.136703</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.146105</v>
+        <v>0.150596</v>
       </c>
       <c r="C91" t="n">
-        <v>0.215403</v>
+        <v>0.217564</v>
       </c>
       <c r="D91" t="n">
-        <v>0.776102</v>
+        <v>0.76101</v>
       </c>
       <c r="E91" t="n">
-        <v>0.116981</v>
+        <v>0.1174</v>
       </c>
       <c r="F91" t="n">
-        <v>0.140406</v>
+        <v>0.141619</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.162271</v>
+        <v>0.166488</v>
       </c>
       <c r="C92" t="n">
-        <v>0.23305</v>
+        <v>0.240623</v>
       </c>
       <c r="D92" t="n">
-        <v>0.583711</v>
+        <v>0.586552</v>
       </c>
       <c r="E92" t="n">
-        <v>0.125387</v>
+        <v>0.125349</v>
       </c>
       <c r="F92" t="n">
-        <v>0.151715</v>
+        <v>0.153168</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188359</v>
+        <v>0.192886</v>
       </c>
       <c r="C93" t="n">
-        <v>0.269554</v>
+        <v>0.276228</v>
       </c>
       <c r="D93" t="n">
-        <v>0.601096</v>
+        <v>0.620177</v>
       </c>
       <c r="E93" t="n">
-        <v>0.138121</v>
+        <v>0.142958</v>
       </c>
       <c r="F93" t="n">
-        <v>0.168409</v>
+        <v>0.171231</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.222668</v>
+        <v>0.232657</v>
       </c>
       <c r="C94" t="n">
-        <v>0.319659</v>
+        <v>0.328917</v>
       </c>
       <c r="D94" t="n">
-        <v>0.620448</v>
+        <v>0.61586</v>
       </c>
       <c r="E94" t="n">
-        <v>0.108013</v>
+        <v>0.10878</v>
       </c>
       <c r="F94" t="n">
-        <v>0.135883</v>
+        <v>0.127627</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.12927</v>
+        <v>0.132646</v>
       </c>
       <c r="C95" t="n">
-        <v>0.17873</v>
+        <v>0.182907</v>
       </c>
       <c r="D95" t="n">
-        <v>0.636451</v>
+        <v>0.639036</v>
       </c>
       <c r="E95" t="n">
-        <v>0.109188</v>
+        <v>0.110421</v>
       </c>
       <c r="F95" t="n">
-        <v>0.128604</v>
+        <v>0.131349</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.130047</v>
+        <v>0.135799</v>
       </c>
       <c r="C96" t="n">
-        <v>0.182332</v>
+        <v>0.18798</v>
       </c>
       <c r="D96" t="n">
-        <v>0.6572</v>
+        <v>0.65702</v>
       </c>
       <c r="E96" t="n">
-        <v>0.110786</v>
+        <v>0.111819</v>
       </c>
       <c r="F96" t="n">
-        <v>0.132826</v>
+        <v>0.134287</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.133757</v>
+        <v>0.138551</v>
       </c>
       <c r="C97" t="n">
-        <v>0.191651</v>
+        <v>0.193669</v>
       </c>
       <c r="D97" t="n">
-        <v>0.693165</v>
+        <v>0.7086519999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>0.113547</v>
+        <v>0.113894</v>
       </c>
       <c r="F97" t="n">
-        <v>0.136239</v>
+        <v>0.138994</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.140379</v>
+        <v>0.145636</v>
       </c>
       <c r="C98" t="n">
-        <v>0.204873</v>
+        <v>0.203455</v>
       </c>
       <c r="D98" t="n">
-        <v>0.727853</v>
+        <v>0.704924</v>
       </c>
       <c r="E98" t="n">
-        <v>0.117447</v>
+        <v>0.115984</v>
       </c>
       <c r="F98" t="n">
-        <v>0.145329</v>
+        <v>0.143597</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.141956</v>
+        <v>0.146119</v>
       </c>
       <c r="C99" t="n">
-        <v>0.205183</v>
+        <v>0.210222</v>
       </c>
       <c r="D99" t="n">
-        <v>0.738376</v>
+        <v>0.734254</v>
       </c>
       <c r="E99" t="n">
-        <v>0.118614</v>
+        <v>0.118715</v>
       </c>
       <c r="F99" t="n">
-        <v>0.143494</v>
+        <v>0.145764</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.145372</v>
+        <v>0.149909</v>
       </c>
       <c r="C100" t="n">
-        <v>0.208135</v>
+        <v>0.213713</v>
       </c>
       <c r="D100" t="n">
-        <v>0.758999</v>
+        <v>0.749982</v>
       </c>
       <c r="E100" t="n">
-        <v>0.120396</v>
+        <v>0.120246</v>
       </c>
       <c r="F100" t="n">
-        <v>0.147119</v>
+        <v>0.149371</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.147794</v>
+        <v>0.154387</v>
       </c>
       <c r="C101" t="n">
-        <v>0.215049</v>
+        <v>0.221802</v>
       </c>
       <c r="D101" t="n">
-        <v>0.7786380000000001</v>
+        <v>0.773095</v>
       </c>
       <c r="E101" t="n">
-        <v>0.12164</v>
+        <v>0.123083</v>
       </c>
       <c r="F101" t="n">
-        <v>0.151201</v>
+        <v>0.153598</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.152314</v>
+        <v>0.160342</v>
       </c>
       <c r="C102" t="n">
-        <v>0.225017</v>
+        <v>0.235144</v>
       </c>
       <c r="D102" t="n">
-        <v>0.799918</v>
+        <v>0.800153</v>
       </c>
       <c r="E102" t="n">
-        <v>0.124357</v>
+        <v>0.128875</v>
       </c>
       <c r="F102" t="n">
-        <v>0.157403</v>
+        <v>0.159761</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.158923</v>
+        <v>0.171069</v>
       </c>
       <c r="C103" t="n">
-        <v>0.235803</v>
+        <v>0.244676</v>
       </c>
       <c r="D103" t="n">
-        <v>0.8277600000000001</v>
+        <v>0.830673</v>
       </c>
       <c r="E103" t="n">
-        <v>0.129108</v>
+        <v>0.130829</v>
       </c>
       <c r="F103" t="n">
-        <v>0.164433</v>
+        <v>0.166357</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.16594</v>
+        <v>0.178753</v>
       </c>
       <c r="C104" t="n">
-        <v>0.247036</v>
+        <v>0.257624</v>
       </c>
       <c r="D104" t="n">
-        <v>0.856452</v>
+        <v>0.849105</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1325</v>
+        <v>0.134118</v>
       </c>
       <c r="F104" t="n">
-        <v>0.168203</v>
+        <v>0.172175</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.178106</v>
+        <v>0.188215</v>
       </c>
       <c r="C105" t="n">
-        <v>0.267479</v>
+        <v>0.280298</v>
       </c>
       <c r="D105" t="n">
-        <v>0.884504</v>
+        <v>0.880194</v>
       </c>
       <c r="E105" t="n">
-        <v>0.1384</v>
+        <v>0.140679</v>
       </c>
       <c r="F105" t="n">
-        <v>0.192618</v>
+        <v>0.180967</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.193589</v>
+        <v>0.204543</v>
       </c>
       <c r="C106" t="n">
-        <v>0.289939</v>
+        <v>0.303762</v>
       </c>
       <c r="D106" t="n">
-        <v>0.914777</v>
+        <v>0.907455</v>
       </c>
       <c r="E106" t="n">
-        <v>0.152625</v>
+        <v>0.149583</v>
       </c>
       <c r="F106" t="n">
-        <v>0.190479</v>
+        <v>0.199357</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.219773</v>
+        <v>0.2358</v>
       </c>
       <c r="C107" t="n">
-        <v>0.328916</v>
+        <v>0.345301</v>
       </c>
       <c r="D107" t="n">
-        <v>0.7146749999999999</v>
+        <v>0.6915559999999999</v>
       </c>
       <c r="E107" t="n">
-        <v>0.16675</v>
+        <v>0.163493</v>
       </c>
       <c r="F107" t="n">
-        <v>0.211077</v>
+        <v>0.212566</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.257212</v>
+        <v>0.273387</v>
       </c>
       <c r="C108" t="n">
-        <v>0.384935</v>
+        <v>0.402512</v>
       </c>
       <c r="D108" t="n">
-        <v>0.72158</v>
+        <v>0.741155</v>
       </c>
       <c r="E108" t="n">
-        <v>0.174946</v>
+        <v>0.191186</v>
       </c>
       <c r="F108" t="n">
-        <v>0.199174</v>
+        <v>0.208769</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.326337</v>
+        <v>0.348719</v>
       </c>
       <c r="C109" t="n">
-        <v>0.502503</v>
+        <v>0.505271</v>
       </c>
       <c r="D109" t="n">
-        <v>0.742192</v>
+        <v>0.762862</v>
       </c>
       <c r="E109" t="n">
-        <v>0.17799</v>
+        <v>0.190036</v>
       </c>
       <c r="F109" t="n">
-        <v>0.221728</v>
+        <v>0.214084</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.210776</v>
+        <v>0.231885</v>
       </c>
       <c r="C110" t="n">
-        <v>0.269771</v>
+        <v>0.280067</v>
       </c>
       <c r="D110" t="n">
-        <v>0.768962</v>
+        <v>0.769833</v>
       </c>
       <c r="E110" t="n">
-        <v>0.178018</v>
+        <v>0.193312</v>
       </c>
       <c r="F110" t="n">
-        <v>0.20799</v>
+        <v>0.218912</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.214103</v>
+        <v>0.231988</v>
       </c>
       <c r="C111" t="n">
-        <v>0.270524</v>
+        <v>0.286153</v>
       </c>
       <c r="D111" t="n">
-        <v>0.777109</v>
+        <v>0.769017</v>
       </c>
       <c r="E111" t="n">
-        <v>0.197603</v>
+        <v>0.195355</v>
       </c>
       <c r="F111" t="n">
-        <v>0.211321</v>
+        <v>0.229522</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.216439</v>
+        <v>0.256401</v>
       </c>
       <c r="C112" t="n">
-        <v>0.280881</v>
+        <v>0.295663</v>
       </c>
       <c r="D112" t="n">
-        <v>0.797709</v>
+        <v>0.788733</v>
       </c>
       <c r="E112" t="n">
-        <v>0.187443</v>
+        <v>0.199234</v>
       </c>
       <c r="F112" t="n">
-        <v>0.213821</v>
+        <v>0.226237</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.217789</v>
+        <v>0.242947</v>
       </c>
       <c r="C113" t="n">
-        <v>0.284731</v>
+        <v>0.300703</v>
       </c>
       <c r="D113" t="n">
-        <v>0.822962</v>
+        <v>0.814897</v>
       </c>
       <c r="E113" t="n">
-        <v>0.188204</v>
+        <v>0.200452</v>
       </c>
       <c r="F113" t="n">
-        <v>0.240505</v>
+        <v>0.23423</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.223701</v>
+        <v>0.247103</v>
       </c>
       <c r="C114" t="n">
-        <v>0.296423</v>
+        <v>0.310469</v>
       </c>
       <c r="D114" t="n">
-        <v>0.845121</v>
+        <v>0.836843</v>
       </c>
       <c r="E114" t="n">
-        <v>0.187632</v>
+        <v>0.202396</v>
       </c>
       <c r="F114" t="n">
-        <v>0.223907</v>
+        <v>0.237963</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.237026</v>
+        <v>0.25298</v>
       </c>
       <c r="C115" t="n">
-        <v>0.318418</v>
+        <v>0.326312</v>
       </c>
       <c r="D115" t="n">
-        <v>0.890382</v>
+        <v>0.920821</v>
       </c>
       <c r="E115" t="n">
-        <v>0.191677</v>
+        <v>0.22405</v>
       </c>
       <c r="F115" t="n">
-        <v>0.237365</v>
+        <v>0.24324</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.250697</v>
+        <v>0.258814</v>
       </c>
       <c r="C116" t="n">
-        <v>0.312138</v>
+        <v>0.335055</v>
       </c>
       <c r="D116" t="n">
-        <v>0.964191</v>
+        <v>0.887136</v>
       </c>
       <c r="E116" t="n">
-        <v>0.210348</v>
+        <v>0.206749</v>
       </c>
       <c r="F116" t="n">
-        <v>0.231498</v>
+        <v>0.274527</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.238465</v>
+        <v>0.261646</v>
       </c>
       <c r="C117" t="n">
-        <v>0.355629</v>
+        <v>0.345196</v>
       </c>
       <c r="D117" t="n">
-        <v>0.922975</v>
+        <v>0.913263</v>
       </c>
       <c r="E117" t="n">
-        <v>0.197895</v>
+        <v>0.2119</v>
       </c>
       <c r="F117" t="n">
-        <v>0.239803</v>
+        <v>0.25343</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.247862</v>
+        <v>0.274383</v>
       </c>
       <c r="C118" t="n">
-        <v>0.352888</v>
+        <v>0.362956</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9431040000000001</v>
+        <v>1.02588</v>
       </c>
       <c r="E118" t="n">
-        <v>0.201229</v>
+        <v>0.218939</v>
       </c>
       <c r="F118" t="n">
-        <v>0.250227</v>
+        <v>0.261874</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.262049</v>
+        <v>0.28639</v>
       </c>
       <c r="C119" t="n">
-        <v>0.36308</v>
+        <v>0.382803</v>
       </c>
       <c r="D119" t="n">
-        <v>0.970812</v>
+        <v>0.961681</v>
       </c>
       <c r="E119" t="n">
-        <v>0.209354</v>
+        <v>0.2263</v>
       </c>
       <c r="F119" t="n">
-        <v>0.259149</v>
+        <v>0.268865</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.27526</v>
+        <v>0.305922</v>
       </c>
       <c r="C120" t="n">
-        <v>0.414012</v>
+        <v>0.423196</v>
       </c>
       <c r="D120" t="n">
-        <v>0.998347</v>
+        <v>0.987605</v>
       </c>
       <c r="E120" t="n">
-        <v>0.21437</v>
+        <v>0.230232</v>
       </c>
       <c r="F120" t="n">
-        <v>0.267557</v>
+        <v>0.293959</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.325181</v>
+        <v>0.322406</v>
       </c>
       <c r="C121" t="n">
-        <v>0.426565</v>
+        <v>0.486035</v>
       </c>
       <c r="D121" t="n">
-        <v>0.75267</v>
+        <v>0.743272</v>
       </c>
       <c r="E121" t="n">
-        <v>0.227626</v>
+        <v>0.242337</v>
       </c>
       <c r="F121" t="n">
-        <v>0.289993</v>
+        <v>0.306606</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.33801</v>
+        <v>0.374698</v>
       </c>
       <c r="C122" t="n">
-        <v>0.488536</v>
+        <v>0.522607</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7669240000000001</v>
+        <v>0.787525</v>
       </c>
       <c r="E122" t="n">
-        <v>0.249988</v>
+        <v>0.267438</v>
       </c>
       <c r="F122" t="n">
-        <v>0.322388</v>
+        <v>0.340711</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.403764</v>
+        <v>0.444609</v>
       </c>
       <c r="C123" t="n">
-        <v>0.590378</v>
+        <v>0.674119</v>
       </c>
       <c r="D123" t="n">
-        <v>0.786443</v>
+        <v>0.790245</v>
       </c>
       <c r="E123" t="n">
-        <v>0.287977</v>
+        <v>0.330624</v>
       </c>
       <c r="F123" t="n">
-        <v>0.313053</v>
+        <v>0.343089</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.35036</v>
+        <v>0.399856</v>
       </c>
       <c r="C124" t="n">
-        <v>0.413092</v>
+        <v>0.440166</v>
       </c>
       <c r="D124" t="n">
-        <v>0.8131119999999999</v>
+        <v>0.813933</v>
       </c>
       <c r="E124" t="n">
-        <v>0.301572</v>
+        <v>0.345578</v>
       </c>
       <c r="F124" t="n">
-        <v>0.318376</v>
+        <v>0.358561</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.359735</v>
+        <v>0.398308</v>
       </c>
       <c r="C125" t="n">
-        <v>0.419556</v>
+        <v>0.462076</v>
       </c>
       <c r="D125" t="n">
-        <v>0.836077</v>
+        <v>0.822761</v>
       </c>
       <c r="E125" t="n">
-        <v>0.300657</v>
+        <v>0.33267</v>
       </c>
       <c r="F125" t="n">
-        <v>0.318777</v>
+        <v>0.373368</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.347743</v>
+        <v>0.400187</v>
       </c>
       <c r="C126" t="n">
-        <v>0.411861</v>
+        <v>0.475814</v>
       </c>
       <c r="D126" t="n">
-        <v>0.889355</v>
+        <v>0.8501339999999999</v>
       </c>
       <c r="E126" t="n">
-        <v>0.296438</v>
+        <v>0.338347</v>
       </c>
       <c r="F126" t="n">
-        <v>0.328322</v>
+        <v>0.354802</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.355653</v>
+        <v>0.422033</v>
       </c>
       <c r="C127" t="n">
-        <v>0.424308</v>
+        <v>0.482843</v>
       </c>
       <c r="D127" t="n">
-        <v>0.897414</v>
+        <v>0.877123</v>
       </c>
       <c r="E127" t="n">
-        <v>0.318543</v>
+        <v>0.338125</v>
       </c>
       <c r="F127" t="n">
-        <v>0.333961</v>
+        <v>0.358883</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.364288</v>
+        <v>0.409319</v>
       </c>
       <c r="C128" t="n">
-        <v>0.435405</v>
+        <v>0.469371</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9233130000000001</v>
+        <v>0.8967079999999999</v>
       </c>
       <c r="E128" t="n">
-        <v>0.301871</v>
+        <v>0.354009</v>
       </c>
       <c r="F128" t="n">
-        <v>0.332886</v>
+        <v>0.375252</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.362828</v>
+        <v>0.433098</v>
       </c>
       <c r="C129" t="n">
-        <v>0.442413</v>
+        <v>0.477288</v>
       </c>
       <c r="D129" t="n">
-        <v>0.942571</v>
+        <v>0.928729</v>
       </c>
       <c r="E129" t="n">
-        <v>0.304341</v>
+        <v>0.345346</v>
       </c>
       <c r="F129" t="n">
-        <v>0.344027</v>
+        <v>0.370824</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.385846</v>
+        <v>0.427923</v>
       </c>
       <c r="C130" t="n">
-        <v>0.448484</v>
+        <v>0.488445</v>
       </c>
       <c r="D130" t="n">
-        <v>0.975191</v>
+        <v>0.951325</v>
       </c>
       <c r="E130" t="n">
-        <v>0.304364</v>
+        <v>0.347508</v>
       </c>
       <c r="F130" t="n">
-        <v>0.345441</v>
+        <v>0.376708</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.381697</v>
+        <v>0.444059</v>
       </c>
       <c r="C131" t="n">
-        <v>0.464147</v>
+        <v>0.51084</v>
       </c>
       <c r="D131" t="n">
-        <v>1.00632</v>
+        <v>1.00112</v>
       </c>
       <c r="E131" t="n">
-        <v>0.311317</v>
+        <v>0.350162</v>
       </c>
       <c r="F131" t="n">
-        <v>0.356772</v>
+        <v>0.386799</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.391458</v>
+        <v>0.476045</v>
       </c>
       <c r="C132" t="n">
-        <v>0.479028</v>
+        <v>0.523489</v>
       </c>
       <c r="D132" t="n">
-        <v>1.04369</v>
+        <v>1.01147</v>
       </c>
       <c r="E132" t="n">
-        <v>0.321299</v>
+        <v>0.362887</v>
       </c>
       <c r="F132" t="n">
-        <v>0.364309</v>
+        <v>0.390782</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.407237</v>
+        <v>0.462009</v>
       </c>
       <c r="C133" t="n">
-        <v>0.500895</v>
+        <v>0.542502</v>
       </c>
       <c r="D133" t="n">
-        <v>1.06978</v>
+        <v>1.04946</v>
       </c>
       <c r="E133" t="n">
-        <v>0.320883</v>
+        <v>0.364649</v>
       </c>
       <c r="F133" t="n">
-        <v>0.372827</v>
+        <v>0.40597</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.429257</v>
+        <v>0.511184</v>
       </c>
       <c r="C134" t="n">
-        <v>0.524744</v>
+        <v>0.6022</v>
       </c>
       <c r="D134" t="n">
-        <v>1.11015</v>
+        <v>1.08559</v>
       </c>
       <c r="E134" t="n">
-        <v>0.330822</v>
+        <v>0.372014</v>
       </c>
       <c r="F134" t="n">
-        <v>0.387479</v>
+        <v>0.41837</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.457032</v>
+        <v>0.533694</v>
       </c>
       <c r="C135" t="n">
-        <v>0.563634</v>
+        <v>0.611522</v>
       </c>
       <c r="D135" t="n">
-        <v>0.877184</v>
+        <v>0.870289</v>
       </c>
       <c r="E135" t="n">
-        <v>0.343514</v>
+        <v>0.390295</v>
       </c>
       <c r="F135" t="n">
-        <v>0.403246</v>
+        <v>0.456828</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.512706</v>
+        <v>0.568846</v>
       </c>
       <c r="C136" t="n">
-        <v>0.637421</v>
+        <v>0.717697</v>
       </c>
       <c r="D136" t="n">
-        <v>0.910563</v>
+        <v>0.903158</v>
       </c>
       <c r="E136" t="n">
-        <v>0.367282</v>
+        <v>0.406479</v>
       </c>
       <c r="F136" t="n">
-        <v>0.435508</v>
+        <v>0.473419</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.586704</v>
+        <v>0.6503370000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>0.737712</v>
+        <v>0.803397</v>
       </c>
       <c r="D137" t="n">
-        <v>0.933326</v>
+        <v>0.923652</v>
       </c>
       <c r="E137" t="n">
-        <v>0.354607</v>
+        <v>0.436606</v>
       </c>
       <c r="F137" t="n">
-        <v>0.376424</v>
+        <v>0.432081</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.426623</v>
+        <v>0.51845</v>
       </c>
       <c r="C138" t="n">
-        <v>0.484003</v>
+        <v>0.558188</v>
       </c>
       <c r="D138" t="n">
-        <v>0.966222</v>
+        <v>0.962515</v>
       </c>
       <c r="E138" t="n">
-        <v>0.360912</v>
+        <v>0.433773</v>
       </c>
       <c r="F138" t="n">
-        <v>0.38217</v>
+        <v>0.438232</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.428115</v>
+        <v>0.525559</v>
       </c>
       <c r="C139" t="n">
-        <v>0.493979</v>
+        <v>0.557289</v>
       </c>
       <c r="D139" t="n">
-        <v>1.00376</v>
+        <v>0.990742</v>
       </c>
       <c r="E139" t="n">
-        <v>0.365418</v>
+        <v>0.435265</v>
       </c>
       <c r="F139" t="n">
-        <v>0.386252</v>
+        <v>0.451689</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.439349</v>
+        <v>0.529294</v>
       </c>
       <c r="C140" t="n">
-        <v>0.496463</v>
+        <v>0.581328</v>
       </c>
       <c r="D140" t="n">
-        <v>1.01318</v>
+        <v>1.03375</v>
       </c>
       <c r="E140" t="n">
-        <v>0.361352</v>
+        <v>0.444011</v>
       </c>
       <c r="F140" t="n">
-        <v>0.393466</v>
+        <v>0.445738</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.446499</v>
+        <v>0.527011</v>
       </c>
       <c r="C141" t="n">
-        <v>0.507042</v>
+        <v>0.5749570000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>1.07404</v>
+        <v>1.07405</v>
       </c>
       <c r="E141" t="n">
-        <v>0.369426</v>
+        <v>0.444563</v>
       </c>
       <c r="F141" t="n">
-        <v>0.396656</v>
+        <v>0.450388</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.446719</v>
+        <v>0.54761</v>
       </c>
       <c r="C142" t="n">
-        <v>0.543893</v>
+        <v>0.582377</v>
       </c>
       <c r="D142" t="n">
-        <v>1.11829</v>
+        <v>1.09119</v>
       </c>
       <c r="E142" t="n">
-        <v>0.380311</v>
+        <v>0.449487</v>
       </c>
       <c r="F142" t="n">
-        <v>0.402252</v>
+        <v>0.463226</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.453365</v>
+        <v>0.549065</v>
       </c>
       <c r="C143" t="n">
-        <v>0.524894</v>
+        <v>0.595102</v>
       </c>
       <c r="D143" t="n">
-        <v>1.15568</v>
+        <v>1.14076</v>
       </c>
       <c r="E143" t="n">
-        <v>0.373574</v>
+        <v>0.458605</v>
       </c>
       <c r="F143" t="n">
-        <v>0.410896</v>
+        <v>0.466598</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0581946</v>
+        <v>0.0591266</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0587968</v>
+        <v>0.0605952</v>
       </c>
       <c r="D2" t="n">
-        <v>0.170769</v>
+        <v>0.163421</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0718572</v>
+        <v>0.07161629999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0618443</v>
+        <v>0.0617455</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0605067</v>
+        <v>0.0607458</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0616304</v>
+        <v>0.0658077</v>
       </c>
       <c r="D3" t="n">
-        <v>0.167693</v>
+        <v>0.166668</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0721725</v>
+        <v>0.0727361</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0624198</v>
+        <v>0.0627393</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0636111</v>
+        <v>0.0654638</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06466860000000001</v>
+        <v>0.067911</v>
       </c>
       <c r="D4" t="n">
-        <v>0.171586</v>
+        <v>0.171325</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0733375</v>
+        <v>0.0743513</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06371690000000001</v>
+        <v>0.0638369</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0687</v>
+        <v>0.0688677</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0701698</v>
+        <v>0.07228619999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.17879</v>
+        <v>0.17642</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07542359999999999</v>
+        <v>0.0756559</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0662473</v>
+        <v>0.0661371</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0771488</v>
+        <v>0.07713830000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0768351</v>
+        <v>0.08454689999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.182257</v>
+        <v>0.181835</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0813938</v>
+        <v>0.0797944</v>
       </c>
       <c r="F6" t="n">
-        <v>0.069926</v>
+        <v>0.07129530000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0902105</v>
+        <v>0.0901039</v>
       </c>
       <c r="C7" t="n">
-        <v>0.088118</v>
+        <v>0.0950923</v>
       </c>
       <c r="D7" t="n">
-        <v>0.144715</v>
+        <v>0.147928</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0856074</v>
+        <v>0.08656469999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0762811</v>
+        <v>0.0764587</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.110167</v>
+        <v>0.112624</v>
       </c>
       <c r="C8" t="n">
-        <v>0.106522</v>
+        <v>0.117145</v>
       </c>
       <c r="D8" t="n">
-        <v>0.150181</v>
+        <v>0.150569</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09537470000000001</v>
+        <v>0.0987402</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08578280000000001</v>
+        <v>0.0920836</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.142864</v>
+        <v>0.148267</v>
       </c>
       <c r="C9" t="n">
-        <v>0.13587</v>
+        <v>0.144835</v>
       </c>
       <c r="D9" t="n">
-        <v>0.155029</v>
+        <v>0.158127</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0698719</v>
+        <v>0.0710544</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0610185</v>
+        <v>0.0610586</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0574809</v>
+        <v>0.056971</v>
       </c>
       <c r="C10" t="n">
-        <v>0.060476</v>
+        <v>0.0582646</v>
       </c>
       <c r="D10" t="n">
-        <v>0.16011</v>
+        <v>0.159398</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0700025</v>
+        <v>0.07004630000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0614092</v>
+        <v>0.0611661</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0576663</v>
+        <v>0.0573933</v>
       </c>
       <c r="C11" t="n">
-        <v>0.059423</v>
+        <v>0.0589055</v>
       </c>
       <c r="D11" t="n">
-        <v>0.167058</v>
+        <v>0.164174</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0706817</v>
+        <v>0.0704786</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0617447</v>
+        <v>0.0615389</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0584895</v>
+        <v>0.0581444</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0601877</v>
+        <v>0.0593846</v>
       </c>
       <c r="D12" t="n">
-        <v>0.169798</v>
+        <v>0.169336</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0707047</v>
+        <v>0.0716842</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0619196</v>
+        <v>0.0619003</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0606314</v>
+        <v>0.0602244</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0624423</v>
+        <v>0.0611899</v>
       </c>
       <c r="D13" t="n">
-        <v>0.174795</v>
+        <v>0.175167</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07091799999999999</v>
+        <v>0.0714023</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0655463</v>
+        <v>0.06574629999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0605213</v>
+        <v>0.0608877</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0621642</v>
+        <v>0.0612776</v>
       </c>
       <c r="D14" t="n">
-        <v>0.179267</v>
+        <v>0.18141</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0719477</v>
+        <v>0.071335</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0624933</v>
+        <v>0.06257169999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0613183</v>
+        <v>0.0606339</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0640259</v>
+        <v>0.0629009</v>
       </c>
       <c r="D15" t="n">
-        <v>0.183717</v>
+        <v>0.186668</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0718717</v>
+        <v>0.07332660000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0632644</v>
+        <v>0.06303979999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0615904</v>
+        <v>0.062492</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0655162</v>
+        <v>0.0645738</v>
       </c>
       <c r="D16" t="n">
-        <v>0.188117</v>
+        <v>0.19532</v>
       </c>
       <c r="E16" t="n">
-        <v>0.072159</v>
+        <v>0.0725398</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0636869</v>
+        <v>0.06394320000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0642925</v>
+        <v>0.0666851</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0685817</v>
+        <v>0.0685716</v>
       </c>
       <c r="D17" t="n">
-        <v>0.193325</v>
+        <v>0.196347</v>
       </c>
       <c r="E17" t="n">
-        <v>0.07373010000000001</v>
+        <v>0.0743761</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0651786</v>
+        <v>0.0659124</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0712983</v>
+        <v>0.0685451</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0739317</v>
+        <v>0.0719896</v>
       </c>
       <c r="D18" t="n">
-        <v>0.196445</v>
+        <v>0.196884</v>
       </c>
       <c r="E18" t="n">
-        <v>0.07482229999999999</v>
+        <v>0.0750069</v>
       </c>
       <c r="F18" t="n">
-        <v>0.06647069999999999</v>
+        <v>0.0676341</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0718346</v>
+        <v>0.0744138</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0756646</v>
+        <v>0.07537439999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.201057</v>
+        <v>0.208032</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0771358</v>
+        <v>0.0791086</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0692938</v>
+        <v>0.07056460000000001</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0798722</v>
+        <v>0.081996</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0826369</v>
+        <v>0.08453140000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.207038</v>
+        <v>0.20496</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0807303</v>
+        <v>0.082466</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0724841</v>
+        <v>0.072501</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0910768</v>
+        <v>0.0942026</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0925313</v>
+        <v>0.09569469999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.158995</v>
+        <v>0.162622</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0864322</v>
+        <v>0.08845310000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0774946</v>
+        <v>0.0802611</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.109053</v>
+        <v>0.11391</v>
       </c>
       <c r="C22" t="n">
-        <v>0.108395</v>
+        <v>0.113257</v>
       </c>
       <c r="D22" t="n">
-        <v>0.164662</v>
+        <v>0.170248</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0960651</v>
+        <v>0.0964545</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0872817</v>
+        <v>0.08677020000000001</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.14071</v>
+        <v>0.151741</v>
       </c>
       <c r="C23" t="n">
-        <v>0.139424</v>
+        <v>0.145094</v>
       </c>
       <c r="D23" t="n">
-        <v>0.16886</v>
+        <v>0.175848</v>
       </c>
       <c r="E23" t="n">
-        <v>0.07102269999999999</v>
+        <v>0.07082910000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>0.06404650000000001</v>
+        <v>0.0635062</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0611278</v>
+        <v>0.0619554</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0653992</v>
+        <v>0.06319130000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.174981</v>
+        <v>0.181783</v>
       </c>
       <c r="E24" t="n">
-        <v>0.071419</v>
+        <v>0.071006</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0642947</v>
+        <v>0.0647913</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.06458270000000001</v>
+        <v>0.06367150000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0662085</v>
+        <v>0.0684772</v>
       </c>
       <c r="D25" t="n">
-        <v>0.180019</v>
+        <v>0.186165</v>
       </c>
       <c r="E25" t="n">
-        <v>0.07477019999999999</v>
+        <v>0.07296709999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>0.06566470000000001</v>
+        <v>0.0640405</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0622295</v>
+        <v>0.06375219999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0672444</v>
+        <v>0.0651149</v>
       </c>
       <c r="D26" t="n">
-        <v>0.184501</v>
+        <v>0.192822</v>
       </c>
       <c r="E26" t="n">
-        <v>0.07143239999999999</v>
+        <v>0.0736372</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0651255</v>
+        <v>0.0661842</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.06270820000000001</v>
+        <v>0.0643122</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0675544</v>
+        <v>0.0667797</v>
       </c>
       <c r="D27" t="n">
-        <v>0.195414</v>
+        <v>0.202232</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0719264</v>
+        <v>0.0730179</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0654684</v>
+        <v>0.0649931</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0635246</v>
+        <v>0.0643411</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0686785</v>
+        <v>0.0677089</v>
       </c>
       <c r="D28" t="n">
-        <v>0.197435</v>
+        <v>0.205147</v>
       </c>
       <c r="E28" t="n">
-        <v>0.07237970000000001</v>
+        <v>0.0730295</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0659696</v>
+        <v>0.0653623</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0646664</v>
+        <v>0.0657165</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0703807</v>
+        <v>0.0694968</v>
       </c>
       <c r="D29" t="n">
-        <v>0.201535</v>
+        <v>0.221374</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0732148</v>
+        <v>0.0732777</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0671963</v>
+        <v>0.0661563</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.06723519999999999</v>
+        <v>0.06890979999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0766819</v>
+        <v>0.0706136</v>
       </c>
       <c r="D30" t="n">
-        <v>0.20935</v>
+        <v>0.223031</v>
       </c>
       <c r="E30" t="n">
-        <v>0.07420549999999999</v>
+        <v>0.0741839</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0690769</v>
+        <v>0.0691736</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0690736</v>
+        <v>0.07188559999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0763539</v>
+        <v>0.0749658</v>
       </c>
       <c r="D31" t="n">
-        <v>0.214706</v>
+        <v>0.22137</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0749329</v>
+        <v>0.07539129999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0690028</v>
+        <v>0.0683402</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.071821</v>
+        <v>0.07301000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0777185</v>
+        <v>0.0771005</v>
       </c>
       <c r="D32" t="n">
-        <v>0.219104</v>
+        <v>0.2321</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0764412</v>
+        <v>0.0793228</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0710766</v>
+        <v>0.07221320000000001</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0770951</v>
+        <v>0.0773943</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0830639</v>
+        <v>0.08245669999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.225537</v>
+        <v>0.23795</v>
       </c>
       <c r="E33" t="n">
-        <v>0.07906000000000001</v>
+        <v>0.0803874</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0735768</v>
+        <v>0.0735222</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0831151</v>
+        <v>0.0867832</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0890455</v>
+        <v>0.0887647</v>
       </c>
       <c r="D34" t="n">
-        <v>0.229514</v>
+        <v>0.24368</v>
       </c>
       <c r="E34" t="n">
-        <v>0.08260770000000001</v>
+        <v>0.0841739</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07678699999999999</v>
+        <v>0.07961169999999999</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0950555</v>
+        <v>0.10149</v>
       </c>
       <c r="C35" t="n">
-        <v>0.09976640000000001</v>
+        <v>0.102059</v>
       </c>
       <c r="D35" t="n">
-        <v>0.173425</v>
+        <v>0.176575</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0890237</v>
+        <v>0.0952021</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0834709</v>
+        <v>0.08276940000000001</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.11268</v>
+        <v>0.116184</v>
       </c>
       <c r="C36" t="n">
-        <v>0.119706</v>
+        <v>0.119652</v>
       </c>
       <c r="D36" t="n">
-        <v>0.18042</v>
+        <v>0.188699</v>
       </c>
       <c r="E36" t="n">
-        <v>0.09866320000000001</v>
+        <v>0.0987109</v>
       </c>
       <c r="F36" t="n">
-        <v>0.09396839999999999</v>
+        <v>0.0911187</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.141672</v>
+        <v>0.145039</v>
       </c>
       <c r="C37" t="n">
-        <v>0.145316</v>
+        <v>0.151047</v>
       </c>
       <c r="D37" t="n">
-        <v>0.186934</v>
+        <v>0.191293</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0729559</v>
+        <v>0.0741243</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0680163</v>
+        <v>0.0690093</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.06554310000000001</v>
+        <v>0.0660939</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0723504</v>
+        <v>0.07064670000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.196111</v>
+        <v>0.194029</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0749452</v>
+        <v>0.07338600000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0704769</v>
+        <v>0.0683822</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0660878</v>
+        <v>0.06684519999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07341060000000001</v>
+        <v>0.075181</v>
       </c>
       <c r="D39" t="n">
-        <v>0.201294</v>
+        <v>0.201366</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0734199</v>
+        <v>0.0762775</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0692802</v>
+        <v>0.0689159</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0687675</v>
+        <v>0.06777560000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0774807</v>
+        <v>0.0739643</v>
       </c>
       <c r="D40" t="n">
-        <v>0.211143</v>
+        <v>0.222752</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0739481</v>
+        <v>0.07493660000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0696537</v>
+        <v>0.0698423</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.06932629999999999</v>
+        <v>0.0686195</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0778026</v>
+        <v>0.07542119999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.216938</v>
+        <v>0.217782</v>
       </c>
       <c r="E41" t="n">
-        <v>0.07448399999999999</v>
+        <v>0.0762723</v>
       </c>
       <c r="F41" t="n">
-        <v>0.07012939999999999</v>
+        <v>0.0704173</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0689072</v>
+        <v>0.06994060000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0766739</v>
+        <v>0.0789696</v>
       </c>
       <c r="D42" t="n">
-        <v>0.226856</v>
+        <v>0.223976</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0749069</v>
+        <v>0.0768215</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0711498</v>
+        <v>0.0757907</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0700445</v>
+        <v>0.0702831</v>
       </c>
       <c r="C43" t="n">
-        <v>0.07934239999999999</v>
+        <v>0.079664</v>
       </c>
       <c r="D43" t="n">
-        <v>0.233699</v>
+        <v>0.236659</v>
       </c>
       <c r="E43" t="n">
-        <v>0.07552</v>
+        <v>0.07782890000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0724378</v>
+        <v>0.07299410000000001</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.07293330000000001</v>
+        <v>0.0720498</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0825207</v>
+        <v>0.0821214</v>
       </c>
       <c r="D44" t="n">
-        <v>0.245668</v>
+        <v>0.249549</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0764037</v>
+        <v>0.0765569</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0745063</v>
+        <v>0.0741783</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0741971</v>
+        <v>0.0735885</v>
       </c>
       <c r="C45" t="n">
-        <v>0.08384369999999999</v>
+        <v>0.08483839999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.254442</v>
+        <v>0.260299</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0770945</v>
+        <v>0.0779865</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0747437</v>
+        <v>0.0755575</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0755247</v>
+        <v>0.08018749999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0869302</v>
+        <v>0.0903586</v>
       </c>
       <c r="D46" t="n">
-        <v>0.263771</v>
+        <v>0.277881</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0786806</v>
+        <v>0.0821818</v>
       </c>
       <c r="F46" t="n">
-        <v>0.07688399999999999</v>
+        <v>0.077554</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0802175</v>
+        <v>0.08367189999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.09441190000000001</v>
+        <v>0.0953164</v>
       </c>
       <c r="D47" t="n">
-        <v>0.276619</v>
+        <v>0.27991</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0816793</v>
+        <v>0.08226749999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0850168</v>
+        <v>0.07923529999999999</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0887705</v>
+        <v>0.08859549999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.101715</v>
+        <v>0.104771</v>
       </c>
       <c r="D48" t="n">
-        <v>0.289753</v>
+        <v>0.287731</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0846243</v>
+        <v>0.0848256</v>
       </c>
       <c r="F48" t="n">
-        <v>0.085607</v>
+        <v>0.0869577</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.09738239999999999</v>
+        <v>0.10464</v>
       </c>
       <c r="C49" t="n">
-        <v>0.111787</v>
+        <v>0.116722</v>
       </c>
       <c r="D49" t="n">
-        <v>0.297121</v>
+        <v>0.320415</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0890806</v>
+        <v>0.08967219999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0883245</v>
+        <v>0.0895871</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.112521</v>
+        <v>0.123212</v>
       </c>
       <c r="C50" t="n">
-        <v>0.127796</v>
+        <v>0.130351</v>
       </c>
       <c r="D50" t="n">
-        <v>0.215301</v>
+        <v>0.223901</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0995748</v>
+        <v>0.0985994</v>
       </c>
       <c r="F50" t="n">
-        <v>0.09931039999999999</v>
+        <v>0.09790939999999999</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.138656</v>
+        <v>0.1446</v>
       </c>
       <c r="C51" t="n">
-        <v>0.152992</v>
+        <v>0.158939</v>
       </c>
       <c r="D51" t="n">
-        <v>0.226594</v>
+        <v>0.230214</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0777448</v>
+        <v>0.0779764</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0761696</v>
+        <v>0.07649930000000001</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.180625</v>
+        <v>0.18993</v>
       </c>
       <c r="C52" t="n">
-        <v>0.194906</v>
+        <v>0.200635</v>
       </c>
       <c r="D52" t="n">
-        <v>0.235269</v>
+        <v>0.239824</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0781698</v>
+        <v>0.0795047</v>
       </c>
       <c r="F52" t="n">
-        <v>0.07594620000000001</v>
+        <v>0.0763419</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.07782790000000001</v>
+        <v>0.0784516</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0888545</v>
+        <v>0.09018610000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.249715</v>
+        <v>0.255298</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0790018</v>
+        <v>0.0795289</v>
       </c>
       <c r="F53" t="n">
-        <v>0.07829609999999999</v>
+        <v>0.0776014</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0786367</v>
+        <v>0.07958560000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0908641</v>
+        <v>0.0950978</v>
       </c>
       <c r="D54" t="n">
-        <v>0.260201</v>
+        <v>0.271036</v>
       </c>
       <c r="E54" t="n">
-        <v>0.07953300000000001</v>
+        <v>0.08058079999999999</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0782923</v>
+        <v>0.0783334</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0802884</v>
+        <v>0.0812817</v>
       </c>
       <c r="C55" t="n">
-        <v>0.09317599999999999</v>
+        <v>0.0944242</v>
       </c>
       <c r="D55" t="n">
-        <v>0.274215</v>
+        <v>0.280976</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0796056</v>
+        <v>0.0802692</v>
       </c>
       <c r="F55" t="n">
-        <v>0.07921209999999999</v>
+        <v>0.07955569999999999</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.08204069999999999</v>
+        <v>0.0856585</v>
       </c>
       <c r="C56" t="n">
-        <v>0.09644460000000001</v>
+        <v>0.0959187</v>
       </c>
       <c r="D56" t="n">
-        <v>0.29405</v>
+        <v>0.296359</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0803097</v>
+        <v>0.0820367</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0797312</v>
+        <v>0.08142779999999999</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0819488</v>
+        <v>0.0842358</v>
       </c>
       <c r="C57" t="n">
-        <v>0.09928530000000001</v>
+        <v>0.0997652</v>
       </c>
       <c r="D57" t="n">
-        <v>0.309333</v>
+        <v>0.313226</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0816523</v>
+        <v>0.0817949</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0816341</v>
+        <v>0.08160820000000001</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0844823</v>
+        <v>0.08391129999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.100608</v>
+        <v>0.100493</v>
       </c>
       <c r="D58" t="n">
-        <v>0.318717</v>
+        <v>0.326847</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0818624</v>
+        <v>0.0829358</v>
       </c>
       <c r="F58" t="n">
-        <v>0.08325630000000001</v>
+        <v>0.0850949</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.08756609999999999</v>
+        <v>0.0863227</v>
       </c>
       <c r="C59" t="n">
-        <v>0.108274</v>
+        <v>0.105899</v>
       </c>
       <c r="D59" t="n">
-        <v>0.344522</v>
+        <v>0.351354</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0868332</v>
+        <v>0.0858932</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08649660000000001</v>
+        <v>0.08652360000000001</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0896672</v>
+        <v>0.0904846</v>
       </c>
       <c r="C60" t="n">
-        <v>0.108463</v>
+        <v>0.110276</v>
       </c>
       <c r="D60" t="n">
-        <v>0.356745</v>
+        <v>0.366806</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0856465</v>
+        <v>0.0864437</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0869738</v>
+        <v>0.091811</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0945785</v>
+        <v>0.0976354</v>
       </c>
       <c r="C61" t="n">
-        <v>0.122047</v>
+        <v>0.116786</v>
       </c>
       <c r="D61" t="n">
-        <v>0.379382</v>
+        <v>0.393601</v>
       </c>
       <c r="E61" t="n">
-        <v>0.08781070000000001</v>
+        <v>0.08896759999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0895248</v>
+        <v>0.0910078</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.101005</v>
+        <v>0.1023</v>
       </c>
       <c r="C62" t="n">
-        <v>0.124002</v>
+        <v>0.122813</v>
       </c>
       <c r="D62" t="n">
-        <v>0.397034</v>
+        <v>0.410862</v>
       </c>
       <c r="E62" t="n">
-        <v>0.091282</v>
+        <v>0.09244869999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0941336</v>
+        <v>0.0948687</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.112009</v>
+        <v>0.110475</v>
       </c>
       <c r="C63" t="n">
-        <v>0.136572</v>
+        <v>0.136771</v>
       </c>
       <c r="D63" t="n">
-        <v>0.422926</v>
+        <v>0.440344</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0965994</v>
+        <v>0.0967396</v>
       </c>
       <c r="F63" t="n">
-        <v>0.100064</v>
+        <v>0.103807</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.12678</v>
+        <v>0.123911</v>
       </c>
       <c r="C64" t="n">
-        <v>0.153451</v>
+        <v>0.153252</v>
       </c>
       <c r="D64" t="n">
-        <v>0.313369</v>
+        <v>0.318907</v>
       </c>
       <c r="E64" t="n">
-        <v>0.104723</v>
+        <v>0.107623</v>
       </c>
       <c r="F64" t="n">
-        <v>0.109338</v>
+        <v>0.108441</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.150712</v>
+        <v>0.149401</v>
       </c>
       <c r="C65" t="n">
-        <v>0.180352</v>
+        <v>0.181676</v>
       </c>
       <c r="D65" t="n">
-        <v>0.329831</v>
+        <v>0.340734</v>
       </c>
       <c r="E65" t="n">
-        <v>0.11833</v>
+        <v>0.11758</v>
       </c>
       <c r="F65" t="n">
-        <v>0.123345</v>
+        <v>0.123974</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.191166</v>
+        <v>0.189721</v>
       </c>
       <c r="C66" t="n">
-        <v>0.221302</v>
+        <v>0.231195</v>
       </c>
       <c r="D66" t="n">
-        <v>0.346247</v>
+        <v>0.357903</v>
       </c>
       <c r="E66" t="n">
-        <v>0.08315110000000001</v>
+        <v>0.0838708</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0839646</v>
+        <v>0.0847559</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0877535</v>
+        <v>0.09128890000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.105141</v>
+        <v>0.107512</v>
       </c>
       <c r="D67" t="n">
-        <v>0.363179</v>
+        <v>0.370168</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0836112</v>
+        <v>0.0838168</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0849458</v>
+        <v>0.08631759999999999</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.09063450000000001</v>
+        <v>0.08806410000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.109665</v>
+        <v>0.108619</v>
       </c>
       <c r="D68" t="n">
-        <v>0.387108</v>
+        <v>0.399769</v>
       </c>
       <c r="E68" t="n">
-        <v>0.08437169999999999</v>
+        <v>0.0875875</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0861803</v>
+        <v>0.0908495</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.09007179999999999</v>
+        <v>0.08960899999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.111188</v>
+        <v>0.115145</v>
       </c>
       <c r="D69" t="n">
-        <v>0.405668</v>
+        <v>0.435551</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0876183</v>
+        <v>0.0858034</v>
       </c>
       <c r="F69" t="n">
-        <v>0.08815679999999999</v>
+        <v>0.0883911</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.092539</v>
+        <v>0.09193179999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.114788</v>
+        <v>0.117504</v>
       </c>
       <c r="D70" t="n">
-        <v>0.425286</v>
+        <v>0.440472</v>
       </c>
       <c r="E70" t="n">
-        <v>0.08586299999999999</v>
+        <v>0.08650099999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0894152</v>
+        <v>0.08967840000000001</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.09333139999999999</v>
+        <v>0.09358710000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.119372</v>
+        <v>0.121175</v>
       </c>
       <c r="D71" t="n">
-        <v>0.45366</v>
+        <v>0.462115</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0878467</v>
+        <v>0.0878401</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0934971</v>
+        <v>0.09315180000000001</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0975391</v>
+        <v>0.0997117</v>
       </c>
       <c r="C72" t="n">
-        <v>0.124535</v>
+        <v>0.124072</v>
       </c>
       <c r="D72" t="n">
-        <v>0.481379</v>
+        <v>0.501342</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0889557</v>
+        <v>0.0894809</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0944826</v>
+        <v>0.101801</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.100074</v>
+        <v>0.101577</v>
       </c>
       <c r="C73" t="n">
-        <v>0.128923</v>
+        <v>0.135835</v>
       </c>
       <c r="D73" t="n">
-        <v>0.500848</v>
+        <v>0.512844</v>
       </c>
       <c r="E73" t="n">
-        <v>0.08969729999999999</v>
+        <v>0.0924941</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0954231</v>
+        <v>0.09766660000000001</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.101337</v>
+        <v>0.10967</v>
       </c>
       <c r="C74" t="n">
-        <v>0.133429</v>
+        <v>0.13998</v>
       </c>
       <c r="D74" t="n">
-        <v>0.521001</v>
+        <v>0.537175</v>
       </c>
       <c r="E74" t="n">
-        <v>0.09527190000000001</v>
+        <v>0.09549150000000001</v>
       </c>
       <c r="F74" t="n">
-        <v>0.09916369999999999</v>
+        <v>0.108583</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.107952</v>
+        <v>0.112419</v>
       </c>
       <c r="C75" t="n">
-        <v>0.145794</v>
+        <v>0.147952</v>
       </c>
       <c r="D75" t="n">
-        <v>0.558719</v>
+        <v>0.561875</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0954781</v>
+        <v>0.0963659</v>
       </c>
       <c r="F75" t="n">
-        <v>0.105945</v>
+        <v>0.107756</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.11533</v>
+        <v>0.119366</v>
       </c>
       <c r="C76" t="n">
-        <v>0.152683</v>
+        <v>0.159954</v>
       </c>
       <c r="D76" t="n">
-        <v>0.577508</v>
+        <v>0.604797</v>
       </c>
       <c r="E76" t="n">
-        <v>0.09848949999999999</v>
+        <v>0.101424</v>
       </c>
       <c r="F76" t="n">
-        <v>0.107704</v>
+        <v>0.109499</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.123506</v>
+        <v>0.131458</v>
       </c>
       <c r="C77" t="n">
-        <v>0.167631</v>
+        <v>0.17516</v>
       </c>
       <c r="D77" t="n">
-        <v>0.607924</v>
+        <v>0.635819</v>
       </c>
       <c r="E77" t="n">
-        <v>0.10385</v>
+        <v>0.108947</v>
       </c>
       <c r="F77" t="n">
-        <v>0.115167</v>
+        <v>0.125088</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.139099</v>
+        <v>0.13959</v>
       </c>
       <c r="C78" t="n">
-        <v>0.190007</v>
+        <v>0.195005</v>
       </c>
       <c r="D78" t="n">
-        <v>0.451222</v>
+        <v>0.490483</v>
       </c>
       <c r="E78" t="n">
-        <v>0.111546</v>
+        <v>0.115622</v>
       </c>
       <c r="F78" t="n">
-        <v>0.124882</v>
+        <v>0.126063</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.163185</v>
+        <v>0.166004</v>
       </c>
       <c r="C79" t="n">
-        <v>0.221887</v>
+        <v>0.224651</v>
       </c>
       <c r="D79" t="n">
-        <v>0.474304</v>
+        <v>0.48173</v>
       </c>
       <c r="E79" t="n">
-        <v>0.125357</v>
+        <v>0.130897</v>
       </c>
       <c r="F79" t="n">
-        <v>0.142533</v>
+        <v>0.144982</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.205909</v>
+        <v>0.206019</v>
       </c>
       <c r="C80" t="n">
-        <v>0.286368</v>
+        <v>0.281494</v>
       </c>
       <c r="D80" t="n">
-        <v>0.491955</v>
+        <v>0.51553</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0884721</v>
+        <v>0.09342689999999999</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0939121</v>
+        <v>0.0945944</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0997885</v>
+        <v>0.101343</v>
       </c>
       <c r="C81" t="n">
-        <v>0.135513</v>
+        <v>0.138078</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5147350000000001</v>
+        <v>0.5259779999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0898048</v>
+        <v>0.0932719</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0975796</v>
+        <v>0.100235</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.10311</v>
+        <v>0.10691</v>
       </c>
       <c r="C82" t="n">
-        <v>0.139661</v>
+        <v>0.140123</v>
       </c>
       <c r="D82" t="n">
-        <v>0.538214</v>
+        <v>0.549489</v>
       </c>
       <c r="E82" t="n">
-        <v>0.09116879999999999</v>
+        <v>0.0917356</v>
       </c>
       <c r="F82" t="n">
-        <v>0.100021</v>
+        <v>0.103588</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.104893</v>
+        <v>0.104482</v>
       </c>
       <c r="C83" t="n">
-        <v>0.143758</v>
+        <v>0.142948</v>
       </c>
       <c r="D83" t="n">
-        <v>0.559064</v>
+        <v>0.5699610000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0926192</v>
+        <v>0.0924357</v>
       </c>
       <c r="F83" t="n">
-        <v>0.102239</v>
+        <v>0.103219</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.107459</v>
+        <v>0.110866</v>
       </c>
       <c r="C84" t="n">
-        <v>0.148547</v>
+        <v>0.156442</v>
       </c>
       <c r="D84" t="n">
-        <v>0.57834</v>
+        <v>0.5979910000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0963049</v>
+        <v>0.0993111</v>
       </c>
       <c r="F84" t="n">
-        <v>0.10511</v>
+        <v>0.105853</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.110758</v>
+        <v>0.117923</v>
       </c>
       <c r="C85" t="n">
-        <v>0.159076</v>
+        <v>0.154888</v>
       </c>
       <c r="D85" t="n">
-        <v>0.602986</v>
+        <v>0.628316</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0957191</v>
+        <v>0.09603250000000001</v>
       </c>
       <c r="F85" t="n">
-        <v>0.108874</v>
+        <v>0.110291</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.115177</v>
+        <v>0.118174</v>
       </c>
       <c r="C86" t="n">
-        <v>0.160764</v>
+        <v>0.167275</v>
       </c>
       <c r="D86" t="n">
-        <v>0.631645</v>
+        <v>0.664215</v>
       </c>
       <c r="E86" t="n">
-        <v>0.09798229999999999</v>
+        <v>0.0987083</v>
       </c>
       <c r="F86" t="n">
-        <v>0.11224</v>
+        <v>0.112729</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.120677</v>
+        <v>0.119787</v>
       </c>
       <c r="C87" t="n">
-        <v>0.17587</v>
+        <v>0.169141</v>
       </c>
       <c r="D87" t="n">
-        <v>0.658251</v>
+        <v>0.6662400000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>0.101344</v>
+        <v>0.100126</v>
       </c>
       <c r="F87" t="n">
-        <v>0.119728</v>
+        <v>0.11706</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.125367</v>
+        <v>0.126387</v>
       </c>
       <c r="C88" t="n">
-        <v>0.178602</v>
+        <v>0.175858</v>
       </c>
       <c r="D88" t="n">
-        <v>0.680796</v>
+        <v>0.699437</v>
       </c>
       <c r="E88" t="n">
-        <v>0.108601</v>
+        <v>0.105154</v>
       </c>
       <c r="F88" t="n">
-        <v>0.121196</v>
+        <v>0.120776</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.130804</v>
+        <v>0.130677</v>
       </c>
       <c r="C89" t="n">
-        <v>0.188597</v>
+        <v>0.187685</v>
       </c>
       <c r="D89" t="n">
-        <v>0.706077</v>
+        <v>0.717923</v>
       </c>
       <c r="E89" t="n">
-        <v>0.106814</v>
+        <v>0.107412</v>
       </c>
       <c r="F89" t="n">
-        <v>0.12703</v>
+        <v>0.125943</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.139972</v>
+        <v>0.138011</v>
       </c>
       <c r="C90" t="n">
-        <v>0.203977</v>
+        <v>0.199609</v>
       </c>
       <c r="D90" t="n">
-        <v>0.745855</v>
+        <v>0.761058</v>
       </c>
       <c r="E90" t="n">
-        <v>0.114426</v>
+        <v>0.111127</v>
       </c>
       <c r="F90" t="n">
-        <v>0.136703</v>
+        <v>0.134248</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.150596</v>
+        <v>0.159565</v>
       </c>
       <c r="C91" t="n">
-        <v>0.217564</v>
+        <v>0.215089</v>
       </c>
       <c r="D91" t="n">
-        <v>0.76101</v>
+        <v>0.797998</v>
       </c>
       <c r="E91" t="n">
-        <v>0.1174</v>
+        <v>0.118661</v>
       </c>
       <c r="F91" t="n">
-        <v>0.141619</v>
+        <v>0.142072</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.166488</v>
+        <v>0.169799</v>
       </c>
       <c r="C92" t="n">
-        <v>0.240623</v>
+        <v>0.239296</v>
       </c>
       <c r="D92" t="n">
-        <v>0.586552</v>
+        <v>0.596121</v>
       </c>
       <c r="E92" t="n">
-        <v>0.125349</v>
+        <v>0.132079</v>
       </c>
       <c r="F92" t="n">
-        <v>0.153168</v>
+        <v>0.157596</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.192886</v>
+        <v>0.187257</v>
       </c>
       <c r="C93" t="n">
-        <v>0.276228</v>
+        <v>0.279296</v>
       </c>
       <c r="D93" t="n">
-        <v>0.620177</v>
+        <v>0.615974</v>
       </c>
       <c r="E93" t="n">
-        <v>0.142958</v>
+        <v>0.14013</v>
       </c>
       <c r="F93" t="n">
-        <v>0.171231</v>
+        <v>0.169515</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.232657</v>
+        <v>0.229654</v>
       </c>
       <c r="C94" t="n">
-        <v>0.328917</v>
+        <v>0.327237</v>
       </c>
       <c r="D94" t="n">
-        <v>0.61586</v>
+        <v>0.637315</v>
       </c>
       <c r="E94" t="n">
-        <v>0.10878</v>
+        <v>0.109362</v>
       </c>
       <c r="F94" t="n">
-        <v>0.127627</v>
+        <v>0.135627</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.132646</v>
+        <v>0.136634</v>
       </c>
       <c r="C95" t="n">
-        <v>0.182907</v>
+        <v>0.180903</v>
       </c>
       <c r="D95" t="n">
-        <v>0.639036</v>
+        <v>0.642139</v>
       </c>
       <c r="E95" t="n">
-        <v>0.110421</v>
+        <v>0.112436</v>
       </c>
       <c r="F95" t="n">
-        <v>0.131349</v>
+        <v>0.132282</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.135799</v>
+        <v>0.133094</v>
       </c>
       <c r="C96" t="n">
-        <v>0.18798</v>
+        <v>0.190015</v>
       </c>
       <c r="D96" t="n">
-        <v>0.65702</v>
+        <v>0.695667</v>
       </c>
       <c r="E96" t="n">
-        <v>0.111819</v>
+        <v>0.112405</v>
       </c>
       <c r="F96" t="n">
-        <v>0.134287</v>
+        <v>0.135178</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.138551</v>
+        <v>0.138665</v>
       </c>
       <c r="C97" t="n">
-        <v>0.193669</v>
+        <v>0.191499</v>
       </c>
       <c r="D97" t="n">
-        <v>0.7086519999999999</v>
+        <v>0.722093</v>
       </c>
       <c r="E97" t="n">
-        <v>0.113894</v>
+        <v>0.115726</v>
       </c>
       <c r="F97" t="n">
-        <v>0.138994</v>
+        <v>0.137941</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.145636</v>
+        <v>0.138273</v>
       </c>
       <c r="C98" t="n">
-        <v>0.203455</v>
+        <v>0.197319</v>
       </c>
       <c r="D98" t="n">
-        <v>0.704924</v>
+        <v>0.715225</v>
       </c>
       <c r="E98" t="n">
-        <v>0.115984</v>
+        <v>0.118143</v>
       </c>
       <c r="F98" t="n">
-        <v>0.143597</v>
+        <v>0.142822</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.146119</v>
+        <v>0.14514</v>
       </c>
       <c r="C99" t="n">
-        <v>0.210222</v>
+        <v>0.207135</v>
       </c>
       <c r="D99" t="n">
-        <v>0.734254</v>
+        <v>0.750573</v>
       </c>
       <c r="E99" t="n">
-        <v>0.118715</v>
+        <v>0.11886</v>
       </c>
       <c r="F99" t="n">
-        <v>0.145764</v>
+        <v>0.144658</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.149909</v>
+        <v>0.14677</v>
       </c>
       <c r="C100" t="n">
-        <v>0.213713</v>
+        <v>0.212707</v>
       </c>
       <c r="D100" t="n">
-        <v>0.749982</v>
+        <v>0.771236</v>
       </c>
       <c r="E100" t="n">
-        <v>0.120246</v>
+        <v>0.121976</v>
       </c>
       <c r="F100" t="n">
-        <v>0.149371</v>
+        <v>0.150107</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.154387</v>
+        <v>0.151739</v>
       </c>
       <c r="C101" t="n">
-        <v>0.221802</v>
+        <v>0.220905</v>
       </c>
       <c r="D101" t="n">
-        <v>0.773095</v>
+        <v>0.783945</v>
       </c>
       <c r="E101" t="n">
-        <v>0.123083</v>
+        <v>0.125738</v>
       </c>
       <c r="F101" t="n">
-        <v>0.153598</v>
+        <v>0.153483</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.160342</v>
+        <v>0.157036</v>
       </c>
       <c r="C102" t="n">
-        <v>0.235144</v>
+        <v>0.229306</v>
       </c>
       <c r="D102" t="n">
-        <v>0.800153</v>
+        <v>0.8223279999999999</v>
       </c>
       <c r="E102" t="n">
-        <v>0.128875</v>
+        <v>0.126677</v>
       </c>
       <c r="F102" t="n">
-        <v>0.159761</v>
+        <v>0.15873</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.171069</v>
+        <v>0.163329</v>
       </c>
       <c r="C103" t="n">
-        <v>0.244676</v>
+        <v>0.244965</v>
       </c>
       <c r="D103" t="n">
-        <v>0.830673</v>
+        <v>0.858605</v>
       </c>
       <c r="E103" t="n">
-        <v>0.130829</v>
+        <v>0.131701</v>
       </c>
       <c r="F103" t="n">
-        <v>0.166357</v>
+        <v>0.165737</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.178753</v>
+        <v>0.171239</v>
       </c>
       <c r="C104" t="n">
-        <v>0.257624</v>
+        <v>0.258607</v>
       </c>
       <c r="D104" t="n">
-        <v>0.849105</v>
+        <v>0.87798</v>
       </c>
       <c r="E104" t="n">
-        <v>0.134118</v>
+        <v>0.135192</v>
       </c>
       <c r="F104" t="n">
-        <v>0.172175</v>
+        <v>0.171976</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.188215</v>
+        <v>0.181705</v>
       </c>
       <c r="C105" t="n">
-        <v>0.280298</v>
+        <v>0.286347</v>
       </c>
       <c r="D105" t="n">
-        <v>0.880194</v>
+        <v>0.9016690000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>0.140679</v>
+        <v>0.142306</v>
       </c>
       <c r="F105" t="n">
-        <v>0.180967</v>
+        <v>0.18155</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.204543</v>
+        <v>0.194912</v>
       </c>
       <c r="C106" t="n">
-        <v>0.303762</v>
+        <v>0.297738</v>
       </c>
       <c r="D106" t="n">
-        <v>0.907455</v>
+        <v>0.914519</v>
       </c>
       <c r="E106" t="n">
-        <v>0.149583</v>
+        <v>0.152306</v>
       </c>
       <c r="F106" t="n">
-        <v>0.199357</v>
+        <v>0.194386</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.2358</v>
+        <v>0.221037</v>
       </c>
       <c r="C107" t="n">
-        <v>0.345301</v>
+        <v>0.331735</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6915559999999999</v>
+        <v>0.729779</v>
       </c>
       <c r="E107" t="n">
-        <v>0.163493</v>
+        <v>0.169312</v>
       </c>
       <c r="F107" t="n">
-        <v>0.212566</v>
+        <v>0.215308</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.273387</v>
+        <v>0.267771</v>
       </c>
       <c r="C108" t="n">
-        <v>0.402512</v>
+        <v>0.400793</v>
       </c>
       <c r="D108" t="n">
-        <v>0.741155</v>
+        <v>0.7201109999999999</v>
       </c>
       <c r="E108" t="n">
-        <v>0.191186</v>
+        <v>0.176981</v>
       </c>
       <c r="F108" t="n">
-        <v>0.208769</v>
+        <v>0.208142</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.348719</v>
+        <v>0.331146</v>
       </c>
       <c r="C109" t="n">
-        <v>0.505271</v>
+        <v>0.481482</v>
       </c>
       <c r="D109" t="n">
-        <v>0.762862</v>
+        <v>0.7404849999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>0.190036</v>
+        <v>0.185547</v>
       </c>
       <c r="F109" t="n">
-        <v>0.214084</v>
+        <v>0.205465</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.231885</v>
+        <v>0.212377</v>
       </c>
       <c r="C110" t="n">
-        <v>0.280067</v>
+        <v>0.273764</v>
       </c>
       <c r="D110" t="n">
-        <v>0.769833</v>
+        <v>0.76434</v>
       </c>
       <c r="E110" t="n">
-        <v>0.193312</v>
+        <v>0.179609</v>
       </c>
       <c r="F110" t="n">
-        <v>0.218912</v>
+        <v>0.209994</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.231988</v>
+        <v>0.217487</v>
       </c>
       <c r="C111" t="n">
-        <v>0.286153</v>
+        <v>0.274073</v>
       </c>
       <c r="D111" t="n">
-        <v>0.769017</v>
+        <v>0.82364</v>
       </c>
       <c r="E111" t="n">
-        <v>0.195355</v>
+        <v>0.184323</v>
       </c>
       <c r="F111" t="n">
-        <v>0.229522</v>
+        <v>0.216326</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.256401</v>
+        <v>0.231493</v>
       </c>
       <c r="C112" t="n">
-        <v>0.295663</v>
+        <v>0.28226</v>
       </c>
       <c r="D112" t="n">
-        <v>0.788733</v>
+        <v>0.809422</v>
       </c>
       <c r="E112" t="n">
-        <v>0.199234</v>
+        <v>0.186432</v>
       </c>
       <c r="F112" t="n">
-        <v>0.226237</v>
+        <v>0.217572</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.242947</v>
+        <v>0.227875</v>
       </c>
       <c r="C113" t="n">
-        <v>0.300703</v>
+        <v>0.288817</v>
       </c>
       <c r="D113" t="n">
-        <v>0.814897</v>
+        <v>0.823593</v>
       </c>
       <c r="E113" t="n">
-        <v>0.200452</v>
+        <v>0.188073</v>
       </c>
       <c r="F113" t="n">
-        <v>0.23423</v>
+        <v>0.240876</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.247103</v>
+        <v>0.225034</v>
       </c>
       <c r="C114" t="n">
-        <v>0.310469</v>
+        <v>0.301647</v>
       </c>
       <c r="D114" t="n">
-        <v>0.836843</v>
+        <v>0.876611</v>
       </c>
       <c r="E114" t="n">
-        <v>0.202396</v>
+        <v>0.189503</v>
       </c>
       <c r="F114" t="n">
-        <v>0.237963</v>
+        <v>0.222948</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.25298</v>
+        <v>0.228841</v>
       </c>
       <c r="C115" t="n">
-        <v>0.326312</v>
+        <v>0.305083</v>
       </c>
       <c r="D115" t="n">
-        <v>0.920821</v>
+        <v>0.878401</v>
       </c>
       <c r="E115" t="n">
-        <v>0.22405</v>
+        <v>0.197297</v>
       </c>
       <c r="F115" t="n">
-        <v>0.24324</v>
+        <v>0.233242</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.258814</v>
+        <v>0.238473</v>
       </c>
       <c r="C116" t="n">
-        <v>0.335055</v>
+        <v>0.315876</v>
       </c>
       <c r="D116" t="n">
-        <v>0.887136</v>
+        <v>0.894048</v>
       </c>
       <c r="E116" t="n">
-        <v>0.206749</v>
+        <v>0.195108</v>
       </c>
       <c r="F116" t="n">
-        <v>0.274527</v>
+        <v>0.237982</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.261646</v>
+        <v>0.247809</v>
       </c>
       <c r="C117" t="n">
-        <v>0.345196</v>
+        <v>0.335421</v>
       </c>
       <c r="D117" t="n">
-        <v>0.913263</v>
+        <v>0.940642</v>
       </c>
       <c r="E117" t="n">
-        <v>0.2119</v>
+        <v>0.219212</v>
       </c>
       <c r="F117" t="n">
-        <v>0.25343</v>
+        <v>0.254223</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.274383</v>
+        <v>0.264618</v>
       </c>
       <c r="C118" t="n">
-        <v>0.362956</v>
+        <v>0.356298</v>
       </c>
       <c r="D118" t="n">
-        <v>1.02588</v>
+        <v>0.983948</v>
       </c>
       <c r="E118" t="n">
-        <v>0.218939</v>
+        <v>0.204319</v>
       </c>
       <c r="F118" t="n">
-        <v>0.261874</v>
+        <v>0.262071</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.28639</v>
+        <v>0.266442</v>
       </c>
       <c r="C119" t="n">
-        <v>0.382803</v>
+        <v>0.363751</v>
       </c>
       <c r="D119" t="n">
-        <v>0.961681</v>
+        <v>0.980518</v>
       </c>
       <c r="E119" t="n">
-        <v>0.2263</v>
+        <v>0.211273</v>
       </c>
       <c r="F119" t="n">
-        <v>0.268865</v>
+        <v>0.26264</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.305922</v>
+        <v>0.289869</v>
       </c>
       <c r="C120" t="n">
-        <v>0.423196</v>
+        <v>0.401218</v>
       </c>
       <c r="D120" t="n">
-        <v>0.987605</v>
+        <v>1.01155</v>
       </c>
       <c r="E120" t="n">
-        <v>0.230232</v>
+        <v>0.217758</v>
       </c>
       <c r="F120" t="n">
-        <v>0.293959</v>
+        <v>0.275946</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.322406</v>
+        <v>0.308987</v>
       </c>
       <c r="C121" t="n">
-        <v>0.486035</v>
+        <v>0.437172</v>
       </c>
       <c r="D121" t="n">
-        <v>0.743272</v>
+        <v>0.757808</v>
       </c>
       <c r="E121" t="n">
-        <v>0.242337</v>
+        <v>0.229731</v>
       </c>
       <c r="F121" t="n">
-        <v>0.306606</v>
+        <v>0.288653</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.374698</v>
+        <v>0.352203</v>
       </c>
       <c r="C122" t="n">
-        <v>0.522607</v>
+        <v>0.5005039999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>0.787525</v>
+        <v>0.776905</v>
       </c>
       <c r="E122" t="n">
-        <v>0.267438</v>
+        <v>0.256578</v>
       </c>
       <c r="F122" t="n">
-        <v>0.340711</v>
+        <v>0.324471</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.444609</v>
+        <v>0.418214</v>
       </c>
       <c r="C123" t="n">
-        <v>0.674119</v>
+        <v>0.616646</v>
       </c>
       <c r="D123" t="n">
-        <v>0.790245</v>
+        <v>0.813231</v>
       </c>
       <c r="E123" t="n">
-        <v>0.330624</v>
+        <v>0.292482</v>
       </c>
       <c r="F123" t="n">
-        <v>0.343089</v>
+        <v>0.314532</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.399856</v>
+        <v>0.346084</v>
       </c>
       <c r="C124" t="n">
-        <v>0.440166</v>
+        <v>0.402507</v>
       </c>
       <c r="D124" t="n">
-        <v>0.813933</v>
+        <v>0.82496</v>
       </c>
       <c r="E124" t="n">
-        <v>0.345578</v>
+        <v>0.291354</v>
       </c>
       <c r="F124" t="n">
-        <v>0.358561</v>
+        <v>0.328855</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.398308</v>
+        <v>0.366066</v>
       </c>
       <c r="C125" t="n">
-        <v>0.462076</v>
+        <v>0.413643</v>
       </c>
       <c r="D125" t="n">
-        <v>0.822761</v>
+        <v>0.84892</v>
       </c>
       <c r="E125" t="n">
-        <v>0.33267</v>
+        <v>0.294649</v>
       </c>
       <c r="F125" t="n">
-        <v>0.373368</v>
+        <v>0.327401</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.400187</v>
+        <v>0.362415</v>
       </c>
       <c r="C126" t="n">
-        <v>0.475814</v>
+        <v>0.418266</v>
       </c>
       <c r="D126" t="n">
-        <v>0.8501339999999999</v>
+        <v>0.87536</v>
       </c>
       <c r="E126" t="n">
-        <v>0.338347</v>
+        <v>0.295395</v>
       </c>
       <c r="F126" t="n">
-        <v>0.354802</v>
+        <v>0.330402</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.422033</v>
+        <v>0.377583</v>
       </c>
       <c r="C127" t="n">
-        <v>0.482843</v>
+        <v>0.426721</v>
       </c>
       <c r="D127" t="n">
-        <v>0.877123</v>
+        <v>0.90643</v>
       </c>
       <c r="E127" t="n">
-        <v>0.338125</v>
+        <v>0.30126</v>
       </c>
       <c r="F127" t="n">
-        <v>0.358883</v>
+        <v>0.333475</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.409319</v>
+        <v>0.364902</v>
       </c>
       <c r="C128" t="n">
-        <v>0.469371</v>
+        <v>0.452097</v>
       </c>
       <c r="D128" t="n">
-        <v>0.8967079999999999</v>
+        <v>0.9508760000000001</v>
       </c>
       <c r="E128" t="n">
-        <v>0.354009</v>
+        <v>0.306038</v>
       </c>
       <c r="F128" t="n">
-        <v>0.375252</v>
+        <v>0.352465</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.433098</v>
+        <v>0.386981</v>
       </c>
       <c r="C129" t="n">
-        <v>0.477288</v>
+        <v>0.441327</v>
       </c>
       <c r="D129" t="n">
-        <v>0.928729</v>
+        <v>0.95567</v>
       </c>
       <c r="E129" t="n">
-        <v>0.345346</v>
+        <v>0.309436</v>
       </c>
       <c r="F129" t="n">
-        <v>0.370824</v>
+        <v>0.345503</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.427923</v>
+        <v>0.392464</v>
       </c>
       <c r="C130" t="n">
-        <v>0.488445</v>
+        <v>0.457201</v>
       </c>
       <c r="D130" t="n">
-        <v>0.951325</v>
+        <v>0.996122</v>
       </c>
       <c r="E130" t="n">
-        <v>0.347508</v>
+        <v>0.315471</v>
       </c>
       <c r="F130" t="n">
-        <v>0.376708</v>
+        <v>0.348824</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.444059</v>
+        <v>0.384927</v>
       </c>
       <c r="C131" t="n">
-        <v>0.51084</v>
+        <v>0.511377</v>
       </c>
       <c r="D131" t="n">
-        <v>1.00112</v>
+        <v>1.01732</v>
       </c>
       <c r="E131" t="n">
-        <v>0.350162</v>
+        <v>0.312983</v>
       </c>
       <c r="F131" t="n">
-        <v>0.386799</v>
+        <v>0.359812</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.476045</v>
+        <v>0.396719</v>
       </c>
       <c r="C132" t="n">
-        <v>0.523489</v>
+        <v>0.491398</v>
       </c>
       <c r="D132" t="n">
-        <v>1.01147</v>
+        <v>1.0629</v>
       </c>
       <c r="E132" t="n">
-        <v>0.362887</v>
+        <v>0.316404</v>
       </c>
       <c r="F132" t="n">
-        <v>0.390782</v>
+        <v>0.372881</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.462009</v>
+        <v>0.408932</v>
       </c>
       <c r="C133" t="n">
-        <v>0.542502</v>
+        <v>0.522465</v>
       </c>
       <c r="D133" t="n">
-        <v>1.04946</v>
+        <v>1.06766</v>
       </c>
       <c r="E133" t="n">
-        <v>0.364649</v>
+        <v>0.353032</v>
       </c>
       <c r="F133" t="n">
-        <v>0.40597</v>
+        <v>0.377218</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.511184</v>
+        <v>0.440387</v>
       </c>
       <c r="C134" t="n">
-        <v>0.6022</v>
+        <v>0.543866</v>
       </c>
       <c r="D134" t="n">
-        <v>1.08559</v>
+        <v>1.12487</v>
       </c>
       <c r="E134" t="n">
-        <v>0.372014</v>
+        <v>0.350198</v>
       </c>
       <c r="F134" t="n">
-        <v>0.41837</v>
+        <v>0.408276</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.533694</v>
+        <v>0.474044</v>
       </c>
       <c r="C135" t="n">
-        <v>0.611522</v>
+        <v>0.5736</v>
       </c>
       <c r="D135" t="n">
-        <v>0.870289</v>
+        <v>0.9079159999999999</v>
       </c>
       <c r="E135" t="n">
-        <v>0.390295</v>
+        <v>0.351793</v>
       </c>
       <c r="F135" t="n">
-        <v>0.456828</v>
+        <v>0.412264</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.568846</v>
+        <v>0.515224</v>
       </c>
       <c r="C136" t="n">
-        <v>0.717697</v>
+        <v>0.6493409999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>0.903158</v>
+        <v>0.924123</v>
       </c>
       <c r="E136" t="n">
-        <v>0.406479</v>
+        <v>0.374151</v>
       </c>
       <c r="F136" t="n">
-        <v>0.473419</v>
+        <v>0.441413</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6503370000000001</v>
+        <v>0.607734</v>
       </c>
       <c r="C137" t="n">
-        <v>0.803397</v>
+        <v>0.754395</v>
       </c>
       <c r="D137" t="n">
-        <v>0.923652</v>
+        <v>0.978865</v>
       </c>
       <c r="E137" t="n">
-        <v>0.436606</v>
+        <v>0.358611</v>
       </c>
       <c r="F137" t="n">
-        <v>0.432081</v>
+        <v>0.38452</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.51845</v>
+        <v>0.444914</v>
       </c>
       <c r="C138" t="n">
-        <v>0.558188</v>
+        <v>0.502324</v>
       </c>
       <c r="D138" t="n">
-        <v>0.962515</v>
+        <v>0.9978630000000001</v>
       </c>
       <c r="E138" t="n">
-        <v>0.433773</v>
+        <v>0.363778</v>
       </c>
       <c r="F138" t="n">
-        <v>0.438232</v>
+        <v>0.403125</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.525559</v>
+        <v>0.438435</v>
       </c>
       <c r="C139" t="n">
-        <v>0.557289</v>
+        <v>0.515154</v>
       </c>
       <c r="D139" t="n">
-        <v>0.990742</v>
+        <v>1.04216</v>
       </c>
       <c r="E139" t="n">
-        <v>0.435265</v>
+        <v>0.370142</v>
       </c>
       <c r="F139" t="n">
-        <v>0.451689</v>
+        <v>0.39373</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.529294</v>
+        <v>0.444304</v>
       </c>
       <c r="C140" t="n">
-        <v>0.581328</v>
+        <v>0.512912</v>
       </c>
       <c r="D140" t="n">
-        <v>1.03375</v>
+        <v>1.07864</v>
       </c>
       <c r="E140" t="n">
-        <v>0.444011</v>
+        <v>0.379954</v>
       </c>
       <c r="F140" t="n">
-        <v>0.445738</v>
+        <v>0.39533</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.527011</v>
+        <v>0.457931</v>
       </c>
       <c r="C141" t="n">
-        <v>0.5749570000000001</v>
+        <v>0.5381629999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>1.07405</v>
+        <v>1.09636</v>
       </c>
       <c r="E141" t="n">
-        <v>0.444563</v>
+        <v>0.379945</v>
       </c>
       <c r="F141" t="n">
-        <v>0.450388</v>
+        <v>0.403452</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.54761</v>
+        <v>0.45353</v>
       </c>
       <c r="C142" t="n">
-        <v>0.582377</v>
+        <v>0.542041</v>
       </c>
       <c r="D142" t="n">
-        <v>1.09119</v>
+        <v>1.15504</v>
       </c>
       <c r="E142" t="n">
-        <v>0.449487</v>
+        <v>0.379378</v>
       </c>
       <c r="F142" t="n">
-        <v>0.463226</v>
+        <v>0.412566</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.549065</v>
+        <v>0.464827</v>
       </c>
       <c r="C143" t="n">
-        <v>0.595102</v>
+        <v>0.540422</v>
       </c>
       <c r="D143" t="n">
-        <v>1.14076</v>
+        <v>1.16875</v>
       </c>
       <c r="E143" t="n">
-        <v>0.458605</v>
+        <v>0.383036</v>
       </c>
       <c r="F143" t="n">
-        <v>0.466598</v>
+        <v>0.414438</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0588576</v>
+        <v>0.0509723</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0587914</v>
+        <v>0.0467812</v>
       </c>
       <c r="D2" t="n">
-        <v>0.163668</v>
+        <v>0.169275</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07161149999999999</v>
+        <v>0.0555709</v>
       </c>
       <c r="F2" t="n">
-        <v>0.061782</v>
+        <v>0.0548635</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0610321</v>
+        <v>0.046353</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0617208</v>
+        <v>0.0496657</v>
       </c>
       <c r="D3" t="n">
-        <v>0.16845</v>
+        <v>0.165052</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07179489999999999</v>
+        <v>0.07913729999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0624803</v>
+        <v>0.054275</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0628476</v>
+        <v>0.0496484</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06530039999999999</v>
+        <v>0.06495529999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.172459</v>
+        <v>0.166062</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0735172</v>
+        <v>0.0904611</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06618830000000001</v>
+        <v>0.0832012</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0716203</v>
+        <v>0.0919784</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07078660000000001</v>
+        <v>0.0573152</v>
       </c>
       <c r="D5" t="n">
-        <v>0.176768</v>
+        <v>0.25252</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07517020000000001</v>
+        <v>0.0891097</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0664714</v>
+        <v>0.08927209999999999</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0755411</v>
+        <v>0.0998083</v>
       </c>
       <c r="C6" t="n">
-        <v>0.078906</v>
+        <v>0.115396</v>
       </c>
       <c r="D6" t="n">
-        <v>0.181627</v>
+        <v>0.216458</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0803854</v>
+        <v>0.0978199</v>
       </c>
       <c r="F6" t="n">
-        <v>0.069578</v>
+        <v>0.109789</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0869318</v>
+        <v>0.134897</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0896922</v>
+        <v>0.182123</v>
       </c>
       <c r="D7" t="n">
-        <v>0.145911</v>
+        <v>0.216046</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08529109999999999</v>
+        <v>0.09315569999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0764784</v>
+        <v>0.114598</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.11033</v>
+        <v>0.21273</v>
       </c>
       <c r="C8" t="n">
-        <v>0.111831</v>
+        <v>0.179255</v>
       </c>
       <c r="D8" t="n">
-        <v>0.14995</v>
+        <v>0.201501</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0951767</v>
+        <v>0.13465</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0862332</v>
+        <v>0.0987319</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.152663</v>
+        <v>0.22427</v>
       </c>
       <c r="C9" t="n">
-        <v>0.144331</v>
+        <v>0.262052</v>
       </c>
       <c r="D9" t="n">
-        <v>0.154608</v>
+        <v>0.157968</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06929299999999999</v>
+        <v>0.046926</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0611498</v>
+        <v>0.07088079999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0571501</v>
+        <v>0.0789168</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0579957</v>
+        <v>0.0805212</v>
       </c>
       <c r="D10" t="n">
-        <v>0.160042</v>
+        <v>0.253115</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0706576</v>
+        <v>0.0782783</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06361700000000001</v>
+        <v>0.06407939999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0575356</v>
+        <v>0.0685579</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0586879</v>
+        <v>0.07331</v>
       </c>
       <c r="D11" t="n">
-        <v>0.164858</v>
+        <v>0.170402</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0699939</v>
+        <v>0.0489437</v>
       </c>
       <c r="F11" t="n">
-        <v>0.061743</v>
+        <v>0.0622835</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0580063</v>
+        <v>0.0408078</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0612389</v>
+        <v>0.0565901</v>
       </c>
       <c r="D12" t="n">
-        <v>0.168894</v>
+        <v>0.215956</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0703105</v>
+        <v>0.0843951</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0620595</v>
+        <v>0.0546052</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0610697</v>
+        <v>0.0523067</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0615691</v>
+        <v>0.0491333</v>
       </c>
       <c r="D13" t="n">
-        <v>0.178573</v>
+        <v>0.163037</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0705388</v>
+        <v>0.0725856</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0639996</v>
+        <v>0.09188109999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0604046</v>
+        <v>0.0970816</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0612324</v>
+        <v>0.07886310000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.182218</v>
+        <v>0.235433</v>
       </c>
       <c r="E14" t="n">
-        <v>0.07087010000000001</v>
+        <v>0.0991658</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0627495</v>
+        <v>0.0759261</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0620386</v>
+        <v>0.0780568</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0623966</v>
+        <v>0.0581038</v>
       </c>
       <c r="D15" t="n">
-        <v>0.185802</v>
+        <v>0.205854</v>
       </c>
       <c r="E15" t="n">
-        <v>0.07680439999999999</v>
+        <v>0.0867449</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0633176</v>
+        <v>0.0454399</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0619951</v>
+        <v>0.0681879</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0648883</v>
+        <v>0.101085</v>
       </c>
       <c r="D16" t="n">
-        <v>0.187332</v>
+        <v>0.258653</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0722507</v>
+        <v>0.0552301</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0645107</v>
+        <v>0.0650062</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06522029999999999</v>
+        <v>0.0541389</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0667672</v>
+        <v>0.113744</v>
       </c>
       <c r="D17" t="n">
-        <v>0.191842</v>
+        <v>0.362738</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0738605</v>
+        <v>0.0994573</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06758119999999999</v>
+        <v>0.0451557</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0695882</v>
+        <v>0.0566622</v>
       </c>
       <c r="C18" t="n">
-        <v>0.070422</v>
+        <v>0.0565703</v>
       </c>
       <c r="D18" t="n">
-        <v>0.196174</v>
+        <v>0.161499</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0789787</v>
+        <v>0.0471558</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0666672</v>
+        <v>0.0756394</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0735162</v>
+        <v>0.0628097</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0750941</v>
+        <v>0.114002</v>
       </c>
       <c r="D19" t="n">
-        <v>0.202408</v>
+        <v>0.183906</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08061219999999999</v>
+        <v>0.0844342</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0695981</v>
+        <v>0.0945059</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08029169999999999</v>
+        <v>0.129721</v>
       </c>
       <c r="C20" t="n">
-        <v>0.081469</v>
+        <v>0.132741</v>
       </c>
       <c r="D20" t="n">
-        <v>0.210753</v>
+        <v>0.374</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0802967</v>
+        <v>0.0689114</v>
       </c>
       <c r="F20" t="n">
-        <v>0.07249990000000001</v>
+        <v>0.115805</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0923214</v>
+        <v>0.181751</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09237860000000001</v>
+        <v>0.132005</v>
       </c>
       <c r="D21" t="n">
-        <v>0.157428</v>
+        <v>0.198518</v>
       </c>
       <c r="E21" t="n">
-        <v>0.08618679999999999</v>
+        <v>0.086967</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07814309999999999</v>
+        <v>0.117841</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.114218</v>
+        <v>0.235741</v>
       </c>
       <c r="C22" t="n">
-        <v>0.118101</v>
+        <v>0.196388</v>
       </c>
       <c r="D22" t="n">
-        <v>0.166122</v>
+        <v>0.270607</v>
       </c>
       <c r="E22" t="n">
-        <v>0.09685199999999999</v>
+        <v>0.129873</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0871662</v>
+        <v>0.0972841</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.140459</v>
+        <v>0.167358</v>
       </c>
       <c r="C23" t="n">
-        <v>0.142904</v>
+        <v>0.27457</v>
       </c>
       <c r="D23" t="n">
-        <v>0.171911</v>
+        <v>0.183707</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0728892</v>
+        <v>0.08302</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0634015</v>
+        <v>0.0451635</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0617442</v>
+        <v>0.0602237</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0644435</v>
+        <v>0.0740097</v>
       </c>
       <c r="D24" t="n">
-        <v>0.175008</v>
+        <v>0.276411</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0717936</v>
+        <v>0.0717829</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0635342</v>
+        <v>0.0808318</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0640442</v>
+        <v>0.0496419</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0644255</v>
+        <v>0.050082</v>
       </c>
       <c r="D25" t="n">
-        <v>0.179185</v>
+        <v>0.216624</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0707719</v>
+        <v>0.0505367</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0647392</v>
+        <v>0.069759</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0621327</v>
+        <v>0.05677</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0644348</v>
+        <v>0.0620134</v>
       </c>
       <c r="D26" t="n">
-        <v>0.187213</v>
+        <v>0.239435</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0713693</v>
+        <v>0.0421164</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0643266</v>
+        <v>0.0607066</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0622627</v>
+        <v>0.0753122</v>
       </c>
       <c r="C27" t="n">
-        <v>0.06579400000000001</v>
+        <v>0.09953960000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.194217</v>
+        <v>0.276023</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0724364</v>
+        <v>0.0688965</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0666556</v>
+        <v>0.060731</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.06340079999999999</v>
+        <v>0.0619964</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0696334</v>
+        <v>0.0870534</v>
       </c>
       <c r="D28" t="n">
-        <v>0.200317</v>
+        <v>0.235007</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0755701</v>
+        <v>0.07782650000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>0.06711689999999999</v>
+        <v>0.0824139</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0688304</v>
+        <v>0.0542519</v>
       </c>
       <c r="C29" t="n">
-        <v>0.06978760000000001</v>
+        <v>0.0708599</v>
       </c>
       <c r="D29" t="n">
-        <v>0.222639</v>
+        <v>0.222935</v>
       </c>
       <c r="E29" t="n">
-        <v>0.07338020000000001</v>
+        <v>0.0450496</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06727320000000001</v>
+        <v>0.053219</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.06858499999999999</v>
+        <v>0.0537038</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0713516</v>
+        <v>0.09157999999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.206378</v>
+        <v>0.183568</v>
       </c>
       <c r="E30" t="n">
-        <v>0.07311049999999999</v>
+        <v>0.0696618</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0678002</v>
+        <v>0.0499221</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0693346</v>
+        <v>0.0777279</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07819520000000001</v>
+        <v>0.0941502</v>
       </c>
       <c r="D31" t="n">
-        <v>0.212108</v>
+        <v>0.189792</v>
       </c>
       <c r="E31" t="n">
-        <v>0.07685740000000001</v>
+        <v>0.0570568</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0680523</v>
+        <v>0.08540209999999999</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0741409</v>
+        <v>0.0736612</v>
       </c>
       <c r="C32" t="n">
-        <v>0.075796</v>
+        <v>0.0711024</v>
       </c>
       <c r="D32" t="n">
-        <v>0.223383</v>
+        <v>0.239442</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0816306</v>
+        <v>0.0975323</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0700646</v>
+        <v>0.109575</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0756478</v>
+        <v>0.08341320000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0814829</v>
+        <v>0.133458</v>
       </c>
       <c r="D33" t="n">
-        <v>0.223586</v>
+        <v>0.27258</v>
       </c>
       <c r="E33" t="n">
-        <v>0.079053</v>
+        <v>0.07418569999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0729026</v>
+        <v>0.0900619</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08390060000000001</v>
+        <v>0.111774</v>
       </c>
       <c r="C34" t="n">
-        <v>0.08848399999999999</v>
+        <v>0.101336</v>
       </c>
       <c r="D34" t="n">
-        <v>0.247042</v>
+        <v>0.167922</v>
       </c>
       <c r="E34" t="n">
-        <v>0.08265069999999999</v>
+        <v>0.0735584</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0785851</v>
+        <v>0.09149889999999999</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0960965</v>
+        <v>0.130882</v>
       </c>
       <c r="C35" t="n">
-        <v>0.101891</v>
+        <v>0.191013</v>
       </c>
       <c r="D35" t="n">
-        <v>0.175403</v>
+        <v>0.278325</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0909961</v>
+        <v>0.1109</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0822478</v>
+        <v>0.0803344</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.114663</v>
+        <v>0.109741</v>
       </c>
       <c r="C36" t="n">
-        <v>0.11886</v>
+        <v>0.146736</v>
       </c>
       <c r="D36" t="n">
-        <v>0.189369</v>
+        <v>0.226923</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0977359</v>
+        <v>0.08428049999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>0.09647169999999999</v>
+        <v>0.0715513</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.143586</v>
+        <v>0.186186</v>
       </c>
       <c r="C37" t="n">
-        <v>0.142125</v>
+        <v>0.236236</v>
       </c>
       <c r="D37" t="n">
-        <v>0.190962</v>
+        <v>0.21213</v>
       </c>
       <c r="E37" t="n">
-        <v>0.07240679999999999</v>
+        <v>0.0431193</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06904299999999999</v>
+        <v>0.0466748</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0669237</v>
+        <v>0.0493835</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0715336</v>
+        <v>0.0636941</v>
       </c>
       <c r="D38" t="n">
-        <v>0.204688</v>
+        <v>0.169318</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0763808</v>
+        <v>0.0630986</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0732809</v>
+        <v>0.0568895</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.06850970000000001</v>
+        <v>0.0907179</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0782004</v>
+        <v>0.0525286</v>
       </c>
       <c r="D39" t="n">
-        <v>0.206651</v>
+        <v>0.218782</v>
       </c>
       <c r="E39" t="n">
-        <v>0.074793</v>
+        <v>0.0551396</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0726498</v>
+        <v>0.0598805</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.06810579999999999</v>
+        <v>0.0610564</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0752034</v>
+        <v>0.0773393</v>
       </c>
       <c r="D40" t="n">
-        <v>0.224145</v>
+        <v>0.228379</v>
       </c>
       <c r="E40" t="n">
-        <v>0.07477590000000001</v>
+        <v>0.0976572</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0697942</v>
+        <v>0.097959</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0705918</v>
+        <v>0.09987260000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0750021</v>
+        <v>0.102632</v>
       </c>
       <c r="D41" t="n">
-        <v>0.219616</v>
+        <v>0.319626</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0756699</v>
+        <v>0.0686597</v>
       </c>
       <c r="F41" t="n">
-        <v>0.07050629999999999</v>
+        <v>0.0478644</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0714095</v>
+        <v>0.0533275</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0768432</v>
+        <v>0.0561606</v>
       </c>
       <c r="D42" t="n">
-        <v>0.230004</v>
+        <v>0.3153</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0752675</v>
+        <v>0.06959460000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07292029999999999</v>
+        <v>0.0763958</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0719337</v>
+        <v>0.06549960000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0788391</v>
+        <v>0.0623015</v>
       </c>
       <c r="D43" t="n">
-        <v>0.243249</v>
+        <v>0.266107</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0780872</v>
+        <v>0.0491857</v>
       </c>
       <c r="F43" t="n">
-        <v>0.07135370000000001</v>
+        <v>0.0800901</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0721145</v>
+        <v>0.0971388</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0827171</v>
+        <v>0.10621</v>
       </c>
       <c r="D44" t="n">
-        <v>0.247083</v>
+        <v>0.303831</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0753513</v>
+        <v>0.0806636</v>
       </c>
       <c r="F44" t="n">
-        <v>0.072961</v>
+        <v>0.0748832</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0771893</v>
+        <v>0.105401</v>
       </c>
       <c r="C45" t="n">
-        <v>0.08879919999999999</v>
+        <v>0.12495</v>
       </c>
       <c r="D45" t="n">
-        <v>0.256208</v>
+        <v>0.264598</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0785148</v>
+        <v>0.0787055</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0759147</v>
+        <v>0.0783235</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.07926560000000001</v>
+        <v>0.0987203</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0886663</v>
+        <v>0.108567</v>
       </c>
       <c r="D46" t="n">
-        <v>0.266051</v>
+        <v>0.244585</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0801385</v>
+        <v>0.10849</v>
       </c>
       <c r="F46" t="n">
-        <v>0.07783859999999999</v>
+        <v>0.07832799999999999</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.081597</v>
+        <v>0.0606444</v>
       </c>
       <c r="C47" t="n">
-        <v>0.09628200000000001</v>
+        <v>0.09711350000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.275251</v>
+        <v>0.255652</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0828072</v>
+        <v>0.0674613</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0798378</v>
+        <v>0.085845</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0880595</v>
+        <v>0.0888336</v>
       </c>
       <c r="C48" t="n">
-        <v>0.103581</v>
+        <v>0.06649140000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.29098</v>
+        <v>0.246093</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0845095</v>
+        <v>0.0559663</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08364820000000001</v>
+        <v>0.0572919</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0981374</v>
+        <v>0.07834289999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.117855</v>
+        <v>0.0945532</v>
       </c>
       <c r="D49" t="n">
-        <v>0.310449</v>
+        <v>0.276173</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0931864</v>
+        <v>0.104979</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0891367</v>
+        <v>0.125987</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.120937</v>
+        <v>0.173486</v>
       </c>
       <c r="C50" t="n">
-        <v>0.128585</v>
+        <v>0.205668</v>
       </c>
       <c r="D50" t="n">
-        <v>0.221794</v>
+        <v>0.259625</v>
       </c>
       <c r="E50" t="n">
-        <v>0.100949</v>
+        <v>0.151218</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0977663</v>
+        <v>0.133833</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.142008</v>
+        <v>0.140752</v>
       </c>
       <c r="C51" t="n">
-        <v>0.155481</v>
+        <v>0.204168</v>
       </c>
       <c r="D51" t="n">
-        <v>0.22791</v>
+        <v>0.239735</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0785536</v>
+        <v>0.074277</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0777962</v>
+        <v>0.0936375</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.188929</v>
+        <v>0.289869</v>
       </c>
       <c r="C52" t="n">
-        <v>0.194668</v>
+        <v>0.262468</v>
       </c>
       <c r="D52" t="n">
-        <v>0.249181</v>
+        <v>0.268394</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0785252</v>
+        <v>0.07207620000000001</v>
       </c>
       <c r="F52" t="n">
-        <v>0.07658860000000001</v>
+        <v>0.0640106</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0814594</v>
+        <v>0.0737384</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0910176</v>
+        <v>0.0514078</v>
       </c>
       <c r="D53" t="n">
-        <v>0.254365</v>
+        <v>0.183727</v>
       </c>
       <c r="E53" t="n">
-        <v>0.07977330000000001</v>
+        <v>0.0712739</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0772045</v>
+        <v>0.07271420000000001</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.07800269999999999</v>
+        <v>0.0793867</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0922311</v>
+        <v>0.0747887</v>
       </c>
       <c r="D54" t="n">
-        <v>0.26841</v>
+        <v>0.271648</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0787931</v>
+        <v>0.0950681</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0785614</v>
+        <v>0.0787605</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0822942</v>
+        <v>0.0561497</v>
       </c>
       <c r="C55" t="n">
-        <v>0.097025</v>
+        <v>0.062214</v>
       </c>
       <c r="D55" t="n">
-        <v>0.275672</v>
+        <v>0.218445</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0798372</v>
+        <v>0.06611300000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0831969</v>
+        <v>0.0738375</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.08047360000000001</v>
+        <v>0.0507448</v>
       </c>
       <c r="C56" t="n">
-        <v>0.09523239999999999</v>
+        <v>0.07803019999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.298917</v>
+        <v>0.213999</v>
       </c>
       <c r="E56" t="n">
-        <v>0.081745</v>
+        <v>0.0510193</v>
       </c>
       <c r="F56" t="n">
-        <v>0.08106090000000001</v>
+        <v>0.0621615</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0832963</v>
+        <v>0.07410650000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.101481</v>
+        <v>0.0928416</v>
       </c>
       <c r="D57" t="n">
-        <v>0.311283</v>
+        <v>0.302383</v>
       </c>
       <c r="E57" t="n">
-        <v>0.08067630000000001</v>
+        <v>0.0819304</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0814131</v>
+        <v>0.0773118</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.08503910000000001</v>
+        <v>0.0784487</v>
       </c>
       <c r="C58" t="n">
-        <v>0.101308</v>
+        <v>0.0890353</v>
       </c>
       <c r="D58" t="n">
-        <v>0.327563</v>
+        <v>0.274917</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0830168</v>
+        <v>0.0711126</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0845881</v>
+        <v>0.07427</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.091775</v>
+        <v>0.0941878</v>
       </c>
       <c r="C59" t="n">
-        <v>0.104898</v>
+        <v>0.0878404</v>
       </c>
       <c r="D59" t="n">
-        <v>0.346289</v>
+        <v>0.351667</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0857048</v>
+        <v>0.0669739</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0885079</v>
+        <v>0.0595603</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.08986479999999999</v>
+        <v>0.0758016</v>
       </c>
       <c r="C60" t="n">
-        <v>0.109066</v>
+        <v>0.0780768</v>
       </c>
       <c r="D60" t="n">
-        <v>0.361857</v>
+        <v>0.275838</v>
       </c>
       <c r="E60" t="n">
-        <v>0.08711820000000001</v>
+        <v>0.0998695</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0867682</v>
+        <v>0.0845795</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0929765</v>
+        <v>0.117372</v>
       </c>
       <c r="C61" t="n">
-        <v>0.117015</v>
+        <v>0.0854895</v>
       </c>
       <c r="D61" t="n">
-        <v>0.378111</v>
+        <v>0.310745</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0877189</v>
+        <v>0.0808541</v>
       </c>
       <c r="F61" t="n">
-        <v>0.090381</v>
+        <v>0.0920493</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.101161</v>
+        <v>0.0983999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.124312</v>
+        <v>0.111183</v>
       </c>
       <c r="D62" t="n">
-        <v>0.42107</v>
+        <v>0.248961</v>
       </c>
       <c r="E62" t="n">
-        <v>0.09118660000000001</v>
+        <v>0.0686981</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0984669</v>
+        <v>0.0612586</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.110525</v>
+        <v>0.0983598</v>
       </c>
       <c r="C63" t="n">
-        <v>0.13438</v>
+        <v>0.138807</v>
       </c>
       <c r="D63" t="n">
-        <v>0.445575</v>
+        <v>0.291494</v>
       </c>
       <c r="E63" t="n">
-        <v>0.095857</v>
+        <v>0.092432</v>
       </c>
       <c r="F63" t="n">
-        <v>0.100761</v>
+        <v>0.075235</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.126067</v>
+        <v>0.100033</v>
       </c>
       <c r="C64" t="n">
-        <v>0.155637</v>
+        <v>0.196685</v>
       </c>
       <c r="D64" t="n">
-        <v>0.340358</v>
+        <v>0.222139</v>
       </c>
       <c r="E64" t="n">
-        <v>0.103748</v>
+        <v>0.11309</v>
       </c>
       <c r="F64" t="n">
-        <v>0.109101</v>
+        <v>0.0907959</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.149169</v>
+        <v>0.173221</v>
       </c>
       <c r="C65" t="n">
-        <v>0.183897</v>
+        <v>0.151002</v>
       </c>
       <c r="D65" t="n">
-        <v>0.357174</v>
+        <v>0.180435</v>
       </c>
       <c r="E65" t="n">
-        <v>0.117039</v>
+        <v>0.09324200000000001</v>
       </c>
       <c r="F65" t="n">
-        <v>0.124521</v>
+        <v>0.180284</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.190145</v>
+        <v>0.275158</v>
       </c>
       <c r="C66" t="n">
-        <v>0.235715</v>
+        <v>0.243776</v>
       </c>
       <c r="D66" t="n">
-        <v>0.386656</v>
+        <v>0.193741</v>
       </c>
       <c r="E66" t="n">
-        <v>0.08507339999999999</v>
+        <v>0.0902727</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0902438</v>
+        <v>0.0893994</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.08872190000000001</v>
+        <v>0.106669</v>
       </c>
       <c r="C67" t="n">
-        <v>0.107363</v>
+        <v>0.06822019999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.370296</v>
+        <v>0.309276</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0869375</v>
+        <v>0.07142660000000001</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0898661</v>
+        <v>0.0972102</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0888607</v>
+        <v>0.0611338</v>
       </c>
       <c r="C68" t="n">
-        <v>0.11166</v>
+        <v>0.084643</v>
       </c>
       <c r="D68" t="n">
-        <v>0.427978</v>
+        <v>0.199019</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0840516</v>
+        <v>0.0806798</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0868917</v>
+        <v>0.121355</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0911447</v>
+        <v>0.116307</v>
       </c>
       <c r="C69" t="n">
-        <v>0.114051</v>
+        <v>0.0920953</v>
       </c>
       <c r="D69" t="n">
-        <v>0.407554</v>
+        <v>0.26761</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0844121</v>
+        <v>0.0849432</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0887044</v>
+        <v>0.07692350000000001</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0940346</v>
+        <v>0.0956243</v>
       </c>
       <c r="C70" t="n">
-        <v>0.120047</v>
+        <v>0.09245780000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.439642</v>
+        <v>0.394633</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0866532</v>
+        <v>0.0678989</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0900934</v>
+        <v>0.0756492</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0940667</v>
+        <v>0.0742177</v>
       </c>
       <c r="C71" t="n">
-        <v>0.125418</v>
+        <v>0.0894881</v>
       </c>
       <c r="D71" t="n">
-        <v>0.49478</v>
+        <v>0.209771</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0872967</v>
+        <v>0.08634790000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>0.09313539999999999</v>
+        <v>0.114235</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0952939</v>
+        <v>0.0969394</v>
       </c>
       <c r="C72" t="n">
-        <v>0.126623</v>
+        <v>0.0746207</v>
       </c>
       <c r="D72" t="n">
-        <v>0.520189</v>
+        <v>0.219998</v>
       </c>
       <c r="E72" t="n">
-        <v>0.08823309999999999</v>
+        <v>0.08930250000000001</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09426909999999999</v>
+        <v>0.107804</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.102298</v>
+        <v>0.0726942</v>
       </c>
       <c r="C73" t="n">
-        <v>0.130373</v>
+        <v>0.106115</v>
       </c>
       <c r="D73" t="n">
-        <v>0.522276</v>
+        <v>0.275226</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0899802</v>
+        <v>0.110008</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0987325</v>
+        <v>0.122122</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.103635</v>
+        <v>0.118402</v>
       </c>
       <c r="C74" t="n">
-        <v>0.145554</v>
+        <v>0.107124</v>
       </c>
       <c r="D74" t="n">
-        <v>0.542954</v>
+        <v>0.216832</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0920093</v>
+        <v>0.07849059999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>0.107696</v>
+        <v>0.0886464</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.110443</v>
+        <v>0.0805565</v>
       </c>
       <c r="C75" t="n">
-        <v>0.150279</v>
+        <v>0.09328640000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.582589</v>
+        <v>0.311741</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0971882</v>
+        <v>0.0686495</v>
       </c>
       <c r="F75" t="n">
-        <v>0.108399</v>
+        <v>0.110416</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.122445</v>
+        <v>0.09759959999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.162186</v>
+        <v>0.120584</v>
       </c>
       <c r="D76" t="n">
-        <v>0.630094</v>
+        <v>0.268097</v>
       </c>
       <c r="E76" t="n">
-        <v>0.100411</v>
+        <v>0.06416139999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>0.112857</v>
+        <v>0.110604</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.130147</v>
+        <v>0.135839</v>
       </c>
       <c r="C77" t="n">
-        <v>0.166778</v>
+        <v>0.116018</v>
       </c>
       <c r="D77" t="n">
-        <v>0.607732</v>
+        <v>0.450816</v>
       </c>
       <c r="E77" t="n">
-        <v>0.104105</v>
+        <v>0.0949229</v>
       </c>
       <c r="F77" t="n">
-        <v>0.121131</v>
+        <v>0.146678</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.147385</v>
+        <v>0.150973</v>
       </c>
       <c r="C78" t="n">
-        <v>0.191433</v>
+        <v>0.17167</v>
       </c>
       <c r="D78" t="n">
-        <v>0.462924</v>
+        <v>0.275251</v>
       </c>
       <c r="E78" t="n">
-        <v>0.113781</v>
+        <v>0.0859193</v>
       </c>
       <c r="F78" t="n">
-        <v>0.133133</v>
+        <v>0.0969882</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.161755</v>
+        <v>0.196145</v>
       </c>
       <c r="C79" t="n">
-        <v>0.22639</v>
+        <v>0.159594</v>
       </c>
       <c r="D79" t="n">
-        <v>0.476193</v>
+        <v>0.360896</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1244</v>
+        <v>0.131837</v>
       </c>
       <c r="F79" t="n">
-        <v>0.143926</v>
+        <v>0.121054</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.204716</v>
+        <v>0.224894</v>
       </c>
       <c r="C80" t="n">
-        <v>0.286493</v>
+        <v>0.186613</v>
       </c>
       <c r="D80" t="n">
-        <v>0.516519</v>
+        <v>0.242044</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0907538</v>
+        <v>0.07715519999999999</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0977775</v>
+        <v>0.0747953</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0978487</v>
+        <v>0.0741299</v>
       </c>
       <c r="C81" t="n">
-        <v>0.133215</v>
+        <v>0.13322</v>
       </c>
       <c r="D81" t="n">
-        <v>0.567761</v>
+        <v>0.431595</v>
       </c>
       <c r="E81" t="n">
-        <v>0.09354750000000001</v>
+        <v>0.0955925</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09830220000000001</v>
+        <v>0.07665080000000001</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.102677</v>
+        <v>0.0930752</v>
       </c>
       <c r="C82" t="n">
-        <v>0.138795</v>
+        <v>0.105252</v>
       </c>
       <c r="D82" t="n">
-        <v>0.54433</v>
+        <v>0.366325</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0936953</v>
+        <v>0.0951475</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1004</v>
+        <v>0.0754712</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.104553</v>
+        <v>0.0964245</v>
       </c>
       <c r="C83" t="n">
-        <v>0.14101</v>
+        <v>0.142226</v>
       </c>
       <c r="D83" t="n">
-        <v>0.583158</v>
+        <v>0.331628</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0952959</v>
+        <v>0.07307760000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>0.101322</v>
+        <v>0.115582</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.105706</v>
+        <v>0.0956312</v>
       </c>
       <c r="C84" t="n">
-        <v>0.146466</v>
+        <v>0.127751</v>
       </c>
       <c r="D84" t="n">
-        <v>0.589917</v>
+        <v>0.41144</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0944868</v>
+        <v>0.116838</v>
       </c>
       <c r="F84" t="n">
-        <v>0.107894</v>
+        <v>0.08712590000000001</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.109003</v>
+        <v>0.122747</v>
       </c>
       <c r="C85" t="n">
-        <v>0.161394</v>
+        <v>0.103059</v>
       </c>
       <c r="D85" t="n">
-        <v>0.611007</v>
+        <v>0.399389</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0948344</v>
+        <v>0.0918595</v>
       </c>
       <c r="F85" t="n">
-        <v>0.115588</v>
+        <v>0.105101</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.113386</v>
+        <v>0.0977403</v>
       </c>
       <c r="C86" t="n">
-        <v>0.159774</v>
+        <v>0.131994</v>
       </c>
       <c r="D86" t="n">
-        <v>0.631049</v>
+        <v>0.461472</v>
       </c>
       <c r="E86" t="n">
-        <v>0.102018</v>
+        <v>0.099077</v>
       </c>
       <c r="F86" t="n">
-        <v>0.114529</v>
+        <v>0.116136</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.11914</v>
+        <v>0.0834276</v>
       </c>
       <c r="C87" t="n">
-        <v>0.168837</v>
+        <v>0.135884</v>
       </c>
       <c r="D87" t="n">
-        <v>0.658978</v>
+        <v>0.539065</v>
       </c>
       <c r="E87" t="n">
-        <v>0.103885</v>
+        <v>0.116434</v>
       </c>
       <c r="F87" t="n">
-        <v>0.122452</v>
+        <v>0.12528</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.124485</v>
+        <v>0.0845234</v>
       </c>
       <c r="C88" t="n">
-        <v>0.175303</v>
+        <v>0.145813</v>
       </c>
       <c r="D88" t="n">
-        <v>0.681492</v>
+        <v>0.478626</v>
       </c>
       <c r="E88" t="n">
-        <v>0.102585</v>
+        <v>0.08195280000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>0.120891</v>
+        <v>0.0811771</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.129288</v>
+        <v>0.141954</v>
       </c>
       <c r="C89" t="n">
-        <v>0.185904</v>
+        <v>0.190609</v>
       </c>
       <c r="D89" t="n">
-        <v>0.753103</v>
+        <v>0.51666</v>
       </c>
       <c r="E89" t="n">
-        <v>0.105593</v>
+        <v>0.123251</v>
       </c>
       <c r="F89" t="n">
-        <v>0.125987</v>
+        <v>0.122679</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.136587</v>
+        <v>0.157413</v>
       </c>
       <c r="C90" t="n">
-        <v>0.199525</v>
+        <v>0.193589</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7360989999999999</v>
+        <v>0.472177</v>
       </c>
       <c r="E90" t="n">
-        <v>0.111777</v>
+        <v>0.0834289</v>
       </c>
       <c r="F90" t="n">
-        <v>0.136098</v>
+        <v>0.0811915</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.14779</v>
+        <v>0.150086</v>
       </c>
       <c r="C91" t="n">
-        <v>0.21153</v>
+        <v>0.159018</v>
       </c>
       <c r="D91" t="n">
-        <v>0.761894</v>
+        <v>0.540425</v>
       </c>
       <c r="E91" t="n">
-        <v>0.123303</v>
+        <v>0.101364</v>
       </c>
       <c r="F91" t="n">
-        <v>0.146295</v>
+        <v>0.160765</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.169439</v>
+        <v>0.160133</v>
       </c>
       <c r="C92" t="n">
-        <v>0.244097</v>
+        <v>0.209204</v>
       </c>
       <c r="D92" t="n">
-        <v>0.629127</v>
+        <v>0.43151</v>
       </c>
       <c r="E92" t="n">
-        <v>0.127383</v>
+        <v>0.1292</v>
       </c>
       <c r="F92" t="n">
-        <v>0.154957</v>
+        <v>0.110016</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.193453</v>
+        <v>0.184538</v>
       </c>
       <c r="C93" t="n">
-        <v>0.280582</v>
+        <v>0.266986</v>
       </c>
       <c r="D93" t="n">
-        <v>0.6340170000000001</v>
+        <v>0.523098</v>
       </c>
       <c r="E93" t="n">
-        <v>0.140095</v>
+        <v>0.173822</v>
       </c>
       <c r="F93" t="n">
-        <v>0.17495</v>
+        <v>0.137685</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.227775</v>
+        <v>0.291559</v>
       </c>
       <c r="C94" t="n">
-        <v>0.325531</v>
+        <v>0.26795</v>
       </c>
       <c r="D94" t="n">
-        <v>0.622718</v>
+        <v>0.395009</v>
       </c>
       <c r="E94" t="n">
-        <v>0.107624</v>
+        <v>0.121607</v>
       </c>
       <c r="F94" t="n">
-        <v>0.127839</v>
+        <v>0.138027</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.130717</v>
+        <v>0.109942</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1822</v>
+        <v>0.160387</v>
       </c>
       <c r="D95" t="n">
-        <v>0.649402</v>
+        <v>0.480931</v>
       </c>
       <c r="E95" t="n">
-        <v>0.109331</v>
+        <v>0.0722129</v>
       </c>
       <c r="F95" t="n">
-        <v>0.130865</v>
+        <v>0.123894</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.13257</v>
+        <v>0.137138</v>
       </c>
       <c r="C96" t="n">
-        <v>0.186003</v>
+        <v>0.201995</v>
       </c>
       <c r="D96" t="n">
-        <v>0.675935</v>
+        <v>0.590724</v>
       </c>
       <c r="E96" t="n">
-        <v>0.11126</v>
+        <v>0.0932234</v>
       </c>
       <c r="F96" t="n">
-        <v>0.13802</v>
+        <v>0.142809</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.137736</v>
+        <v>0.135218</v>
       </c>
       <c r="C97" t="n">
-        <v>0.192622</v>
+        <v>0.1576</v>
       </c>
       <c r="D97" t="n">
-        <v>0.689672</v>
+        <v>0.505847</v>
       </c>
       <c r="E97" t="n">
-        <v>0.112354</v>
+        <v>0.0947615</v>
       </c>
       <c r="F97" t="n">
-        <v>0.135947</v>
+        <v>0.150074</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.137342</v>
+        <v>0.143745</v>
       </c>
       <c r="C98" t="n">
-        <v>0.19748</v>
+        <v>0.193096</v>
       </c>
       <c r="D98" t="n">
-        <v>0.728015</v>
+        <v>0.601504</v>
       </c>
       <c r="E98" t="n">
-        <v>0.114097</v>
+        <v>0.104273</v>
       </c>
       <c r="F98" t="n">
-        <v>0.142269</v>
+        <v>0.123115</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.147813</v>
+        <v>0.141479</v>
       </c>
       <c r="C99" t="n">
-        <v>0.207518</v>
+        <v>0.168416</v>
       </c>
       <c r="D99" t="n">
-        <v>0.733575</v>
+        <v>0.64595</v>
       </c>
       <c r="E99" t="n">
-        <v>0.116502</v>
+        <v>0.12022</v>
       </c>
       <c r="F99" t="n">
-        <v>0.145115</v>
+        <v>0.11703</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.14459</v>
+        <v>0.144356</v>
       </c>
       <c r="C100" t="n">
-        <v>0.208623</v>
+        <v>0.236989</v>
       </c>
       <c r="D100" t="n">
-        <v>0.793594</v>
+        <v>0.644794</v>
       </c>
       <c r="E100" t="n">
-        <v>0.118418</v>
+        <v>0.09126380000000001</v>
       </c>
       <c r="F100" t="n">
-        <v>0.146725</v>
+        <v>0.134356</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.148959</v>
+        <v>0.14884</v>
       </c>
       <c r="C101" t="n">
-        <v>0.216611</v>
+        <v>0.184119</v>
       </c>
       <c r="D101" t="n">
-        <v>0.774033</v>
+        <v>0.53163</v>
       </c>
       <c r="E101" t="n">
-        <v>0.123998</v>
+        <v>0.0923728</v>
       </c>
       <c r="F101" t="n">
-        <v>0.158333</v>
+        <v>0.124452</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.156686</v>
+        <v>0.138052</v>
       </c>
       <c r="C102" t="n">
-        <v>0.230491</v>
+        <v>0.226982</v>
       </c>
       <c r="D102" t="n">
-        <v>0.800244</v>
+        <v>0.690506</v>
       </c>
       <c r="E102" t="n">
-        <v>0.124413</v>
+        <v>0.112972</v>
       </c>
       <c r="F102" t="n">
-        <v>0.159479</v>
+        <v>0.13857</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.166695</v>
+        <v>0.196714</v>
       </c>
       <c r="C103" t="n">
-        <v>0.24086</v>
+        <v>0.230884</v>
       </c>
       <c r="D103" t="n">
-        <v>0.847181</v>
+        <v>0.652555</v>
       </c>
       <c r="E103" t="n">
-        <v>0.130028</v>
+        <v>0.12367</v>
       </c>
       <c r="F103" t="n">
-        <v>0.170573</v>
+        <v>0.193182</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.169031</v>
+        <v>0.187617</v>
       </c>
       <c r="C104" t="n">
-        <v>0.252058</v>
+        <v>0.272243</v>
       </c>
       <c r="D104" t="n">
-        <v>0.861917</v>
+        <v>0.7487740000000001</v>
       </c>
       <c r="E104" t="n">
-        <v>0.134337</v>
+        <v>0.11902</v>
       </c>
       <c r="F104" t="n">
-        <v>0.16818</v>
+        <v>0.213183</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.178985</v>
+        <v>0.224883</v>
       </c>
       <c r="C105" t="n">
-        <v>0.267718</v>
+        <v>0.268247</v>
       </c>
       <c r="D105" t="n">
-        <v>0.882349</v>
+        <v>0.783758</v>
       </c>
       <c r="E105" t="n">
-        <v>0.138058</v>
+        <v>0.14361</v>
       </c>
       <c r="F105" t="n">
-        <v>0.177258</v>
+        <v>0.148577</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.199021</v>
+        <v>0.198967</v>
       </c>
       <c r="C106" t="n">
-        <v>0.298213</v>
+        <v>0.277944</v>
       </c>
       <c r="D106" t="n">
-        <v>0.92086</v>
+        <v>0.682805</v>
       </c>
       <c r="E106" t="n">
-        <v>0.15364</v>
+        <v>0.127456</v>
       </c>
       <c r="F106" t="n">
-        <v>0.19109</v>
+        <v>0.147086</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.226357</v>
+        <v>0.271131</v>
       </c>
       <c r="C107" t="n">
-        <v>0.328631</v>
+        <v>0.345481</v>
       </c>
       <c r="D107" t="n">
-        <v>0.7422029999999999</v>
+        <v>0.508564</v>
       </c>
       <c r="E107" t="n">
-        <v>0.158806</v>
+        <v>0.209586</v>
       </c>
       <c r="F107" t="n">
-        <v>0.206744</v>
+        <v>0.211162</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.256857</v>
+        <v>0.332572</v>
       </c>
       <c r="C108" t="n">
-        <v>0.381838</v>
+        <v>0.47048</v>
       </c>
       <c r="D108" t="n">
-        <v>0.713184</v>
+        <v>0.620907</v>
       </c>
       <c r="E108" t="n">
-        <v>0.174317</v>
+        <v>0.127872</v>
       </c>
       <c r="F108" t="n">
-        <v>0.197665</v>
+        <v>0.140543</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.336426</v>
+        <v>0.367328</v>
       </c>
       <c r="C109" t="n">
-        <v>0.482154</v>
+        <v>0.455248</v>
       </c>
       <c r="D109" t="n">
-        <v>0.747505</v>
+        <v>0.606401</v>
       </c>
       <c r="E109" t="n">
-        <v>0.175868</v>
+        <v>0.119543</v>
       </c>
       <c r="F109" t="n">
-        <v>0.211262</v>
+        <v>0.17121</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.209626</v>
+        <v>0.194871</v>
       </c>
       <c r="C110" t="n">
-        <v>0.274639</v>
+        <v>0.240722</v>
       </c>
       <c r="D110" t="n">
-        <v>0.754464</v>
+        <v>0.759298</v>
       </c>
       <c r="E110" t="n">
-        <v>0.178922</v>
+        <v>0.13418</v>
       </c>
       <c r="F110" t="n">
-        <v>0.210042</v>
+        <v>0.168711</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.221554</v>
+        <v>0.147917</v>
       </c>
       <c r="C111" t="n">
-        <v>0.285327</v>
+        <v>0.246967</v>
       </c>
       <c r="D111" t="n">
-        <v>0.788931</v>
+        <v>0.548354</v>
       </c>
       <c r="E111" t="n">
-        <v>0.179908</v>
+        <v>0.107463</v>
       </c>
       <c r="F111" t="n">
-        <v>0.206681</v>
+        <v>0.159162</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.219696</v>
+        <v>0.177984</v>
       </c>
       <c r="C112" t="n">
-        <v>0.285757</v>
+        <v>0.239999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.802023</v>
+        <v>0.699834</v>
       </c>
       <c r="E112" t="n">
-        <v>0.179169</v>
+        <v>0.104381</v>
       </c>
       <c r="F112" t="n">
-        <v>0.215197</v>
+        <v>0.143532</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.226189</v>
+        <v>0.147693</v>
       </c>
       <c r="C113" t="n">
-        <v>0.313662</v>
+        <v>0.258872</v>
       </c>
       <c r="D113" t="n">
-        <v>0.829753</v>
+        <v>0.668308</v>
       </c>
       <c r="E113" t="n">
-        <v>0.182766</v>
+        <v>0.130361</v>
       </c>
       <c r="F113" t="n">
-        <v>0.216911</v>
+        <v>0.145067</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.225528</v>
+        <v>0.14708</v>
       </c>
       <c r="C114" t="n">
-        <v>0.303062</v>
+        <v>0.197796</v>
       </c>
       <c r="D114" t="n">
-        <v>0.955547</v>
+        <v>0.841701</v>
       </c>
       <c r="E114" t="n">
-        <v>0.1887</v>
+        <v>0.0960795</v>
       </c>
       <c r="F114" t="n">
-        <v>0.224565</v>
+        <v>0.146949</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.235092</v>
+        <v>0.19444</v>
       </c>
       <c r="C115" t="n">
-        <v>0.304754</v>
+        <v>0.234416</v>
       </c>
       <c r="D115" t="n">
-        <v>0.865911</v>
+        <v>0.7319639999999999</v>
       </c>
       <c r="E115" t="n">
-        <v>0.190856</v>
+        <v>0.114547</v>
       </c>
       <c r="F115" t="n">
-        <v>0.224119</v>
+        <v>0.18623</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.233275</v>
+        <v>0.226834</v>
       </c>
       <c r="C116" t="n">
-        <v>0.312151</v>
+        <v>0.229771</v>
       </c>
       <c r="D116" t="n">
-        <v>0.882046</v>
+        <v>0.915436</v>
       </c>
       <c r="E116" t="n">
-        <v>0.199655</v>
+        <v>0.154793</v>
       </c>
       <c r="F116" t="n">
-        <v>0.238571</v>
+        <v>0.143104</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.243729</v>
+        <v>0.212848</v>
       </c>
       <c r="C117" t="n">
-        <v>0.330962</v>
+        <v>0.259266</v>
       </c>
       <c r="D117" t="n">
-        <v>0.942203</v>
+        <v>0.919416</v>
       </c>
       <c r="E117" t="n">
-        <v>0.194085</v>
+        <v>0.155758</v>
       </c>
       <c r="F117" t="n">
-        <v>0.238716</v>
+        <v>0.14242</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.253174</v>
+        <v>0.164933</v>
       </c>
       <c r="C118" t="n">
-        <v>0.342868</v>
+        <v>0.283168</v>
       </c>
       <c r="D118" t="n">
-        <v>0.94035</v>
+        <v>0.809432</v>
       </c>
       <c r="E118" t="n">
-        <v>0.200389</v>
+        <v>0.117999</v>
       </c>
       <c r="F118" t="n">
-        <v>0.247718</v>
+        <v>0.182571</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.271161</v>
+        <v>0.199058</v>
       </c>
       <c r="C119" t="n">
-        <v>0.35777</v>
+        <v>0.277341</v>
       </c>
       <c r="D119" t="n">
-        <v>0.962965</v>
+        <v>0.963854</v>
       </c>
       <c r="E119" t="n">
-        <v>0.203315</v>
+        <v>0.182994</v>
       </c>
       <c r="F119" t="n">
-        <v>0.259719</v>
+        <v>0.204429</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.283076</v>
+        <v>0.275353</v>
       </c>
       <c r="C120" t="n">
-        <v>0.424331</v>
+        <v>0.280291</v>
       </c>
       <c r="D120" t="n">
-        <v>1.01114</v>
+        <v>0.967318</v>
       </c>
       <c r="E120" t="n">
-        <v>0.221752</v>
+        <v>0.188007</v>
       </c>
       <c r="F120" t="n">
-        <v>0.294644</v>
+        <v>0.148739</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.303473</v>
+        <v>0.220086</v>
       </c>
       <c r="C121" t="n">
-        <v>0.432231</v>
+        <v>0.307865</v>
       </c>
       <c r="D121" t="n">
-        <v>0.751119</v>
+        <v>0.751314</v>
       </c>
       <c r="E121" t="n">
-        <v>0.226977</v>
+        <v>0.20541</v>
       </c>
       <c r="F121" t="n">
-        <v>0.314136</v>
+        <v>0.241294</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.347197</v>
+        <v>0.314402</v>
       </c>
       <c r="C122" t="n">
-        <v>0.487059</v>
+        <v>0.434411</v>
       </c>
       <c r="D122" t="n">
-        <v>0.766646</v>
+        <v>0.796362</v>
       </c>
       <c r="E122" t="n">
-        <v>0.247186</v>
+        <v>0.240199</v>
       </c>
       <c r="F122" t="n">
-        <v>0.317666</v>
+        <v>0.217363</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.419404</v>
+        <v>0.343877</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5934469999999999</v>
+        <v>0.443226</v>
       </c>
       <c r="D123" t="n">
-        <v>0.795204</v>
+        <v>0.715253</v>
       </c>
       <c r="E123" t="n">
-        <v>0.283298</v>
+        <v>0.133948</v>
       </c>
       <c r="F123" t="n">
-        <v>0.323441</v>
+        <v>0.167566</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.345869</v>
+        <v>0.147488</v>
       </c>
       <c r="C124" t="n">
-        <v>0.403508</v>
+        <v>0.286782</v>
       </c>
       <c r="D124" t="n">
-        <v>0.812207</v>
+        <v>0.727658</v>
       </c>
       <c r="E124" t="n">
-        <v>0.287781</v>
+        <v>0.11504</v>
       </c>
       <c r="F124" t="n">
-        <v>0.316576</v>
+        <v>0.133591</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.350212</v>
+        <v>0.188328</v>
       </c>
       <c r="C125" t="n">
-        <v>0.418163</v>
+        <v>0.194849</v>
       </c>
       <c r="D125" t="n">
-        <v>0.940014</v>
+        <v>0.639593</v>
       </c>
       <c r="E125" t="n">
-        <v>0.296203</v>
+        <v>0.151755</v>
       </c>
       <c r="F125" t="n">
-        <v>0.325549</v>
+        <v>0.186525</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.362465</v>
+        <v>0.177757</v>
       </c>
       <c r="C126" t="n">
-        <v>0.417198</v>
+        <v>0.208629</v>
       </c>
       <c r="D126" t="n">
-        <v>0.848341</v>
+        <v>0.802807</v>
       </c>
       <c r="E126" t="n">
-        <v>0.298598</v>
+        <v>0.148157</v>
       </c>
       <c r="F126" t="n">
-        <v>0.322946</v>
+        <v>0.141267</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.37037</v>
+        <v>0.194762</v>
       </c>
       <c r="C127" t="n">
-        <v>0.447572</v>
+        <v>0.215273</v>
       </c>
       <c r="D127" t="n">
-        <v>0.889753</v>
+        <v>0.686018</v>
       </c>
       <c r="E127" t="n">
-        <v>0.293063</v>
+        <v>0.117961</v>
       </c>
       <c r="F127" t="n">
-        <v>0.32831</v>
+        <v>0.221677</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.367053</v>
+        <v>0.193361</v>
       </c>
       <c r="C128" t="n">
-        <v>0.432861</v>
+        <v>0.233801</v>
       </c>
       <c r="D128" t="n">
-        <v>0.896381</v>
+        <v>0.7344810000000001</v>
       </c>
       <c r="E128" t="n">
-        <v>0.307412</v>
+        <v>0.111071</v>
       </c>
       <c r="F128" t="n">
-        <v>0.331914</v>
+        <v>0.14872</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.369694</v>
+        <v>0.200078</v>
       </c>
       <c r="C129" t="n">
-        <v>0.446721</v>
+        <v>0.300592</v>
       </c>
       <c r="D129" t="n">
-        <v>0.952337</v>
+        <v>0.845951</v>
       </c>
       <c r="E129" t="n">
-        <v>0.313359</v>
+        <v>0.150792</v>
       </c>
       <c r="F129" t="n">
-        <v>0.338107</v>
+        <v>0.175441</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.382022</v>
+        <v>0.213325</v>
       </c>
       <c r="C130" t="n">
-        <v>0.481506</v>
+        <v>0.28168</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9741880000000001</v>
+        <v>0.821648</v>
       </c>
       <c r="E130" t="n">
-        <v>0.300929</v>
+        <v>0.160853</v>
       </c>
       <c r="F130" t="n">
-        <v>0.34304</v>
+        <v>0.21159</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.403495</v>
+        <v>0.21541</v>
       </c>
       <c r="C131" t="n">
-        <v>0.472697</v>
+        <v>0.264761</v>
       </c>
       <c r="D131" t="n">
-        <v>1.01582</v>
+        <v>0.931994</v>
       </c>
       <c r="E131" t="n">
-        <v>0.308407</v>
+        <v>0.174567</v>
       </c>
       <c r="F131" t="n">
-        <v>0.359125</v>
+        <v>0.205747</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.397309</v>
+        <v>0.230112</v>
       </c>
       <c r="C132" t="n">
-        <v>0.481937</v>
+        <v>0.33662</v>
       </c>
       <c r="D132" t="n">
-        <v>1.02914</v>
+        <v>0.952607</v>
       </c>
       <c r="E132" t="n">
-        <v>0.311328</v>
+        <v>0.174194</v>
       </c>
       <c r="F132" t="n">
-        <v>0.360354</v>
+        <v>0.210743</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.434428</v>
+        <v>0.210962</v>
       </c>
       <c r="C133" t="n">
-        <v>0.49434</v>
+        <v>0.346086</v>
       </c>
       <c r="D133" t="n">
-        <v>1.06359</v>
+        <v>0.975848</v>
       </c>
       <c r="E133" t="n">
-        <v>0.31543</v>
+        <v>0.159974</v>
       </c>
       <c r="F133" t="n">
-        <v>0.370003</v>
+        <v>0.208741</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.432779</v>
+        <v>0.272934</v>
       </c>
       <c r="C134" t="n">
-        <v>0.529903</v>
+        <v>0.356885</v>
       </c>
       <c r="D134" t="n">
-        <v>1.1054</v>
+        <v>1.00859</v>
       </c>
       <c r="E134" t="n">
-        <v>0.325951</v>
+        <v>0.19993</v>
       </c>
       <c r="F134" t="n">
-        <v>0.382091</v>
+        <v>0.238899</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.462286</v>
+        <v>0.330907</v>
       </c>
       <c r="C135" t="n">
-        <v>0.599248</v>
+        <v>0.370533</v>
       </c>
       <c r="D135" t="n">
-        <v>0.86963</v>
+        <v>0.687271</v>
       </c>
       <c r="E135" t="n">
-        <v>0.341087</v>
+        <v>0.177603</v>
       </c>
       <c r="F135" t="n">
-        <v>0.402678</v>
+        <v>0.270981</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.511864</v>
+        <v>0.287876</v>
       </c>
       <c r="C136" t="n">
-        <v>0.66781</v>
+        <v>0.395493</v>
       </c>
       <c r="D136" t="n">
-        <v>0.902679</v>
+        <v>0.761749</v>
       </c>
       <c r="E136" t="n">
-        <v>0.368415</v>
+        <v>0.179618</v>
       </c>
       <c r="F136" t="n">
-        <v>0.434216</v>
+        <v>0.289377</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.61364</v>
+        <v>0.346652</v>
       </c>
       <c r="C137" t="n">
-        <v>0.775023</v>
+        <v>0.485126</v>
       </c>
       <c r="D137" t="n">
-        <v>0.952039</v>
+        <v>0.679575</v>
       </c>
       <c r="E137" t="n">
-        <v>0.352032</v>
+        <v>0.2261</v>
       </c>
       <c r="F137" t="n">
-        <v>0.384274</v>
+        <v>0.238226</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.445544</v>
+        <v>0.311882</v>
       </c>
       <c r="C138" t="n">
-        <v>0.487555</v>
+        <v>0.333129</v>
       </c>
       <c r="D138" t="n">
-        <v>0.962843</v>
+        <v>0.7226900000000001</v>
       </c>
       <c r="E138" t="n">
-        <v>0.353238</v>
+        <v>0.193439</v>
       </c>
       <c r="F138" t="n">
-        <v>0.377463</v>
+        <v>0.306262</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.440319</v>
+        <v>0.275863</v>
       </c>
       <c r="C139" t="n">
-        <v>0.5056850000000001</v>
+        <v>0.351945</v>
       </c>
       <c r="D139" t="n">
-        <v>0.99612</v>
+        <v>0.820779</v>
       </c>
       <c r="E139" t="n">
-        <v>0.353963</v>
+        <v>0.217908</v>
       </c>
       <c r="F139" t="n">
-        <v>0.399399</v>
+        <v>0.284073</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.450597</v>
+        <v>0.263306</v>
       </c>
       <c r="C140" t="n">
-        <v>0.511916</v>
+        <v>0.329203</v>
       </c>
       <c r="D140" t="n">
-        <v>1.03646</v>
+        <v>0.823255</v>
       </c>
       <c r="E140" t="n">
-        <v>0.357918</v>
+        <v>0.256358</v>
       </c>
       <c r="F140" t="n">
-        <v>0.391339</v>
+        <v>0.255607</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.455332</v>
+        <v>0.32228</v>
       </c>
       <c r="C141" t="n">
-        <v>0.526127</v>
+        <v>0.383546</v>
       </c>
       <c r="D141" t="n">
-        <v>1.07672</v>
+        <v>0.8263200000000001</v>
       </c>
       <c r="E141" t="n">
-        <v>0.368225</v>
+        <v>0.239501</v>
       </c>
       <c r="F141" t="n">
-        <v>0.398652</v>
+        <v>0.240386</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.460361</v>
+        <v>0.289112</v>
       </c>
       <c r="C142" t="n">
-        <v>0.535177</v>
+        <v>0.32715</v>
       </c>
       <c r="D142" t="n">
-        <v>1.10104</v>
+        <v>0.8173319999999999</v>
       </c>
       <c r="E142" t="n">
-        <v>0.36292</v>
+        <v>0.231089</v>
       </c>
       <c r="F142" t="n">
-        <v>0.407511</v>
+        <v>0.243325</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.461156</v>
+        <v>0.280943</v>
       </c>
       <c r="C143" t="n">
-        <v>0.544897</v>
+        <v>0.382093</v>
       </c>
       <c r="D143" t="n">
-        <v>1.14604</v>
+        <v>0.881718</v>
       </c>
       <c r="E143" t="n">
-        <v>0.366409</v>
+        <v>0.232313</v>
       </c>
       <c r="F143" t="n">
-        <v>0.409125</v>
+        <v>0.250359</v>
       </c>
     </row>
   </sheetData>

--- a/vs-x86/Scattered unsuccessful looukp.xlsx
+++ b/vs-x86/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0509723</v>
+        <v>0.073328</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0467812</v>
+        <v>0.0578674</v>
       </c>
       <c r="D2" t="n">
-        <v>0.169275</v>
+        <v>0.172217</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0555709</v>
+        <v>0.0549429</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0548635</v>
+        <v>0.0742066</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.046353</v>
+        <v>0.0445652</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0496657</v>
+        <v>0.062364</v>
       </c>
       <c r="D3" t="n">
-        <v>0.165052</v>
+        <v>0.21756</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07913729999999999</v>
+        <v>0.0540909</v>
       </c>
       <c r="F3" t="n">
-        <v>0.054275</v>
+        <v>0.0749266</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0496484</v>
+        <v>0.058617</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06495529999999999</v>
+        <v>0.08586390000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.166062</v>
+        <v>0.207652</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0904611</v>
+        <v>0.0619613</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0832012</v>
+        <v>0.09553879999999999</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0919784</v>
+        <v>0.0704143</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0573152</v>
+        <v>0.0593405</v>
       </c>
       <c r="D5" t="n">
-        <v>0.25252</v>
+        <v>0.189022</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0891097</v>
+        <v>0.0656991</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08927209999999999</v>
+        <v>0.0560941</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0998083</v>
+        <v>0.07787819999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.115396</v>
+        <v>0.0708136</v>
       </c>
       <c r="D6" t="n">
-        <v>0.216458</v>
+        <v>0.223415</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0978199</v>
+        <v>0.06792380000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.109789</v>
+        <v>0.0739189</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.134897</v>
+        <v>0.158733</v>
       </c>
       <c r="C7" t="n">
-        <v>0.182123</v>
+        <v>0.153439</v>
       </c>
       <c r="D7" t="n">
-        <v>0.216046</v>
+        <v>0.200929</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09315569999999999</v>
+        <v>0.07480580000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.114598</v>
+        <v>0.09314310000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.21273</v>
+        <v>0.177375</v>
       </c>
       <c r="C8" t="n">
-        <v>0.179255</v>
+        <v>0.145135</v>
       </c>
       <c r="D8" t="n">
-        <v>0.201501</v>
+        <v>0.142479</v>
       </c>
       <c r="E8" t="n">
-        <v>0.13465</v>
+        <v>0.106403</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0987319</v>
+        <v>0.079273</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.22427</v>
+        <v>0.256564</v>
       </c>
       <c r="C9" t="n">
-        <v>0.262052</v>
+        <v>0.191512</v>
       </c>
       <c r="D9" t="n">
-        <v>0.157968</v>
+        <v>0.191113</v>
       </c>
       <c r="E9" t="n">
-        <v>0.046926</v>
+        <v>0.0575745</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07088079999999999</v>
+        <v>0.0367832</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0789168</v>
+        <v>0.0528041</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0805212</v>
+        <v>0.0417132</v>
       </c>
       <c r="D10" t="n">
-        <v>0.253115</v>
+        <v>0.230639</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0782783</v>
+        <v>0.06095</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06407939999999999</v>
+        <v>0.0551956</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0685579</v>
+        <v>0.0713705</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07331</v>
+        <v>0.072522</v>
       </c>
       <c r="D11" t="n">
-        <v>0.170402</v>
+        <v>0.161444</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0489437</v>
+        <v>0.0480917</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0622835</v>
+        <v>0.0554331</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0408078</v>
+        <v>0.0683595</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0565901</v>
+        <v>0.0677445</v>
       </c>
       <c r="D12" t="n">
-        <v>0.215956</v>
+        <v>0.249658</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0843951</v>
+        <v>0.0461542</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0546052</v>
+        <v>0.0510696</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0523067</v>
+        <v>0.0493408</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0491333</v>
+        <v>0.0543639</v>
       </c>
       <c r="D13" t="n">
-        <v>0.163037</v>
+        <v>0.161394</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0725856</v>
+        <v>0.0563409</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09188109999999999</v>
+        <v>0.061554</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0970816</v>
+        <v>0.0691514</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07886310000000001</v>
+        <v>0.0529211</v>
       </c>
       <c r="D14" t="n">
-        <v>0.235433</v>
+        <v>0.207774</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0991658</v>
+        <v>0.0712532</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0759261</v>
+        <v>0.0492292</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0780568</v>
+        <v>0.0671769</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0581038</v>
+        <v>0.0565532</v>
       </c>
       <c r="D15" t="n">
-        <v>0.205854</v>
+        <v>0.296145</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0867449</v>
+        <v>0.0801661</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0454399</v>
+        <v>0.0585427</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0681879</v>
+        <v>0.07012740000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.101085</v>
+        <v>0.0762202</v>
       </c>
       <c r="D16" t="n">
-        <v>0.258653</v>
+        <v>0.167657</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0552301</v>
+        <v>0.050097</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0650062</v>
+        <v>0.0620567</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0541389</v>
+        <v>0.09313490000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.113744</v>
+        <v>0.07329670000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.362738</v>
+        <v>0.214048</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0994573</v>
+        <v>0.0767965</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0451557</v>
+        <v>0.0900012</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0566622</v>
+        <v>0.06848319999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0565703</v>
+        <v>0.105868</v>
       </c>
       <c r="D18" t="n">
-        <v>0.161499</v>
+        <v>0.182575</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0471558</v>
+        <v>0.08587980000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0756394</v>
+        <v>0.0826196</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0628097</v>
+        <v>0.0740933</v>
       </c>
       <c r="C19" t="n">
-        <v>0.114002</v>
+        <v>0.0956815</v>
       </c>
       <c r="D19" t="n">
-        <v>0.183906</v>
+        <v>0.199272</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0844342</v>
+        <v>0.0600621</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0945059</v>
+        <v>0.06707249999999999</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.129721</v>
+        <v>0.0924528</v>
       </c>
       <c r="C20" t="n">
-        <v>0.132741</v>
+        <v>0.121804</v>
       </c>
       <c r="D20" t="n">
-        <v>0.374</v>
+        <v>0.259534</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0689114</v>
+        <v>0.08470419999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>0.115805</v>
+        <v>0.09776600000000001</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181751</v>
+        <v>0.0814464</v>
       </c>
       <c r="C21" t="n">
-        <v>0.132005</v>
+        <v>0.185682</v>
       </c>
       <c r="D21" t="n">
-        <v>0.198518</v>
+        <v>0.206198</v>
       </c>
       <c r="E21" t="n">
-        <v>0.086967</v>
+        <v>0.0606757</v>
       </c>
       <c r="F21" t="n">
-        <v>0.117841</v>
+        <v>0.0589449</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.235741</v>
+        <v>0.152902</v>
       </c>
       <c r="C22" t="n">
-        <v>0.196388</v>
+        <v>0.113402</v>
       </c>
       <c r="D22" t="n">
-        <v>0.270607</v>
+        <v>0.213412</v>
       </c>
       <c r="E22" t="n">
-        <v>0.129873</v>
+        <v>0.0912665</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0972841</v>
+        <v>0.0932047</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.167358</v>
+        <v>0.255295</v>
       </c>
       <c r="C23" t="n">
-        <v>0.27457</v>
+        <v>0.29903</v>
       </c>
       <c r="D23" t="n">
-        <v>0.183707</v>
+        <v>0.164311</v>
       </c>
       <c r="E23" t="n">
-        <v>0.08302</v>
+        <v>0.0437331</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0451635</v>
+        <v>0.0460571</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0602237</v>
+        <v>0.05499</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0740097</v>
+        <v>0.08403720000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.276411</v>
+        <v>0.203683</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0717829</v>
+        <v>0.07048</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0808318</v>
+        <v>0.06325699999999999</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0496419</v>
+        <v>0.0787336</v>
       </c>
       <c r="C25" t="n">
-        <v>0.050082</v>
+        <v>0.0564174</v>
       </c>
       <c r="D25" t="n">
-        <v>0.216624</v>
+        <v>0.178111</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0505367</v>
+        <v>0.0692044</v>
       </c>
       <c r="F25" t="n">
-        <v>0.069759</v>
+        <v>0.0462371</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05677</v>
+        <v>0.0518773</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0620134</v>
+        <v>0.0529361</v>
       </c>
       <c r="D26" t="n">
-        <v>0.239435</v>
+        <v>0.207012</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0421164</v>
+        <v>0.0467786</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0607066</v>
+        <v>0.0499896</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0753122</v>
+        <v>0.0824801</v>
       </c>
       <c r="C27" t="n">
-        <v>0.09953960000000001</v>
+        <v>0.0611565</v>
       </c>
       <c r="D27" t="n">
-        <v>0.276023</v>
+        <v>0.182861</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0688965</v>
+        <v>0.0562322</v>
       </c>
       <c r="F27" t="n">
-        <v>0.060731</v>
+        <v>0.0919357</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0619964</v>
+        <v>0.0720708</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0870534</v>
+        <v>0.072259</v>
       </c>
       <c r="D28" t="n">
-        <v>0.235007</v>
+        <v>0.192981</v>
       </c>
       <c r="E28" t="n">
-        <v>0.07782650000000001</v>
+        <v>0.0541321</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0824139</v>
+        <v>0.07786849999999999</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0542519</v>
+        <v>0.0886301</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0708599</v>
+        <v>0.0747018</v>
       </c>
       <c r="D29" t="n">
-        <v>0.222935</v>
+        <v>0.255011</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0450496</v>
+        <v>0.0553012</v>
       </c>
       <c r="F29" t="n">
-        <v>0.053219</v>
+        <v>0.0413847</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0537038</v>
+        <v>0.0651433</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09157999999999999</v>
+        <v>0.08586530000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.183568</v>
+        <v>0.270817</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0696618</v>
+        <v>0.0542113</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0499221</v>
+        <v>0.0808364</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0777279</v>
+        <v>0.07952330000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0941502</v>
+        <v>0.0813637</v>
       </c>
       <c r="D31" t="n">
-        <v>0.189792</v>
+        <v>0.254352</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0570568</v>
+        <v>0.0777674</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08540209999999999</v>
+        <v>0.0806562</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0736612</v>
+        <v>0.107736</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0711024</v>
+        <v>0.0778678</v>
       </c>
       <c r="D32" t="n">
-        <v>0.239442</v>
+        <v>0.197702</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0975323</v>
+        <v>0.0523475</v>
       </c>
       <c r="F32" t="n">
-        <v>0.109575</v>
+        <v>0.0642573</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.08341320000000001</v>
+        <v>0.12715</v>
       </c>
       <c r="C33" t="n">
-        <v>0.133458</v>
+        <v>0.130738</v>
       </c>
       <c r="D33" t="n">
-        <v>0.27258</v>
+        <v>0.358702</v>
       </c>
       <c r="E33" t="n">
-        <v>0.07418569999999999</v>
+        <v>0.0960419</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0900619</v>
+        <v>0.09590460000000001</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.111774</v>
+        <v>0.137584</v>
       </c>
       <c r="C34" t="n">
-        <v>0.101336</v>
+        <v>0.150354</v>
       </c>
       <c r="D34" t="n">
-        <v>0.167922</v>
+        <v>0.343731</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0735584</v>
+        <v>0.121404</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09149889999999999</v>
+        <v>0.104624</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.130882</v>
+        <v>0.171397</v>
       </c>
       <c r="C35" t="n">
-        <v>0.191013</v>
+        <v>0.178368</v>
       </c>
       <c r="D35" t="n">
-        <v>0.278325</v>
+        <v>0.252096</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1109</v>
+        <v>0.0792815</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0803344</v>
+        <v>0.111611</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.109741</v>
+        <v>0.186879</v>
       </c>
       <c r="C36" t="n">
-        <v>0.146736</v>
+        <v>0.203993</v>
       </c>
       <c r="D36" t="n">
-        <v>0.226923</v>
+        <v>0.295245</v>
       </c>
       <c r="E36" t="n">
-        <v>0.08428049999999999</v>
+        <v>0.159587</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0715513</v>
+        <v>0.132818</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.186186</v>
+        <v>0.236773</v>
       </c>
       <c r="C37" t="n">
-        <v>0.236236</v>
+        <v>0.270039</v>
       </c>
       <c r="D37" t="n">
-        <v>0.21213</v>
+        <v>0.239595</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0431193</v>
+        <v>0.0660766</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0466748</v>
+        <v>0.0875703</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0493835</v>
+        <v>0.086621</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0636941</v>
+        <v>0.103688</v>
       </c>
       <c r="D38" t="n">
-        <v>0.169318</v>
+        <v>0.288422</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0630986</v>
+        <v>0.096383</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0568895</v>
+        <v>0.0744165</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0907179</v>
+        <v>0.0846577</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0525286</v>
+        <v>0.073904</v>
       </c>
       <c r="D39" t="n">
-        <v>0.218782</v>
+        <v>0.207914</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0551396</v>
+        <v>0.0498238</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0598805</v>
+        <v>0.071545</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0610564</v>
+        <v>0.0741675</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0773393</v>
+        <v>0.0699048</v>
       </c>
       <c r="D40" t="n">
-        <v>0.228379</v>
+        <v>0.230961</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0976572</v>
+        <v>0.08178580000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>0.097959</v>
+        <v>0.0557541</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.09987260000000001</v>
+        <v>0.07482279999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.102632</v>
+        <v>0.0769213</v>
       </c>
       <c r="D41" t="n">
-        <v>0.319626</v>
+        <v>0.228599</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0686597</v>
+        <v>0.09172710000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0478644</v>
+        <v>0.0820097</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0533275</v>
+        <v>0.0642119</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0561606</v>
+        <v>0.082687</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3153</v>
+        <v>0.261946</v>
       </c>
       <c r="E42" t="n">
-        <v>0.06959460000000001</v>
+        <v>0.08781079999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0763958</v>
+        <v>0.0778956</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.06549960000000001</v>
+        <v>0.0556651</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0623015</v>
+        <v>0.0514611</v>
       </c>
       <c r="D43" t="n">
-        <v>0.266107</v>
+        <v>0.206719</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0491857</v>
+        <v>0.08529249999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0800901</v>
+        <v>0.0715952</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0971388</v>
+        <v>0.06472849999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.10621</v>
+        <v>0.0919768</v>
       </c>
       <c r="D44" t="n">
-        <v>0.303831</v>
+        <v>0.335251</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0806636</v>
+        <v>0.0571698</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0748832</v>
+        <v>0.0465875</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.105401</v>
+        <v>0.0690316</v>
       </c>
       <c r="C45" t="n">
-        <v>0.12495</v>
+        <v>0.0805815</v>
       </c>
       <c r="D45" t="n">
-        <v>0.264598</v>
+        <v>0.221764</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0787055</v>
+        <v>0.07544579999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0783235</v>
+        <v>0.0737565</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0987203</v>
+        <v>0.0849901</v>
       </c>
       <c r="C46" t="n">
-        <v>0.108567</v>
+        <v>0.07027</v>
       </c>
       <c r="D46" t="n">
-        <v>0.244585</v>
+        <v>0.198998</v>
       </c>
       <c r="E46" t="n">
-        <v>0.10849</v>
+        <v>0.0599821</v>
       </c>
       <c r="F46" t="n">
-        <v>0.07832799999999999</v>
+        <v>0.0494315</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0606444</v>
+        <v>0.0728524</v>
       </c>
       <c r="C47" t="n">
-        <v>0.09711350000000001</v>
+        <v>0.116362</v>
       </c>
       <c r="D47" t="n">
-        <v>0.255652</v>
+        <v>0.2855</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0674613</v>
+        <v>0.0611322</v>
       </c>
       <c r="F47" t="n">
-        <v>0.085845</v>
+        <v>0.0528202</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0888336</v>
+        <v>0.0625503</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06649140000000001</v>
+        <v>0.0877932</v>
       </c>
       <c r="D48" t="n">
-        <v>0.246093</v>
+        <v>0.327108</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0559663</v>
+        <v>0.0644894</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0572919</v>
+        <v>0.10067</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07834289999999999</v>
+        <v>0.109918</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0945532</v>
+        <v>0.0979463</v>
       </c>
       <c r="D49" t="n">
-        <v>0.276173</v>
+        <v>0.271145</v>
       </c>
       <c r="E49" t="n">
-        <v>0.104979</v>
+        <v>0.0848855</v>
       </c>
       <c r="F49" t="n">
-        <v>0.125987</v>
+        <v>0.0627683</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.173486</v>
+        <v>0.112945</v>
       </c>
       <c r="C50" t="n">
-        <v>0.205668</v>
+        <v>0.168851</v>
       </c>
       <c r="D50" t="n">
-        <v>0.259625</v>
+        <v>0.186111</v>
       </c>
       <c r="E50" t="n">
-        <v>0.151218</v>
+        <v>0.09046609999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>0.133833</v>
+        <v>0.146499</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.140752</v>
+        <v>0.222223</v>
       </c>
       <c r="C51" t="n">
-        <v>0.204168</v>
+        <v>0.205511</v>
       </c>
       <c r="D51" t="n">
-        <v>0.239735</v>
+        <v>0.282095</v>
       </c>
       <c r="E51" t="n">
-        <v>0.074277</v>
+        <v>0.069026</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0936375</v>
+        <v>0.0487147</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.289869</v>
+        <v>0.274553</v>
       </c>
       <c r="C52" t="n">
-        <v>0.262468</v>
+        <v>0.206699</v>
       </c>
       <c r="D52" t="n">
-        <v>0.268394</v>
+        <v>0.171744</v>
       </c>
       <c r="E52" t="n">
-        <v>0.07207620000000001</v>
+        <v>0.0464317</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0640106</v>
+        <v>0.07235999999999999</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0737384</v>
+        <v>0.0503601</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0514078</v>
+        <v>0.0510509</v>
       </c>
       <c r="D53" t="n">
-        <v>0.183727</v>
+        <v>0.215756</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0712739</v>
+        <v>0.0666843</v>
       </c>
       <c r="F53" t="n">
-        <v>0.07271420000000001</v>
+        <v>0.0698454</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0793867</v>
+        <v>0.0687159</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0747887</v>
+        <v>0.0705717</v>
       </c>
       <c r="D54" t="n">
-        <v>0.271648</v>
+        <v>0.151851</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0950681</v>
+        <v>0.0599759</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0787605</v>
+        <v>0.0485097</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0561497</v>
+        <v>0.059796</v>
       </c>
       <c r="C55" t="n">
-        <v>0.062214</v>
+        <v>0.0649549</v>
       </c>
       <c r="D55" t="n">
-        <v>0.218445</v>
+        <v>0.278219</v>
       </c>
       <c r="E55" t="n">
-        <v>0.06611300000000001</v>
+        <v>0.0566488</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0738375</v>
+        <v>0.0445673</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0507448</v>
+        <v>0.09820180000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.07803019999999999</v>
+        <v>0.0569785</v>
       </c>
       <c r="D56" t="n">
-        <v>0.213999</v>
+        <v>0.180521</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0510193</v>
+        <v>0.0444658</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0621615</v>
+        <v>0.0587761</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.07410650000000001</v>
+        <v>0.0716511</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0928416</v>
+        <v>0.1033</v>
       </c>
       <c r="D57" t="n">
-        <v>0.302383</v>
+        <v>0.252551</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0819304</v>
+        <v>0.0781435</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0773118</v>
+        <v>0.0529254</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0784487</v>
+        <v>0.046112</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0890353</v>
+        <v>0.0800317</v>
       </c>
       <c r="D58" t="n">
-        <v>0.274917</v>
+        <v>0.354134</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0711126</v>
+        <v>0.0484522</v>
       </c>
       <c r="F58" t="n">
-        <v>0.07427</v>
+        <v>0.0580564</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0941878</v>
+        <v>0.0909552</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0878404</v>
+        <v>0.0825115</v>
       </c>
       <c r="D59" t="n">
-        <v>0.351667</v>
+        <v>0.179426</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0669739</v>
+        <v>0.07246610000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0595603</v>
+        <v>0.0594058</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0758016</v>
+        <v>0.08495850000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0780768</v>
+        <v>0.06644269999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.275838</v>
+        <v>0.212836</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0998695</v>
+        <v>0.0573524</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0845795</v>
+        <v>0.09018139999999999</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.117372</v>
+        <v>0.08792129999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0854895</v>
+        <v>0.0703531</v>
       </c>
       <c r="D61" t="n">
-        <v>0.310745</v>
+        <v>0.226908</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0808541</v>
+        <v>0.08334370000000001</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0920493</v>
+        <v>0.094913</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0983999</v>
+        <v>0.0950344</v>
       </c>
       <c r="C62" t="n">
-        <v>0.111183</v>
+        <v>0.0844406</v>
       </c>
       <c r="D62" t="n">
-        <v>0.248961</v>
+        <v>0.287926</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0686981</v>
+        <v>0.089291</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0612586</v>
+        <v>0.0680795</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0983598</v>
+        <v>0.124935</v>
       </c>
       <c r="C63" t="n">
-        <v>0.138807</v>
+        <v>0.07497479999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.291494</v>
+        <v>0.336027</v>
       </c>
       <c r="E63" t="n">
-        <v>0.092432</v>
+        <v>0.09755519999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>0.075235</v>
+        <v>0.0696835</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.100033</v>
+        <v>0.137902</v>
       </c>
       <c r="C64" t="n">
-        <v>0.196685</v>
+        <v>0.189515</v>
       </c>
       <c r="D64" t="n">
-        <v>0.222139</v>
+        <v>0.310795</v>
       </c>
       <c r="E64" t="n">
-        <v>0.11309</v>
+        <v>0.13447</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0907959</v>
+        <v>0.152934</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.173221</v>
+        <v>0.230005</v>
       </c>
       <c r="C65" t="n">
-        <v>0.151002</v>
+        <v>0.253607</v>
       </c>
       <c r="D65" t="n">
-        <v>0.180435</v>
+        <v>0.301132</v>
       </c>
       <c r="E65" t="n">
-        <v>0.09324200000000001</v>
+        <v>0.146997</v>
       </c>
       <c r="F65" t="n">
-        <v>0.180284</v>
+        <v>0.191045</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.275158</v>
+        <v>0.287621</v>
       </c>
       <c r="C66" t="n">
-        <v>0.243776</v>
+        <v>0.317348</v>
       </c>
       <c r="D66" t="n">
-        <v>0.193741</v>
+        <v>0.292376</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0902727</v>
+        <v>0.0940607</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0893994</v>
+        <v>0.102354</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.106669</v>
+        <v>0.100893</v>
       </c>
       <c r="C67" t="n">
-        <v>0.06822019999999999</v>
+        <v>0.117122</v>
       </c>
       <c r="D67" t="n">
-        <v>0.309276</v>
+        <v>0.308372</v>
       </c>
       <c r="E67" t="n">
-        <v>0.07142660000000001</v>
+        <v>0.094654</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0972102</v>
+        <v>0.113597</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0611338</v>
+        <v>0.09483229999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.084643</v>
+        <v>0.127467</v>
       </c>
       <c r="D68" t="n">
-        <v>0.199019</v>
+        <v>0.354975</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0806798</v>
+        <v>0.0777114</v>
       </c>
       <c r="F68" t="n">
-        <v>0.121355</v>
+        <v>0.109782</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.116307</v>
+        <v>0.103917</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0920953</v>
+        <v>0.123389</v>
       </c>
       <c r="D69" t="n">
-        <v>0.26761</v>
+        <v>0.243271</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0849432</v>
+        <v>0.07653020000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>0.07692350000000001</v>
+        <v>0.103604</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0956243</v>
+        <v>0.120176</v>
       </c>
       <c r="C70" t="n">
-        <v>0.09245780000000001</v>
+        <v>0.129814</v>
       </c>
       <c r="D70" t="n">
-        <v>0.394633</v>
+        <v>0.31298</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0678989</v>
+        <v>0.0918819</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0756492</v>
+        <v>0.1103</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0742177</v>
+        <v>0.0929244</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0894881</v>
+        <v>0.118038</v>
       </c>
       <c r="D71" t="n">
-        <v>0.209771</v>
+        <v>0.362754</v>
       </c>
       <c r="E71" t="n">
-        <v>0.08634790000000001</v>
+        <v>0.103156</v>
       </c>
       <c r="F71" t="n">
-        <v>0.114235</v>
+        <v>0.117555</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0969394</v>
+        <v>0.119106</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0746207</v>
+        <v>0.129791</v>
       </c>
       <c r="D72" t="n">
-        <v>0.219998</v>
+        <v>0.394425</v>
       </c>
       <c r="E72" t="n">
-        <v>0.08930250000000001</v>
+        <v>0.093195</v>
       </c>
       <c r="F72" t="n">
-        <v>0.107804</v>
+        <v>0.0778686</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0726942</v>
+        <v>0.0695593</v>
       </c>
       <c r="C73" t="n">
-        <v>0.106115</v>
+        <v>0.118426</v>
       </c>
       <c r="D73" t="n">
-        <v>0.275226</v>
+        <v>0.300438</v>
       </c>
       <c r="E73" t="n">
-        <v>0.110008</v>
+        <v>0.0614728</v>
       </c>
       <c r="F73" t="n">
-        <v>0.122122</v>
+        <v>0.0858178</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.118402</v>
+        <v>0.0812027</v>
       </c>
       <c r="C74" t="n">
-        <v>0.107124</v>
+        <v>0.101114</v>
       </c>
       <c r="D74" t="n">
-        <v>0.216832</v>
+        <v>0.417342</v>
       </c>
       <c r="E74" t="n">
-        <v>0.07849059999999999</v>
+        <v>0.0849096</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0886464</v>
+        <v>0.07518909999999999</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0805565</v>
+        <v>0.098971</v>
       </c>
       <c r="C75" t="n">
-        <v>0.09328640000000001</v>
+        <v>0.10168</v>
       </c>
       <c r="D75" t="n">
-        <v>0.311741</v>
+        <v>0.309813</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0686495</v>
+        <v>0.0927419</v>
       </c>
       <c r="F75" t="n">
-        <v>0.110416</v>
+        <v>0.0838901</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.09759959999999999</v>
+        <v>0.0991985</v>
       </c>
       <c r="C76" t="n">
-        <v>0.120584</v>
+        <v>0.123197</v>
       </c>
       <c r="D76" t="n">
-        <v>0.268097</v>
+        <v>0.388436</v>
       </c>
       <c r="E76" t="n">
-        <v>0.06416139999999999</v>
+        <v>0.0892032</v>
       </c>
       <c r="F76" t="n">
-        <v>0.110604</v>
+        <v>0.119442</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.135839</v>
+        <v>0.151573</v>
       </c>
       <c r="C77" t="n">
-        <v>0.116018</v>
+        <v>0.162372</v>
       </c>
       <c r="D77" t="n">
-        <v>0.450816</v>
+        <v>0.327488</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0949229</v>
+        <v>0.09954200000000001</v>
       </c>
       <c r="F77" t="n">
-        <v>0.146678</v>
+        <v>0.0871239</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.150973</v>
+        <v>0.183615</v>
       </c>
       <c r="C78" t="n">
-        <v>0.17167</v>
+        <v>0.182991</v>
       </c>
       <c r="D78" t="n">
-        <v>0.275251</v>
+        <v>0.236183</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0859193</v>
+        <v>0.0942447</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0969882</v>
+        <v>0.134001</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.196145</v>
+        <v>0.240762</v>
       </c>
       <c r="C79" t="n">
-        <v>0.159594</v>
+        <v>0.21058</v>
       </c>
       <c r="D79" t="n">
-        <v>0.360896</v>
+        <v>0.358161</v>
       </c>
       <c r="E79" t="n">
-        <v>0.131837</v>
+        <v>0.174302</v>
       </c>
       <c r="F79" t="n">
-        <v>0.121054</v>
+        <v>0.133216</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.224894</v>
+        <v>0.226954</v>
       </c>
       <c r="C80" t="n">
-        <v>0.186613</v>
+        <v>0.26569</v>
       </c>
       <c r="D80" t="n">
-        <v>0.242044</v>
+        <v>0.309297</v>
       </c>
       <c r="E80" t="n">
-        <v>0.07715519999999999</v>
+        <v>0.0832529</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0747953</v>
+        <v>0.106966</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0741299</v>
+        <v>0.131252</v>
       </c>
       <c r="C81" t="n">
-        <v>0.13322</v>
+        <v>0.116457</v>
       </c>
       <c r="D81" t="n">
-        <v>0.431595</v>
+        <v>0.398259</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0955925</v>
+        <v>0.09712759999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>0.07665080000000001</v>
+        <v>0.105397</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0930752</v>
+        <v>0.08362509999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>0.105252</v>
+        <v>0.13887</v>
       </c>
       <c r="D82" t="n">
-        <v>0.366325</v>
+        <v>0.413333</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0951475</v>
+        <v>0.09591089999999999</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0754712</v>
+        <v>0.116176</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0964245</v>
+        <v>0.09602869999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>0.142226</v>
+        <v>0.134697</v>
       </c>
       <c r="D83" t="n">
-        <v>0.331628</v>
+        <v>0.411497</v>
       </c>
       <c r="E83" t="n">
-        <v>0.07307760000000001</v>
+        <v>0.0988758</v>
       </c>
       <c r="F83" t="n">
-        <v>0.115582</v>
+        <v>0.104207</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0956312</v>
+        <v>0.132251</v>
       </c>
       <c r="C84" t="n">
-        <v>0.127751</v>
+        <v>0.142222</v>
       </c>
       <c r="D84" t="n">
-        <v>0.41144</v>
+        <v>0.33779</v>
       </c>
       <c r="E84" t="n">
-        <v>0.116838</v>
+        <v>0.0823354</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08712590000000001</v>
+        <v>0.106641</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.122747</v>
+        <v>0.102488</v>
       </c>
       <c r="C85" t="n">
-        <v>0.103059</v>
+        <v>0.140905</v>
       </c>
       <c r="D85" t="n">
-        <v>0.399389</v>
+        <v>0.469737</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0918595</v>
+        <v>0.117284</v>
       </c>
       <c r="F85" t="n">
-        <v>0.105101</v>
+        <v>0.0803688</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0977403</v>
+        <v>0.130715</v>
       </c>
       <c r="C86" t="n">
-        <v>0.131994</v>
+        <v>0.162802</v>
       </c>
       <c r="D86" t="n">
-        <v>0.461472</v>
+        <v>0.471668</v>
       </c>
       <c r="E86" t="n">
-        <v>0.099077</v>
+        <v>0.110496</v>
       </c>
       <c r="F86" t="n">
-        <v>0.116136</v>
+        <v>0.116996</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0834276</v>
+        <v>0.144391</v>
       </c>
       <c r="C87" t="n">
-        <v>0.135884</v>
+        <v>0.1374</v>
       </c>
       <c r="D87" t="n">
-        <v>0.539065</v>
+        <v>0.519162</v>
       </c>
       <c r="E87" t="n">
-        <v>0.116434</v>
+        <v>0.0854724</v>
       </c>
       <c r="F87" t="n">
-        <v>0.12528</v>
+        <v>0.0837359</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0845234</v>
+        <v>0.124083</v>
       </c>
       <c r="C88" t="n">
-        <v>0.145813</v>
+        <v>0.132489</v>
       </c>
       <c r="D88" t="n">
-        <v>0.478626</v>
+        <v>0.36403</v>
       </c>
       <c r="E88" t="n">
-        <v>0.08195280000000001</v>
+        <v>0.0534697</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0811771</v>
+        <v>0.0859371</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.141954</v>
+        <v>0.101883</v>
       </c>
       <c r="C89" t="n">
-        <v>0.190609</v>
+        <v>0.1466</v>
       </c>
       <c r="D89" t="n">
-        <v>0.51666</v>
+        <v>0.406349</v>
       </c>
       <c r="E89" t="n">
-        <v>0.123251</v>
+        <v>0.07951419999999999</v>
       </c>
       <c r="F89" t="n">
-        <v>0.122679</v>
+        <v>0.131217</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.157413</v>
+        <v>0.143422</v>
       </c>
       <c r="C90" t="n">
-        <v>0.193589</v>
+        <v>0.138645</v>
       </c>
       <c r="D90" t="n">
-        <v>0.472177</v>
+        <v>0.393492</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0834289</v>
+        <v>0.0839806</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0811915</v>
+        <v>0.07034260000000001</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.150086</v>
+        <v>0.136308</v>
       </c>
       <c r="C91" t="n">
-        <v>0.159018</v>
+        <v>0.15785</v>
       </c>
       <c r="D91" t="n">
-        <v>0.540425</v>
+        <v>0.463707</v>
       </c>
       <c r="E91" t="n">
-        <v>0.101364</v>
+        <v>0.08603860000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>0.160765</v>
+        <v>0.08413909999999999</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.160133</v>
+        <v>0.155068</v>
       </c>
       <c r="C92" t="n">
-        <v>0.209204</v>
+        <v>0.234367</v>
       </c>
       <c r="D92" t="n">
-        <v>0.43151</v>
+        <v>0.334046</v>
       </c>
       <c r="E92" t="n">
-        <v>0.1292</v>
+        <v>0.0825026</v>
       </c>
       <c r="F92" t="n">
-        <v>0.110016</v>
+        <v>0.103951</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.184538</v>
+        <v>0.182911</v>
       </c>
       <c r="C93" t="n">
-        <v>0.266986</v>
+        <v>0.178629</v>
       </c>
       <c r="D93" t="n">
-        <v>0.523098</v>
+        <v>0.332048</v>
       </c>
       <c r="E93" t="n">
-        <v>0.173822</v>
+        <v>0.124099</v>
       </c>
       <c r="F93" t="n">
-        <v>0.137685</v>
+        <v>0.181554</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.291559</v>
+        <v>0.259544</v>
       </c>
       <c r="C94" t="n">
-        <v>0.26795</v>
+        <v>0.24316</v>
       </c>
       <c r="D94" t="n">
-        <v>0.395009</v>
+        <v>0.381598</v>
       </c>
       <c r="E94" t="n">
-        <v>0.121607</v>
+        <v>0.0707892</v>
       </c>
       <c r="F94" t="n">
-        <v>0.138027</v>
+        <v>0.07011630000000001</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.109942</v>
+        <v>0.0952093</v>
       </c>
       <c r="C95" t="n">
-        <v>0.160387</v>
+        <v>0.128249</v>
       </c>
       <c r="D95" t="n">
-        <v>0.480931</v>
+        <v>0.389285</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0722129</v>
+        <v>0.0527087</v>
       </c>
       <c r="F95" t="n">
-        <v>0.123894</v>
+        <v>0.070674</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.137138</v>
+        <v>0.0868346</v>
       </c>
       <c r="C96" t="n">
-        <v>0.201995</v>
+        <v>0.221472</v>
       </c>
       <c r="D96" t="n">
-        <v>0.590724</v>
+        <v>0.397166</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0932234</v>
+        <v>0.0857083</v>
       </c>
       <c r="F96" t="n">
-        <v>0.142809</v>
+        <v>0.159488</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.135218</v>
+        <v>0.176725</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1576</v>
+        <v>0.160892</v>
       </c>
       <c r="D97" t="n">
-        <v>0.505847</v>
+        <v>0.5178</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0947615</v>
+        <v>0.117694</v>
       </c>
       <c r="F97" t="n">
-        <v>0.150074</v>
+        <v>0.11211</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.143745</v>
+        <v>0.130641</v>
       </c>
       <c r="C98" t="n">
-        <v>0.193096</v>
+        <v>0.245508</v>
       </c>
       <c r="D98" t="n">
-        <v>0.601504</v>
+        <v>0.682783</v>
       </c>
       <c r="E98" t="n">
-        <v>0.104273</v>
+        <v>0.122282</v>
       </c>
       <c r="F98" t="n">
-        <v>0.123115</v>
+        <v>0.135633</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.141479</v>
+        <v>0.142259</v>
       </c>
       <c r="C99" t="n">
-        <v>0.168416</v>
+        <v>0.172483</v>
       </c>
       <c r="D99" t="n">
-        <v>0.64595</v>
+        <v>0.573715</v>
       </c>
       <c r="E99" t="n">
-        <v>0.12022</v>
+        <v>0.113331</v>
       </c>
       <c r="F99" t="n">
-        <v>0.11703</v>
+        <v>0.107506</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.144356</v>
+        <v>0.164252</v>
       </c>
       <c r="C100" t="n">
-        <v>0.236989</v>
+        <v>0.182617</v>
       </c>
       <c r="D100" t="n">
-        <v>0.644794</v>
+        <v>0.580796</v>
       </c>
       <c r="E100" t="n">
-        <v>0.09126380000000001</v>
+        <v>0.114488</v>
       </c>
       <c r="F100" t="n">
-        <v>0.134356</v>
+        <v>0.135599</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.14884</v>
+        <v>0.123199</v>
       </c>
       <c r="C101" t="n">
-        <v>0.184119</v>
+        <v>0.236769</v>
       </c>
       <c r="D101" t="n">
-        <v>0.53163</v>
+        <v>0.532581</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0923728</v>
+        <v>0.0785344</v>
       </c>
       <c r="F101" t="n">
-        <v>0.124452</v>
+        <v>0.111293</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.138052</v>
+        <v>0.190537</v>
       </c>
       <c r="C102" t="n">
-        <v>0.226982</v>
+        <v>0.218787</v>
       </c>
       <c r="D102" t="n">
-        <v>0.690506</v>
+        <v>0.611594</v>
       </c>
       <c r="E102" t="n">
-        <v>0.112972</v>
+        <v>0.0871873</v>
       </c>
       <c r="F102" t="n">
-        <v>0.13857</v>
+        <v>0.189302</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.196714</v>
+        <v>0.201552</v>
       </c>
       <c r="C103" t="n">
-        <v>0.230884</v>
+        <v>0.240031</v>
       </c>
       <c r="D103" t="n">
-        <v>0.652555</v>
+        <v>0.741443</v>
       </c>
       <c r="E103" t="n">
-        <v>0.12367</v>
+        <v>0.12599</v>
       </c>
       <c r="F103" t="n">
-        <v>0.193182</v>
+        <v>0.171774</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.187617</v>
+        <v>0.170415</v>
       </c>
       <c r="C104" t="n">
-        <v>0.272243</v>
+        <v>0.280547</v>
       </c>
       <c r="D104" t="n">
-        <v>0.7487740000000001</v>
+        <v>0.683142</v>
       </c>
       <c r="E104" t="n">
-        <v>0.11902</v>
+        <v>0.146634</v>
       </c>
       <c r="F104" t="n">
-        <v>0.213183</v>
+        <v>0.135915</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.224883</v>
+        <v>0.163127</v>
       </c>
       <c r="C105" t="n">
-        <v>0.268247</v>
+        <v>0.269066</v>
       </c>
       <c r="D105" t="n">
-        <v>0.783758</v>
+        <v>0.734239</v>
       </c>
       <c r="E105" t="n">
-        <v>0.14361</v>
+        <v>0.136698</v>
       </c>
       <c r="F105" t="n">
-        <v>0.148577</v>
+        <v>0.185618</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.198967</v>
+        <v>0.247583</v>
       </c>
       <c r="C106" t="n">
-        <v>0.277944</v>
+        <v>0.27238</v>
       </c>
       <c r="D106" t="n">
-        <v>0.682805</v>
+        <v>0.726929</v>
       </c>
       <c r="E106" t="n">
-        <v>0.127456</v>
+        <v>0.203776</v>
       </c>
       <c r="F106" t="n">
-        <v>0.147086</v>
+        <v>0.172202</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.271131</v>
+        <v>0.235183</v>
       </c>
       <c r="C107" t="n">
-        <v>0.345481</v>
+        <v>0.281042</v>
       </c>
       <c r="D107" t="n">
-        <v>0.508564</v>
+        <v>0.522147</v>
       </c>
       <c r="E107" t="n">
-        <v>0.209586</v>
+        <v>0.162733</v>
       </c>
       <c r="F107" t="n">
-        <v>0.211162</v>
+        <v>0.200142</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.332572</v>
+        <v>0.273956</v>
       </c>
       <c r="C108" t="n">
-        <v>0.47048</v>
+        <v>0.372164</v>
       </c>
       <c r="D108" t="n">
-        <v>0.620907</v>
+        <v>0.499912</v>
       </c>
       <c r="E108" t="n">
-        <v>0.127872</v>
+        <v>0.0827349</v>
       </c>
       <c r="F108" t="n">
-        <v>0.140543</v>
+        <v>0.113866</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.367328</v>
+        <v>0.281883</v>
       </c>
       <c r="C109" t="n">
-        <v>0.455248</v>
+        <v>0.478434</v>
       </c>
       <c r="D109" t="n">
-        <v>0.606401</v>
+        <v>0.657139</v>
       </c>
       <c r="E109" t="n">
-        <v>0.119543</v>
+        <v>0.120056</v>
       </c>
       <c r="F109" t="n">
-        <v>0.17121</v>
+        <v>0.118047</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.194871</v>
+        <v>0.176263</v>
       </c>
       <c r="C110" t="n">
-        <v>0.240722</v>
+        <v>0.240074</v>
       </c>
       <c r="D110" t="n">
-        <v>0.759298</v>
+        <v>0.733364</v>
       </c>
       <c r="E110" t="n">
-        <v>0.13418</v>
+        <v>0.11819</v>
       </c>
       <c r="F110" t="n">
-        <v>0.168711</v>
+        <v>0.126544</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.147917</v>
+        <v>0.167693</v>
       </c>
       <c r="C111" t="n">
-        <v>0.246967</v>
+        <v>0.19871</v>
       </c>
       <c r="D111" t="n">
-        <v>0.548354</v>
+        <v>0.626691</v>
       </c>
       <c r="E111" t="n">
-        <v>0.107463</v>
+        <v>0.120439</v>
       </c>
       <c r="F111" t="n">
-        <v>0.159162</v>
+        <v>0.172677</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.177984</v>
+        <v>0.197254</v>
       </c>
       <c r="C112" t="n">
-        <v>0.239999</v>
+        <v>0.208233</v>
       </c>
       <c r="D112" t="n">
-        <v>0.699834</v>
+        <v>0.634232</v>
       </c>
       <c r="E112" t="n">
-        <v>0.104381</v>
+        <v>0.11888</v>
       </c>
       <c r="F112" t="n">
-        <v>0.143532</v>
+        <v>0.118351</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.147693</v>
+        <v>0.128334</v>
       </c>
       <c r="C113" t="n">
-        <v>0.258872</v>
+        <v>0.220279</v>
       </c>
       <c r="D113" t="n">
-        <v>0.668308</v>
+        <v>0.690638</v>
       </c>
       <c r="E113" t="n">
-        <v>0.130361</v>
+        <v>0.131672</v>
       </c>
       <c r="F113" t="n">
-        <v>0.145067</v>
+        <v>0.15334</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.14708</v>
+        <v>0.164484</v>
       </c>
       <c r="C114" t="n">
-        <v>0.197796</v>
+        <v>0.2502</v>
       </c>
       <c r="D114" t="n">
-        <v>0.841701</v>
+        <v>0.846326</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0960795</v>
+        <v>0.134221</v>
       </c>
       <c r="F114" t="n">
-        <v>0.146949</v>
+        <v>0.172412</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.19444</v>
+        <v>0.183266</v>
       </c>
       <c r="C115" t="n">
-        <v>0.234416</v>
+        <v>0.276572</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7319639999999999</v>
+        <v>0.766505</v>
       </c>
       <c r="E115" t="n">
-        <v>0.114547</v>
+        <v>0.123415</v>
       </c>
       <c r="F115" t="n">
-        <v>0.18623</v>
+        <v>0.156574</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.226834</v>
+        <v>0.159811</v>
       </c>
       <c r="C116" t="n">
-        <v>0.229771</v>
+        <v>0.285074</v>
       </c>
       <c r="D116" t="n">
-        <v>0.915436</v>
+        <v>0.832575</v>
       </c>
       <c r="E116" t="n">
-        <v>0.154793</v>
+        <v>0.116616</v>
       </c>
       <c r="F116" t="n">
-        <v>0.143104</v>
+        <v>0.226066</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.212848</v>
+        <v>0.184179</v>
       </c>
       <c r="C117" t="n">
-        <v>0.259266</v>
+        <v>0.275258</v>
       </c>
       <c r="D117" t="n">
-        <v>0.919416</v>
+        <v>0.74309</v>
       </c>
       <c r="E117" t="n">
-        <v>0.155758</v>
+        <v>0.111595</v>
       </c>
       <c r="F117" t="n">
-        <v>0.14242</v>
+        <v>0.191396</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.164933</v>
+        <v>0.166578</v>
       </c>
       <c r="C118" t="n">
-        <v>0.283168</v>
+        <v>0.321467</v>
       </c>
       <c r="D118" t="n">
-        <v>0.809432</v>
+        <v>0.868265</v>
       </c>
       <c r="E118" t="n">
-        <v>0.117999</v>
+        <v>0.159879</v>
       </c>
       <c r="F118" t="n">
-        <v>0.182571</v>
+        <v>0.174271</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.199058</v>
+        <v>0.214203</v>
       </c>
       <c r="C119" t="n">
-        <v>0.277341</v>
+        <v>0.279099</v>
       </c>
       <c r="D119" t="n">
-        <v>0.963854</v>
+        <v>0.795285</v>
       </c>
       <c r="E119" t="n">
-        <v>0.182994</v>
+        <v>0.141318</v>
       </c>
       <c r="F119" t="n">
-        <v>0.204429</v>
+        <v>0.171593</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.275353</v>
+        <v>0.22494</v>
       </c>
       <c r="C120" t="n">
-        <v>0.280291</v>
+        <v>0.332661</v>
       </c>
       <c r="D120" t="n">
-        <v>0.967318</v>
+        <v>0.880869</v>
       </c>
       <c r="E120" t="n">
-        <v>0.188007</v>
+        <v>0.155546</v>
       </c>
       <c r="F120" t="n">
-        <v>0.148739</v>
+        <v>0.216351</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.220086</v>
+        <v>0.268726</v>
       </c>
       <c r="C121" t="n">
-        <v>0.307865</v>
+        <v>0.356991</v>
       </c>
       <c r="D121" t="n">
-        <v>0.751314</v>
+        <v>0.694438</v>
       </c>
       <c r="E121" t="n">
-        <v>0.20541</v>
+        <v>0.166931</v>
       </c>
       <c r="F121" t="n">
-        <v>0.241294</v>
+        <v>0.240828</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.314402</v>
+        <v>0.349889</v>
       </c>
       <c r="C122" t="n">
-        <v>0.434411</v>
+        <v>0.466607</v>
       </c>
       <c r="D122" t="n">
-        <v>0.796362</v>
+        <v>0.717177</v>
       </c>
       <c r="E122" t="n">
-        <v>0.240199</v>
+        <v>0.247175</v>
       </c>
       <c r="F122" t="n">
-        <v>0.217363</v>
+        <v>0.262094</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.343877</v>
+        <v>0.321293</v>
       </c>
       <c r="C123" t="n">
-        <v>0.443226</v>
+        <v>0.405749</v>
       </c>
       <c r="D123" t="n">
-        <v>0.715253</v>
+        <v>0.818623</v>
       </c>
       <c r="E123" t="n">
-        <v>0.133948</v>
+        <v>0.103908</v>
       </c>
       <c r="F123" t="n">
-        <v>0.167566</v>
+        <v>0.198454</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.147488</v>
+        <v>0.157965</v>
       </c>
       <c r="C124" t="n">
-        <v>0.286782</v>
+        <v>0.21716</v>
       </c>
       <c r="D124" t="n">
-        <v>0.727658</v>
+        <v>0.899494</v>
       </c>
       <c r="E124" t="n">
-        <v>0.11504</